--- a/アカウント登録　テストケース.xlsx
+++ b/アカウント登録　テストケース.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="240">
   <si>
     <t>単体テストケース</t>
     <rPh sb="0" eb="2">
@@ -2727,25 +2728,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>赤字でアカウント登録できませんでしたと表示され、DBに情報が登録されていない</t>
-    <rPh sb="0" eb="2">
-      <t>アカジ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ページ遷移</t>
     <rPh sb="3" eb="5">
       <t>センイ</t>
@@ -2940,19 +2922,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>赤字でエラーメッセージが表示される（URLはregist_complete.phpへ遷移している)</t>
-    <rPh sb="0" eb="2">
-      <t>アカジ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="42" eb="44">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>アカウント登録完了画面でTOPページへ戻るボタンを押下</t>
     <rPh sb="5" eb="7">
       <t>トウロク</t>
@@ -3078,7 +3047,28 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>入力した情報がDBに登録されている</t>
+    <t>トップページ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント登録ボタンを押下</t>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>総合テストケース</t>
+    <rPh sb="0" eb="2">
+      <t>ソウゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力した情報がDBに登録される</t>
     <rPh sb="0" eb="2">
       <t>ニュウリョク</t>
     </rPh>
@@ -3086,6 +3076,168 @@
       <t>ジョウホウ</t>
     </rPh>
     <rPh sb="10" eb="12">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>赤字でアカウント登録できませんでしたと表示され、DBに情報が登録されない</t>
+    <rPh sb="0" eb="2">
+      <t>アカジ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント登録</t>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>赤字でエラーメッセージが表示される（URLはregist_complete.phpへ遷移)</t>
+    <rPh sb="0" eb="2">
+      <t>アカジ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント登録確認画面</t>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力した情報を保持した状態でアカウント情報登録画面に遷移</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ホジ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DIブログTOPページに遷移</t>
+    <rPh sb="12" eb="14">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力内容の確認</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>各項目の横に入力した文字が表示されている</t>
+    <rPh sb="0" eb="3">
+      <t>カクコウモク</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ヨコ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>赤字でエラーメッセージが表示される（ページは遷移する）</t>
+    <rPh sb="0" eb="2">
+      <t>アカジ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DBと接続されていない状態で登録するボタンを押下</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DBに入力したアカウント情報が登録される</t>
+    <rPh sb="3" eb="5">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DBに入力したアカウント情報が登録されない</t>
+    <rPh sb="3" eb="5">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
       <t>トウロク</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -3126,7 +3278,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -3175,13 +3327,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3230,8 +3391,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3240,6 +3410,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3524,8 +3700,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J181"/>
   <sheetViews>
-    <sheetView topLeftCell="A130" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C129" activeCellId="9" sqref="C15:D20 C24:D25 C31:D31 C36:D36 C42:D43 C47:D48 C55:D56 C57:D62 C63:D65 C129:D132"/>
+    <sheetView topLeftCell="A133" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C141" sqref="C141:D141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3541,17 +3717,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18" t="s">
+      <c r="B1" s="21"/>
+      <c r="C1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="18"/>
+      <c r="E1" s="21"/>
       <c r="F1" s="4" t="s">
         <v>3</v>
       </c>
@@ -3560,11 +3736,11 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
+      <c r="A2" s="21"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
       <c r="F2" s="4" t="s">
         <v>4</v>
       </c>
@@ -3579,10 +3755,10 @@
       <c r="B4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="19"/>
+      <c r="D4" s="22"/>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
@@ -3609,9 +3785,10 @@
       <c r="B5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="23" t="s">
         <v>16</v>
       </c>
+      <c r="D5" s="23"/>
       <c r="E5" s="6" t="s">
         <v>120</v>
       </c>
@@ -3623,10 +3800,10 @@
       <c r="B6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="D6" s="16"/>
+      <c r="D6" s="18"/>
       <c r="E6" s="6" t="s">
         <v>121</v>
       </c>
@@ -3638,10 +3815,10 @@
       <c r="B7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="D7" s="16"/>
+      <c r="D7" s="18"/>
       <c r="E7" s="6" t="s">
         <v>121</v>
       </c>
@@ -3653,10 +3830,10 @@
       <c r="B8" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="D8" s="16"/>
+      <c r="D8" s="18"/>
       <c r="E8" s="6" t="s">
         <v>121</v>
       </c>
@@ -3668,10 +3845,10 @@
       <c r="B9" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="D9" s="17"/>
+      <c r="D9" s="20"/>
       <c r="E9" s="6" t="s">
         <v>121</v>
       </c>
@@ -3683,10 +3860,10 @@
       <c r="B10" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="D10" s="17"/>
+      <c r="D10" s="20"/>
       <c r="E10" s="6" t="s">
         <v>121</v>
       </c>
@@ -3698,10 +3875,10 @@
       <c r="B11" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="D11" s="17"/>
+      <c r="D11" s="20"/>
       <c r="E11" s="6" t="s">
         <v>121</v>
       </c>
@@ -3713,10 +3890,10 @@
       <c r="B12" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="D12" s="17"/>
+      <c r="D12" s="20"/>
       <c r="E12" s="6" t="s">
         <v>121</v>
       </c>
@@ -3728,10 +3905,10 @@
       <c r="B13" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="C13" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="D13" s="17"/>
+      <c r="D13" s="20"/>
       <c r="E13" s="6" t="s">
         <v>121</v>
       </c>
@@ -3743,10 +3920,10 @@
       <c r="B14" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C14" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="D14" s="17"/>
+      <c r="D14" s="20"/>
       <c r="E14" s="6" t="s">
         <v>121</v>
       </c>
@@ -3758,10 +3935,10 @@
       <c r="B15" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="15" t="s">
+      <c r="C15" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="15"/>
+      <c r="D15" s="19"/>
       <c r="E15" s="6" t="s">
         <v>122</v>
       </c>
@@ -3773,10 +3950,10 @@
       <c r="B16" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="15" t="s">
+      <c r="C16" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="15"/>
+      <c r="D16" s="19"/>
       <c r="E16" s="6" t="s">
         <v>122</v>
       </c>
@@ -3788,10 +3965,10 @@
       <c r="B17" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C17" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="15"/>
+      <c r="D17" s="19"/>
       <c r="E17" s="6" t="s">
         <v>122</v>
       </c>
@@ -3803,10 +3980,10 @@
       <c r="B18" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="16" t="s">
+      <c r="C18" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="15"/>
+      <c r="D18" s="19"/>
       <c r="E18" s="6" t="s">
         <v>122</v>
       </c>
@@ -3818,10 +3995,10 @@
       <c r="B19" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="16" t="s">
+      <c r="C19" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="15"/>
+      <c r="D19" s="19"/>
       <c r="E19" s="6" t="s">
         <v>122</v>
       </c>
@@ -3833,10 +4010,10 @@
       <c r="B20" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="16" t="s">
+      <c r="C20" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="D20" s="15"/>
+      <c r="D20" s="19"/>
       <c r="E20" s="6" t="s">
         <v>122</v>
       </c>
@@ -3848,10 +4025,10 @@
       <c r="B21" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="16" t="s">
+      <c r="C21" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="D21" s="15"/>
+      <c r="D21" s="19"/>
       <c r="E21" s="6" t="s">
         <v>167</v>
       </c>
@@ -3863,10 +4040,10 @@
       <c r="B22" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="16" t="s">
+      <c r="C22" s="18" t="s">
         <v>136</v>
       </c>
-      <c r="D22" s="15"/>
+      <c r="D22" s="19"/>
       <c r="E22" s="6" t="s">
         <v>167</v>
       </c>
@@ -3878,10 +4055,10 @@
       <c r="B23" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C23" s="16" t="s">
+      <c r="C23" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="D23" s="16"/>
+      <c r="D23" s="18"/>
       <c r="E23" s="6" t="s">
         <v>167</v>
       </c>
@@ -3893,10 +4070,10 @@
       <c r="B24" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C24" s="16" t="s">
+      <c r="C24" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="D24" s="15"/>
+      <c r="D24" s="19"/>
       <c r="E24" s="6" t="s">
         <v>122</v>
       </c>
@@ -3908,10 +4085,10 @@
       <c r="B25" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C25" s="16" t="s">
+      <c r="C25" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="D25" s="15"/>
+      <c r="D25" s="19"/>
       <c r="E25" s="6" t="s">
         <v>123</v>
       </c>
@@ -3923,10 +4100,10 @@
       <c r="B26" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C26" s="16" t="s">
+      <c r="C26" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="D26" s="15"/>
+      <c r="D26" s="19"/>
       <c r="E26" s="6" t="s">
         <v>167</v>
       </c>
@@ -3938,10 +4115,10 @@
       <c r="B27" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C27" s="16" t="s">
+      <c r="C27" s="18" t="s">
         <v>134</v>
       </c>
-      <c r="D27" s="15"/>
+      <c r="D27" s="19"/>
       <c r="E27" s="6" t="s">
         <v>167</v>
       </c>
@@ -3953,10 +4130,10 @@
       <c r="B28" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C28" s="16" t="s">
+      <c r="C28" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="D28" s="16"/>
+      <c r="D28" s="18"/>
       <c r="E28" s="6" t="s">
         <v>168</v>
       </c>
@@ -3968,10 +4145,10 @@
       <c r="B29" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C29" s="16" t="s">
+      <c r="C29" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="D29" s="15"/>
+      <c r="D29" s="19"/>
       <c r="E29" s="6" t="s">
         <v>167</v>
       </c>
@@ -3983,10 +4160,10 @@
       <c r="B30" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C30" s="16" t="s">
+      <c r="C30" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="D30" s="15"/>
+      <c r="D30" s="19"/>
       <c r="E30" s="6" t="s">
         <v>167</v>
       </c>
@@ -3998,10 +4175,10 @@
       <c r="B31" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C31" s="16" t="s">
+      <c r="C31" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="D31" s="15"/>
+      <c r="D31" s="19"/>
       <c r="E31" s="6" t="s">
         <v>122</v>
       </c>
@@ -4013,10 +4190,10 @@
       <c r="B32" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C32" s="16" t="s">
+      <c r="C32" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="D32" s="15"/>
+      <c r="D32" s="19"/>
       <c r="E32" s="6" t="s">
         <v>167</v>
       </c>
@@ -4028,10 +4205,10 @@
       <c r="B33" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C33" s="16" t="s">
+      <c r="C33" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="D33" s="16"/>
+      <c r="D33" s="18"/>
       <c r="E33" s="6" t="s">
         <v>167</v>
       </c>
@@ -4043,10 +4220,10 @@
       <c r="B34" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C34" s="16" t="s">
+      <c r="C34" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="D34" s="15"/>
+      <c r="D34" s="19"/>
       <c r="E34" s="6" t="s">
         <v>167</v>
       </c>
@@ -4058,10 +4235,10 @@
       <c r="B35" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C35" s="16" t="s">
+      <c r="C35" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="D35" s="15"/>
+      <c r="D35" s="19"/>
       <c r="E35" s="6" t="s">
         <v>167</v>
       </c>
@@ -4073,10 +4250,10 @@
       <c r="B36" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C36" s="16" t="s">
+      <c r="C36" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="D36" s="15"/>
+      <c r="D36" s="19"/>
       <c r="E36" s="6" t="s">
         <v>139</v>
       </c>
@@ -4088,10 +4265,10 @@
       <c r="B37" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C37" s="16" t="s">
+      <c r="C37" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="D37" s="15"/>
+      <c r="D37" s="19"/>
       <c r="E37" s="6" t="s">
         <v>169</v>
       </c>
@@ -4103,10 +4280,10 @@
       <c r="B38" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C38" s="16" t="s">
+      <c r="C38" s="18" t="s">
         <v>130</v>
       </c>
-      <c r="D38" s="16"/>
+      <c r="D38" s="18"/>
       <c r="E38" s="6" t="s">
         <v>169</v>
       </c>
@@ -4118,10 +4295,10 @@
       <c r="B39" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C39" s="16" t="s">
+      <c r="C39" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="D39" s="15"/>
+      <c r="D39" s="19"/>
       <c r="E39" s="6" t="s">
         <v>169</v>
       </c>
@@ -4133,10 +4310,10 @@
       <c r="B40" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C40" s="16" t="s">
+      <c r="C40" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="D40" s="15"/>
+      <c r="D40" s="19"/>
       <c r="E40" s="6" t="s">
         <v>169</v>
       </c>
@@ -4148,10 +4325,10 @@
       <c r="B41" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C41" s="16" t="s">
+      <c r="C41" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="D41" s="15"/>
+      <c r="D41" s="19"/>
       <c r="E41" s="6" t="s">
         <v>169</v>
       </c>
@@ -4163,10 +4340,10 @@
       <c r="B42" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C42" s="16" t="s">
+      <c r="C42" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="D42" s="15"/>
+      <c r="D42" s="19"/>
       <c r="E42" s="6" t="s">
         <v>122</v>
       </c>
@@ -4178,10 +4355,10 @@
       <c r="B43" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C43" s="16" t="s">
+      <c r="C43" s="18" t="s">
         <v>128</v>
       </c>
-      <c r="D43" s="16"/>
+      <c r="D43" s="18"/>
       <c r="E43" s="6" t="s">
         <v>124</v>
       </c>
@@ -4193,10 +4370,10 @@
       <c r="B44" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C44" s="16" t="s">
+      <c r="C44" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="D44" s="15"/>
+      <c r="D44" s="19"/>
       <c r="E44" s="6" t="s">
         <v>167</v>
       </c>
@@ -4208,10 +4385,10 @@
       <c r="B45" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C45" s="16" t="s">
+      <c r="C45" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="D45" s="15"/>
+      <c r="D45" s="19"/>
       <c r="E45" s="6" t="s">
         <v>167</v>
       </c>
@@ -4223,10 +4400,10 @@
       <c r="B46" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C46" s="16" t="s">
+      <c r="C46" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="D46" s="15"/>
+      <c r="D46" s="19"/>
       <c r="E46" s="6" t="s">
         <v>167</v>
       </c>
@@ -4238,10 +4415,10 @@
       <c r="B47" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C47" s="16" t="s">
+      <c r="C47" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="D47" s="15"/>
+      <c r="D47" s="19"/>
       <c r="E47" s="6" t="s">
         <v>122</v>
       </c>
@@ -4253,12 +4430,12 @@
       <c r="B48" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C48" s="16" t="s">
+      <c r="C48" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="D48" s="16"/>
-      <c r="E48" s="6" t="s">
-        <v>139</v>
+      <c r="D48" s="18"/>
+      <c r="E48" s="15" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
@@ -4268,10 +4445,10 @@
       <c r="B49" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C49" s="16" t="s">
+      <c r="C49" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="D49" s="15"/>
+      <c r="D49" s="19"/>
       <c r="E49" s="6" t="s">
         <v>167</v>
       </c>
@@ -4283,10 +4460,10 @@
       <c r="B50" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C50" s="16" t="s">
+      <c r="C50" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="D50" s="15"/>
+      <c r="D50" s="19"/>
       <c r="E50" s="6" t="s">
         <v>167</v>
       </c>
@@ -4298,10 +4475,10 @@
       <c r="B51" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C51" s="16" t="s">
+      <c r="C51" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="D51" s="15"/>
+      <c r="D51" s="19"/>
       <c r="E51" s="6" t="s">
         <v>167</v>
       </c>
@@ -4313,10 +4490,10 @@
       <c r="B52" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C52" s="16" t="s">
+      <c r="C52" s="18" t="s">
         <v>140</v>
       </c>
-      <c r="D52" s="16"/>
+      <c r="D52" s="18"/>
       <c r="E52" s="6" t="s">
         <v>139</v>
       </c>
@@ -4328,10 +4505,10 @@
       <c r="B53" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C53" s="16" t="s">
+      <c r="C53" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="D53" s="15"/>
+      <c r="D53" s="19"/>
       <c r="E53" s="6" t="s">
         <v>167</v>
       </c>
@@ -4343,10 +4520,10 @@
       <c r="B54" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C54" s="16" t="s">
+      <c r="C54" s="18" t="s">
         <v>137</v>
       </c>
-      <c r="D54" s="16"/>
+      <c r="D54" s="18"/>
       <c r="E54" s="6" t="s">
         <v>167</v>
       </c>
@@ -4358,10 +4535,10 @@
       <c r="B55" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C55" s="16" t="s">
+      <c r="C55" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="D55" s="15"/>
+      <c r="D55" s="19"/>
       <c r="E55" s="6" t="s">
         <v>122</v>
       </c>
@@ -4373,10 +4550,10 @@
       <c r="B56" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C56" s="16" t="s">
+      <c r="C56" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="D56" s="15"/>
+      <c r="D56" s="19"/>
       <c r="E56" s="6" t="s">
         <v>147</v>
       </c>
@@ -4388,10 +4565,10 @@
       <c r="B57" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C57" s="16" t="s">
+      <c r="C57" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="D57" s="15"/>
+      <c r="D57" s="19"/>
       <c r="E57" s="6" t="s">
         <v>122</v>
       </c>
@@ -4403,10 +4580,10 @@
       <c r="B58" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C58" s="16" t="s">
+      <c r="C58" s="18" t="s">
         <v>148</v>
       </c>
-      <c r="D58" s="15"/>
+      <c r="D58" s="19"/>
       <c r="E58" s="6" t="s">
         <v>152</v>
       </c>
@@ -4418,10 +4595,10 @@
       <c r="B59" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C59" s="16" t="s">
+      <c r="C59" s="18" t="s">
         <v>141</v>
       </c>
-      <c r="D59" s="16"/>
+      <c r="D59" s="18"/>
       <c r="E59" s="6" t="s">
         <v>122</v>
       </c>
@@ -4433,10 +4610,10 @@
       <c r="B60" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C60" s="16" t="s">
+      <c r="C60" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="D60" s="15"/>
+      <c r="D60" s="19"/>
       <c r="E60" s="6" t="s">
         <v>122</v>
       </c>
@@ -4448,10 +4625,10 @@
       <c r="B61" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C61" s="16" t="s">
+      <c r="C61" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="D61" s="15"/>
+      <c r="D61" s="19"/>
       <c r="E61" s="6" t="s">
         <v>153</v>
       </c>
@@ -4463,10 +4640,10 @@
       <c r="B62" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C62" s="16" t="s">
+      <c r="C62" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="D62" s="15"/>
+      <c r="D62" s="19"/>
       <c r="E62" s="6" t="s">
         <v>154</v>
       </c>
@@ -4478,10 +4655,10 @@
       <c r="B63" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C63" s="16" t="s">
+      <c r="C63" s="18" t="s">
         <v>149</v>
       </c>
-      <c r="D63" s="15"/>
+      <c r="D63" s="19"/>
       <c r="E63" s="6" t="s">
         <v>119</v>
       </c>
@@ -4493,10 +4670,10 @@
       <c r="B64" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C64" s="16" t="s">
+      <c r="C64" s="18" t="s">
         <v>142</v>
       </c>
-      <c r="D64" s="16"/>
+      <c r="D64" s="18"/>
       <c r="E64" s="6" t="s">
         <v>122</v>
       </c>
@@ -4508,10 +4685,10 @@
       <c r="B65" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C65" s="16" t="s">
+      <c r="C65" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="D65" s="15"/>
+      <c r="D65" s="19"/>
       <c r="E65" s="6" t="s">
         <v>122</v>
       </c>
@@ -4523,10 +4700,10 @@
       <c r="B66" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C66" s="15" t="s">
+      <c r="C66" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="D66" s="15"/>
+      <c r="D66" s="19"/>
       <c r="E66" s="6" t="s">
         <v>156</v>
       </c>
@@ -4538,10 +4715,10 @@
       <c r="B67" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C67" s="15" t="s">
+      <c r="C67" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="D67" s="15"/>
+      <c r="D67" s="19"/>
       <c r="E67" s="6" t="s">
         <v>157</v>
       </c>
@@ -4553,10 +4730,10 @@
       <c r="B68" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C68" s="15" t="s">
+      <c r="C68" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="D68" s="15"/>
+      <c r="D68" s="19"/>
       <c r="E68" s="6" t="s">
         <v>158</v>
       </c>
@@ -4568,10 +4745,10 @@
       <c r="B69" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C69" s="15" t="s">
+      <c r="C69" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="D69" s="15"/>
+      <c r="D69" s="19"/>
       <c r="E69" s="6" t="s">
         <v>159</v>
       </c>
@@ -4583,10 +4760,10 @@
       <c r="B70" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C70" s="15" t="s">
+      <c r="C70" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="D70" s="15"/>
+      <c r="D70" s="19"/>
       <c r="E70" s="6" t="s">
         <v>160</v>
       </c>
@@ -4598,10 +4775,10 @@
       <c r="B71" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C71" s="15" t="s">
+      <c r="C71" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="D71" s="15"/>
+      <c r="D71" s="19"/>
       <c r="E71" s="6" t="s">
         <v>161</v>
       </c>
@@ -4613,10 +4790,10 @@
       <c r="B72" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C72" s="15" t="s">
+      <c r="C72" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="D72" s="15"/>
+      <c r="D72" s="19"/>
       <c r="E72" s="6" t="s">
         <v>162</v>
       </c>
@@ -4628,10 +4805,10 @@
       <c r="B73" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C73" s="15" t="s">
+      <c r="C73" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="D73" s="15"/>
+      <c r="D73" s="19"/>
       <c r="E73" s="6" t="s">
         <v>163</v>
       </c>
@@ -4643,10 +4820,10 @@
       <c r="B74" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C74" s="16" t="s">
+      <c r="C74" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="D74" s="15"/>
+      <c r="D74" s="19"/>
       <c r="E74" s="6" t="s">
         <v>164</v>
       </c>
@@ -4658,10 +4835,10 @@
       <c r="B75" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C75" s="15" t="s">
+      <c r="C75" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="D75" s="15"/>
+      <c r="D75" s="19"/>
       <c r="E75" s="6" t="s">
         <v>165</v>
       </c>
@@ -4673,10 +4850,10 @@
       <c r="B76" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C76" s="16" t="s">
+      <c r="C76" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="D76" s="15"/>
+      <c r="D76" s="19"/>
       <c r="E76" s="6" t="s">
         <v>155</v>
       </c>
@@ -4688,10 +4865,10 @@
       <c r="B77" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C77" s="16" t="s">
+      <c r="C77" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="D77" s="15"/>
+      <c r="D77" s="19"/>
       <c r="E77" s="6" t="s">
         <v>155</v>
       </c>
@@ -4703,10 +4880,10 @@
       <c r="B78" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C78" s="16" t="s">
+      <c r="C78" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="D78" s="15"/>
+      <c r="D78" s="19"/>
       <c r="E78" s="6" t="s">
         <v>155</v>
       </c>
@@ -4718,10 +4895,10 @@
       <c r="B79" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C79" s="16" t="s">
+      <c r="C79" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="D79" s="15"/>
+      <c r="D79" s="19"/>
       <c r="E79" s="6" t="s">
         <v>155</v>
       </c>
@@ -4733,10 +4910,10 @@
       <c r="B80" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C80" s="16" t="s">
+      <c r="C80" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="D80" s="15"/>
+      <c r="D80" s="19"/>
       <c r="E80" s="6" t="s">
         <v>155</v>
       </c>
@@ -4748,10 +4925,10 @@
       <c r="B81" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C81" s="16" t="s">
+      <c r="C81" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="D81" s="15"/>
+      <c r="D81" s="19"/>
       <c r="E81" s="6" t="s">
         <v>155</v>
       </c>
@@ -4763,10 +4940,10 @@
       <c r="B82" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C82" s="16" t="s">
+      <c r="C82" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="D82" s="15"/>
+      <c r="D82" s="19"/>
       <c r="E82" s="6" t="s">
         <v>155</v>
       </c>
@@ -4778,10 +4955,10 @@
       <c r="B83" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C83" s="16" t="s">
+      <c r="C83" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="D83" s="15"/>
+      <c r="D83" s="19"/>
       <c r="E83" s="6" t="s">
         <v>155</v>
       </c>
@@ -4793,10 +4970,10 @@
       <c r="B84" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C84" s="16" t="s">
+      <c r="C84" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="D84" s="15"/>
+      <c r="D84" s="19"/>
       <c r="E84" s="6" t="s">
         <v>155</v>
       </c>
@@ -4808,10 +4985,10 @@
       <c r="B85" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C85" s="16" t="s">
+      <c r="C85" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="D85" s="15"/>
+      <c r="D85" s="19"/>
       <c r="E85" s="6" t="s">
         <v>155</v>
       </c>
@@ -4823,10 +5000,10 @@
       <c r="B86" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C86" s="16" t="s">
+      <c r="C86" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="D86" s="15"/>
+      <c r="D86" s="19"/>
       <c r="E86" s="6" t="s">
         <v>155</v>
       </c>
@@ -4838,10 +5015,10 @@
       <c r="B87" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C87" s="16" t="s">
+      <c r="C87" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="D87" s="15"/>
+      <c r="D87" s="19"/>
       <c r="E87" s="6" t="s">
         <v>155</v>
       </c>
@@ -4853,10 +5030,10 @@
       <c r="B88" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C88" s="16" t="s">
+      <c r="C88" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="D88" s="15"/>
+      <c r="D88" s="19"/>
       <c r="E88" s="6" t="s">
         <v>155</v>
       </c>
@@ -4868,10 +5045,10 @@
       <c r="B89" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C89" s="16" t="s">
+      <c r="C89" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="D89" s="15"/>
+      <c r="D89" s="19"/>
       <c r="E89" s="6" t="s">
         <v>155</v>
       </c>
@@ -4883,10 +5060,10 @@
       <c r="B90" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C90" s="16" t="s">
+      <c r="C90" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="D90" s="15"/>
+      <c r="D90" s="19"/>
       <c r="E90" s="6" t="s">
         <v>155</v>
       </c>
@@ -4898,10 +5075,10 @@
       <c r="B91" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C91" s="16" t="s">
+      <c r="C91" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="D91" s="15"/>
+      <c r="D91" s="19"/>
       <c r="E91" s="6" t="s">
         <v>155</v>
       </c>
@@ -4913,10 +5090,10 @@
       <c r="B92" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C92" s="16" t="s">
+      <c r="C92" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="D92" s="15"/>
+      <c r="D92" s="19"/>
       <c r="E92" s="6" t="s">
         <v>155</v>
       </c>
@@ -4928,10 +5105,10 @@
       <c r="B93" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C93" s="16" t="s">
+      <c r="C93" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="D93" s="15"/>
+      <c r="D93" s="19"/>
       <c r="E93" s="6" t="s">
         <v>155</v>
       </c>
@@ -4943,10 +5120,10 @@
       <c r="B94" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C94" s="16" t="s">
+      <c r="C94" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="D94" s="15"/>
+      <c r="D94" s="19"/>
       <c r="E94" s="6" t="s">
         <v>155</v>
       </c>
@@ -4958,10 +5135,10 @@
       <c r="B95" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C95" s="16" t="s">
+      <c r="C95" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="D95" s="15"/>
+      <c r="D95" s="19"/>
       <c r="E95" s="6" t="s">
         <v>155</v>
       </c>
@@ -4973,10 +5150,10 @@
       <c r="B96" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C96" s="16" t="s">
+      <c r="C96" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="D96" s="15"/>
+      <c r="D96" s="19"/>
       <c r="E96" s="6" t="s">
         <v>155</v>
       </c>
@@ -4988,10 +5165,10 @@
       <c r="B97" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C97" s="16" t="s">
+      <c r="C97" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="D97" s="15"/>
+      <c r="D97" s="19"/>
       <c r="E97" s="6" t="s">
         <v>155</v>
       </c>
@@ -5003,10 +5180,10 @@
       <c r="B98" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C98" s="16" t="s">
+      <c r="C98" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="D98" s="15"/>
+      <c r="D98" s="19"/>
       <c r="E98" s="6" t="s">
         <v>155</v>
       </c>
@@ -5018,10 +5195,10 @@
       <c r="B99" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C99" s="16" t="s">
+      <c r="C99" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="D99" s="15"/>
+      <c r="D99" s="19"/>
       <c r="E99" s="6" t="s">
         <v>155</v>
       </c>
@@ -5033,10 +5210,10 @@
       <c r="B100" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C100" s="16" t="s">
+      <c r="C100" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="D100" s="15"/>
+      <c r="D100" s="19"/>
       <c r="E100" s="6" t="s">
         <v>155</v>
       </c>
@@ -5048,10 +5225,10 @@
       <c r="B101" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C101" s="16" t="s">
+      <c r="C101" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="D101" s="15"/>
+      <c r="D101" s="19"/>
       <c r="E101" s="6" t="s">
         <v>155</v>
       </c>
@@ -5063,10 +5240,10 @@
       <c r="B102" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C102" s="16" t="s">
+      <c r="C102" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="D102" s="15"/>
+      <c r="D102" s="19"/>
       <c r="E102" s="6" t="s">
         <v>155</v>
       </c>
@@ -5078,10 +5255,10 @@
       <c r="B103" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C103" s="16" t="s">
+      <c r="C103" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="D103" s="15"/>
+      <c r="D103" s="19"/>
       <c r="E103" s="6" t="s">
         <v>155</v>
       </c>
@@ -5093,10 +5270,10 @@
       <c r="B104" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C104" s="16" t="s">
+      <c r="C104" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="D104" s="15"/>
+      <c r="D104" s="19"/>
       <c r="E104" s="6" t="s">
         <v>155</v>
       </c>
@@ -5108,10 +5285,10 @@
       <c r="B105" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C105" s="16" t="s">
+      <c r="C105" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="D105" s="15"/>
+      <c r="D105" s="19"/>
       <c r="E105" s="6" t="s">
         <v>155</v>
       </c>
@@ -5123,10 +5300,10 @@
       <c r="B106" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C106" s="16" t="s">
+      <c r="C106" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="D106" s="15"/>
+      <c r="D106" s="19"/>
       <c r="E106" s="6" t="s">
         <v>155</v>
       </c>
@@ -5138,10 +5315,10 @@
       <c r="B107" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C107" s="16" t="s">
+      <c r="C107" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="D107" s="15"/>
+      <c r="D107" s="19"/>
       <c r="E107" s="6" t="s">
         <v>155</v>
       </c>
@@ -5153,10 +5330,10 @@
       <c r="B108" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C108" s="16" t="s">
+      <c r="C108" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="D108" s="15"/>
+      <c r="D108" s="19"/>
       <c r="E108" s="6" t="s">
         <v>155</v>
       </c>
@@ -5168,10 +5345,10 @@
       <c r="B109" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C109" s="16" t="s">
+      <c r="C109" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="D109" s="15"/>
+      <c r="D109" s="19"/>
       <c r="E109" s="6" t="s">
         <v>155</v>
       </c>
@@ -5183,10 +5360,10 @@
       <c r="B110" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C110" s="16" t="s">
+      <c r="C110" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="D110" s="15"/>
+      <c r="D110" s="19"/>
       <c r="E110" s="6" t="s">
         <v>155</v>
       </c>
@@ -5198,10 +5375,10 @@
       <c r="B111" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C111" s="16" t="s">
+      <c r="C111" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="D111" s="15"/>
+      <c r="D111" s="19"/>
       <c r="E111" s="6" t="s">
         <v>155</v>
       </c>
@@ -5213,10 +5390,10 @@
       <c r="B112" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C112" s="15" t="s">
+      <c r="C112" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="D112" s="15"/>
+      <c r="D112" s="19"/>
       <c r="E112" s="6" t="s">
         <v>166</v>
       </c>
@@ -5228,10 +5405,10 @@
       <c r="B113" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C113" s="16" t="s">
+      <c r="C113" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="D113" s="15"/>
+      <c r="D113" s="19"/>
       <c r="E113" s="6" t="s">
         <v>167</v>
       </c>
@@ -5243,10 +5420,10 @@
       <c r="B114" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C114" s="16" t="s">
+      <c r="C114" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="D114" s="15"/>
+      <c r="D114" s="19"/>
       <c r="E114" s="6" t="s">
         <v>167</v>
       </c>
@@ -5258,10 +5435,10 @@
       <c r="B115" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C115" s="16" t="s">
+      <c r="C115" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="D115" s="15"/>
+      <c r="D115" s="19"/>
       <c r="E115" s="6" t="s">
         <v>167</v>
       </c>
@@ -5273,10 +5450,10 @@
       <c r="B116" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C116" s="16" t="s">
+      <c r="C116" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="D116" s="15"/>
+      <c r="D116" s="19"/>
       <c r="E116" s="6" t="s">
         <v>167</v>
       </c>
@@ -5288,10 +5465,10 @@
       <c r="B117" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C117" s="16" t="s">
+      <c r="C117" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="D117" s="15"/>
+      <c r="D117" s="19"/>
       <c r="E117" s="6" t="s">
         <v>167</v>
       </c>
@@ -5303,10 +5480,10 @@
       <c r="B118" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C118" s="16" t="s">
+      <c r="C118" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="D118" s="15"/>
+      <c r="D118" s="19"/>
       <c r="E118" s="6" t="s">
         <v>167</v>
       </c>
@@ -5318,10 +5495,10 @@
       <c r="B119" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C119" s="16" t="s">
+      <c r="C119" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="D119" s="15"/>
+      <c r="D119" s="19"/>
       <c r="E119" s="6" t="s">
         <v>167</v>
       </c>
@@ -5333,10 +5510,10 @@
       <c r="B120" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C120" s="16" t="s">
+      <c r="C120" s="18" t="s">
         <v>170</v>
       </c>
-      <c r="D120" s="15"/>
+      <c r="D120" s="19"/>
       <c r="E120" s="6" t="s">
         <v>167</v>
       </c>
@@ -5348,10 +5525,10 @@
       <c r="B121" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C121" s="16" t="s">
+      <c r="C121" s="18" t="s">
         <v>171</v>
       </c>
-      <c r="D121" s="15"/>
+      <c r="D121" s="19"/>
       <c r="E121" s="6" t="s">
         <v>167</v>
       </c>
@@ -5363,10 +5540,10 @@
       <c r="B122" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C122" s="16" t="s">
+      <c r="C122" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="D122" s="15"/>
+      <c r="D122" s="19"/>
       <c r="E122" s="6" t="s">
         <v>167</v>
       </c>
@@ -5378,10 +5555,10 @@
       <c r="B123" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C123" s="16" t="s">
+      <c r="C123" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="D123" s="15"/>
+      <c r="D123" s="19"/>
       <c r="E123" s="6" t="s">
         <v>167</v>
       </c>
@@ -5393,10 +5570,10 @@
       <c r="B124" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C124" s="16" t="s">
+      <c r="C124" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="D124" s="15"/>
+      <c r="D124" s="19"/>
       <c r="E124" s="6" t="s">
         <v>167</v>
       </c>
@@ -5408,10 +5585,10 @@
       <c r="B125" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C125" s="16" t="s">
+      <c r="C125" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="D125" s="15"/>
+      <c r="D125" s="19"/>
       <c r="E125" s="6" t="s">
         <v>167</v>
       </c>
@@ -5423,10 +5600,10 @@
       <c r="B126" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C126" s="16" t="s">
+      <c r="C126" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="D126" s="15"/>
+      <c r="D126" s="19"/>
       <c r="E126" s="6" t="s">
         <v>167</v>
       </c>
@@ -5438,10 +5615,10 @@
       <c r="B127" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C127" s="16" t="s">
+      <c r="C127" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="D127" s="15"/>
+      <c r="D127" s="19"/>
       <c r="E127" s="6" t="s">
         <v>167</v>
       </c>
@@ -5453,10 +5630,10 @@
       <c r="B128" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C128" s="16" t="s">
+      <c r="C128" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="D128" s="15"/>
+      <c r="D128" s="19"/>
       <c r="E128" s="6" t="s">
         <v>167</v>
       </c>
@@ -5468,10 +5645,10 @@
       <c r="B129" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C129" s="16" t="s">
+      <c r="C129" s="18" t="s">
         <v>172</v>
       </c>
-      <c r="D129" s="15"/>
+      <c r="D129" s="19"/>
       <c r="E129" s="6" t="s">
         <v>120</v>
       </c>
@@ -5483,10 +5660,10 @@
       <c r="B130" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C130" s="16" t="s">
+      <c r="C130" s="18" t="s">
         <v>173</v>
       </c>
-      <c r="D130" s="15"/>
+      <c r="D130" s="19"/>
       <c r="E130" s="6" t="s">
         <v>120</v>
       </c>
@@ -5498,10 +5675,10 @@
       <c r="B131" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C131" s="16" t="s">
+      <c r="C131" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="D131" s="15"/>
+      <c r="D131" s="19"/>
       <c r="E131" s="6" t="s">
         <v>120</v>
       </c>
@@ -5513,10 +5690,10 @@
       <c r="B132" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C132" s="16" t="s">
+      <c r="C132" s="18" t="s">
         <v>144</v>
       </c>
-      <c r="D132" s="15"/>
+      <c r="D132" s="19"/>
       <c r="E132" s="6" t="s">
         <v>120</v>
       </c>
@@ -5528,10 +5705,10 @@
       <c r="B133" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C133" s="16" t="s">
+      <c r="C133" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="D133" s="15"/>
+      <c r="D133" s="19"/>
       <c r="E133" s="6" t="s">
         <v>167</v>
       </c>
@@ -5543,10 +5720,10 @@
       <c r="B134" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C134" s="16" t="s">
+      <c r="C134" s="18" t="s">
         <v>146</v>
       </c>
-      <c r="D134" s="15"/>
+      <c r="D134" s="19"/>
       <c r="E134" s="6" t="s">
         <v>167</v>
       </c>
@@ -5558,10 +5735,10 @@
       <c r="B135" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C135" s="16" t="s">
+      <c r="C135" s="18" t="s">
         <v>151</v>
       </c>
-      <c r="D135" s="15"/>
+      <c r="D135" s="19"/>
       <c r="E135" s="6" t="s">
         <v>167</v>
       </c>
@@ -5573,10 +5750,10 @@
       <c r="B136" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C136" s="16" t="s">
+      <c r="C136" s="18" t="s">
         <v>150</v>
       </c>
-      <c r="D136" s="15"/>
+      <c r="D136" s="19"/>
       <c r="E136" s="6" t="s">
         <v>167</v>
       </c>
@@ -5588,10 +5765,10 @@
       <c r="B137" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C137" s="16" t="s">
+      <c r="C137" s="18" t="s">
         <v>174</v>
       </c>
-      <c r="D137" s="15"/>
+      <c r="D137" s="19"/>
       <c r="E137" s="6" t="s">
         <v>120</v>
       </c>
@@ -5603,10 +5780,10 @@
       <c r="B138" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C138" s="16" t="s">
+      <c r="C138" s="18" t="s">
         <v>175</v>
       </c>
-      <c r="D138" s="15"/>
+      <c r="D138" s="19"/>
       <c r="E138" s="6" t="s">
         <v>120</v>
       </c>
@@ -5618,10 +5795,10 @@
       <c r="B139" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="C139" s="15" t="s">
+      <c r="C139" s="19" t="s">
         <v>176</v>
       </c>
-      <c r="D139" s="15"/>
+      <c r="D139" s="19"/>
       <c r="E139" s="6" t="s">
         <v>179</v>
       </c>
@@ -5633,10 +5810,10 @@
       <c r="B140" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="C140" s="15" t="s">
+      <c r="C140" s="19" t="s">
         <v>177</v>
       </c>
-      <c r="D140" s="15"/>
+      <c r="D140" s="19"/>
       <c r="E140" s="6" t="s">
         <v>180</v>
       </c>
@@ -5648,10 +5825,10 @@
       <c r="B141" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="C141" s="15" t="s">
+      <c r="C141" s="19" t="s">
         <v>182</v>
       </c>
-      <c r="D141" s="15"/>
+      <c r="D141" s="19"/>
       <c r="E141" s="6" t="s">
         <v>183</v>
       </c>
@@ -5660,232 +5837,282 @@
       <c r="A142" s="3">
         <v>138</v>
       </c>
-      <c r="C142" s="15"/>
-      <c r="D142" s="15"/>
+      <c r="C142" s="19"/>
+      <c r="D142" s="19"/>
     </row>
     <row r="143" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A143" s="3">
         <v>139</v>
       </c>
-      <c r="C143" s="15"/>
-      <c r="D143" s="15"/>
+      <c r="C143" s="19"/>
+      <c r="D143" s="19"/>
     </row>
     <row r="144" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A144" s="3">
         <v>140</v>
       </c>
-      <c r="C144" s="15"/>
-      <c r="D144" s="15"/>
+      <c r="C144" s="19"/>
+      <c r="D144" s="19"/>
     </row>
     <row r="145" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A145" s="3">
         <v>141</v>
       </c>
-      <c r="C145" s="15"/>
-      <c r="D145" s="15"/>
+      <c r="C145" s="19"/>
+      <c r="D145" s="19"/>
     </row>
     <row r="146" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A146" s="3">
         <v>142</v>
       </c>
-      <c r="C146" s="15"/>
-      <c r="D146" s="15"/>
+      <c r="C146" s="19"/>
+      <c r="D146" s="19"/>
     </row>
     <row r="147" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C147" s="15"/>
-      <c r="D147" s="15"/>
+      <c r="C147" s="19"/>
+      <c r="D147" s="19"/>
     </row>
     <row r="148" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C148" s="15"/>
-      <c r="D148" s="15"/>
+      <c r="C148" s="19"/>
+      <c r="D148" s="19"/>
     </row>
     <row r="149" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C149" s="15"/>
-      <c r="D149" s="15"/>
+      <c r="C149" s="19"/>
+      <c r="D149" s="19"/>
     </row>
     <row r="150" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C150" s="15"/>
-      <c r="D150" s="15"/>
+      <c r="C150" s="19"/>
+      <c r="D150" s="19"/>
     </row>
     <row r="151" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C151" s="15"/>
-      <c r="D151" s="15"/>
+      <c r="C151" s="19"/>
+      <c r="D151" s="19"/>
     </row>
     <row r="152" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C152" s="15"/>
-      <c r="D152" s="15"/>
+      <c r="C152" s="19"/>
+      <c r="D152" s="19"/>
     </row>
     <row r="153" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C153" s="15"/>
-      <c r="D153" s="15"/>
+      <c r="C153" s="19"/>
+      <c r="D153" s="19"/>
     </row>
     <row r="154" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C154" s="15"/>
-      <c r="D154" s="15"/>
+      <c r="C154" s="19"/>
+      <c r="D154" s="19"/>
     </row>
     <row r="155" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C155" s="15"/>
-      <c r="D155" s="15"/>
+      <c r="C155" s="19"/>
+      <c r="D155" s="19"/>
     </row>
     <row r="156" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C156" s="15"/>
-      <c r="D156" s="15"/>
+      <c r="C156" s="19"/>
+      <c r="D156" s="19"/>
     </row>
     <row r="157" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C157" s="15"/>
-      <c r="D157" s="15"/>
+      <c r="C157" s="19"/>
+      <c r="D157" s="19"/>
     </row>
     <row r="158" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C158" s="15"/>
-      <c r="D158" s="15"/>
+      <c r="C158" s="19"/>
+      <c r="D158" s="19"/>
     </row>
     <row r="159" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C159" s="15"/>
-      <c r="D159" s="15"/>
+      <c r="C159" s="19"/>
+      <c r="D159" s="19"/>
     </row>
     <row r="160" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C160" s="15"/>
-      <c r="D160" s="15"/>
+      <c r="C160" s="19"/>
+      <c r="D160" s="19"/>
     </row>
     <row r="161" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C161" s="15"/>
-      <c r="D161" s="15"/>
+      <c r="C161" s="19"/>
+      <c r="D161" s="19"/>
     </row>
     <row r="162" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C162" s="15"/>
-      <c r="D162" s="15"/>
+      <c r="C162" s="19"/>
+      <c r="D162" s="19"/>
     </row>
     <row r="163" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C163" s="15"/>
-      <c r="D163" s="15"/>
+      <c r="C163" s="19"/>
+      <c r="D163" s="19"/>
     </row>
     <row r="164" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C164" s="15"/>
-      <c r="D164" s="15"/>
+      <c r="C164" s="19"/>
+      <c r="D164" s="19"/>
     </row>
     <row r="165" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C165" s="15"/>
-      <c r="D165" s="15"/>
+      <c r="C165" s="19"/>
+      <c r="D165" s="19"/>
     </row>
     <row r="166" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C166" s="15"/>
-      <c r="D166" s="15"/>
+      <c r="C166" s="19"/>
+      <c r="D166" s="19"/>
     </row>
     <row r="167" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C167" s="15"/>
-      <c r="D167" s="15"/>
+      <c r="C167" s="19"/>
+      <c r="D167" s="19"/>
     </row>
     <row r="168" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C168" s="15"/>
-      <c r="D168" s="15"/>
+      <c r="C168" s="19"/>
+      <c r="D168" s="19"/>
     </row>
     <row r="169" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C169" s="15"/>
-      <c r="D169" s="15"/>
+      <c r="C169" s="19"/>
+      <c r="D169" s="19"/>
     </row>
     <row r="170" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C170" s="15"/>
-      <c r="D170" s="15"/>
+      <c r="C170" s="19"/>
+      <c r="D170" s="19"/>
     </row>
     <row r="171" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C171" s="15"/>
-      <c r="D171" s="15"/>
+      <c r="C171" s="19"/>
+      <c r="D171" s="19"/>
     </row>
     <row r="172" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C172" s="15"/>
-      <c r="D172" s="15"/>
+      <c r="C172" s="19"/>
+      <c r="D172" s="19"/>
     </row>
     <row r="173" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C173" s="15"/>
-      <c r="D173" s="15"/>
+      <c r="C173" s="19"/>
+      <c r="D173" s="19"/>
     </row>
     <row r="174" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C174" s="15"/>
-      <c r="D174" s="15"/>
+      <c r="C174" s="19"/>
+      <c r="D174" s="19"/>
     </row>
     <row r="175" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C175" s="15"/>
-      <c r="D175" s="15"/>
+      <c r="C175" s="19"/>
+      <c r="D175" s="19"/>
     </row>
     <row r="176" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C176" s="15"/>
-      <c r="D176" s="15"/>
+      <c r="C176" s="19"/>
+      <c r="D176" s="19"/>
     </row>
     <row r="177" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C177" s="15"/>
-      <c r="D177" s="15"/>
+      <c r="C177" s="19"/>
+      <c r="D177" s="19"/>
     </row>
     <row r="178" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C178" s="15"/>
-      <c r="D178" s="15"/>
+      <c r="C178" s="19"/>
+      <c r="D178" s="19"/>
     </row>
     <row r="179" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C179" s="15"/>
-      <c r="D179" s="15"/>
+      <c r="C179" s="19"/>
+      <c r="D179" s="19"/>
     </row>
     <row r="180" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C180" s="15"/>
-      <c r="D180" s="15"/>
+      <c r="C180" s="19"/>
+      <c r="D180" s="19"/>
     </row>
     <row r="181" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C181" s="15"/>
-      <c r="D181" s="15"/>
+      <c r="C181" s="19"/>
+      <c r="D181" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="180">
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:E2"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="C70:D70"/>
+  <mergeCells count="181">
+    <mergeCell ref="C161:D161"/>
+    <mergeCell ref="C160:D160"/>
+    <mergeCell ref="C166:D166"/>
+    <mergeCell ref="C165:D165"/>
+    <mergeCell ref="C164:D164"/>
+    <mergeCell ref="C163:D163"/>
+    <mergeCell ref="C162:D162"/>
+    <mergeCell ref="C171:D171"/>
+    <mergeCell ref="C170:D170"/>
+    <mergeCell ref="C169:D169"/>
+    <mergeCell ref="C168:D168"/>
+    <mergeCell ref="C167:D167"/>
+    <mergeCell ref="C176:D176"/>
+    <mergeCell ref="C175:D175"/>
+    <mergeCell ref="C174:D174"/>
+    <mergeCell ref="C173:D173"/>
+    <mergeCell ref="C172:D172"/>
+    <mergeCell ref="C181:D181"/>
+    <mergeCell ref="C180:D180"/>
+    <mergeCell ref="C179:D179"/>
+    <mergeCell ref="C178:D178"/>
+    <mergeCell ref="C177:D177"/>
+    <mergeCell ref="C145:D145"/>
+    <mergeCell ref="C144:D144"/>
+    <mergeCell ref="C143:D143"/>
+    <mergeCell ref="C142:D142"/>
+    <mergeCell ref="C159:D159"/>
+    <mergeCell ref="C158:D158"/>
+    <mergeCell ref="C157:D157"/>
+    <mergeCell ref="C156:D156"/>
+    <mergeCell ref="C155:D155"/>
+    <mergeCell ref="C154:D154"/>
+    <mergeCell ref="C153:D153"/>
+    <mergeCell ref="C152:D152"/>
+    <mergeCell ref="C151:D151"/>
+    <mergeCell ref="C150:D150"/>
+    <mergeCell ref="C149:D149"/>
+    <mergeCell ref="C148:D148"/>
+    <mergeCell ref="C147:D147"/>
+    <mergeCell ref="C146:D146"/>
+    <mergeCell ref="C127:D127"/>
+    <mergeCell ref="C126:D126"/>
+    <mergeCell ref="C125:D125"/>
+    <mergeCell ref="C124:D124"/>
+    <mergeCell ref="C141:D141"/>
+    <mergeCell ref="C140:D140"/>
+    <mergeCell ref="C139:D139"/>
+    <mergeCell ref="C138:D138"/>
+    <mergeCell ref="C137:D137"/>
+    <mergeCell ref="C136:D136"/>
+    <mergeCell ref="C135:D135"/>
+    <mergeCell ref="C134:D134"/>
+    <mergeCell ref="C133:D133"/>
+    <mergeCell ref="C132:D132"/>
+    <mergeCell ref="C131:D131"/>
+    <mergeCell ref="C130:D130"/>
+    <mergeCell ref="C129:D129"/>
+    <mergeCell ref="C128:D128"/>
+    <mergeCell ref="C111:D111"/>
+    <mergeCell ref="C110:D110"/>
+    <mergeCell ref="C109:D109"/>
+    <mergeCell ref="C123:D123"/>
+    <mergeCell ref="C122:D122"/>
+    <mergeCell ref="C121:D121"/>
+    <mergeCell ref="C120:D120"/>
+    <mergeCell ref="C119:D119"/>
+    <mergeCell ref="C118:D118"/>
+    <mergeCell ref="C117:D117"/>
+    <mergeCell ref="C116:D116"/>
+    <mergeCell ref="C115:D115"/>
+    <mergeCell ref="C114:D114"/>
+    <mergeCell ref="C113:D113"/>
+    <mergeCell ref="C112:D112"/>
+    <mergeCell ref="C99:D99"/>
+    <mergeCell ref="C98:D98"/>
+    <mergeCell ref="C97:D97"/>
+    <mergeCell ref="C108:D108"/>
+    <mergeCell ref="C107:D107"/>
+    <mergeCell ref="C106:D106"/>
+    <mergeCell ref="C105:D105"/>
+    <mergeCell ref="C104:D104"/>
+    <mergeCell ref="C103:D103"/>
+    <mergeCell ref="C102:D102"/>
+    <mergeCell ref="C101:D101"/>
+    <mergeCell ref="C100:D100"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="C90:D90"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="C83:D83"/>
     <mergeCell ref="C69:D69"/>
     <mergeCell ref="C68:D68"/>
     <mergeCell ref="C67:D67"/>
@@ -5910,109 +6137,60 @@
     <mergeCell ref="C51:D51"/>
     <mergeCell ref="C50:D50"/>
     <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="C96:D96"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="C91:D91"/>
-    <mergeCell ref="C90:D90"/>
-    <mergeCell ref="C89:D89"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="C99:D99"/>
-    <mergeCell ref="C98:D98"/>
-    <mergeCell ref="C97:D97"/>
-    <mergeCell ref="C108:D108"/>
-    <mergeCell ref="C107:D107"/>
-    <mergeCell ref="C106:D106"/>
-    <mergeCell ref="C105:D105"/>
-    <mergeCell ref="C104:D104"/>
-    <mergeCell ref="C103:D103"/>
-    <mergeCell ref="C102:D102"/>
-    <mergeCell ref="C101:D101"/>
-    <mergeCell ref="C100:D100"/>
-    <mergeCell ref="C111:D111"/>
-    <mergeCell ref="C110:D110"/>
-    <mergeCell ref="C109:D109"/>
-    <mergeCell ref="C123:D123"/>
-    <mergeCell ref="C122:D122"/>
-    <mergeCell ref="C121:D121"/>
-    <mergeCell ref="C120:D120"/>
-    <mergeCell ref="C119:D119"/>
-    <mergeCell ref="C118:D118"/>
-    <mergeCell ref="C117:D117"/>
-    <mergeCell ref="C116:D116"/>
-    <mergeCell ref="C115:D115"/>
-    <mergeCell ref="C114:D114"/>
-    <mergeCell ref="C113:D113"/>
-    <mergeCell ref="C112:D112"/>
-    <mergeCell ref="C127:D127"/>
-    <mergeCell ref="C126:D126"/>
-    <mergeCell ref="C125:D125"/>
-    <mergeCell ref="C124:D124"/>
-    <mergeCell ref="C141:D141"/>
-    <mergeCell ref="C140:D140"/>
-    <mergeCell ref="C139:D139"/>
-    <mergeCell ref="C138:D138"/>
-    <mergeCell ref="C137:D137"/>
-    <mergeCell ref="C136:D136"/>
-    <mergeCell ref="C135:D135"/>
-    <mergeCell ref="C134:D134"/>
-    <mergeCell ref="C133:D133"/>
-    <mergeCell ref="C132:D132"/>
-    <mergeCell ref="C131:D131"/>
-    <mergeCell ref="C130:D130"/>
-    <mergeCell ref="C129:D129"/>
-    <mergeCell ref="C128:D128"/>
-    <mergeCell ref="C145:D145"/>
-    <mergeCell ref="C144:D144"/>
-    <mergeCell ref="C143:D143"/>
-    <mergeCell ref="C142:D142"/>
-    <mergeCell ref="C159:D159"/>
-    <mergeCell ref="C158:D158"/>
-    <mergeCell ref="C157:D157"/>
-    <mergeCell ref="C156:D156"/>
-    <mergeCell ref="C155:D155"/>
-    <mergeCell ref="C154:D154"/>
-    <mergeCell ref="C153:D153"/>
-    <mergeCell ref="C152:D152"/>
-    <mergeCell ref="C151:D151"/>
-    <mergeCell ref="C150:D150"/>
-    <mergeCell ref="C149:D149"/>
-    <mergeCell ref="C148:D148"/>
-    <mergeCell ref="C147:D147"/>
-    <mergeCell ref="C146:D146"/>
-    <mergeCell ref="C176:D176"/>
-    <mergeCell ref="C175:D175"/>
-    <mergeCell ref="C174:D174"/>
-    <mergeCell ref="C173:D173"/>
-    <mergeCell ref="C172:D172"/>
-    <mergeCell ref="C181:D181"/>
-    <mergeCell ref="C180:D180"/>
-    <mergeCell ref="C179:D179"/>
-    <mergeCell ref="C178:D178"/>
-    <mergeCell ref="C177:D177"/>
-    <mergeCell ref="C161:D161"/>
-    <mergeCell ref="C160:D160"/>
-    <mergeCell ref="C166:D166"/>
-    <mergeCell ref="C165:D165"/>
-    <mergeCell ref="C164:D164"/>
-    <mergeCell ref="C163:D163"/>
-    <mergeCell ref="C162:D162"/>
-    <mergeCell ref="C171:D171"/>
-    <mergeCell ref="C170:D170"/>
-    <mergeCell ref="C169:D169"/>
-    <mergeCell ref="C168:D168"/>
-    <mergeCell ref="C167:D167"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:E2"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="C62:D62"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6024,8 +6202,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView topLeftCell="A41" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6036,20 +6214,21 @@
     <col min="4" max="4" width="32.625" customWidth="1"/>
     <col min="5" max="5" width="66.375" style="10" customWidth="1"/>
     <col min="6" max="6" width="54.25" customWidth="1"/>
+    <col min="7" max="7" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="21" t="s">
         <v>184</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18" t="s">
+      <c r="B1" s="21"/>
+      <c r="C1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="18"/>
+      <c r="E1" s="21"/>
       <c r="F1" s="11" t="s">
         <v>3</v>
       </c>
@@ -6058,16 +6237,16 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
+      <c r="A2" s="21"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
       <c r="F2" s="11" t="s">
         <v>4</v>
       </c>
       <c r="G2" s="5">
-        <v>20240225</v>
+        <v>20240228</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
@@ -6080,10 +6259,10 @@
       <c r="B4" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="19"/>
+      <c r="D4" s="22"/>
       <c r="E4" s="14" t="s">
         <v>11</v>
       </c>
@@ -6110,10 +6289,10 @@
       <c r="B5" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="15"/>
+      <c r="D5" s="19"/>
       <c r="E5" s="10" t="s">
         <v>186</v>
       </c>
@@ -6125,10 +6304,10 @@
       <c r="B6" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="15"/>
+      <c r="D6" s="19"/>
       <c r="E6" s="10" t="s">
         <v>187</v>
       </c>
@@ -6140,10 +6319,10 @@
       <c r="B7" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="15"/>
+      <c r="D7" s="19"/>
       <c r="E7" s="10" t="s">
         <v>188</v>
       </c>
@@ -6155,10 +6334,10 @@
       <c r="B8" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="15"/>
+      <c r="D8" s="19"/>
       <c r="E8" s="10" t="s">
         <v>189</v>
       </c>
@@ -6170,10 +6349,10 @@
       <c r="B9" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="15"/>
+      <c r="D9" s="19"/>
       <c r="E9" s="10" t="s">
         <v>190</v>
       </c>
@@ -6185,10 +6364,10 @@
       <c r="B10" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="15"/>
+      <c r="D10" s="19"/>
       <c r="E10" s="10" t="s">
         <v>190</v>
       </c>
@@ -6200,10 +6379,10 @@
       <c r="B11" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="15"/>
+      <c r="D11" s="19"/>
       <c r="E11" s="10" t="s">
         <v>191</v>
       </c>
@@ -6215,10 +6394,10 @@
       <c r="B12" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="15"/>
+      <c r="D12" s="19"/>
       <c r="E12" s="10" t="s">
         <v>191</v>
       </c>
@@ -6230,10 +6409,10 @@
       <c r="B13" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="15"/>
+      <c r="D13" s="19"/>
       <c r="E13" s="10" t="s">
         <v>192</v>
       </c>
@@ -6245,10 +6424,10 @@
       <c r="B14" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C14" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="15"/>
+      <c r="D14" s="19"/>
       <c r="E14" s="10" t="s">
         <v>193</v>
       </c>
@@ -6260,10 +6439,10 @@
       <c r="B15" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="C15" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="D15" s="15"/>
+      <c r="D15" s="19"/>
       <c r="E15" s="10" t="s">
         <v>194</v>
       </c>
@@ -6275,10 +6454,10 @@
       <c r="B16" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="C16" s="18" t="s">
         <v>128</v>
       </c>
-      <c r="D16" s="16"/>
+      <c r="D16" s="18"/>
       <c r="E16" s="10" t="s">
         <v>194</v>
       </c>
@@ -6290,10 +6469,10 @@
       <c r="B17" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C17" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="D17" s="15"/>
+      <c r="D17" s="19"/>
       <c r="E17" s="10" t="s">
         <v>200</v>
       </c>
@@ -6305,10 +6484,10 @@
       <c r="B18" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="C18" s="16" t="s">
+      <c r="C18" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="D18" s="16"/>
+      <c r="D18" s="18"/>
       <c r="E18" s="10" t="s">
         <v>200</v>
       </c>
@@ -6320,10 +6499,10 @@
       <c r="B19" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="C19" s="16" t="s">
+      <c r="C19" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="D19" s="15"/>
+      <c r="D19" s="19"/>
       <c r="E19" s="10" t="s">
         <v>195</v>
       </c>
@@ -6335,10 +6514,10 @@
       <c r="B20" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="C20" s="16" t="s">
+      <c r="C20" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="D20" s="15"/>
+      <c r="D20" s="19"/>
       <c r="E20" s="10" t="s">
         <v>195</v>
       </c>
@@ -6350,10 +6529,10 @@
       <c r="B21" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="C21" s="16" t="s">
+      <c r="C21" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="D21" s="15"/>
+      <c r="D21" s="19"/>
       <c r="E21" s="10" t="s">
         <v>195</v>
       </c>
@@ -6365,10 +6544,10 @@
       <c r="B22" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="C22" s="16" t="s">
+      <c r="C22" s="18" t="s">
         <v>148</v>
       </c>
-      <c r="D22" s="15"/>
+      <c r="D22" s="19"/>
       <c r="E22" s="10" t="s">
         <v>195</v>
       </c>
@@ -6380,10 +6559,10 @@
       <c r="B23" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="C23" s="16" t="s">
+      <c r="C23" s="18" t="s">
         <v>141</v>
       </c>
-      <c r="D23" s="16"/>
+      <c r="D23" s="18"/>
       <c r="E23" s="10" t="s">
         <v>195</v>
       </c>
@@ -6395,10 +6574,10 @@
       <c r="B24" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="C24" s="16" t="s">
+      <c r="C24" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="D24" s="15"/>
+      <c r="D24" s="19"/>
       <c r="E24" s="10" t="s">
         <v>196</v>
       </c>
@@ -6410,10 +6589,10 @@
       <c r="B25" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="C25" s="16" t="s">
+      <c r="C25" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="D25" s="15"/>
+      <c r="D25" s="19"/>
       <c r="E25" s="10" t="s">
         <v>196</v>
       </c>
@@ -6425,10 +6604,10 @@
       <c r="B26" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="C26" s="16" t="s">
+      <c r="C26" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="D26" s="15"/>
+      <c r="D26" s="19"/>
       <c r="E26" s="10" t="s">
         <v>196</v>
       </c>
@@ -6440,10 +6619,10 @@
       <c r="B27" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="C27" s="16" t="s">
+      <c r="C27" s="18" t="s">
         <v>149</v>
       </c>
-      <c r="D27" s="15"/>
+      <c r="D27" s="19"/>
       <c r="E27" s="10" t="s">
         <v>196</v>
       </c>
@@ -6455,10 +6634,10 @@
       <c r="B28" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="C28" s="16" t="s">
+      <c r="C28" s="18" t="s">
         <v>142</v>
       </c>
-      <c r="D28" s="16"/>
+      <c r="D28" s="18"/>
       <c r="E28" s="10" t="s">
         <v>196</v>
       </c>
@@ -6470,10 +6649,10 @@
       <c r="B29" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="C29" s="16" t="s">
+      <c r="C29" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="D29" s="15"/>
+      <c r="D29" s="19"/>
       <c r="E29" s="10" t="s">
         <v>197</v>
       </c>
@@ -6485,10 +6664,10 @@
       <c r="B30" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="C30" s="16" t="s">
+      <c r="C30" s="18" t="s">
         <v>172</v>
       </c>
-      <c r="D30" s="15"/>
+      <c r="D30" s="19"/>
       <c r="E30" s="10" t="s">
         <v>195</v>
       </c>
@@ -6500,10 +6679,10 @@
       <c r="B31" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="C31" s="16" t="s">
+      <c r="C31" s="18" t="s">
         <v>173</v>
       </c>
-      <c r="D31" s="15"/>
+      <c r="D31" s="19"/>
       <c r="E31" s="10" t="s">
         <v>196</v>
       </c>
@@ -6515,10 +6694,10 @@
       <c r="B32" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="C32" s="16" t="s">
+      <c r="C32" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="D32" s="15"/>
+      <c r="D32" s="19"/>
       <c r="E32" s="10" t="s">
         <v>195</v>
       </c>
@@ -6530,10 +6709,10 @@
       <c r="B33" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="C33" s="16" t="s">
+      <c r="C33" s="18" t="s">
         <v>144</v>
       </c>
-      <c r="D33" s="15"/>
+      <c r="D33" s="19"/>
       <c r="E33" s="10" t="s">
         <v>196</v>
       </c>
@@ -6545,10 +6724,10 @@
       <c r="B34" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="C34" s="15" t="s">
+      <c r="C34" s="19" t="s">
         <v>198</v>
       </c>
-      <c r="D34" s="15"/>
+      <c r="D34" s="19"/>
       <c r="E34" s="10" t="s">
         <v>199</v>
       </c>
@@ -6558,119 +6737,119 @@
         <v>31</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="C35" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="C35" s="19" t="s">
         <v>177</v>
       </c>
-      <c r="D35" s="15"/>
+      <c r="D35" s="19"/>
       <c r="E35" s="10" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="3">
         <v>32</v>
       </c>
-      <c r="B36" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="C36" s="15" t="s">
+      <c r="B36" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="C36" s="19" t="s">
         <v>201</v>
       </c>
-      <c r="D36" s="15"/>
+      <c r="D36" s="19"/>
       <c r="E36" s="10" t="s">
-        <v>202</v>
+        <v>228</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="3">
         <v>33</v>
       </c>
-      <c r="B37" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="C37" s="15" t="s">
+      <c r="B37" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="C37" s="19" t="s">
         <v>177</v>
       </c>
-      <c r="D37" s="15"/>
+      <c r="D37" s="19"/>
       <c r="E37" s="10" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="3">
         <v>34</v>
       </c>
-      <c r="B38" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="C38" s="15" t="s">
-        <v>216</v>
-      </c>
-      <c r="D38" s="15"/>
+      <c r="B38" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="C38" s="19" t="s">
+        <v>214</v>
+      </c>
+      <c r="D38" s="19"/>
       <c r="E38" s="10" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="3">
         <v>35</v>
       </c>
-      <c r="B39" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="C39" s="15" t="s">
-        <v>217</v>
-      </c>
-      <c r="D39" s="15"/>
+      <c r="B39" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="C39" s="19" t="s">
+        <v>215</v>
+      </c>
+      <c r="D39" s="19"/>
       <c r="E39" s="10" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="3">
         <v>36</v>
       </c>
-      <c r="B40" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="C40" s="15" t="s">
-        <v>218</v>
-      </c>
-      <c r="D40" s="15"/>
+      <c r="B40" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="C40" s="19" t="s">
+        <v>216</v>
+      </c>
+      <c r="D40" s="19"/>
       <c r="E40" s="9" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="3">
         <v>37</v>
       </c>
-      <c r="B41" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="C41" s="15" t="s">
+      <c r="B41" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="C41" s="19" t="s">
+        <v>217</v>
+      </c>
+      <c r="D41" s="19"/>
+      <c r="E41" s="9" t="s">
         <v>219</v>
-      </c>
-      <c r="D41" s="15"/>
-      <c r="E41" s="9" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="3">
         <v>38</v>
       </c>
-      <c r="B42" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="C42" s="15" t="s">
+      <c r="B42" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="C42" s="19" t="s">
         <v>177</v>
       </c>
-      <c r="D42" s="15"/>
+      <c r="D42" s="19"/>
       <c r="E42" s="10" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
@@ -6678,14 +6857,14 @@
         <v>39</v>
       </c>
       <c r="B43" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="C43" s="19" t="s">
         <v>203</v>
       </c>
-      <c r="C43" s="15" t="s">
+      <c r="D43" s="19"/>
+      <c r="E43" s="10" t="s">
         <v>204</v>
-      </c>
-      <c r="D43" s="15"/>
-      <c r="E43" s="10" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
@@ -6693,14 +6872,14 @@
         <v>40</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="C44" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="C44" s="19" t="s">
+        <v>205</v>
+      </c>
+      <c r="D44" s="19"/>
+      <c r="E44" s="10" t="s">
         <v>206</v>
-      </c>
-      <c r="D44" s="15"/>
-      <c r="E44" s="10" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
@@ -6708,14 +6887,14 @@
         <v>41</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="C45" s="15" t="s">
-        <v>208</v>
-      </c>
-      <c r="D45" s="15"/>
+        <v>202</v>
+      </c>
+      <c r="C45" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="D45" s="19"/>
       <c r="E45" s="10" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
@@ -6723,14 +6902,14 @@
         <v>42</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="C46" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="C46" s="19" t="s">
+        <v>208</v>
+      </c>
+      <c r="D46" s="19"/>
+      <c r="E46" s="10" t="s">
         <v>209</v>
-      </c>
-      <c r="D46" s="15"/>
-      <c r="E46" s="10" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
@@ -6738,14 +6917,14 @@
         <v>43</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="C47" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="C47" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="D47" s="19"/>
+      <c r="E47" s="10" t="s">
         <v>212</v>
-      </c>
-      <c r="D47" s="15"/>
-      <c r="E47" s="10" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
@@ -6753,14 +6932,14 @@
         <v>44</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="C48" s="15" t="s">
-        <v>211</v>
-      </c>
-      <c r="D48" s="15"/>
+        <v>202</v>
+      </c>
+      <c r="C48" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="D48" s="19"/>
       <c r="E48" s="10" t="s">
-        <v>214</v>
+        <v>230</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
@@ -6768,383 +6947,1814 @@
         <v>45</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="C49" s="15" t="s">
-        <v>215</v>
-      </c>
-      <c r="D49" s="15"/>
+        <v>202</v>
+      </c>
+      <c r="C49" s="19" t="s">
+        <v>213</v>
+      </c>
+      <c r="D49" s="19"/>
       <c r="E49" s="10" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C50" s="15"/>
-      <c r="D50" s="15"/>
+      <c r="C50" s="19"/>
+      <c r="D50" s="19"/>
     </row>
     <row r="51" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C51" s="15"/>
-      <c r="D51" s="15"/>
+      <c r="C51" s="19"/>
+      <c r="D51" s="19"/>
     </row>
     <row r="52" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C52" s="15"/>
-      <c r="D52" s="15"/>
+      <c r="C52" s="19"/>
+      <c r="D52" s="19"/>
     </row>
     <row r="53" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C53" s="15"/>
-      <c r="D53" s="15"/>
+      <c r="C53" s="19"/>
+      <c r="D53" s="19"/>
     </row>
     <row r="54" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C54" s="15"/>
-      <c r="D54" s="15"/>
+      <c r="C54" s="19"/>
+      <c r="D54" s="19"/>
     </row>
     <row r="55" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C55" s="15"/>
-      <c r="D55" s="15"/>
+      <c r="C55" s="19"/>
+      <c r="D55" s="19"/>
     </row>
     <row r="56" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C56" s="15"/>
-      <c r="D56" s="15"/>
+      <c r="C56" s="19"/>
+      <c r="D56" s="19"/>
     </row>
     <row r="57" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C57" s="15"/>
-      <c r="D57" s="15"/>
+      <c r="C57" s="19"/>
+      <c r="D57" s="19"/>
     </row>
     <row r="58" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C58" s="15"/>
-      <c r="D58" s="15"/>
+      <c r="C58" s="19"/>
+      <c r="D58" s="19"/>
     </row>
     <row r="59" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C59" s="15"/>
-      <c r="D59" s="15"/>
+      <c r="C59" s="19"/>
+      <c r="D59" s="19"/>
     </row>
     <row r="60" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C60" s="15"/>
-      <c r="D60" s="15"/>
+      <c r="C60" s="19"/>
+      <c r="D60" s="19"/>
     </row>
     <row r="61" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C61" s="15"/>
-      <c r="D61" s="15"/>
+      <c r="C61" s="19"/>
+      <c r="D61" s="19"/>
     </row>
     <row r="62" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C62" s="15"/>
-      <c r="D62" s="15"/>
+      <c r="C62" s="19"/>
+      <c r="D62" s="19"/>
     </row>
     <row r="63" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C63" s="15"/>
-      <c r="D63" s="15"/>
+      <c r="C63" s="19"/>
+      <c r="D63" s="19"/>
     </row>
     <row r="64" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C64" s="15"/>
-      <c r="D64" s="15"/>
+      <c r="C64" s="19"/>
+      <c r="D64" s="19"/>
     </row>
     <row r="65" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C65" s="15"/>
-      <c r="D65" s="15"/>
+      <c r="C65" s="19"/>
+      <c r="D65" s="19"/>
     </row>
     <row r="66" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C66" s="15"/>
-      <c r="D66" s="15"/>
+      <c r="C66" s="19"/>
+      <c r="D66" s="19"/>
     </row>
     <row r="67" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C67" s="15"/>
-      <c r="D67" s="15"/>
+      <c r="C67" s="19"/>
+      <c r="D67" s="19"/>
     </row>
     <row r="68" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C68" s="15"/>
-      <c r="D68" s="15"/>
+      <c r="C68" s="19"/>
+      <c r="D68" s="19"/>
     </row>
     <row r="69" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C69" s="15"/>
-      <c r="D69" s="15"/>
+      <c r="C69" s="19"/>
+      <c r="D69" s="19"/>
     </row>
     <row r="70" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C70" s="15"/>
-      <c r="D70" s="15"/>
+      <c r="C70" s="19"/>
+      <c r="D70" s="19"/>
     </row>
     <row r="71" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C71" s="15"/>
-      <c r="D71" s="15"/>
+      <c r="C71" s="19"/>
+      <c r="D71" s="19"/>
     </row>
     <row r="72" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C72" s="15"/>
-      <c r="D72" s="15"/>
+      <c r="C72" s="19"/>
+      <c r="D72" s="19"/>
     </row>
     <row r="73" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C73" s="15"/>
-      <c r="D73" s="15"/>
+      <c r="C73" s="19"/>
+      <c r="D73" s="19"/>
     </row>
     <row r="74" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C74" s="15"/>
-      <c r="D74" s="15"/>
+      <c r="C74" s="19"/>
+      <c r="D74" s="19"/>
     </row>
     <row r="75" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C75" s="15"/>
-      <c r="D75" s="15"/>
+      <c r="C75" s="19"/>
+      <c r="D75" s="19"/>
     </row>
     <row r="76" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C76" s="15"/>
-      <c r="D76" s="15"/>
+      <c r="C76" s="19"/>
+      <c r="D76" s="19"/>
     </row>
     <row r="77" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C77" s="15"/>
-      <c r="D77" s="15"/>
+      <c r="C77" s="19"/>
+      <c r="D77" s="19"/>
     </row>
     <row r="78" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C78" s="15"/>
-      <c r="D78" s="15"/>
+      <c r="C78" s="19"/>
+      <c r="D78" s="19"/>
     </row>
     <row r="79" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C79" s="15"/>
-      <c r="D79" s="15"/>
+      <c r="C79" s="19"/>
+      <c r="D79" s="19"/>
     </row>
     <row r="80" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C80" s="15"/>
-      <c r="D80" s="15"/>
+      <c r="C80" s="19"/>
+      <c r="D80" s="19"/>
     </row>
     <row r="81" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C81" s="15"/>
-      <c r="D81" s="15"/>
+      <c r="C81" s="19"/>
+      <c r="D81" s="19"/>
     </row>
     <row r="82" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C82" s="15"/>
-      <c r="D82" s="15"/>
+      <c r="C82" s="19"/>
+      <c r="D82" s="19"/>
     </row>
     <row r="83" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C83" s="15"/>
-      <c r="D83" s="15"/>
+      <c r="C83" s="19"/>
+      <c r="D83" s="19"/>
     </row>
     <row r="84" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C84" s="15"/>
-      <c r="D84" s="15"/>
+      <c r="C84" s="19"/>
+      <c r="D84" s="19"/>
     </row>
     <row r="85" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C85" s="15"/>
-      <c r="D85" s="15"/>
+      <c r="C85" s="19"/>
+      <c r="D85" s="19"/>
     </row>
     <row r="86" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C86" s="15"/>
-      <c r="D86" s="15"/>
+      <c r="C86" s="19"/>
+      <c r="D86" s="19"/>
     </row>
     <row r="87" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C87" s="15"/>
-      <c r="D87" s="15"/>
+      <c r="C87" s="19"/>
+      <c r="D87" s="19"/>
     </row>
     <row r="88" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C88" s="15"/>
-      <c r="D88" s="15"/>
+      <c r="C88" s="19"/>
+      <c r="D88" s="19"/>
     </row>
     <row r="89" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C89" s="15"/>
-      <c r="D89" s="15"/>
+      <c r="C89" s="19"/>
+      <c r="D89" s="19"/>
     </row>
     <row r="90" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C90" s="15"/>
-      <c r="D90" s="15"/>
+      <c r="C90" s="19"/>
+      <c r="D90" s="19"/>
     </row>
     <row r="91" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C91" s="15"/>
-      <c r="D91" s="15"/>
+      <c r="C91" s="19"/>
+      <c r="D91" s="19"/>
     </row>
     <row r="92" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C92" s="15"/>
-      <c r="D92" s="15"/>
+      <c r="C92" s="19"/>
+      <c r="D92" s="19"/>
     </row>
     <row r="93" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C93" s="15"/>
-      <c r="D93" s="15"/>
+      <c r="C93" s="19"/>
+      <c r="D93" s="19"/>
     </row>
     <row r="94" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C94" s="15"/>
-      <c r="D94" s="15"/>
+      <c r="C94" s="19"/>
+      <c r="D94" s="19"/>
     </row>
     <row r="95" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C95" s="15"/>
-      <c r="D95" s="15"/>
+      <c r="C95" s="19"/>
+      <c r="D95" s="19"/>
     </row>
     <row r="96" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C96" s="15"/>
-      <c r="D96" s="15"/>
+      <c r="C96" s="19"/>
+      <c r="D96" s="19"/>
     </row>
     <row r="97" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C97" s="15"/>
-      <c r="D97" s="15"/>
+      <c r="C97" s="19"/>
+      <c r="D97" s="19"/>
     </row>
     <row r="98" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C98" s="15"/>
-      <c r="D98" s="15"/>
+      <c r="C98" s="19"/>
+      <c r="D98" s="19"/>
     </row>
     <row r="99" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C99" s="15"/>
-      <c r="D99" s="15"/>
+      <c r="C99" s="19"/>
+      <c r="D99" s="19"/>
     </row>
     <row r="100" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C100" s="15"/>
-      <c r="D100" s="15"/>
+      <c r="C100" s="19"/>
+      <c r="D100" s="19"/>
     </row>
     <row r="101" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C101" s="15"/>
-      <c r="D101" s="15"/>
+      <c r="C101" s="19"/>
+      <c r="D101" s="19"/>
     </row>
     <row r="102" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C102" s="15"/>
-      <c r="D102" s="15"/>
+      <c r="C102" s="19"/>
+      <c r="D102" s="19"/>
     </row>
     <row r="103" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C103" s="15"/>
-      <c r="D103" s="15"/>
+      <c r="C103" s="19"/>
+      <c r="D103" s="19"/>
     </row>
     <row r="104" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C104" s="15"/>
-      <c r="D104" s="15"/>
+      <c r="C104" s="19"/>
+      <c r="D104" s="19"/>
     </row>
     <row r="105" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C105" s="15"/>
-      <c r="D105" s="15"/>
+      <c r="C105" s="19"/>
+      <c r="D105" s="19"/>
     </row>
     <row r="106" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C106" s="15"/>
-      <c r="D106" s="15"/>
+      <c r="C106" s="19"/>
+      <c r="D106" s="19"/>
     </row>
     <row r="107" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C107" s="15"/>
-      <c r="D107" s="15"/>
+      <c r="C107" s="19"/>
+      <c r="D107" s="19"/>
     </row>
     <row r="108" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C108" s="15"/>
-      <c r="D108" s="15"/>
+      <c r="C108" s="19"/>
+      <c r="D108" s="19"/>
     </row>
     <row r="109" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C109" s="15"/>
-      <c r="D109" s="15"/>
+      <c r="C109" s="19"/>
+      <c r="D109" s="19"/>
     </row>
     <row r="110" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C110" s="15"/>
-      <c r="D110" s="15"/>
+      <c r="C110" s="19"/>
+      <c r="D110" s="19"/>
     </row>
     <row r="111" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C111" s="15"/>
-      <c r="D111" s="15"/>
+      <c r="C111" s="19"/>
+      <c r="D111" s="19"/>
     </row>
     <row r="112" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C112" s="15"/>
-      <c r="D112" s="15"/>
+      <c r="C112" s="19"/>
+      <c r="D112" s="19"/>
     </row>
     <row r="113" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C113" s="15"/>
-      <c r="D113" s="15"/>
+      <c r="C113" s="19"/>
+      <c r="D113" s="19"/>
     </row>
     <row r="114" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C114" s="15"/>
-      <c r="D114" s="15"/>
+      <c r="C114" s="19"/>
+      <c r="D114" s="19"/>
     </row>
     <row r="115" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C115" s="15"/>
-      <c r="D115" s="15"/>
+      <c r="C115" s="19"/>
+      <c r="D115" s="19"/>
     </row>
     <row r="116" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C116" s="15"/>
-      <c r="D116" s="15"/>
+      <c r="C116" s="19"/>
+      <c r="D116" s="19"/>
     </row>
     <row r="117" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C117" s="15"/>
-      <c r="D117" s="15"/>
+      <c r="C117" s="19"/>
+      <c r="D117" s="19"/>
     </row>
     <row r="118" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C118" s="15"/>
-      <c r="D118" s="15"/>
+      <c r="C118" s="19"/>
+      <c r="D118" s="19"/>
     </row>
     <row r="119" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C119" s="15"/>
-      <c r="D119" s="15"/>
+      <c r="C119" s="19"/>
+      <c r="D119" s="19"/>
     </row>
     <row r="120" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C120" s="15"/>
-      <c r="D120" s="15"/>
+      <c r="C120" s="19"/>
+      <c r="D120" s="19"/>
     </row>
     <row r="121" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C121" s="15"/>
-      <c r="D121" s="15"/>
+      <c r="C121" s="19"/>
+      <c r="D121" s="19"/>
     </row>
     <row r="122" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C122" s="15"/>
-      <c r="D122" s="15"/>
+      <c r="C122" s="19"/>
+      <c r="D122" s="19"/>
     </row>
     <row r="123" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C123" s="15"/>
-      <c r="D123" s="15"/>
+      <c r="C123" s="19"/>
+      <c r="D123" s="19"/>
     </row>
     <row r="124" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C124" s="15"/>
-      <c r="D124" s="15"/>
+      <c r="C124" s="19"/>
+      <c r="D124" s="19"/>
     </row>
     <row r="125" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C125" s="15"/>
-      <c r="D125" s="15"/>
+      <c r="C125" s="19"/>
+      <c r="D125" s="19"/>
     </row>
     <row r="126" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C126" s="15"/>
-      <c r="D126" s="15"/>
+      <c r="C126" s="19"/>
+      <c r="D126" s="19"/>
     </row>
     <row r="127" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C127" s="15"/>
-      <c r="D127" s="15"/>
+      <c r="C127" s="19"/>
+      <c r="D127" s="19"/>
     </row>
     <row r="128" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C128" s="15"/>
-      <c r="D128" s="15"/>
+      <c r="C128" s="19"/>
+      <c r="D128" s="19"/>
     </row>
     <row r="129" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C129" s="15"/>
-      <c r="D129" s="15"/>
+      <c r="C129" s="19"/>
+      <c r="D129" s="19"/>
     </row>
     <row r="130" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C130" s="15"/>
-      <c r="D130" s="15"/>
+      <c r="C130" s="19"/>
+      <c r="D130" s="19"/>
     </row>
     <row r="131" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C131" s="15"/>
-      <c r="D131" s="15"/>
+      <c r="C131" s="19"/>
+      <c r="D131" s="19"/>
     </row>
     <row r="132" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C132" s="15"/>
-      <c r="D132" s="15"/>
+      <c r="C132" s="19"/>
+      <c r="D132" s="19"/>
     </row>
     <row r="133" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C133" s="15"/>
-      <c r="D133" s="15"/>
+      <c r="C133" s="19"/>
+      <c r="D133" s="19"/>
     </row>
     <row r="134" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C134" s="15"/>
-      <c r="D134" s="15"/>
+      <c r="C134" s="19"/>
+      <c r="D134" s="19"/>
     </row>
     <row r="135" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C135" s="15"/>
-      <c r="D135" s="15"/>
+      <c r="C135" s="19"/>
+      <c r="D135" s="19"/>
     </row>
     <row r="136" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C136" s="15"/>
-      <c r="D136" s="15"/>
+      <c r="C136" s="19"/>
+      <c r="D136" s="19"/>
     </row>
     <row r="137" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C137" s="15"/>
-      <c r="D137" s="15"/>
+      <c r="C137" s="19"/>
+      <c r="D137" s="19"/>
     </row>
     <row r="138" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C138" s="15"/>
-      <c r="D138" s="15"/>
+      <c r="C138" s="19"/>
+      <c r="D138" s="19"/>
     </row>
     <row r="139" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C139" s="15"/>
-      <c r="D139" s="15"/>
+      <c r="C139" s="19"/>
+      <c r="D139" s="19"/>
     </row>
     <row r="140" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C140" s="15"/>
-      <c r="D140" s="15"/>
+      <c r="C140" s="19"/>
+      <c r="D140" s="19"/>
     </row>
     <row r="141" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C141" s="15"/>
-      <c r="D141" s="15"/>
+      <c r="C141" s="19"/>
+      <c r="D141" s="19"/>
+    </row>
+  </sheetData>
+  <mergeCells count="141">
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:E2"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="C97:D97"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="C90:D90"/>
+    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="C104:D104"/>
+    <mergeCell ref="C105:D105"/>
+    <mergeCell ref="C106:D106"/>
+    <mergeCell ref="C107:D107"/>
+    <mergeCell ref="C108:D108"/>
+    <mergeCell ref="C109:D109"/>
+    <mergeCell ref="C98:D98"/>
+    <mergeCell ref="C99:D99"/>
+    <mergeCell ref="C100:D100"/>
+    <mergeCell ref="C101:D101"/>
+    <mergeCell ref="C102:D102"/>
+    <mergeCell ref="C103:D103"/>
+    <mergeCell ref="C119:D119"/>
+    <mergeCell ref="C120:D120"/>
+    <mergeCell ref="C121:D121"/>
+    <mergeCell ref="C110:D110"/>
+    <mergeCell ref="C111:D111"/>
+    <mergeCell ref="C112:D112"/>
+    <mergeCell ref="C113:D113"/>
+    <mergeCell ref="C114:D114"/>
+    <mergeCell ref="C115:D115"/>
+    <mergeCell ref="C140:D140"/>
+    <mergeCell ref="C141:D141"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C134:D134"/>
+    <mergeCell ref="C135:D135"/>
+    <mergeCell ref="C136:D136"/>
+    <mergeCell ref="C137:D137"/>
+    <mergeCell ref="C138:D138"/>
+    <mergeCell ref="C139:D139"/>
+    <mergeCell ref="C128:D128"/>
+    <mergeCell ref="C129:D129"/>
+    <mergeCell ref="C130:D130"/>
+    <mergeCell ref="C131:D131"/>
+    <mergeCell ref="C132:D132"/>
+    <mergeCell ref="C133:D133"/>
+    <mergeCell ref="C122:D122"/>
+    <mergeCell ref="C123:D123"/>
+    <mergeCell ref="C124:D124"/>
+    <mergeCell ref="C125:D125"/>
+    <mergeCell ref="C126:D126"/>
+    <mergeCell ref="C127:D127"/>
+    <mergeCell ref="C116:D116"/>
+    <mergeCell ref="C117:D117"/>
+    <mergeCell ref="C118:D118"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J141"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C58" sqref="C58:D58"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="17.25" customWidth="1"/>
+    <col min="2" max="2" width="21.375" customWidth="1"/>
+    <col min="3" max="3" width="36.875" customWidth="1"/>
+    <col min="4" max="4" width="32.625" customWidth="1"/>
+    <col min="5" max="5" width="66.375" customWidth="1"/>
+    <col min="6" max="6" width="54.25" customWidth="1"/>
+    <col min="7" max="7" width="22.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A1" s="21" t="s">
+        <v>226</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="21"/>
+      <c r="F1" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A2" s="21"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="5">
+        <v>20240228</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B3" s="15"/>
+      <c r="E3" s="15"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A4" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="22"/>
+      <c r="E4" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="3">
+        <v>1</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="D5" s="24"/>
+      <c r="E5" s="15" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="3">
+        <v>2</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="24"/>
+      <c r="E6" s="15" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="3">
+        <v>3</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="19"/>
+      <c r="E7" s="15" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="3">
+        <v>4</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="19"/>
+      <c r="E8" s="15" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="3">
+        <v>5</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="19"/>
+      <c r="E9" s="15" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="3">
+        <v>6</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="19"/>
+      <c r="E10" s="15" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="3">
+        <v>7</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="19"/>
+      <c r="E11" s="15" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="3">
+        <v>8</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="19"/>
+      <c r="E12" s="15" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="3">
+        <v>9</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="19"/>
+      <c r="E13" s="15" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="3">
+        <v>10</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="D14" s="19"/>
+      <c r="E14" s="15" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="3">
+        <v>11</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="19"/>
+      <c r="E15" s="15" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="3">
+        <v>12</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="19"/>
+      <c r="E16" s="15" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="3">
+        <v>13</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="19"/>
+      <c r="E17" s="15" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="3">
+        <v>14</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="D18" s="19"/>
+      <c r="E18" s="15" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="3">
+        <v>15</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="19"/>
+      <c r="E19" s="15" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="3">
+        <v>16</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" s="19"/>
+      <c r="E20" s="15" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="3">
+        <v>17</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="D21" s="19"/>
+      <c r="E21" s="15" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="3">
+        <v>18</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="D22" s="18"/>
+      <c r="E22" s="15" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="3">
+        <v>19</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="D23" s="19"/>
+      <c r="E23" s="15" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="3">
+        <v>20</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="D24" s="19"/>
+      <c r="E24" s="15" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="3">
+        <v>21</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="D25" s="19"/>
+      <c r="E25" s="15" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="3">
+        <v>22</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="D26" s="19"/>
+      <c r="E26" s="15" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="3">
+        <v>23</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="D27" s="18"/>
+      <c r="E27" s="15" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="3">
+        <v>24</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="D28" s="18"/>
+      <c r="E28" s="15" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="3">
+        <v>25</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="D29" s="18"/>
+      <c r="E29" s="15" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="3">
+        <v>26</v>
+      </c>
+      <c r="B30" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="D30" s="19"/>
+      <c r="E30" s="15" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="3">
+        <v>27</v>
+      </c>
+      <c r="B31" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="D31" s="19"/>
+      <c r="E31" s="15" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="3">
+        <v>28</v>
+      </c>
+      <c r="B32" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="D32" s="19"/>
+      <c r="E32" s="15" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="3">
+        <v>29</v>
+      </c>
+      <c r="B33" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="D33" s="19"/>
+      <c r="E33" s="15" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="3">
+        <v>30</v>
+      </c>
+      <c r="B34" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="D34" s="18"/>
+      <c r="E34" s="15" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="3">
+        <v>31</v>
+      </c>
+      <c r="B35" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="D35" s="19"/>
+      <c r="E35" s="15" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="3">
+        <v>32</v>
+      </c>
+      <c r="B36" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="D36" s="19"/>
+      <c r="E36" s="15" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="3">
+        <v>33</v>
+      </c>
+      <c r="B37" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="D37" s="19"/>
+      <c r="E37" s="15" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="3">
+        <v>34</v>
+      </c>
+      <c r="B38" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C38" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="D38" s="19"/>
+      <c r="E38" s="15" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="3">
+        <v>35</v>
+      </c>
+      <c r="B39" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="D39" s="18"/>
+      <c r="E39" s="15" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="3">
+        <v>36</v>
+      </c>
+      <c r="B40" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C40" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="D40" s="19"/>
+      <c r="E40" s="15" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="3">
+        <v>37</v>
+      </c>
+      <c r="B41" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C41" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="D41" s="19"/>
+      <c r="E41" s="15" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="3">
+        <v>38</v>
+      </c>
+      <c r="B42" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C42" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="D42" s="19"/>
+      <c r="E42" s="15" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="3">
+        <v>39</v>
+      </c>
+      <c r="B43" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C43" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="D43" s="19"/>
+      <c r="E43" s="15" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="3">
+        <v>40</v>
+      </c>
+      <c r="B44" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C44" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="D44" s="19"/>
+      <c r="E44" s="15" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="3">
+        <v>41</v>
+      </c>
+      <c r="B45" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C45" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="D45" s="19"/>
+      <c r="E45" s="15" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="3">
+        <v>42</v>
+      </c>
+      <c r="B46" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="D46" s="19"/>
+      <c r="E46" s="15" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="3">
+        <v>43</v>
+      </c>
+      <c r="B47" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C47" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="D47" s="19"/>
+      <c r="E47" s="15" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="3">
+        <v>44</v>
+      </c>
+      <c r="B48" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C48" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="D48" s="19"/>
+      <c r="E48" s="15" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="3">
+        <v>45</v>
+      </c>
+      <c r="B49" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C49" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="D49" s="19"/>
+      <c r="E49" s="15" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="3">
+        <v>46</v>
+      </c>
+      <c r="B50" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C50" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="D50" s="19"/>
+      <c r="E50" s="15" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="3">
+        <v>47</v>
+      </c>
+      <c r="B51" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C51" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="D51" s="19"/>
+      <c r="E51" s="15" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="3">
+        <v>48</v>
+      </c>
+      <c r="B52" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C52" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="D52" s="19"/>
+      <c r="E52" s="15" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="3">
+        <v>49</v>
+      </c>
+      <c r="B53" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C53" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="D53" s="19"/>
+      <c r="E53" s="15" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="3">
+        <v>50</v>
+      </c>
+      <c r="B54" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C54" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="D54" s="19"/>
+      <c r="E54" s="15" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="3">
+        <v>51</v>
+      </c>
+      <c r="B55" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C55" s="18" t="s">
+        <v>174</v>
+      </c>
+      <c r="D55" s="19"/>
+      <c r="E55" s="15" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A56" s="3">
+        <v>52</v>
+      </c>
+      <c r="B56" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C56" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="D56" s="19"/>
+      <c r="E56" s="15" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A57" s="3">
+        <v>53</v>
+      </c>
+      <c r="B57" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="C57" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="D57" s="19"/>
+      <c r="E57" s="15" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="3">
+        <v>54</v>
+      </c>
+      <c r="B58" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="C58" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="D58" s="19"/>
+      <c r="E58" s="15" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A59" s="3">
+        <v>55</v>
+      </c>
+      <c r="B59" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="C59" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="D59" s="19"/>
+      <c r="E59" s="15" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A60" s="3">
+        <v>56</v>
+      </c>
+      <c r="B60" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="C60" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="D60" s="19"/>
+      <c r="E60" s="15" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A61" s="3">
+        <v>57</v>
+      </c>
+      <c r="B61" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="C61" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="D61" s="19"/>
+      <c r="E61" s="15" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A62" s="3">
+        <v>58</v>
+      </c>
+      <c r="B62" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="C62" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="D62" s="19"/>
+      <c r="E62" s="15" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A63" s="3">
+        <v>59</v>
+      </c>
+      <c r="B63" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="C63" s="19" t="s">
+        <v>237</v>
+      </c>
+      <c r="D63" s="19"/>
+      <c r="E63" s="15" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C64" s="19"/>
+      <c r="D64" s="19"/>
+    </row>
+    <row r="65" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C65" s="19"/>
+      <c r="D65" s="19"/>
+    </row>
+    <row r="66" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C66" s="19"/>
+      <c r="D66" s="19"/>
+    </row>
+    <row r="67" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C67" s="19"/>
+      <c r="D67" s="19"/>
+    </row>
+    <row r="68" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C68" s="19"/>
+      <c r="D68" s="19"/>
+    </row>
+    <row r="69" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C69" s="19"/>
+      <c r="D69" s="19"/>
+    </row>
+    <row r="70" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C70" s="19"/>
+      <c r="D70" s="19"/>
+    </row>
+    <row r="71" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C71" s="19"/>
+      <c r="D71" s="19"/>
+    </row>
+    <row r="72" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C72" s="19"/>
+      <c r="D72" s="19"/>
+    </row>
+    <row r="73" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C73" s="19"/>
+      <c r="D73" s="19"/>
+    </row>
+    <row r="74" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C74" s="19"/>
+      <c r="D74" s="19"/>
+    </row>
+    <row r="75" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C75" s="19"/>
+      <c r="D75" s="19"/>
+    </row>
+    <row r="76" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C76" s="19"/>
+      <c r="D76" s="19"/>
+    </row>
+    <row r="77" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C77" s="19"/>
+      <c r="D77" s="19"/>
+    </row>
+    <row r="78" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C78" s="19"/>
+      <c r="D78" s="19"/>
+    </row>
+    <row r="79" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C79" s="19"/>
+      <c r="D79" s="19"/>
+    </row>
+    <row r="80" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C80" s="19"/>
+      <c r="D80" s="19"/>
+    </row>
+    <row r="81" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C81" s="19"/>
+      <c r="D81" s="19"/>
+    </row>
+    <row r="82" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C82" s="19"/>
+      <c r="D82" s="19"/>
+    </row>
+    <row r="83" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C83" s="19"/>
+      <c r="D83" s="19"/>
+    </row>
+    <row r="84" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C84" s="19"/>
+      <c r="D84" s="19"/>
+    </row>
+    <row r="85" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C85" s="19"/>
+      <c r="D85" s="19"/>
+    </row>
+    <row r="86" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C86" s="19"/>
+      <c r="D86" s="19"/>
+    </row>
+    <row r="87" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C87" s="19"/>
+      <c r="D87" s="19"/>
+    </row>
+    <row r="88" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C88" s="19"/>
+      <c r="D88" s="19"/>
+    </row>
+    <row r="89" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C89" s="19"/>
+      <c r="D89" s="19"/>
+    </row>
+    <row r="90" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C90" s="19"/>
+      <c r="D90" s="19"/>
+    </row>
+    <row r="91" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C91" s="19"/>
+      <c r="D91" s="19"/>
+    </row>
+    <row r="92" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C92" s="19"/>
+      <c r="D92" s="19"/>
+    </row>
+    <row r="93" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C93" s="19"/>
+      <c r="D93" s="19"/>
+    </row>
+    <row r="94" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C94" s="19"/>
+      <c r="D94" s="19"/>
+    </row>
+    <row r="95" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C95" s="19"/>
+      <c r="D95" s="19"/>
+    </row>
+    <row r="96" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C96" s="19"/>
+      <c r="D96" s="19"/>
+    </row>
+    <row r="97" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C97" s="19"/>
+      <c r="D97" s="19"/>
+    </row>
+    <row r="98" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C98" s="19"/>
+      <c r="D98" s="19"/>
+    </row>
+    <row r="99" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C99" s="19"/>
+      <c r="D99" s="19"/>
+    </row>
+    <row r="100" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C100" s="19"/>
+      <c r="D100" s="19"/>
+    </row>
+    <row r="101" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C101" s="19"/>
+      <c r="D101" s="19"/>
+    </row>
+    <row r="102" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C102" s="19"/>
+      <c r="D102" s="19"/>
+    </row>
+    <row r="103" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C103" s="19"/>
+      <c r="D103" s="19"/>
+    </row>
+    <row r="104" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C104" s="19"/>
+      <c r="D104" s="19"/>
+    </row>
+    <row r="105" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C105" s="19"/>
+      <c r="D105" s="19"/>
+    </row>
+    <row r="106" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C106" s="19"/>
+      <c r="D106" s="19"/>
+    </row>
+    <row r="107" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C107" s="19"/>
+      <c r="D107" s="19"/>
+    </row>
+    <row r="108" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C108" s="19"/>
+      <c r="D108" s="19"/>
+    </row>
+    <row r="109" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C109" s="19"/>
+      <c r="D109" s="19"/>
+    </row>
+    <row r="110" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C110" s="19"/>
+      <c r="D110" s="19"/>
+    </row>
+    <row r="111" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C111" s="19"/>
+      <c r="D111" s="19"/>
+    </row>
+    <row r="112" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C112" s="19"/>
+      <c r="D112" s="19"/>
+    </row>
+    <row r="113" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C113" s="19"/>
+      <c r="D113" s="19"/>
+    </row>
+    <row r="114" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C114" s="19"/>
+      <c r="D114" s="19"/>
+    </row>
+    <row r="115" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C115" s="19"/>
+      <c r="D115" s="19"/>
+    </row>
+    <row r="116" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C116" s="19"/>
+      <c r="D116" s="19"/>
+    </row>
+    <row r="117" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C117" s="19"/>
+      <c r="D117" s="19"/>
+    </row>
+    <row r="118" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C118" s="19"/>
+      <c r="D118" s="19"/>
+    </row>
+    <row r="119" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C119" s="19"/>
+      <c r="D119" s="19"/>
+    </row>
+    <row r="120" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C120" s="19"/>
+      <c r="D120" s="19"/>
+    </row>
+    <row r="121" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C121" s="19"/>
+      <c r="D121" s="19"/>
+    </row>
+    <row r="122" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C122" s="19"/>
+      <c r="D122" s="19"/>
+    </row>
+    <row r="123" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C123" s="19"/>
+      <c r="D123" s="19"/>
+    </row>
+    <row r="124" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C124" s="19"/>
+      <c r="D124" s="19"/>
+    </row>
+    <row r="125" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C125" s="19"/>
+      <c r="D125" s="19"/>
+    </row>
+    <row r="126" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C126" s="19"/>
+      <c r="D126" s="19"/>
+    </row>
+    <row r="127" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C127" s="19"/>
+      <c r="D127" s="19"/>
+    </row>
+    <row r="128" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C128" s="19"/>
+      <c r="D128" s="19"/>
+    </row>
+    <row r="129" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C129" s="19"/>
+      <c r="D129" s="19"/>
+    </row>
+    <row r="130" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C130" s="19"/>
+      <c r="D130" s="19"/>
+    </row>
+    <row r="131" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C131" s="19"/>
+      <c r="D131" s="19"/>
+    </row>
+    <row r="132" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C132" s="19"/>
+      <c r="D132" s="19"/>
+    </row>
+    <row r="133" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C133" s="19"/>
+      <c r="D133" s="19"/>
+    </row>
+    <row r="134" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C134" s="19"/>
+      <c r="D134" s="19"/>
+    </row>
+    <row r="135" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C135" s="19"/>
+      <c r="D135" s="19"/>
+    </row>
+    <row r="136" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C136" s="19"/>
+      <c r="D136" s="19"/>
+    </row>
+    <row r="137" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C137" s="19"/>
+      <c r="D137" s="19"/>
+    </row>
+    <row r="138" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C138" s="19"/>
+      <c r="D138" s="19"/>
+    </row>
+    <row r="139" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C139" s="19"/>
+      <c r="D139" s="19"/>
+    </row>
+    <row r="140" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C140" s="19"/>
+      <c r="D140" s="19"/>
+    </row>
+    <row r="141" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C141" s="19"/>
+      <c r="D141" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="141">

--- a/アカウント登録　テストケース.xlsx
+++ b/アカウント登録　テストケース.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1183" uniqueCount="252">
   <si>
     <t>単体テストケース</t>
     <rPh sb="0" eb="2">
@@ -3239,6 +3239,166 @@
     </rPh>
     <rPh sb="15" eb="17">
       <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大原</t>
+    <rPh sb="0" eb="2">
+      <t>オオハラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PC/Windows10/chrome</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>期待する結果となった</t>
+    <rPh sb="0" eb="2">
+      <t>キタイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ケッカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10文字を超える文字数は入力できない結果となった</t>
+    <rPh sb="2" eb="4">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>モジスウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ケッカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>100文字を超える文字数は入力できない結果となった</t>
+    <rPh sb="3" eb="5">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>モジスウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ケッカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7文字を超える文字数は入力できない結果となった</t>
+    <rPh sb="1" eb="3">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>モジスウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ケッカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メールアドレスで半角記号(ハイフンとアットマーク）を入力して、ほかの項目は
+指定された文字を入力し確認ボタンを押下</t>
+    <rPh sb="10" eb="12">
+      <t>キゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エラーが出て、アカウント登録確認画面に遷移できない</t>
+    <rPh sb="4" eb="5">
+      <t>デ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全角ハイフンを入力した場合、アカウント登録画面に遷移できない</t>
+    <rPh sb="0" eb="2">
+      <t>ゼンカク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スペースのみの入力でアカウント登録できてしまう</t>
+    <rPh sb="7" eb="9">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>期待する結果となった</t>
+    <rPh sb="0" eb="2">
+      <t>キタイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ケッカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全角スペースは入力しても遷移可能</t>
+    <rPh sb="0" eb="2">
+      <t>ゼンカク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="12" eb="16">
+      <t>センイカノウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3342,7 +3502,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3398,10 +3558,22 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3700,8 +3872,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J181"/>
   <sheetViews>
-    <sheetView topLeftCell="A133" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C141" sqref="C141:D141"/>
+    <sheetView tabSelected="1" topLeftCell="A112" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I138" sqref="I138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3714,20 +3886,22 @@
     <col min="6" max="6" width="54.25" customWidth="1"/>
     <col min="7" max="7" width="22.875" customWidth="1"/>
     <col min="8" max="8" width="15.875" customWidth="1"/>
+    <col min="9" max="9" width="43.75" customWidth="1"/>
+    <col min="10" max="10" width="19.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21" t="s">
+      <c r="B1" s="25"/>
+      <c r="C1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="21"/>
+      <c r="E1" s="25"/>
       <c r="F1" s="4" t="s">
         <v>3</v>
       </c>
@@ -3736,11 +3910,11 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A2" s="21"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
       <c r="F2" s="4" t="s">
         <v>4</v>
       </c>
@@ -3755,10 +3929,10 @@
       <c r="B4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="22"/>
+      <c r="D4" s="26"/>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
@@ -3785,12 +3959,24 @@
       <c r="B5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="23"/>
+      <c r="D5" s="27"/>
       <c r="E5" s="6" t="s">
         <v>120</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>242</v>
+      </c>
+      <c r="G5" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="H5" s="18">
+        <v>20240304</v>
+      </c>
+      <c r="J5" s="18" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
@@ -3800,12 +3986,24 @@
       <c r="B6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="D6" s="18"/>
+      <c r="D6" s="23"/>
       <c r="E6" s="6" t="s">
         <v>121</v>
+      </c>
+      <c r="F6" s="20" t="s">
+        <v>243</v>
+      </c>
+      <c r="G6" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="H6" s="18">
+        <v>20240304</v>
+      </c>
+      <c r="J6" s="18" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
@@ -3815,12 +4013,24 @@
       <c r="B7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="D7" s="18"/>
+      <c r="D7" s="23"/>
       <c r="E7" s="6" t="s">
         <v>121</v>
+      </c>
+      <c r="F7" s="20" t="s">
+        <v>243</v>
+      </c>
+      <c r="G7" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="H7" s="18">
+        <v>20240304</v>
+      </c>
+      <c r="J7" s="18" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
@@ -3830,12 +4040,24 @@
       <c r="B8" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="D8" s="18"/>
+      <c r="D8" s="23"/>
       <c r="E8" s="6" t="s">
         <v>121</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>243</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="H8" s="18">
+        <v>20240304</v>
+      </c>
+      <c r="J8" s="18" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
@@ -3845,12 +4067,24 @@
       <c r="B9" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="D9" s="20"/>
+      <c r="D9" s="24"/>
       <c r="E9" s="6" t="s">
         <v>121</v>
+      </c>
+      <c r="F9" s="20" t="s">
+        <v>243</v>
+      </c>
+      <c r="G9" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="H9" s="18">
+        <v>20240304</v>
+      </c>
+      <c r="J9" s="18" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
@@ -3860,12 +4094,24 @@
       <c r="B10" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="D10" s="20"/>
+      <c r="D10" s="24"/>
       <c r="E10" s="6" t="s">
         <v>121</v>
+      </c>
+      <c r="F10" s="20" t="s">
+        <v>244</v>
+      </c>
+      <c r="G10" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="H10" s="18">
+        <v>20240304</v>
+      </c>
+      <c r="J10" s="18" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
@@ -3875,12 +4121,24 @@
       <c r="B11" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="C11" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="D11" s="20"/>
+      <c r="D11" s="24"/>
       <c r="E11" s="6" t="s">
         <v>121</v>
+      </c>
+      <c r="F11" s="20" t="s">
+        <v>243</v>
+      </c>
+      <c r="G11" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="H11" s="18">
+        <v>20240304</v>
+      </c>
+      <c r="J11" s="18" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
@@ -3890,12 +4148,24 @@
       <c r="B12" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="C12" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="D12" s="20"/>
+      <c r="D12" s="24"/>
       <c r="E12" s="6" t="s">
         <v>121</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>245</v>
+      </c>
+      <c r="G12" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="H12" s="18">
+        <v>20240304</v>
+      </c>
+      <c r="J12" s="18" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
@@ -3905,13 +4175,25 @@
       <c r="B13" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="20" t="s">
+      <c r="C13" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="D13" s="20"/>
+      <c r="D13" s="24"/>
       <c r="E13" s="6" t="s">
         <v>121</v>
       </c>
+      <c r="F13" s="20" t="s">
+        <v>243</v>
+      </c>
+      <c r="G13" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="H13" s="18">
+        <v>20240304</v>
+      </c>
+      <c r="J13" s="18" t="s">
+        <v>241</v>
+      </c>
     </row>
     <row r="14" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
@@ -3920,12 +4202,24 @@
       <c r="B14" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="20" t="s">
+      <c r="C14" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="D14" s="20"/>
+      <c r="D14" s="24"/>
       <c r="E14" s="6" t="s">
         <v>121</v>
+      </c>
+      <c r="F14" s="20" t="s">
+        <v>244</v>
+      </c>
+      <c r="G14" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="H14" s="18">
+        <v>20240304</v>
+      </c>
+      <c r="J14" s="18" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
@@ -3935,12 +4229,24 @@
       <c r="B15" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="19" t="s">
+      <c r="C15" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="19"/>
+      <c r="D15" s="22"/>
       <c r="E15" s="6" t="s">
         <v>122</v>
+      </c>
+      <c r="F15" s="18" t="s">
+        <v>242</v>
+      </c>
+      <c r="G15" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="H15" s="21">
+        <v>20240306</v>
+      </c>
+      <c r="J15" s="18" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
@@ -3950,2169 +4256,3641 @@
       <c r="B16" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="19" t="s">
+      <c r="C16" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="19"/>
+      <c r="D16" s="22"/>
       <c r="E16" s="6" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F16" s="18" t="s">
+        <v>242</v>
+      </c>
+      <c r="G16" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="H16" s="21">
+        <v>20240306</v>
+      </c>
+      <c r="J16" s="18" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="3">
         <v>13</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="C17" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="19"/>
+      <c r="D17" s="22"/>
       <c r="E17" s="6" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F17" s="18" t="s">
+        <v>242</v>
+      </c>
+      <c r="G17" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="H17" s="21">
+        <v>20240306</v>
+      </c>
+      <c r="J17" s="18" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="3">
         <v>14</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="18" t="s">
+      <c r="C18" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="19"/>
+      <c r="D18" s="22"/>
       <c r="E18" s="6" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F18" s="18" t="s">
+        <v>242</v>
+      </c>
+      <c r="G18" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="H18" s="21">
+        <v>20240306</v>
+      </c>
+      <c r="J18" s="18" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="3">
         <v>15</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="18" t="s">
+      <c r="C19" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="19"/>
+      <c r="D19" s="22"/>
       <c r="E19" s="6" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F19" s="19" t="s">
+        <v>242</v>
+      </c>
+      <c r="G19" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="H19" s="21">
+        <v>20240306</v>
+      </c>
+      <c r="J19" s="18" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="3">
         <v>16</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="18" t="s">
+      <c r="C20" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="D20" s="19"/>
+      <c r="D20" s="22"/>
       <c r="E20" s="6" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F20" s="19" t="s">
+        <v>242</v>
+      </c>
+      <c r="G20" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="H20" s="21">
+        <v>20240306</v>
+      </c>
+      <c r="J20" s="18" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="3">
         <v>17</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="18" t="s">
+      <c r="C21" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="D21" s="19"/>
+      <c r="D21" s="22"/>
       <c r="E21" s="6" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F21" s="19" t="s">
+        <v>242</v>
+      </c>
+      <c r="G21" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="H21" s="21">
+        <v>20240306</v>
+      </c>
+      <c r="J21" s="18" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="3">
         <v>18</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="18" t="s">
+      <c r="C22" s="23" t="s">
         <v>136</v>
       </c>
-      <c r="D22" s="19"/>
+      <c r="D22" s="22"/>
       <c r="E22" s="6" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F22" s="19" t="s">
+        <v>242</v>
+      </c>
+      <c r="G22" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="H22" s="21">
+        <v>20240306</v>
+      </c>
+      <c r="J22" s="18" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="3">
         <v>19</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C23" s="18" t="s">
+      <c r="C23" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="D23" s="18"/>
+      <c r="D23" s="23"/>
       <c r="E23" s="6" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F23" s="19" t="s">
+        <v>242</v>
+      </c>
+      <c r="G23" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="H23" s="21">
+        <v>20240306</v>
+      </c>
+      <c r="J23" s="18" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="3">
         <v>20</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C24" s="18" t="s">
+      <c r="C24" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="D24" s="19"/>
+      <c r="D24" s="22"/>
       <c r="E24" s="6" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F24" s="19" t="s">
+        <v>242</v>
+      </c>
+      <c r="G24" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="H24" s="21">
+        <v>20240306</v>
+      </c>
+      <c r="J24" s="18" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="3">
         <v>21</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C25" s="18" t="s">
+      <c r="C25" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="D25" s="19"/>
+      <c r="D25" s="22"/>
       <c r="E25" s="6" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F25" s="19" t="s">
+        <v>242</v>
+      </c>
+      <c r="G25" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="H25" s="21">
+        <v>20240306</v>
+      </c>
+      <c r="J25" s="18" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="3">
         <v>22</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C26" s="18" t="s">
+      <c r="C26" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="D26" s="19"/>
+      <c r="D26" s="22"/>
       <c r="E26" s="6" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F26" s="19" t="s">
+        <v>242</v>
+      </c>
+      <c r="G26" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="H26" s="21">
+        <v>20240306</v>
+      </c>
+      <c r="J26" s="18" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="3">
         <v>23</v>
       </c>
       <c r="B27" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C27" s="18" t="s">
+      <c r="C27" s="23" t="s">
         <v>134</v>
       </c>
-      <c r="D27" s="19"/>
+      <c r="D27" s="22"/>
       <c r="E27" s="6" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F27" s="19" t="s">
+        <v>242</v>
+      </c>
+      <c r="G27" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="H27" s="21">
+        <v>20240306</v>
+      </c>
+      <c r="J27" s="18" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="3">
         <v>24</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C28" s="18" t="s">
+      <c r="C28" s="23" t="s">
         <v>133</v>
       </c>
-      <c r="D28" s="18"/>
+      <c r="D28" s="23"/>
       <c r="E28" s="6" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F28" s="19" t="s">
+        <v>242</v>
+      </c>
+      <c r="G28" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="H28" s="21">
+        <v>20240306</v>
+      </c>
+      <c r="J28" s="18" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="3">
         <v>25</v>
       </c>
       <c r="B29" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C29" s="18" t="s">
+      <c r="C29" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="D29" s="19"/>
+      <c r="D29" s="22"/>
       <c r="E29" s="6" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F29" s="19" t="s">
+        <v>242</v>
+      </c>
+      <c r="G29" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="H29" s="21">
+        <v>20240306</v>
+      </c>
+      <c r="J29" s="18" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="3">
         <v>26</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C30" s="18" t="s">
+      <c r="C30" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="D30" s="19"/>
+      <c r="D30" s="22"/>
       <c r="E30" s="6" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F30" s="19" t="s">
+        <v>242</v>
+      </c>
+      <c r="G30" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="H30" s="21">
+        <v>20240306</v>
+      </c>
+      <c r="J30" s="18" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="3">
         <v>27</v>
       </c>
       <c r="B31" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C31" s="18" t="s">
+      <c r="C31" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="D31" s="19"/>
+      <c r="D31" s="22"/>
       <c r="E31" s="6" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F31" s="19" t="s">
+        <v>242</v>
+      </c>
+      <c r="G31" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="H31" s="21">
+        <v>20240306</v>
+      </c>
+      <c r="J31" s="18" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="3">
         <v>28</v>
       </c>
       <c r="B32" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C32" s="18" t="s">
+      <c r="C32" s="23" t="s">
         <v>131</v>
       </c>
-      <c r="D32" s="19"/>
+      <c r="D32" s="22"/>
       <c r="E32" s="6" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F32" s="19" t="s">
+        <v>242</v>
+      </c>
+      <c r="G32" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="H32" s="21">
+        <v>20240306</v>
+      </c>
+      <c r="J32" s="18" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="3">
         <v>29</v>
       </c>
       <c r="B33" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C33" s="18" t="s">
+      <c r="C33" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="D33" s="18"/>
+      <c r="D33" s="23"/>
       <c r="E33" s="6" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F33" s="19" t="s">
+        <v>242</v>
+      </c>
+      <c r="G33" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="H33" s="21">
+        <v>20240306</v>
+      </c>
+      <c r="J33" s="18" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="3">
         <v>30</v>
       </c>
       <c r="B34" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C34" s="18" t="s">
+      <c r="C34" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="D34" s="19"/>
+      <c r="D34" s="22"/>
       <c r="E34" s="6" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F34" s="19" t="s">
+        <v>242</v>
+      </c>
+      <c r="G34" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="H34" s="21">
+        <v>20240306</v>
+      </c>
+      <c r="J34" s="18" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="3">
         <v>31</v>
       </c>
       <c r="B35" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C35" s="18" t="s">
+      <c r="C35" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="D35" s="19"/>
+      <c r="D35" s="22"/>
       <c r="E35" s="6" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F35" s="19" t="s">
+        <v>242</v>
+      </c>
+      <c r="G35" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="H35" s="21">
+        <v>20240306</v>
+      </c>
+      <c r="J35" s="18" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="3">
         <v>32</v>
       </c>
       <c r="B36" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C36" s="18" t="s">
+      <c r="C36" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="D36" s="19"/>
+      <c r="D36" s="22"/>
       <c r="E36" s="6" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F36" s="19" t="s">
+        <v>242</v>
+      </c>
+      <c r="G36" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="H36" s="21">
+        <v>20240306</v>
+      </c>
+      <c r="J36" s="18" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="3">
         <v>33</v>
       </c>
       <c r="B37" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C37" s="18" t="s">
+      <c r="C37" s="23" t="s">
         <v>129</v>
       </c>
-      <c r="D37" s="19"/>
+      <c r="D37" s="22"/>
       <c r="E37" s="6" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F37" s="19" t="s">
+        <v>242</v>
+      </c>
+      <c r="G37" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="H37" s="21">
+        <v>20240306</v>
+      </c>
+      <c r="J37" s="18" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="3">
         <v>34</v>
       </c>
       <c r="B38" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C38" s="18" t="s">
+      <c r="C38" s="23" t="s">
         <v>130</v>
       </c>
-      <c r="D38" s="18"/>
+      <c r="D38" s="23"/>
       <c r="E38" s="6" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F38" s="19" t="s">
+        <v>242</v>
+      </c>
+      <c r="G38" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="H38" s="21">
+        <v>20240306</v>
+      </c>
+      <c r="J38" s="18" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="3">
         <v>35</v>
       </c>
       <c r="B39" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C39" s="18" t="s">
+      <c r="C39" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="D39" s="19"/>
+      <c r="D39" s="22"/>
       <c r="E39" s="6" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F39" s="19" t="s">
+        <v>242</v>
+      </c>
+      <c r="G39" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="H39" s="21">
+        <v>20240306</v>
+      </c>
+      <c r="J39" s="18" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="3">
         <v>36</v>
       </c>
       <c r="B40" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C40" s="18" t="s">
+      <c r="C40" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="D40" s="19"/>
+      <c r="D40" s="22"/>
       <c r="E40" s="6" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F40" s="19" t="s">
+        <v>242</v>
+      </c>
+      <c r="G40" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="H40" s="21">
+        <v>20240306</v>
+      </c>
+      <c r="J40" s="18" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="3">
         <v>37</v>
       </c>
       <c r="B41" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C41" s="18" t="s">
+      <c r="C41" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="D41" s="19"/>
+      <c r="D41" s="22"/>
       <c r="E41" s="6" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F41" s="19" t="s">
+        <v>242</v>
+      </c>
+      <c r="G41" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="H41" s="21">
+        <v>20240306</v>
+      </c>
+      <c r="J41" s="18" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="3">
         <v>38</v>
       </c>
       <c r="B42" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C42" s="18" t="s">
+      <c r="C42" s="23" t="s">
         <v>127</v>
       </c>
-      <c r="D42" s="19"/>
+      <c r="D42" s="22"/>
       <c r="E42" s="6" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F42" s="19" t="s">
+        <v>242</v>
+      </c>
+      <c r="G42" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="H42" s="21">
+        <v>20240306</v>
+      </c>
+      <c r="J42" s="18" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="3">
         <v>39</v>
       </c>
       <c r="B43" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C43" s="18" t="s">
-        <v>128</v>
-      </c>
-      <c r="D43" s="18"/>
+      <c r="C43" s="23" t="s">
+        <v>246</v>
+      </c>
+      <c r="D43" s="23"/>
       <c r="E43" s="6" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F43" s="19" t="s">
+        <v>242</v>
+      </c>
+      <c r="G43" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="H43" s="21">
+        <v>20240306</v>
+      </c>
+      <c r="J43" s="18" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="3">
         <v>40</v>
       </c>
       <c r="B44" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C44" s="18" t="s">
+      <c r="C44" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="D44" s="19"/>
+      <c r="D44" s="22"/>
       <c r="E44" s="6" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F44" s="19" t="s">
+        <v>242</v>
+      </c>
+      <c r="G44" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="H44" s="21">
+        <v>20240306</v>
+      </c>
+      <c r="J44" s="18" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="3">
         <v>41</v>
       </c>
       <c r="B45" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C45" s="18" t="s">
+      <c r="C45" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="D45" s="19"/>
+      <c r="D45" s="22"/>
       <c r="E45" s="6" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F45" s="19" t="s">
+        <v>242</v>
+      </c>
+      <c r="G45" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="H45" s="21">
+        <v>20240306</v>
+      </c>
+      <c r="J45" s="18" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="3">
         <v>42</v>
       </c>
       <c r="B46" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C46" s="18" t="s">
+      <c r="C46" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="D46" s="19"/>
+      <c r="D46" s="22"/>
       <c r="E46" s="6" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F46" s="19" t="s">
+        <v>242</v>
+      </c>
+      <c r="G46" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="H46" s="21">
+        <v>20240306</v>
+      </c>
+      <c r="J46" s="18" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="3">
         <v>43</v>
       </c>
       <c r="B47" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C47" s="18" t="s">
+      <c r="C47" s="23" t="s">
         <v>125</v>
       </c>
-      <c r="D47" s="19"/>
+      <c r="D47" s="22"/>
       <c r="E47" s="6" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F47" s="19" t="s">
+        <v>242</v>
+      </c>
+      <c r="G47" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="H47" s="21">
+        <v>20240306</v>
+      </c>
+      <c r="J47" s="18" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="3">
         <v>44</v>
       </c>
       <c r="B48" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C48" s="18" t="s">
+      <c r="C48" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="D48" s="18"/>
+      <c r="D48" s="23"/>
       <c r="E48" s="15" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F48" s="19" t="s">
+        <v>242</v>
+      </c>
+      <c r="G48" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="H48" s="21">
+        <v>20240306</v>
+      </c>
+      <c r="J48" s="18" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="3">
         <v>45</v>
       </c>
       <c r="B49" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C49" s="18" t="s">
+      <c r="C49" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="D49" s="19"/>
+      <c r="D49" s="22"/>
       <c r="E49" s="6" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F49" s="19" t="s">
+        <v>242</v>
+      </c>
+      <c r="G49" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="H49" s="21">
+        <v>20240306</v>
+      </c>
+      <c r="J49" s="18" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="3">
         <v>46</v>
       </c>
       <c r="B50" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C50" s="18" t="s">
+      <c r="C50" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="D50" s="19"/>
+      <c r="D50" s="22"/>
       <c r="E50" s="6" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F50" s="19" t="s">
+        <v>242</v>
+      </c>
+      <c r="G50" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="H50" s="21">
+        <v>20240306</v>
+      </c>
+      <c r="J50" s="18" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="3">
         <v>47</v>
       </c>
       <c r="B51" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C51" s="18" t="s">
+      <c r="C51" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="D51" s="19"/>
+      <c r="D51" s="22"/>
       <c r="E51" s="6" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F51" s="19" t="s">
+        <v>242</v>
+      </c>
+      <c r="G51" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="H51" s="21">
+        <v>20240306</v>
+      </c>
+      <c r="J51" s="18" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="3">
         <v>48</v>
       </c>
       <c r="B52" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C52" s="18" t="s">
+      <c r="C52" s="23" t="s">
         <v>140</v>
       </c>
-      <c r="D52" s="18"/>
+      <c r="D52" s="23"/>
       <c r="E52" s="6" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F52" s="19" t="s">
+        <v>242</v>
+      </c>
+      <c r="G52" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="H52" s="21">
+        <v>20240306</v>
+      </c>
+      <c r="J52" s="18" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="3">
         <v>49</v>
       </c>
       <c r="B53" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C53" s="18" t="s">
+      <c r="C53" s="23" t="s">
         <v>138</v>
       </c>
-      <c r="D53" s="19"/>
+      <c r="D53" s="22"/>
       <c r="E53" s="6" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F53" s="19" t="s">
+        <v>242</v>
+      </c>
+      <c r="G53" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="H53" s="21">
+        <v>20240306</v>
+      </c>
+      <c r="J53" s="18" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="3">
         <v>50</v>
       </c>
       <c r="B54" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C54" s="18" t="s">
+      <c r="C54" s="23" t="s">
         <v>137</v>
       </c>
-      <c r="D54" s="18"/>
+      <c r="D54" s="23"/>
       <c r="E54" s="6" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F54" s="19" t="s">
+        <v>242</v>
+      </c>
+      <c r="G54" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="H54" s="21">
+        <v>20240306</v>
+      </c>
+      <c r="J54" s="18" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="3">
         <v>51</v>
       </c>
       <c r="B55" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C55" s="18" t="s">
+      <c r="C55" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="D55" s="19"/>
+      <c r="D55" s="22"/>
       <c r="E55" s="6" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F55" s="19" t="s">
+        <v>242</v>
+      </c>
+      <c r="G55" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="H55" s="21">
+        <v>20240306</v>
+      </c>
+      <c r="J55" s="18" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="3">
         <v>52</v>
       </c>
       <c r="B56" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C56" s="18" t="s">
+      <c r="C56" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="D56" s="19"/>
+      <c r="D56" s="22"/>
       <c r="E56" s="6" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F56" s="19" t="s">
+        <v>242</v>
+      </c>
+      <c r="G56" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="H56" s="21">
+        <v>20240306</v>
+      </c>
+      <c r="J56" s="18" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="3">
         <v>53</v>
       </c>
       <c r="B57" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C57" s="18" t="s">
+      <c r="C57" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="D57" s="19"/>
+      <c r="D57" s="22"/>
       <c r="E57" s="6" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F57" s="19" t="s">
+        <v>242</v>
+      </c>
+      <c r="G57" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="H57" s="21">
+        <v>20240306</v>
+      </c>
+      <c r="J57" s="18" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="3">
         <v>54</v>
       </c>
       <c r="B58" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C58" s="18" t="s">
+      <c r="C58" s="23" t="s">
         <v>148</v>
       </c>
-      <c r="D58" s="19"/>
+      <c r="D58" s="22"/>
       <c r="E58" s="6" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F58" s="19" t="s">
+        <v>242</v>
+      </c>
+      <c r="G58" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="H58" s="21">
+        <v>20240306</v>
+      </c>
+      <c r="J58" s="18" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="3">
         <v>55</v>
       </c>
       <c r="B59" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C59" s="18" t="s">
+      <c r="C59" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="D59" s="18"/>
+      <c r="D59" s="23"/>
       <c r="E59" s="6" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F59" s="19" t="s">
+        <v>242</v>
+      </c>
+      <c r="G59" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="H59" s="21">
+        <v>20240306</v>
+      </c>
+      <c r="J59" s="18" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="3">
         <v>56</v>
       </c>
       <c r="B60" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C60" s="18" t="s">
+      <c r="C60" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="D60" s="19"/>
+      <c r="D60" s="22"/>
       <c r="E60" s="6" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F60" s="19" t="s">
+        <v>242</v>
+      </c>
+      <c r="G60" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="H60" s="21">
+        <v>20240306</v>
+      </c>
+      <c r="J60" s="18" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="3">
         <v>57</v>
       </c>
       <c r="B61" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C61" s="18" t="s">
+      <c r="C61" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="D61" s="19"/>
+      <c r="D61" s="22"/>
       <c r="E61" s="6" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F61" s="19" t="s">
+        <v>242</v>
+      </c>
+      <c r="G61" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="H61" s="21">
+        <v>20240306</v>
+      </c>
+      <c r="J61" s="18" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="3">
         <v>58</v>
       </c>
       <c r="B62" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C62" s="18" t="s">
+      <c r="C62" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="D62" s="19"/>
+      <c r="D62" s="22"/>
       <c r="E62" s="6" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F62" s="19" t="s">
+        <v>242</v>
+      </c>
+      <c r="G62" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="H62" s="21">
+        <v>20240306</v>
+      </c>
+      <c r="J62" s="18" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="3">
         <v>59</v>
       </c>
       <c r="B63" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C63" s="18" t="s">
+      <c r="C63" s="23" t="s">
         <v>149</v>
       </c>
-      <c r="D63" s="19"/>
+      <c r="D63" s="22"/>
       <c r="E63" s="6" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F63" s="19" t="s">
+        <v>242</v>
+      </c>
+      <c r="G63" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="H63" s="21">
+        <v>20240306</v>
+      </c>
+      <c r="J63" s="18" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="3">
         <v>60</v>
       </c>
       <c r="B64" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C64" s="18" t="s">
+      <c r="C64" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="D64" s="18"/>
+      <c r="D64" s="23"/>
       <c r="E64" s="6" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F64" s="19" t="s">
+        <v>242</v>
+      </c>
+      <c r="G64" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="H64" s="21">
+        <v>20240306</v>
+      </c>
+      <c r="J64" s="18" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="3">
         <v>61</v>
       </c>
       <c r="B65" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C65" s="18" t="s">
+      <c r="C65" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="D65" s="19"/>
+      <c r="D65" s="22"/>
       <c r="E65" s="6" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F65" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="G65" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="H65" s="21">
+        <v>20240306</v>
+      </c>
+      <c r="J65" s="18" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="3">
         <v>62</v>
       </c>
       <c r="B66" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C66" s="19" t="s">
+      <c r="C66" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="D66" s="19"/>
+      <c r="D66" s="22"/>
       <c r="E66" s="6" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F66" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="G66" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="H66" s="21">
+        <v>20240306</v>
+      </c>
+      <c r="J66" s="18" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="3">
         <v>63</v>
       </c>
       <c r="B67" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C67" s="19" t="s">
+      <c r="C67" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="D67" s="19"/>
+      <c r="D67" s="22"/>
       <c r="E67" s="6" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F67" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="G67" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="H67" s="21">
+        <v>20240306</v>
+      </c>
+      <c r="J67" s="18" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="3">
         <v>64</v>
       </c>
       <c r="B68" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C68" s="19" t="s">
+      <c r="C68" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="D68" s="19"/>
+      <c r="D68" s="22"/>
       <c r="E68" s="6" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F68" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="G68" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="H68" s="21">
+        <v>20240306</v>
+      </c>
+      <c r="J68" s="18" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="3">
         <v>65</v>
       </c>
       <c r="B69" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C69" s="19" t="s">
+      <c r="C69" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="D69" s="19"/>
+      <c r="D69" s="22"/>
       <c r="E69" s="6" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F69" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="G69" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="H69" s="21">
+        <v>20240306</v>
+      </c>
+      <c r="J69" s="18" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="3">
         <v>66</v>
       </c>
       <c r="B70" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C70" s="19" t="s">
+      <c r="C70" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="D70" s="19"/>
+      <c r="D70" s="22"/>
       <c r="E70" s="6" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F70" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="G70" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="H70" s="21">
+        <v>20240306</v>
+      </c>
+      <c r="J70" s="18" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="3">
         <v>67</v>
       </c>
       <c r="B71" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C71" s="19" t="s">
+      <c r="C71" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="D71" s="19"/>
+      <c r="D71" s="22"/>
       <c r="E71" s="6" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F71" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="G71" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="H71" s="21">
+        <v>20240306</v>
+      </c>
+      <c r="J71" s="18" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="3">
         <v>68</v>
       </c>
       <c r="B72" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C72" s="19" t="s">
+      <c r="C72" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="D72" s="19"/>
+      <c r="D72" s="22"/>
       <c r="E72" s="6" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F72" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="G72" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="H72" s="21">
+        <v>20240306</v>
+      </c>
+      <c r="J72" s="18" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="3">
         <v>69</v>
       </c>
       <c r="B73" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C73" s="19" t="s">
+      <c r="C73" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="D73" s="19"/>
+      <c r="D73" s="22"/>
       <c r="E73" s="6" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F73" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="G73" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="H73" s="21">
+        <v>20240306</v>
+      </c>
+      <c r="J73" s="18" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="3">
         <v>70</v>
       </c>
       <c r="B74" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C74" s="18" t="s">
+      <c r="C74" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="D74" s="19"/>
+      <c r="D74" s="22"/>
       <c r="E74" s="6" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F74" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="G74" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="H74" s="21">
+        <v>20240306</v>
+      </c>
+      <c r="J74" s="18" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="3">
         <v>71</v>
       </c>
       <c r="B75" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C75" s="19" t="s">
+      <c r="C75" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="D75" s="19"/>
+      <c r="D75" s="22"/>
       <c r="E75" s="6" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F75" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="G75" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="H75" s="21">
+        <v>20240306</v>
+      </c>
+      <c r="J75" s="18" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="3">
         <v>72</v>
       </c>
       <c r="B76" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C76" s="18" t="s">
+      <c r="C76" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="D76" s="19"/>
+      <c r="D76" s="22"/>
       <c r="E76" s="6" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F76" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="G76" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="H76" s="21">
+        <v>20240306</v>
+      </c>
+      <c r="J76" s="18" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="3">
         <v>73</v>
       </c>
       <c r="B77" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C77" s="18" t="s">
+      <c r="C77" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="D77" s="19"/>
+      <c r="D77" s="22"/>
       <c r="E77" s="6" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F77" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="G77" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="H77" s="21">
+        <v>20240306</v>
+      </c>
+      <c r="J77" s="18" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="3">
         <v>74</v>
       </c>
       <c r="B78" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C78" s="18" t="s">
+      <c r="C78" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="D78" s="19"/>
+      <c r="D78" s="22"/>
       <c r="E78" s="6" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F78" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="G78" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="H78" s="21">
+        <v>20240306</v>
+      </c>
+      <c r="J78" s="18" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="3">
         <v>75</v>
       </c>
       <c r="B79" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C79" s="18" t="s">
+      <c r="C79" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="D79" s="19"/>
+      <c r="D79" s="22"/>
       <c r="E79" s="6" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F79" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="G79" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="H79" s="21">
+        <v>20240306</v>
+      </c>
+      <c r="J79" s="18" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="3">
         <v>76</v>
       </c>
       <c r="B80" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C80" s="18" t="s">
+      <c r="C80" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="D80" s="19"/>
+      <c r="D80" s="22"/>
       <c r="E80" s="6" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F80" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="G80" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="H80" s="21">
+        <v>20240306</v>
+      </c>
+      <c r="J80" s="18" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="3">
         <v>77</v>
       </c>
       <c r="B81" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C81" s="18" t="s">
+      <c r="C81" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="D81" s="19"/>
+      <c r="D81" s="22"/>
       <c r="E81" s="6" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F81" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="G81" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="H81" s="21">
+        <v>20240306</v>
+      </c>
+      <c r="J81" s="18" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="3">
         <v>78</v>
       </c>
       <c r="B82" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C82" s="18" t="s">
+      <c r="C82" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="D82" s="19"/>
+      <c r="D82" s="22"/>
       <c r="E82" s="6" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F82" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="G82" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="H82" s="21">
+        <v>20240306</v>
+      </c>
+      <c r="J82" s="18" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="3">
         <v>79</v>
       </c>
       <c r="B83" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C83" s="18" t="s">
+      <c r="C83" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="D83" s="19"/>
+      <c r="D83" s="22"/>
       <c r="E83" s="6" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F83" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="G83" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="H83" s="21">
+        <v>20240306</v>
+      </c>
+      <c r="J83" s="18" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="3">
         <v>80</v>
       </c>
       <c r="B84" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C84" s="18" t="s">
+      <c r="C84" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="D84" s="19"/>
+      <c r="D84" s="22"/>
       <c r="E84" s="6" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F84" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="G84" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="H84" s="21">
+        <v>20240306</v>
+      </c>
+      <c r="J84" s="18" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="3">
         <v>81</v>
       </c>
       <c r="B85" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C85" s="18" t="s">
+      <c r="C85" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="D85" s="19"/>
+      <c r="D85" s="22"/>
       <c r="E85" s="6" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F85" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="G85" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="H85" s="21">
+        <v>20240306</v>
+      </c>
+      <c r="J85" s="18" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="3">
         <v>82</v>
       </c>
       <c r="B86" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C86" s="18" t="s">
+      <c r="C86" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="D86" s="19"/>
+      <c r="D86" s="22"/>
       <c r="E86" s="6" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F86" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="G86" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="H86" s="21">
+        <v>20240306</v>
+      </c>
+      <c r="J86" s="18" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="3">
         <v>83</v>
       </c>
       <c r="B87" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C87" s="18" t="s">
+      <c r="C87" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="D87" s="19"/>
+      <c r="D87" s="22"/>
       <c r="E87" s="6" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F87" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="G87" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="H87" s="21">
+        <v>20240306</v>
+      </c>
+      <c r="J87" s="18" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="3">
         <v>84</v>
       </c>
       <c r="B88" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C88" s="18" t="s">
+      <c r="C88" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="D88" s="19"/>
+      <c r="D88" s="22"/>
       <c r="E88" s="6" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F88" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="G88" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="H88" s="21">
+        <v>20240306</v>
+      </c>
+      <c r="J88" s="18" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="3">
         <v>85</v>
       </c>
       <c r="B89" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C89" s="18" t="s">
+      <c r="C89" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="D89" s="19"/>
+      <c r="D89" s="22"/>
       <c r="E89" s="6" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F89" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="G89" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="H89" s="21">
+        <v>20240306</v>
+      </c>
+      <c r="J89" s="18" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="3">
         <v>86</v>
       </c>
       <c r="B90" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C90" s="18" t="s">
+      <c r="C90" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="D90" s="19"/>
+      <c r="D90" s="22"/>
       <c r="E90" s="6" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F90" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="G90" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="H90" s="21">
+        <v>20240306</v>
+      </c>
+      <c r="J90" s="18" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="3">
         <v>87</v>
       </c>
       <c r="B91" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C91" s="18" t="s">
+      <c r="C91" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="D91" s="19"/>
+      <c r="D91" s="22"/>
       <c r="E91" s="6" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F91" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="G91" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="H91" s="21">
+        <v>20240306</v>
+      </c>
+      <c r="J91" s="18" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="3">
         <v>88</v>
       </c>
       <c r="B92" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C92" s="18" t="s">
+      <c r="C92" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="D92" s="19"/>
+      <c r="D92" s="22"/>
       <c r="E92" s="6" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F92" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="G92" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="H92" s="21">
+        <v>20240306</v>
+      </c>
+      <c r="J92" s="18" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="3">
         <v>89</v>
       </c>
       <c r="B93" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C93" s="18" t="s">
+      <c r="C93" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="D93" s="19"/>
+      <c r="D93" s="22"/>
       <c r="E93" s="6" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F93" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="G93" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="H93" s="21">
+        <v>20240306</v>
+      </c>
+      <c r="J93" s="18" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="3">
         <v>90</v>
       </c>
       <c r="B94" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C94" s="18" t="s">
+      <c r="C94" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="D94" s="19"/>
+      <c r="D94" s="22"/>
       <c r="E94" s="6" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F94" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="G94" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="H94" s="21">
+        <v>20240306</v>
+      </c>
+      <c r="J94" s="18" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="3">
         <v>91</v>
       </c>
       <c r="B95" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C95" s="18" t="s">
+      <c r="C95" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="D95" s="19"/>
+      <c r="D95" s="22"/>
       <c r="E95" s="6" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F95" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="G95" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="H95" s="21">
+        <v>20240306</v>
+      </c>
+      <c r="J95" s="18" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="3">
         <v>92</v>
       </c>
       <c r="B96" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C96" s="18" t="s">
+      <c r="C96" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="D96" s="19"/>
+      <c r="D96" s="22"/>
       <c r="E96" s="6" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="97" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F96" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="G96" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="H96" s="21">
+        <v>20240306</v>
+      </c>
+      <c r="J96" s="18" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="3">
         <v>93</v>
       </c>
       <c r="B97" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C97" s="18" t="s">
+      <c r="C97" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="D97" s="19"/>
+      <c r="D97" s="22"/>
       <c r="E97" s="6" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="98" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F97" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="G97" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="H97" s="21">
+        <v>20240306</v>
+      </c>
+      <c r="J97" s="18" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="3">
         <v>94</v>
       </c>
       <c r="B98" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C98" s="18" t="s">
+      <c r="C98" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="D98" s="19"/>
+      <c r="D98" s="22"/>
       <c r="E98" s="6" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F98" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="G98" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="H98" s="21">
+        <v>20240306</v>
+      </c>
+      <c r="J98" s="18" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="3">
         <v>95</v>
       </c>
       <c r="B99" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C99" s="18" t="s">
+      <c r="C99" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="D99" s="19"/>
+      <c r="D99" s="22"/>
       <c r="E99" s="6" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="100" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F99" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="G99" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="H99" s="21">
+        <v>20240306</v>
+      </c>
+      <c r="J99" s="18" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="3">
         <v>96</v>
       </c>
       <c r="B100" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C100" s="18" t="s">
+      <c r="C100" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="D100" s="19"/>
+      <c r="D100" s="22"/>
       <c r="E100" s="6" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="101" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F100" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="G100" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="H100" s="21">
+        <v>20240306</v>
+      </c>
+      <c r="J100" s="18" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="3">
         <v>97</v>
       </c>
       <c r="B101" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C101" s="18" t="s">
+      <c r="C101" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="D101" s="19"/>
+      <c r="D101" s="22"/>
       <c r="E101" s="6" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="102" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F101" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="G101" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="H101" s="21">
+        <v>20240306</v>
+      </c>
+      <c r="J101" s="18" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" s="3">
         <v>98</v>
       </c>
       <c r="B102" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C102" s="18" t="s">
+      <c r="C102" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="D102" s="19"/>
+      <c r="D102" s="22"/>
       <c r="E102" s="6" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="103" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F102" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="G102" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="H102" s="21">
+        <v>20240306</v>
+      </c>
+      <c r="J102" s="18" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="3">
         <v>99</v>
       </c>
       <c r="B103" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C103" s="18" t="s">
+      <c r="C103" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="D103" s="19"/>
+      <c r="D103" s="22"/>
       <c r="E103" s="6" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="104" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F103" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="G103" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="H103" s="21">
+        <v>20240306</v>
+      </c>
+      <c r="J103" s="18" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="3">
         <v>100</v>
       </c>
       <c r="B104" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C104" s="18" t="s">
+      <c r="C104" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="D104" s="19"/>
+      <c r="D104" s="22"/>
       <c r="E104" s="6" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="105" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F104" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="G104" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="H104" s="21">
+        <v>20240306</v>
+      </c>
+      <c r="J104" s="18" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="3">
         <v>101</v>
       </c>
       <c r="B105" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C105" s="18" t="s">
+      <c r="C105" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="D105" s="19"/>
+      <c r="D105" s="22"/>
       <c r="E105" s="6" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="106" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F105" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="G105" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="H105" s="21">
+        <v>20240306</v>
+      </c>
+      <c r="J105" s="18" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="3">
         <v>102</v>
       </c>
       <c r="B106" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C106" s="18" t="s">
+      <c r="C106" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="D106" s="19"/>
+      <c r="D106" s="22"/>
       <c r="E106" s="6" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="107" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F106" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="G106" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="H106" s="21">
+        <v>20240306</v>
+      </c>
+      <c r="J106" s="18" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" s="3">
         <v>103</v>
       </c>
       <c r="B107" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C107" s="18" t="s">
+      <c r="C107" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="D107" s="19"/>
+      <c r="D107" s="22"/>
       <c r="E107" s="6" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="108" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F107" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="G107" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="H107" s="21">
+        <v>20240306</v>
+      </c>
+      <c r="J107" s="18" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" s="3">
         <v>104</v>
       </c>
       <c r="B108" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C108" s="18" t="s">
+      <c r="C108" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="D108" s="19"/>
+      <c r="D108" s="22"/>
       <c r="E108" s="6" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="109" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F108" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="G108" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="H108" s="21">
+        <v>20240306</v>
+      </c>
+      <c r="J108" s="18" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A109" s="3">
         <v>105</v>
       </c>
       <c r="B109" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C109" s="18" t="s">
+      <c r="C109" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="D109" s="19"/>
+      <c r="D109" s="22"/>
       <c r="E109" s="6" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="110" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F109" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="G109" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="H109" s="21">
+        <v>20240306</v>
+      </c>
+      <c r="J109" s="18" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A110" s="3">
         <v>106</v>
       </c>
       <c r="B110" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C110" s="18" t="s">
+      <c r="C110" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="D110" s="19"/>
+      <c r="D110" s="22"/>
       <c r="E110" s="6" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="111" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F110" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="G110" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="H110" s="21">
+        <v>20240306</v>
+      </c>
+      <c r="J110" s="18" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="3">
         <v>107</v>
       </c>
       <c r="B111" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C111" s="18" t="s">
+      <c r="C111" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="D111" s="19"/>
+      <c r="D111" s="22"/>
       <c r="E111" s="6" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="112" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F111" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="G111" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="H111" s="21">
+        <v>20240306</v>
+      </c>
+      <c r="J111" s="18" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A112" s="3">
         <v>108</v>
       </c>
       <c r="B112" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C112" s="19" t="s">
+      <c r="C112" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="D112" s="19"/>
+      <c r="D112" s="22"/>
       <c r="E112" s="6" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="113" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F112" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="G112" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="H112" s="21">
+        <v>20240306</v>
+      </c>
+      <c r="J112" s="18" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A113" s="3">
         <v>109</v>
       </c>
       <c r="B113" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C113" s="18" t="s">
+      <c r="C113" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="D113" s="19"/>
+      <c r="D113" s="22"/>
       <c r="E113" s="6" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="114" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F113" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="G113" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="H113" s="21">
+        <v>20240306</v>
+      </c>
+      <c r="J113" s="18" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A114" s="3">
         <v>110</v>
       </c>
       <c r="B114" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C114" s="18" t="s">
+      <c r="C114" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="D114" s="19"/>
+      <c r="D114" s="22"/>
       <c r="E114" s="6" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="115" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F114" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="G114" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="H114" s="21">
+        <v>20240306</v>
+      </c>
+      <c r="J114" s="18" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A115" s="3">
         <v>111</v>
       </c>
       <c r="B115" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C115" s="18" t="s">
+      <c r="C115" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="D115" s="19"/>
+      <c r="D115" s="22"/>
       <c r="E115" s="6" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="116" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F115" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="G115" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="H115" s="21">
+        <v>20240306</v>
+      </c>
+      <c r="J115" s="18" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A116" s="3">
         <v>112</v>
       </c>
       <c r="B116" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C116" s="18" t="s">
+      <c r="C116" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="D116" s="19"/>
+      <c r="D116" s="22"/>
       <c r="E116" s="6" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="117" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F116" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="G116" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="H116" s="21">
+        <v>20240306</v>
+      </c>
+      <c r="J116" s="18" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A117" s="3">
         <v>113</v>
       </c>
       <c r="B117" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C117" s="18" t="s">
+      <c r="C117" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="D117" s="19"/>
+      <c r="D117" s="22"/>
       <c r="E117" s="6" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="118" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F117" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="G117" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="H117" s="21">
+        <v>20240306</v>
+      </c>
+      <c r="J117" s="18" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A118" s="3">
         <v>114</v>
       </c>
       <c r="B118" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C118" s="18" t="s">
+      <c r="C118" s="23" t="s">
         <v>110</v>
       </c>
-      <c r="D118" s="19"/>
+      <c r="D118" s="22"/>
       <c r="E118" s="6" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="119" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F118" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="G118" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="H118" s="21">
+        <v>20240306</v>
+      </c>
+      <c r="J118" s="18" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A119" s="3">
         <v>115</v>
       </c>
       <c r="B119" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C119" s="18" t="s">
+      <c r="C119" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="D119" s="19"/>
+      <c r="D119" s="22"/>
       <c r="E119" s="6" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="120" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F119" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="G119" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="H119" s="21">
+        <v>20240306</v>
+      </c>
+      <c r="J119" s="18" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A120" s="3">
         <v>116</v>
       </c>
       <c r="B120" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C120" s="18" t="s">
+      <c r="C120" s="23" t="s">
         <v>170</v>
       </c>
-      <c r="D120" s="19"/>
+      <c r="D120" s="22"/>
       <c r="E120" s="6" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="121" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F120" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="G120" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="H120" s="21">
+        <v>20240306</v>
+      </c>
+      <c r="J120" s="18" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A121" s="3">
         <v>117</v>
       </c>
       <c r="B121" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C121" s="18" t="s">
+      <c r="C121" s="23" t="s">
         <v>171</v>
       </c>
-      <c r="D121" s="19"/>
+      <c r="D121" s="22"/>
       <c r="E121" s="6" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="122" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F121" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="G121" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="H121" s="21">
+        <v>20240306</v>
+      </c>
+      <c r="J121" s="18" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A122" s="3">
         <v>118</v>
       </c>
       <c r="B122" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C122" s="18" t="s">
+      <c r="C122" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="D122" s="19"/>
+      <c r="D122" s="22"/>
       <c r="E122" s="6" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="123" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F122" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="G122" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="H122" s="21">
+        <v>20240306</v>
+      </c>
+      <c r="J122" s="18" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A123" s="3">
         <v>119</v>
       </c>
       <c r="B123" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C123" s="18" t="s">
+      <c r="C123" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="D123" s="19"/>
+      <c r="D123" s="22"/>
       <c r="E123" s="6" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="124" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F123" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="G123" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="H123" s="21">
+        <v>20240306</v>
+      </c>
+      <c r="J123" s="18" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A124" s="3">
         <v>120</v>
       </c>
       <c r="B124" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C124" s="18" t="s">
+      <c r="C124" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="D124" s="19"/>
+      <c r="D124" s="22"/>
       <c r="E124" s="6" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="125" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F124" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="G124" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="H124" s="21">
+        <v>20240306</v>
+      </c>
+      <c r="J124" s="18" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A125" s="3">
         <v>121</v>
       </c>
       <c r="B125" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C125" s="18" t="s">
+      <c r="C125" s="23" t="s">
         <v>115</v>
       </c>
-      <c r="D125" s="19"/>
+      <c r="D125" s="22"/>
       <c r="E125" s="6" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="126" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F125" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="G125" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="H125" s="21">
+        <v>20240306</v>
+      </c>
+      <c r="J125" s="18" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A126" s="3">
         <v>122</v>
       </c>
       <c r="B126" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C126" s="18" t="s">
+      <c r="C126" s="23" t="s">
         <v>116</v>
       </c>
-      <c r="D126" s="19"/>
+      <c r="D126" s="22"/>
       <c r="E126" s="6" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="127" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F126" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="G126" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="H126" s="21">
+        <v>20240306</v>
+      </c>
+      <c r="J126" s="18" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A127" s="3">
         <v>123</v>
       </c>
       <c r="B127" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C127" s="18" t="s">
+      <c r="C127" s="23" t="s">
         <v>117</v>
       </c>
-      <c r="D127" s="19"/>
+      <c r="D127" s="22"/>
       <c r="E127" s="6" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="128" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F127" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="G127" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="H127" s="21">
+        <v>20240306</v>
+      </c>
+      <c r="J127" s="18" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A128" s="3">
         <v>124</v>
       </c>
       <c r="B128" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C128" s="18" t="s">
+      <c r="C128" s="23" t="s">
         <v>118</v>
       </c>
-      <c r="D128" s="19"/>
+      <c r="D128" s="22"/>
       <c r="E128" s="6" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="129" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F128" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="G128" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="H128" s="21">
+        <v>20240306</v>
+      </c>
+      <c r="J128" s="18" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A129" s="3">
         <v>125</v>
       </c>
       <c r="B129" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C129" s="18" t="s">
+      <c r="C129" s="23" t="s">
         <v>172</v>
       </c>
-      <c r="D129" s="19"/>
+      <c r="D129" s="22"/>
       <c r="E129" s="6" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="130" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F129" s="21" t="s">
+        <v>248</v>
+      </c>
+      <c r="G129" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="H129" s="21">
+        <v>20240306</v>
+      </c>
+      <c r="I129" s="21" t="s">
+        <v>251</v>
+      </c>
+      <c r="J129" s="18" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A130" s="3">
         <v>126</v>
       </c>
       <c r="B130" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C130" s="18" t="s">
+      <c r="C130" s="23" t="s">
         <v>173</v>
       </c>
-      <c r="D130" s="19"/>
+      <c r="D130" s="22"/>
       <c r="E130" s="6" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="131" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F130" s="21" t="s">
+        <v>248</v>
+      </c>
+      <c r="G130" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="H130" s="21">
+        <v>20240306</v>
+      </c>
+      <c r="I130" s="21" t="s">
+        <v>251</v>
+      </c>
+      <c r="J130" s="18" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A131" s="3">
         <v>127</v>
       </c>
       <c r="B131" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C131" s="18" t="s">
+      <c r="C131" s="23" t="s">
         <v>143</v>
       </c>
-      <c r="D131" s="19"/>
+      <c r="D131" s="22"/>
       <c r="E131" s="6" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="132" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F131" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="G131" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="H131" s="21">
+        <v>20240306</v>
+      </c>
+      <c r="J131" s="18" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A132" s="3">
         <v>128</v>
       </c>
       <c r="B132" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C132" s="18" t="s">
+      <c r="C132" s="23" t="s">
         <v>144</v>
       </c>
-      <c r="D132" s="19"/>
+      <c r="D132" s="22"/>
       <c r="E132" s="6" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="133" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F132" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="G132" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="H132" s="21">
+        <v>20240306</v>
+      </c>
+      <c r="J132" s="18" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A133" s="3">
         <v>129</v>
       </c>
       <c r="B133" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C133" s="18" t="s">
+      <c r="C133" s="23" t="s">
         <v>145</v>
       </c>
-      <c r="D133" s="19"/>
+      <c r="D133" s="22"/>
       <c r="E133" s="6" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="134" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F133" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="G133" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="H133" s="21">
+        <v>20240306</v>
+      </c>
+      <c r="J133" s="18" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A134" s="3">
         <v>130</v>
       </c>
       <c r="B134" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C134" s="18" t="s">
+      <c r="C134" s="23" t="s">
         <v>146</v>
       </c>
-      <c r="D134" s="19"/>
+      <c r="D134" s="22"/>
       <c r="E134" s="6" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="135" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F134" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="G134" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="H134" s="21">
+        <v>20240306</v>
+      </c>
+      <c r="J134" s="18" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A135" s="3">
         <v>131</v>
       </c>
       <c r="B135" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C135" s="18" t="s">
+      <c r="C135" s="23" t="s">
         <v>151</v>
       </c>
-      <c r="D135" s="19"/>
+      <c r="D135" s="22"/>
       <c r="E135" s="6" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="136" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F135" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="G135" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="H135" s="21">
+        <v>20240306</v>
+      </c>
+      <c r="J135" s="18" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A136" s="3">
         <v>132</v>
       </c>
       <c r="B136" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C136" s="18" t="s">
+      <c r="C136" s="23" t="s">
         <v>150</v>
       </c>
-      <c r="D136" s="19"/>
+      <c r="D136" s="22"/>
       <c r="E136" s="6" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="137" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F136" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="G136" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="H136" s="21">
+        <v>20240306</v>
+      </c>
+      <c r="J136" s="18" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A137" s="3">
         <v>133</v>
       </c>
       <c r="B137" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C137" s="18" t="s">
+      <c r="C137" s="23" t="s">
         <v>174</v>
       </c>
-      <c r="D137" s="19"/>
+      <c r="D137" s="22"/>
       <c r="E137" s="6" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="138" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F137" s="21" t="s">
+        <v>247</v>
+      </c>
+      <c r="G137" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="H137" s="21">
+        <v>20240306</v>
+      </c>
+      <c r="J137" s="18" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A138" s="3">
         <v>134</v>
       </c>
       <c r="B138" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C138" s="18" t="s">
+      <c r="C138" s="23" t="s">
         <v>175</v>
       </c>
-      <c r="D138" s="19"/>
+      <c r="D138" s="22"/>
       <c r="E138" s="6" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="139" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F138" s="21" t="s">
+        <v>247</v>
+      </c>
+      <c r="G138" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="H138" s="21">
+        <v>20240306</v>
+      </c>
+      <c r="J138" s="18" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A139" s="3">
         <v>135</v>
       </c>
       <c r="B139" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="C139" s="19" t="s">
+      <c r="C139" s="22" t="s">
         <v>176</v>
       </c>
-      <c r="D139" s="19"/>
+      <c r="D139" s="22"/>
       <c r="E139" s="6" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="140" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F139" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="G139" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="H139" s="21">
+        <v>20240306</v>
+      </c>
+      <c r="J139" s="18" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A140" s="3">
         <v>136</v>
       </c>
       <c r="B140" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="C140" s="19" t="s">
+      <c r="C140" s="22" t="s">
         <v>177</v>
       </c>
-      <c r="D140" s="19"/>
+      <c r="D140" s="22"/>
       <c r="E140" s="6" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="141" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F140" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="G140" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="H140" s="21">
+        <v>20240306</v>
+      </c>
+      <c r="J140" s="18" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A141" s="3">
         <v>137</v>
       </c>
       <c r="B141" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="C141" s="19" t="s">
+      <c r="C141" s="22" t="s">
         <v>182</v>
       </c>
-      <c r="D141" s="19"/>
+      <c r="D141" s="22"/>
       <c r="E141" s="6" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="142" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F141" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="G141" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="H141" s="21">
+        <v>20240306</v>
+      </c>
+      <c r="J141" s="18" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A142" s="3">
         <v>138</v>
       </c>
-      <c r="C142" s="19"/>
-      <c r="D142" s="19"/>
-    </row>
-    <row r="143" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C142" s="22"/>
+      <c r="D142" s="22"/>
+      <c r="F142" s="21" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A143" s="3">
         <v>139</v>
       </c>
-      <c r="C143" s="19"/>
-      <c r="D143" s="19"/>
-    </row>
-    <row r="144" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C143" s="22"/>
+      <c r="D143" s="22"/>
+    </row>
+    <row r="144" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A144" s="3">
         <v>140</v>
       </c>
-      <c r="C144" s="19"/>
-      <c r="D144" s="19"/>
+      <c r="C144" s="22"/>
+      <c r="D144" s="22"/>
     </row>
     <row r="145" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A145" s="3">
         <v>141</v>
       </c>
-      <c r="C145" s="19"/>
-      <c r="D145" s="19"/>
+      <c r="C145" s="22"/>
+      <c r="D145" s="22"/>
     </row>
     <row r="146" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A146" s="3">
         <v>142</v>
       </c>
-      <c r="C146" s="19"/>
-      <c r="D146" s="19"/>
+      <c r="C146" s="22"/>
+      <c r="D146" s="22"/>
     </row>
     <row r="147" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C147" s="19"/>
-      <c r="D147" s="19"/>
+      <c r="C147" s="22"/>
+      <c r="D147" s="22"/>
     </row>
     <row r="148" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C148" s="19"/>
-      <c r="D148" s="19"/>
+      <c r="C148" s="22"/>
+      <c r="D148" s="22"/>
     </row>
     <row r="149" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C149" s="19"/>
-      <c r="D149" s="19"/>
+      <c r="C149" s="22"/>
+      <c r="D149" s="22"/>
     </row>
     <row r="150" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C150" s="19"/>
-      <c r="D150" s="19"/>
+      <c r="C150" s="22"/>
+      <c r="D150" s="22"/>
     </row>
     <row r="151" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C151" s="19"/>
-      <c r="D151" s="19"/>
+      <c r="C151" s="22"/>
+      <c r="D151" s="22"/>
     </row>
     <row r="152" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C152" s="19"/>
-      <c r="D152" s="19"/>
+      <c r="C152" s="22"/>
+      <c r="D152" s="22"/>
     </row>
     <row r="153" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C153" s="19"/>
-      <c r="D153" s="19"/>
+      <c r="C153" s="22"/>
+      <c r="D153" s="22"/>
     </row>
     <row r="154" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C154" s="19"/>
-      <c r="D154" s="19"/>
+      <c r="C154" s="22"/>
+      <c r="D154" s="22"/>
     </row>
     <row r="155" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C155" s="19"/>
-      <c r="D155" s="19"/>
+      <c r="C155" s="22"/>
+      <c r="D155" s="22"/>
     </row>
     <row r="156" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C156" s="19"/>
-      <c r="D156" s="19"/>
+      <c r="C156" s="22"/>
+      <c r="D156" s="22"/>
     </row>
     <row r="157" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C157" s="19"/>
-      <c r="D157" s="19"/>
+      <c r="C157" s="22"/>
+      <c r="D157" s="22"/>
     </row>
     <row r="158" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C158" s="19"/>
-      <c r="D158" s="19"/>
+      <c r="C158" s="22"/>
+      <c r="D158" s="22"/>
     </row>
     <row r="159" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C159" s="19"/>
-      <c r="D159" s="19"/>
+      <c r="C159" s="22"/>
+      <c r="D159" s="22"/>
     </row>
     <row r="160" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C160" s="19"/>
-      <c r="D160" s="19"/>
+      <c r="C160" s="22"/>
+      <c r="D160" s="22"/>
     </row>
     <row r="161" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C161" s="19"/>
-      <c r="D161" s="19"/>
+      <c r="C161" s="22"/>
+      <c r="D161" s="22"/>
     </row>
     <row r="162" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C162" s="19"/>
-      <c r="D162" s="19"/>
+      <c r="C162" s="22"/>
+      <c r="D162" s="22"/>
     </row>
     <row r="163" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C163" s="19"/>
-      <c r="D163" s="19"/>
+      <c r="C163" s="22"/>
+      <c r="D163" s="22"/>
     </row>
     <row r="164" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C164" s="19"/>
-      <c r="D164" s="19"/>
+      <c r="C164" s="22"/>
+      <c r="D164" s="22"/>
     </row>
     <row r="165" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C165" s="19"/>
-      <c r="D165" s="19"/>
+      <c r="C165" s="22"/>
+      <c r="D165" s="22"/>
     </row>
     <row r="166" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C166" s="19"/>
-      <c r="D166" s="19"/>
+      <c r="C166" s="22"/>
+      <c r="D166" s="22"/>
     </row>
     <row r="167" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C167" s="19"/>
-      <c r="D167" s="19"/>
+      <c r="C167" s="22"/>
+      <c r="D167" s="22"/>
     </row>
     <row r="168" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C168" s="19"/>
-      <c r="D168" s="19"/>
+      <c r="C168" s="22"/>
+      <c r="D168" s="22"/>
     </row>
     <row r="169" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C169" s="19"/>
-      <c r="D169" s="19"/>
+      <c r="C169" s="22"/>
+      <c r="D169" s="22"/>
     </row>
     <row r="170" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C170" s="19"/>
-      <c r="D170" s="19"/>
+      <c r="C170" s="22"/>
+      <c r="D170" s="22"/>
     </row>
     <row r="171" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C171" s="19"/>
-      <c r="D171" s="19"/>
+      <c r="C171" s="22"/>
+      <c r="D171" s="22"/>
     </row>
     <row r="172" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C172" s="19"/>
-      <c r="D172" s="19"/>
+      <c r="C172" s="22"/>
+      <c r="D172" s="22"/>
     </row>
     <row r="173" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C173" s="19"/>
-      <c r="D173" s="19"/>
+      <c r="C173" s="22"/>
+      <c r="D173" s="22"/>
     </row>
     <row r="174" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C174" s="19"/>
-      <c r="D174" s="19"/>
+      <c r="C174" s="22"/>
+      <c r="D174" s="22"/>
     </row>
     <row r="175" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C175" s="19"/>
-      <c r="D175" s="19"/>
+      <c r="C175" s="22"/>
+      <c r="D175" s="22"/>
     </row>
     <row r="176" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C176" s="19"/>
-      <c r="D176" s="19"/>
+      <c r="C176" s="22"/>
+      <c r="D176" s="22"/>
     </row>
     <row r="177" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C177" s="19"/>
-      <c r="D177" s="19"/>
+      <c r="C177" s="22"/>
+      <c r="D177" s="22"/>
     </row>
     <row r="178" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C178" s="19"/>
-      <c r="D178" s="19"/>
+      <c r="C178" s="22"/>
+      <c r="D178" s="22"/>
     </row>
     <row r="179" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C179" s="19"/>
-      <c r="D179" s="19"/>
+      <c r="C179" s="22"/>
+      <c r="D179" s="22"/>
     </row>
     <row r="180" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C180" s="19"/>
-      <c r="D180" s="19"/>
+      <c r="C180" s="22"/>
+      <c r="D180" s="22"/>
     </row>
     <row r="181" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C181" s="19"/>
-      <c r="D181" s="19"/>
+      <c r="C181" s="22"/>
+      <c r="D181" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="181">
-    <mergeCell ref="C161:D161"/>
-    <mergeCell ref="C160:D160"/>
-    <mergeCell ref="C166:D166"/>
-    <mergeCell ref="C165:D165"/>
-    <mergeCell ref="C164:D164"/>
-    <mergeCell ref="C163:D163"/>
-    <mergeCell ref="C162:D162"/>
-    <mergeCell ref="C171:D171"/>
-    <mergeCell ref="C170:D170"/>
-    <mergeCell ref="C169:D169"/>
-    <mergeCell ref="C168:D168"/>
-    <mergeCell ref="C167:D167"/>
-    <mergeCell ref="C176:D176"/>
-    <mergeCell ref="C175:D175"/>
-    <mergeCell ref="C174:D174"/>
-    <mergeCell ref="C173:D173"/>
-    <mergeCell ref="C172:D172"/>
-    <mergeCell ref="C181:D181"/>
-    <mergeCell ref="C180:D180"/>
-    <mergeCell ref="C179:D179"/>
-    <mergeCell ref="C178:D178"/>
-    <mergeCell ref="C177:D177"/>
-    <mergeCell ref="C145:D145"/>
-    <mergeCell ref="C144:D144"/>
-    <mergeCell ref="C143:D143"/>
-    <mergeCell ref="C142:D142"/>
-    <mergeCell ref="C159:D159"/>
-    <mergeCell ref="C158:D158"/>
-    <mergeCell ref="C157:D157"/>
-    <mergeCell ref="C156:D156"/>
-    <mergeCell ref="C155:D155"/>
-    <mergeCell ref="C154:D154"/>
-    <mergeCell ref="C153:D153"/>
-    <mergeCell ref="C152:D152"/>
-    <mergeCell ref="C151:D151"/>
-    <mergeCell ref="C150:D150"/>
-    <mergeCell ref="C149:D149"/>
-    <mergeCell ref="C148:D148"/>
-    <mergeCell ref="C147:D147"/>
-    <mergeCell ref="C146:D146"/>
-    <mergeCell ref="C127:D127"/>
-    <mergeCell ref="C126:D126"/>
-    <mergeCell ref="C125:D125"/>
-    <mergeCell ref="C124:D124"/>
-    <mergeCell ref="C141:D141"/>
-    <mergeCell ref="C140:D140"/>
-    <mergeCell ref="C139:D139"/>
-    <mergeCell ref="C138:D138"/>
-    <mergeCell ref="C137:D137"/>
-    <mergeCell ref="C136:D136"/>
-    <mergeCell ref="C135:D135"/>
-    <mergeCell ref="C134:D134"/>
-    <mergeCell ref="C133:D133"/>
-    <mergeCell ref="C132:D132"/>
-    <mergeCell ref="C131:D131"/>
-    <mergeCell ref="C130:D130"/>
-    <mergeCell ref="C129:D129"/>
-    <mergeCell ref="C128:D128"/>
-    <mergeCell ref="C111:D111"/>
-    <mergeCell ref="C110:D110"/>
-    <mergeCell ref="C109:D109"/>
-    <mergeCell ref="C123:D123"/>
-    <mergeCell ref="C122:D122"/>
-    <mergeCell ref="C121:D121"/>
-    <mergeCell ref="C120:D120"/>
-    <mergeCell ref="C119:D119"/>
-    <mergeCell ref="C118:D118"/>
-    <mergeCell ref="C117:D117"/>
-    <mergeCell ref="C116:D116"/>
-    <mergeCell ref="C115:D115"/>
-    <mergeCell ref="C114:D114"/>
-    <mergeCell ref="C113:D113"/>
-    <mergeCell ref="C112:D112"/>
-    <mergeCell ref="C99:D99"/>
-    <mergeCell ref="C98:D98"/>
-    <mergeCell ref="C97:D97"/>
-    <mergeCell ref="C108:D108"/>
-    <mergeCell ref="C107:D107"/>
-    <mergeCell ref="C106:D106"/>
-    <mergeCell ref="C105:D105"/>
-    <mergeCell ref="C104:D104"/>
-    <mergeCell ref="C103:D103"/>
-    <mergeCell ref="C102:D102"/>
-    <mergeCell ref="C101:D101"/>
-    <mergeCell ref="C100:D100"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="C96:D96"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="C91:D91"/>
-    <mergeCell ref="C90:D90"/>
-    <mergeCell ref="C89:D89"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:E2"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="C70:D70"/>
     <mergeCell ref="C69:D69"/>
     <mergeCell ref="C68:D68"/>
     <mergeCell ref="C67:D67"/>
@@ -6137,60 +7915,109 @@
     <mergeCell ref="C51:D51"/>
     <mergeCell ref="C50:D50"/>
     <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:E2"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="C90:D90"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="C99:D99"/>
+    <mergeCell ref="C98:D98"/>
+    <mergeCell ref="C97:D97"/>
+    <mergeCell ref="C108:D108"/>
+    <mergeCell ref="C107:D107"/>
+    <mergeCell ref="C106:D106"/>
+    <mergeCell ref="C105:D105"/>
+    <mergeCell ref="C104:D104"/>
+    <mergeCell ref="C103:D103"/>
+    <mergeCell ref="C102:D102"/>
+    <mergeCell ref="C101:D101"/>
+    <mergeCell ref="C100:D100"/>
+    <mergeCell ref="C111:D111"/>
+    <mergeCell ref="C110:D110"/>
+    <mergeCell ref="C109:D109"/>
+    <mergeCell ref="C123:D123"/>
+    <mergeCell ref="C122:D122"/>
+    <mergeCell ref="C121:D121"/>
+    <mergeCell ref="C120:D120"/>
+    <mergeCell ref="C119:D119"/>
+    <mergeCell ref="C118:D118"/>
+    <mergeCell ref="C117:D117"/>
+    <mergeCell ref="C116:D116"/>
+    <mergeCell ref="C115:D115"/>
+    <mergeCell ref="C114:D114"/>
+    <mergeCell ref="C113:D113"/>
+    <mergeCell ref="C112:D112"/>
+    <mergeCell ref="C127:D127"/>
+    <mergeCell ref="C126:D126"/>
+    <mergeCell ref="C125:D125"/>
+    <mergeCell ref="C124:D124"/>
+    <mergeCell ref="C141:D141"/>
+    <mergeCell ref="C140:D140"/>
+    <mergeCell ref="C139:D139"/>
+    <mergeCell ref="C138:D138"/>
+    <mergeCell ref="C137:D137"/>
+    <mergeCell ref="C136:D136"/>
+    <mergeCell ref="C135:D135"/>
+    <mergeCell ref="C134:D134"/>
+    <mergeCell ref="C133:D133"/>
+    <mergeCell ref="C132:D132"/>
+    <mergeCell ref="C131:D131"/>
+    <mergeCell ref="C130:D130"/>
+    <mergeCell ref="C129:D129"/>
+    <mergeCell ref="C128:D128"/>
+    <mergeCell ref="C145:D145"/>
+    <mergeCell ref="C144:D144"/>
+    <mergeCell ref="C143:D143"/>
+    <mergeCell ref="C142:D142"/>
+    <mergeCell ref="C159:D159"/>
+    <mergeCell ref="C158:D158"/>
+    <mergeCell ref="C157:D157"/>
+    <mergeCell ref="C156:D156"/>
+    <mergeCell ref="C155:D155"/>
+    <mergeCell ref="C154:D154"/>
+    <mergeCell ref="C153:D153"/>
+    <mergeCell ref="C152:D152"/>
+    <mergeCell ref="C151:D151"/>
+    <mergeCell ref="C150:D150"/>
+    <mergeCell ref="C149:D149"/>
+    <mergeCell ref="C148:D148"/>
+    <mergeCell ref="C147:D147"/>
+    <mergeCell ref="C146:D146"/>
+    <mergeCell ref="C176:D176"/>
+    <mergeCell ref="C175:D175"/>
+    <mergeCell ref="C174:D174"/>
+    <mergeCell ref="C173:D173"/>
+    <mergeCell ref="C172:D172"/>
+    <mergeCell ref="C181:D181"/>
+    <mergeCell ref="C180:D180"/>
+    <mergeCell ref="C179:D179"/>
+    <mergeCell ref="C178:D178"/>
+    <mergeCell ref="C177:D177"/>
+    <mergeCell ref="C161:D161"/>
+    <mergeCell ref="C160:D160"/>
+    <mergeCell ref="C166:D166"/>
+    <mergeCell ref="C165:D165"/>
+    <mergeCell ref="C164:D164"/>
+    <mergeCell ref="C163:D163"/>
+    <mergeCell ref="C162:D162"/>
+    <mergeCell ref="C171:D171"/>
+    <mergeCell ref="C170:D170"/>
+    <mergeCell ref="C169:D169"/>
+    <mergeCell ref="C168:D168"/>
+    <mergeCell ref="C167:D167"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6202,8 +8029,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J141"/>
   <sheetViews>
-    <sheetView topLeftCell="A41" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E49" sqref="E49"/>
+    <sheetView topLeftCell="C4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6218,17 +8045,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="25" t="s">
         <v>184</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21" t="s">
+      <c r="B1" s="25"/>
+      <c r="C1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="21"/>
+      <c r="E1" s="25"/>
       <c r="F1" s="11" t="s">
         <v>3</v>
       </c>
@@ -6237,11 +8064,11 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A2" s="21"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
       <c r="F2" s="11" t="s">
         <v>4</v>
       </c>
@@ -6259,10 +8086,10 @@
       <c r="B4" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="22"/>
+      <c r="D4" s="26"/>
       <c r="E4" s="14" t="s">
         <v>11</v>
       </c>
@@ -6289,12 +8116,15 @@
       <c r="B5" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="19"/>
+      <c r="D5" s="22"/>
       <c r="E5" s="10" t="s">
         <v>186</v>
+      </c>
+      <c r="F5" s="21" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
@@ -6304,10 +8134,10 @@
       <c r="B6" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="19"/>
+      <c r="D6" s="22"/>
       <c r="E6" s="10" t="s">
         <v>187</v>
       </c>
@@ -6319,10 +8149,10 @@
       <c r="B7" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="19"/>
+      <c r="D7" s="22"/>
       <c r="E7" s="10" t="s">
         <v>188</v>
       </c>
@@ -6334,10 +8164,10 @@
       <c r="B8" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="19"/>
+      <c r="D8" s="22"/>
       <c r="E8" s="10" t="s">
         <v>189</v>
       </c>
@@ -6349,10 +8179,10 @@
       <c r="B9" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="19"/>
+      <c r="D9" s="22"/>
       <c r="E9" s="10" t="s">
         <v>190</v>
       </c>
@@ -6364,10 +8194,10 @@
       <c r="B10" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="19"/>
+      <c r="D10" s="22"/>
       <c r="E10" s="10" t="s">
         <v>190</v>
       </c>
@@ -6379,10 +8209,10 @@
       <c r="B11" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="19"/>
+      <c r="D11" s="22"/>
       <c r="E11" s="10" t="s">
         <v>191</v>
       </c>
@@ -6394,10 +8224,10 @@
       <c r="B12" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="19"/>
+      <c r="D12" s="22"/>
       <c r="E12" s="10" t="s">
         <v>191</v>
       </c>
@@ -6409,10 +8239,10 @@
       <c r="B13" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="19"/>
+      <c r="D13" s="22"/>
       <c r="E13" s="10" t="s">
         <v>192</v>
       </c>
@@ -6424,10 +8254,10 @@
       <c r="B14" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="19"/>
+      <c r="D14" s="22"/>
       <c r="E14" s="10" t="s">
         <v>193</v>
       </c>
@@ -6439,10 +8269,10 @@
       <c r="B15" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="23" t="s">
         <v>127</v>
       </c>
-      <c r="D15" s="19"/>
+      <c r="D15" s="22"/>
       <c r="E15" s="10" t="s">
         <v>194</v>
       </c>
@@ -6454,10 +8284,10 @@
       <c r="B16" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="23" t="s">
         <v>128</v>
       </c>
-      <c r="D16" s="18"/>
+      <c r="D16" s="23"/>
       <c r="E16" s="10" t="s">
         <v>194</v>
       </c>
@@ -6469,10 +8299,10 @@
       <c r="B17" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="C17" s="23" t="s">
         <v>125</v>
       </c>
-      <c r="D17" s="19"/>
+      <c r="D17" s="22"/>
       <c r="E17" s="10" t="s">
         <v>200</v>
       </c>
@@ -6484,10 +8314,10 @@
       <c r="B18" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="C18" s="18" t="s">
+      <c r="C18" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="D18" s="18"/>
+      <c r="D18" s="23"/>
       <c r="E18" s="10" t="s">
         <v>200</v>
       </c>
@@ -6499,10 +8329,10 @@
       <c r="B19" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="C19" s="18" t="s">
+      <c r="C19" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="D19" s="19"/>
+      <c r="D19" s="22"/>
       <c r="E19" s="10" t="s">
         <v>195</v>
       </c>
@@ -6514,10 +8344,10 @@
       <c r="B20" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="C20" s="18" t="s">
+      <c r="C20" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="D20" s="19"/>
+      <c r="D20" s="22"/>
       <c r="E20" s="10" t="s">
         <v>195</v>
       </c>
@@ -6529,10 +8359,10 @@
       <c r="B21" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="C21" s="18" t="s">
+      <c r="C21" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="D21" s="19"/>
+      <c r="D21" s="22"/>
       <c r="E21" s="10" t="s">
         <v>195</v>
       </c>
@@ -6544,10 +8374,10 @@
       <c r="B22" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="C22" s="18" t="s">
+      <c r="C22" s="23" t="s">
         <v>148</v>
       </c>
-      <c r="D22" s="19"/>
+      <c r="D22" s="22"/>
       <c r="E22" s="10" t="s">
         <v>195</v>
       </c>
@@ -6559,10 +8389,10 @@
       <c r="B23" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="C23" s="18" t="s">
+      <c r="C23" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="D23" s="18"/>
+      <c r="D23" s="23"/>
       <c r="E23" s="10" t="s">
         <v>195</v>
       </c>
@@ -6574,10 +8404,10 @@
       <c r="B24" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="C24" s="18" t="s">
+      <c r="C24" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="D24" s="19"/>
+      <c r="D24" s="22"/>
       <c r="E24" s="10" t="s">
         <v>196</v>
       </c>
@@ -6589,10 +8419,10 @@
       <c r="B25" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="C25" s="18" t="s">
+      <c r="C25" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="D25" s="19"/>
+      <c r="D25" s="22"/>
       <c r="E25" s="10" t="s">
         <v>196</v>
       </c>
@@ -6604,10 +8434,10 @@
       <c r="B26" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="C26" s="18" t="s">
+      <c r="C26" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="D26" s="19"/>
+      <c r="D26" s="22"/>
       <c r="E26" s="10" t="s">
         <v>196</v>
       </c>
@@ -6619,10 +8449,10 @@
       <c r="B27" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="C27" s="18" t="s">
+      <c r="C27" s="23" t="s">
         <v>149</v>
       </c>
-      <c r="D27" s="19"/>
+      <c r="D27" s="22"/>
       <c r="E27" s="10" t="s">
         <v>196</v>
       </c>
@@ -6634,10 +8464,10 @@
       <c r="B28" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="C28" s="18" t="s">
+      <c r="C28" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="D28" s="18"/>
+      <c r="D28" s="23"/>
       <c r="E28" s="10" t="s">
         <v>196</v>
       </c>
@@ -6649,10 +8479,10 @@
       <c r="B29" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="C29" s="18" t="s">
+      <c r="C29" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="D29" s="19"/>
+      <c r="D29" s="22"/>
       <c r="E29" s="10" t="s">
         <v>197</v>
       </c>
@@ -6664,10 +8494,10 @@
       <c r="B30" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="C30" s="18" t="s">
+      <c r="C30" s="23" t="s">
         <v>172</v>
       </c>
-      <c r="D30" s="19"/>
+      <c r="D30" s="22"/>
       <c r="E30" s="10" t="s">
         <v>195</v>
       </c>
@@ -6679,10 +8509,10 @@
       <c r="B31" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="C31" s="18" t="s">
+      <c r="C31" s="23" t="s">
         <v>173</v>
       </c>
-      <c r="D31" s="19"/>
+      <c r="D31" s="22"/>
       <c r="E31" s="10" t="s">
         <v>196</v>
       </c>
@@ -6694,10 +8524,10 @@
       <c r="B32" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="C32" s="18" t="s">
+      <c r="C32" s="23" t="s">
         <v>143</v>
       </c>
-      <c r="D32" s="19"/>
+      <c r="D32" s="22"/>
       <c r="E32" s="10" t="s">
         <v>195</v>
       </c>
@@ -6709,10 +8539,10 @@
       <c r="B33" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="C33" s="18" t="s">
+      <c r="C33" s="23" t="s">
         <v>144</v>
       </c>
-      <c r="D33" s="19"/>
+      <c r="D33" s="22"/>
       <c r="E33" s="10" t="s">
         <v>196</v>
       </c>
@@ -6724,10 +8554,10 @@
       <c r="B34" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="C34" s="19" t="s">
+      <c r="C34" s="22" t="s">
         <v>198</v>
       </c>
-      <c r="D34" s="19"/>
+      <c r="D34" s="22"/>
       <c r="E34" s="10" t="s">
         <v>199</v>
       </c>
@@ -6739,10 +8569,10 @@
       <c r="B35" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="C35" s="19" t="s">
+      <c r="C35" s="22" t="s">
         <v>177</v>
       </c>
-      <c r="D35" s="19"/>
+      <c r="D35" s="22"/>
       <c r="E35" s="10" t="s">
         <v>227</v>
       </c>
@@ -6754,10 +8584,10 @@
       <c r="B36" s="15" t="s">
         <v>229</v>
       </c>
-      <c r="C36" s="19" t="s">
+      <c r="C36" s="22" t="s">
         <v>201</v>
       </c>
-      <c r="D36" s="19"/>
+      <c r="D36" s="22"/>
       <c r="E36" s="10" t="s">
         <v>228</v>
       </c>
@@ -6769,10 +8599,10 @@
       <c r="B37" s="15" t="s">
         <v>229</v>
       </c>
-      <c r="C37" s="19" t="s">
+      <c r="C37" s="22" t="s">
         <v>177</v>
       </c>
-      <c r="D37" s="19"/>
+      <c r="D37" s="22"/>
       <c r="E37" s="10" t="s">
         <v>223</v>
       </c>
@@ -6784,10 +8614,10 @@
       <c r="B38" s="15" t="s">
         <v>229</v>
       </c>
-      <c r="C38" s="19" t="s">
+      <c r="C38" s="22" t="s">
         <v>214</v>
       </c>
-      <c r="D38" s="19"/>
+      <c r="D38" s="22"/>
       <c r="E38" s="10" t="s">
         <v>222</v>
       </c>
@@ -6799,10 +8629,10 @@
       <c r="B39" s="15" t="s">
         <v>229</v>
       </c>
-      <c r="C39" s="19" t="s">
+      <c r="C39" s="22" t="s">
         <v>215</v>
       </c>
-      <c r="D39" s="19"/>
+      <c r="D39" s="22"/>
       <c r="E39" s="10" t="s">
         <v>221</v>
       </c>
@@ -6814,10 +8644,10 @@
       <c r="B40" s="15" t="s">
         <v>229</v>
       </c>
-      <c r="C40" s="19" t="s">
+      <c r="C40" s="22" t="s">
         <v>216</v>
       </c>
-      <c r="D40" s="19"/>
+      <c r="D40" s="22"/>
       <c r="E40" s="9" t="s">
         <v>220</v>
       </c>
@@ -6829,10 +8659,10 @@
       <c r="B41" s="15" t="s">
         <v>229</v>
       </c>
-      <c r="C41" s="19" t="s">
+      <c r="C41" s="22" t="s">
         <v>217</v>
       </c>
-      <c r="D41" s="19"/>
+      <c r="D41" s="22"/>
       <c r="E41" s="9" t="s">
         <v>219</v>
       </c>
@@ -6844,10 +8674,10 @@
       <c r="B42" s="15" t="s">
         <v>229</v>
       </c>
-      <c r="C42" s="19" t="s">
+      <c r="C42" s="22" t="s">
         <v>177</v>
       </c>
-      <c r="D42" s="19"/>
+      <c r="D42" s="22"/>
       <c r="E42" s="10" t="s">
         <v>218</v>
       </c>
@@ -6859,10 +8689,10 @@
       <c r="B43" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="C43" s="19" t="s">
+      <c r="C43" s="22" t="s">
         <v>203</v>
       </c>
-      <c r="D43" s="19"/>
+      <c r="D43" s="22"/>
       <c r="E43" s="10" t="s">
         <v>204</v>
       </c>
@@ -6874,10 +8704,10 @@
       <c r="B44" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="C44" s="19" t="s">
+      <c r="C44" s="22" t="s">
         <v>205</v>
       </c>
-      <c r="D44" s="19"/>
+      <c r="D44" s="22"/>
       <c r="E44" s="10" t="s">
         <v>206</v>
       </c>
@@ -6889,10 +8719,10 @@
       <c r="B45" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="C45" s="19" t="s">
+      <c r="C45" s="22" t="s">
         <v>207</v>
       </c>
-      <c r="D45" s="19"/>
+      <c r="D45" s="22"/>
       <c r="E45" s="10" t="s">
         <v>204</v>
       </c>
@@ -6904,10 +8734,10 @@
       <c r="B46" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="C46" s="19" t="s">
+      <c r="C46" s="22" t="s">
         <v>208</v>
       </c>
-      <c r="D46" s="19"/>
+      <c r="D46" s="22"/>
       <c r="E46" s="10" t="s">
         <v>209</v>
       </c>
@@ -6919,10 +8749,10 @@
       <c r="B47" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="C47" s="19" t="s">
+      <c r="C47" s="22" t="s">
         <v>211</v>
       </c>
-      <c r="D47" s="19"/>
+      <c r="D47" s="22"/>
       <c r="E47" s="10" t="s">
         <v>212</v>
       </c>
@@ -6934,10 +8764,10 @@
       <c r="B48" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="C48" s="19" t="s">
+      <c r="C48" s="22" t="s">
         <v>210</v>
       </c>
-      <c r="D48" s="19"/>
+      <c r="D48" s="22"/>
       <c r="E48" s="10" t="s">
         <v>230</v>
       </c>
@@ -6949,381 +8779,1812 @@
       <c r="B49" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="C49" s="19" t="s">
+      <c r="C49" s="22" t="s">
         <v>213</v>
       </c>
-      <c r="D49" s="19"/>
+      <c r="D49" s="22"/>
       <c r="E49" s="10" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C50" s="19"/>
-      <c r="D50" s="19"/>
+      <c r="C50" s="22"/>
+      <c r="D50" s="22"/>
     </row>
     <row r="51" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C51" s="19"/>
-      <c r="D51" s="19"/>
+      <c r="C51" s="22"/>
+      <c r="D51" s="22"/>
     </row>
     <row r="52" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C52" s="19"/>
-      <c r="D52" s="19"/>
+      <c r="C52" s="22"/>
+      <c r="D52" s="22"/>
     </row>
     <row r="53" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C53" s="19"/>
-      <c r="D53" s="19"/>
+      <c r="C53" s="22"/>
+      <c r="D53" s="22"/>
     </row>
     <row r="54" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C54" s="19"/>
-      <c r="D54" s="19"/>
+      <c r="C54" s="22"/>
+      <c r="D54" s="22"/>
     </row>
     <row r="55" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C55" s="19"/>
-      <c r="D55" s="19"/>
+      <c r="C55" s="22"/>
+      <c r="D55" s="22"/>
     </row>
     <row r="56" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C56" s="19"/>
-      <c r="D56" s="19"/>
+      <c r="C56" s="22"/>
+      <c r="D56" s="22"/>
     </row>
     <row r="57" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C57" s="19"/>
-      <c r="D57" s="19"/>
+      <c r="C57" s="22"/>
+      <c r="D57" s="22"/>
     </row>
     <row r="58" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C58" s="19"/>
-      <c r="D58" s="19"/>
+      <c r="C58" s="22"/>
+      <c r="D58" s="22"/>
     </row>
     <row r="59" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C59" s="19"/>
-      <c r="D59" s="19"/>
+      <c r="C59" s="22"/>
+      <c r="D59" s="22"/>
     </row>
     <row r="60" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C60" s="19"/>
-      <c r="D60" s="19"/>
+      <c r="C60" s="22"/>
+      <c r="D60" s="22"/>
     </row>
     <row r="61" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C61" s="19"/>
-      <c r="D61" s="19"/>
+      <c r="C61" s="22"/>
+      <c r="D61" s="22"/>
     </row>
     <row r="62" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C62" s="19"/>
-      <c r="D62" s="19"/>
+      <c r="C62" s="22"/>
+      <c r="D62" s="22"/>
     </row>
     <row r="63" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C63" s="19"/>
-      <c r="D63" s="19"/>
+      <c r="C63" s="22"/>
+      <c r="D63" s="22"/>
     </row>
     <row r="64" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C64" s="19"/>
-      <c r="D64" s="19"/>
+      <c r="C64" s="22"/>
+      <c r="D64" s="22"/>
     </row>
     <row r="65" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C65" s="19"/>
-      <c r="D65" s="19"/>
+      <c r="C65" s="22"/>
+      <c r="D65" s="22"/>
     </row>
     <row r="66" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C66" s="19"/>
-      <c r="D66" s="19"/>
+      <c r="C66" s="22"/>
+      <c r="D66" s="22"/>
     </row>
     <row r="67" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C67" s="19"/>
-      <c r="D67" s="19"/>
+      <c r="C67" s="22"/>
+      <c r="D67" s="22"/>
     </row>
     <row r="68" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C68" s="19"/>
-      <c r="D68" s="19"/>
+      <c r="C68" s="22"/>
+      <c r="D68" s="22"/>
     </row>
     <row r="69" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C69" s="19"/>
-      <c r="D69" s="19"/>
+      <c r="C69" s="22"/>
+      <c r="D69" s="22"/>
     </row>
     <row r="70" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C70" s="19"/>
-      <c r="D70" s="19"/>
+      <c r="C70" s="22"/>
+      <c r="D70" s="22"/>
     </row>
     <row r="71" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C71" s="19"/>
-      <c r="D71" s="19"/>
+      <c r="C71" s="22"/>
+      <c r="D71" s="22"/>
     </row>
     <row r="72" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C72" s="19"/>
-      <c r="D72" s="19"/>
+      <c r="C72" s="22"/>
+      <c r="D72" s="22"/>
     </row>
     <row r="73" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C73" s="19"/>
-      <c r="D73" s="19"/>
+      <c r="C73" s="22"/>
+      <c r="D73" s="22"/>
     </row>
     <row r="74" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C74" s="19"/>
-      <c r="D74" s="19"/>
+      <c r="C74" s="22"/>
+      <c r="D74" s="22"/>
     </row>
     <row r="75" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C75" s="19"/>
-      <c r="D75" s="19"/>
+      <c r="C75" s="22"/>
+      <c r="D75" s="22"/>
     </row>
     <row r="76" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C76" s="19"/>
-      <c r="D76" s="19"/>
+      <c r="C76" s="22"/>
+      <c r="D76" s="22"/>
     </row>
     <row r="77" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C77" s="19"/>
-      <c r="D77" s="19"/>
+      <c r="C77" s="22"/>
+      <c r="D77" s="22"/>
     </row>
     <row r="78" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C78" s="19"/>
-      <c r="D78" s="19"/>
+      <c r="C78" s="22"/>
+      <c r="D78" s="22"/>
     </row>
     <row r="79" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C79" s="19"/>
-      <c r="D79" s="19"/>
+      <c r="C79" s="22"/>
+      <c r="D79" s="22"/>
     </row>
     <row r="80" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C80" s="19"/>
-      <c r="D80" s="19"/>
+      <c r="C80" s="22"/>
+      <c r="D80" s="22"/>
     </row>
     <row r="81" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C81" s="19"/>
-      <c r="D81" s="19"/>
+      <c r="C81" s="22"/>
+      <c r="D81" s="22"/>
     </row>
     <row r="82" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C82" s="19"/>
-      <c r="D82" s="19"/>
+      <c r="C82" s="22"/>
+      <c r="D82" s="22"/>
     </row>
     <row r="83" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C83" s="19"/>
-      <c r="D83" s="19"/>
+      <c r="C83" s="22"/>
+      <c r="D83" s="22"/>
     </row>
     <row r="84" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C84" s="19"/>
-      <c r="D84" s="19"/>
+      <c r="C84" s="22"/>
+      <c r="D84" s="22"/>
     </row>
     <row r="85" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C85" s="19"/>
-      <c r="D85" s="19"/>
+      <c r="C85" s="22"/>
+      <c r="D85" s="22"/>
     </row>
     <row r="86" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C86" s="19"/>
-      <c r="D86" s="19"/>
+      <c r="C86" s="22"/>
+      <c r="D86" s="22"/>
     </row>
     <row r="87" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C87" s="19"/>
-      <c r="D87" s="19"/>
+      <c r="C87" s="22"/>
+      <c r="D87" s="22"/>
     </row>
     <row r="88" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C88" s="19"/>
-      <c r="D88" s="19"/>
+      <c r="C88" s="22"/>
+      <c r="D88" s="22"/>
     </row>
     <row r="89" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C89" s="19"/>
-      <c r="D89" s="19"/>
+      <c r="C89" s="22"/>
+      <c r="D89" s="22"/>
     </row>
     <row r="90" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C90" s="19"/>
-      <c r="D90" s="19"/>
+      <c r="C90" s="22"/>
+      <c r="D90" s="22"/>
     </row>
     <row r="91" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C91" s="19"/>
-      <c r="D91" s="19"/>
+      <c r="C91" s="22"/>
+      <c r="D91" s="22"/>
     </row>
     <row r="92" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C92" s="19"/>
-      <c r="D92" s="19"/>
+      <c r="C92" s="22"/>
+      <c r="D92" s="22"/>
     </row>
     <row r="93" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C93" s="19"/>
-      <c r="D93" s="19"/>
+      <c r="C93" s="22"/>
+      <c r="D93" s="22"/>
     </row>
     <row r="94" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C94" s="19"/>
-      <c r="D94" s="19"/>
+      <c r="C94" s="22"/>
+      <c r="D94" s="22"/>
     </row>
     <row r="95" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C95" s="19"/>
-      <c r="D95" s="19"/>
+      <c r="C95" s="22"/>
+      <c r="D95" s="22"/>
     </row>
     <row r="96" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C96" s="19"/>
-      <c r="D96" s="19"/>
+      <c r="C96" s="22"/>
+      <c r="D96" s="22"/>
     </row>
     <row r="97" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C97" s="19"/>
-      <c r="D97" s="19"/>
+      <c r="C97" s="22"/>
+      <c r="D97" s="22"/>
     </row>
     <row r="98" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C98" s="19"/>
-      <c r="D98" s="19"/>
+      <c r="C98" s="22"/>
+      <c r="D98" s="22"/>
     </row>
     <row r="99" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C99" s="19"/>
-      <c r="D99" s="19"/>
+      <c r="C99" s="22"/>
+      <c r="D99" s="22"/>
     </row>
     <row r="100" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C100" s="19"/>
-      <c r="D100" s="19"/>
+      <c r="C100" s="22"/>
+      <c r="D100" s="22"/>
     </row>
     <row r="101" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C101" s="19"/>
-      <c r="D101" s="19"/>
+      <c r="C101" s="22"/>
+      <c r="D101" s="22"/>
     </row>
     <row r="102" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C102" s="19"/>
-      <c r="D102" s="19"/>
+      <c r="C102" s="22"/>
+      <c r="D102" s="22"/>
     </row>
     <row r="103" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C103" s="19"/>
-      <c r="D103" s="19"/>
+      <c r="C103" s="22"/>
+      <c r="D103" s="22"/>
     </row>
     <row r="104" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C104" s="19"/>
-      <c r="D104" s="19"/>
+      <c r="C104" s="22"/>
+      <c r="D104" s="22"/>
     </row>
     <row r="105" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C105" s="19"/>
-      <c r="D105" s="19"/>
+      <c r="C105" s="22"/>
+      <c r="D105" s="22"/>
     </row>
     <row r="106" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C106" s="19"/>
-      <c r="D106" s="19"/>
+      <c r="C106" s="22"/>
+      <c r="D106" s="22"/>
     </row>
     <row r="107" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C107" s="19"/>
-      <c r="D107" s="19"/>
+      <c r="C107" s="22"/>
+      <c r="D107" s="22"/>
     </row>
     <row r="108" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C108" s="19"/>
-      <c r="D108" s="19"/>
+      <c r="C108" s="22"/>
+      <c r="D108" s="22"/>
     </row>
     <row r="109" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C109" s="19"/>
-      <c r="D109" s="19"/>
+      <c r="C109" s="22"/>
+      <c r="D109" s="22"/>
     </row>
     <row r="110" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C110" s="19"/>
-      <c r="D110" s="19"/>
+      <c r="C110" s="22"/>
+      <c r="D110" s="22"/>
     </row>
     <row r="111" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C111" s="19"/>
-      <c r="D111" s="19"/>
+      <c r="C111" s="22"/>
+      <c r="D111" s="22"/>
     </row>
     <row r="112" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C112" s="19"/>
-      <c r="D112" s="19"/>
+      <c r="C112" s="22"/>
+      <c r="D112" s="22"/>
     </row>
     <row r="113" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C113" s="19"/>
-      <c r="D113" s="19"/>
+      <c r="C113" s="22"/>
+      <c r="D113" s="22"/>
     </row>
     <row r="114" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C114" s="19"/>
-      <c r="D114" s="19"/>
+      <c r="C114" s="22"/>
+      <c r="D114" s="22"/>
     </row>
     <row r="115" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C115" s="19"/>
-      <c r="D115" s="19"/>
+      <c r="C115" s="22"/>
+      <c r="D115" s="22"/>
     </row>
     <row r="116" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C116" s="19"/>
-      <c r="D116" s="19"/>
+      <c r="C116" s="22"/>
+      <c r="D116" s="22"/>
     </row>
     <row r="117" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C117" s="19"/>
-      <c r="D117" s="19"/>
+      <c r="C117" s="22"/>
+      <c r="D117" s="22"/>
     </row>
     <row r="118" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C118" s="19"/>
-      <c r="D118" s="19"/>
+      <c r="C118" s="22"/>
+      <c r="D118" s="22"/>
     </row>
     <row r="119" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C119" s="19"/>
-      <c r="D119" s="19"/>
+      <c r="C119" s="22"/>
+      <c r="D119" s="22"/>
     </row>
     <row r="120" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C120" s="19"/>
-      <c r="D120" s="19"/>
+      <c r="C120" s="22"/>
+      <c r="D120" s="22"/>
     </row>
     <row r="121" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C121" s="19"/>
-      <c r="D121" s="19"/>
+      <c r="C121" s="22"/>
+      <c r="D121" s="22"/>
     </row>
     <row r="122" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C122" s="19"/>
-      <c r="D122" s="19"/>
+      <c r="C122" s="22"/>
+      <c r="D122" s="22"/>
     </row>
     <row r="123" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C123" s="19"/>
-      <c r="D123" s="19"/>
+      <c r="C123" s="22"/>
+      <c r="D123" s="22"/>
     </row>
     <row r="124" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C124" s="19"/>
-      <c r="D124" s="19"/>
+      <c r="C124" s="22"/>
+      <c r="D124" s="22"/>
     </row>
     <row r="125" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C125" s="19"/>
-      <c r="D125" s="19"/>
+      <c r="C125" s="22"/>
+      <c r="D125" s="22"/>
     </row>
     <row r="126" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C126" s="19"/>
-      <c r="D126" s="19"/>
+      <c r="C126" s="22"/>
+      <c r="D126" s="22"/>
     </row>
     <row r="127" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C127" s="19"/>
-      <c r="D127" s="19"/>
+      <c r="C127" s="22"/>
+      <c r="D127" s="22"/>
     </row>
     <row r="128" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C128" s="19"/>
-      <c r="D128" s="19"/>
+      <c r="C128" s="22"/>
+      <c r="D128" s="22"/>
     </row>
     <row r="129" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C129" s="19"/>
-      <c r="D129" s="19"/>
+      <c r="C129" s="22"/>
+      <c r="D129" s="22"/>
     </row>
     <row r="130" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C130" s="19"/>
-      <c r="D130" s="19"/>
+      <c r="C130" s="22"/>
+      <c r="D130" s="22"/>
     </row>
     <row r="131" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C131" s="19"/>
-      <c r="D131" s="19"/>
+      <c r="C131" s="22"/>
+      <c r="D131" s="22"/>
     </row>
     <row r="132" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C132" s="19"/>
-      <c r="D132" s="19"/>
+      <c r="C132" s="22"/>
+      <c r="D132" s="22"/>
     </row>
     <row r="133" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C133" s="19"/>
-      <c r="D133" s="19"/>
+      <c r="C133" s="22"/>
+      <c r="D133" s="22"/>
     </row>
     <row r="134" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C134" s="19"/>
-      <c r="D134" s="19"/>
+      <c r="C134" s="22"/>
+      <c r="D134" s="22"/>
     </row>
     <row r="135" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C135" s="19"/>
-      <c r="D135" s="19"/>
+      <c r="C135" s="22"/>
+      <c r="D135" s="22"/>
     </row>
     <row r="136" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C136" s="19"/>
-      <c r="D136" s="19"/>
+      <c r="C136" s="22"/>
+      <c r="D136" s="22"/>
     </row>
     <row r="137" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C137" s="19"/>
-      <c r="D137" s="19"/>
+      <c r="C137" s="22"/>
+      <c r="D137" s="22"/>
     </row>
     <row r="138" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C138" s="19"/>
-      <c r="D138" s="19"/>
+      <c r="C138" s="22"/>
+      <c r="D138" s="22"/>
     </row>
     <row r="139" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C139" s="19"/>
-      <c r="D139" s="19"/>
+      <c r="C139" s="22"/>
+      <c r="D139" s="22"/>
     </row>
     <row r="140" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C140" s="19"/>
-      <c r="D140" s="19"/>
+      <c r="C140" s="22"/>
+      <c r="D140" s="22"/>
     </row>
     <row r="141" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C141" s="19"/>
-      <c r="D141" s="19"/>
+      <c r="C141" s="22"/>
+      <c r="D141" s="22"/>
+    </row>
+  </sheetData>
+  <mergeCells count="141">
+    <mergeCell ref="C140:D140"/>
+    <mergeCell ref="C141:D141"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C134:D134"/>
+    <mergeCell ref="C135:D135"/>
+    <mergeCell ref="C136:D136"/>
+    <mergeCell ref="C137:D137"/>
+    <mergeCell ref="C138:D138"/>
+    <mergeCell ref="C139:D139"/>
+    <mergeCell ref="C128:D128"/>
+    <mergeCell ref="C129:D129"/>
+    <mergeCell ref="C130:D130"/>
+    <mergeCell ref="C131:D131"/>
+    <mergeCell ref="C132:D132"/>
+    <mergeCell ref="C133:D133"/>
+    <mergeCell ref="C122:D122"/>
+    <mergeCell ref="C123:D123"/>
+    <mergeCell ref="C124:D124"/>
+    <mergeCell ref="C125:D125"/>
+    <mergeCell ref="C126:D126"/>
+    <mergeCell ref="C127:D127"/>
+    <mergeCell ref="C116:D116"/>
+    <mergeCell ref="C117:D117"/>
+    <mergeCell ref="C118:D118"/>
+    <mergeCell ref="C119:D119"/>
+    <mergeCell ref="C120:D120"/>
+    <mergeCell ref="C121:D121"/>
+    <mergeCell ref="C110:D110"/>
+    <mergeCell ref="C111:D111"/>
+    <mergeCell ref="C112:D112"/>
+    <mergeCell ref="C113:D113"/>
+    <mergeCell ref="C114:D114"/>
+    <mergeCell ref="C115:D115"/>
+    <mergeCell ref="C104:D104"/>
+    <mergeCell ref="C105:D105"/>
+    <mergeCell ref="C106:D106"/>
+    <mergeCell ref="C107:D107"/>
+    <mergeCell ref="C108:D108"/>
+    <mergeCell ref="C109:D109"/>
+    <mergeCell ref="C98:D98"/>
+    <mergeCell ref="C99:D99"/>
+    <mergeCell ref="C100:D100"/>
+    <mergeCell ref="C101:D101"/>
+    <mergeCell ref="C102:D102"/>
+    <mergeCell ref="C103:D103"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="C97:D97"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="C90:D90"/>
+    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:E2"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J141"/>
+  <sheetViews>
+    <sheetView topLeftCell="A20" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C58" sqref="C58:D58"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="17.25" customWidth="1"/>
+    <col min="2" max="2" width="21.375" customWidth="1"/>
+    <col min="3" max="3" width="36.875" customWidth="1"/>
+    <col min="4" max="4" width="32.625" customWidth="1"/>
+    <col min="5" max="5" width="66.375" customWidth="1"/>
+    <col min="6" max="6" width="54.25" customWidth="1"/>
+    <col min="7" max="7" width="22.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A1" s="25" t="s">
+        <v>226</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="25"/>
+      <c r="F1" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="5">
+        <v>20240228</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B3" s="15"/>
+      <c r="E3" s="15"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A4" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="26"/>
+      <c r="E4" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="3">
+        <v>1</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="C5" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="D5" s="28"/>
+      <c r="E5" s="15" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="3">
+        <v>2</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="28"/>
+      <c r="E6" s="15" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="3">
+        <v>3</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="22"/>
+      <c r="E7" s="15" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="3">
+        <v>4</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="22"/>
+      <c r="E8" s="15" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="3">
+        <v>5</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="22"/>
+      <c r="E9" s="15" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="3">
+        <v>6</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="22"/>
+      <c r="E10" s="15" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="3">
+        <v>7</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="22"/>
+      <c r="E11" s="15" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="3">
+        <v>8</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="22"/>
+      <c r="E12" s="15" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="3">
+        <v>9</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="22"/>
+      <c r="E13" s="15" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="3">
+        <v>10</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="D14" s="22"/>
+      <c r="E14" s="15" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="3">
+        <v>11</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="22"/>
+      <c r="E15" s="15" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="3">
+        <v>12</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="22"/>
+      <c r="E16" s="15" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="3">
+        <v>13</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="22"/>
+      <c r="E17" s="15" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="3">
+        <v>14</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="D18" s="22"/>
+      <c r="E18" s="15" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="3">
+        <v>15</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="22"/>
+      <c r="E19" s="15" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="3">
+        <v>16</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" s="22"/>
+      <c r="E20" s="15" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="3">
+        <v>17</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="D21" s="22"/>
+      <c r="E21" s="15" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="3">
+        <v>18</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="D22" s="23"/>
+      <c r="E22" s="15" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="3">
+        <v>19</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="D23" s="22"/>
+      <c r="E23" s="15" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="3">
+        <v>20</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="D24" s="22"/>
+      <c r="E24" s="15" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="3">
+        <v>21</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="D25" s="22"/>
+      <c r="E25" s="15" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="3">
+        <v>22</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="D26" s="22"/>
+      <c r="E26" s="15" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="3">
+        <v>23</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="D27" s="23"/>
+      <c r="E27" s="15" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="3">
+        <v>24</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="D28" s="23"/>
+      <c r="E28" s="15" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="3">
+        <v>25</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="D29" s="23"/>
+      <c r="E29" s="15" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="3">
+        <v>26</v>
+      </c>
+      <c r="B30" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="D30" s="22"/>
+      <c r="E30" s="15" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="3">
+        <v>27</v>
+      </c>
+      <c r="B31" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="D31" s="22"/>
+      <c r="E31" s="15" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="3">
+        <v>28</v>
+      </c>
+      <c r="B32" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="D32" s="22"/>
+      <c r="E32" s="15" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="3">
+        <v>29</v>
+      </c>
+      <c r="B33" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="D33" s="22"/>
+      <c r="E33" s="15" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="3">
+        <v>30</v>
+      </c>
+      <c r="B34" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="D34" s="23"/>
+      <c r="E34" s="15" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="3">
+        <v>31</v>
+      </c>
+      <c r="B35" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="D35" s="22"/>
+      <c r="E35" s="15" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="3">
+        <v>32</v>
+      </c>
+      <c r="B36" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="D36" s="22"/>
+      <c r="E36" s="15" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="3">
+        <v>33</v>
+      </c>
+      <c r="B37" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="D37" s="22"/>
+      <c r="E37" s="15" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="3">
+        <v>34</v>
+      </c>
+      <c r="B38" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C38" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="D38" s="22"/>
+      <c r="E38" s="15" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="3">
+        <v>35</v>
+      </c>
+      <c r="B39" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="D39" s="23"/>
+      <c r="E39" s="15" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="3">
+        <v>36</v>
+      </c>
+      <c r="B40" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C40" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D40" s="22"/>
+      <c r="E40" s="15" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="3">
+        <v>37</v>
+      </c>
+      <c r="B41" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C41" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="D41" s="22"/>
+      <c r="E41" s="15" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="3">
+        <v>38</v>
+      </c>
+      <c r="B42" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C42" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="D42" s="22"/>
+      <c r="E42" s="15" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="3">
+        <v>39</v>
+      </c>
+      <c r="B43" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C43" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="D43" s="22"/>
+      <c r="E43" s="15" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="3">
+        <v>40</v>
+      </c>
+      <c r="B44" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C44" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="D44" s="22"/>
+      <c r="E44" s="15" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="3">
+        <v>41</v>
+      </c>
+      <c r="B45" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C45" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="D45" s="22"/>
+      <c r="E45" s="15" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="3">
+        <v>42</v>
+      </c>
+      <c r="B46" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="D46" s="22"/>
+      <c r="E46" s="15" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="3">
+        <v>43</v>
+      </c>
+      <c r="B47" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C47" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="D47" s="22"/>
+      <c r="E47" s="15" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="3">
+        <v>44</v>
+      </c>
+      <c r="B48" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C48" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="D48" s="22"/>
+      <c r="E48" s="15" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="3">
+        <v>45</v>
+      </c>
+      <c r="B49" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C49" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="D49" s="22"/>
+      <c r="E49" s="15" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="3">
+        <v>46</v>
+      </c>
+      <c r="B50" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C50" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="D50" s="22"/>
+      <c r="E50" s="15" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="3">
+        <v>47</v>
+      </c>
+      <c r="B51" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C51" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="D51" s="22"/>
+      <c r="E51" s="15" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="3">
+        <v>48</v>
+      </c>
+      <c r="B52" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C52" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="D52" s="22"/>
+      <c r="E52" s="15" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="3">
+        <v>49</v>
+      </c>
+      <c r="B53" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C53" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="D53" s="22"/>
+      <c r="E53" s="15" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="3">
+        <v>50</v>
+      </c>
+      <c r="B54" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C54" s="23" t="s">
+        <v>150</v>
+      </c>
+      <c r="D54" s="22"/>
+      <c r="E54" s="15" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="3">
+        <v>51</v>
+      </c>
+      <c r="B55" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C55" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="D55" s="22"/>
+      <c r="E55" s="15" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A56" s="3">
+        <v>52</v>
+      </c>
+      <c r="B56" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C56" s="23" t="s">
+        <v>175</v>
+      </c>
+      <c r="D56" s="22"/>
+      <c r="E56" s="15" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A57" s="3">
+        <v>53</v>
+      </c>
+      <c r="B57" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="C57" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="D57" s="22"/>
+      <c r="E57" s="15" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="3">
+        <v>54</v>
+      </c>
+      <c r="B58" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="C58" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="D58" s="22"/>
+      <c r="E58" s="15" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A59" s="3">
+        <v>55</v>
+      </c>
+      <c r="B59" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="C59" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="D59" s="22"/>
+      <c r="E59" s="15" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A60" s="3">
+        <v>56</v>
+      </c>
+      <c r="B60" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="C60" s="22" t="s">
+        <v>201</v>
+      </c>
+      <c r="D60" s="22"/>
+      <c r="E60" s="15" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A61" s="3">
+        <v>57</v>
+      </c>
+      <c r="B61" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="C61" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="D61" s="22"/>
+      <c r="E61" s="15" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A62" s="3">
+        <v>58</v>
+      </c>
+      <c r="B62" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="C62" s="22" t="s">
+        <v>234</v>
+      </c>
+      <c r="D62" s="22"/>
+      <c r="E62" s="15" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A63" s="3">
+        <v>59</v>
+      </c>
+      <c r="B63" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="C63" s="22" t="s">
+        <v>237</v>
+      </c>
+      <c r="D63" s="22"/>
+      <c r="E63" s="15" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C64" s="22"/>
+      <c r="D64" s="22"/>
+    </row>
+    <row r="65" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C65" s="22"/>
+      <c r="D65" s="22"/>
+    </row>
+    <row r="66" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C66" s="22"/>
+      <c r="D66" s="22"/>
+    </row>
+    <row r="67" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C67" s="22"/>
+      <c r="D67" s="22"/>
+    </row>
+    <row r="68" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C68" s="22"/>
+      <c r="D68" s="22"/>
+    </row>
+    <row r="69" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C69" s="22"/>
+      <c r="D69" s="22"/>
+    </row>
+    <row r="70" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C70" s="22"/>
+      <c r="D70" s="22"/>
+    </row>
+    <row r="71" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C71" s="22"/>
+      <c r="D71" s="22"/>
+    </row>
+    <row r="72" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C72" s="22"/>
+      <c r="D72" s="22"/>
+    </row>
+    <row r="73" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C73" s="22"/>
+      <c r="D73" s="22"/>
+    </row>
+    <row r="74" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C74" s="22"/>
+      <c r="D74" s="22"/>
+    </row>
+    <row r="75" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C75" s="22"/>
+      <c r="D75" s="22"/>
+    </row>
+    <row r="76" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C76" s="22"/>
+      <c r="D76" s="22"/>
+    </row>
+    <row r="77" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C77" s="22"/>
+      <c r="D77" s="22"/>
+    </row>
+    <row r="78" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C78" s="22"/>
+      <c r="D78" s="22"/>
+    </row>
+    <row r="79" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C79" s="22"/>
+      <c r="D79" s="22"/>
+    </row>
+    <row r="80" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C80" s="22"/>
+      <c r="D80" s="22"/>
+    </row>
+    <row r="81" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C81" s="22"/>
+      <c r="D81" s="22"/>
+    </row>
+    <row r="82" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C82" s="22"/>
+      <c r="D82" s="22"/>
+    </row>
+    <row r="83" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C83" s="22"/>
+      <c r="D83" s="22"/>
+    </row>
+    <row r="84" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C84" s="22"/>
+      <c r="D84" s="22"/>
+    </row>
+    <row r="85" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C85" s="22"/>
+      <c r="D85" s="22"/>
+    </row>
+    <row r="86" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C86" s="22"/>
+      <c r="D86" s="22"/>
+    </row>
+    <row r="87" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C87" s="22"/>
+      <c r="D87" s="22"/>
+    </row>
+    <row r="88" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C88" s="22"/>
+      <c r="D88" s="22"/>
+    </row>
+    <row r="89" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C89" s="22"/>
+      <c r="D89" s="22"/>
+    </row>
+    <row r="90" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C90" s="22"/>
+      <c r="D90" s="22"/>
+    </row>
+    <row r="91" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C91" s="22"/>
+      <c r="D91" s="22"/>
+    </row>
+    <row r="92" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C92" s="22"/>
+      <c r="D92" s="22"/>
+    </row>
+    <row r="93" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C93" s="22"/>
+      <c r="D93" s="22"/>
+    </row>
+    <row r="94" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C94" s="22"/>
+      <c r="D94" s="22"/>
+    </row>
+    <row r="95" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C95" s="22"/>
+      <c r="D95" s="22"/>
+    </row>
+    <row r="96" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C96" s="22"/>
+      <c r="D96" s="22"/>
+    </row>
+    <row r="97" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C97" s="22"/>
+      <c r="D97" s="22"/>
+    </row>
+    <row r="98" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C98" s="22"/>
+      <c r="D98" s="22"/>
+    </row>
+    <row r="99" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C99" s="22"/>
+      <c r="D99" s="22"/>
+    </row>
+    <row r="100" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C100" s="22"/>
+      <c r="D100" s="22"/>
+    </row>
+    <row r="101" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C101" s="22"/>
+      <c r="D101" s="22"/>
+    </row>
+    <row r="102" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C102" s="22"/>
+      <c r="D102" s="22"/>
+    </row>
+    <row r="103" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C103" s="22"/>
+      <c r="D103" s="22"/>
+    </row>
+    <row r="104" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C104" s="22"/>
+      <c r="D104" s="22"/>
+    </row>
+    <row r="105" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C105" s="22"/>
+      <c r="D105" s="22"/>
+    </row>
+    <row r="106" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C106" s="22"/>
+      <c r="D106" s="22"/>
+    </row>
+    <row r="107" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C107" s="22"/>
+      <c r="D107" s="22"/>
+    </row>
+    <row r="108" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C108" s="22"/>
+      <c r="D108" s="22"/>
+    </row>
+    <row r="109" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C109" s="22"/>
+      <c r="D109" s="22"/>
+    </row>
+    <row r="110" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C110" s="22"/>
+      <c r="D110" s="22"/>
+    </row>
+    <row r="111" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C111" s="22"/>
+      <c r="D111" s="22"/>
+    </row>
+    <row r="112" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C112" s="22"/>
+      <c r="D112" s="22"/>
+    </row>
+    <row r="113" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C113" s="22"/>
+      <c r="D113" s="22"/>
+    </row>
+    <row r="114" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C114" s="22"/>
+      <c r="D114" s="22"/>
+    </row>
+    <row r="115" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C115" s="22"/>
+      <c r="D115" s="22"/>
+    </row>
+    <row r="116" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C116" s="22"/>
+      <c r="D116" s="22"/>
+    </row>
+    <row r="117" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C117" s="22"/>
+      <c r="D117" s="22"/>
+    </row>
+    <row r="118" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C118" s="22"/>
+      <c r="D118" s="22"/>
+    </row>
+    <row r="119" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C119" s="22"/>
+      <c r="D119" s="22"/>
+    </row>
+    <row r="120" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C120" s="22"/>
+      <c r="D120" s="22"/>
+    </row>
+    <row r="121" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C121" s="22"/>
+      <c r="D121" s="22"/>
+    </row>
+    <row r="122" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C122" s="22"/>
+      <c r="D122" s="22"/>
+    </row>
+    <row r="123" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C123" s="22"/>
+      <c r="D123" s="22"/>
+    </row>
+    <row r="124" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C124" s="22"/>
+      <c r="D124" s="22"/>
+    </row>
+    <row r="125" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C125" s="22"/>
+      <c r="D125" s="22"/>
+    </row>
+    <row r="126" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C126" s="22"/>
+      <c r="D126" s="22"/>
+    </row>
+    <row r="127" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C127" s="22"/>
+      <c r="D127" s="22"/>
+    </row>
+    <row r="128" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C128" s="22"/>
+      <c r="D128" s="22"/>
+    </row>
+    <row r="129" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C129" s="22"/>
+      <c r="D129" s="22"/>
+    </row>
+    <row r="130" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C130" s="22"/>
+      <c r="D130" s="22"/>
+    </row>
+    <row r="131" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C131" s="22"/>
+      <c r="D131" s="22"/>
+    </row>
+    <row r="132" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C132" s="22"/>
+      <c r="D132" s="22"/>
+    </row>
+    <row r="133" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C133" s="22"/>
+      <c r="D133" s="22"/>
+    </row>
+    <row r="134" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C134" s="22"/>
+      <c r="D134" s="22"/>
+    </row>
+    <row r="135" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C135" s="22"/>
+      <c r="D135" s="22"/>
+    </row>
+    <row r="136" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C136" s="22"/>
+      <c r="D136" s="22"/>
+    </row>
+    <row r="137" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C137" s="22"/>
+      <c r="D137" s="22"/>
+    </row>
+    <row r="138" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C138" s="22"/>
+      <c r="D138" s="22"/>
+    </row>
+    <row r="139" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C139" s="22"/>
+      <c r="D139" s="22"/>
+    </row>
+    <row r="140" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C140" s="22"/>
+      <c r="D140" s="22"/>
+    </row>
+    <row r="141" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C141" s="22"/>
+      <c r="D141" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="141">
@@ -7472,1435 +10733,4 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J141"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C58" sqref="C58:D58"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="17.25" customWidth="1"/>
-    <col min="2" max="2" width="21.375" customWidth="1"/>
-    <col min="3" max="3" width="36.875" customWidth="1"/>
-    <col min="4" max="4" width="32.625" customWidth="1"/>
-    <col min="5" max="5" width="66.375" customWidth="1"/>
-    <col min="6" max="6" width="54.25" customWidth="1"/>
-    <col min="7" max="7" width="22.875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A1" s="21" t="s">
-        <v>226</v>
-      </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="21"/>
-      <c r="F1" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="16" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A2" s="21"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="5">
-        <v>20240228</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B3" s="15"/>
-      <c r="E3" s="15"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A4" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="22"/>
-      <c r="E4" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="J4" s="17" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="3">
-        <v>1</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>224</v>
-      </c>
-      <c r="C5" s="24" t="s">
-        <v>225</v>
-      </c>
-      <c r="D5" s="24"/>
-      <c r="E5" s="15" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="3">
-        <v>2</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="24"/>
-      <c r="E6" s="15" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="3">
-        <v>3</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="19"/>
-      <c r="E7" s="15" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="3">
-        <v>4</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="19"/>
-      <c r="E8" s="15" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="3">
-        <v>5</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="19"/>
-      <c r="E9" s="15" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="3">
-        <v>6</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="19"/>
-      <c r="E10" s="15" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="3">
-        <v>7</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="19"/>
-      <c r="E11" s="15" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="3">
-        <v>8</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="19"/>
-      <c r="E12" s="15" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="3">
-        <v>9</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="19"/>
-      <c r="E13" s="15" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="3">
-        <v>10</v>
-      </c>
-      <c r="B14" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="D14" s="19"/>
-      <c r="E14" s="15" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="3">
-        <v>11</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="19"/>
-      <c r="E15" s="15" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="3">
-        <v>12</v>
-      </c>
-      <c r="B16" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" s="19"/>
-      <c r="E16" s="15" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="3">
-        <v>13</v>
-      </c>
-      <c r="B17" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" s="19"/>
-      <c r="E17" s="15" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="3">
-        <v>14</v>
-      </c>
-      <c r="B18" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" s="18" t="s">
-        <v>134</v>
-      </c>
-      <c r="D18" s="19"/>
-      <c r="E18" s="15" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="3">
-        <v>15</v>
-      </c>
-      <c r="B19" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="D19" s="19"/>
-      <c r="E19" s="15" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="3">
-        <v>16</v>
-      </c>
-      <c r="B20" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="D20" s="19"/>
-      <c r="E20" s="15" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="3">
-        <v>17</v>
-      </c>
-      <c r="B21" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C21" s="18" t="s">
-        <v>127</v>
-      </c>
-      <c r="D21" s="19"/>
-      <c r="E21" s="15" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="3">
-        <v>18</v>
-      </c>
-      <c r="B22" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C22" s="18" t="s">
-        <v>128</v>
-      </c>
-      <c r="D22" s="18"/>
-      <c r="E22" s="15" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="3">
-        <v>19</v>
-      </c>
-      <c r="B23" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C23" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="D23" s="19"/>
-      <c r="E23" s="15" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="3">
-        <v>20</v>
-      </c>
-      <c r="B24" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="D24" s="19"/>
-      <c r="E24" s="15" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="3">
-        <v>21</v>
-      </c>
-      <c r="B25" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C25" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="D25" s="19"/>
-      <c r="E25" s="15" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="3">
-        <v>22</v>
-      </c>
-      <c r="B26" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C26" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="D26" s="19"/>
-      <c r="E26" s="15" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="3">
-        <v>23</v>
-      </c>
-      <c r="B27" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C27" s="18" t="s">
-        <v>126</v>
-      </c>
-      <c r="D27" s="18"/>
-      <c r="E27" s="15" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="3">
-        <v>24</v>
-      </c>
-      <c r="B28" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C28" s="18" t="s">
-        <v>140</v>
-      </c>
-      <c r="D28" s="18"/>
-      <c r="E28" s="15" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="3">
-        <v>25</v>
-      </c>
-      <c r="B29" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C29" s="18" t="s">
-        <v>137</v>
-      </c>
-      <c r="D29" s="18"/>
-      <c r="E29" s="15" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="3">
-        <v>26</v>
-      </c>
-      <c r="B30" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C30" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="D30" s="19"/>
-      <c r="E30" s="15" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="3">
-        <v>27</v>
-      </c>
-      <c r="B31" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C31" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="D31" s="19"/>
-      <c r="E31" s="15" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="3">
-        <v>28</v>
-      </c>
-      <c r="B32" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C32" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="D32" s="19"/>
-      <c r="E32" s="15" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="3">
-        <v>29</v>
-      </c>
-      <c r="B33" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C33" s="18" t="s">
-        <v>148</v>
-      </c>
-      <c r="D33" s="19"/>
-      <c r="E33" s="15" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="3">
-        <v>30</v>
-      </c>
-      <c r="B34" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C34" s="18" t="s">
-        <v>141</v>
-      </c>
-      <c r="D34" s="18"/>
-      <c r="E34" s="15" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="3">
-        <v>31</v>
-      </c>
-      <c r="B35" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C35" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="D35" s="19"/>
-      <c r="E35" s="15" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="3">
-        <v>32</v>
-      </c>
-      <c r="B36" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C36" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="D36" s="19"/>
-      <c r="E36" s="15" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="3">
-        <v>33</v>
-      </c>
-      <c r="B37" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C37" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="D37" s="19"/>
-      <c r="E37" s="15" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="3">
-        <v>34</v>
-      </c>
-      <c r="B38" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C38" s="18" t="s">
-        <v>149</v>
-      </c>
-      <c r="D38" s="19"/>
-      <c r="E38" s="15" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="3">
-        <v>35</v>
-      </c>
-      <c r="B39" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C39" s="18" t="s">
-        <v>142</v>
-      </c>
-      <c r="D39" s="18"/>
-      <c r="E39" s="15" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="3">
-        <v>36</v>
-      </c>
-      <c r="B40" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C40" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="D40" s="19"/>
-      <c r="E40" s="15" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="3">
-        <v>37</v>
-      </c>
-      <c r="B41" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C41" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="D41" s="19"/>
-      <c r="E41" s="15" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="3">
-        <v>38</v>
-      </c>
-      <c r="B42" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C42" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="D42" s="19"/>
-      <c r="E42" s="15" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="3">
-        <v>39</v>
-      </c>
-      <c r="B43" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C43" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="D43" s="19"/>
-      <c r="E43" s="15" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="3">
-        <v>40</v>
-      </c>
-      <c r="B44" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C44" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="D44" s="19"/>
-      <c r="E44" s="15" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="3">
-        <v>41</v>
-      </c>
-      <c r="B45" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C45" s="18" t="s">
-        <v>111</v>
-      </c>
-      <c r="D45" s="19"/>
-      <c r="E45" s="15" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="3">
-        <v>42</v>
-      </c>
-      <c r="B46" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C46" s="18" t="s">
-        <v>116</v>
-      </c>
-      <c r="D46" s="19"/>
-      <c r="E46" s="15" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="3">
-        <v>43</v>
-      </c>
-      <c r="B47" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C47" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="D47" s="19"/>
-      <c r="E47" s="15" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="3">
-        <v>44</v>
-      </c>
-      <c r="B48" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C48" s="18" t="s">
-        <v>118</v>
-      </c>
-      <c r="D48" s="19"/>
-      <c r="E48" s="15" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="3">
-        <v>45</v>
-      </c>
-      <c r="B49" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C49" s="18" t="s">
-        <v>172</v>
-      </c>
-      <c r="D49" s="19"/>
-      <c r="E49" s="15" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="3">
-        <v>46</v>
-      </c>
-      <c r="B50" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C50" s="18" t="s">
-        <v>173</v>
-      </c>
-      <c r="D50" s="19"/>
-      <c r="E50" s="15" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="3">
-        <v>47</v>
-      </c>
-      <c r="B51" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C51" s="18" t="s">
-        <v>143</v>
-      </c>
-      <c r="D51" s="19"/>
-      <c r="E51" s="15" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="3">
-        <v>48</v>
-      </c>
-      <c r="B52" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C52" s="18" t="s">
-        <v>144</v>
-      </c>
-      <c r="D52" s="19"/>
-      <c r="E52" s="15" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="3">
-        <v>49</v>
-      </c>
-      <c r="B53" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C53" s="18" t="s">
-        <v>146</v>
-      </c>
-      <c r="D53" s="19"/>
-      <c r="E53" s="15" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="3">
-        <v>50</v>
-      </c>
-      <c r="B54" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C54" s="18" t="s">
-        <v>150</v>
-      </c>
-      <c r="D54" s="19"/>
-      <c r="E54" s="15" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="3">
-        <v>51</v>
-      </c>
-      <c r="B55" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C55" s="18" t="s">
-        <v>174</v>
-      </c>
-      <c r="D55" s="19"/>
-      <c r="E55" s="15" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="3">
-        <v>52</v>
-      </c>
-      <c r="B56" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C56" s="18" t="s">
-        <v>175</v>
-      </c>
-      <c r="D56" s="19"/>
-      <c r="E56" s="15" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="3">
-        <v>53</v>
-      </c>
-      <c r="B57" s="15" t="s">
-        <v>231</v>
-      </c>
-      <c r="C57" s="19" t="s">
-        <v>176</v>
-      </c>
-      <c r="D57" s="19"/>
-      <c r="E57" s="15" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="3">
-        <v>54</v>
-      </c>
-      <c r="B58" s="15" t="s">
-        <v>231</v>
-      </c>
-      <c r="C58" s="19" t="s">
-        <v>177</v>
-      </c>
-      <c r="D58" s="19"/>
-      <c r="E58" s="15" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="3">
-        <v>55</v>
-      </c>
-      <c r="B59" s="15" t="s">
-        <v>231</v>
-      </c>
-      <c r="C59" s="19" t="s">
-        <v>177</v>
-      </c>
-      <c r="D59" s="19"/>
-      <c r="E59" s="15" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="3">
-        <v>56</v>
-      </c>
-      <c r="B60" s="15" t="s">
-        <v>231</v>
-      </c>
-      <c r="C60" s="19" t="s">
-        <v>201</v>
-      </c>
-      <c r="D60" s="19"/>
-      <c r="E60" s="15" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="3">
-        <v>57</v>
-      </c>
-      <c r="B61" s="15" t="s">
-        <v>181</v>
-      </c>
-      <c r="C61" s="19" t="s">
-        <v>182</v>
-      </c>
-      <c r="D61" s="19"/>
-      <c r="E61" s="15" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="3">
-        <v>58</v>
-      </c>
-      <c r="B62" s="15" t="s">
-        <v>231</v>
-      </c>
-      <c r="C62" s="19" t="s">
-        <v>234</v>
-      </c>
-      <c r="D62" s="19"/>
-      <c r="E62" s="15" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="3">
-        <v>59</v>
-      </c>
-      <c r="B63" s="15" t="s">
-        <v>231</v>
-      </c>
-      <c r="C63" s="19" t="s">
-        <v>237</v>
-      </c>
-      <c r="D63" s="19"/>
-      <c r="E63" s="15" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C64" s="19"/>
-      <c r="D64" s="19"/>
-    </row>
-    <row r="65" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C65" s="19"/>
-      <c r="D65" s="19"/>
-    </row>
-    <row r="66" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C66" s="19"/>
-      <c r="D66" s="19"/>
-    </row>
-    <row r="67" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C67" s="19"/>
-      <c r="D67" s="19"/>
-    </row>
-    <row r="68" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C68" s="19"/>
-      <c r="D68" s="19"/>
-    </row>
-    <row r="69" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C69" s="19"/>
-      <c r="D69" s="19"/>
-    </row>
-    <row r="70" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C70" s="19"/>
-      <c r="D70" s="19"/>
-    </row>
-    <row r="71" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C71" s="19"/>
-      <c r="D71" s="19"/>
-    </row>
-    <row r="72" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C72" s="19"/>
-      <c r="D72" s="19"/>
-    </row>
-    <row r="73" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C73" s="19"/>
-      <c r="D73" s="19"/>
-    </row>
-    <row r="74" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C74" s="19"/>
-      <c r="D74" s="19"/>
-    </row>
-    <row r="75" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C75" s="19"/>
-      <c r="D75" s="19"/>
-    </row>
-    <row r="76" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C76" s="19"/>
-      <c r="D76" s="19"/>
-    </row>
-    <row r="77" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C77" s="19"/>
-      <c r="D77" s="19"/>
-    </row>
-    <row r="78" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C78" s="19"/>
-      <c r="D78" s="19"/>
-    </row>
-    <row r="79" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C79" s="19"/>
-      <c r="D79" s="19"/>
-    </row>
-    <row r="80" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C80" s="19"/>
-      <c r="D80" s="19"/>
-    </row>
-    <row r="81" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C81" s="19"/>
-      <c r="D81" s="19"/>
-    </row>
-    <row r="82" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C82" s="19"/>
-      <c r="D82" s="19"/>
-    </row>
-    <row r="83" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C83" s="19"/>
-      <c r="D83" s="19"/>
-    </row>
-    <row r="84" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C84" s="19"/>
-      <c r="D84" s="19"/>
-    </row>
-    <row r="85" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C85" s="19"/>
-      <c r="D85" s="19"/>
-    </row>
-    <row r="86" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C86" s="19"/>
-      <c r="D86" s="19"/>
-    </row>
-    <row r="87" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C87" s="19"/>
-      <c r="D87" s="19"/>
-    </row>
-    <row r="88" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C88" s="19"/>
-      <c r="D88" s="19"/>
-    </row>
-    <row r="89" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C89" s="19"/>
-      <c r="D89" s="19"/>
-    </row>
-    <row r="90" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C90" s="19"/>
-      <c r="D90" s="19"/>
-    </row>
-    <row r="91" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C91" s="19"/>
-      <c r="D91" s="19"/>
-    </row>
-    <row r="92" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C92" s="19"/>
-      <c r="D92" s="19"/>
-    </row>
-    <row r="93" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C93" s="19"/>
-      <c r="D93" s="19"/>
-    </row>
-    <row r="94" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C94" s="19"/>
-      <c r="D94" s="19"/>
-    </row>
-    <row r="95" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C95" s="19"/>
-      <c r="D95" s="19"/>
-    </row>
-    <row r="96" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C96" s="19"/>
-      <c r="D96" s="19"/>
-    </row>
-    <row r="97" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C97" s="19"/>
-      <c r="D97" s="19"/>
-    </row>
-    <row r="98" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C98" s="19"/>
-      <c r="D98" s="19"/>
-    </row>
-    <row r="99" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C99" s="19"/>
-      <c r="D99" s="19"/>
-    </row>
-    <row r="100" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C100" s="19"/>
-      <c r="D100" s="19"/>
-    </row>
-    <row r="101" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C101" s="19"/>
-      <c r="D101" s="19"/>
-    </row>
-    <row r="102" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C102" s="19"/>
-      <c r="D102" s="19"/>
-    </row>
-    <row r="103" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C103" s="19"/>
-      <c r="D103" s="19"/>
-    </row>
-    <row r="104" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C104" s="19"/>
-      <c r="D104" s="19"/>
-    </row>
-    <row r="105" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C105" s="19"/>
-      <c r="D105" s="19"/>
-    </row>
-    <row r="106" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C106" s="19"/>
-      <c r="D106" s="19"/>
-    </row>
-    <row r="107" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C107" s="19"/>
-      <c r="D107" s="19"/>
-    </row>
-    <row r="108" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C108" s="19"/>
-      <c r="D108" s="19"/>
-    </row>
-    <row r="109" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C109" s="19"/>
-      <c r="D109" s="19"/>
-    </row>
-    <row r="110" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C110" s="19"/>
-      <c r="D110" s="19"/>
-    </row>
-    <row r="111" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C111" s="19"/>
-      <c r="D111" s="19"/>
-    </row>
-    <row r="112" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C112" s="19"/>
-      <c r="D112" s="19"/>
-    </row>
-    <row r="113" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C113" s="19"/>
-      <c r="D113" s="19"/>
-    </row>
-    <row r="114" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C114" s="19"/>
-      <c r="D114" s="19"/>
-    </row>
-    <row r="115" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C115" s="19"/>
-      <c r="D115" s="19"/>
-    </row>
-    <row r="116" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C116" s="19"/>
-      <c r="D116" s="19"/>
-    </row>
-    <row r="117" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C117" s="19"/>
-      <c r="D117" s="19"/>
-    </row>
-    <row r="118" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C118" s="19"/>
-      <c r="D118" s="19"/>
-    </row>
-    <row r="119" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C119" s="19"/>
-      <c r="D119" s="19"/>
-    </row>
-    <row r="120" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C120" s="19"/>
-      <c r="D120" s="19"/>
-    </row>
-    <row r="121" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C121" s="19"/>
-      <c r="D121" s="19"/>
-    </row>
-    <row r="122" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C122" s="19"/>
-      <c r="D122" s="19"/>
-    </row>
-    <row r="123" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C123" s="19"/>
-      <c r="D123" s="19"/>
-    </row>
-    <row r="124" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C124" s="19"/>
-      <c r="D124" s="19"/>
-    </row>
-    <row r="125" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C125" s="19"/>
-      <c r="D125" s="19"/>
-    </row>
-    <row r="126" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C126" s="19"/>
-      <c r="D126" s="19"/>
-    </row>
-    <row r="127" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C127" s="19"/>
-      <c r="D127" s="19"/>
-    </row>
-    <row r="128" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C128" s="19"/>
-      <c r="D128" s="19"/>
-    </row>
-    <row r="129" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C129" s="19"/>
-      <c r="D129" s="19"/>
-    </row>
-    <row r="130" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C130" s="19"/>
-      <c r="D130" s="19"/>
-    </row>
-    <row r="131" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C131" s="19"/>
-      <c r="D131" s="19"/>
-    </row>
-    <row r="132" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C132" s="19"/>
-      <c r="D132" s="19"/>
-    </row>
-    <row r="133" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C133" s="19"/>
-      <c r="D133" s="19"/>
-    </row>
-    <row r="134" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C134" s="19"/>
-      <c r="D134" s="19"/>
-    </row>
-    <row r="135" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C135" s="19"/>
-      <c r="D135" s="19"/>
-    </row>
-    <row r="136" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C136" s="19"/>
-      <c r="D136" s="19"/>
-    </row>
-    <row r="137" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C137" s="19"/>
-      <c r="D137" s="19"/>
-    </row>
-    <row r="138" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C138" s="19"/>
-      <c r="D138" s="19"/>
-    </row>
-    <row r="139" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C139" s="19"/>
-      <c r="D139" s="19"/>
-    </row>
-    <row r="140" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C140" s="19"/>
-      <c r="D140" s="19"/>
-    </row>
-    <row r="141" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C141" s="19"/>
-      <c r="D141" s="19"/>
-    </row>
-  </sheetData>
-  <mergeCells count="141">
-    <mergeCell ref="C140:D140"/>
-    <mergeCell ref="C141:D141"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C134:D134"/>
-    <mergeCell ref="C135:D135"/>
-    <mergeCell ref="C136:D136"/>
-    <mergeCell ref="C137:D137"/>
-    <mergeCell ref="C138:D138"/>
-    <mergeCell ref="C139:D139"/>
-    <mergeCell ref="C128:D128"/>
-    <mergeCell ref="C129:D129"/>
-    <mergeCell ref="C130:D130"/>
-    <mergeCell ref="C131:D131"/>
-    <mergeCell ref="C132:D132"/>
-    <mergeCell ref="C133:D133"/>
-    <mergeCell ref="C122:D122"/>
-    <mergeCell ref="C123:D123"/>
-    <mergeCell ref="C124:D124"/>
-    <mergeCell ref="C125:D125"/>
-    <mergeCell ref="C126:D126"/>
-    <mergeCell ref="C127:D127"/>
-    <mergeCell ref="C116:D116"/>
-    <mergeCell ref="C117:D117"/>
-    <mergeCell ref="C118:D118"/>
-    <mergeCell ref="C119:D119"/>
-    <mergeCell ref="C120:D120"/>
-    <mergeCell ref="C121:D121"/>
-    <mergeCell ref="C110:D110"/>
-    <mergeCell ref="C111:D111"/>
-    <mergeCell ref="C112:D112"/>
-    <mergeCell ref="C113:D113"/>
-    <mergeCell ref="C114:D114"/>
-    <mergeCell ref="C115:D115"/>
-    <mergeCell ref="C104:D104"/>
-    <mergeCell ref="C105:D105"/>
-    <mergeCell ref="C106:D106"/>
-    <mergeCell ref="C107:D107"/>
-    <mergeCell ref="C108:D108"/>
-    <mergeCell ref="C109:D109"/>
-    <mergeCell ref="C98:D98"/>
-    <mergeCell ref="C99:D99"/>
-    <mergeCell ref="C100:D100"/>
-    <mergeCell ref="C101:D101"/>
-    <mergeCell ref="C102:D102"/>
-    <mergeCell ref="C103:D103"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="C96:D96"/>
-    <mergeCell ref="C97:D97"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="C89:D89"/>
-    <mergeCell ref="C90:D90"/>
-    <mergeCell ref="C91:D91"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:E2"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-  </mergeCells>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/アカウント登録　テストケース.xlsx
+++ b/アカウント登録　テストケース.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1183" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1422" uniqueCount="303">
   <si>
     <t>単体テストケース</t>
     <rPh sb="0" eb="2">
@@ -3399,6 +3399,757 @@
     </rPh>
     <rPh sb="12" eb="16">
       <t>センイカノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大原</t>
+    <rPh sb="0" eb="2">
+      <t>オオハラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全角ハイフンだとエラーで確認画面に遷移しない</t>
+    <rPh sb="0" eb="2">
+      <t>ゼンカク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>住所入力欄でスペースのみを入力して確認ボタンを押下</t>
+    <rPh sb="0" eb="2">
+      <t>ジュウショ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PC/Windows11/chrome</t>
+  </si>
+  <si>
+    <t>アカウント一覧画面</t>
+    <rPh sb="5" eb="7">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名前（姓）の表示確認</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録した名前（姓）が正しく表示されている</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名前（名）の表示確認</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カナ（姓）の表示確認</t>
+    <rPh sb="3" eb="4">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カナ（名）の表示確認</t>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メールアドレスの表示確認</t>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント権限の表示確認</t>
+    <rPh sb="5" eb="7">
+      <t>ケンゲン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>性別の表示確認</t>
+    <rPh sb="0" eb="2">
+      <t>セイベツ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>削除フラグの表示確認</t>
+    <rPh sb="0" eb="2">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録日時の表示確認</t>
+    <rPh sb="0" eb="4">
+      <t>トウロクニチジ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>更新日時の表示確認</t>
+    <rPh sb="0" eb="4">
+      <t>コウシンニチジ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録した名前（名）が正しく表示されている</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録したカナ（姓）が正しく表示されている</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録したメールアドレスが正しく表示されている</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録した性別が正しく表示されている</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>セイベツ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録した名前アカウント権限が正しく表示されている</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ケンゲン</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録した削除フラグが正しく表示されている</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録した名前登録日時が正しく表示されている</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ニチジ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録した名前更新日時が正しく表示されている</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="6" eb="10">
+      <t>コウシンニチジ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DIブログTOPページでアカウント一覧ボタンを押下</t>
+    <rPh sb="17" eb="19">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント情報登録画面でアカウント一覧ボタンを押下</t>
+    <rPh sb="5" eb="7">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="7" eb="11">
+      <t>トウロクガメン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント登録確認画面でアカウント一覧ボタンを押下</t>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント登録完了画面でアカウント一覧ボタンを押下</t>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント情報登録画面でアカウント登録ボタンを押下</t>
+    <rPh sb="5" eb="7">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="7" eb="11">
+      <t>トウロクガメン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント登録確認画面でアカウント登録ボタンを押下</t>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント登録完了画面でアカウント登録ボタンを押下</t>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント一覧画面で削除ボタンを押下</t>
+    <rPh sb="5" eb="7">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント一覧画面で更新ボタンを押下</t>
+    <rPh sb="5" eb="7">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DB連携</t>
+    <rPh sb="2" eb="4">
+      <t>レンケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント一覧画面の情報確認</t>
+    <rPh sb="5" eb="7">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント一覧画面へ遷移</t>
+    <rPh sb="5" eb="7">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント登録画面へ遷移</t>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>delete.phpへ遷移</t>
+    <rPh sb="11" eb="13">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>update.phpへ遷移</t>
+    <rPh sb="11" eb="13">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>idにあった名前（姓）が登録、表示されている</t>
+    <rPh sb="6" eb="8">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>idにあった名前（名）が登録、表示されている</t>
+    <rPh sb="6" eb="8">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>idにあったカナ（姓）が登録、表示されている</t>
+    <rPh sb="9" eb="10">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>idにあったカナ（名）が登録、表示されている</t>
+    <rPh sb="9" eb="10">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>idにあった名前メールアドレスが登録、表示されている</t>
+    <rPh sb="6" eb="8">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>idにあった性別が登録され、パラメータが0なら男、1なら女と表示されている</t>
+    <rPh sb="6" eb="8">
+      <t>セイベツ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>オトコ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>オンナ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>idにあったアカウント権限が登録され、パラメータが0なら一般、
+1なら管理者と表示されている</t>
+    <rPh sb="11" eb="13">
+      <t>ケンゲン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>イッパン</t>
+    </rPh>
+    <rPh sb="35" eb="38">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>idにあった削除フラグが登録され、パラメータが0なら有効、
+1なら無効と表示されている</t>
+    <rPh sb="6" eb="8">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ユウコウ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ムコウ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>idにあった登録日時が登録され、YMD形式で表示されている</t>
+    <rPh sb="6" eb="8">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ニチジ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ケイシキ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>idにあった更新日時が登録され、YMD形式で表示されている</t>
+    <rPh sb="6" eb="8">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ニチジ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ケイシキ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IDの表示確認</t>
+    <rPh sb="3" eb="5">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IDが降順で表示されている</t>
+    <rPh sb="3" eb="5">
+      <t>コウジュン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3502,7 +4253,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3574,6 +4325,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3872,8 +4629,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I138" sqref="I138"/>
+    <sheetView topLeftCell="A142" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E154" sqref="E154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3891,17 +4648,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25" t="s">
+      <c r="B1" s="27"/>
+      <c r="C1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="25"/>
+      <c r="E1" s="27"/>
       <c r="F1" s="4" t="s">
         <v>3</v>
       </c>
@@ -3910,11 +4667,11 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
       <c r="F2" s="4" t="s">
         <v>4</v>
       </c>
@@ -3929,10 +4686,10 @@
       <c r="B4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="26"/>
+      <c r="D4" s="28"/>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
@@ -3959,10 +4716,10 @@
       <c r="B5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="27"/>
+      <c r="D5" s="29"/>
       <c r="E5" s="6" t="s">
         <v>120</v>
       </c>
@@ -3986,10 +4743,10 @@
       <c r="B6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="D6" s="23"/>
+      <c r="D6" s="24"/>
       <c r="E6" s="6" t="s">
         <v>121</v>
       </c>
@@ -4013,10 +4770,10 @@
       <c r="B7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="C7" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="D7" s="23"/>
+      <c r="D7" s="24"/>
       <c r="E7" s="6" t="s">
         <v>121</v>
       </c>
@@ -4040,10 +4797,10 @@
       <c r="B8" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="23" t="s">
+      <c r="C8" s="24" t="s">
         <v>98</v>
       </c>
-      <c r="D8" s="23"/>
+      <c r="D8" s="24"/>
       <c r="E8" s="6" t="s">
         <v>121</v>
       </c>
@@ -4067,10 +4824,10 @@
       <c r="B9" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="24" t="s">
+      <c r="C9" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="D9" s="24"/>
+      <c r="D9" s="26"/>
       <c r="E9" s="6" t="s">
         <v>121</v>
       </c>
@@ -4094,10 +4851,10 @@
       <c r="B10" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="24" t="s">
+      <c r="C10" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="D10" s="24"/>
+      <c r="D10" s="26"/>
       <c r="E10" s="6" t="s">
         <v>121</v>
       </c>
@@ -4121,10 +4878,10 @@
       <c r="B11" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="24" t="s">
+      <c r="C11" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="D11" s="24"/>
+      <c r="D11" s="26"/>
       <c r="E11" s="6" t="s">
         <v>121</v>
       </c>
@@ -4148,10 +4905,10 @@
       <c r="B12" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="24" t="s">
+      <c r="C12" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="D12" s="24"/>
+      <c r="D12" s="26"/>
       <c r="E12" s="6" t="s">
         <v>121</v>
       </c>
@@ -4175,10 +4932,10 @@
       <c r="B13" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="24" t="s">
+      <c r="C13" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="D13" s="24"/>
+      <c r="D13" s="26"/>
       <c r="E13" s="6" t="s">
         <v>121</v>
       </c>
@@ -4202,10 +4959,10 @@
       <c r="B14" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="24" t="s">
+      <c r="C14" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="D14" s="24"/>
+      <c r="D14" s="26"/>
       <c r="E14" s="6" t="s">
         <v>121</v>
       </c>
@@ -4229,10 +4986,10 @@
       <c r="B15" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="22" t="s">
+      <c r="C15" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="22"/>
+      <c r="D15" s="25"/>
       <c r="E15" s="6" t="s">
         <v>122</v>
       </c>
@@ -4256,10 +5013,10 @@
       <c r="B16" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="22" t="s">
+      <c r="C16" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="22"/>
+      <c r="D16" s="25"/>
       <c r="E16" s="6" t="s">
         <v>122</v>
       </c>
@@ -4283,10 +5040,10 @@
       <c r="B17" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="23" t="s">
+      <c r="C17" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="22"/>
+      <c r="D17" s="25"/>
       <c r="E17" s="6" t="s">
         <v>122</v>
       </c>
@@ -4310,10 +5067,10 @@
       <c r="B18" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="23" t="s">
+      <c r="C18" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="22"/>
+      <c r="D18" s="25"/>
       <c r="E18" s="6" t="s">
         <v>122</v>
       </c>
@@ -4337,10 +5094,10 @@
       <c r="B19" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="23" t="s">
+      <c r="C19" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="22"/>
+      <c r="D19" s="25"/>
       <c r="E19" s="6" t="s">
         <v>122</v>
       </c>
@@ -4364,10 +5121,10 @@
       <c r="B20" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="23" t="s">
+      <c r="C20" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D20" s="22"/>
+      <c r="D20" s="25"/>
       <c r="E20" s="6" t="s">
         <v>122</v>
       </c>
@@ -4391,10 +5148,10 @@
       <c r="B21" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="23" t="s">
+      <c r="C21" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D21" s="22"/>
+      <c r="D21" s="25"/>
       <c r="E21" s="6" t="s">
         <v>167</v>
       </c>
@@ -4418,10 +5175,10 @@
       <c r="B22" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="23" t="s">
+      <c r="C22" s="24" t="s">
         <v>136</v>
       </c>
-      <c r="D22" s="22"/>
+      <c r="D22" s="25"/>
       <c r="E22" s="6" t="s">
         <v>167</v>
       </c>
@@ -4445,10 +5202,10 @@
       <c r="B23" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C23" s="23" t="s">
+      <c r="C23" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="D23" s="23"/>
+      <c r="D23" s="24"/>
       <c r="E23" s="6" t="s">
         <v>167</v>
       </c>
@@ -4472,10 +5229,10 @@
       <c r="B24" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C24" s="23" t="s">
+      <c r="C24" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D24" s="22"/>
+      <c r="D24" s="25"/>
       <c r="E24" s="6" t="s">
         <v>122</v>
       </c>
@@ -4499,10 +5256,10 @@
       <c r="B25" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C25" s="23" t="s">
+      <c r="C25" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D25" s="22"/>
+      <c r="D25" s="25"/>
       <c r="E25" s="6" t="s">
         <v>123</v>
       </c>
@@ -4526,10 +5283,10 @@
       <c r="B26" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C26" s="23" t="s">
+      <c r="C26" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D26" s="22"/>
+      <c r="D26" s="25"/>
       <c r="E26" s="6" t="s">
         <v>167</v>
       </c>
@@ -4553,10 +5310,10 @@
       <c r="B27" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C27" s="23" t="s">
+      <c r="C27" s="24" t="s">
         <v>134</v>
       </c>
-      <c r="D27" s="22"/>
+      <c r="D27" s="25"/>
       <c r="E27" s="6" t="s">
         <v>167</v>
       </c>
@@ -4580,10 +5337,10 @@
       <c r="B28" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C28" s="23" t="s">
+      <c r="C28" s="24" t="s">
         <v>133</v>
       </c>
-      <c r="D28" s="23"/>
+      <c r="D28" s="24"/>
       <c r="E28" s="6" t="s">
         <v>168</v>
       </c>
@@ -4607,10 +5364,10 @@
       <c r="B29" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C29" s="23" t="s">
+      <c r="C29" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D29" s="22"/>
+      <c r="D29" s="25"/>
       <c r="E29" s="6" t="s">
         <v>167</v>
       </c>
@@ -4634,10 +5391,10 @@
       <c r="B30" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C30" s="23" t="s">
+      <c r="C30" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D30" s="22"/>
+      <c r="D30" s="25"/>
       <c r="E30" s="6" t="s">
         <v>167</v>
       </c>
@@ -4661,10 +5418,10 @@
       <c r="B31" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C31" s="23" t="s">
+      <c r="C31" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="D31" s="22"/>
+      <c r="D31" s="25"/>
       <c r="E31" s="6" t="s">
         <v>122</v>
       </c>
@@ -4688,10 +5445,10 @@
       <c r="B32" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C32" s="23" t="s">
+      <c r="C32" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="D32" s="22"/>
+      <c r="D32" s="25"/>
       <c r="E32" s="6" t="s">
         <v>167</v>
       </c>
@@ -4715,10 +5472,10 @@
       <c r="B33" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C33" s="23" t="s">
+      <c r="C33" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="D33" s="23"/>
+      <c r="D33" s="24"/>
       <c r="E33" s="6" t="s">
         <v>167</v>
       </c>
@@ -4742,10 +5499,10 @@
       <c r="B34" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C34" s="23" t="s">
+      <c r="C34" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D34" s="22"/>
+      <c r="D34" s="25"/>
       <c r="E34" s="6" t="s">
         <v>167</v>
       </c>
@@ -4769,10 +5526,10 @@
       <c r="B35" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C35" s="23" t="s">
+      <c r="C35" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D35" s="22"/>
+      <c r="D35" s="25"/>
       <c r="E35" s="6" t="s">
         <v>167</v>
       </c>
@@ -4796,10 +5553,10 @@
       <c r="B36" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C36" s="23" t="s">
+      <c r="C36" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="D36" s="22"/>
+      <c r="D36" s="25"/>
       <c r="E36" s="6" t="s">
         <v>139</v>
       </c>
@@ -4823,10 +5580,10 @@
       <c r="B37" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C37" s="23" t="s">
+      <c r="C37" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="D37" s="22"/>
+      <c r="D37" s="25"/>
       <c r="E37" s="6" t="s">
         <v>169</v>
       </c>
@@ -4850,10 +5607,10 @@
       <c r="B38" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C38" s="23" t="s">
+      <c r="C38" s="24" t="s">
         <v>130</v>
       </c>
-      <c r="D38" s="23"/>
+      <c r="D38" s="24"/>
       <c r="E38" s="6" t="s">
         <v>169</v>
       </c>
@@ -4877,10 +5634,10 @@
       <c r="B39" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C39" s="23" t="s">
+      <c r="C39" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="D39" s="22"/>
+      <c r="D39" s="25"/>
       <c r="E39" s="6" t="s">
         <v>169</v>
       </c>
@@ -4904,10 +5661,10 @@
       <c r="B40" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C40" s="23" t="s">
+      <c r="C40" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="D40" s="22"/>
+      <c r="D40" s="25"/>
       <c r="E40" s="6" t="s">
         <v>169</v>
       </c>
@@ -4931,10 +5688,10 @@
       <c r="B41" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C41" s="23" t="s">
+      <c r="C41" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="D41" s="22"/>
+      <c r="D41" s="25"/>
       <c r="E41" s="6" t="s">
         <v>169</v>
       </c>
@@ -4958,10 +5715,10 @@
       <c r="B42" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C42" s="23" t="s">
+      <c r="C42" s="24" t="s">
         <v>127</v>
       </c>
-      <c r="D42" s="22"/>
+      <c r="D42" s="25"/>
       <c r="E42" s="6" t="s">
         <v>122</v>
       </c>
@@ -4985,10 +5742,10 @@
       <c r="B43" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C43" s="23" t="s">
+      <c r="C43" s="24" t="s">
         <v>246</v>
       </c>
-      <c r="D43" s="23"/>
+      <c r="D43" s="24"/>
       <c r="E43" s="6" t="s">
         <v>124</v>
       </c>
@@ -5012,10 +5769,10 @@
       <c r="B44" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C44" s="23" t="s">
+      <c r="C44" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="D44" s="22"/>
+      <c r="D44" s="25"/>
       <c r="E44" s="6" t="s">
         <v>167</v>
       </c>
@@ -5039,10 +5796,10 @@
       <c r="B45" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C45" s="23" t="s">
+      <c r="C45" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="D45" s="22"/>
+      <c r="D45" s="25"/>
       <c r="E45" s="6" t="s">
         <v>167</v>
       </c>
@@ -5066,10 +5823,10 @@
       <c r="B46" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C46" s="23" t="s">
+      <c r="C46" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="D46" s="22"/>
+      <c r="D46" s="25"/>
       <c r="E46" s="6" t="s">
         <v>167</v>
       </c>
@@ -5093,10 +5850,10 @@
       <c r="B47" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C47" s="23" t="s">
+      <c r="C47" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="D47" s="22"/>
+      <c r="D47" s="25"/>
       <c r="E47" s="6" t="s">
         <v>122</v>
       </c>
@@ -5120,10 +5877,10 @@
       <c r="B48" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C48" s="23" t="s">
+      <c r="C48" s="24" t="s">
         <v>126</v>
       </c>
-      <c r="D48" s="23"/>
+      <c r="D48" s="24"/>
       <c r="E48" s="15" t="s">
         <v>167</v>
       </c>
@@ -5147,10 +5904,10 @@
       <c r="B49" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C49" s="23" t="s">
+      <c r="C49" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="D49" s="22"/>
+      <c r="D49" s="25"/>
       <c r="E49" s="6" t="s">
         <v>167</v>
       </c>
@@ -5174,10 +5931,10 @@
       <c r="B50" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C50" s="23" t="s">
+      <c r="C50" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="D50" s="22"/>
+      <c r="D50" s="25"/>
       <c r="E50" s="6" t="s">
         <v>167</v>
       </c>
@@ -5201,10 +5958,10 @@
       <c r="B51" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C51" s="23" t="s">
+      <c r="C51" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="D51" s="22"/>
+      <c r="D51" s="25"/>
       <c r="E51" s="6" t="s">
         <v>167</v>
       </c>
@@ -5228,10 +5985,10 @@
       <c r="B52" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C52" s="23" t="s">
+      <c r="C52" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="D52" s="23"/>
+      <c r="D52" s="24"/>
       <c r="E52" s="6" t="s">
         <v>139</v>
       </c>
@@ -5255,10 +6012,10 @@
       <c r="B53" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C53" s="23" t="s">
+      <c r="C53" s="24" t="s">
         <v>138</v>
       </c>
-      <c r="D53" s="22"/>
+      <c r="D53" s="25"/>
       <c r="E53" s="6" t="s">
         <v>167</v>
       </c>
@@ -5282,10 +6039,10 @@
       <c r="B54" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C54" s="23" t="s">
+      <c r="C54" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="D54" s="23"/>
+      <c r="D54" s="24"/>
       <c r="E54" s="6" t="s">
         <v>167</v>
       </c>
@@ -5309,10 +6066,10 @@
       <c r="B55" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C55" s="23" t="s">
+      <c r="C55" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="D55" s="22"/>
+      <c r="D55" s="25"/>
       <c r="E55" s="6" t="s">
         <v>122</v>
       </c>
@@ -5336,10 +6093,10 @@
       <c r="B56" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C56" s="23" t="s">
+      <c r="C56" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="D56" s="22"/>
+      <c r="D56" s="25"/>
       <c r="E56" s="6" t="s">
         <v>147</v>
       </c>
@@ -5363,10 +6120,10 @@
       <c r="B57" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C57" s="23" t="s">
+      <c r="C57" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="D57" s="22"/>
+      <c r="D57" s="25"/>
       <c r="E57" s="6" t="s">
         <v>122</v>
       </c>
@@ -5390,10 +6147,10 @@
       <c r="B58" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C58" s="23" t="s">
+      <c r="C58" s="24" t="s">
         <v>148</v>
       </c>
-      <c r="D58" s="22"/>
+      <c r="D58" s="25"/>
       <c r="E58" s="6" t="s">
         <v>152</v>
       </c>
@@ -5417,10 +6174,10 @@
       <c r="B59" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C59" s="23" t="s">
+      <c r="C59" s="24" t="s">
         <v>141</v>
       </c>
-      <c r="D59" s="23"/>
+      <c r="D59" s="24"/>
       <c r="E59" s="6" t="s">
         <v>122</v>
       </c>
@@ -5444,10 +6201,10 @@
       <c r="B60" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C60" s="23" t="s">
+      <c r="C60" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="D60" s="22"/>
+      <c r="D60" s="25"/>
       <c r="E60" s="6" t="s">
         <v>122</v>
       </c>
@@ -5471,10 +6228,10 @@
       <c r="B61" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C61" s="23" t="s">
+      <c r="C61" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="D61" s="22"/>
+      <c r="D61" s="25"/>
       <c r="E61" s="6" t="s">
         <v>153</v>
       </c>
@@ -5498,10 +6255,10 @@
       <c r="B62" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C62" s="23" t="s">
+      <c r="C62" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="D62" s="22"/>
+      <c r="D62" s="25"/>
       <c r="E62" s="6" t="s">
         <v>154</v>
       </c>
@@ -5525,10 +6282,10 @@
       <c r="B63" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C63" s="23" t="s">
+      <c r="C63" s="24" t="s">
         <v>149</v>
       </c>
-      <c r="D63" s="22"/>
+      <c r="D63" s="25"/>
       <c r="E63" s="6" t="s">
         <v>119</v>
       </c>
@@ -5552,10 +6309,10 @@
       <c r="B64" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C64" s="23" t="s">
+      <c r="C64" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="D64" s="23"/>
+      <c r="D64" s="24"/>
       <c r="E64" s="6" t="s">
         <v>122</v>
       </c>
@@ -5579,10 +6336,10 @@
       <c r="B65" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C65" s="23" t="s">
+      <c r="C65" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="D65" s="22"/>
+      <c r="D65" s="25"/>
       <c r="E65" s="6" t="s">
         <v>122</v>
       </c>
@@ -5606,10 +6363,10 @@
       <c r="B66" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C66" s="22" t="s">
+      <c r="C66" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="D66" s="22"/>
+      <c r="D66" s="25"/>
       <c r="E66" s="6" t="s">
         <v>156</v>
       </c>
@@ -5633,10 +6390,10 @@
       <c r="B67" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C67" s="22" t="s">
+      <c r="C67" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="D67" s="22"/>
+      <c r="D67" s="25"/>
       <c r="E67" s="6" t="s">
         <v>157</v>
       </c>
@@ -5660,10 +6417,10 @@
       <c r="B68" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C68" s="22" t="s">
+      <c r="C68" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="D68" s="22"/>
+      <c r="D68" s="25"/>
       <c r="E68" s="6" t="s">
         <v>158</v>
       </c>
@@ -5687,10 +6444,10 @@
       <c r="B69" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C69" s="22" t="s">
+      <c r="C69" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="D69" s="22"/>
+      <c r="D69" s="25"/>
       <c r="E69" s="6" t="s">
         <v>159</v>
       </c>
@@ -5714,10 +6471,10 @@
       <c r="B70" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C70" s="22" t="s">
+      <c r="C70" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="D70" s="22"/>
+      <c r="D70" s="25"/>
       <c r="E70" s="6" t="s">
         <v>160</v>
       </c>
@@ -5741,10 +6498,10 @@
       <c r="B71" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C71" s="22" t="s">
+      <c r="C71" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="D71" s="22"/>
+      <c r="D71" s="25"/>
       <c r="E71" s="6" t="s">
         <v>161</v>
       </c>
@@ -5768,10 +6525,10 @@
       <c r="B72" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C72" s="22" t="s">
+      <c r="C72" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="D72" s="22"/>
+      <c r="D72" s="25"/>
       <c r="E72" s="6" t="s">
         <v>162</v>
       </c>
@@ -5795,10 +6552,10 @@
       <c r="B73" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C73" s="22" t="s">
+      <c r="C73" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="D73" s="22"/>
+      <c r="D73" s="25"/>
       <c r="E73" s="6" t="s">
         <v>163</v>
       </c>
@@ -5822,10 +6579,10 @@
       <c r="B74" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C74" s="23" t="s">
+      <c r="C74" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="D74" s="22"/>
+      <c r="D74" s="25"/>
       <c r="E74" s="6" t="s">
         <v>164</v>
       </c>
@@ -5849,10 +6606,10 @@
       <c r="B75" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C75" s="22" t="s">
+      <c r="C75" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="D75" s="22"/>
+      <c r="D75" s="25"/>
       <c r="E75" s="6" t="s">
         <v>165</v>
       </c>
@@ -5876,10 +6633,10 @@
       <c r="B76" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C76" s="23" t="s">
+      <c r="C76" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="D76" s="22"/>
+      <c r="D76" s="25"/>
       <c r="E76" s="6" t="s">
         <v>155</v>
       </c>
@@ -5903,10 +6660,10 @@
       <c r="B77" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C77" s="23" t="s">
+      <c r="C77" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="D77" s="22"/>
+      <c r="D77" s="25"/>
       <c r="E77" s="6" t="s">
         <v>155</v>
       </c>
@@ -5930,10 +6687,10 @@
       <c r="B78" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C78" s="23" t="s">
+      <c r="C78" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="D78" s="22"/>
+      <c r="D78" s="25"/>
       <c r="E78" s="6" t="s">
         <v>155</v>
       </c>
@@ -5957,10 +6714,10 @@
       <c r="B79" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C79" s="23" t="s">
+      <c r="C79" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="D79" s="22"/>
+      <c r="D79" s="25"/>
       <c r="E79" s="6" t="s">
         <v>155</v>
       </c>
@@ -5984,10 +6741,10 @@
       <c r="B80" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C80" s="23" t="s">
+      <c r="C80" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="D80" s="22"/>
+      <c r="D80" s="25"/>
       <c r="E80" s="6" t="s">
         <v>155</v>
       </c>
@@ -6011,10 +6768,10 @@
       <c r="B81" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C81" s="23" t="s">
+      <c r="C81" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="D81" s="22"/>
+      <c r="D81" s="25"/>
       <c r="E81" s="6" t="s">
         <v>155</v>
       </c>
@@ -6038,10 +6795,10 @@
       <c r="B82" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C82" s="23" t="s">
+      <c r="C82" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="D82" s="22"/>
+      <c r="D82" s="25"/>
       <c r="E82" s="6" t="s">
         <v>155</v>
       </c>
@@ -6065,10 +6822,10 @@
       <c r="B83" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C83" s="23" t="s">
+      <c r="C83" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="D83" s="22"/>
+      <c r="D83" s="25"/>
       <c r="E83" s="6" t="s">
         <v>155</v>
       </c>
@@ -6092,10 +6849,10 @@
       <c r="B84" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C84" s="23" t="s">
+      <c r="C84" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="D84" s="22"/>
+      <c r="D84" s="25"/>
       <c r="E84" s="6" t="s">
         <v>155</v>
       </c>
@@ -6119,10 +6876,10 @@
       <c r="B85" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C85" s="23" t="s">
+      <c r="C85" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="D85" s="22"/>
+      <c r="D85" s="25"/>
       <c r="E85" s="6" t="s">
         <v>155</v>
       </c>
@@ -6146,10 +6903,10 @@
       <c r="B86" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C86" s="23" t="s">
+      <c r="C86" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="D86" s="22"/>
+      <c r="D86" s="25"/>
       <c r="E86" s="6" t="s">
         <v>155</v>
       </c>
@@ -6173,10 +6930,10 @@
       <c r="B87" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C87" s="23" t="s">
+      <c r="C87" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="D87" s="22"/>
+      <c r="D87" s="25"/>
       <c r="E87" s="6" t="s">
         <v>155</v>
       </c>
@@ -6200,10 +6957,10 @@
       <c r="B88" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C88" s="23" t="s">
+      <c r="C88" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="D88" s="22"/>
+      <c r="D88" s="25"/>
       <c r="E88" s="6" t="s">
         <v>155</v>
       </c>
@@ -6227,10 +6984,10 @@
       <c r="B89" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C89" s="23" t="s">
+      <c r="C89" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="D89" s="22"/>
+      <c r="D89" s="25"/>
       <c r="E89" s="6" t="s">
         <v>155</v>
       </c>
@@ -6254,10 +7011,10 @@
       <c r="B90" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C90" s="23" t="s">
+      <c r="C90" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="D90" s="22"/>
+      <c r="D90" s="25"/>
       <c r="E90" s="6" t="s">
         <v>155</v>
       </c>
@@ -6281,10 +7038,10 @@
       <c r="B91" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C91" s="23" t="s">
+      <c r="C91" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="D91" s="22"/>
+      <c r="D91" s="25"/>
       <c r="E91" s="6" t="s">
         <v>155</v>
       </c>
@@ -6308,10 +7065,10 @@
       <c r="B92" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C92" s="23" t="s">
+      <c r="C92" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="D92" s="22"/>
+      <c r="D92" s="25"/>
       <c r="E92" s="6" t="s">
         <v>155</v>
       </c>
@@ -6335,10 +7092,10 @@
       <c r="B93" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C93" s="23" t="s">
+      <c r="C93" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="D93" s="22"/>
+      <c r="D93" s="25"/>
       <c r="E93" s="6" t="s">
         <v>155</v>
       </c>
@@ -6362,10 +7119,10 @@
       <c r="B94" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C94" s="23" t="s">
+      <c r="C94" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="D94" s="22"/>
+      <c r="D94" s="25"/>
       <c r="E94" s="6" t="s">
         <v>155</v>
       </c>
@@ -6389,10 +7146,10 @@
       <c r="B95" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C95" s="23" t="s">
+      <c r="C95" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="D95" s="22"/>
+      <c r="D95" s="25"/>
       <c r="E95" s="6" t="s">
         <v>155</v>
       </c>
@@ -6416,10 +7173,10 @@
       <c r="B96" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C96" s="23" t="s">
+      <c r="C96" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="D96" s="22"/>
+      <c r="D96" s="25"/>
       <c r="E96" s="6" t="s">
         <v>155</v>
       </c>
@@ -6443,10 +7200,10 @@
       <c r="B97" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C97" s="23" t="s">
+      <c r="C97" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="D97" s="22"/>
+      <c r="D97" s="25"/>
       <c r="E97" s="6" t="s">
         <v>155</v>
       </c>
@@ -6470,10 +7227,10 @@
       <c r="B98" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C98" s="23" t="s">
+      <c r="C98" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="D98" s="22"/>
+      <c r="D98" s="25"/>
       <c r="E98" s="6" t="s">
         <v>155</v>
       </c>
@@ -6497,10 +7254,10 @@
       <c r="B99" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C99" s="23" t="s">
+      <c r="C99" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="D99" s="22"/>
+      <c r="D99" s="25"/>
       <c r="E99" s="6" t="s">
         <v>155</v>
       </c>
@@ -6524,10 +7281,10 @@
       <c r="B100" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C100" s="23" t="s">
+      <c r="C100" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="D100" s="22"/>
+      <c r="D100" s="25"/>
       <c r="E100" s="6" t="s">
         <v>155</v>
       </c>
@@ -6551,10 +7308,10 @@
       <c r="B101" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C101" s="23" t="s">
+      <c r="C101" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="D101" s="22"/>
+      <c r="D101" s="25"/>
       <c r="E101" s="6" t="s">
         <v>155</v>
       </c>
@@ -6578,10 +7335,10 @@
       <c r="B102" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C102" s="23" t="s">
+      <c r="C102" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="D102" s="22"/>
+      <c r="D102" s="25"/>
       <c r="E102" s="6" t="s">
         <v>155</v>
       </c>
@@ -6605,10 +7362,10 @@
       <c r="B103" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C103" s="23" t="s">
+      <c r="C103" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="D103" s="22"/>
+      <c r="D103" s="25"/>
       <c r="E103" s="6" t="s">
         <v>155</v>
       </c>
@@ -6632,10 +7389,10 @@
       <c r="B104" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C104" s="23" t="s">
+      <c r="C104" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="D104" s="22"/>
+      <c r="D104" s="25"/>
       <c r="E104" s="6" t="s">
         <v>155</v>
       </c>
@@ -6659,10 +7416,10 @@
       <c r="B105" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C105" s="23" t="s">
+      <c r="C105" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="D105" s="22"/>
+      <c r="D105" s="25"/>
       <c r="E105" s="6" t="s">
         <v>155</v>
       </c>
@@ -6686,10 +7443,10 @@
       <c r="B106" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C106" s="23" t="s">
+      <c r="C106" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="D106" s="22"/>
+      <c r="D106" s="25"/>
       <c r="E106" s="6" t="s">
         <v>155</v>
       </c>
@@ -6713,10 +7470,10 @@
       <c r="B107" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C107" s="23" t="s">
+      <c r="C107" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="D107" s="22"/>
+      <c r="D107" s="25"/>
       <c r="E107" s="6" t="s">
         <v>155</v>
       </c>
@@ -6740,10 +7497,10 @@
       <c r="B108" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C108" s="23" t="s">
+      <c r="C108" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="D108" s="22"/>
+      <c r="D108" s="25"/>
       <c r="E108" s="6" t="s">
         <v>155</v>
       </c>
@@ -6767,10 +7524,10 @@
       <c r="B109" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C109" s="23" t="s">
+      <c r="C109" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="D109" s="22"/>
+      <c r="D109" s="25"/>
       <c r="E109" s="6" t="s">
         <v>155</v>
       </c>
@@ -6794,10 +7551,10 @@
       <c r="B110" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C110" s="23" t="s">
+      <c r="C110" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="D110" s="22"/>
+      <c r="D110" s="25"/>
       <c r="E110" s="6" t="s">
         <v>155</v>
       </c>
@@ -6821,10 +7578,10 @@
       <c r="B111" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C111" s="23" t="s">
+      <c r="C111" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="D111" s="22"/>
+      <c r="D111" s="25"/>
       <c r="E111" s="6" t="s">
         <v>155</v>
       </c>
@@ -6848,10 +7605,10 @@
       <c r="B112" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C112" s="22" t="s">
+      <c r="C112" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="D112" s="22"/>
+      <c r="D112" s="25"/>
       <c r="E112" s="6" t="s">
         <v>166</v>
       </c>
@@ -6875,10 +7632,10 @@
       <c r="B113" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C113" s="23" t="s">
+      <c r="C113" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="D113" s="22"/>
+      <c r="D113" s="25"/>
       <c r="E113" s="6" t="s">
         <v>167</v>
       </c>
@@ -6902,10 +7659,10 @@
       <c r="B114" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C114" s="23" t="s">
+      <c r="C114" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="D114" s="22"/>
+      <c r="D114" s="25"/>
       <c r="E114" s="6" t="s">
         <v>167</v>
       </c>
@@ -6929,10 +7686,10 @@
       <c r="B115" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C115" s="23" t="s">
+      <c r="C115" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="D115" s="22"/>
+      <c r="D115" s="25"/>
       <c r="E115" s="6" t="s">
         <v>167</v>
       </c>
@@ -6956,10 +7713,10 @@
       <c r="B116" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C116" s="23" t="s">
+      <c r="C116" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="D116" s="22"/>
+      <c r="D116" s="25"/>
       <c r="E116" s="6" t="s">
         <v>167</v>
       </c>
@@ -6983,10 +7740,10 @@
       <c r="B117" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C117" s="23" t="s">
+      <c r="C117" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="D117" s="22"/>
+      <c r="D117" s="25"/>
       <c r="E117" s="6" t="s">
         <v>167</v>
       </c>
@@ -7010,10 +7767,10 @@
       <c r="B118" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C118" s="23" t="s">
+      <c r="C118" s="24" t="s">
         <v>110</v>
       </c>
-      <c r="D118" s="22"/>
+      <c r="D118" s="25"/>
       <c r="E118" s="6" t="s">
         <v>167</v>
       </c>
@@ -7037,10 +7794,10 @@
       <c r="B119" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C119" s="23" t="s">
+      <c r="C119" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="D119" s="22"/>
+      <c r="D119" s="25"/>
       <c r="E119" s="6" t="s">
         <v>167</v>
       </c>
@@ -7064,10 +7821,10 @@
       <c r="B120" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C120" s="23" t="s">
+      <c r="C120" s="24" t="s">
         <v>170</v>
       </c>
-      <c r="D120" s="22"/>
+      <c r="D120" s="25"/>
       <c r="E120" s="6" t="s">
         <v>167</v>
       </c>
@@ -7091,10 +7848,10 @@
       <c r="B121" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C121" s="23" t="s">
+      <c r="C121" s="24" t="s">
         <v>171</v>
       </c>
-      <c r="D121" s="22"/>
+      <c r="D121" s="25"/>
       <c r="E121" s="6" t="s">
         <v>167</v>
       </c>
@@ -7118,10 +7875,10 @@
       <c r="B122" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C122" s="23" t="s">
+      <c r="C122" s="24" t="s">
         <v>112</v>
       </c>
-      <c r="D122" s="22"/>
+      <c r="D122" s="25"/>
       <c r="E122" s="6" t="s">
         <v>167</v>
       </c>
@@ -7145,10 +7902,10 @@
       <c r="B123" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C123" s="23" t="s">
+      <c r="C123" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="D123" s="22"/>
+      <c r="D123" s="25"/>
       <c r="E123" s="6" t="s">
         <v>167</v>
       </c>
@@ -7172,10 +7929,10 @@
       <c r="B124" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C124" s="23" t="s">
+      <c r="C124" s="24" t="s">
         <v>114</v>
       </c>
-      <c r="D124" s="22"/>
+      <c r="D124" s="25"/>
       <c r="E124" s="6" t="s">
         <v>167</v>
       </c>
@@ -7199,10 +7956,10 @@
       <c r="B125" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C125" s="23" t="s">
+      <c r="C125" s="24" t="s">
         <v>115</v>
       </c>
-      <c r="D125" s="22"/>
+      <c r="D125" s="25"/>
       <c r="E125" s="6" t="s">
         <v>167</v>
       </c>
@@ -7226,10 +7983,10 @@
       <c r="B126" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C126" s="23" t="s">
+      <c r="C126" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="D126" s="22"/>
+      <c r="D126" s="25"/>
       <c r="E126" s="6" t="s">
         <v>167</v>
       </c>
@@ -7253,10 +8010,10 @@
       <c r="B127" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C127" s="23" t="s">
+      <c r="C127" s="24" t="s">
         <v>117</v>
       </c>
-      <c r="D127" s="22"/>
+      <c r="D127" s="25"/>
       <c r="E127" s="6" t="s">
         <v>167</v>
       </c>
@@ -7280,10 +8037,10 @@
       <c r="B128" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C128" s="23" t="s">
+      <c r="C128" s="24" t="s">
         <v>118</v>
       </c>
-      <c r="D128" s="22"/>
+      <c r="D128" s="25"/>
       <c r="E128" s="6" t="s">
         <v>167</v>
       </c>
@@ -7307,10 +8064,10 @@
       <c r="B129" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C129" s="23" t="s">
+      <c r="C129" s="24" t="s">
         <v>172</v>
       </c>
-      <c r="D129" s="22"/>
+      <c r="D129" s="25"/>
       <c r="E129" s="6" t="s">
         <v>120</v>
       </c>
@@ -7337,10 +8094,10 @@
       <c r="B130" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C130" s="23" t="s">
+      <c r="C130" s="24" t="s">
         <v>173</v>
       </c>
-      <c r="D130" s="22"/>
+      <c r="D130" s="25"/>
       <c r="E130" s="6" t="s">
         <v>120</v>
       </c>
@@ -7367,10 +8124,10 @@
       <c r="B131" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C131" s="23" t="s">
+      <c r="C131" s="24" t="s">
         <v>143</v>
       </c>
-      <c r="D131" s="22"/>
+      <c r="D131" s="25"/>
       <c r="E131" s="6" t="s">
         <v>120</v>
       </c>
@@ -7394,10 +8151,10 @@
       <c r="B132" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C132" s="23" t="s">
+      <c r="C132" s="24" t="s">
         <v>144</v>
       </c>
-      <c r="D132" s="22"/>
+      <c r="D132" s="25"/>
       <c r="E132" s="6" t="s">
         <v>120</v>
       </c>
@@ -7421,10 +8178,10 @@
       <c r="B133" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C133" s="23" t="s">
+      <c r="C133" s="24" t="s">
         <v>145</v>
       </c>
-      <c r="D133" s="22"/>
+      <c r="D133" s="25"/>
       <c r="E133" s="6" t="s">
         <v>167</v>
       </c>
@@ -7448,10 +8205,10 @@
       <c r="B134" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C134" s="23" t="s">
+      <c r="C134" s="24" t="s">
         <v>146</v>
       </c>
-      <c r="D134" s="22"/>
+      <c r="D134" s="25"/>
       <c r="E134" s="6" t="s">
         <v>167</v>
       </c>
@@ -7475,10 +8232,10 @@
       <c r="B135" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C135" s="23" t="s">
+      <c r="C135" s="24" t="s">
         <v>151</v>
       </c>
-      <c r="D135" s="22"/>
+      <c r="D135" s="25"/>
       <c r="E135" s="6" t="s">
         <v>167</v>
       </c>
@@ -7502,10 +8259,10 @@
       <c r="B136" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C136" s="23" t="s">
+      <c r="C136" s="24" t="s">
         <v>150</v>
       </c>
-      <c r="D136" s="22"/>
+      <c r="D136" s="25"/>
       <c r="E136" s="6" t="s">
         <v>167</v>
       </c>
@@ -7529,10 +8286,10 @@
       <c r="B137" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C137" s="23" t="s">
+      <c r="C137" s="24" t="s">
         <v>174</v>
       </c>
-      <c r="D137" s="22"/>
+      <c r="D137" s="25"/>
       <c r="E137" s="6" t="s">
         <v>120</v>
       </c>
@@ -7556,10 +8313,10 @@
       <c r="B138" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C138" s="23" t="s">
+      <c r="C138" s="24" t="s">
         <v>175</v>
       </c>
-      <c r="D138" s="22"/>
+      <c r="D138" s="25"/>
       <c r="E138" s="6" t="s">
         <v>120</v>
       </c>
@@ -7583,10 +8340,10 @@
       <c r="B139" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="C139" s="22" t="s">
+      <c r="C139" s="25" t="s">
         <v>176</v>
       </c>
-      <c r="D139" s="22"/>
+      <c r="D139" s="25"/>
       <c r="E139" s="6" t="s">
         <v>179</v>
       </c>
@@ -7610,10 +8367,10 @@
       <c r="B140" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="C140" s="22" t="s">
+      <c r="C140" s="25" t="s">
         <v>177</v>
       </c>
-      <c r="D140" s="22"/>
+      <c r="D140" s="25"/>
       <c r="E140" s="6" t="s">
         <v>180</v>
       </c>
@@ -7637,10 +8394,10 @@
       <c r="B141" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="C141" s="22" t="s">
+      <c r="C141" s="25" t="s">
         <v>182</v>
       </c>
-      <c r="D141" s="22"/>
+      <c r="D141" s="25"/>
       <c r="E141" s="6" t="s">
         <v>183</v>
       </c>
@@ -7661,236 +8418,516 @@
       <c r="A142" s="3">
         <v>138</v>
       </c>
-      <c r="C142" s="22"/>
-      <c r="D142" s="22"/>
+      <c r="B142" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C142" s="25" t="s">
+        <v>254</v>
+      </c>
+      <c r="D142" s="25"/>
+      <c r="E142" s="22" t="s">
+        <v>120</v>
+      </c>
       <c r="F142" s="21" t="s">
         <v>249</v>
+      </c>
+      <c r="G142" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="H142" s="22">
+        <v>20240315</v>
+      </c>
+      <c r="J142" s="22" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="143" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A143" s="3">
         <v>139</v>
       </c>
-      <c r="C143" s="22"/>
-      <c r="D143" s="22"/>
+      <c r="B143" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="C143" s="25" t="s">
+        <v>257</v>
+      </c>
+      <c r="D143" s="25"/>
+      <c r="E143" s="6" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="144" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A144" s="3">
         <v>140</v>
       </c>
-      <c r="C144" s="22"/>
-      <c r="D144" s="22"/>
-    </row>
-    <row r="145" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B144" s="22" t="s">
+        <v>256</v>
+      </c>
+      <c r="C144" s="25" t="s">
+        <v>259</v>
+      </c>
+      <c r="D144" s="25"/>
+      <c r="E144" s="22" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A145" s="3">
         <v>141</v>
       </c>
-      <c r="C145" s="22"/>
-      <c r="D145" s="22"/>
-    </row>
-    <row r="146" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B145" s="22" t="s">
+        <v>256</v>
+      </c>
+      <c r="C145" s="25" t="s">
+        <v>260</v>
+      </c>
+      <c r="D145" s="25"/>
+      <c r="E145" s="22" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A146" s="3">
         <v>142</v>
       </c>
-      <c r="C146" s="22"/>
-      <c r="D146" s="22"/>
-    </row>
-    <row r="147" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C147" s="22"/>
-      <c r="D147" s="22"/>
-    </row>
-    <row r="148" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C148" s="22"/>
-      <c r="D148" s="22"/>
-    </row>
-    <row r="149" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C149" s="22"/>
-      <c r="D149" s="22"/>
-    </row>
-    <row r="150" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C150" s="22"/>
-      <c r="D150" s="22"/>
-    </row>
-    <row r="151" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C151" s="22"/>
-      <c r="D151" s="22"/>
-    </row>
-    <row r="152" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C152" s="22"/>
-      <c r="D152" s="22"/>
-    </row>
-    <row r="153" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C153" s="22"/>
-      <c r="D153" s="22"/>
-    </row>
-    <row r="154" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C154" s="22"/>
-      <c r="D154" s="22"/>
-    </row>
-    <row r="155" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C155" s="22"/>
-      <c r="D155" s="22"/>
-    </row>
-    <row r="156" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C156" s="22"/>
-      <c r="D156" s="22"/>
-    </row>
-    <row r="157" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C157" s="22"/>
-      <c r="D157" s="22"/>
-    </row>
-    <row r="158" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C158" s="22"/>
-      <c r="D158" s="22"/>
-    </row>
-    <row r="159" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C159" s="22"/>
-      <c r="D159" s="22"/>
-    </row>
-    <row r="160" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C160" s="22"/>
-      <c r="D160" s="22"/>
-    </row>
-    <row r="161" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C161" s="22"/>
-      <c r="D161" s="22"/>
-    </row>
-    <row r="162" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C162" s="22"/>
-      <c r="D162" s="22"/>
-    </row>
-    <row r="163" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C163" s="22"/>
-      <c r="D163" s="22"/>
-    </row>
-    <row r="164" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C164" s="22"/>
-      <c r="D164" s="22"/>
-    </row>
-    <row r="165" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C165" s="22"/>
-      <c r="D165" s="22"/>
-    </row>
-    <row r="166" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C166" s="22"/>
-      <c r="D166" s="22"/>
-    </row>
-    <row r="167" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C167" s="22"/>
-      <c r="D167" s="22"/>
-    </row>
-    <row r="168" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C168" s="22"/>
-      <c r="D168" s="22"/>
-    </row>
-    <row r="169" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C169" s="22"/>
-      <c r="D169" s="22"/>
-    </row>
-    <row r="170" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C170" s="22"/>
-      <c r="D170" s="22"/>
-    </row>
-    <row r="171" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C171" s="22"/>
-      <c r="D171" s="22"/>
-    </row>
-    <row r="172" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C172" s="22"/>
-      <c r="D172" s="22"/>
-    </row>
-    <row r="173" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C173" s="22"/>
-      <c r="D173" s="22"/>
-    </row>
-    <row r="174" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C174" s="22"/>
-      <c r="D174" s="22"/>
-    </row>
-    <row r="175" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C175" s="22"/>
-      <c r="D175" s="22"/>
-    </row>
-    <row r="176" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C176" s="22"/>
-      <c r="D176" s="22"/>
-    </row>
-    <row r="177" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C177" s="22"/>
-      <c r="D177" s="22"/>
-    </row>
-    <row r="178" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C178" s="22"/>
-      <c r="D178" s="22"/>
-    </row>
-    <row r="179" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C179" s="22"/>
-      <c r="D179" s="22"/>
-    </row>
-    <row r="180" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C180" s="22"/>
-      <c r="D180" s="22"/>
-    </row>
-    <row r="181" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C181" s="22"/>
-      <c r="D181" s="22"/>
+      <c r="B146" s="22" t="s">
+        <v>256</v>
+      </c>
+      <c r="C146" s="25" t="s">
+        <v>261</v>
+      </c>
+      <c r="D146" s="25"/>
+      <c r="E146" s="22" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A147" s="3">
+        <v>143</v>
+      </c>
+      <c r="B147" s="22" t="s">
+        <v>256</v>
+      </c>
+      <c r="C147" s="25" t="s">
+        <v>262</v>
+      </c>
+      <c r="D147" s="25"/>
+      <c r="E147" s="22" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A148" s="3">
+        <v>144</v>
+      </c>
+      <c r="B148" s="22" t="s">
+        <v>256</v>
+      </c>
+      <c r="C148" s="25" t="s">
+        <v>264</v>
+      </c>
+      <c r="D148" s="25"/>
+      <c r="E148" s="22" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A149" s="3">
+        <v>145</v>
+      </c>
+      <c r="B149" s="22" t="s">
+        <v>256</v>
+      </c>
+      <c r="C149" s="25" t="s">
+        <v>263</v>
+      </c>
+      <c r="D149" s="25"/>
+      <c r="E149" s="22" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A150" s="3">
+        <v>146</v>
+      </c>
+      <c r="B150" s="22" t="s">
+        <v>256</v>
+      </c>
+      <c r="C150" s="25" t="s">
+        <v>265</v>
+      </c>
+      <c r="D150" s="25"/>
+      <c r="E150" s="22" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A151" s="3">
+        <v>147</v>
+      </c>
+      <c r="B151" s="22" t="s">
+        <v>256</v>
+      </c>
+      <c r="C151" s="25" t="s">
+        <v>266</v>
+      </c>
+      <c r="D151" s="25"/>
+      <c r="E151" s="22" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A152" s="3">
+        <v>148</v>
+      </c>
+      <c r="B152" s="22" t="s">
+        <v>256</v>
+      </c>
+      <c r="C152" s="25" t="s">
+        <v>267</v>
+      </c>
+      <c r="D152" s="25"/>
+      <c r="E152" s="22" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A153" s="3">
+        <v>149</v>
+      </c>
+      <c r="B153" s="22" t="s">
+        <v>256</v>
+      </c>
+      <c r="C153" s="25" t="s">
+        <v>301</v>
+      </c>
+      <c r="D153" s="25"/>
+      <c r="E153" s="6" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A154" s="3">
+        <v>150</v>
+      </c>
+      <c r="B154" s="22" t="s">
+        <v>256</v>
+      </c>
+      <c r="C154" s="25"/>
+      <c r="D154" s="25"/>
+    </row>
+    <row r="155" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A155" s="3">
+        <v>151</v>
+      </c>
+      <c r="B155" s="22" t="s">
+        <v>256</v>
+      </c>
+      <c r="C155" s="25"/>
+      <c r="D155" s="25"/>
+    </row>
+    <row r="156" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A156" s="3">
+        <v>152</v>
+      </c>
+      <c r="B156" s="22" t="s">
+        <v>256</v>
+      </c>
+      <c r="C156" s="25"/>
+      <c r="D156" s="25"/>
+    </row>
+    <row r="157" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A157" s="3">
+        <v>153</v>
+      </c>
+      <c r="B157" s="22" t="s">
+        <v>256</v>
+      </c>
+      <c r="C157" s="25"/>
+      <c r="D157" s="25"/>
+    </row>
+    <row r="158" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A158" s="3">
+        <v>154</v>
+      </c>
+      <c r="B158" s="22" t="s">
+        <v>256</v>
+      </c>
+      <c r="C158" s="25"/>
+      <c r="D158" s="25"/>
+    </row>
+    <row r="159" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A159" s="3">
+        <v>155</v>
+      </c>
+      <c r="B159" s="22" t="s">
+        <v>256</v>
+      </c>
+      <c r="C159" s="25"/>
+      <c r="D159" s="25"/>
+    </row>
+    <row r="160" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A160" s="3">
+        <v>156</v>
+      </c>
+      <c r="B160" s="22" t="s">
+        <v>256</v>
+      </c>
+      <c r="C160" s="25"/>
+      <c r="D160" s="25"/>
+    </row>
+    <row r="161" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A161" s="3">
+        <v>157</v>
+      </c>
+      <c r="B161" s="22" t="s">
+        <v>256</v>
+      </c>
+      <c r="C161" s="25"/>
+      <c r="D161" s="25"/>
+    </row>
+    <row r="162" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A162" s="3">
+        <v>158</v>
+      </c>
+      <c r="B162" s="22" t="s">
+        <v>256</v>
+      </c>
+      <c r="C162" s="25"/>
+      <c r="D162" s="25"/>
+    </row>
+    <row r="163" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A163" s="3">
+        <v>159</v>
+      </c>
+      <c r="B163" s="22" t="s">
+        <v>256</v>
+      </c>
+      <c r="C163" s="25"/>
+      <c r="D163" s="25"/>
+    </row>
+    <row r="164" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A164" s="3">
+        <v>160</v>
+      </c>
+      <c r="C164" s="25"/>
+      <c r="D164" s="25"/>
+    </row>
+    <row r="165" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A165" s="3">
+        <v>161</v>
+      </c>
+      <c r="C165" s="25"/>
+      <c r="D165" s="25"/>
+    </row>
+    <row r="166" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A166" s="3">
+        <v>162</v>
+      </c>
+      <c r="C166" s="25"/>
+      <c r="D166" s="25"/>
+    </row>
+    <row r="167" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A167" s="3">
+        <v>163</v>
+      </c>
+      <c r="C167" s="25"/>
+      <c r="D167" s="25"/>
+    </row>
+    <row r="168" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A168" s="3">
+        <v>164</v>
+      </c>
+      <c r="C168" s="25"/>
+      <c r="D168" s="25"/>
+    </row>
+    <row r="169" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A169" s="3">
+        <v>165</v>
+      </c>
+      <c r="C169" s="25"/>
+      <c r="D169" s="25"/>
+    </row>
+    <row r="170" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A170" s="3">
+        <v>166</v>
+      </c>
+      <c r="C170" s="25"/>
+      <c r="D170" s="25"/>
+    </row>
+    <row r="171" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A171" s="3">
+        <v>167</v>
+      </c>
+      <c r="C171" s="25"/>
+      <c r="D171" s="25"/>
+    </row>
+    <row r="172" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A172" s="3">
+        <v>168</v>
+      </c>
+      <c r="C172" s="25"/>
+      <c r="D172" s="25"/>
+    </row>
+    <row r="173" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A173" s="3">
+        <v>169</v>
+      </c>
+      <c r="C173" s="25"/>
+      <c r="D173" s="25"/>
+    </row>
+    <row r="174" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A174" s="3">
+        <v>170</v>
+      </c>
+      <c r="C174" s="25"/>
+      <c r="D174" s="25"/>
+    </row>
+    <row r="175" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A175" s="3">
+        <v>171</v>
+      </c>
+      <c r="C175" s="25"/>
+      <c r="D175" s="25"/>
+    </row>
+    <row r="176" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A176" s="3">
+        <v>172</v>
+      </c>
+      <c r="C176" s="25"/>
+      <c r="D176" s="25"/>
+    </row>
+    <row r="177" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A177" s="3">
+        <v>173</v>
+      </c>
+      <c r="C177" s="25"/>
+      <c r="D177" s="25"/>
+    </row>
+    <row r="178" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A178" s="3">
+        <v>174</v>
+      </c>
+      <c r="C178" s="25"/>
+      <c r="D178" s="25"/>
+    </row>
+    <row r="179" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C179" s="25"/>
+      <c r="D179" s="25"/>
+    </row>
+    <row r="180" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C180" s="25"/>
+      <c r="D180" s="25"/>
+    </row>
+    <row r="181" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C181" s="25"/>
+      <c r="D181" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="181">
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:E2"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="C161:D161"/>
+    <mergeCell ref="C160:D160"/>
+    <mergeCell ref="C166:D166"/>
+    <mergeCell ref="C165:D165"/>
+    <mergeCell ref="C164:D164"/>
+    <mergeCell ref="C163:D163"/>
+    <mergeCell ref="C162:D162"/>
+    <mergeCell ref="C171:D171"/>
+    <mergeCell ref="C170:D170"/>
+    <mergeCell ref="C169:D169"/>
+    <mergeCell ref="C168:D168"/>
+    <mergeCell ref="C167:D167"/>
+    <mergeCell ref="C176:D176"/>
+    <mergeCell ref="C175:D175"/>
+    <mergeCell ref="C174:D174"/>
+    <mergeCell ref="C173:D173"/>
+    <mergeCell ref="C172:D172"/>
+    <mergeCell ref="C181:D181"/>
+    <mergeCell ref="C180:D180"/>
+    <mergeCell ref="C179:D179"/>
+    <mergeCell ref="C178:D178"/>
+    <mergeCell ref="C177:D177"/>
+    <mergeCell ref="C145:D145"/>
+    <mergeCell ref="C144:D144"/>
+    <mergeCell ref="C143:D143"/>
+    <mergeCell ref="C142:D142"/>
+    <mergeCell ref="C159:D159"/>
+    <mergeCell ref="C158:D158"/>
+    <mergeCell ref="C157:D157"/>
+    <mergeCell ref="C156:D156"/>
+    <mergeCell ref="C155:D155"/>
+    <mergeCell ref="C154:D154"/>
+    <mergeCell ref="C153:D153"/>
+    <mergeCell ref="C152:D152"/>
+    <mergeCell ref="C151:D151"/>
+    <mergeCell ref="C150:D150"/>
+    <mergeCell ref="C149:D149"/>
+    <mergeCell ref="C148:D148"/>
+    <mergeCell ref="C147:D147"/>
+    <mergeCell ref="C146:D146"/>
+    <mergeCell ref="C127:D127"/>
+    <mergeCell ref="C126:D126"/>
+    <mergeCell ref="C125:D125"/>
+    <mergeCell ref="C124:D124"/>
+    <mergeCell ref="C141:D141"/>
+    <mergeCell ref="C140:D140"/>
+    <mergeCell ref="C139:D139"/>
+    <mergeCell ref="C138:D138"/>
+    <mergeCell ref="C137:D137"/>
+    <mergeCell ref="C136:D136"/>
+    <mergeCell ref="C135:D135"/>
+    <mergeCell ref="C134:D134"/>
+    <mergeCell ref="C133:D133"/>
+    <mergeCell ref="C132:D132"/>
+    <mergeCell ref="C131:D131"/>
+    <mergeCell ref="C130:D130"/>
+    <mergeCell ref="C129:D129"/>
+    <mergeCell ref="C128:D128"/>
+    <mergeCell ref="C111:D111"/>
+    <mergeCell ref="C110:D110"/>
+    <mergeCell ref="C109:D109"/>
+    <mergeCell ref="C123:D123"/>
+    <mergeCell ref="C122:D122"/>
+    <mergeCell ref="C121:D121"/>
+    <mergeCell ref="C120:D120"/>
+    <mergeCell ref="C119:D119"/>
+    <mergeCell ref="C118:D118"/>
+    <mergeCell ref="C117:D117"/>
+    <mergeCell ref="C116:D116"/>
+    <mergeCell ref="C115:D115"/>
+    <mergeCell ref="C114:D114"/>
+    <mergeCell ref="C113:D113"/>
+    <mergeCell ref="C112:D112"/>
+    <mergeCell ref="C99:D99"/>
+    <mergeCell ref="C98:D98"/>
+    <mergeCell ref="C97:D97"/>
+    <mergeCell ref="C108:D108"/>
+    <mergeCell ref="C107:D107"/>
+    <mergeCell ref="C106:D106"/>
+    <mergeCell ref="C105:D105"/>
+    <mergeCell ref="C104:D104"/>
+    <mergeCell ref="C103:D103"/>
+    <mergeCell ref="C102:D102"/>
+    <mergeCell ref="C101:D101"/>
+    <mergeCell ref="C100:D100"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="C90:D90"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="C83:D83"/>
     <mergeCell ref="C69:D69"/>
     <mergeCell ref="C68:D68"/>
     <mergeCell ref="C67:D67"/>
@@ -7915,109 +8952,60 @@
     <mergeCell ref="C51:D51"/>
     <mergeCell ref="C50:D50"/>
     <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="C96:D96"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="C91:D91"/>
-    <mergeCell ref="C90:D90"/>
-    <mergeCell ref="C89:D89"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="C99:D99"/>
-    <mergeCell ref="C98:D98"/>
-    <mergeCell ref="C97:D97"/>
-    <mergeCell ref="C108:D108"/>
-    <mergeCell ref="C107:D107"/>
-    <mergeCell ref="C106:D106"/>
-    <mergeCell ref="C105:D105"/>
-    <mergeCell ref="C104:D104"/>
-    <mergeCell ref="C103:D103"/>
-    <mergeCell ref="C102:D102"/>
-    <mergeCell ref="C101:D101"/>
-    <mergeCell ref="C100:D100"/>
-    <mergeCell ref="C111:D111"/>
-    <mergeCell ref="C110:D110"/>
-    <mergeCell ref="C109:D109"/>
-    <mergeCell ref="C123:D123"/>
-    <mergeCell ref="C122:D122"/>
-    <mergeCell ref="C121:D121"/>
-    <mergeCell ref="C120:D120"/>
-    <mergeCell ref="C119:D119"/>
-    <mergeCell ref="C118:D118"/>
-    <mergeCell ref="C117:D117"/>
-    <mergeCell ref="C116:D116"/>
-    <mergeCell ref="C115:D115"/>
-    <mergeCell ref="C114:D114"/>
-    <mergeCell ref="C113:D113"/>
-    <mergeCell ref="C112:D112"/>
-    <mergeCell ref="C127:D127"/>
-    <mergeCell ref="C126:D126"/>
-    <mergeCell ref="C125:D125"/>
-    <mergeCell ref="C124:D124"/>
-    <mergeCell ref="C141:D141"/>
-    <mergeCell ref="C140:D140"/>
-    <mergeCell ref="C139:D139"/>
-    <mergeCell ref="C138:D138"/>
-    <mergeCell ref="C137:D137"/>
-    <mergeCell ref="C136:D136"/>
-    <mergeCell ref="C135:D135"/>
-    <mergeCell ref="C134:D134"/>
-    <mergeCell ref="C133:D133"/>
-    <mergeCell ref="C132:D132"/>
-    <mergeCell ref="C131:D131"/>
-    <mergeCell ref="C130:D130"/>
-    <mergeCell ref="C129:D129"/>
-    <mergeCell ref="C128:D128"/>
-    <mergeCell ref="C145:D145"/>
-    <mergeCell ref="C144:D144"/>
-    <mergeCell ref="C143:D143"/>
-    <mergeCell ref="C142:D142"/>
-    <mergeCell ref="C159:D159"/>
-    <mergeCell ref="C158:D158"/>
-    <mergeCell ref="C157:D157"/>
-    <mergeCell ref="C156:D156"/>
-    <mergeCell ref="C155:D155"/>
-    <mergeCell ref="C154:D154"/>
-    <mergeCell ref="C153:D153"/>
-    <mergeCell ref="C152:D152"/>
-    <mergeCell ref="C151:D151"/>
-    <mergeCell ref="C150:D150"/>
-    <mergeCell ref="C149:D149"/>
-    <mergeCell ref="C148:D148"/>
-    <mergeCell ref="C147:D147"/>
-    <mergeCell ref="C146:D146"/>
-    <mergeCell ref="C176:D176"/>
-    <mergeCell ref="C175:D175"/>
-    <mergeCell ref="C174:D174"/>
-    <mergeCell ref="C173:D173"/>
-    <mergeCell ref="C172:D172"/>
-    <mergeCell ref="C181:D181"/>
-    <mergeCell ref="C180:D180"/>
-    <mergeCell ref="C179:D179"/>
-    <mergeCell ref="C178:D178"/>
-    <mergeCell ref="C177:D177"/>
-    <mergeCell ref="C161:D161"/>
-    <mergeCell ref="C160:D160"/>
-    <mergeCell ref="C166:D166"/>
-    <mergeCell ref="C165:D165"/>
-    <mergeCell ref="C164:D164"/>
-    <mergeCell ref="C163:D163"/>
-    <mergeCell ref="C162:D162"/>
-    <mergeCell ref="C171:D171"/>
-    <mergeCell ref="C170:D170"/>
-    <mergeCell ref="C169:D169"/>
-    <mergeCell ref="C168:D168"/>
-    <mergeCell ref="C167:D167"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:E2"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="C62:D62"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8027,10 +9015,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J141"/>
+  <dimension ref="A1:J140"/>
   <sheetViews>
-    <sheetView topLeftCell="C4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E68" sqref="E68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8041,21 +9029,24 @@
     <col min="4" max="4" width="32.625" customWidth="1"/>
     <col min="5" max="5" width="66.375" style="10" customWidth="1"/>
     <col min="6" max="6" width="54.25" customWidth="1"/>
-    <col min="7" max="7" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5" customWidth="1"/>
+    <col min="8" max="8" width="18.625" customWidth="1"/>
+    <col min="9" max="9" width="41.25" customWidth="1"/>
+    <col min="10" max="10" width="31.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="27" t="s">
         <v>184</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25" t="s">
+      <c r="B1" s="27"/>
+      <c r="C1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="25"/>
+      <c r="E1" s="27"/>
       <c r="F1" s="11" t="s">
         <v>3</v>
       </c>
@@ -8064,11 +9055,11 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
       <c r="F2" s="11" t="s">
         <v>4</v>
       </c>
@@ -8086,10 +9077,10 @@
       <c r="B4" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="26"/>
+      <c r="D4" s="28"/>
       <c r="E4" s="14" t="s">
         <v>11</v>
       </c>
@@ -8116,15 +9107,24 @@
       <c r="B5" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="22"/>
+      <c r="D5" s="25"/>
       <c r="E5" s="10" t="s">
         <v>186</v>
       </c>
       <c r="F5" s="21" t="s">
         <v>250</v>
+      </c>
+      <c r="G5" s="21" t="s">
+        <v>252</v>
+      </c>
+      <c r="H5" s="21">
+        <v>20240306</v>
+      </c>
+      <c r="J5" s="21" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
@@ -8134,12 +9134,24 @@
       <c r="B6" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="22"/>
+      <c r="D6" s="25"/>
       <c r="E6" s="10" t="s">
         <v>187</v>
+      </c>
+      <c r="F6" s="21" t="s">
+        <v>250</v>
+      </c>
+      <c r="G6" s="21" t="s">
+        <v>252</v>
+      </c>
+      <c r="H6" s="21">
+        <v>20240306</v>
+      </c>
+      <c r="J6" s="21" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
@@ -8149,12 +9161,24 @@
       <c r="B7" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="C7" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="22"/>
+      <c r="D7" s="25"/>
       <c r="E7" s="10" t="s">
         <v>188</v>
+      </c>
+      <c r="F7" s="21" t="s">
+        <v>250</v>
+      </c>
+      <c r="G7" s="21" t="s">
+        <v>252</v>
+      </c>
+      <c r="H7" s="21">
+        <v>20240306</v>
+      </c>
+      <c r="J7" s="21" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
@@ -8164,12 +9188,24 @@
       <c r="B8" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="C8" s="23" t="s">
+      <c r="C8" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="22"/>
+      <c r="D8" s="25"/>
       <c r="E8" s="10" t="s">
         <v>189</v>
+      </c>
+      <c r="F8" s="21" t="s">
+        <v>250</v>
+      </c>
+      <c r="G8" s="21" t="s">
+        <v>252</v>
+      </c>
+      <c r="H8" s="21">
+        <v>20240306</v>
+      </c>
+      <c r="J8" s="21" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
@@ -8179,12 +9215,24 @@
       <c r="B9" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="C9" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="22"/>
+      <c r="D9" s="25"/>
       <c r="E9" s="10" t="s">
         <v>190</v>
+      </c>
+      <c r="F9" s="21" t="s">
+        <v>250</v>
+      </c>
+      <c r="G9" s="21" t="s">
+        <v>252</v>
+      </c>
+      <c r="H9" s="21">
+        <v>20240306</v>
+      </c>
+      <c r="J9" s="21" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
@@ -8194,12 +9242,24 @@
       <c r="B10" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="C10" s="23" t="s">
+      <c r="C10" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="22"/>
+      <c r="D10" s="25"/>
       <c r="E10" s="10" t="s">
         <v>190</v>
+      </c>
+      <c r="F10" s="21" t="s">
+        <v>250</v>
+      </c>
+      <c r="G10" s="21" t="s">
+        <v>252</v>
+      </c>
+      <c r="H10" s="21">
+        <v>20240306</v>
+      </c>
+      <c r="J10" s="21" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
@@ -8209,12 +9269,24 @@
       <c r="B11" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="22"/>
+      <c r="D11" s="25"/>
       <c r="E11" s="10" t="s">
         <v>191</v>
+      </c>
+      <c r="F11" s="21" t="s">
+        <v>250</v>
+      </c>
+      <c r="G11" s="21" t="s">
+        <v>252</v>
+      </c>
+      <c r="H11" s="21">
+        <v>20240306</v>
+      </c>
+      <c r="J11" s="21" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
@@ -8224,12 +9296,24 @@
       <c r="B12" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="C12" s="23" t="s">
+      <c r="C12" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="22"/>
+      <c r="D12" s="25"/>
       <c r="E12" s="10" t="s">
         <v>191</v>
+      </c>
+      <c r="F12" s="21" t="s">
+        <v>250</v>
+      </c>
+      <c r="G12" s="21" t="s">
+        <v>252</v>
+      </c>
+      <c r="H12" s="21">
+        <v>20240306</v>
+      </c>
+      <c r="J12" s="21" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
@@ -8239,13 +9323,25 @@
       <c r="B13" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="C13" s="23" t="s">
+      <c r="C13" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="22"/>
+      <c r="D13" s="25"/>
       <c r="E13" s="10" t="s">
         <v>192</v>
       </c>
+      <c r="F13" s="21" t="s">
+        <v>250</v>
+      </c>
+      <c r="G13" s="21" t="s">
+        <v>252</v>
+      </c>
+      <c r="H13" s="21">
+        <v>20240306</v>
+      </c>
+      <c r="J13" s="21" t="s">
+        <v>241</v>
+      </c>
     </row>
     <row r="14" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
@@ -8254,12 +9350,24 @@
       <c r="B14" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="C14" s="23" t="s">
+      <c r="C14" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="22"/>
+      <c r="D14" s="25"/>
       <c r="E14" s="10" t="s">
         <v>193</v>
+      </c>
+      <c r="F14" s="21" t="s">
+        <v>250</v>
+      </c>
+      <c r="G14" s="21" t="s">
+        <v>252</v>
+      </c>
+      <c r="H14" s="21">
+        <v>20240306</v>
+      </c>
+      <c r="J14" s="21" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
@@ -8269,12 +9377,24 @@
       <c r="B15" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="C15" s="23" t="s">
+      <c r="C15" s="24" t="s">
         <v>127</v>
       </c>
-      <c r="D15" s="22"/>
+      <c r="D15" s="25"/>
       <c r="E15" s="10" t="s">
         <v>194</v>
+      </c>
+      <c r="F15" s="21" t="s">
+        <v>250</v>
+      </c>
+      <c r="G15" s="21" t="s">
+        <v>252</v>
+      </c>
+      <c r="H15" s="21">
+        <v>20240306</v>
+      </c>
+      <c r="J15" s="21" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
@@ -8284,297 +9404,2293 @@
       <c r="B16" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="C16" s="23" t="s">
+      <c r="C16" s="24" t="s">
         <v>128</v>
       </c>
-      <c r="D16" s="23"/>
+      <c r="D16" s="24"/>
       <c r="E16" s="10" t="s">
         <v>194</v>
+      </c>
+      <c r="F16" s="21" t="s">
+        <v>250</v>
+      </c>
+      <c r="G16" s="21" t="s">
+        <v>252</v>
+      </c>
+      <c r="H16" s="21">
+        <v>20240306</v>
+      </c>
+      <c r="J16" s="21" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="3">
+        <v>13</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="C17" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="D17" s="25"/>
+      <c r="E17" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="F17" s="21" t="s">
+        <v>250</v>
+      </c>
+      <c r="G17" s="21" t="s">
+        <v>252</v>
+      </c>
+      <c r="H17" s="21">
+        <v>20240306</v>
+      </c>
+      <c r="J17" s="21" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="3">
+        <v>15</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="C18" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="25"/>
+      <c r="E18" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="F18" s="21" t="s">
+        <v>250</v>
+      </c>
+      <c r="G18" s="21" t="s">
+        <v>252</v>
+      </c>
+      <c r="H18" s="21">
+        <v>20240306</v>
+      </c>
+      <c r="J18" s="21" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="3">
+        <v>16</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="C19" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" s="25"/>
+      <c r="E19" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="F19" s="21" t="s">
+        <v>250</v>
+      </c>
+      <c r="G19" s="21" t="s">
+        <v>252</v>
+      </c>
+      <c r="H19" s="21">
+        <v>20240306</v>
+      </c>
+      <c r="J19" s="21" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="3">
+        <v>17</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="C20" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" s="25"/>
+      <c r="E20" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="F20" s="21" t="s">
+        <v>250</v>
+      </c>
+      <c r="G20" s="21" t="s">
+        <v>252</v>
+      </c>
+      <c r="H20" s="21">
+        <v>20240306</v>
+      </c>
+      <c r="J20" s="21" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="3">
+        <v>18</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="C21" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="D21" s="25"/>
+      <c r="E21" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="F21" s="21" t="s">
+        <v>250</v>
+      </c>
+      <c r="G21" s="21" t="s">
+        <v>252</v>
+      </c>
+      <c r="H21" s="21">
+        <v>20240306</v>
+      </c>
+      <c r="J21" s="21" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="3">
+        <v>19</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="C22" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="D22" s="24"/>
+      <c r="E22" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="F22" s="21" t="s">
+        <v>250</v>
+      </c>
+      <c r="G22" s="21" t="s">
+        <v>252</v>
+      </c>
+      <c r="H22" s="21">
+        <v>20240306</v>
+      </c>
+      <c r="J22" s="21" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="3">
+        <v>20</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="C23" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="D23" s="25"/>
+      <c r="E23" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="F23" s="21" t="s">
+        <v>250</v>
+      </c>
+      <c r="G23" s="21" t="s">
+        <v>252</v>
+      </c>
+      <c r="H23" s="21">
+        <v>20240306</v>
+      </c>
+      <c r="J23" s="21" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="3">
+        <v>21</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="C24" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="D24" s="25"/>
+      <c r="E24" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="F24" s="21" t="s">
+        <v>250</v>
+      </c>
+      <c r="G24" s="21" t="s">
+        <v>252</v>
+      </c>
+      <c r="H24" s="21">
+        <v>20240306</v>
+      </c>
+      <c r="J24" s="21" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="3">
+        <v>22</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="C25" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="D25" s="25"/>
+      <c r="E25" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="F25" s="21" t="s">
+        <v>250</v>
+      </c>
+      <c r="G25" s="21" t="s">
+        <v>252</v>
+      </c>
+      <c r="H25" s="21">
+        <v>20240306</v>
+      </c>
+      <c r="J25" s="21" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="3">
+        <v>23</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="C26" s="24" t="s">
+        <v>149</v>
+      </c>
+      <c r="D26" s="25"/>
+      <c r="E26" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="F26" s="21" t="s">
+        <v>250</v>
+      </c>
+      <c r="G26" s="21" t="s">
+        <v>252</v>
+      </c>
+      <c r="H26" s="21">
+        <v>20240306</v>
+      </c>
+      <c r="J26" s="21" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="3">
+        <v>24</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="C27" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="D27" s="24"/>
+      <c r="E27" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="F27" s="21" t="s">
+        <v>250</v>
+      </c>
+      <c r="G27" s="21" t="s">
+        <v>252</v>
+      </c>
+      <c r="H27" s="21">
+        <v>20240306</v>
+      </c>
+      <c r="J27" s="21" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="3">
+        <v>25</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="C28" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="D28" s="25"/>
+      <c r="E28" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="F28" s="21" t="s">
+        <v>250</v>
+      </c>
+      <c r="G28" s="21" t="s">
+        <v>252</v>
+      </c>
+      <c r="H28" s="21">
+        <v>20240306</v>
+      </c>
+      <c r="J28" s="21" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="3">
+        <v>26</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="C29" s="24" t="s">
+        <v>172</v>
+      </c>
+      <c r="D29" s="25"/>
+      <c r="E29" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="F29" s="21" t="s">
+        <v>250</v>
+      </c>
+      <c r="G29" s="21" t="s">
+        <v>252</v>
+      </c>
+      <c r="H29" s="21">
+        <v>20240306</v>
+      </c>
+      <c r="I29" s="21" t="s">
+        <v>253</v>
+      </c>
+      <c r="J29" s="21" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="3">
+        <v>27</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="C30" s="24" t="s">
+        <v>173</v>
+      </c>
+      <c r="D30" s="25"/>
+      <c r="E30" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="F30" s="21" t="s">
+        <v>250</v>
+      </c>
+      <c r="G30" s="21" t="s">
+        <v>252</v>
+      </c>
+      <c r="H30" s="21">
+        <v>20240306</v>
+      </c>
+      <c r="I30" s="21" t="s">
+        <v>253</v>
+      </c>
+      <c r="J30" s="21" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="3">
+        <v>28</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="C31" s="24" t="s">
+        <v>143</v>
+      </c>
+      <c r="D31" s="25"/>
+      <c r="E31" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="F31" s="21" t="s">
+        <v>250</v>
+      </c>
+      <c r="G31" s="21" t="s">
+        <v>252</v>
+      </c>
+      <c r="H31" s="21">
+        <v>20240306</v>
+      </c>
+      <c r="J31" s="21" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="3">
+        <v>29</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="C32" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="D32" s="25"/>
+      <c r="E32" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="F32" s="21" t="s">
+        <v>250</v>
+      </c>
+      <c r="G32" s="21" t="s">
+        <v>252</v>
+      </c>
+      <c r="H32" s="21">
+        <v>20240306</v>
+      </c>
+      <c r="J32" s="21" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="3">
+        <v>30</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="C33" s="25" t="s">
+        <v>198</v>
+      </c>
+      <c r="D33" s="25"/>
+      <c r="E33" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="F33" s="21" t="s">
+        <v>250</v>
+      </c>
+      <c r="G33" s="21" t="s">
+        <v>252</v>
+      </c>
+      <c r="H33" s="21">
+        <v>20240306</v>
+      </c>
+      <c r="J33" s="21" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="3">
+        <v>31</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="C34" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="D34" s="25"/>
+      <c r="E34" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="F34" s="21" t="s">
+        <v>250</v>
+      </c>
+      <c r="G34" s="21" t="s">
+        <v>252</v>
+      </c>
+      <c r="H34" s="21">
+        <v>20240306</v>
+      </c>
+      <c r="J34" s="21" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="3">
+        <v>32</v>
+      </c>
+      <c r="B35" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="C35" s="25" t="s">
+        <v>201</v>
+      </c>
+      <c r="D35" s="25"/>
+      <c r="E35" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="F35" s="21" t="s">
+        <v>250</v>
+      </c>
+      <c r="G35" s="21" t="s">
+        <v>252</v>
+      </c>
+      <c r="H35" s="21">
+        <v>20240306</v>
+      </c>
+      <c r="J35" s="21" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="3">
+        <v>33</v>
+      </c>
+      <c r="B36" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="C36" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="D36" s="25"/>
+      <c r="E36" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="F36" s="21" t="s">
+        <v>250</v>
+      </c>
+      <c r="G36" s="21" t="s">
+        <v>252</v>
+      </c>
+      <c r="H36" s="21">
+        <v>20240306</v>
+      </c>
+      <c r="J36" s="21" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="3">
+        <v>34</v>
+      </c>
+      <c r="B37" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="C37" s="25" t="s">
+        <v>214</v>
+      </c>
+      <c r="D37" s="25"/>
+      <c r="E37" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="F37" s="21" t="s">
+        <v>250</v>
+      </c>
+      <c r="G37" s="21" t="s">
+        <v>252</v>
+      </c>
+      <c r="H37" s="21">
+        <v>20240306</v>
+      </c>
+      <c r="J37" s="21" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="3">
+        <v>35</v>
+      </c>
+      <c r="B38" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="C38" s="25" t="s">
+        <v>215</v>
+      </c>
+      <c r="D38" s="25"/>
+      <c r="E38" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="F38" s="21" t="s">
+        <v>250</v>
+      </c>
+      <c r="G38" s="21" t="s">
+        <v>252</v>
+      </c>
+      <c r="H38" s="21">
+        <v>20240306</v>
+      </c>
+      <c r="J38" s="21" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="3">
+        <v>36</v>
+      </c>
+      <c r="B39" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="C39" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="D39" s="25"/>
+      <c r="E39" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="F39" s="21" t="s">
+        <v>250</v>
+      </c>
+      <c r="G39" s="21" t="s">
+        <v>252</v>
+      </c>
+      <c r="H39" s="21">
+        <v>20240306</v>
+      </c>
+      <c r="J39" s="21" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="3">
+        <v>37</v>
+      </c>
+      <c r="B40" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="C40" s="25" t="s">
+        <v>217</v>
+      </c>
+      <c r="D40" s="25"/>
+      <c r="E40" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="F40" s="21" t="s">
+        <v>250</v>
+      </c>
+      <c r="G40" s="21" t="s">
+        <v>252</v>
+      </c>
+      <c r="H40" s="21">
+        <v>20240306</v>
+      </c>
+      <c r="J40" s="21" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="3">
+        <v>38</v>
+      </c>
+      <c r="B41" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="C41" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="D41" s="25"/>
+      <c r="E41" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="F41" s="21" t="s">
+        <v>250</v>
+      </c>
+      <c r="G41" s="21" t="s">
+        <v>252</v>
+      </c>
+      <c r="H41" s="21">
+        <v>20240306</v>
+      </c>
+      <c r="J41" s="21" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="3">
+        <v>39</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="C42" s="25" t="s">
+        <v>203</v>
+      </c>
+      <c r="D42" s="25"/>
+      <c r="E42" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="F42" s="21" t="s">
+        <v>250</v>
+      </c>
+      <c r="G42" s="21" t="s">
+        <v>252</v>
+      </c>
+      <c r="H42" s="21">
+        <v>20240306</v>
+      </c>
+      <c r="J42" s="21" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="3">
+        <v>40</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="C43" s="25" t="s">
+        <v>205</v>
+      </c>
+      <c r="D43" s="25"/>
+      <c r="E43" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="F43" s="21" t="s">
+        <v>250</v>
+      </c>
+      <c r="G43" s="21" t="s">
+        <v>252</v>
+      </c>
+      <c r="H43" s="21">
+        <v>20240306</v>
+      </c>
+      <c r="J43" s="21" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="3">
+        <v>41</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="C44" s="25" t="s">
+        <v>207</v>
+      </c>
+      <c r="D44" s="25"/>
+      <c r="E44" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="F44" s="21" t="s">
+        <v>250</v>
+      </c>
+      <c r="G44" s="21" t="s">
+        <v>252</v>
+      </c>
+      <c r="H44" s="21">
+        <v>20240306</v>
+      </c>
+      <c r="J44" s="21" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="3">
+        <v>42</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="C45" s="25" t="s">
+        <v>208</v>
+      </c>
+      <c r="D45" s="25"/>
+      <c r="E45" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="F45" s="21" t="s">
+        <v>250</v>
+      </c>
+      <c r="G45" s="21" t="s">
+        <v>252</v>
+      </c>
+      <c r="H45" s="21">
+        <v>20240306</v>
+      </c>
+      <c r="J45" s="21" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="3">
+        <v>43</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="C46" s="25" t="s">
+        <v>211</v>
+      </c>
+      <c r="D46" s="25"/>
+      <c r="E46" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="F46" s="21" t="s">
+        <v>250</v>
+      </c>
+      <c r="G46" s="21" t="s">
+        <v>252</v>
+      </c>
+      <c r="H46" s="21">
+        <v>20240306</v>
+      </c>
+      <c r="J46" s="21" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="3">
+        <v>44</v>
+      </c>
+      <c r="B47" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="C47" s="25" t="s">
+        <v>210</v>
+      </c>
+      <c r="D47" s="25"/>
+      <c r="E47" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="F47" s="21" t="s">
+        <v>250</v>
+      </c>
+      <c r="G47" s="21" t="s">
+        <v>252</v>
+      </c>
+      <c r="H47" s="21">
+        <v>20240306</v>
+      </c>
+      <c r="J47" s="21" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="3">
+        <v>45</v>
+      </c>
+      <c r="B48" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="C48" s="25" t="s">
+        <v>213</v>
+      </c>
+      <c r="D48" s="25"/>
+      <c r="E48" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="F48" s="21" t="s">
+        <v>250</v>
+      </c>
+      <c r="G48" s="21" t="s">
+        <v>252</v>
+      </c>
+      <c r="H48" s="21">
+        <v>20240306</v>
+      </c>
+      <c r="J48" s="21" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="3">
+        <v>46</v>
+      </c>
+      <c r="B49" s="22" t="s">
+        <v>202</v>
+      </c>
+      <c r="C49" s="25" t="s">
+        <v>276</v>
+      </c>
+      <c r="D49" s="25"/>
+      <c r="E49" s="10" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="3">
+        <v>47</v>
+      </c>
+      <c r="B50" s="22" t="s">
+        <v>202</v>
+      </c>
+      <c r="C50" s="25" t="s">
+        <v>277</v>
+      </c>
+      <c r="D50" s="25"/>
+      <c r="E50" s="22" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="3">
+        <v>48</v>
+      </c>
+      <c r="B51" s="22" t="s">
+        <v>202</v>
+      </c>
+      <c r="C51" s="25" t="s">
+        <v>278</v>
+      </c>
+      <c r="D51" s="25"/>
+      <c r="E51" s="22" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="3">
+        <v>49</v>
+      </c>
+      <c r="B52" s="22" t="s">
+        <v>202</v>
+      </c>
+      <c r="C52" s="25" t="s">
+        <v>279</v>
+      </c>
+      <c r="D52" s="25"/>
+      <c r="E52" s="22" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="3">
+        <v>50</v>
+      </c>
+      <c r="B53" s="22" t="s">
+        <v>202</v>
+      </c>
+      <c r="C53" s="25" t="s">
+        <v>280</v>
+      </c>
+      <c r="D53" s="25"/>
+      <c r="E53" s="10" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="3">
+        <v>51</v>
+      </c>
+      <c r="B54" s="22" t="s">
+        <v>202</v>
+      </c>
+      <c r="C54" s="25" t="s">
+        <v>281</v>
+      </c>
+      <c r="D54" s="25"/>
+      <c r="E54" s="22" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="3">
+        <v>52</v>
+      </c>
+      <c r="B55" s="22" t="s">
+        <v>202</v>
+      </c>
+      <c r="C55" s="25" t="s">
+        <v>282</v>
+      </c>
+      <c r="D55" s="25"/>
+      <c r="E55" s="22" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A56" s="3">
+        <v>53</v>
+      </c>
+      <c r="B56" s="22" t="s">
+        <v>202</v>
+      </c>
+      <c r="C56" s="25" t="s">
+        <v>283</v>
+      </c>
+      <c r="D56" s="25"/>
+      <c r="E56" s="10" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A57" s="3">
+        <v>54</v>
+      </c>
+      <c r="B57" s="22" t="s">
+        <v>202</v>
+      </c>
+      <c r="C57" s="25" t="s">
+        <v>284</v>
+      </c>
+      <c r="D57" s="25"/>
+      <c r="E57" s="22" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="3">
+        <v>55</v>
+      </c>
+      <c r="B58" s="22" t="s">
+        <v>285</v>
+      </c>
+      <c r="C58" s="25" t="s">
+        <v>286</v>
+      </c>
+      <c r="D58" s="25"/>
+      <c r="E58" s="10" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A59" s="3">
+        <v>56</v>
+      </c>
+      <c r="B59" s="22" t="s">
+        <v>285</v>
+      </c>
+      <c r="C59" s="25" t="s">
+        <v>286</v>
+      </c>
+      <c r="D59" s="25"/>
+      <c r="E59" s="22" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A60" s="3">
+        <v>57</v>
+      </c>
+      <c r="B60" s="22" t="s">
+        <v>285</v>
+      </c>
+      <c r="C60" s="25" t="s">
+        <v>286</v>
+      </c>
+      <c r="D60" s="25"/>
+      <c r="E60" s="22" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A61" s="3">
+        <v>58</v>
+      </c>
+      <c r="B61" s="22" t="s">
+        <v>285</v>
+      </c>
+      <c r="C61" s="25" t="s">
+        <v>286</v>
+      </c>
+      <c r="D61" s="25"/>
+      <c r="E61" s="22" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A62" s="3">
+        <v>59</v>
+      </c>
+      <c r="B62" s="22" t="s">
+        <v>285</v>
+      </c>
+      <c r="C62" s="25" t="s">
+        <v>286</v>
+      </c>
+      <c r="D62" s="25"/>
+      <c r="E62" s="22" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A63" s="3">
+        <v>60</v>
+      </c>
+      <c r="B63" s="22" t="s">
+        <v>285</v>
+      </c>
+      <c r="C63" s="25" t="s">
+        <v>286</v>
+      </c>
+      <c r="D63" s="25"/>
+      <c r="E63" s="22" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A64" s="3">
+        <v>61</v>
+      </c>
+      <c r="B64" s="22" t="s">
+        <v>285</v>
+      </c>
+      <c r="C64" s="25" t="s">
+        <v>286</v>
+      </c>
+      <c r="D64" s="25"/>
+      <c r="E64" s="23" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A65" s="3">
+        <v>62</v>
+      </c>
+      <c r="B65" s="22" t="s">
+        <v>285</v>
+      </c>
+      <c r="C65" s="25" t="s">
+        <v>286</v>
+      </c>
+      <c r="D65" s="25"/>
+      <c r="E65" s="23" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A66" s="3">
+        <v>63</v>
+      </c>
+      <c r="B66" s="22" t="s">
+        <v>285</v>
+      </c>
+      <c r="C66" s="25" t="s">
+        <v>286</v>
+      </c>
+      <c r="D66" s="25"/>
+      <c r="E66" s="22" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A67" s="3">
+        <v>64</v>
+      </c>
+      <c r="B67" s="22" t="s">
+        <v>285</v>
+      </c>
+      <c r="C67" s="25" t="s">
+        <v>286</v>
+      </c>
+      <c r="D67" s="25"/>
+      <c r="E67" s="22" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A68" s="3">
+        <v>65</v>
+      </c>
+      <c r="B68" s="22" t="s">
+        <v>285</v>
+      </c>
+      <c r="C68" s="25"/>
+      <c r="D68" s="25"/>
+      <c r="E68" s="22"/>
+    </row>
+    <row r="69" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A69" s="3">
+        <v>66</v>
+      </c>
+      <c r="B69" s="22" t="s">
+        <v>285</v>
+      </c>
+      <c r="C69" s="25"/>
+      <c r="D69" s="25"/>
+    </row>
+    <row r="70" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A70" s="3">
+        <v>67</v>
+      </c>
+      <c r="B70" s="22" t="s">
+        <v>285</v>
+      </c>
+      <c r="C70" s="25"/>
+      <c r="D70" s="25"/>
+    </row>
+    <row r="71" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A71" s="3">
+        <v>68</v>
+      </c>
+      <c r="B71" s="22" t="s">
+        <v>285</v>
+      </c>
+      <c r="C71" s="25"/>
+      <c r="D71" s="25"/>
+    </row>
+    <row r="72" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A72" s="3">
+        <v>69</v>
+      </c>
+      <c r="C72" s="25"/>
+      <c r="D72" s="25"/>
+    </row>
+    <row r="73" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A73" s="3">
+        <v>70</v>
+      </c>
+      <c r="C73" s="25"/>
+      <c r="D73" s="25"/>
+    </row>
+    <row r="74" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A74" s="3">
+        <v>71</v>
+      </c>
+      <c r="C74" s="25"/>
+      <c r="D74" s="25"/>
+    </row>
+    <row r="75" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A75" s="3">
+        <v>72</v>
+      </c>
+      <c r="C75" s="25"/>
+      <c r="D75" s="25"/>
+    </row>
+    <row r="76" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A76" s="3">
+        <v>73</v>
+      </c>
+      <c r="C76" s="25"/>
+      <c r="D76" s="25"/>
+    </row>
+    <row r="77" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A77" s="3">
+        <v>74</v>
+      </c>
+      <c r="C77" s="25"/>
+      <c r="D77" s="25"/>
+    </row>
+    <row r="78" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A78" s="3">
+        <v>75</v>
+      </c>
+      <c r="C78" s="25"/>
+      <c r="D78" s="25"/>
+    </row>
+    <row r="79" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A79" s="3">
+        <v>76</v>
+      </c>
+      <c r="C79" s="25"/>
+      <c r="D79" s="25"/>
+    </row>
+    <row r="80" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A80" s="3">
+        <v>77</v>
+      </c>
+      <c r="C80" s="25"/>
+      <c r="D80" s="25"/>
+    </row>
+    <row r="81" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A81" s="3">
+        <v>78</v>
+      </c>
+      <c r="C81" s="25"/>
+      <c r="D81" s="25"/>
+    </row>
+    <row r="82" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A82" s="3">
+        <v>79</v>
+      </c>
+      <c r="C82" s="25"/>
+      <c r="D82" s="25"/>
+    </row>
+    <row r="83" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A83" s="3">
+        <v>80</v>
+      </c>
+      <c r="C83" s="25"/>
+      <c r="D83" s="25"/>
+    </row>
+    <row r="84" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A84" s="3">
+        <v>81</v>
+      </c>
+      <c r="C84" s="25"/>
+      <c r="D84" s="25"/>
+    </row>
+    <row r="85" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A85" s="3">
+        <v>82</v>
+      </c>
+      <c r="C85" s="25"/>
+      <c r="D85" s="25"/>
+    </row>
+    <row r="86" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A86" s="3">
+        <v>83</v>
+      </c>
+      <c r="C86" s="25"/>
+      <c r="D86" s="25"/>
+    </row>
+    <row r="87" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A87" s="3">
+        <v>84</v>
+      </c>
+      <c r="C87" s="25"/>
+      <c r="D87" s="25"/>
+    </row>
+    <row r="88" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A88" s="3">
+        <v>85</v>
+      </c>
+      <c r="C88" s="25"/>
+      <c r="D88" s="25"/>
+    </row>
+    <row r="89" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A89" s="3">
+        <v>86</v>
+      </c>
+      <c r="C89" s="25"/>
+      <c r="D89" s="25"/>
+    </row>
+    <row r="90" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A90" s="3">
+        <v>87</v>
+      </c>
+      <c r="C90" s="25"/>
+      <c r="D90" s="25"/>
+    </row>
+    <row r="91" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A91" s="3">
+        <v>88</v>
+      </c>
+      <c r="C91" s="25"/>
+      <c r="D91" s="25"/>
+    </row>
+    <row r="92" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A92" s="3">
+        <v>89</v>
+      </c>
+      <c r="C92" s="25"/>
+      <c r="D92" s="25"/>
+    </row>
+    <row r="93" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A93" s="3">
+        <v>90</v>
+      </c>
+      <c r="C93" s="25"/>
+      <c r="D93" s="25"/>
+    </row>
+    <row r="94" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A94" s="3">
+        <v>91</v>
+      </c>
+      <c r="C94" s="25"/>
+      <c r="D94" s="25"/>
+    </row>
+    <row r="95" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A95" s="3">
+        <v>92</v>
+      </c>
+      <c r="C95" s="25"/>
+      <c r="D95" s="25"/>
+    </row>
+    <row r="96" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A96" s="3">
+        <v>93</v>
+      </c>
+      <c r="C96" s="25"/>
+      <c r="D96" s="25"/>
+    </row>
+    <row r="97" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A97" s="3">
+        <v>94</v>
+      </c>
+      <c r="C97" s="25"/>
+      <c r="D97" s="25"/>
+    </row>
+    <row r="98" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A98" s="3">
+        <v>95</v>
+      </c>
+      <c r="C98" s="25"/>
+      <c r="D98" s="25"/>
+    </row>
+    <row r="99" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A99" s="3">
+        <v>96</v>
+      </c>
+      <c r="C99" s="25"/>
+      <c r="D99" s="25"/>
+    </row>
+    <row r="100" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A100" s="3">
+        <v>97</v>
+      </c>
+      <c r="C100" s="25"/>
+      <c r="D100" s="25"/>
+    </row>
+    <row r="101" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A101" s="3">
+        <v>98</v>
+      </c>
+      <c r="C101" s="25"/>
+      <c r="D101" s="25"/>
+    </row>
+    <row r="102" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A102" s="3">
+        <v>99</v>
+      </c>
+      <c r="C102" s="25"/>
+      <c r="D102" s="25"/>
+    </row>
+    <row r="103" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A103" s="3">
+        <v>100</v>
+      </c>
+      <c r="C103" s="25"/>
+      <c r="D103" s="25"/>
+    </row>
+    <row r="104" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A104" s="3">
+        <v>101</v>
+      </c>
+      <c r="C104" s="25"/>
+      <c r="D104" s="25"/>
+    </row>
+    <row r="105" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C105" s="25"/>
+      <c r="D105" s="25"/>
+    </row>
+    <row r="106" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C106" s="25"/>
+      <c r="D106" s="25"/>
+    </row>
+    <row r="107" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C107" s="25"/>
+      <c r="D107" s="25"/>
+    </row>
+    <row r="108" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C108" s="25"/>
+      <c r="D108" s="25"/>
+    </row>
+    <row r="109" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C109" s="25"/>
+      <c r="D109" s="25"/>
+    </row>
+    <row r="110" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C110" s="25"/>
+      <c r="D110" s="25"/>
+    </row>
+    <row r="111" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C111" s="25"/>
+      <c r="D111" s="25"/>
+    </row>
+    <row r="112" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C112" s="25"/>
+      <c r="D112" s="25"/>
+    </row>
+    <row r="113" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C113" s="25"/>
+      <c r="D113" s="25"/>
+    </row>
+    <row r="114" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C114" s="25"/>
+      <c r="D114" s="25"/>
+    </row>
+    <row r="115" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C115" s="25"/>
+      <c r="D115" s="25"/>
+    </row>
+    <row r="116" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C116" s="25"/>
+      <c r="D116" s="25"/>
+    </row>
+    <row r="117" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C117" s="25"/>
+      <c r="D117" s="25"/>
+    </row>
+    <row r="118" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C118" s="25"/>
+      <c r="D118" s="25"/>
+    </row>
+    <row r="119" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C119" s="25"/>
+      <c r="D119" s="25"/>
+    </row>
+    <row r="120" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C120" s="25"/>
+      <c r="D120" s="25"/>
+    </row>
+    <row r="121" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C121" s="25"/>
+      <c r="D121" s="25"/>
+    </row>
+    <row r="122" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C122" s="25"/>
+      <c r="D122" s="25"/>
+    </row>
+    <row r="123" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C123" s="25"/>
+      <c r="D123" s="25"/>
+    </row>
+    <row r="124" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C124" s="25"/>
+      <c r="D124" s="25"/>
+    </row>
+    <row r="125" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C125" s="25"/>
+      <c r="D125" s="25"/>
+    </row>
+    <row r="126" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C126" s="25"/>
+      <c r="D126" s="25"/>
+    </row>
+    <row r="127" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C127" s="25"/>
+      <c r="D127" s="25"/>
+    </row>
+    <row r="128" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C128" s="25"/>
+      <c r="D128" s="25"/>
+    </row>
+    <row r="129" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C129" s="25"/>
+      <c r="D129" s="25"/>
+    </row>
+    <row r="130" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C130" s="25"/>
+      <c r="D130" s="25"/>
+    </row>
+    <row r="131" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C131" s="25"/>
+      <c r="D131" s="25"/>
+    </row>
+    <row r="132" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C132" s="25"/>
+      <c r="D132" s="25"/>
+    </row>
+    <row r="133" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C133" s="25"/>
+      <c r="D133" s="25"/>
+    </row>
+    <row r="134" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C134" s="25"/>
+      <c r="D134" s="25"/>
+    </row>
+    <row r="135" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C135" s="25"/>
+      <c r="D135" s="25"/>
+    </row>
+    <row r="136" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C136" s="25"/>
+      <c r="D136" s="25"/>
+    </row>
+    <row r="137" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C137" s="25"/>
+      <c r="D137" s="25"/>
+    </row>
+    <row r="138" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C138" s="25"/>
+      <c r="D138" s="25"/>
+    </row>
+    <row r="139" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C139" s="25"/>
+      <c r="D139" s="25"/>
+    </row>
+    <row r="140" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C140" s="25"/>
+      <c r="D140" s="25"/>
+    </row>
+  </sheetData>
+  <mergeCells count="140">
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:E2"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="C90:D90"/>
+    <mergeCell ref="C103:D103"/>
+    <mergeCell ref="C104:D104"/>
+    <mergeCell ref="C105:D105"/>
+    <mergeCell ref="C106:D106"/>
+    <mergeCell ref="C107:D107"/>
+    <mergeCell ref="C108:D108"/>
+    <mergeCell ref="C97:D97"/>
+    <mergeCell ref="C98:D98"/>
+    <mergeCell ref="C99:D99"/>
+    <mergeCell ref="C100:D100"/>
+    <mergeCell ref="C101:D101"/>
+    <mergeCell ref="C102:D102"/>
+    <mergeCell ref="C118:D118"/>
+    <mergeCell ref="C119:D119"/>
+    <mergeCell ref="C120:D120"/>
+    <mergeCell ref="C109:D109"/>
+    <mergeCell ref="C110:D110"/>
+    <mergeCell ref="C111:D111"/>
+    <mergeCell ref="C112:D112"/>
+    <mergeCell ref="C113:D113"/>
+    <mergeCell ref="C114:D114"/>
+    <mergeCell ref="C139:D139"/>
+    <mergeCell ref="C140:D140"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C133:D133"/>
+    <mergeCell ref="C134:D134"/>
+    <mergeCell ref="C135:D135"/>
+    <mergeCell ref="C136:D136"/>
+    <mergeCell ref="C137:D137"/>
+    <mergeCell ref="C138:D138"/>
+    <mergeCell ref="C127:D127"/>
+    <mergeCell ref="C128:D128"/>
+    <mergeCell ref="C129:D129"/>
+    <mergeCell ref="C130:D130"/>
+    <mergeCell ref="C131:D131"/>
+    <mergeCell ref="C132:D132"/>
+    <mergeCell ref="C121:D121"/>
+    <mergeCell ref="C122:D122"/>
+    <mergeCell ref="C123:D123"/>
+    <mergeCell ref="C124:D124"/>
+    <mergeCell ref="C125:D125"/>
+    <mergeCell ref="C126:D126"/>
+    <mergeCell ref="C115:D115"/>
+    <mergeCell ref="C116:D116"/>
+    <mergeCell ref="C117:D117"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J141"/>
+  <sheetViews>
+    <sheetView topLeftCell="A20" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C58" sqref="C58:D58"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="17.25" customWidth="1"/>
+    <col min="2" max="2" width="21.375" customWidth="1"/>
+    <col min="3" max="3" width="36.875" customWidth="1"/>
+    <col min="4" max="4" width="32.625" customWidth="1"/>
+    <col min="5" max="5" width="66.375" customWidth="1"/>
+    <col min="6" max="6" width="54.25" customWidth="1"/>
+    <col min="7" max="7" width="22.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A1" s="27" t="s">
+        <v>226</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="27"/>
+      <c r="F1" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="5">
+        <v>20240228</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B3" s="15"/>
+      <c r="E3" s="15"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A4" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="28"/>
+      <c r="E4" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="3">
+        <v>1</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>225</v>
+      </c>
+      <c r="D5" s="30"/>
+      <c r="E5" s="15" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="3">
+        <v>2</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="30"/>
+      <c r="E6" s="15" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="3">
+        <v>3</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="25"/>
+      <c r="E7" s="15" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="3">
+        <v>4</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="25"/>
+      <c r="E8" s="15" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="3">
+        <v>5</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="25"/>
+      <c r="E9" s="15" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="3">
+        <v>6</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="25"/>
+      <c r="E10" s="15" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="3">
+        <v>7</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="25"/>
+      <c r="E11" s="15" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="3">
+        <v>8</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="25"/>
+      <c r="E12" s="15" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="3">
+        <v>9</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="25"/>
+      <c r="E13" s="15" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="3">
+        <v>10</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="D14" s="25"/>
+      <c r="E14" s="15" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="3">
+        <v>11</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="25"/>
+      <c r="E15" s="15" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="3">
+        <v>12</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="25"/>
+      <c r="E16" s="15" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="3">
         <v>13</v>
       </c>
-      <c r="B17" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="C17" s="23" t="s">
-        <v>125</v>
-      </c>
-      <c r="D17" s="22"/>
-      <c r="E17" s="10" t="s">
-        <v>200</v>
+      <c r="B17" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="25"/>
+      <c r="E17" s="15" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="3">
         <v>14</v>
       </c>
-      <c r="B18" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="C18" s="23" t="s">
-        <v>126</v>
-      </c>
-      <c r="D18" s="23"/>
-      <c r="E18" s="10" t="s">
-        <v>200</v>
+      <c r="B18" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="D18" s="25"/>
+      <c r="E18" s="15" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="3">
         <v>15</v>
       </c>
-      <c r="B19" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="C19" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="D19" s="22"/>
-      <c r="E19" s="10" t="s">
-        <v>195</v>
+      <c r="B19" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="25"/>
+      <c r="E19" s="15" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="3">
         <v>16</v>
       </c>
-      <c r="B20" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="C20" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="D20" s="22"/>
-      <c r="E20" s="10" t="s">
-        <v>195</v>
+      <c r="B20" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" s="25"/>
+      <c r="E20" s="15" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="3">
         <v>17</v>
       </c>
-      <c r="B21" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="C21" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="D21" s="22"/>
-      <c r="E21" s="10" t="s">
-        <v>195</v>
+      <c r="B21" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="D21" s="25"/>
+      <c r="E21" s="15" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="3">
         <v>18</v>
       </c>
-      <c r="B22" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="C22" s="23" t="s">
-        <v>148</v>
-      </c>
-      <c r="D22" s="22"/>
-      <c r="E22" s="10" t="s">
-        <v>195</v>
+      <c r="B22" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="D22" s="24"/>
+      <c r="E22" s="15" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="3">
         <v>19</v>
       </c>
-      <c r="B23" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="C23" s="23" t="s">
-        <v>141</v>
-      </c>
-      <c r="D23" s="23"/>
-      <c r="E23" s="10" t="s">
-        <v>195</v>
+      <c r="B23" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="D23" s="25"/>
+      <c r="E23" s="15" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="3">
         <v>20</v>
       </c>
-      <c r="B24" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="C24" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="D24" s="22"/>
-      <c r="E24" s="10" t="s">
-        <v>196</v>
+      <c r="B24" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="D24" s="25"/>
+      <c r="E24" s="15" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="3">
         <v>21</v>
       </c>
-      <c r="B25" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="C25" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="D25" s="22"/>
-      <c r="E25" s="10" t="s">
-        <v>196</v>
+      <c r="B25" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="D25" s="25"/>
+      <c r="E25" s="15" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="3">
         <v>22</v>
       </c>
-      <c r="B26" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="C26" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="D26" s="22"/>
-      <c r="E26" s="10" t="s">
-        <v>196</v>
+      <c r="B26" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="D26" s="25"/>
+      <c r="E26" s="15" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="3">
         <v>23</v>
       </c>
-      <c r="B27" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="C27" s="23" t="s">
-        <v>149</v>
-      </c>
-      <c r="D27" s="22"/>
-      <c r="E27" s="10" t="s">
-        <v>196</v>
+      <c r="B27" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="D27" s="24"/>
+      <c r="E27" s="15" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="3">
         <v>24</v>
       </c>
-      <c r="B28" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="C28" s="23" t="s">
-        <v>142</v>
-      </c>
-      <c r="D28" s="23"/>
-      <c r="E28" s="10" t="s">
-        <v>196</v>
+      <c r="B28" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="24" t="s">
+        <v>140</v>
+      </c>
+      <c r="D28" s="24"/>
+      <c r="E28" s="15" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="3">
         <v>25</v>
       </c>
-      <c r="B29" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="C29" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="D29" s="22"/>
-      <c r="E29" s="10" t="s">
-        <v>197</v>
+      <c r="B29" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="D29" s="24"/>
+      <c r="E29" s="15" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="3">
         <v>26</v>
       </c>
-      <c r="B30" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="C30" s="23" t="s">
-        <v>172</v>
-      </c>
-      <c r="D30" s="22"/>
-      <c r="E30" s="10" t="s">
-        <v>195</v>
+      <c r="B30" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="D30" s="25"/>
+      <c r="E30" s="15" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="3">
         <v>27</v>
       </c>
-      <c r="B31" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="C31" s="23" t="s">
-        <v>173</v>
-      </c>
-      <c r="D31" s="22"/>
-      <c r="E31" s="10" t="s">
-        <v>196</v>
+      <c r="B31" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="D31" s="25"/>
+      <c r="E31" s="15" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="3">
         <v>28</v>
       </c>
-      <c r="B32" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="C32" s="23" t="s">
-        <v>143</v>
-      </c>
-      <c r="D32" s="22"/>
-      <c r="E32" s="10" t="s">
-        <v>195</v>
+      <c r="B32" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="D32" s="25"/>
+      <c r="E32" s="15" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="3">
         <v>29</v>
       </c>
-      <c r="B33" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="C33" s="23" t="s">
-        <v>144</v>
-      </c>
-      <c r="D33" s="22"/>
-      <c r="E33" s="10" t="s">
-        <v>196</v>
+      <c r="B33" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="D33" s="25"/>
+      <c r="E33" s="15" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="3">
         <v>30</v>
       </c>
-      <c r="B34" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="C34" s="22" t="s">
-        <v>198</v>
-      </c>
-      <c r="D34" s="22"/>
-      <c r="E34" s="10" t="s">
-        <v>199</v>
+      <c r="B34" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="D34" s="24"/>
+      <c r="E34" s="15" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="3">
         <v>31</v>
       </c>
-      <c r="B35" s="10" t="s">
-        <v>229</v>
-      </c>
-      <c r="C35" s="22" t="s">
-        <v>177</v>
-      </c>
-      <c r="D35" s="22"/>
-      <c r="E35" s="10" t="s">
-        <v>227</v>
+      <c r="B35" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="D35" s="25"/>
+      <c r="E35" s="15" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
@@ -8582,14 +11698,14 @@
         <v>32</v>
       </c>
       <c r="B36" s="15" t="s">
-        <v>229</v>
-      </c>
-      <c r="C36" s="22" t="s">
-        <v>201</v>
-      </c>
-      <c r="D36" s="22"/>
-      <c r="E36" s="10" t="s">
-        <v>228</v>
+        <v>10</v>
+      </c>
+      <c r="C36" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="D36" s="25"/>
+      <c r="E36" s="15" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
@@ -8597,14 +11713,14 @@
         <v>33</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>229</v>
-      </c>
-      <c r="C37" s="22" t="s">
-        <v>177</v>
-      </c>
-      <c r="D37" s="22"/>
-      <c r="E37" s="10" t="s">
-        <v>223</v>
+        <v>10</v>
+      </c>
+      <c r="C37" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="D37" s="25"/>
+      <c r="E37" s="15" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
@@ -8612,14 +11728,14 @@
         <v>34</v>
       </c>
       <c r="B38" s="15" t="s">
-        <v>229</v>
-      </c>
-      <c r="C38" s="22" t="s">
-        <v>214</v>
-      </c>
-      <c r="D38" s="22"/>
-      <c r="E38" s="10" t="s">
-        <v>222</v>
+        <v>10</v>
+      </c>
+      <c r="C38" s="24" t="s">
+        <v>149</v>
+      </c>
+      <c r="D38" s="25"/>
+      <c r="E38" s="15" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
@@ -8627,14 +11743,14 @@
         <v>35</v>
       </c>
       <c r="B39" s="15" t="s">
-        <v>229</v>
-      </c>
-      <c r="C39" s="22" t="s">
-        <v>215</v>
-      </c>
-      <c r="D39" s="22"/>
-      <c r="E39" s="10" t="s">
-        <v>221</v>
+        <v>10</v>
+      </c>
+      <c r="C39" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="D39" s="24"/>
+      <c r="E39" s="15" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
@@ -8642,14 +11758,14 @@
         <v>36</v>
       </c>
       <c r="B40" s="15" t="s">
-        <v>229</v>
-      </c>
-      <c r="C40" s="22" t="s">
-        <v>216</v>
-      </c>
-      <c r="D40" s="22"/>
-      <c r="E40" s="9" t="s">
-        <v>220</v>
+        <v>10</v>
+      </c>
+      <c r="C40" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="D40" s="25"/>
+      <c r="E40" s="15" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
@@ -8657,14 +11773,14 @@
         <v>37</v>
       </c>
       <c r="B41" s="15" t="s">
-        <v>229</v>
-      </c>
-      <c r="C41" s="22" t="s">
-        <v>217</v>
-      </c>
-      <c r="D41" s="22"/>
-      <c r="E41" s="9" t="s">
-        <v>219</v>
+        <v>10</v>
+      </c>
+      <c r="C41" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="D41" s="25"/>
+      <c r="E41" s="15" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
@@ -8672,488 +11788,642 @@
         <v>38</v>
       </c>
       <c r="B42" s="15" t="s">
-        <v>229</v>
-      </c>
-      <c r="C42" s="22" t="s">
-        <v>177</v>
-      </c>
-      <c r="D42" s="22"/>
-      <c r="E42" s="10" t="s">
-        <v>218</v>
+        <v>10</v>
+      </c>
+      <c r="C42" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="D42" s="25"/>
+      <c r="E42" s="15" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="3">
         <v>39</v>
       </c>
-      <c r="B43" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="C43" s="22" t="s">
-        <v>203</v>
-      </c>
-      <c r="D43" s="22"/>
-      <c r="E43" s="10" t="s">
-        <v>204</v>
+      <c r="B43" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C43" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="D43" s="25"/>
+      <c r="E43" s="15" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="3">
         <v>40</v>
       </c>
-      <c r="B44" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="C44" s="22" t="s">
-        <v>205</v>
-      </c>
-      <c r="D44" s="22"/>
-      <c r="E44" s="10" t="s">
-        <v>206</v>
+      <c r="B44" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C44" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="D44" s="25"/>
+      <c r="E44" s="15" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="3">
         <v>41</v>
       </c>
-      <c r="B45" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="C45" s="22" t="s">
-        <v>207</v>
-      </c>
-      <c r="D45" s="22"/>
-      <c r="E45" s="10" t="s">
-        <v>204</v>
+      <c r="B45" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C45" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="D45" s="25"/>
+      <c r="E45" s="15" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="3">
         <v>42</v>
       </c>
-      <c r="B46" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="C46" s="22" t="s">
-        <v>208</v>
-      </c>
-      <c r="D46" s="22"/>
-      <c r="E46" s="10" t="s">
-        <v>209</v>
+      <c r="B46" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="D46" s="25"/>
+      <c r="E46" s="15" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="3">
         <v>43</v>
       </c>
-      <c r="B47" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="C47" s="22" t="s">
-        <v>211</v>
-      </c>
-      <c r="D47" s="22"/>
-      <c r="E47" s="10" t="s">
-        <v>212</v>
+      <c r="B47" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C47" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="D47" s="25"/>
+      <c r="E47" s="15" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="3">
         <v>44</v>
       </c>
-      <c r="B48" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="C48" s="22" t="s">
-        <v>210</v>
-      </c>
-      <c r="D48" s="22"/>
-      <c r="E48" s="10" t="s">
-        <v>230</v>
+      <c r="B48" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C48" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="D48" s="25"/>
+      <c r="E48" s="15" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="3">
         <v>45</v>
       </c>
-      <c r="B49" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="C49" s="22" t="s">
-        <v>213</v>
-      </c>
-      <c r="D49" s="22"/>
-      <c r="E49" s="10" t="s">
-        <v>183</v>
+      <c r="B49" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C49" s="24" t="s">
+        <v>172</v>
+      </c>
+      <c r="D49" s="25"/>
+      <c r="E49" s="15" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C50" s="22"/>
-      <c r="D50" s="22"/>
+      <c r="A50" s="3">
+        <v>46</v>
+      </c>
+      <c r="B50" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C50" s="24" t="s">
+        <v>173</v>
+      </c>
+      <c r="D50" s="25"/>
+      <c r="E50" s="15" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="51" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C51" s="22"/>
-      <c r="D51" s="22"/>
+      <c r="A51" s="3">
+        <v>47</v>
+      </c>
+      <c r="B51" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C51" s="24" t="s">
+        <v>143</v>
+      </c>
+      <c r="D51" s="25"/>
+      <c r="E51" s="15" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="52" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C52" s="22"/>
-      <c r="D52" s="22"/>
+      <c r="A52" s="3">
+        <v>48</v>
+      </c>
+      <c r="B52" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C52" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="D52" s="25"/>
+      <c r="E52" s="15" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="53" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C53" s="22"/>
-      <c r="D53" s="22"/>
+      <c r="A53" s="3">
+        <v>49</v>
+      </c>
+      <c r="B53" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C53" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="D53" s="25"/>
+      <c r="E53" s="15" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="54" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C54" s="22"/>
-      <c r="D54" s="22"/>
+      <c r="A54" s="3">
+        <v>50</v>
+      </c>
+      <c r="B54" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C54" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="D54" s="25"/>
+      <c r="E54" s="15" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="55" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C55" s="22"/>
-      <c r="D55" s="22"/>
+      <c r="A55" s="3">
+        <v>51</v>
+      </c>
+      <c r="B55" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C55" s="24" t="s">
+        <v>174</v>
+      </c>
+      <c r="D55" s="25"/>
+      <c r="E55" s="15" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="56" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C56" s="22"/>
-      <c r="D56" s="22"/>
+      <c r="A56" s="3">
+        <v>52</v>
+      </c>
+      <c r="B56" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C56" s="24" t="s">
+        <v>175</v>
+      </c>
+      <c r="D56" s="25"/>
+      <c r="E56" s="15" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="57" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C57" s="22"/>
-      <c r="D57" s="22"/>
+      <c r="A57" s="3">
+        <v>53</v>
+      </c>
+      <c r="B57" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="C57" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="D57" s="25"/>
+      <c r="E57" s="15" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="58" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C58" s="22"/>
-      <c r="D58" s="22"/>
+      <c r="A58" s="3">
+        <v>54</v>
+      </c>
+      <c r="B58" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="C58" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="D58" s="25"/>
+      <c r="E58" s="15" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="59" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C59" s="22"/>
-      <c r="D59" s="22"/>
-    </row>
-    <row r="60" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C60" s="22"/>
-      <c r="D60" s="22"/>
-    </row>
-    <row r="61" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C61" s="22"/>
-      <c r="D61" s="22"/>
-    </row>
-    <row r="62" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C62" s="22"/>
-      <c r="D62" s="22"/>
-    </row>
-    <row r="63" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C63" s="22"/>
-      <c r="D63" s="22"/>
-    </row>
-    <row r="64" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C64" s="22"/>
-      <c r="D64" s="22"/>
-    </row>
-    <row r="65" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C65" s="22"/>
-      <c r="D65" s="22"/>
-    </row>
-    <row r="66" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C66" s="22"/>
-      <c r="D66" s="22"/>
-    </row>
-    <row r="67" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C67" s="22"/>
-      <c r="D67" s="22"/>
-    </row>
-    <row r="68" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C68" s="22"/>
-      <c r="D68" s="22"/>
-    </row>
-    <row r="69" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C69" s="22"/>
-      <c r="D69" s="22"/>
-    </row>
-    <row r="70" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C70" s="22"/>
-      <c r="D70" s="22"/>
-    </row>
-    <row r="71" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C71" s="22"/>
-      <c r="D71" s="22"/>
-    </row>
-    <row r="72" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C72" s="22"/>
-      <c r="D72" s="22"/>
-    </row>
-    <row r="73" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C73" s="22"/>
-      <c r="D73" s="22"/>
-    </row>
-    <row r="74" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C74" s="22"/>
-      <c r="D74" s="22"/>
-    </row>
-    <row r="75" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C75" s="22"/>
-      <c r="D75" s="22"/>
-    </row>
-    <row r="76" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C76" s="22"/>
-      <c r="D76" s="22"/>
-    </row>
-    <row r="77" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C77" s="22"/>
-      <c r="D77" s="22"/>
-    </row>
-    <row r="78" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C78" s="22"/>
-      <c r="D78" s="22"/>
-    </row>
-    <row r="79" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C79" s="22"/>
-      <c r="D79" s="22"/>
-    </row>
-    <row r="80" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C80" s="22"/>
-      <c r="D80" s="22"/>
-    </row>
-    <row r="81" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C81" s="22"/>
-      <c r="D81" s="22"/>
-    </row>
-    <row r="82" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C82" s="22"/>
-      <c r="D82" s="22"/>
-    </row>
-    <row r="83" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C83" s="22"/>
-      <c r="D83" s="22"/>
-    </row>
-    <row r="84" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C84" s="22"/>
-      <c r="D84" s="22"/>
-    </row>
-    <row r="85" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C85" s="22"/>
-      <c r="D85" s="22"/>
-    </row>
-    <row r="86" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C86" s="22"/>
-      <c r="D86" s="22"/>
-    </row>
-    <row r="87" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C87" s="22"/>
-      <c r="D87" s="22"/>
-    </row>
-    <row r="88" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C88" s="22"/>
-      <c r="D88" s="22"/>
-    </row>
-    <row r="89" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C89" s="22"/>
-      <c r="D89" s="22"/>
-    </row>
-    <row r="90" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C90" s="22"/>
-      <c r="D90" s="22"/>
-    </row>
-    <row r="91" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C91" s="22"/>
-      <c r="D91" s="22"/>
-    </row>
-    <row r="92" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C92" s="22"/>
-      <c r="D92" s="22"/>
-    </row>
-    <row r="93" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C93" s="22"/>
-      <c r="D93" s="22"/>
-    </row>
-    <row r="94" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C94" s="22"/>
-      <c r="D94" s="22"/>
-    </row>
-    <row r="95" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C95" s="22"/>
-      <c r="D95" s="22"/>
-    </row>
-    <row r="96" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C96" s="22"/>
-      <c r="D96" s="22"/>
-    </row>
-    <row r="97" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C97" s="22"/>
-      <c r="D97" s="22"/>
-    </row>
-    <row r="98" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C98" s="22"/>
-      <c r="D98" s="22"/>
-    </row>
-    <row r="99" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C99" s="22"/>
-      <c r="D99" s="22"/>
-    </row>
-    <row r="100" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C100" s="22"/>
-      <c r="D100" s="22"/>
-    </row>
-    <row r="101" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C101" s="22"/>
-      <c r="D101" s="22"/>
-    </row>
-    <row r="102" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C102" s="22"/>
-      <c r="D102" s="22"/>
-    </row>
-    <row r="103" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C103" s="22"/>
-      <c r="D103" s="22"/>
-    </row>
-    <row r="104" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C104" s="22"/>
-      <c r="D104" s="22"/>
-    </row>
-    <row r="105" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C105" s="22"/>
-      <c r="D105" s="22"/>
-    </row>
-    <row r="106" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C106" s="22"/>
-      <c r="D106" s="22"/>
-    </row>
-    <row r="107" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C107" s="22"/>
-      <c r="D107" s="22"/>
-    </row>
-    <row r="108" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C108" s="22"/>
-      <c r="D108" s="22"/>
-    </row>
-    <row r="109" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C109" s="22"/>
-      <c r="D109" s="22"/>
-    </row>
-    <row r="110" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C110" s="22"/>
-      <c r="D110" s="22"/>
-    </row>
-    <row r="111" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C111" s="22"/>
-      <c r="D111" s="22"/>
-    </row>
-    <row r="112" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C112" s="22"/>
-      <c r="D112" s="22"/>
-    </row>
-    <row r="113" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C113" s="22"/>
-      <c r="D113" s="22"/>
-    </row>
-    <row r="114" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C114" s="22"/>
-      <c r="D114" s="22"/>
-    </row>
-    <row r="115" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C115" s="22"/>
-      <c r="D115" s="22"/>
-    </row>
-    <row r="116" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C116" s="22"/>
-      <c r="D116" s="22"/>
-    </row>
-    <row r="117" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C117" s="22"/>
-      <c r="D117" s="22"/>
-    </row>
-    <row r="118" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C118" s="22"/>
-      <c r="D118" s="22"/>
-    </row>
-    <row r="119" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C119" s="22"/>
-      <c r="D119" s="22"/>
-    </row>
-    <row r="120" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C120" s="22"/>
-      <c r="D120" s="22"/>
-    </row>
-    <row r="121" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C121" s="22"/>
-      <c r="D121" s="22"/>
-    </row>
-    <row r="122" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C122" s="22"/>
-      <c r="D122" s="22"/>
-    </row>
-    <row r="123" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C123" s="22"/>
-      <c r="D123" s="22"/>
-    </row>
-    <row r="124" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C124" s="22"/>
-      <c r="D124" s="22"/>
-    </row>
-    <row r="125" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C125" s="22"/>
-      <c r="D125" s="22"/>
-    </row>
-    <row r="126" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C126" s="22"/>
-      <c r="D126" s="22"/>
-    </row>
-    <row r="127" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C127" s="22"/>
-      <c r="D127" s="22"/>
-    </row>
-    <row r="128" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C128" s="22"/>
-      <c r="D128" s="22"/>
-    </row>
-    <row r="129" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C129" s="22"/>
-      <c r="D129" s="22"/>
+      <c r="A59" s="3">
+        <v>55</v>
+      </c>
+      <c r="B59" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="C59" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="D59" s="25"/>
+      <c r="E59" s="15" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A60" s="3">
+        <v>56</v>
+      </c>
+      <c r="B60" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="C60" s="25" t="s">
+        <v>201</v>
+      </c>
+      <c r="D60" s="25"/>
+      <c r="E60" s="15" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A61" s="3">
+        <v>57</v>
+      </c>
+      <c r="B61" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="C61" s="25" t="s">
+        <v>182</v>
+      </c>
+      <c r="D61" s="25"/>
+      <c r="E61" s="15" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A62" s="3">
+        <v>58</v>
+      </c>
+      <c r="B62" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="C62" s="25" t="s">
+        <v>234</v>
+      </c>
+      <c r="D62" s="25"/>
+      <c r="E62" s="15" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A63" s="3">
+        <v>59</v>
+      </c>
+      <c r="B63" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="C63" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="D63" s="25"/>
+      <c r="E63" s="15" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C64" s="25"/>
+      <c r="D64" s="25"/>
+    </row>
+    <row r="65" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C65" s="25"/>
+      <c r="D65" s="25"/>
+    </row>
+    <row r="66" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C66" s="25"/>
+      <c r="D66" s="25"/>
+    </row>
+    <row r="67" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C67" s="25"/>
+      <c r="D67" s="25"/>
+    </row>
+    <row r="68" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C68" s="25"/>
+      <c r="D68" s="25"/>
+    </row>
+    <row r="69" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C69" s="25"/>
+      <c r="D69" s="25"/>
+    </row>
+    <row r="70" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C70" s="25"/>
+      <c r="D70" s="25"/>
+    </row>
+    <row r="71" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C71" s="25"/>
+      <c r="D71" s="25"/>
+    </row>
+    <row r="72" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C72" s="25"/>
+      <c r="D72" s="25"/>
+    </row>
+    <row r="73" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C73" s="25"/>
+      <c r="D73" s="25"/>
+    </row>
+    <row r="74" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C74" s="25"/>
+      <c r="D74" s="25"/>
+    </row>
+    <row r="75" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C75" s="25"/>
+      <c r="D75" s="25"/>
+    </row>
+    <row r="76" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C76" s="25"/>
+      <c r="D76" s="25"/>
+    </row>
+    <row r="77" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C77" s="25"/>
+      <c r="D77" s="25"/>
+    </row>
+    <row r="78" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C78" s="25"/>
+      <c r="D78" s="25"/>
+    </row>
+    <row r="79" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C79" s="25"/>
+      <c r="D79" s="25"/>
+    </row>
+    <row r="80" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C80" s="25"/>
+      <c r="D80" s="25"/>
+    </row>
+    <row r="81" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C81" s="25"/>
+      <c r="D81" s="25"/>
+    </row>
+    <row r="82" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C82" s="25"/>
+      <c r="D82" s="25"/>
+    </row>
+    <row r="83" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C83" s="25"/>
+      <c r="D83" s="25"/>
+    </row>
+    <row r="84" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C84" s="25"/>
+      <c r="D84" s="25"/>
+    </row>
+    <row r="85" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C85" s="25"/>
+      <c r="D85" s="25"/>
+    </row>
+    <row r="86" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C86" s="25"/>
+      <c r="D86" s="25"/>
+    </row>
+    <row r="87" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C87" s="25"/>
+      <c r="D87" s="25"/>
+    </row>
+    <row r="88" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C88" s="25"/>
+      <c r="D88" s="25"/>
+    </row>
+    <row r="89" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C89" s="25"/>
+      <c r="D89" s="25"/>
+    </row>
+    <row r="90" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C90" s="25"/>
+      <c r="D90" s="25"/>
+    </row>
+    <row r="91" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C91" s="25"/>
+      <c r="D91" s="25"/>
+    </row>
+    <row r="92" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C92" s="25"/>
+      <c r="D92" s="25"/>
+    </row>
+    <row r="93" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C93" s="25"/>
+      <c r="D93" s="25"/>
+    </row>
+    <row r="94" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C94" s="25"/>
+      <c r="D94" s="25"/>
+    </row>
+    <row r="95" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C95" s="25"/>
+      <c r="D95" s="25"/>
+    </row>
+    <row r="96" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C96" s="25"/>
+      <c r="D96" s="25"/>
+    </row>
+    <row r="97" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C97" s="25"/>
+      <c r="D97" s="25"/>
+    </row>
+    <row r="98" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C98" s="25"/>
+      <c r="D98" s="25"/>
+    </row>
+    <row r="99" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C99" s="25"/>
+      <c r="D99" s="25"/>
+    </row>
+    <row r="100" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C100" s="25"/>
+      <c r="D100" s="25"/>
+    </row>
+    <row r="101" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C101" s="25"/>
+      <c r="D101" s="25"/>
+    </row>
+    <row r="102" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C102" s="25"/>
+      <c r="D102" s="25"/>
+    </row>
+    <row r="103" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C103" s="25"/>
+      <c r="D103" s="25"/>
+    </row>
+    <row r="104" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C104" s="25"/>
+      <c r="D104" s="25"/>
+    </row>
+    <row r="105" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C105" s="25"/>
+      <c r="D105" s="25"/>
+    </row>
+    <row r="106" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C106" s="25"/>
+      <c r="D106" s="25"/>
+    </row>
+    <row r="107" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C107" s="25"/>
+      <c r="D107" s="25"/>
+    </row>
+    <row r="108" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C108" s="25"/>
+      <c r="D108" s="25"/>
+    </row>
+    <row r="109" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C109" s="25"/>
+      <c r="D109" s="25"/>
+    </row>
+    <row r="110" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C110" s="25"/>
+      <c r="D110" s="25"/>
+    </row>
+    <row r="111" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C111" s="25"/>
+      <c r="D111" s="25"/>
+    </row>
+    <row r="112" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C112" s="25"/>
+      <c r="D112" s="25"/>
+    </row>
+    <row r="113" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C113" s="25"/>
+      <c r="D113" s="25"/>
+    </row>
+    <row r="114" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C114" s="25"/>
+      <c r="D114" s="25"/>
+    </row>
+    <row r="115" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C115" s="25"/>
+      <c r="D115" s="25"/>
+    </row>
+    <row r="116" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C116" s="25"/>
+      <c r="D116" s="25"/>
+    </row>
+    <row r="117" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C117" s="25"/>
+      <c r="D117" s="25"/>
+    </row>
+    <row r="118" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C118" s="25"/>
+      <c r="D118" s="25"/>
+    </row>
+    <row r="119" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C119" s="25"/>
+      <c r="D119" s="25"/>
+    </row>
+    <row r="120" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C120" s="25"/>
+      <c r="D120" s="25"/>
+    </row>
+    <row r="121" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C121" s="25"/>
+      <c r="D121" s="25"/>
+    </row>
+    <row r="122" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C122" s="25"/>
+      <c r="D122" s="25"/>
+    </row>
+    <row r="123" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C123" s="25"/>
+      <c r="D123" s="25"/>
+    </row>
+    <row r="124" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C124" s="25"/>
+      <c r="D124" s="25"/>
+    </row>
+    <row r="125" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C125" s="25"/>
+      <c r="D125" s="25"/>
+    </row>
+    <row r="126" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C126" s="25"/>
+      <c r="D126" s="25"/>
+    </row>
+    <row r="127" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C127" s="25"/>
+      <c r="D127" s="25"/>
+    </row>
+    <row r="128" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C128" s="25"/>
+      <c r="D128" s="25"/>
+    </row>
+    <row r="129" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C129" s="25"/>
+      <c r="D129" s="25"/>
     </row>
     <row r="130" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C130" s="22"/>
-      <c r="D130" s="22"/>
+      <c r="C130" s="25"/>
+      <c r="D130" s="25"/>
     </row>
     <row r="131" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C131" s="22"/>
-      <c r="D131" s="22"/>
+      <c r="C131" s="25"/>
+      <c r="D131" s="25"/>
     </row>
     <row r="132" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C132" s="22"/>
-      <c r="D132" s="22"/>
+      <c r="C132" s="25"/>
+      <c r="D132" s="25"/>
     </row>
     <row r="133" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C133" s="22"/>
-      <c r="D133" s="22"/>
+      <c r="C133" s="25"/>
+      <c r="D133" s="25"/>
     </row>
     <row r="134" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C134" s="22"/>
-      <c r="D134" s="22"/>
+      <c r="C134" s="25"/>
+      <c r="D134" s="25"/>
     </row>
     <row r="135" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C135" s="22"/>
-      <c r="D135" s="22"/>
+      <c r="C135" s="25"/>
+      <c r="D135" s="25"/>
     </row>
     <row r="136" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C136" s="22"/>
-      <c r="D136" s="22"/>
+      <c r="C136" s="25"/>
+      <c r="D136" s="25"/>
     </row>
     <row r="137" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C137" s="22"/>
-      <c r="D137" s="22"/>
+      <c r="C137" s="25"/>
+      <c r="D137" s="25"/>
     </row>
     <row r="138" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C138" s="22"/>
-      <c r="D138" s="22"/>
+      <c r="C138" s="25"/>
+      <c r="D138" s="25"/>
     </row>
     <row r="139" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C139" s="22"/>
-      <c r="D139" s="22"/>
+      <c r="C139" s="25"/>
+      <c r="D139" s="25"/>
     </row>
     <row r="140" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C140" s="22"/>
-      <c r="D140" s="22"/>
+      <c r="C140" s="25"/>
+      <c r="D140" s="25"/>
     </row>
     <row r="141" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C141" s="22"/>
-      <c r="D141" s="22"/>
+      <c r="C141" s="25"/>
+      <c r="D141" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="141">
@@ -9302,1435 +12572,4 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J141"/>
-  <sheetViews>
-    <sheetView topLeftCell="A20" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C58" sqref="C58:D58"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="17.25" customWidth="1"/>
-    <col min="2" max="2" width="21.375" customWidth="1"/>
-    <col min="3" max="3" width="36.875" customWidth="1"/>
-    <col min="4" max="4" width="32.625" customWidth="1"/>
-    <col min="5" max="5" width="66.375" customWidth="1"/>
-    <col min="6" max="6" width="54.25" customWidth="1"/>
-    <col min="7" max="7" width="22.875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A1" s="25" t="s">
-        <v>226</v>
-      </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="25"/>
-      <c r="F1" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="16" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="5">
-        <v>20240228</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B3" s="15"/>
-      <c r="E3" s="15"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A4" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="26"/>
-      <c r="E4" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="J4" s="17" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="3">
-        <v>1</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>224</v>
-      </c>
-      <c r="C5" s="28" t="s">
-        <v>225</v>
-      </c>
-      <c r="D5" s="28"/>
-      <c r="E5" s="15" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="3">
-        <v>2</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="28"/>
-      <c r="E6" s="15" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="3">
-        <v>3</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="22"/>
-      <c r="E7" s="15" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="3">
-        <v>4</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="22"/>
-      <c r="E8" s="15" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="3">
-        <v>5</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="22"/>
-      <c r="E9" s="15" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="3">
-        <v>6</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="22"/>
-      <c r="E10" s="15" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="3">
-        <v>7</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="22"/>
-      <c r="E11" s="15" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="3">
-        <v>8</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="22"/>
-      <c r="E12" s="15" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="3">
-        <v>9</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="22"/>
-      <c r="E13" s="15" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="3">
-        <v>10</v>
-      </c>
-      <c r="B14" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="D14" s="22"/>
-      <c r="E14" s="15" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="3">
-        <v>11</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="22"/>
-      <c r="E15" s="15" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="3">
-        <v>12</v>
-      </c>
-      <c r="B16" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" s="22"/>
-      <c r="E16" s="15" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="3">
-        <v>13</v>
-      </c>
-      <c r="B17" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" s="22"/>
-      <c r="E17" s="15" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="3">
-        <v>14</v>
-      </c>
-      <c r="B18" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" s="23" t="s">
-        <v>134</v>
-      </c>
-      <c r="D18" s="22"/>
-      <c r="E18" s="15" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="3">
-        <v>15</v>
-      </c>
-      <c r="B19" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="D19" s="22"/>
-      <c r="E19" s="15" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="3">
-        <v>16</v>
-      </c>
-      <c r="B20" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="D20" s="22"/>
-      <c r="E20" s="15" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="3">
-        <v>17</v>
-      </c>
-      <c r="B21" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C21" s="23" t="s">
-        <v>127</v>
-      </c>
-      <c r="D21" s="22"/>
-      <c r="E21" s="15" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="3">
-        <v>18</v>
-      </c>
-      <c r="B22" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C22" s="23" t="s">
-        <v>128</v>
-      </c>
-      <c r="D22" s="23"/>
-      <c r="E22" s="15" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="3">
-        <v>19</v>
-      </c>
-      <c r="B23" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C23" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="D23" s="22"/>
-      <c r="E23" s="15" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="3">
-        <v>20</v>
-      </c>
-      <c r="B24" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="D24" s="22"/>
-      <c r="E24" s="15" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="3">
-        <v>21</v>
-      </c>
-      <c r="B25" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C25" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="D25" s="22"/>
-      <c r="E25" s="15" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="3">
-        <v>22</v>
-      </c>
-      <c r="B26" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C26" s="23" t="s">
-        <v>125</v>
-      </c>
-      <c r="D26" s="22"/>
-      <c r="E26" s="15" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="3">
-        <v>23</v>
-      </c>
-      <c r="B27" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C27" s="23" t="s">
-        <v>126</v>
-      </c>
-      <c r="D27" s="23"/>
-      <c r="E27" s="15" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="3">
-        <v>24</v>
-      </c>
-      <c r="B28" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C28" s="23" t="s">
-        <v>140</v>
-      </c>
-      <c r="D28" s="23"/>
-      <c r="E28" s="15" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="3">
-        <v>25</v>
-      </c>
-      <c r="B29" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C29" s="23" t="s">
-        <v>137</v>
-      </c>
-      <c r="D29" s="23"/>
-      <c r="E29" s="15" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="3">
-        <v>26</v>
-      </c>
-      <c r="B30" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C30" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="D30" s="22"/>
-      <c r="E30" s="15" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="3">
-        <v>27</v>
-      </c>
-      <c r="B31" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C31" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="D31" s="22"/>
-      <c r="E31" s="15" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="3">
-        <v>28</v>
-      </c>
-      <c r="B32" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C32" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="D32" s="22"/>
-      <c r="E32" s="15" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="3">
-        <v>29</v>
-      </c>
-      <c r="B33" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C33" s="23" t="s">
-        <v>148</v>
-      </c>
-      <c r="D33" s="22"/>
-      <c r="E33" s="15" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="3">
-        <v>30</v>
-      </c>
-      <c r="B34" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C34" s="23" t="s">
-        <v>141</v>
-      </c>
-      <c r="D34" s="23"/>
-      <c r="E34" s="15" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="3">
-        <v>31</v>
-      </c>
-      <c r="B35" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C35" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="D35" s="22"/>
-      <c r="E35" s="15" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="3">
-        <v>32</v>
-      </c>
-      <c r="B36" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C36" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="D36" s="22"/>
-      <c r="E36" s="15" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="3">
-        <v>33</v>
-      </c>
-      <c r="B37" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C37" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="D37" s="22"/>
-      <c r="E37" s="15" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="3">
-        <v>34</v>
-      </c>
-      <c r="B38" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C38" s="23" t="s">
-        <v>149</v>
-      </c>
-      <c r="D38" s="22"/>
-      <c r="E38" s="15" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="3">
-        <v>35</v>
-      </c>
-      <c r="B39" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C39" s="23" t="s">
-        <v>142</v>
-      </c>
-      <c r="D39" s="23"/>
-      <c r="E39" s="15" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="3">
-        <v>36</v>
-      </c>
-      <c r="B40" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C40" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="D40" s="22"/>
-      <c r="E40" s="15" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="3">
-        <v>37</v>
-      </c>
-      <c r="B41" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C41" s="23" t="s">
-        <v>105</v>
-      </c>
-      <c r="D41" s="22"/>
-      <c r="E41" s="15" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="3">
-        <v>38</v>
-      </c>
-      <c r="B42" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C42" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="D42" s="22"/>
-      <c r="E42" s="15" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="3">
-        <v>39</v>
-      </c>
-      <c r="B43" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C43" s="23" t="s">
-        <v>109</v>
-      </c>
-      <c r="D43" s="22"/>
-      <c r="E43" s="15" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="3">
-        <v>40</v>
-      </c>
-      <c r="B44" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C44" s="23" t="s">
-        <v>110</v>
-      </c>
-      <c r="D44" s="22"/>
-      <c r="E44" s="15" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="3">
-        <v>41</v>
-      </c>
-      <c r="B45" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C45" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="D45" s="22"/>
-      <c r="E45" s="15" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="3">
-        <v>42</v>
-      </c>
-      <c r="B46" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C46" s="23" t="s">
-        <v>116</v>
-      </c>
-      <c r="D46" s="22"/>
-      <c r="E46" s="15" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="3">
-        <v>43</v>
-      </c>
-      <c r="B47" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C47" s="23" t="s">
-        <v>117</v>
-      </c>
-      <c r="D47" s="22"/>
-      <c r="E47" s="15" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="3">
-        <v>44</v>
-      </c>
-      <c r="B48" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C48" s="23" t="s">
-        <v>118</v>
-      </c>
-      <c r="D48" s="22"/>
-      <c r="E48" s="15" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="3">
-        <v>45</v>
-      </c>
-      <c r="B49" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C49" s="23" t="s">
-        <v>172</v>
-      </c>
-      <c r="D49" s="22"/>
-      <c r="E49" s="15" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="3">
-        <v>46</v>
-      </c>
-      <c r="B50" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C50" s="23" t="s">
-        <v>173</v>
-      </c>
-      <c r="D50" s="22"/>
-      <c r="E50" s="15" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="3">
-        <v>47</v>
-      </c>
-      <c r="B51" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C51" s="23" t="s">
-        <v>143</v>
-      </c>
-      <c r="D51" s="22"/>
-      <c r="E51" s="15" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="3">
-        <v>48</v>
-      </c>
-      <c r="B52" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C52" s="23" t="s">
-        <v>144</v>
-      </c>
-      <c r="D52" s="22"/>
-      <c r="E52" s="15" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="3">
-        <v>49</v>
-      </c>
-      <c r="B53" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C53" s="23" t="s">
-        <v>146</v>
-      </c>
-      <c r="D53" s="22"/>
-      <c r="E53" s="15" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="3">
-        <v>50</v>
-      </c>
-      <c r="B54" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C54" s="23" t="s">
-        <v>150</v>
-      </c>
-      <c r="D54" s="22"/>
-      <c r="E54" s="15" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="3">
-        <v>51</v>
-      </c>
-      <c r="B55" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C55" s="23" t="s">
-        <v>174</v>
-      </c>
-      <c r="D55" s="22"/>
-      <c r="E55" s="15" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="3">
-        <v>52</v>
-      </c>
-      <c r="B56" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C56" s="23" t="s">
-        <v>175</v>
-      </c>
-      <c r="D56" s="22"/>
-      <c r="E56" s="15" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="3">
-        <v>53</v>
-      </c>
-      <c r="B57" s="15" t="s">
-        <v>231</v>
-      </c>
-      <c r="C57" s="22" t="s">
-        <v>176</v>
-      </c>
-      <c r="D57" s="22"/>
-      <c r="E57" s="15" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="3">
-        <v>54</v>
-      </c>
-      <c r="B58" s="15" t="s">
-        <v>231</v>
-      </c>
-      <c r="C58" s="22" t="s">
-        <v>177</v>
-      </c>
-      <c r="D58" s="22"/>
-      <c r="E58" s="15" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="3">
-        <v>55</v>
-      </c>
-      <c r="B59" s="15" t="s">
-        <v>231</v>
-      </c>
-      <c r="C59" s="22" t="s">
-        <v>177</v>
-      </c>
-      <c r="D59" s="22"/>
-      <c r="E59" s="15" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="3">
-        <v>56</v>
-      </c>
-      <c r="B60" s="15" t="s">
-        <v>231</v>
-      </c>
-      <c r="C60" s="22" t="s">
-        <v>201</v>
-      </c>
-      <c r="D60" s="22"/>
-      <c r="E60" s="15" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="3">
-        <v>57</v>
-      </c>
-      <c r="B61" s="15" t="s">
-        <v>181</v>
-      </c>
-      <c r="C61" s="22" t="s">
-        <v>182</v>
-      </c>
-      <c r="D61" s="22"/>
-      <c r="E61" s="15" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="3">
-        <v>58</v>
-      </c>
-      <c r="B62" s="15" t="s">
-        <v>231</v>
-      </c>
-      <c r="C62" s="22" t="s">
-        <v>234</v>
-      </c>
-      <c r="D62" s="22"/>
-      <c r="E62" s="15" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="3">
-        <v>59</v>
-      </c>
-      <c r="B63" s="15" t="s">
-        <v>231</v>
-      </c>
-      <c r="C63" s="22" t="s">
-        <v>237</v>
-      </c>
-      <c r="D63" s="22"/>
-      <c r="E63" s="15" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C64" s="22"/>
-      <c r="D64" s="22"/>
-    </row>
-    <row r="65" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C65" s="22"/>
-      <c r="D65" s="22"/>
-    </row>
-    <row r="66" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C66" s="22"/>
-      <c r="D66" s="22"/>
-    </row>
-    <row r="67" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C67" s="22"/>
-      <c r="D67" s="22"/>
-    </row>
-    <row r="68" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C68" s="22"/>
-      <c r="D68" s="22"/>
-    </row>
-    <row r="69" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C69" s="22"/>
-      <c r="D69" s="22"/>
-    </row>
-    <row r="70" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C70" s="22"/>
-      <c r="D70" s="22"/>
-    </row>
-    <row r="71" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C71" s="22"/>
-      <c r="D71" s="22"/>
-    </row>
-    <row r="72" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C72" s="22"/>
-      <c r="D72" s="22"/>
-    </row>
-    <row r="73" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C73" s="22"/>
-      <c r="D73" s="22"/>
-    </row>
-    <row r="74" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C74" s="22"/>
-      <c r="D74" s="22"/>
-    </row>
-    <row r="75" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C75" s="22"/>
-      <c r="D75" s="22"/>
-    </row>
-    <row r="76" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C76" s="22"/>
-      <c r="D76" s="22"/>
-    </row>
-    <row r="77" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C77" s="22"/>
-      <c r="D77" s="22"/>
-    </row>
-    <row r="78" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C78" s="22"/>
-      <c r="D78" s="22"/>
-    </row>
-    <row r="79" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C79" s="22"/>
-      <c r="D79" s="22"/>
-    </row>
-    <row r="80" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C80" s="22"/>
-      <c r="D80" s="22"/>
-    </row>
-    <row r="81" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C81" s="22"/>
-      <c r="D81" s="22"/>
-    </row>
-    <row r="82" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C82" s="22"/>
-      <c r="D82" s="22"/>
-    </row>
-    <row r="83" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C83" s="22"/>
-      <c r="D83" s="22"/>
-    </row>
-    <row r="84" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C84" s="22"/>
-      <c r="D84" s="22"/>
-    </row>
-    <row r="85" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C85" s="22"/>
-      <c r="D85" s="22"/>
-    </row>
-    <row r="86" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C86" s="22"/>
-      <c r="D86" s="22"/>
-    </row>
-    <row r="87" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C87" s="22"/>
-      <c r="D87" s="22"/>
-    </row>
-    <row r="88" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C88" s="22"/>
-      <c r="D88" s="22"/>
-    </row>
-    <row r="89" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C89" s="22"/>
-      <c r="D89" s="22"/>
-    </row>
-    <row r="90" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C90" s="22"/>
-      <c r="D90" s="22"/>
-    </row>
-    <row r="91" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C91" s="22"/>
-      <c r="D91" s="22"/>
-    </row>
-    <row r="92" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C92" s="22"/>
-      <c r="D92" s="22"/>
-    </row>
-    <row r="93" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C93" s="22"/>
-      <c r="D93" s="22"/>
-    </row>
-    <row r="94" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C94" s="22"/>
-      <c r="D94" s="22"/>
-    </row>
-    <row r="95" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C95" s="22"/>
-      <c r="D95" s="22"/>
-    </row>
-    <row r="96" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C96" s="22"/>
-      <c r="D96" s="22"/>
-    </row>
-    <row r="97" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C97" s="22"/>
-      <c r="D97" s="22"/>
-    </row>
-    <row r="98" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C98" s="22"/>
-      <c r="D98" s="22"/>
-    </row>
-    <row r="99" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C99" s="22"/>
-      <c r="D99" s="22"/>
-    </row>
-    <row r="100" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C100" s="22"/>
-      <c r="D100" s="22"/>
-    </row>
-    <row r="101" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C101" s="22"/>
-      <c r="D101" s="22"/>
-    </row>
-    <row r="102" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C102" s="22"/>
-      <c r="D102" s="22"/>
-    </row>
-    <row r="103" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C103" s="22"/>
-      <c r="D103" s="22"/>
-    </row>
-    <row r="104" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C104" s="22"/>
-      <c r="D104" s="22"/>
-    </row>
-    <row r="105" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C105" s="22"/>
-      <c r="D105" s="22"/>
-    </row>
-    <row r="106" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C106" s="22"/>
-      <c r="D106" s="22"/>
-    </row>
-    <row r="107" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C107" s="22"/>
-      <c r="D107" s="22"/>
-    </row>
-    <row r="108" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C108" s="22"/>
-      <c r="D108" s="22"/>
-    </row>
-    <row r="109" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C109" s="22"/>
-      <c r="D109" s="22"/>
-    </row>
-    <row r="110" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C110" s="22"/>
-      <c r="D110" s="22"/>
-    </row>
-    <row r="111" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C111" s="22"/>
-      <c r="D111" s="22"/>
-    </row>
-    <row r="112" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C112" s="22"/>
-      <c r="D112" s="22"/>
-    </row>
-    <row r="113" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C113" s="22"/>
-      <c r="D113" s="22"/>
-    </row>
-    <row r="114" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C114" s="22"/>
-      <c r="D114" s="22"/>
-    </row>
-    <row r="115" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C115" s="22"/>
-      <c r="D115" s="22"/>
-    </row>
-    <row r="116" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C116" s="22"/>
-      <c r="D116" s="22"/>
-    </row>
-    <row r="117" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C117" s="22"/>
-      <c r="D117" s="22"/>
-    </row>
-    <row r="118" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C118" s="22"/>
-      <c r="D118" s="22"/>
-    </row>
-    <row r="119" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C119" s="22"/>
-      <c r="D119" s="22"/>
-    </row>
-    <row r="120" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C120" s="22"/>
-      <c r="D120" s="22"/>
-    </row>
-    <row r="121" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C121" s="22"/>
-      <c r="D121" s="22"/>
-    </row>
-    <row r="122" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C122" s="22"/>
-      <c r="D122" s="22"/>
-    </row>
-    <row r="123" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C123" s="22"/>
-      <c r="D123" s="22"/>
-    </row>
-    <row r="124" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C124" s="22"/>
-      <c r="D124" s="22"/>
-    </row>
-    <row r="125" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C125" s="22"/>
-      <c r="D125" s="22"/>
-    </row>
-    <row r="126" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C126" s="22"/>
-      <c r="D126" s="22"/>
-    </row>
-    <row r="127" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C127" s="22"/>
-      <c r="D127" s="22"/>
-    </row>
-    <row r="128" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C128" s="22"/>
-      <c r="D128" s="22"/>
-    </row>
-    <row r="129" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C129" s="22"/>
-      <c r="D129" s="22"/>
-    </row>
-    <row r="130" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C130" s="22"/>
-      <c r="D130" s="22"/>
-    </row>
-    <row r="131" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C131" s="22"/>
-      <c r="D131" s="22"/>
-    </row>
-    <row r="132" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C132" s="22"/>
-      <c r="D132" s="22"/>
-    </row>
-    <row r="133" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C133" s="22"/>
-      <c r="D133" s="22"/>
-    </row>
-    <row r="134" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C134" s="22"/>
-      <c r="D134" s="22"/>
-    </row>
-    <row r="135" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C135" s="22"/>
-      <c r="D135" s="22"/>
-    </row>
-    <row r="136" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C136" s="22"/>
-      <c r="D136" s="22"/>
-    </row>
-    <row r="137" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C137" s="22"/>
-      <c r="D137" s="22"/>
-    </row>
-    <row r="138" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C138" s="22"/>
-      <c r="D138" s="22"/>
-    </row>
-    <row r="139" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C139" s="22"/>
-      <c r="D139" s="22"/>
-    </row>
-    <row r="140" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C140" s="22"/>
-      <c r="D140" s="22"/>
-    </row>
-    <row r="141" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C141" s="22"/>
-      <c r="D141" s="22"/>
-    </row>
-  </sheetData>
-  <mergeCells count="141">
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:E2"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="C96:D96"/>
-    <mergeCell ref="C97:D97"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="C89:D89"/>
-    <mergeCell ref="C90:D90"/>
-    <mergeCell ref="C91:D91"/>
-    <mergeCell ref="C104:D104"/>
-    <mergeCell ref="C105:D105"/>
-    <mergeCell ref="C106:D106"/>
-    <mergeCell ref="C107:D107"/>
-    <mergeCell ref="C108:D108"/>
-    <mergeCell ref="C109:D109"/>
-    <mergeCell ref="C98:D98"/>
-    <mergeCell ref="C99:D99"/>
-    <mergeCell ref="C100:D100"/>
-    <mergeCell ref="C101:D101"/>
-    <mergeCell ref="C102:D102"/>
-    <mergeCell ref="C103:D103"/>
-    <mergeCell ref="C119:D119"/>
-    <mergeCell ref="C120:D120"/>
-    <mergeCell ref="C121:D121"/>
-    <mergeCell ref="C110:D110"/>
-    <mergeCell ref="C111:D111"/>
-    <mergeCell ref="C112:D112"/>
-    <mergeCell ref="C113:D113"/>
-    <mergeCell ref="C114:D114"/>
-    <mergeCell ref="C115:D115"/>
-    <mergeCell ref="C140:D140"/>
-    <mergeCell ref="C141:D141"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C134:D134"/>
-    <mergeCell ref="C135:D135"/>
-    <mergeCell ref="C136:D136"/>
-    <mergeCell ref="C137:D137"/>
-    <mergeCell ref="C138:D138"/>
-    <mergeCell ref="C139:D139"/>
-    <mergeCell ref="C128:D128"/>
-    <mergeCell ref="C129:D129"/>
-    <mergeCell ref="C130:D130"/>
-    <mergeCell ref="C131:D131"/>
-    <mergeCell ref="C132:D132"/>
-    <mergeCell ref="C133:D133"/>
-    <mergeCell ref="C122:D122"/>
-    <mergeCell ref="C123:D123"/>
-    <mergeCell ref="C124:D124"/>
-    <mergeCell ref="C125:D125"/>
-    <mergeCell ref="C126:D126"/>
-    <mergeCell ref="C127:D127"/>
-    <mergeCell ref="C116:D116"/>
-    <mergeCell ref="C117:D117"/>
-    <mergeCell ref="C118:D118"/>
-  </mergeCells>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/アカウント登録　テストケース.xlsx
+++ b/アカウント登録　テストケース.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1422" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1507" uniqueCount="301">
   <si>
     <t>単体テストケース</t>
     <rPh sb="0" eb="2">
@@ -3370,16 +3370,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>スペースのみの入力でアカウント登録できてしまう</t>
-    <rPh sb="7" eb="9">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>期待する結果となった</t>
     <rPh sb="0" eb="2">
       <t>キタイ</t>
@@ -3424,31 +3414,6 @@
       <t>センイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>住所入力欄でスペースのみを入力して確認ボタンを押下</t>
-    <rPh sb="0" eb="2">
-      <t>ジュウショ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ラン</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>オウカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>PC/Windows11/chrome</t>
   </si>
   <si>
     <t>アカウント一覧画面</t>
@@ -4150,6 +4115,47 @@
     </rPh>
     <rPh sb="6" eb="8">
       <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エラー種類増やす、テーブルを改め、文字増えたときに枠外に出ないようにする、
+全角ハイフン入力不可直す、どのページからでも登録一覧ページにとべる</t>
+    <rPh sb="3" eb="5">
+      <t>シュルイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>アラタ</t>
+    </rPh>
+    <rPh sb="17" eb="20">
+      <t>モジフ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ワクガイ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>デ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ゼンカク</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>フカ</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>ナオ</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>イチラン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -4253,7 +4259,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4331,6 +4337,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4627,10 +4639,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J181"/>
+  <dimension ref="A1:J180"/>
   <sheetViews>
-    <sheetView topLeftCell="A142" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E154" sqref="E154"/>
+    <sheetView tabSelected="1" topLeftCell="A136" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B142" sqref="B142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4648,17 +4660,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27" t="s">
+      <c r="B1" s="29"/>
+      <c r="C1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="27"/>
+      <c r="E1" s="29"/>
       <c r="F1" s="4" t="s">
         <v>3</v>
       </c>
@@ -4667,11 +4679,11 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
+      <c r="A2" s="29"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
       <c r="F2" s="4" t="s">
         <v>4</v>
       </c>
@@ -4686,10 +4698,10 @@
       <c r="B4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="28"/>
+      <c r="D4" s="30"/>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
@@ -4716,10 +4728,10 @@
       <c r="B5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="29"/>
+      <c r="D5" s="31"/>
       <c r="E5" s="6" t="s">
         <v>120</v>
       </c>
@@ -4743,10 +4755,10 @@
       <c r="B6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="D6" s="24"/>
+      <c r="D6" s="27"/>
       <c r="E6" s="6" t="s">
         <v>121</v>
       </c>
@@ -4770,10 +4782,10 @@
       <c r="B7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="C7" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="D7" s="24"/>
+      <c r="D7" s="27"/>
       <c r="E7" s="6" t="s">
         <v>121</v>
       </c>
@@ -4797,10 +4809,10 @@
       <c r="B8" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="27" t="s">
         <v>98</v>
       </c>
-      <c r="D8" s="24"/>
+      <c r="D8" s="27"/>
       <c r="E8" s="6" t="s">
         <v>121</v>
       </c>
@@ -4824,10 +4836,10 @@
       <c r="B9" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="26" t="s">
+      <c r="C9" s="28" t="s">
         <v>99</v>
       </c>
-      <c r="D9" s="26"/>
+      <c r="D9" s="28"/>
       <c r="E9" s="6" t="s">
         <v>121</v>
       </c>
@@ -4851,10 +4863,10 @@
       <c r="B10" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="26" t="s">
+      <c r="C10" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="D10" s="26"/>
+      <c r="D10" s="28"/>
       <c r="E10" s="6" t="s">
         <v>121</v>
       </c>
@@ -4878,10 +4890,10 @@
       <c r="B11" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="26" t="s">
+      <c r="C11" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="D11" s="26"/>
+      <c r="D11" s="28"/>
       <c r="E11" s="6" t="s">
         <v>121</v>
       </c>
@@ -4905,10 +4917,10 @@
       <c r="B12" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="26" t="s">
+      <c r="C12" s="28" t="s">
         <v>95</v>
       </c>
-      <c r="D12" s="26"/>
+      <c r="D12" s="28"/>
       <c r="E12" s="6" t="s">
         <v>121</v>
       </c>
@@ -4932,10 +4944,10 @@
       <c r="B13" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="26" t="s">
+      <c r="C13" s="28" t="s">
         <v>102</v>
       </c>
-      <c r="D13" s="26"/>
+      <c r="D13" s="28"/>
       <c r="E13" s="6" t="s">
         <v>121</v>
       </c>
@@ -4959,10 +4971,10 @@
       <c r="B14" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="26" t="s">
+      <c r="C14" s="28" t="s">
         <v>103</v>
       </c>
-      <c r="D14" s="26"/>
+      <c r="D14" s="28"/>
       <c r="E14" s="6" t="s">
         <v>121</v>
       </c>
@@ -4986,10 +4998,10 @@
       <c r="B15" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="25" t="s">
+      <c r="C15" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="25"/>
+      <c r="D15" s="26"/>
       <c r="E15" s="6" t="s">
         <v>122</v>
       </c>
@@ -5013,10 +5025,10 @@
       <c r="B16" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="25" t="s">
+      <c r="C16" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="25"/>
+      <c r="D16" s="26"/>
       <c r="E16" s="6" t="s">
         <v>122</v>
       </c>
@@ -5040,10 +5052,10 @@
       <c r="B17" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="24" t="s">
+      <c r="C17" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="25"/>
+      <c r="D17" s="26"/>
       <c r="E17" s="6" t="s">
         <v>122</v>
       </c>
@@ -5067,10 +5079,10 @@
       <c r="B18" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="24" t="s">
+      <c r="C18" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="25"/>
+      <c r="D18" s="26"/>
       <c r="E18" s="6" t="s">
         <v>122</v>
       </c>
@@ -5094,10 +5106,10 @@
       <c r="B19" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="24" t="s">
+      <c r="C19" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="25"/>
+      <c r="D19" s="26"/>
       <c r="E19" s="6" t="s">
         <v>122</v>
       </c>
@@ -5121,10 +5133,10 @@
       <c r="B20" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="24" t="s">
+      <c r="C20" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="D20" s="25"/>
+      <c r="D20" s="26"/>
       <c r="E20" s="6" t="s">
         <v>122</v>
       </c>
@@ -5148,10 +5160,10 @@
       <c r="B21" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="24" t="s">
+      <c r="C21" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="D21" s="25"/>
+      <c r="D21" s="26"/>
       <c r="E21" s="6" t="s">
         <v>167</v>
       </c>
@@ -5175,10 +5187,10 @@
       <c r="B22" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="24" t="s">
+      <c r="C22" s="27" t="s">
         <v>136</v>
       </c>
-      <c r="D22" s="25"/>
+      <c r="D22" s="26"/>
       <c r="E22" s="6" t="s">
         <v>167</v>
       </c>
@@ -5202,10 +5214,10 @@
       <c r="B23" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C23" s="24" t="s">
+      <c r="C23" s="27" t="s">
         <v>135</v>
       </c>
-      <c r="D23" s="24"/>
+      <c r="D23" s="27"/>
       <c r="E23" s="6" t="s">
         <v>167</v>
       </c>
@@ -5229,10 +5241,10 @@
       <c r="B24" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C24" s="24" t="s">
+      <c r="C24" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="D24" s="25"/>
+      <c r="D24" s="26"/>
       <c r="E24" s="6" t="s">
         <v>122</v>
       </c>
@@ -5256,10 +5268,10 @@
       <c r="B25" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C25" s="24" t="s">
+      <c r="C25" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="D25" s="25"/>
+      <c r="D25" s="26"/>
       <c r="E25" s="6" t="s">
         <v>123</v>
       </c>
@@ -5283,10 +5295,10 @@
       <c r="B26" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C26" s="24" t="s">
+      <c r="C26" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="D26" s="25"/>
+      <c r="D26" s="26"/>
       <c r="E26" s="6" t="s">
         <v>167</v>
       </c>
@@ -5310,10 +5322,10 @@
       <c r="B27" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C27" s="24" t="s">
+      <c r="C27" s="27" t="s">
         <v>134</v>
       </c>
-      <c r="D27" s="25"/>
+      <c r="D27" s="26"/>
       <c r="E27" s="6" t="s">
         <v>167</v>
       </c>
@@ -5337,10 +5349,10 @@
       <c r="B28" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C28" s="24" t="s">
+      <c r="C28" s="27" t="s">
         <v>133</v>
       </c>
-      <c r="D28" s="24"/>
+      <c r="D28" s="27"/>
       <c r="E28" s="6" t="s">
         <v>168</v>
       </c>
@@ -5364,10 +5376,10 @@
       <c r="B29" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C29" s="24" t="s">
+      <c r="C29" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="D29" s="25"/>
+      <c r="D29" s="26"/>
       <c r="E29" s="6" t="s">
         <v>167</v>
       </c>
@@ -5391,10 +5403,10 @@
       <c r="B30" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C30" s="24" t="s">
+      <c r="C30" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="D30" s="25"/>
+      <c r="D30" s="26"/>
       <c r="E30" s="6" t="s">
         <v>167</v>
       </c>
@@ -5418,10 +5430,10 @@
       <c r="B31" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C31" s="24" t="s">
+      <c r="C31" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D31" s="25"/>
+      <c r="D31" s="26"/>
       <c r="E31" s="6" t="s">
         <v>122</v>
       </c>
@@ -5445,10 +5457,10 @@
       <c r="B32" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C32" s="24" t="s">
+      <c r="C32" s="27" t="s">
         <v>131</v>
       </c>
-      <c r="D32" s="25"/>
+      <c r="D32" s="26"/>
       <c r="E32" s="6" t="s">
         <v>167</v>
       </c>
@@ -5472,10 +5484,10 @@
       <c r="B33" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C33" s="24" t="s">
+      <c r="C33" s="27" t="s">
         <v>132</v>
       </c>
-      <c r="D33" s="24"/>
+      <c r="D33" s="27"/>
       <c r="E33" s="6" t="s">
         <v>167</v>
       </c>
@@ -5499,10 +5511,10 @@
       <c r="B34" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C34" s="24" t="s">
+      <c r="C34" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="D34" s="25"/>
+      <c r="D34" s="26"/>
       <c r="E34" s="6" t="s">
         <v>167</v>
       </c>
@@ -5526,10 +5538,10 @@
       <c r="B35" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C35" s="24" t="s">
+      <c r="C35" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="D35" s="25"/>
+      <c r="D35" s="26"/>
       <c r="E35" s="6" t="s">
         <v>167</v>
       </c>
@@ -5553,10 +5565,10 @@
       <c r="B36" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C36" s="24" t="s">
+      <c r="C36" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="D36" s="25"/>
+      <c r="D36" s="26"/>
       <c r="E36" s="6" t="s">
         <v>139</v>
       </c>
@@ -5580,10 +5592,10 @@
       <c r="B37" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C37" s="24" t="s">
+      <c r="C37" s="27" t="s">
         <v>129</v>
       </c>
-      <c r="D37" s="25"/>
+      <c r="D37" s="26"/>
       <c r="E37" s="6" t="s">
         <v>169</v>
       </c>
@@ -5607,10 +5619,10 @@
       <c r="B38" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C38" s="24" t="s">
+      <c r="C38" s="27" t="s">
         <v>130</v>
       </c>
-      <c r="D38" s="24"/>
+      <c r="D38" s="27"/>
       <c r="E38" s="6" t="s">
         <v>169</v>
       </c>
@@ -5634,10 +5646,10 @@
       <c r="B39" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C39" s="24" t="s">
+      <c r="C39" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="D39" s="25"/>
+      <c r="D39" s="26"/>
       <c r="E39" s="6" t="s">
         <v>169</v>
       </c>
@@ -5661,10 +5673,10 @@
       <c r="B40" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C40" s="24" t="s">
+      <c r="C40" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="D40" s="25"/>
+      <c r="D40" s="26"/>
       <c r="E40" s="6" t="s">
         <v>169</v>
       </c>
@@ -5688,10 +5700,10 @@
       <c r="B41" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C41" s="24" t="s">
+      <c r="C41" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="D41" s="25"/>
+      <c r="D41" s="26"/>
       <c r="E41" s="6" t="s">
         <v>169</v>
       </c>
@@ -5715,10 +5727,10 @@
       <c r="B42" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C42" s="24" t="s">
+      <c r="C42" s="27" t="s">
         <v>127</v>
       </c>
-      <c r="D42" s="25"/>
+      <c r="D42" s="26"/>
       <c r="E42" s="6" t="s">
         <v>122</v>
       </c>
@@ -5742,10 +5754,10 @@
       <c r="B43" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C43" s="24" t="s">
+      <c r="C43" s="27" t="s">
         <v>246</v>
       </c>
-      <c r="D43" s="24"/>
+      <c r="D43" s="27"/>
       <c r="E43" s="6" t="s">
         <v>124</v>
       </c>
@@ -5769,10 +5781,10 @@
       <c r="B44" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C44" s="24" t="s">
+      <c r="C44" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="D44" s="25"/>
+      <c r="D44" s="26"/>
       <c r="E44" s="6" t="s">
         <v>167</v>
       </c>
@@ -5796,10 +5808,10 @@
       <c r="B45" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C45" s="24" t="s">
+      <c r="C45" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="D45" s="25"/>
+      <c r="D45" s="26"/>
       <c r="E45" s="6" t="s">
         <v>167</v>
       </c>
@@ -5823,10 +5835,10 @@
       <c r="B46" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C46" s="24" t="s">
+      <c r="C46" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="D46" s="25"/>
+      <c r="D46" s="26"/>
       <c r="E46" s="6" t="s">
         <v>167</v>
       </c>
@@ -5850,10 +5862,10 @@
       <c r="B47" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C47" s="24" t="s">
+      <c r="C47" s="27" t="s">
         <v>125</v>
       </c>
-      <c r="D47" s="25"/>
+      <c r="D47" s="26"/>
       <c r="E47" s="6" t="s">
         <v>122</v>
       </c>
@@ -5877,10 +5889,10 @@
       <c r="B48" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C48" s="24" t="s">
+      <c r="C48" s="27" t="s">
         <v>126</v>
       </c>
-      <c r="D48" s="24"/>
+      <c r="D48" s="27"/>
       <c r="E48" s="15" t="s">
         <v>167</v>
       </c>
@@ -5904,10 +5916,10 @@
       <c r="B49" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C49" s="24" t="s">
+      <c r="C49" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="D49" s="25"/>
+      <c r="D49" s="26"/>
       <c r="E49" s="6" t="s">
         <v>167</v>
       </c>
@@ -5931,10 +5943,10 @@
       <c r="B50" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C50" s="24" t="s">
+      <c r="C50" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="D50" s="25"/>
+      <c r="D50" s="26"/>
       <c r="E50" s="6" t="s">
         <v>167</v>
       </c>
@@ -5958,10 +5970,10 @@
       <c r="B51" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C51" s="24" t="s">
+      <c r="C51" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="D51" s="25"/>
+      <c r="D51" s="26"/>
       <c r="E51" s="6" t="s">
         <v>167</v>
       </c>
@@ -5985,10 +5997,10 @@
       <c r="B52" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C52" s="24" t="s">
+      <c r="C52" s="27" t="s">
         <v>140</v>
       </c>
-      <c r="D52" s="24"/>
+      <c r="D52" s="27"/>
       <c r="E52" s="6" t="s">
         <v>139</v>
       </c>
@@ -6012,10 +6024,10 @@
       <c r="B53" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C53" s="24" t="s">
+      <c r="C53" s="27" t="s">
         <v>138</v>
       </c>
-      <c r="D53" s="25"/>
+      <c r="D53" s="26"/>
       <c r="E53" s="6" t="s">
         <v>167</v>
       </c>
@@ -6039,10 +6051,10 @@
       <c r="B54" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C54" s="24" t="s">
+      <c r="C54" s="27" t="s">
         <v>137</v>
       </c>
-      <c r="D54" s="24"/>
+      <c r="D54" s="27"/>
       <c r="E54" s="6" t="s">
         <v>167</v>
       </c>
@@ -6066,10 +6078,10 @@
       <c r="B55" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C55" s="24" t="s">
+      <c r="C55" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="D55" s="25"/>
+      <c r="D55" s="26"/>
       <c r="E55" s="6" t="s">
         <v>122</v>
       </c>
@@ -6093,10 +6105,10 @@
       <c r="B56" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C56" s="24" t="s">
+      <c r="C56" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="D56" s="25"/>
+      <c r="D56" s="26"/>
       <c r="E56" s="6" t="s">
         <v>147</v>
       </c>
@@ -6120,10 +6132,10 @@
       <c r="B57" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C57" s="24" t="s">
+      <c r="C57" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="D57" s="25"/>
+      <c r="D57" s="26"/>
       <c r="E57" s="6" t="s">
         <v>122</v>
       </c>
@@ -6147,10 +6159,10 @@
       <c r="B58" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C58" s="24" t="s">
+      <c r="C58" s="27" t="s">
         <v>148</v>
       </c>
-      <c r="D58" s="25"/>
+      <c r="D58" s="26"/>
       <c r="E58" s="6" t="s">
         <v>152</v>
       </c>
@@ -6174,10 +6186,10 @@
       <c r="B59" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C59" s="24" t="s">
+      <c r="C59" s="27" t="s">
         <v>141</v>
       </c>
-      <c r="D59" s="24"/>
+      <c r="D59" s="27"/>
       <c r="E59" s="6" t="s">
         <v>122</v>
       </c>
@@ -6201,10 +6213,10 @@
       <c r="B60" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C60" s="24" t="s">
+      <c r="C60" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="D60" s="25"/>
+      <c r="D60" s="26"/>
       <c r="E60" s="6" t="s">
         <v>122</v>
       </c>
@@ -6228,10 +6240,10 @@
       <c r="B61" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C61" s="24" t="s">
+      <c r="C61" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="D61" s="25"/>
+      <c r="D61" s="26"/>
       <c r="E61" s="6" t="s">
         <v>153</v>
       </c>
@@ -6255,10 +6267,10 @@
       <c r="B62" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C62" s="24" t="s">
+      <c r="C62" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="D62" s="25"/>
+      <c r="D62" s="26"/>
       <c r="E62" s="6" t="s">
         <v>154</v>
       </c>
@@ -6282,10 +6294,10 @@
       <c r="B63" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C63" s="24" t="s">
+      <c r="C63" s="27" t="s">
         <v>149</v>
       </c>
-      <c r="D63" s="25"/>
+      <c r="D63" s="26"/>
       <c r="E63" s="6" t="s">
         <v>119</v>
       </c>
@@ -6309,10 +6321,10 @@
       <c r="B64" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C64" s="24" t="s">
+      <c r="C64" s="27" t="s">
         <v>142</v>
       </c>
-      <c r="D64" s="24"/>
+      <c r="D64" s="27"/>
       <c r="E64" s="6" t="s">
         <v>122</v>
       </c>
@@ -6336,10 +6348,10 @@
       <c r="B65" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C65" s="24" t="s">
+      <c r="C65" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="D65" s="25"/>
+      <c r="D65" s="26"/>
       <c r="E65" s="6" t="s">
         <v>122</v>
       </c>
@@ -6363,10 +6375,10 @@
       <c r="B66" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C66" s="25" t="s">
+      <c r="C66" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="D66" s="25"/>
+      <c r="D66" s="26"/>
       <c r="E66" s="6" t="s">
         <v>156</v>
       </c>
@@ -6390,10 +6402,10 @@
       <c r="B67" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C67" s="25" t="s">
+      <c r="C67" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="D67" s="25"/>
+      <c r="D67" s="26"/>
       <c r="E67" s="6" t="s">
         <v>157</v>
       </c>
@@ -6417,10 +6429,10 @@
       <c r="B68" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C68" s="25" t="s">
+      <c r="C68" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="D68" s="25"/>
+      <c r="D68" s="26"/>
       <c r="E68" s="6" t="s">
         <v>158</v>
       </c>
@@ -6444,10 +6456,10 @@
       <c r="B69" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C69" s="25" t="s">
+      <c r="C69" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="D69" s="25"/>
+      <c r="D69" s="26"/>
       <c r="E69" s="6" t="s">
         <v>159</v>
       </c>
@@ -6471,10 +6483,10 @@
       <c r="B70" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C70" s="25" t="s">
+      <c r="C70" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="D70" s="25"/>
+      <c r="D70" s="26"/>
       <c r="E70" s="6" t="s">
         <v>160</v>
       </c>
@@ -6498,10 +6510,10 @@
       <c r="B71" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C71" s="25" t="s">
+      <c r="C71" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="D71" s="25"/>
+      <c r="D71" s="26"/>
       <c r="E71" s="6" t="s">
         <v>161</v>
       </c>
@@ -6525,10 +6537,10 @@
       <c r="B72" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C72" s="25" t="s">
+      <c r="C72" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="D72" s="25"/>
+      <c r="D72" s="26"/>
       <c r="E72" s="6" t="s">
         <v>162</v>
       </c>
@@ -6552,10 +6564,10 @@
       <c r="B73" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C73" s="25" t="s">
+      <c r="C73" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="D73" s="25"/>
+      <c r="D73" s="26"/>
       <c r="E73" s="6" t="s">
         <v>163</v>
       </c>
@@ -6579,10 +6591,10 @@
       <c r="B74" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C74" s="24" t="s">
+      <c r="C74" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="D74" s="25"/>
+      <c r="D74" s="26"/>
       <c r="E74" s="6" t="s">
         <v>164</v>
       </c>
@@ -6606,10 +6618,10 @@
       <c r="B75" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C75" s="25" t="s">
+      <c r="C75" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="D75" s="25"/>
+      <c r="D75" s="26"/>
       <c r="E75" s="6" t="s">
         <v>165</v>
       </c>
@@ -6633,10 +6645,10 @@
       <c r="B76" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C76" s="24" t="s">
+      <c r="C76" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="D76" s="25"/>
+      <c r="D76" s="26"/>
       <c r="E76" s="6" t="s">
         <v>155</v>
       </c>
@@ -6660,10 +6672,10 @@
       <c r="B77" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C77" s="24" t="s">
+      <c r="C77" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="D77" s="25"/>
+      <c r="D77" s="26"/>
       <c r="E77" s="6" t="s">
         <v>155</v>
       </c>
@@ -6687,10 +6699,10 @@
       <c r="B78" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C78" s="24" t="s">
+      <c r="C78" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="D78" s="25"/>
+      <c r="D78" s="26"/>
       <c r="E78" s="6" t="s">
         <v>155</v>
       </c>
@@ -6714,10 +6726,10 @@
       <c r="B79" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C79" s="24" t="s">
+      <c r="C79" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="D79" s="25"/>
+      <c r="D79" s="26"/>
       <c r="E79" s="6" t="s">
         <v>155</v>
       </c>
@@ -6741,10 +6753,10 @@
       <c r="B80" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C80" s="24" t="s">
+      <c r="C80" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="D80" s="25"/>
+      <c r="D80" s="26"/>
       <c r="E80" s="6" t="s">
         <v>155</v>
       </c>
@@ -6768,10 +6780,10 @@
       <c r="B81" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C81" s="24" t="s">
+      <c r="C81" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="D81" s="25"/>
+      <c r="D81" s="26"/>
       <c r="E81" s="6" t="s">
         <v>155</v>
       </c>
@@ -6795,10 +6807,10 @@
       <c r="B82" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C82" s="24" t="s">
+      <c r="C82" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="D82" s="25"/>
+      <c r="D82" s="26"/>
       <c r="E82" s="6" t="s">
         <v>155</v>
       </c>
@@ -6822,10 +6834,10 @@
       <c r="B83" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C83" s="24" t="s">
+      <c r="C83" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="D83" s="25"/>
+      <c r="D83" s="26"/>
       <c r="E83" s="6" t="s">
         <v>155</v>
       </c>
@@ -6849,10 +6861,10 @@
       <c r="B84" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C84" s="24" t="s">
+      <c r="C84" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="D84" s="25"/>
+      <c r="D84" s="26"/>
       <c r="E84" s="6" t="s">
         <v>155</v>
       </c>
@@ -6876,10 +6888,10 @@
       <c r="B85" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C85" s="24" t="s">
+      <c r="C85" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="D85" s="25"/>
+      <c r="D85" s="26"/>
       <c r="E85" s="6" t="s">
         <v>155</v>
       </c>
@@ -6903,10 +6915,10 @@
       <c r="B86" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C86" s="24" t="s">
+      <c r="C86" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="D86" s="25"/>
+      <c r="D86" s="26"/>
       <c r="E86" s="6" t="s">
         <v>155</v>
       </c>
@@ -6930,10 +6942,10 @@
       <c r="B87" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C87" s="24" t="s">
+      <c r="C87" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="D87" s="25"/>
+      <c r="D87" s="26"/>
       <c r="E87" s="6" t="s">
         <v>155</v>
       </c>
@@ -6957,10 +6969,10 @@
       <c r="B88" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C88" s="24" t="s">
+      <c r="C88" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="D88" s="25"/>
+      <c r="D88" s="26"/>
       <c r="E88" s="6" t="s">
         <v>155</v>
       </c>
@@ -6984,10 +6996,10 @@
       <c r="B89" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C89" s="24" t="s">
+      <c r="C89" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="D89" s="25"/>
+      <c r="D89" s="26"/>
       <c r="E89" s="6" t="s">
         <v>155</v>
       </c>
@@ -7011,10 +7023,10 @@
       <c r="B90" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C90" s="24" t="s">
+      <c r="C90" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="D90" s="25"/>
+      <c r="D90" s="26"/>
       <c r="E90" s="6" t="s">
         <v>155</v>
       </c>
@@ -7038,10 +7050,10 @@
       <c r="B91" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C91" s="24" t="s">
+      <c r="C91" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="D91" s="25"/>
+      <c r="D91" s="26"/>
       <c r="E91" s="6" t="s">
         <v>155</v>
       </c>
@@ -7065,10 +7077,10 @@
       <c r="B92" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C92" s="24" t="s">
+      <c r="C92" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="D92" s="25"/>
+      <c r="D92" s="26"/>
       <c r="E92" s="6" t="s">
         <v>155</v>
       </c>
@@ -7092,10 +7104,10 @@
       <c r="B93" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C93" s="24" t="s">
+      <c r="C93" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="D93" s="25"/>
+      <c r="D93" s="26"/>
       <c r="E93" s="6" t="s">
         <v>155</v>
       </c>
@@ -7119,10 +7131,10 @@
       <c r="B94" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C94" s="24" t="s">
+      <c r="C94" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="D94" s="25"/>
+      <c r="D94" s="26"/>
       <c r="E94" s="6" t="s">
         <v>155</v>
       </c>
@@ -7146,10 +7158,10 @@
       <c r="B95" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C95" s="24" t="s">
+      <c r="C95" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="D95" s="25"/>
+      <c r="D95" s="26"/>
       <c r="E95" s="6" t="s">
         <v>155</v>
       </c>
@@ -7173,10 +7185,10 @@
       <c r="B96" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C96" s="24" t="s">
+      <c r="C96" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="D96" s="25"/>
+      <c r="D96" s="26"/>
       <c r="E96" s="6" t="s">
         <v>155</v>
       </c>
@@ -7200,10 +7212,10 @@
       <c r="B97" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C97" s="24" t="s">
+      <c r="C97" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="D97" s="25"/>
+      <c r="D97" s="26"/>
       <c r="E97" s="6" t="s">
         <v>155</v>
       </c>
@@ -7227,10 +7239,10 @@
       <c r="B98" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C98" s="24" t="s">
+      <c r="C98" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="D98" s="25"/>
+      <c r="D98" s="26"/>
       <c r="E98" s="6" t="s">
         <v>155</v>
       </c>
@@ -7254,10 +7266,10 @@
       <c r="B99" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C99" s="24" t="s">
+      <c r="C99" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="D99" s="25"/>
+      <c r="D99" s="26"/>
       <c r="E99" s="6" t="s">
         <v>155</v>
       </c>
@@ -7281,10 +7293,10 @@
       <c r="B100" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C100" s="24" t="s">
+      <c r="C100" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="D100" s="25"/>
+      <c r="D100" s="26"/>
       <c r="E100" s="6" t="s">
         <v>155</v>
       </c>
@@ -7308,10 +7320,10 @@
       <c r="B101" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C101" s="24" t="s">
+      <c r="C101" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="D101" s="25"/>
+      <c r="D101" s="26"/>
       <c r="E101" s="6" t="s">
         <v>155</v>
       </c>
@@ -7335,10 +7347,10 @@
       <c r="B102" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C102" s="24" t="s">
+      <c r="C102" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="D102" s="25"/>
+      <c r="D102" s="26"/>
       <c r="E102" s="6" t="s">
         <v>155</v>
       </c>
@@ -7362,10 +7374,10 @@
       <c r="B103" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C103" s="24" t="s">
+      <c r="C103" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="D103" s="25"/>
+      <c r="D103" s="26"/>
       <c r="E103" s="6" t="s">
         <v>155</v>
       </c>
@@ -7389,10 +7401,10 @@
       <c r="B104" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C104" s="24" t="s">
+      <c r="C104" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="D104" s="25"/>
+      <c r="D104" s="26"/>
       <c r="E104" s="6" t="s">
         <v>155</v>
       </c>
@@ -7416,10 +7428,10 @@
       <c r="B105" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C105" s="24" t="s">
+      <c r="C105" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="D105" s="25"/>
+      <c r="D105" s="26"/>
       <c r="E105" s="6" t="s">
         <v>155</v>
       </c>
@@ -7443,10 +7455,10 @@
       <c r="B106" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C106" s="24" t="s">
+      <c r="C106" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="D106" s="25"/>
+      <c r="D106" s="26"/>
       <c r="E106" s="6" t="s">
         <v>155</v>
       </c>
@@ -7470,10 +7482,10 @@
       <c r="B107" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C107" s="24" t="s">
+      <c r="C107" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="D107" s="25"/>
+      <c r="D107" s="26"/>
       <c r="E107" s="6" t="s">
         <v>155</v>
       </c>
@@ -7497,10 +7509,10 @@
       <c r="B108" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C108" s="24" t="s">
+      <c r="C108" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="D108" s="25"/>
+      <c r="D108" s="26"/>
       <c r="E108" s="6" t="s">
         <v>155</v>
       </c>
@@ -7524,10 +7536,10 @@
       <c r="B109" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C109" s="24" t="s">
+      <c r="C109" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="D109" s="25"/>
+      <c r="D109" s="26"/>
       <c r="E109" s="6" t="s">
         <v>155</v>
       </c>
@@ -7551,10 +7563,10 @@
       <c r="B110" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C110" s="24" t="s">
+      <c r="C110" s="27" t="s">
         <v>93</v>
       </c>
-      <c r="D110" s="25"/>
+      <c r="D110" s="26"/>
       <c r="E110" s="6" t="s">
         <v>155</v>
       </c>
@@ -7578,10 +7590,10 @@
       <c r="B111" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C111" s="24" t="s">
+      <c r="C111" s="27" t="s">
         <v>94</v>
       </c>
-      <c r="D111" s="25"/>
+      <c r="D111" s="26"/>
       <c r="E111" s="6" t="s">
         <v>155</v>
       </c>
@@ -7605,10 +7617,10 @@
       <c r="B112" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C112" s="25" t="s">
+      <c r="C112" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="D112" s="25"/>
+      <c r="D112" s="26"/>
       <c r="E112" s="6" t="s">
         <v>166</v>
       </c>
@@ -7632,10 +7644,10 @@
       <c r="B113" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C113" s="24" t="s">
+      <c r="C113" s="27" t="s">
         <v>105</v>
       </c>
-      <c r="D113" s="25"/>
+      <c r="D113" s="26"/>
       <c r="E113" s="6" t="s">
         <v>167</v>
       </c>
@@ -7659,10 +7671,10 @@
       <c r="B114" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C114" s="24" t="s">
+      <c r="C114" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="D114" s="25"/>
+      <c r="D114" s="26"/>
       <c r="E114" s="6" t="s">
         <v>167</v>
       </c>
@@ -7686,10 +7698,10 @@
       <c r="B115" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C115" s="24" t="s">
+      <c r="C115" s="27" t="s">
         <v>107</v>
       </c>
-      <c r="D115" s="25"/>
+      <c r="D115" s="26"/>
       <c r="E115" s="6" t="s">
         <v>167</v>
       </c>
@@ -7713,10 +7725,10 @@
       <c r="B116" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C116" s="24" t="s">
+      <c r="C116" s="27" t="s">
         <v>108</v>
       </c>
-      <c r="D116" s="25"/>
+      <c r="D116" s="26"/>
       <c r="E116" s="6" t="s">
         <v>167</v>
       </c>
@@ -7740,10 +7752,10 @@
       <c r="B117" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C117" s="24" t="s">
+      <c r="C117" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="D117" s="25"/>
+      <c r="D117" s="26"/>
       <c r="E117" s="6" t="s">
         <v>167</v>
       </c>
@@ -7767,10 +7779,10 @@
       <c r="B118" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C118" s="24" t="s">
+      <c r="C118" s="27" t="s">
         <v>110</v>
       </c>
-      <c r="D118" s="25"/>
+      <c r="D118" s="26"/>
       <c r="E118" s="6" t="s">
         <v>167</v>
       </c>
@@ -7794,10 +7806,10 @@
       <c r="B119" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C119" s="24" t="s">
+      <c r="C119" s="27" t="s">
         <v>111</v>
       </c>
-      <c r="D119" s="25"/>
+      <c r="D119" s="26"/>
       <c r="E119" s="6" t="s">
         <v>167</v>
       </c>
@@ -7821,10 +7833,10 @@
       <c r="B120" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C120" s="24" t="s">
+      <c r="C120" s="27" t="s">
         <v>170</v>
       </c>
-      <c r="D120" s="25"/>
+      <c r="D120" s="26"/>
       <c r="E120" s="6" t="s">
         <v>167</v>
       </c>
@@ -7848,10 +7860,10 @@
       <c r="B121" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C121" s="24" t="s">
+      <c r="C121" s="27" t="s">
         <v>171</v>
       </c>
-      <c r="D121" s="25"/>
+      <c r="D121" s="26"/>
       <c r="E121" s="6" t="s">
         <v>167</v>
       </c>
@@ -7875,10 +7887,10 @@
       <c r="B122" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C122" s="24" t="s">
+      <c r="C122" s="27" t="s">
         <v>112</v>
       </c>
-      <c r="D122" s="25"/>
+      <c r="D122" s="26"/>
       <c r="E122" s="6" t="s">
         <v>167</v>
       </c>
@@ -7902,10 +7914,10 @@
       <c r="B123" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C123" s="24" t="s">
+      <c r="C123" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="D123" s="25"/>
+      <c r="D123" s="26"/>
       <c r="E123" s="6" t="s">
         <v>167</v>
       </c>
@@ -7929,10 +7941,10 @@
       <c r="B124" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C124" s="24" t="s">
+      <c r="C124" s="27" t="s">
         <v>114</v>
       </c>
-      <c r="D124" s="25"/>
+      <c r="D124" s="26"/>
       <c r="E124" s="6" t="s">
         <v>167</v>
       </c>
@@ -7956,10 +7968,10 @@
       <c r="B125" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C125" s="24" t="s">
+      <c r="C125" s="27" t="s">
         <v>115</v>
       </c>
-      <c r="D125" s="25"/>
+      <c r="D125" s="26"/>
       <c r="E125" s="6" t="s">
         <v>167</v>
       </c>
@@ -7983,10 +7995,10 @@
       <c r="B126" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C126" s="24" t="s">
+      <c r="C126" s="27" t="s">
         <v>116</v>
       </c>
-      <c r="D126" s="25"/>
+      <c r="D126" s="26"/>
       <c r="E126" s="6" t="s">
         <v>167</v>
       </c>
@@ -8010,10 +8022,10 @@
       <c r="B127" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C127" s="24" t="s">
+      <c r="C127" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="D127" s="25"/>
+      <c r="D127" s="26"/>
       <c r="E127" s="6" t="s">
         <v>167</v>
       </c>
@@ -8037,10 +8049,10 @@
       <c r="B128" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C128" s="24" t="s">
+      <c r="C128" s="27" t="s">
         <v>118</v>
       </c>
-      <c r="D128" s="25"/>
+      <c r="D128" s="26"/>
       <c r="E128" s="6" t="s">
         <v>167</v>
       </c>
@@ -8064,10 +8076,10 @@
       <c r="B129" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C129" s="24" t="s">
+      <c r="C129" s="27" t="s">
         <v>172</v>
       </c>
-      <c r="D129" s="25"/>
+      <c r="D129" s="26"/>
       <c r="E129" s="6" t="s">
         <v>120</v>
       </c>
@@ -8081,7 +8093,7 @@
         <v>20240306</v>
       </c>
       <c r="I129" s="21" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="J129" s="18" t="s">
         <v>241</v>
@@ -8094,10 +8106,10 @@
       <c r="B130" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C130" s="24" t="s">
+      <c r="C130" s="27" t="s">
         <v>173</v>
       </c>
-      <c r="D130" s="25"/>
+      <c r="D130" s="26"/>
       <c r="E130" s="6" t="s">
         <v>120</v>
       </c>
@@ -8111,7 +8123,7 @@
         <v>20240306</v>
       </c>
       <c r="I130" s="21" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="J130" s="18" t="s">
         <v>241</v>
@@ -8124,10 +8136,10 @@
       <c r="B131" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C131" s="24" t="s">
+      <c r="C131" s="27" t="s">
         <v>143</v>
       </c>
-      <c r="D131" s="25"/>
+      <c r="D131" s="26"/>
       <c r="E131" s="6" t="s">
         <v>120</v>
       </c>
@@ -8151,10 +8163,10 @@
       <c r="B132" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C132" s="24" t="s">
+      <c r="C132" s="27" t="s">
         <v>144</v>
       </c>
-      <c r="D132" s="25"/>
+      <c r="D132" s="26"/>
       <c r="E132" s="6" t="s">
         <v>120</v>
       </c>
@@ -8178,10 +8190,10 @@
       <c r="B133" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C133" s="24" t="s">
+      <c r="C133" s="27" t="s">
         <v>145</v>
       </c>
-      <c r="D133" s="25"/>
+      <c r="D133" s="26"/>
       <c r="E133" s="6" t="s">
         <v>167</v>
       </c>
@@ -8205,10 +8217,10 @@
       <c r="B134" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C134" s="24" t="s">
+      <c r="C134" s="27" t="s">
         <v>146</v>
       </c>
-      <c r="D134" s="25"/>
+      <c r="D134" s="26"/>
       <c r="E134" s="6" t="s">
         <v>167</v>
       </c>
@@ -8232,10 +8244,10 @@
       <c r="B135" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C135" s="24" t="s">
+      <c r="C135" s="27" t="s">
         <v>151</v>
       </c>
-      <c r="D135" s="25"/>
+      <c r="D135" s="26"/>
       <c r="E135" s="6" t="s">
         <v>167</v>
       </c>
@@ -8259,10 +8271,10 @@
       <c r="B136" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C136" s="24" t="s">
+      <c r="C136" s="27" t="s">
         <v>150</v>
       </c>
-      <c r="D136" s="25"/>
+      <c r="D136" s="26"/>
       <c r="E136" s="6" t="s">
         <v>167</v>
       </c>
@@ -8286,10 +8298,10 @@
       <c r="B137" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C137" s="24" t="s">
+      <c r="C137" s="27" t="s">
         <v>174</v>
       </c>
-      <c r="D137" s="25"/>
+      <c r="D137" s="26"/>
       <c r="E137" s="6" t="s">
         <v>120</v>
       </c>
@@ -8313,10 +8325,10 @@
       <c r="B138" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C138" s="24" t="s">
+      <c r="C138" s="27" t="s">
         <v>175</v>
       </c>
-      <c r="D138" s="25"/>
+      <c r="D138" s="26"/>
       <c r="E138" s="6" t="s">
         <v>120</v>
       </c>
@@ -8340,10 +8352,10 @@
       <c r="B139" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="C139" s="25" t="s">
+      <c r="C139" s="26" t="s">
         <v>176</v>
       </c>
-      <c r="D139" s="25"/>
+      <c r="D139" s="26"/>
       <c r="E139" s="6" t="s">
         <v>179</v>
       </c>
@@ -8367,10 +8379,10 @@
       <c r="B140" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="C140" s="25" t="s">
+      <c r="C140" s="26" t="s">
         <v>177</v>
       </c>
-      <c r="D140" s="25"/>
+      <c r="D140" s="26"/>
       <c r="E140" s="6" t="s">
         <v>180</v>
       </c>
@@ -8394,10 +8406,10 @@
       <c r="B141" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="C141" s="25" t="s">
+      <c r="C141" s="26" t="s">
         <v>182</v>
       </c>
-      <c r="D141" s="25"/>
+      <c r="D141" s="26"/>
       <c r="E141" s="6" t="s">
         <v>183</v>
       </c>
@@ -8418,42 +8430,54 @@
       <c r="A142" s="3">
         <v>138</v>
       </c>
-      <c r="B142" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="C142" s="25" t="s">
+      <c r="B142" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="C142" s="26" t="s">
         <v>254</v>
       </c>
-      <c r="D142" s="25"/>
-      <c r="E142" s="22" t="s">
-        <v>120</v>
-      </c>
-      <c r="F142" s="21" t="s">
-        <v>249</v>
-      </c>
-      <c r="G142" s="22" t="s">
+      <c r="D142" s="26"/>
+      <c r="E142" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="F142" s="25" t="s">
+        <v>242</v>
+      </c>
+      <c r="G142" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="H142" s="22">
-        <v>20240315</v>
-      </c>
-      <c r="J142" s="22" t="s">
-        <v>255</v>
+      <c r="H142" s="25">
+        <v>20240317</v>
+      </c>
+      <c r="J142" s="25" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="143" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A143" s="3">
         <v>139</v>
       </c>
-      <c r="B143" s="6" t="s">
+      <c r="B143" s="22" t="s">
+        <v>253</v>
+      </c>
+      <c r="C143" s="26" t="s">
         <v>256</v>
       </c>
-      <c r="C143" s="25" t="s">
-        <v>257</v>
-      </c>
-      <c r="D143" s="25"/>
-      <c r="E143" s="6" t="s">
-        <v>258</v>
+      <c r="D143" s="26"/>
+      <c r="E143" s="22" t="s">
+        <v>265</v>
+      </c>
+      <c r="F143" s="25" t="s">
+        <v>242</v>
+      </c>
+      <c r="G143" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="H143" s="25">
+        <v>20240317</v>
+      </c>
+      <c r="J143" s="25" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="144" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
@@ -8461,473 +8485,520 @@
         <v>140</v>
       </c>
       <c r="B144" s="22" t="s">
-        <v>256</v>
-      </c>
-      <c r="C144" s="25" t="s">
-        <v>259</v>
-      </c>
-      <c r="D144" s="25"/>
+        <v>253</v>
+      </c>
+      <c r="C144" s="26" t="s">
+        <v>257</v>
+      </c>
+      <c r="D144" s="26"/>
       <c r="E144" s="22" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+        <v>266</v>
+      </c>
+      <c r="F144" s="25" t="s">
+        <v>242</v>
+      </c>
+      <c r="G144" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="H144" s="25">
+        <v>20240317</v>
+      </c>
+      <c r="J144" s="25" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A145" s="3">
         <v>141</v>
       </c>
       <c r="B145" s="22" t="s">
-        <v>256</v>
-      </c>
-      <c r="C145" s="25" t="s">
-        <v>260</v>
-      </c>
-      <c r="D145" s="25"/>
+        <v>253</v>
+      </c>
+      <c r="C145" s="26" t="s">
+        <v>258</v>
+      </c>
+      <c r="D145" s="26"/>
       <c r="E145" s="22" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+        <v>266</v>
+      </c>
+      <c r="F145" s="25" t="s">
+        <v>242</v>
+      </c>
+      <c r="G145" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="H145" s="25">
+        <v>20240317</v>
+      </c>
+      <c r="J145" s="25" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A146" s="3">
         <v>142</v>
       </c>
       <c r="B146" s="22" t="s">
-        <v>256</v>
-      </c>
-      <c r="C146" s="25" t="s">
-        <v>261</v>
-      </c>
-      <c r="D146" s="25"/>
+        <v>253</v>
+      </c>
+      <c r="C146" s="26" t="s">
+        <v>259</v>
+      </c>
+      <c r="D146" s="26"/>
       <c r="E146" s="22" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+        <v>267</v>
+      </c>
+      <c r="F146" s="25" t="s">
+        <v>242</v>
+      </c>
+      <c r="G146" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="H146" s="25">
+        <v>20240317</v>
+      </c>
+      <c r="J146" s="25" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A147" s="3">
         <v>143</v>
       </c>
       <c r="B147" s="22" t="s">
-        <v>256</v>
-      </c>
-      <c r="C147" s="25" t="s">
-        <v>262</v>
-      </c>
-      <c r="D147" s="25"/>
+        <v>253</v>
+      </c>
+      <c r="C147" s="26" t="s">
+        <v>261</v>
+      </c>
+      <c r="D147" s="26"/>
       <c r="E147" s="22" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+        <v>268</v>
+      </c>
+      <c r="F147" s="25" t="s">
+        <v>242</v>
+      </c>
+      <c r="G147" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="H147" s="25">
+        <v>20240317</v>
+      </c>
+      <c r="J147" s="25" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A148" s="3">
         <v>144</v>
       </c>
       <c r="B148" s="22" t="s">
-        <v>256</v>
-      </c>
-      <c r="C148" s="25" t="s">
-        <v>264</v>
-      </c>
-      <c r="D148" s="25"/>
+        <v>253</v>
+      </c>
+      <c r="C148" s="26" t="s">
+        <v>260</v>
+      </c>
+      <c r="D148" s="26"/>
       <c r="E148" s="22" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+        <v>269</v>
+      </c>
+      <c r="F148" s="25" t="s">
+        <v>242</v>
+      </c>
+      <c r="G148" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="H148" s="25">
+        <v>20240317</v>
+      </c>
+      <c r="J148" s="25" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A149" s="3">
         <v>145</v>
       </c>
       <c r="B149" s="22" t="s">
-        <v>256</v>
-      </c>
-      <c r="C149" s="25" t="s">
-        <v>263</v>
-      </c>
-      <c r="D149" s="25"/>
+        <v>253</v>
+      </c>
+      <c r="C149" s="26" t="s">
+        <v>262</v>
+      </c>
+      <c r="D149" s="26"/>
       <c r="E149" s="22" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+        <v>270</v>
+      </c>
+      <c r="F149" s="25" t="s">
+        <v>242</v>
+      </c>
+      <c r="G149" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="H149" s="25">
+        <v>20240317</v>
+      </c>
+      <c r="J149" s="25" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A150" s="3">
         <v>146</v>
       </c>
       <c r="B150" s="22" t="s">
-        <v>256</v>
-      </c>
-      <c r="C150" s="25" t="s">
-        <v>265</v>
-      </c>
-      <c r="D150" s="25"/>
+        <v>253</v>
+      </c>
+      <c r="C150" s="26" t="s">
+        <v>263</v>
+      </c>
+      <c r="D150" s="26"/>
       <c r="E150" s="22" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+        <v>271</v>
+      </c>
+      <c r="F150" s="25" t="s">
+        <v>242</v>
+      </c>
+      <c r="G150" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="H150" s="25">
+        <v>20240317</v>
+      </c>
+      <c r="J150" s="25" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A151" s="3">
         <v>147</v>
       </c>
       <c r="B151" s="22" t="s">
-        <v>256</v>
-      </c>
-      <c r="C151" s="25" t="s">
-        <v>266</v>
-      </c>
-      <c r="D151" s="25"/>
+        <v>253</v>
+      </c>
+      <c r="C151" s="26" t="s">
+        <v>264</v>
+      </c>
+      <c r="D151" s="26"/>
       <c r="E151" s="22" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+        <v>272</v>
+      </c>
+      <c r="F151" s="25" t="s">
+        <v>242</v>
+      </c>
+      <c r="G151" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="H151" s="25">
+        <v>20240317</v>
+      </c>
+      <c r="J151" s="25" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A152" s="3">
         <v>148</v>
       </c>
       <c r="B152" s="22" t="s">
-        <v>256</v>
-      </c>
-      <c r="C152" s="25" t="s">
-        <v>267</v>
-      </c>
-      <c r="D152" s="25"/>
-      <c r="E152" s="22" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+        <v>253</v>
+      </c>
+      <c r="C152" s="26" t="s">
+        <v>298</v>
+      </c>
+      <c r="D152" s="26"/>
+      <c r="E152" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="F152" s="25" t="s">
+        <v>242</v>
+      </c>
+      <c r="G152" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="H152" s="25">
+        <v>20240317</v>
+      </c>
+      <c r="J152" s="25" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A153" s="3">
         <v>149</v>
       </c>
       <c r="B153" s="22" t="s">
-        <v>256</v>
-      </c>
-      <c r="C153" s="25" t="s">
-        <v>301</v>
-      </c>
-      <c r="D153" s="25"/>
-      <c r="E153" s="6" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+        <v>253</v>
+      </c>
+      <c r="C153" s="26"/>
+      <c r="D153" s="26"/>
+      <c r="E153" s="24" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A154" s="3">
         <v>150</v>
       </c>
       <c r="B154" s="22" t="s">
-        <v>256</v>
-      </c>
-      <c r="C154" s="25"/>
-      <c r="D154" s="25"/>
-    </row>
-    <row r="155" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+        <v>253</v>
+      </c>
+      <c r="C154" s="26"/>
+      <c r="D154" s="26"/>
+    </row>
+    <row r="155" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A155" s="3">
         <v>151</v>
       </c>
       <c r="B155" s="22" t="s">
-        <v>256</v>
-      </c>
-      <c r="C155" s="25"/>
-      <c r="D155" s="25"/>
-    </row>
-    <row r="156" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+        <v>253</v>
+      </c>
+      <c r="C155" s="26"/>
+      <c r="D155" s="26"/>
+    </row>
+    <row r="156" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A156" s="3">
         <v>152</v>
       </c>
       <c r="B156" s="22" t="s">
-        <v>256</v>
-      </c>
-      <c r="C156" s="25"/>
-      <c r="D156" s="25"/>
-    </row>
-    <row r="157" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+        <v>253</v>
+      </c>
+      <c r="C156" s="26"/>
+      <c r="D156" s="26"/>
+    </row>
+    <row r="157" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A157" s="3">
         <v>153</v>
       </c>
       <c r="B157" s="22" t="s">
-        <v>256</v>
-      </c>
-      <c r="C157" s="25"/>
-      <c r="D157" s="25"/>
-    </row>
-    <row r="158" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+        <v>253</v>
+      </c>
+      <c r="C157" s="26"/>
+      <c r="D157" s="26"/>
+    </row>
+    <row r="158" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A158" s="3">
         <v>154</v>
       </c>
       <c r="B158" s="22" t="s">
-        <v>256</v>
-      </c>
-      <c r="C158" s="25"/>
-      <c r="D158" s="25"/>
-    </row>
-    <row r="159" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+        <v>253</v>
+      </c>
+      <c r="C158" s="26"/>
+      <c r="D158" s="26"/>
+    </row>
+    <row r="159" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A159" s="3">
         <v>155</v>
       </c>
       <c r="B159" s="22" t="s">
-        <v>256</v>
-      </c>
-      <c r="C159" s="25"/>
-      <c r="D159" s="25"/>
-    </row>
-    <row r="160" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+        <v>253</v>
+      </c>
+      <c r="C159" s="26"/>
+      <c r="D159" s="26"/>
+    </row>
+    <row r="160" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A160" s="3">
         <v>156</v>
       </c>
       <c r="B160" s="22" t="s">
-        <v>256</v>
-      </c>
-      <c r="C160" s="25"/>
-      <c r="D160" s="25"/>
+        <v>253</v>
+      </c>
+      <c r="C160" s="26"/>
+      <c r="D160" s="26"/>
     </row>
     <row r="161" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A161" s="3">
         <v>157</v>
       </c>
       <c r="B161" s="22" t="s">
-        <v>256</v>
-      </c>
-      <c r="C161" s="25"/>
-      <c r="D161" s="25"/>
+        <v>253</v>
+      </c>
+      <c r="C161" s="26"/>
+      <c r="D161" s="26"/>
     </row>
     <row r="162" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A162" s="3">
         <v>158</v>
       </c>
       <c r="B162" s="22" t="s">
-        <v>256</v>
-      </c>
-      <c r="C162" s="25"/>
-      <c r="D162" s="25"/>
+        <v>253</v>
+      </c>
+      <c r="C162" s="26"/>
+      <c r="D162" s="26"/>
     </row>
     <row r="163" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A163" s="3">
         <v>159</v>
       </c>
-      <c r="B163" s="22" t="s">
-        <v>256</v>
-      </c>
-      <c r="C163" s="25"/>
-      <c r="D163" s="25"/>
+      <c r="C163" s="26"/>
+      <c r="D163" s="26"/>
     </row>
     <row r="164" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A164" s="3">
         <v>160</v>
       </c>
-      <c r="C164" s="25"/>
-      <c r="D164" s="25"/>
+      <c r="C164" s="26"/>
+      <c r="D164" s="26"/>
     </row>
     <row r="165" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A165" s="3">
         <v>161</v>
       </c>
-      <c r="C165" s="25"/>
-      <c r="D165" s="25"/>
+      <c r="C165" s="26"/>
+      <c r="D165" s="26"/>
     </row>
     <row r="166" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A166" s="3">
         <v>162</v>
       </c>
-      <c r="C166" s="25"/>
-      <c r="D166" s="25"/>
+      <c r="C166" s="26"/>
+      <c r="D166" s="26"/>
     </row>
     <row r="167" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A167" s="3">
         <v>163</v>
       </c>
-      <c r="C167" s="25"/>
-      <c r="D167" s="25"/>
+      <c r="C167" s="26"/>
+      <c r="D167" s="26"/>
     </row>
     <row r="168" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A168" s="3">
         <v>164</v>
       </c>
-      <c r="C168" s="25"/>
-      <c r="D168" s="25"/>
+      <c r="C168" s="26"/>
+      <c r="D168" s="26"/>
     </row>
     <row r="169" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A169" s="3">
         <v>165</v>
       </c>
-      <c r="C169" s="25"/>
-      <c r="D169" s="25"/>
+      <c r="C169" s="26"/>
+      <c r="D169" s="26"/>
     </row>
     <row r="170" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A170" s="3">
         <v>166</v>
       </c>
-      <c r="C170" s="25"/>
-      <c r="D170" s="25"/>
+      <c r="C170" s="26"/>
+      <c r="D170" s="26"/>
     </row>
     <row r="171" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A171" s="3">
         <v>167</v>
       </c>
-      <c r="C171" s="25"/>
-      <c r="D171" s="25"/>
+      <c r="C171" s="26"/>
+      <c r="D171" s="26"/>
     </row>
     <row r="172" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A172" s="3">
         <v>168</v>
       </c>
-      <c r="C172" s="25"/>
-      <c r="D172" s="25"/>
+      <c r="C172" s="26"/>
+      <c r="D172" s="26"/>
     </row>
     <row r="173" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A173" s="3">
         <v>169</v>
       </c>
-      <c r="C173" s="25"/>
-      <c r="D173" s="25"/>
+      <c r="C173" s="26"/>
+      <c r="D173" s="26"/>
     </row>
     <row r="174" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A174" s="3">
         <v>170</v>
       </c>
-      <c r="C174" s="25"/>
-      <c r="D174" s="25"/>
+      <c r="C174" s="26"/>
+      <c r="D174" s="26"/>
     </row>
     <row r="175" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A175" s="3">
         <v>171</v>
       </c>
-      <c r="C175" s="25"/>
-      <c r="D175" s="25"/>
+      <c r="C175" s="26"/>
+      <c r="D175" s="26"/>
     </row>
     <row r="176" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A176" s="3">
         <v>172</v>
       </c>
-      <c r="C176" s="25"/>
-      <c r="D176" s="25"/>
+      <c r="C176" s="26"/>
+      <c r="D176" s="26"/>
     </row>
     <row r="177" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A177" s="3">
         <v>173</v>
       </c>
-      <c r="C177" s="25"/>
-      <c r="D177" s="25"/>
+      <c r="C177" s="26"/>
+      <c r="D177" s="26"/>
     </row>
     <row r="178" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A178" s="3">
-        <v>174</v>
-      </c>
-      <c r="C178" s="25"/>
-      <c r="D178" s="25"/>
+      <c r="C178" s="26"/>
+      <c r="D178" s="26"/>
     </row>
     <row r="179" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C179" s="25"/>
-      <c r="D179" s="25"/>
+      <c r="C179" s="26"/>
+      <c r="D179" s="26"/>
     </row>
     <row r="180" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C180" s="25"/>
-      <c r="D180" s="25"/>
-    </row>
-    <row r="181" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C181" s="25"/>
-      <c r="D181" s="25"/>
+      <c r="C180" s="26"/>
+      <c r="D180" s="26"/>
     </row>
   </sheetData>
-  <mergeCells count="181">
-    <mergeCell ref="C161:D161"/>
-    <mergeCell ref="C160:D160"/>
-    <mergeCell ref="C166:D166"/>
-    <mergeCell ref="C165:D165"/>
-    <mergeCell ref="C164:D164"/>
-    <mergeCell ref="C163:D163"/>
-    <mergeCell ref="C162:D162"/>
-    <mergeCell ref="C171:D171"/>
-    <mergeCell ref="C170:D170"/>
-    <mergeCell ref="C169:D169"/>
-    <mergeCell ref="C168:D168"/>
-    <mergeCell ref="C167:D167"/>
-    <mergeCell ref="C176:D176"/>
-    <mergeCell ref="C175:D175"/>
-    <mergeCell ref="C174:D174"/>
-    <mergeCell ref="C173:D173"/>
-    <mergeCell ref="C172:D172"/>
-    <mergeCell ref="C181:D181"/>
-    <mergeCell ref="C180:D180"/>
-    <mergeCell ref="C179:D179"/>
-    <mergeCell ref="C178:D178"/>
-    <mergeCell ref="C177:D177"/>
-    <mergeCell ref="C145:D145"/>
-    <mergeCell ref="C144:D144"/>
-    <mergeCell ref="C143:D143"/>
-    <mergeCell ref="C142:D142"/>
-    <mergeCell ref="C159:D159"/>
-    <mergeCell ref="C158:D158"/>
-    <mergeCell ref="C157:D157"/>
-    <mergeCell ref="C156:D156"/>
-    <mergeCell ref="C155:D155"/>
-    <mergeCell ref="C154:D154"/>
-    <mergeCell ref="C153:D153"/>
-    <mergeCell ref="C152:D152"/>
-    <mergeCell ref="C151:D151"/>
-    <mergeCell ref="C150:D150"/>
-    <mergeCell ref="C149:D149"/>
-    <mergeCell ref="C148:D148"/>
-    <mergeCell ref="C147:D147"/>
-    <mergeCell ref="C146:D146"/>
-    <mergeCell ref="C127:D127"/>
-    <mergeCell ref="C126:D126"/>
-    <mergeCell ref="C125:D125"/>
-    <mergeCell ref="C124:D124"/>
-    <mergeCell ref="C141:D141"/>
-    <mergeCell ref="C140:D140"/>
-    <mergeCell ref="C139:D139"/>
-    <mergeCell ref="C138:D138"/>
-    <mergeCell ref="C137:D137"/>
-    <mergeCell ref="C136:D136"/>
-    <mergeCell ref="C135:D135"/>
-    <mergeCell ref="C134:D134"/>
-    <mergeCell ref="C133:D133"/>
-    <mergeCell ref="C132:D132"/>
-    <mergeCell ref="C131:D131"/>
-    <mergeCell ref="C130:D130"/>
-    <mergeCell ref="C129:D129"/>
-    <mergeCell ref="C128:D128"/>
-    <mergeCell ref="C111:D111"/>
-    <mergeCell ref="C110:D110"/>
-    <mergeCell ref="C109:D109"/>
-    <mergeCell ref="C123:D123"/>
-    <mergeCell ref="C122:D122"/>
-    <mergeCell ref="C121:D121"/>
-    <mergeCell ref="C120:D120"/>
-    <mergeCell ref="C119:D119"/>
-    <mergeCell ref="C118:D118"/>
-    <mergeCell ref="C117:D117"/>
-    <mergeCell ref="C116:D116"/>
-    <mergeCell ref="C115:D115"/>
-    <mergeCell ref="C114:D114"/>
-    <mergeCell ref="C113:D113"/>
-    <mergeCell ref="C112:D112"/>
-    <mergeCell ref="C99:D99"/>
-    <mergeCell ref="C98:D98"/>
-    <mergeCell ref="C97:D97"/>
-    <mergeCell ref="C108:D108"/>
-    <mergeCell ref="C107:D107"/>
-    <mergeCell ref="C106:D106"/>
-    <mergeCell ref="C105:D105"/>
-    <mergeCell ref="C104:D104"/>
-    <mergeCell ref="C103:D103"/>
-    <mergeCell ref="C102:D102"/>
-    <mergeCell ref="C101:D101"/>
-    <mergeCell ref="C100:D100"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="C96:D96"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="C91:D91"/>
-    <mergeCell ref="C90:D90"/>
-    <mergeCell ref="C89:D89"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="C83:D83"/>
+  <mergeCells count="180">
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:E2"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="C70:D70"/>
     <mergeCell ref="C69:D69"/>
     <mergeCell ref="C68:D68"/>
     <mergeCell ref="C67:D67"/>
@@ -8952,60 +9023,108 @@
     <mergeCell ref="C51:D51"/>
     <mergeCell ref="C50:D50"/>
     <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:E2"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="C90:D90"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="C99:D99"/>
+    <mergeCell ref="C98:D98"/>
+    <mergeCell ref="C97:D97"/>
+    <mergeCell ref="C108:D108"/>
+    <mergeCell ref="C107:D107"/>
+    <mergeCell ref="C106:D106"/>
+    <mergeCell ref="C105:D105"/>
+    <mergeCell ref="C104:D104"/>
+    <mergeCell ref="C103:D103"/>
+    <mergeCell ref="C102:D102"/>
+    <mergeCell ref="C101:D101"/>
+    <mergeCell ref="C100:D100"/>
+    <mergeCell ref="C111:D111"/>
+    <mergeCell ref="C110:D110"/>
+    <mergeCell ref="C109:D109"/>
+    <mergeCell ref="C123:D123"/>
+    <mergeCell ref="C122:D122"/>
+    <mergeCell ref="C121:D121"/>
+    <mergeCell ref="C120:D120"/>
+    <mergeCell ref="C119:D119"/>
+    <mergeCell ref="C118:D118"/>
+    <mergeCell ref="C117:D117"/>
+    <mergeCell ref="C116:D116"/>
+    <mergeCell ref="C115:D115"/>
+    <mergeCell ref="C114:D114"/>
+    <mergeCell ref="C113:D113"/>
+    <mergeCell ref="C112:D112"/>
+    <mergeCell ref="C127:D127"/>
+    <mergeCell ref="C126:D126"/>
+    <mergeCell ref="C125:D125"/>
+    <mergeCell ref="C124:D124"/>
+    <mergeCell ref="C141:D141"/>
+    <mergeCell ref="C140:D140"/>
+    <mergeCell ref="C139:D139"/>
+    <mergeCell ref="C138:D138"/>
+    <mergeCell ref="C137:D137"/>
+    <mergeCell ref="C136:D136"/>
+    <mergeCell ref="C135:D135"/>
+    <mergeCell ref="C134:D134"/>
+    <mergeCell ref="C133:D133"/>
+    <mergeCell ref="C132:D132"/>
+    <mergeCell ref="C131:D131"/>
+    <mergeCell ref="C130:D130"/>
+    <mergeCell ref="C129:D129"/>
+    <mergeCell ref="C128:D128"/>
+    <mergeCell ref="C144:D144"/>
+    <mergeCell ref="C143:D143"/>
+    <mergeCell ref="C142:D142"/>
+    <mergeCell ref="C158:D158"/>
+    <mergeCell ref="C157:D157"/>
+    <mergeCell ref="C156:D156"/>
+    <mergeCell ref="C155:D155"/>
+    <mergeCell ref="C154:D154"/>
+    <mergeCell ref="C153:D153"/>
+    <mergeCell ref="C152:D152"/>
+    <mergeCell ref="C151:D151"/>
+    <mergeCell ref="C150:D150"/>
+    <mergeCell ref="C149:D149"/>
+    <mergeCell ref="C148:D148"/>
+    <mergeCell ref="C147:D147"/>
+    <mergeCell ref="C146:D146"/>
+    <mergeCell ref="C145:D145"/>
+    <mergeCell ref="C175:D175"/>
+    <mergeCell ref="C174:D174"/>
+    <mergeCell ref="C173:D173"/>
+    <mergeCell ref="C172:D172"/>
+    <mergeCell ref="C171:D171"/>
+    <mergeCell ref="C180:D180"/>
+    <mergeCell ref="C179:D179"/>
+    <mergeCell ref="C178:D178"/>
+    <mergeCell ref="C177:D177"/>
+    <mergeCell ref="C176:D176"/>
+    <mergeCell ref="C160:D160"/>
+    <mergeCell ref="C159:D159"/>
+    <mergeCell ref="C165:D165"/>
+    <mergeCell ref="C164:D164"/>
+    <mergeCell ref="C163:D163"/>
+    <mergeCell ref="C162:D162"/>
+    <mergeCell ref="C161:D161"/>
+    <mergeCell ref="C170:D170"/>
+    <mergeCell ref="C169:D169"/>
+    <mergeCell ref="C168:D168"/>
+    <mergeCell ref="C167:D167"/>
+    <mergeCell ref="C166:D166"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9017,8 +9136,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E68" sqref="E68"/>
+    <sheetView topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J49" sqref="J49:J67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -9036,17 +9155,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="29" t="s">
         <v>184</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27" t="s">
+      <c r="B1" s="29"/>
+      <c r="C1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="27"/>
+      <c r="E1" s="29"/>
       <c r="F1" s="11" t="s">
         <v>3</v>
       </c>
@@ -9055,11 +9174,11 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
+      <c r="A2" s="29"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
       <c r="F2" s="11" t="s">
         <v>4</v>
       </c>
@@ -9077,10 +9196,10 @@
       <c r="B4" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="28"/>
+      <c r="D4" s="30"/>
       <c r="E4" s="14" t="s">
         <v>11</v>
       </c>
@@ -9107,18 +9226,18 @@
       <c r="B5" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="25"/>
+      <c r="D5" s="26"/>
       <c r="E5" s="10" t="s">
         <v>186</v>
       </c>
       <c r="F5" s="21" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G5" s="21" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H5" s="21">
         <v>20240306</v>
@@ -9134,18 +9253,18 @@
       <c r="B6" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="25"/>
+      <c r="D6" s="26"/>
       <c r="E6" s="10" t="s">
         <v>187</v>
       </c>
       <c r="F6" s="21" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G6" s="21" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H6" s="21">
         <v>20240306</v>
@@ -9161,18 +9280,18 @@
       <c r="B7" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="C7" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="25"/>
+      <c r="D7" s="26"/>
       <c r="E7" s="10" t="s">
         <v>188</v>
       </c>
       <c r="F7" s="21" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G7" s="21" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H7" s="21">
         <v>20240306</v>
@@ -9188,18 +9307,18 @@
       <c r="B8" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="25"/>
+      <c r="D8" s="26"/>
       <c r="E8" s="10" t="s">
         <v>189</v>
       </c>
       <c r="F8" s="21" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G8" s="21" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H8" s="21">
         <v>20240306</v>
@@ -9215,18 +9334,18 @@
       <c r="B9" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="C9" s="24" t="s">
+      <c r="C9" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="25"/>
+      <c r="D9" s="26"/>
       <c r="E9" s="10" t="s">
         <v>190</v>
       </c>
       <c r="F9" s="21" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G9" s="21" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H9" s="21">
         <v>20240306</v>
@@ -9242,18 +9361,18 @@
       <c r="B10" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="C10" s="24" t="s">
+      <c r="C10" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="25"/>
+      <c r="D10" s="26"/>
       <c r="E10" s="10" t="s">
         <v>190</v>
       </c>
       <c r="F10" s="21" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G10" s="21" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H10" s="21">
         <v>20240306</v>
@@ -9269,18 +9388,18 @@
       <c r="B11" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="C11" s="24" t="s">
+      <c r="C11" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="25"/>
+      <c r="D11" s="26"/>
       <c r="E11" s="10" t="s">
         <v>191</v>
       </c>
       <c r="F11" s="21" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G11" s="21" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H11" s="21">
         <v>20240306</v>
@@ -9296,18 +9415,18 @@
       <c r="B12" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="C12" s="24" t="s">
+      <c r="C12" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="25"/>
+      <c r="D12" s="26"/>
       <c r="E12" s="10" t="s">
         <v>191</v>
       </c>
       <c r="F12" s="21" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G12" s="21" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H12" s="21">
         <v>20240306</v>
@@ -9323,18 +9442,18 @@
       <c r="B13" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="C13" s="24" t="s">
+      <c r="C13" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="25"/>
+      <c r="D13" s="26"/>
       <c r="E13" s="10" t="s">
         <v>192</v>
       </c>
       <c r="F13" s="21" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G13" s="21" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H13" s="21">
         <v>20240306</v>
@@ -9350,18 +9469,18 @@
       <c r="B14" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="C14" s="24" t="s">
+      <c r="C14" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="25"/>
+      <c r="D14" s="26"/>
       <c r="E14" s="10" t="s">
         <v>193</v>
       </c>
       <c r="F14" s="21" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G14" s="21" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H14" s="21">
         <v>20240306</v>
@@ -9377,18 +9496,18 @@
       <c r="B15" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="C15" s="24" t="s">
+      <c r="C15" s="27" t="s">
         <v>127</v>
       </c>
-      <c r="D15" s="25"/>
+      <c r="D15" s="26"/>
       <c r="E15" s="10" t="s">
         <v>194</v>
       </c>
       <c r="F15" s="21" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G15" s="21" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H15" s="21">
         <v>20240306</v>
@@ -9404,18 +9523,18 @@
       <c r="B16" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="C16" s="24" t="s">
+      <c r="C16" s="27" t="s">
         <v>128</v>
       </c>
-      <c r="D16" s="24"/>
+      <c r="D16" s="27"/>
       <c r="E16" s="10" t="s">
         <v>194</v>
       </c>
       <c r="F16" s="21" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G16" s="21" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H16" s="21">
         <v>20240306</v>
@@ -9431,18 +9550,18 @@
       <c r="B17" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="C17" s="24" t="s">
+      <c r="C17" s="27" t="s">
         <v>125</v>
       </c>
-      <c r="D17" s="25"/>
+      <c r="D17" s="26"/>
       <c r="E17" s="10" t="s">
         <v>200</v>
       </c>
       <c r="F17" s="21" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G17" s="21" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H17" s="21">
         <v>20240306</v>
@@ -9458,18 +9577,18 @@
       <c r="B18" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="C18" s="24" t="s">
+      <c r="C18" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="D18" s="25"/>
+      <c r="D18" s="26"/>
       <c r="E18" s="10" t="s">
         <v>195</v>
       </c>
       <c r="F18" s="21" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G18" s="21" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H18" s="21">
         <v>20240306</v>
@@ -9485,18 +9604,18 @@
       <c r="B19" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="C19" s="24" t="s">
+      <c r="C19" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="D19" s="25"/>
+      <c r="D19" s="26"/>
       <c r="E19" s="10" t="s">
         <v>195</v>
       </c>
       <c r="F19" s="21" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G19" s="21" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H19" s="21">
         <v>20240306</v>
@@ -9512,18 +9631,18 @@
       <c r="B20" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="C20" s="24" t="s">
+      <c r="C20" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="D20" s="25"/>
+      <c r="D20" s="26"/>
       <c r="E20" s="10" t="s">
         <v>195</v>
       </c>
       <c r="F20" s="21" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G20" s="21" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H20" s="21">
         <v>20240306</v>
@@ -9539,18 +9658,18 @@
       <c r="B21" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="C21" s="24" t="s">
+      <c r="C21" s="27" t="s">
         <v>148</v>
       </c>
-      <c r="D21" s="25"/>
+      <c r="D21" s="26"/>
       <c r="E21" s="10" t="s">
         <v>195</v>
       </c>
       <c r="F21" s="21" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G21" s="21" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H21" s="21">
         <v>20240306</v>
@@ -9566,18 +9685,18 @@
       <c r="B22" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="C22" s="24" t="s">
+      <c r="C22" s="27" t="s">
         <v>141</v>
       </c>
-      <c r="D22" s="24"/>
+      <c r="D22" s="27"/>
       <c r="E22" s="10" t="s">
         <v>195</v>
       </c>
       <c r="F22" s="21" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G22" s="21" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H22" s="21">
         <v>20240306</v>
@@ -9593,18 +9712,18 @@
       <c r="B23" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="C23" s="24" t="s">
+      <c r="C23" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="D23" s="25"/>
+      <c r="D23" s="26"/>
       <c r="E23" s="10" t="s">
         <v>196</v>
       </c>
       <c r="F23" s="21" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G23" s="21" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H23" s="21">
         <v>20240306</v>
@@ -9620,18 +9739,18 @@
       <c r="B24" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="C24" s="24" t="s">
+      <c r="C24" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="D24" s="25"/>
+      <c r="D24" s="26"/>
       <c r="E24" s="10" t="s">
         <v>196</v>
       </c>
       <c r="F24" s="21" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G24" s="21" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H24" s="21">
         <v>20240306</v>
@@ -9647,18 +9766,18 @@
       <c r="B25" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="C25" s="24" t="s">
+      <c r="C25" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="D25" s="25"/>
+      <c r="D25" s="26"/>
       <c r="E25" s="10" t="s">
         <v>196</v>
       </c>
       <c r="F25" s="21" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G25" s="21" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H25" s="21">
         <v>20240306</v>
@@ -9674,18 +9793,18 @@
       <c r="B26" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="C26" s="24" t="s">
+      <c r="C26" s="27" t="s">
         <v>149</v>
       </c>
-      <c r="D26" s="25"/>
+      <c r="D26" s="26"/>
       <c r="E26" s="10" t="s">
         <v>196</v>
       </c>
       <c r="F26" s="21" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G26" s="21" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H26" s="21">
         <v>20240306</v>
@@ -9701,18 +9820,18 @@
       <c r="B27" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="C27" s="24" t="s">
+      <c r="C27" s="27" t="s">
         <v>142</v>
       </c>
-      <c r="D27" s="24"/>
+      <c r="D27" s="27"/>
       <c r="E27" s="10" t="s">
         <v>196</v>
       </c>
       <c r="F27" s="21" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G27" s="21" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H27" s="21">
         <v>20240306</v>
@@ -9728,18 +9847,18 @@
       <c r="B28" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="C28" s="24" t="s">
+      <c r="C28" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="D28" s="25"/>
+      <c r="D28" s="26"/>
       <c r="E28" s="10" t="s">
         <v>197</v>
       </c>
       <c r="F28" s="21" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G28" s="21" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H28" s="21">
         <v>20240306</v>
@@ -9755,24 +9874,24 @@
       <c r="B29" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="C29" s="24" t="s">
+      <c r="C29" s="27" t="s">
         <v>172</v>
       </c>
-      <c r="D29" s="25"/>
+      <c r="D29" s="26"/>
       <c r="E29" s="10" t="s">
         <v>195</v>
       </c>
       <c r="F29" s="21" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G29" s="21" t="s">
+        <v>251</v>
+      </c>
+      <c r="H29" s="21">
+        <v>20240306</v>
+      </c>
+      <c r="I29" s="21" t="s">
         <v>252</v>
-      </c>
-      <c r="H29" s="21">
-        <v>20240306</v>
-      </c>
-      <c r="I29" s="21" t="s">
-        <v>253</v>
       </c>
       <c r="J29" s="21" t="s">
         <v>241</v>
@@ -9785,24 +9904,24 @@
       <c r="B30" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="C30" s="24" t="s">
+      <c r="C30" s="27" t="s">
         <v>173</v>
       </c>
-      <c r="D30" s="25"/>
+      <c r="D30" s="26"/>
       <c r="E30" s="10" t="s">
         <v>196</v>
       </c>
       <c r="F30" s="21" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G30" s="21" t="s">
+        <v>251</v>
+      </c>
+      <c r="H30" s="21">
+        <v>20240306</v>
+      </c>
+      <c r="I30" s="21" t="s">
         <v>252</v>
-      </c>
-      <c r="H30" s="21">
-        <v>20240306</v>
-      </c>
-      <c r="I30" s="21" t="s">
-        <v>253</v>
       </c>
       <c r="J30" s="21" t="s">
         <v>241</v>
@@ -9815,18 +9934,18 @@
       <c r="B31" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="C31" s="24" t="s">
+      <c r="C31" s="27" t="s">
         <v>143</v>
       </c>
-      <c r="D31" s="25"/>
+      <c r="D31" s="26"/>
       <c r="E31" s="10" t="s">
         <v>195</v>
       </c>
       <c r="F31" s="21" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G31" s="21" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H31" s="21">
         <v>20240306</v>
@@ -9842,18 +9961,18 @@
       <c r="B32" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="C32" s="24" t="s">
+      <c r="C32" s="27" t="s">
         <v>144</v>
       </c>
-      <c r="D32" s="25"/>
+      <c r="D32" s="26"/>
       <c r="E32" s="10" t="s">
         <v>196</v>
       </c>
       <c r="F32" s="21" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G32" s="21" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H32" s="21">
         <v>20240306</v>
@@ -9869,18 +9988,18 @@
       <c r="B33" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="C33" s="25" t="s">
+      <c r="C33" s="26" t="s">
         <v>198</v>
       </c>
-      <c r="D33" s="25"/>
+      <c r="D33" s="26"/>
       <c r="E33" s="10" t="s">
         <v>199</v>
       </c>
       <c r="F33" s="21" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G33" s="21" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H33" s="21">
         <v>20240306</v>
@@ -9896,18 +10015,18 @@
       <c r="B34" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="C34" s="25" t="s">
+      <c r="C34" s="26" t="s">
         <v>177</v>
       </c>
-      <c r="D34" s="25"/>
+      <c r="D34" s="26"/>
       <c r="E34" s="10" t="s">
         <v>227</v>
       </c>
       <c r="F34" s="21" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G34" s="21" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H34" s="21">
         <v>20240306</v>
@@ -9923,18 +10042,18 @@
       <c r="B35" s="15" t="s">
         <v>229</v>
       </c>
-      <c r="C35" s="25" t="s">
+      <c r="C35" s="26" t="s">
         <v>201</v>
       </c>
-      <c r="D35" s="25"/>
+      <c r="D35" s="26"/>
       <c r="E35" s="10" t="s">
         <v>228</v>
       </c>
       <c r="F35" s="21" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G35" s="21" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H35" s="21">
         <v>20240306</v>
@@ -9950,18 +10069,18 @@
       <c r="B36" s="15" t="s">
         <v>229</v>
       </c>
-      <c r="C36" s="25" t="s">
+      <c r="C36" s="26" t="s">
         <v>177</v>
       </c>
-      <c r="D36" s="25"/>
+      <c r="D36" s="26"/>
       <c r="E36" s="10" t="s">
         <v>223</v>
       </c>
       <c r="F36" s="21" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G36" s="21" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H36" s="21">
         <v>20240306</v>
@@ -9977,18 +10096,18 @@
       <c r="B37" s="15" t="s">
         <v>229</v>
       </c>
-      <c r="C37" s="25" t="s">
+      <c r="C37" s="26" t="s">
         <v>214</v>
       </c>
-      <c r="D37" s="25"/>
+      <c r="D37" s="26"/>
       <c r="E37" s="10" t="s">
         <v>222</v>
       </c>
       <c r="F37" s="21" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G37" s="21" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H37" s="21">
         <v>20240306</v>
@@ -10004,18 +10123,18 @@
       <c r="B38" s="15" t="s">
         <v>229</v>
       </c>
-      <c r="C38" s="25" t="s">
+      <c r="C38" s="26" t="s">
         <v>215</v>
       </c>
-      <c r="D38" s="25"/>
+      <c r="D38" s="26"/>
       <c r="E38" s="10" t="s">
         <v>221</v>
       </c>
       <c r="F38" s="21" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G38" s="21" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H38" s="21">
         <v>20240306</v>
@@ -10031,18 +10150,18 @@
       <c r="B39" s="15" t="s">
         <v>229</v>
       </c>
-      <c r="C39" s="25" t="s">
+      <c r="C39" s="26" t="s">
         <v>216</v>
       </c>
-      <c r="D39" s="25"/>
+      <c r="D39" s="26"/>
       <c r="E39" s="9" t="s">
         <v>220</v>
       </c>
       <c r="F39" s="21" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G39" s="21" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H39" s="21">
         <v>20240306</v>
@@ -10058,18 +10177,18 @@
       <c r="B40" s="15" t="s">
         <v>229</v>
       </c>
-      <c r="C40" s="25" t="s">
+      <c r="C40" s="26" t="s">
         <v>217</v>
       </c>
-      <c r="D40" s="25"/>
+      <c r="D40" s="26"/>
       <c r="E40" s="9" t="s">
         <v>219</v>
       </c>
       <c r="F40" s="21" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G40" s="21" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H40" s="21">
         <v>20240306</v>
@@ -10085,18 +10204,18 @@
       <c r="B41" s="15" t="s">
         <v>229</v>
       </c>
-      <c r="C41" s="25" t="s">
+      <c r="C41" s="26" t="s">
         <v>177</v>
       </c>
-      <c r="D41" s="25"/>
+      <c r="D41" s="26"/>
       <c r="E41" s="10" t="s">
         <v>218</v>
       </c>
       <c r="F41" s="21" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G41" s="21" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H41" s="21">
         <v>20240306</v>
@@ -10112,18 +10231,18 @@
       <c r="B42" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="C42" s="25" t="s">
+      <c r="C42" s="26" t="s">
         <v>203</v>
       </c>
-      <c r="D42" s="25"/>
+      <c r="D42" s="26"/>
       <c r="E42" s="10" t="s">
         <v>204</v>
       </c>
       <c r="F42" s="21" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G42" s="21" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H42" s="21">
         <v>20240306</v>
@@ -10139,18 +10258,18 @@
       <c r="B43" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="C43" s="25" t="s">
+      <c r="C43" s="26" t="s">
         <v>205</v>
       </c>
-      <c r="D43" s="25"/>
+      <c r="D43" s="26"/>
       <c r="E43" s="10" t="s">
         <v>206</v>
       </c>
       <c r="F43" s="21" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G43" s="21" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H43" s="21">
         <v>20240306</v>
@@ -10166,18 +10285,18 @@
       <c r="B44" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="C44" s="25" t="s">
+      <c r="C44" s="26" t="s">
         <v>207</v>
       </c>
-      <c r="D44" s="25"/>
+      <c r="D44" s="26"/>
       <c r="E44" s="10" t="s">
         <v>204</v>
       </c>
       <c r="F44" s="21" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G44" s="21" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H44" s="21">
         <v>20240306</v>
@@ -10193,18 +10312,18 @@
       <c r="B45" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="C45" s="25" t="s">
+      <c r="C45" s="26" t="s">
         <v>208</v>
       </c>
-      <c r="D45" s="25"/>
+      <c r="D45" s="26"/>
       <c r="E45" s="10" t="s">
         <v>209</v>
       </c>
       <c r="F45" s="21" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G45" s="21" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H45" s="21">
         <v>20240306</v>
@@ -10220,18 +10339,18 @@
       <c r="B46" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="C46" s="25" t="s">
+      <c r="C46" s="26" t="s">
         <v>211</v>
       </c>
-      <c r="D46" s="25"/>
+      <c r="D46" s="26"/>
       <c r="E46" s="10" t="s">
         <v>212</v>
       </c>
       <c r="F46" s="21" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G46" s="21" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H46" s="21">
         <v>20240306</v>
@@ -10247,18 +10366,18 @@
       <c r="B47" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="C47" s="25" t="s">
+      <c r="C47" s="26" t="s">
         <v>210</v>
       </c>
-      <c r="D47" s="25"/>
+      <c r="D47" s="26"/>
       <c r="E47" s="10" t="s">
         <v>230</v>
       </c>
       <c r="F47" s="21" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G47" s="21" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H47" s="21">
         <v>20240306</v>
@@ -10274,18 +10393,18 @@
       <c r="B48" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="C48" s="25" t="s">
+      <c r="C48" s="26" t="s">
         <v>213</v>
       </c>
-      <c r="D48" s="25"/>
+      <c r="D48" s="26"/>
       <c r="E48" s="10" t="s">
         <v>183</v>
       </c>
       <c r="F48" s="21" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G48" s="21" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H48" s="21">
         <v>20240306</v>
@@ -10294,825 +10413,937 @@
         <v>241</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="3">
         <v>46</v>
       </c>
       <c r="B49" s="22" t="s">
         <v>202</v>
       </c>
-      <c r="C49" s="25" t="s">
-        <v>276</v>
-      </c>
-      <c r="D49" s="25"/>
+      <c r="C49" s="26" t="s">
+        <v>273</v>
+      </c>
+      <c r="D49" s="26"/>
       <c r="E49" s="10" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+        <v>284</v>
+      </c>
+      <c r="F49" s="25" t="s">
+        <v>242</v>
+      </c>
+      <c r="G49" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="H49" s="25">
+        <v>20240317</v>
+      </c>
+      <c r="J49" s="25" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="3">
         <v>47</v>
       </c>
       <c r="B50" s="22" t="s">
         <v>202</v>
       </c>
-      <c r="C50" s="25" t="s">
-        <v>277</v>
-      </c>
-      <c r="D50" s="25"/>
+      <c r="C50" s="26" t="s">
+        <v>274</v>
+      </c>
+      <c r="D50" s="26"/>
       <c r="E50" s="22" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+        <v>284</v>
+      </c>
+      <c r="F50" s="25" t="s">
+        <v>242</v>
+      </c>
+      <c r="G50" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="H50" s="25">
+        <v>20240317</v>
+      </c>
+      <c r="J50" s="25" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="3">
         <v>48</v>
       </c>
       <c r="B51" s="22" t="s">
         <v>202</v>
       </c>
-      <c r="C51" s="25" t="s">
-        <v>278</v>
-      </c>
-      <c r="D51" s="25"/>
+      <c r="C51" s="26" t="s">
+        <v>275</v>
+      </c>
+      <c r="D51" s="26"/>
       <c r="E51" s="22" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+        <v>284</v>
+      </c>
+      <c r="F51" s="25" t="s">
+        <v>242</v>
+      </c>
+      <c r="G51" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="H51" s="25">
+        <v>20240317</v>
+      </c>
+      <c r="J51" s="25" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="3">
         <v>49</v>
       </c>
       <c r="B52" s="22" t="s">
         <v>202</v>
       </c>
-      <c r="C52" s="25" t="s">
-        <v>279</v>
-      </c>
-      <c r="D52" s="25"/>
+      <c r="C52" s="26" t="s">
+        <v>276</v>
+      </c>
+      <c r="D52" s="26"/>
       <c r="E52" s="22" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+        <v>284</v>
+      </c>
+      <c r="F52" s="25" t="s">
+        <v>242</v>
+      </c>
+      <c r="G52" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="H52" s="25">
+        <v>20240317</v>
+      </c>
+      <c r="J52" s="25" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="3">
         <v>50</v>
       </c>
       <c r="B53" s="22" t="s">
         <v>202</v>
       </c>
-      <c r="C53" s="25" t="s">
-        <v>280</v>
-      </c>
-      <c r="D53" s="25"/>
+      <c r="C53" s="26" t="s">
+        <v>277</v>
+      </c>
+      <c r="D53" s="26"/>
       <c r="E53" s="10" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+        <v>285</v>
+      </c>
+      <c r="F53" s="25" t="s">
+        <v>242</v>
+      </c>
+      <c r="G53" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="H53" s="25">
+        <v>20240317</v>
+      </c>
+      <c r="J53" s="25" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="3">
         <v>51</v>
       </c>
       <c r="B54" s="22" t="s">
         <v>202</v>
       </c>
-      <c r="C54" s="25" t="s">
-        <v>281</v>
-      </c>
-      <c r="D54" s="25"/>
+      <c r="C54" s="26" t="s">
+        <v>278</v>
+      </c>
+      <c r="D54" s="26"/>
       <c r="E54" s="22" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+        <v>285</v>
+      </c>
+      <c r="F54" s="25" t="s">
+        <v>242</v>
+      </c>
+      <c r="G54" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="H54" s="25">
+        <v>20240317</v>
+      </c>
+      <c r="J54" s="25" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="3">
         <v>52</v>
       </c>
       <c r="B55" s="22" t="s">
         <v>202</v>
       </c>
-      <c r="C55" s="25" t="s">
-        <v>282</v>
-      </c>
-      <c r="D55" s="25"/>
+      <c r="C55" s="26" t="s">
+        <v>279</v>
+      </c>
+      <c r="D55" s="26"/>
       <c r="E55" s="22" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+        <v>285</v>
+      </c>
+      <c r="F55" s="25" t="s">
+        <v>242</v>
+      </c>
+      <c r="G55" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="H55" s="25">
+        <v>20240317</v>
+      </c>
+      <c r="J55" s="25" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="3">
         <v>53</v>
       </c>
       <c r="B56" s="22" t="s">
         <v>202</v>
       </c>
-      <c r="C56" s="25" t="s">
-        <v>283</v>
-      </c>
-      <c r="D56" s="25"/>
+      <c r="C56" s="26" t="s">
+        <v>280</v>
+      </c>
+      <c r="D56" s="26"/>
       <c r="E56" s="10" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+        <v>286</v>
+      </c>
+      <c r="F56" s="25" t="s">
+        <v>242</v>
+      </c>
+      <c r="G56" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="H56" s="25">
+        <v>20240317</v>
+      </c>
+      <c r="J56" s="25" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="3">
         <v>54</v>
       </c>
       <c r="B57" s="22" t="s">
         <v>202</v>
       </c>
-      <c r="C57" s="25" t="s">
-        <v>284</v>
-      </c>
-      <c r="D57" s="25"/>
+      <c r="C57" s="26" t="s">
+        <v>281</v>
+      </c>
+      <c r="D57" s="26"/>
       <c r="E57" s="22" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+        <v>287</v>
+      </c>
+      <c r="F57" s="25" t="s">
+        <v>242</v>
+      </c>
+      <c r="G57" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="H57" s="25">
+        <v>20240317</v>
+      </c>
+      <c r="J57" s="25" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="3">
         <v>55</v>
       </c>
       <c r="B58" s="22" t="s">
-        <v>285</v>
-      </c>
-      <c r="C58" s="25" t="s">
-        <v>286</v>
-      </c>
-      <c r="D58" s="25"/>
+        <v>282</v>
+      </c>
+      <c r="C58" s="26" t="s">
+        <v>283</v>
+      </c>
+      <c r="D58" s="26"/>
       <c r="E58" s="10" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+        <v>288</v>
+      </c>
+      <c r="F58" s="25" t="s">
+        <v>242</v>
+      </c>
+      <c r="G58" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="H58" s="25">
+        <v>20240317</v>
+      </c>
+      <c r="J58" s="25" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="3">
         <v>56</v>
       </c>
       <c r="B59" s="22" t="s">
-        <v>285</v>
-      </c>
-      <c r="C59" s="25" t="s">
-        <v>286</v>
-      </c>
-      <c r="D59" s="25"/>
+        <v>282</v>
+      </c>
+      <c r="C59" s="26" t="s">
+        <v>283</v>
+      </c>
+      <c r="D59" s="26"/>
       <c r="E59" s="22" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+        <v>289</v>
+      </c>
+      <c r="F59" s="25" t="s">
+        <v>242</v>
+      </c>
+      <c r="G59" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="H59" s="25">
+        <v>20240317</v>
+      </c>
+      <c r="J59" s="25" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="3">
         <v>57</v>
       </c>
       <c r="B60" s="22" t="s">
-        <v>285</v>
-      </c>
-      <c r="C60" s="25" t="s">
-        <v>286</v>
-      </c>
-      <c r="D60" s="25"/>
+        <v>282</v>
+      </c>
+      <c r="C60" s="26" t="s">
+        <v>283</v>
+      </c>
+      <c r="D60" s="26"/>
       <c r="E60" s="22" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+        <v>290</v>
+      </c>
+      <c r="F60" s="25" t="s">
+        <v>242</v>
+      </c>
+      <c r="G60" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="H60" s="25">
+        <v>20240317</v>
+      </c>
+      <c r="J60" s="25" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="3">
         <v>58</v>
       </c>
       <c r="B61" s="22" t="s">
-        <v>285</v>
-      </c>
-      <c r="C61" s="25" t="s">
-        <v>286</v>
-      </c>
-      <c r="D61" s="25"/>
+        <v>282</v>
+      </c>
+      <c r="C61" s="26" t="s">
+        <v>283</v>
+      </c>
+      <c r="D61" s="26"/>
       <c r="E61" s="22" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+        <v>291</v>
+      </c>
+      <c r="F61" s="25" t="s">
+        <v>242</v>
+      </c>
+      <c r="G61" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="H61" s="25">
+        <v>20240317</v>
+      </c>
+      <c r="J61" s="25" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="3">
         <v>59</v>
       </c>
       <c r="B62" s="22" t="s">
-        <v>285</v>
-      </c>
-      <c r="C62" s="25" t="s">
-        <v>286</v>
-      </c>
-      <c r="D62" s="25"/>
+        <v>282</v>
+      </c>
+      <c r="C62" s="26" t="s">
+        <v>283</v>
+      </c>
+      <c r="D62" s="26"/>
       <c r="E62" s="22" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+        <v>292</v>
+      </c>
+      <c r="F62" s="25" t="s">
+        <v>242</v>
+      </c>
+      <c r="G62" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="H62" s="25">
+        <v>20240317</v>
+      </c>
+      <c r="J62" s="25" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="3">
         <v>60</v>
       </c>
       <c r="B63" s="22" t="s">
-        <v>285</v>
-      </c>
-      <c r="C63" s="25" t="s">
-        <v>286</v>
-      </c>
-      <c r="D63" s="25"/>
+        <v>282</v>
+      </c>
+      <c r="C63" s="26" t="s">
+        <v>283</v>
+      </c>
+      <c r="D63" s="26"/>
       <c r="E63" s="22" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+        <v>293</v>
+      </c>
+      <c r="F63" s="25" t="s">
+        <v>242</v>
+      </c>
+      <c r="G63" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="H63" s="25">
+        <v>20240317</v>
+      </c>
+      <c r="J63" s="25" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="3">
         <v>61</v>
       </c>
       <c r="B64" s="22" t="s">
-        <v>285</v>
-      </c>
-      <c r="C64" s="25" t="s">
-        <v>286</v>
-      </c>
-      <c r="D64" s="25"/>
+        <v>282</v>
+      </c>
+      <c r="C64" s="26" t="s">
+        <v>283</v>
+      </c>
+      <c r="D64" s="26"/>
       <c r="E64" s="23" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+        <v>294</v>
+      </c>
+      <c r="F64" s="25" t="s">
+        <v>242</v>
+      </c>
+      <c r="G64" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="H64" s="25">
+        <v>20240317</v>
+      </c>
+      <c r="J64" s="25" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="3">
         <v>62</v>
       </c>
       <c r="B65" s="22" t="s">
-        <v>285</v>
-      </c>
-      <c r="C65" s="25" t="s">
-        <v>286</v>
-      </c>
-      <c r="D65" s="25"/>
+        <v>282</v>
+      </c>
+      <c r="C65" s="26" t="s">
+        <v>283</v>
+      </c>
+      <c r="D65" s="26"/>
       <c r="E65" s="23" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+        <v>295</v>
+      </c>
+      <c r="F65" s="25" t="s">
+        <v>242</v>
+      </c>
+      <c r="G65" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="H65" s="25">
+        <v>20240317</v>
+      </c>
+      <c r="J65" s="25" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="3">
         <v>63</v>
       </c>
       <c r="B66" s="22" t="s">
-        <v>285</v>
-      </c>
-      <c r="C66" s="25" t="s">
-        <v>286</v>
-      </c>
-      <c r="D66" s="25"/>
+        <v>282</v>
+      </c>
+      <c r="C66" s="26" t="s">
+        <v>283</v>
+      </c>
+      <c r="D66" s="26"/>
       <c r="E66" s="22" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+        <v>296</v>
+      </c>
+      <c r="F66" s="25" t="s">
+        <v>242</v>
+      </c>
+      <c r="G66" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="H66" s="25">
+        <v>20240317</v>
+      </c>
+      <c r="J66" s="25" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="3">
         <v>64</v>
       </c>
       <c r="B67" s="22" t="s">
-        <v>285</v>
-      </c>
-      <c r="C67" s="25" t="s">
-        <v>286</v>
-      </c>
-      <c r="D67" s="25"/>
+        <v>282</v>
+      </c>
+      <c r="C67" s="26" t="s">
+        <v>283</v>
+      </c>
+      <c r="D67" s="26"/>
       <c r="E67" s="22" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+        <v>297</v>
+      </c>
+      <c r="F67" s="25" t="s">
+        <v>242</v>
+      </c>
+      <c r="G67" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="H67" s="25">
+        <v>20240317</v>
+      </c>
+      <c r="J67" s="25" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="3">
         <v>65</v>
       </c>
       <c r="B68" s="22" t="s">
-        <v>285</v>
-      </c>
-      <c r="C68" s="25"/>
-      <c r="D68" s="25"/>
+        <v>282</v>
+      </c>
+      <c r="C68" s="26"/>
+      <c r="D68" s="26"/>
       <c r="E68" s="22"/>
     </row>
-    <row r="69" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="3">
         <v>66</v>
       </c>
       <c r="B69" s="22" t="s">
-        <v>285</v>
-      </c>
-      <c r="C69" s="25"/>
-      <c r="D69" s="25"/>
-    </row>
-    <row r="70" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+        <v>282</v>
+      </c>
+      <c r="C69" s="26"/>
+      <c r="D69" s="26"/>
+    </row>
+    <row r="70" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="3">
         <v>67</v>
       </c>
       <c r="B70" s="22" t="s">
-        <v>285</v>
-      </c>
-      <c r="C70" s="25"/>
-      <c r="D70" s="25"/>
-    </row>
-    <row r="71" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+        <v>282</v>
+      </c>
+      <c r="C70" s="26"/>
+      <c r="D70" s="26"/>
+    </row>
+    <row r="71" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="3">
         <v>68</v>
       </c>
       <c r="B71" s="22" t="s">
-        <v>285</v>
-      </c>
-      <c r="C71" s="25"/>
-      <c r="D71" s="25"/>
-    </row>
-    <row r="72" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+        <v>282</v>
+      </c>
+      <c r="C71" s="26"/>
+      <c r="D71" s="26"/>
+    </row>
+    <row r="72" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="3">
         <v>69</v>
       </c>
-      <c r="C72" s="25"/>
-      <c r="D72" s="25"/>
-    </row>
-    <row r="73" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C72" s="26"/>
+      <c r="D72" s="26"/>
+    </row>
+    <row r="73" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="3">
         <v>70</v>
       </c>
-      <c r="C73" s="25"/>
-      <c r="D73" s="25"/>
-    </row>
-    <row r="74" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C73" s="26"/>
+      <c r="D73" s="26"/>
+    </row>
+    <row r="74" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="3">
         <v>71</v>
       </c>
-      <c r="C74" s="25"/>
-      <c r="D74" s="25"/>
-    </row>
-    <row r="75" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C74" s="26"/>
+      <c r="D74" s="26"/>
+    </row>
+    <row r="75" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="3">
         <v>72</v>
       </c>
-      <c r="C75" s="25"/>
-      <c r="D75" s="25"/>
-    </row>
-    <row r="76" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C75" s="26"/>
+      <c r="D75" s="26"/>
+    </row>
+    <row r="76" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="3">
         <v>73</v>
       </c>
-      <c r="C76" s="25"/>
-      <c r="D76" s="25"/>
-    </row>
-    <row r="77" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C76" s="26"/>
+      <c r="D76" s="26"/>
+    </row>
+    <row r="77" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="3">
         <v>74</v>
       </c>
-      <c r="C77" s="25"/>
-      <c r="D77" s="25"/>
-    </row>
-    <row r="78" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C77" s="26"/>
+      <c r="D77" s="26"/>
+    </row>
+    <row r="78" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="3">
         <v>75</v>
       </c>
-      <c r="C78" s="25"/>
-      <c r="D78" s="25"/>
-    </row>
-    <row r="79" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C78" s="26"/>
+      <c r="D78" s="26"/>
+    </row>
+    <row r="79" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="3">
         <v>76</v>
       </c>
-      <c r="C79" s="25"/>
-      <c r="D79" s="25"/>
-    </row>
-    <row r="80" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C79" s="26"/>
+      <c r="D79" s="26"/>
+    </row>
+    <row r="80" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="3">
         <v>77</v>
       </c>
-      <c r="C80" s="25"/>
-      <c r="D80" s="25"/>
+      <c r="C80" s="26"/>
+      <c r="D80" s="26"/>
     </row>
     <row r="81" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="3">
         <v>78</v>
       </c>
-      <c r="C81" s="25"/>
-      <c r="D81" s="25"/>
+      <c r="C81" s="26"/>
+      <c r="D81" s="26"/>
     </row>
     <row r="82" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="3">
         <v>79</v>
       </c>
-      <c r="C82" s="25"/>
-      <c r="D82" s="25"/>
+      <c r="C82" s="26"/>
+      <c r="D82" s="26"/>
     </row>
     <row r="83" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="3">
         <v>80</v>
       </c>
-      <c r="C83" s="25"/>
-      <c r="D83" s="25"/>
+      <c r="C83" s="26"/>
+      <c r="D83" s="26"/>
     </row>
     <row r="84" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="3">
         <v>81</v>
       </c>
-      <c r="C84" s="25"/>
-      <c r="D84" s="25"/>
+      <c r="C84" s="26"/>
+      <c r="D84" s="26"/>
     </row>
     <row r="85" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="3">
         <v>82</v>
       </c>
-      <c r="C85" s="25"/>
-      <c r="D85" s="25"/>
+      <c r="C85" s="26"/>
+      <c r="D85" s="26"/>
     </row>
     <row r="86" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="3">
         <v>83</v>
       </c>
-      <c r="C86" s="25"/>
-      <c r="D86" s="25"/>
+      <c r="C86" s="26"/>
+      <c r="D86" s="26"/>
     </row>
     <row r="87" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="3">
         <v>84</v>
       </c>
-      <c r="C87" s="25"/>
-      <c r="D87" s="25"/>
+      <c r="C87" s="26"/>
+      <c r="D87" s="26"/>
     </row>
     <row r="88" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="3">
         <v>85</v>
       </c>
-      <c r="C88" s="25"/>
-      <c r="D88" s="25"/>
+      <c r="C88" s="26"/>
+      <c r="D88" s="26"/>
     </row>
     <row r="89" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="3">
         <v>86</v>
       </c>
-      <c r="C89" s="25"/>
-      <c r="D89" s="25"/>
+      <c r="C89" s="26"/>
+      <c r="D89" s="26"/>
     </row>
     <row r="90" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="3">
         <v>87</v>
       </c>
-      <c r="C90" s="25"/>
-      <c r="D90" s="25"/>
+      <c r="C90" s="26"/>
+      <c r="D90" s="26"/>
     </row>
     <row r="91" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="3">
         <v>88</v>
       </c>
-      <c r="C91" s="25"/>
-      <c r="D91" s="25"/>
+      <c r="C91" s="26"/>
+      <c r="D91" s="26"/>
     </row>
     <row r="92" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="3">
         <v>89</v>
       </c>
-      <c r="C92" s="25"/>
-      <c r="D92" s="25"/>
+      <c r="C92" s="26"/>
+      <c r="D92" s="26"/>
     </row>
     <row r="93" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="3">
         <v>90</v>
       </c>
-      <c r="C93" s="25"/>
-      <c r="D93" s="25"/>
+      <c r="C93" s="26"/>
+      <c r="D93" s="26"/>
     </row>
     <row r="94" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="3">
         <v>91</v>
       </c>
-      <c r="C94" s="25"/>
-      <c r="D94" s="25"/>
+      <c r="C94" s="26"/>
+      <c r="D94" s="26"/>
     </row>
     <row r="95" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="3">
         <v>92</v>
       </c>
-      <c r="C95" s="25"/>
-      <c r="D95" s="25"/>
+      <c r="C95" s="26"/>
+      <c r="D95" s="26"/>
     </row>
     <row r="96" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="3">
         <v>93</v>
       </c>
-      <c r="C96" s="25"/>
-      <c r="D96" s="25"/>
+      <c r="C96" s="26"/>
+      <c r="D96" s="26"/>
     </row>
     <row r="97" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="3">
         <v>94</v>
       </c>
-      <c r="C97" s="25"/>
-      <c r="D97" s="25"/>
+      <c r="C97" s="26"/>
+      <c r="D97" s="26"/>
     </row>
     <row r="98" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="3">
         <v>95</v>
       </c>
-      <c r="C98" s="25"/>
-      <c r="D98" s="25"/>
+      <c r="C98" s="26"/>
+      <c r="D98" s="26"/>
     </row>
     <row r="99" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="3">
         <v>96</v>
       </c>
-      <c r="C99" s="25"/>
-      <c r="D99" s="25"/>
+      <c r="C99" s="26"/>
+      <c r="D99" s="26"/>
     </row>
     <row r="100" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="3">
         <v>97</v>
       </c>
-      <c r="C100" s="25"/>
-      <c r="D100" s="25"/>
+      <c r="C100" s="26"/>
+      <c r="D100" s="26"/>
     </row>
     <row r="101" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="3">
         <v>98</v>
       </c>
-      <c r="C101" s="25"/>
-      <c r="D101" s="25"/>
+      <c r="C101" s="26"/>
+      <c r="D101" s="26"/>
     </row>
     <row r="102" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" s="3">
         <v>99</v>
       </c>
-      <c r="C102" s="25"/>
-      <c r="D102" s="25"/>
+      <c r="C102" s="26"/>
+      <c r="D102" s="26"/>
     </row>
     <row r="103" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="3">
         <v>100</v>
       </c>
-      <c r="C103" s="25"/>
-      <c r="D103" s="25"/>
+      <c r="C103" s="26"/>
+      <c r="D103" s="26"/>
     </row>
     <row r="104" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="3">
         <v>101</v>
       </c>
-      <c r="C104" s="25"/>
-      <c r="D104" s="25"/>
+      <c r="C104" s="26"/>
+      <c r="D104" s="26"/>
     </row>
     <row r="105" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C105" s="25"/>
-      <c r="D105" s="25"/>
+      <c r="C105" s="26"/>
+      <c r="D105" s="26"/>
     </row>
     <row r="106" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C106" s="25"/>
-      <c r="D106" s="25"/>
+      <c r="C106" s="26"/>
+      <c r="D106" s="26"/>
     </row>
     <row r="107" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C107" s="25"/>
-      <c r="D107" s="25"/>
+      <c r="C107" s="26"/>
+      <c r="D107" s="26"/>
     </row>
     <row r="108" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C108" s="25"/>
-      <c r="D108" s="25"/>
+      <c r="C108" s="26"/>
+      <c r="D108" s="26"/>
     </row>
     <row r="109" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C109" s="25"/>
-      <c r="D109" s="25"/>
+      <c r="C109" s="26"/>
+      <c r="D109" s="26"/>
     </row>
     <row r="110" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C110" s="25"/>
-      <c r="D110" s="25"/>
+      <c r="C110" s="26"/>
+      <c r="D110" s="26"/>
     </row>
     <row r="111" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C111" s="25"/>
-      <c r="D111" s="25"/>
+      <c r="C111" s="26"/>
+      <c r="D111" s="26"/>
     </row>
     <row r="112" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C112" s="25"/>
-      <c r="D112" s="25"/>
+      <c r="C112" s="26"/>
+      <c r="D112" s="26"/>
     </row>
     <row r="113" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C113" s="25"/>
-      <c r="D113" s="25"/>
+      <c r="C113" s="26"/>
+      <c r="D113" s="26"/>
     </row>
     <row r="114" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C114" s="25"/>
-      <c r="D114" s="25"/>
+      <c r="C114" s="26"/>
+      <c r="D114" s="26"/>
     </row>
     <row r="115" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C115" s="25"/>
-      <c r="D115" s="25"/>
+      <c r="C115" s="26"/>
+      <c r="D115" s="26"/>
     </row>
     <row r="116" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C116" s="25"/>
-      <c r="D116" s="25"/>
+      <c r="C116" s="26"/>
+      <c r="D116" s="26"/>
     </row>
     <row r="117" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C117" s="25"/>
-      <c r="D117" s="25"/>
+      <c r="C117" s="26"/>
+      <c r="D117" s="26"/>
     </row>
     <row r="118" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C118" s="25"/>
-      <c r="D118" s="25"/>
+      <c r="C118" s="26"/>
+      <c r="D118" s="26"/>
     </row>
     <row r="119" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C119" s="25"/>
-      <c r="D119" s="25"/>
+      <c r="C119" s="26"/>
+      <c r="D119" s="26"/>
     </row>
     <row r="120" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C120" s="25"/>
-      <c r="D120" s="25"/>
+      <c r="C120" s="26"/>
+      <c r="D120" s="26"/>
     </row>
     <row r="121" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C121" s="25"/>
-      <c r="D121" s="25"/>
+      <c r="C121" s="26"/>
+      <c r="D121" s="26"/>
     </row>
     <row r="122" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C122" s="25"/>
-      <c r="D122" s="25"/>
+      <c r="C122" s="26"/>
+      <c r="D122" s="26"/>
     </row>
     <row r="123" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C123" s="25"/>
-      <c r="D123" s="25"/>
+      <c r="C123" s="26"/>
+      <c r="D123" s="26"/>
     </row>
     <row r="124" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C124" s="25"/>
-      <c r="D124" s="25"/>
+      <c r="C124" s="26"/>
+      <c r="D124" s="26"/>
     </row>
     <row r="125" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C125" s="25"/>
-      <c r="D125" s="25"/>
+      <c r="C125" s="26"/>
+      <c r="D125" s="26"/>
     </row>
     <row r="126" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C126" s="25"/>
-      <c r="D126" s="25"/>
+      <c r="C126" s="26"/>
+      <c r="D126" s="26"/>
     </row>
     <row r="127" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C127" s="25"/>
-      <c r="D127" s="25"/>
+      <c r="C127" s="26"/>
+      <c r="D127" s="26"/>
     </row>
     <row r="128" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C128" s="25"/>
-      <c r="D128" s="25"/>
+      <c r="C128" s="26"/>
+      <c r="D128" s="26"/>
     </row>
     <row r="129" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C129" s="25"/>
-      <c r="D129" s="25"/>
+      <c r="C129" s="26"/>
+      <c r="D129" s="26"/>
     </row>
     <row r="130" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C130" s="25"/>
-      <c r="D130" s="25"/>
+      <c r="C130" s="26"/>
+      <c r="D130" s="26"/>
     </row>
     <row r="131" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C131" s="25"/>
-      <c r="D131" s="25"/>
+      <c r="C131" s="26"/>
+      <c r="D131" s="26"/>
     </row>
     <row r="132" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C132" s="25"/>
-      <c r="D132" s="25"/>
+      <c r="C132" s="26"/>
+      <c r="D132" s="26"/>
     </row>
     <row r="133" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C133" s="25"/>
-      <c r="D133" s="25"/>
+      <c r="C133" s="26"/>
+      <c r="D133" s="26"/>
     </row>
     <row r="134" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C134" s="25"/>
-      <c r="D134" s="25"/>
+      <c r="C134" s="26"/>
+      <c r="D134" s="26"/>
     </row>
     <row r="135" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C135" s="25"/>
-      <c r="D135" s="25"/>
+      <c r="C135" s="26"/>
+      <c r="D135" s="26"/>
     </row>
     <row r="136" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C136" s="25"/>
-      <c r="D136" s="25"/>
+      <c r="C136" s="26"/>
+      <c r="D136" s="26"/>
     </row>
     <row r="137" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C137" s="25"/>
-      <c r="D137" s="25"/>
+      <c r="C137" s="26"/>
+      <c r="D137" s="26"/>
     </row>
     <row r="138" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C138" s="25"/>
-      <c r="D138" s="25"/>
+      <c r="C138" s="26"/>
+      <c r="D138" s="26"/>
     </row>
     <row r="139" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C139" s="25"/>
-      <c r="D139" s="25"/>
+      <c r="C139" s="26"/>
+      <c r="D139" s="26"/>
     </row>
     <row r="140" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C140" s="25"/>
-      <c r="D140" s="25"/>
+      <c r="C140" s="26"/>
+      <c r="D140" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="140">
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:E2"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="C91:D91"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="C96:D96"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="C89:D89"/>
-    <mergeCell ref="C90:D90"/>
-    <mergeCell ref="C103:D103"/>
-    <mergeCell ref="C104:D104"/>
-    <mergeCell ref="C105:D105"/>
-    <mergeCell ref="C106:D106"/>
-    <mergeCell ref="C107:D107"/>
-    <mergeCell ref="C108:D108"/>
-    <mergeCell ref="C97:D97"/>
-    <mergeCell ref="C98:D98"/>
-    <mergeCell ref="C99:D99"/>
-    <mergeCell ref="C100:D100"/>
-    <mergeCell ref="C101:D101"/>
-    <mergeCell ref="C102:D102"/>
-    <mergeCell ref="C118:D118"/>
-    <mergeCell ref="C119:D119"/>
-    <mergeCell ref="C120:D120"/>
-    <mergeCell ref="C109:D109"/>
-    <mergeCell ref="C110:D110"/>
-    <mergeCell ref="C111:D111"/>
-    <mergeCell ref="C112:D112"/>
-    <mergeCell ref="C113:D113"/>
-    <mergeCell ref="C114:D114"/>
     <mergeCell ref="C139:D139"/>
     <mergeCell ref="C140:D140"/>
     <mergeCell ref="C5:D5"/>
@@ -11137,6 +11368,122 @@
     <mergeCell ref="C115:D115"/>
     <mergeCell ref="C116:D116"/>
     <mergeCell ref="C117:D117"/>
+    <mergeCell ref="C118:D118"/>
+    <mergeCell ref="C119:D119"/>
+    <mergeCell ref="C120:D120"/>
+    <mergeCell ref="C109:D109"/>
+    <mergeCell ref="C110:D110"/>
+    <mergeCell ref="C111:D111"/>
+    <mergeCell ref="C112:D112"/>
+    <mergeCell ref="C113:D113"/>
+    <mergeCell ref="C114:D114"/>
+    <mergeCell ref="C103:D103"/>
+    <mergeCell ref="C104:D104"/>
+    <mergeCell ref="C105:D105"/>
+    <mergeCell ref="C106:D106"/>
+    <mergeCell ref="C107:D107"/>
+    <mergeCell ref="C108:D108"/>
+    <mergeCell ref="C97:D97"/>
+    <mergeCell ref="C98:D98"/>
+    <mergeCell ref="C99:D99"/>
+    <mergeCell ref="C100:D100"/>
+    <mergeCell ref="C101:D101"/>
+    <mergeCell ref="C102:D102"/>
+    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="C90:D90"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:E2"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11163,17 +11510,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="29" t="s">
         <v>226</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27" t="s">
+      <c r="B1" s="29"/>
+      <c r="C1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="27"/>
+      <c r="E1" s="29"/>
       <c r="F1" s="16" t="s">
         <v>3</v>
       </c>
@@ -11182,11 +11529,11 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
+      <c r="A2" s="29"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
       <c r="F2" s="16" t="s">
         <v>4</v>
       </c>
@@ -11205,10 +11552,10 @@
       <c r="B4" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="28"/>
+      <c r="D4" s="30"/>
       <c r="E4" s="14" t="s">
         <v>11</v>
       </c>
@@ -11235,10 +11582,10 @@
       <c r="B5" s="15" t="s">
         <v>224</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="C5" s="32" t="s">
         <v>225</v>
       </c>
-      <c r="D5" s="30"/>
+      <c r="D5" s="32"/>
       <c r="E5" s="15" t="s">
         <v>204</v>
       </c>
@@ -11250,10 +11597,10 @@
       <c r="B6" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="C6" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="30"/>
+      <c r="D6" s="32"/>
       <c r="E6" s="15" t="s">
         <v>120</v>
       </c>
@@ -11265,10 +11612,10 @@
       <c r="B7" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="25"/>
+      <c r="D7" s="26"/>
       <c r="E7" s="15" t="s">
         <v>122</v>
       </c>
@@ -11280,10 +11627,10 @@
       <c r="B8" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="25" t="s">
+      <c r="C8" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="25"/>
+      <c r="D8" s="26"/>
       <c r="E8" s="15" t="s">
         <v>122</v>
       </c>
@@ -11295,10 +11642,10 @@
       <c r="B9" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="24" t="s">
+      <c r="C9" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="25"/>
+      <c r="D9" s="26"/>
       <c r="E9" s="15" t="s">
         <v>122</v>
       </c>
@@ -11310,10 +11657,10 @@
       <c r="B10" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="24" t="s">
+      <c r="C10" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="25"/>
+      <c r="D10" s="26"/>
       <c r="E10" s="15" t="s">
         <v>122</v>
       </c>
@@ -11325,10 +11672,10 @@
       <c r="B11" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="24" t="s">
+      <c r="C11" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="25"/>
+      <c r="D11" s="26"/>
       <c r="E11" s="15" t="s">
         <v>122</v>
       </c>
@@ -11340,10 +11687,10 @@
       <c r="B12" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="24" t="s">
+      <c r="C12" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="25"/>
+      <c r="D12" s="26"/>
       <c r="E12" s="15" t="s">
         <v>122</v>
       </c>
@@ -11355,10 +11702,10 @@
       <c r="B13" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="24" t="s">
+      <c r="C13" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="25"/>
+      <c r="D13" s="26"/>
       <c r="E13" s="15" t="s">
         <v>167</v>
       </c>
@@ -11370,10 +11717,10 @@
       <c r="B14" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="24" t="s">
+      <c r="C14" s="27" t="s">
         <v>136</v>
       </c>
-      <c r="D14" s="25"/>
+      <c r="D14" s="26"/>
       <c r="E14" s="15" t="s">
         <v>167</v>
       </c>
@@ -11385,10 +11732,10 @@
       <c r="B15" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="24" t="s">
+      <c r="C15" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="25"/>
+      <c r="D15" s="26"/>
       <c r="E15" s="15" t="s">
         <v>122</v>
       </c>
@@ -11400,10 +11747,10 @@
       <c r="B16" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="24" t="s">
+      <c r="C16" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="25"/>
+      <c r="D16" s="26"/>
       <c r="E16" s="15" t="s">
         <v>122</v>
       </c>
@@ -11415,10 +11762,10 @@
       <c r="B17" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="24" t="s">
+      <c r="C17" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="D17" s="25"/>
+      <c r="D17" s="26"/>
       <c r="E17" s="15" t="s">
         <v>167</v>
       </c>
@@ -11430,10 +11777,10 @@
       <c r="B18" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="24" t="s">
+      <c r="C18" s="27" t="s">
         <v>134</v>
       </c>
-      <c r="D18" s="25"/>
+      <c r="D18" s="26"/>
       <c r="E18" s="15" t="s">
         <v>167</v>
       </c>
@@ -11445,10 +11792,10 @@
       <c r="B19" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="24" t="s">
+      <c r="C19" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D19" s="25"/>
+      <c r="D19" s="26"/>
       <c r="E19" s="15" t="s">
         <v>122</v>
       </c>
@@ -11460,10 +11807,10 @@
       <c r="B20" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="24" t="s">
+      <c r="C20" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="D20" s="25"/>
+      <c r="D20" s="26"/>
       <c r="E20" s="15" t="s">
         <v>122</v>
       </c>
@@ -11475,10 +11822,10 @@
       <c r="B21" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="24" t="s">
+      <c r="C21" s="27" t="s">
         <v>127</v>
       </c>
-      <c r="D21" s="25"/>
+      <c r="D21" s="26"/>
       <c r="E21" s="15" t="s">
         <v>122</v>
       </c>
@@ -11490,10 +11837,10 @@
       <c r="B22" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="24" t="s">
+      <c r="C22" s="27" t="s">
         <v>128</v>
       </c>
-      <c r="D22" s="24"/>
+      <c r="D22" s="27"/>
       <c r="E22" s="15" t="s">
         <v>122</v>
       </c>
@@ -11505,10 +11852,10 @@
       <c r="B23" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C23" s="24" t="s">
+      <c r="C23" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="D23" s="25"/>
+      <c r="D23" s="26"/>
       <c r="E23" s="15" t="s">
         <v>167</v>
       </c>
@@ -11520,10 +11867,10 @@
       <c r="B24" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C24" s="24" t="s">
+      <c r="C24" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="D24" s="25"/>
+      <c r="D24" s="26"/>
       <c r="E24" s="15" t="s">
         <v>167</v>
       </c>
@@ -11535,10 +11882,10 @@
       <c r="B25" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C25" s="24" t="s">
+      <c r="C25" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="D25" s="25"/>
+      <c r="D25" s="26"/>
       <c r="E25" s="15" t="s">
         <v>167</v>
       </c>
@@ -11550,10 +11897,10 @@
       <c r="B26" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C26" s="24" t="s">
+      <c r="C26" s="27" t="s">
         <v>125</v>
       </c>
-      <c r="D26" s="25"/>
+      <c r="D26" s="26"/>
       <c r="E26" s="15" t="s">
         <v>122</v>
       </c>
@@ -11565,10 +11912,10 @@
       <c r="B27" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C27" s="24" t="s">
+      <c r="C27" s="27" t="s">
         <v>126</v>
       </c>
-      <c r="D27" s="24"/>
+      <c r="D27" s="27"/>
       <c r="E27" s="15" t="s">
         <v>167</v>
       </c>
@@ -11580,10 +11927,10 @@
       <c r="B28" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C28" s="24" t="s">
+      <c r="C28" s="27" t="s">
         <v>140</v>
       </c>
-      <c r="D28" s="24"/>
+      <c r="D28" s="27"/>
       <c r="E28" s="15" t="s">
         <v>122</v>
       </c>
@@ -11595,10 +11942,10 @@
       <c r="B29" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C29" s="24" t="s">
+      <c r="C29" s="27" t="s">
         <v>137</v>
       </c>
-      <c r="D29" s="24"/>
+      <c r="D29" s="27"/>
       <c r="E29" s="15" t="s">
         <v>167</v>
       </c>
@@ -11610,10 +11957,10 @@
       <c r="B30" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C30" s="24" t="s">
+      <c r="C30" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="D30" s="25"/>
+      <c r="D30" s="26"/>
       <c r="E30" s="15" t="s">
         <v>122</v>
       </c>
@@ -11625,10 +11972,10 @@
       <c r="B31" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C31" s="24" t="s">
+      <c r="C31" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="D31" s="25"/>
+      <c r="D31" s="26"/>
       <c r="E31" s="15" t="s">
         <v>122</v>
       </c>
@@ -11640,10 +11987,10 @@
       <c r="B32" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C32" s="24" t="s">
+      <c r="C32" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="D32" s="25"/>
+      <c r="D32" s="26"/>
       <c r="E32" s="15" t="s">
         <v>122</v>
       </c>
@@ -11655,10 +12002,10 @@
       <c r="B33" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C33" s="24" t="s">
+      <c r="C33" s="27" t="s">
         <v>148</v>
       </c>
-      <c r="D33" s="25"/>
+      <c r="D33" s="26"/>
       <c r="E33" s="15" t="s">
         <v>122</v>
       </c>
@@ -11670,10 +12017,10 @@
       <c r="B34" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C34" s="24" t="s">
+      <c r="C34" s="27" t="s">
         <v>141</v>
       </c>
-      <c r="D34" s="24"/>
+      <c r="D34" s="27"/>
       <c r="E34" s="15" t="s">
         <v>122</v>
       </c>
@@ -11685,10 +12032,10 @@
       <c r="B35" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C35" s="24" t="s">
+      <c r="C35" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="D35" s="25"/>
+      <c r="D35" s="26"/>
       <c r="E35" s="15" t="s">
         <v>122</v>
       </c>
@@ -11700,10 +12047,10 @@
       <c r="B36" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C36" s="24" t="s">
+      <c r="C36" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="D36" s="25"/>
+      <c r="D36" s="26"/>
       <c r="E36" s="15" t="s">
         <v>122</v>
       </c>
@@ -11715,10 +12062,10 @@
       <c r="B37" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C37" s="24" t="s">
+      <c r="C37" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="D37" s="25"/>
+      <c r="D37" s="26"/>
       <c r="E37" s="15" t="s">
         <v>122</v>
       </c>
@@ -11730,10 +12077,10 @@
       <c r="B38" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C38" s="24" t="s">
+      <c r="C38" s="27" t="s">
         <v>149</v>
       </c>
-      <c r="D38" s="25"/>
+      <c r="D38" s="26"/>
       <c r="E38" s="15" t="s">
         <v>119</v>
       </c>
@@ -11745,10 +12092,10 @@
       <c r="B39" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C39" s="24" t="s">
+      <c r="C39" s="27" t="s">
         <v>142</v>
       </c>
-      <c r="D39" s="24"/>
+      <c r="D39" s="27"/>
       <c r="E39" s="15" t="s">
         <v>122</v>
       </c>
@@ -11760,10 +12107,10 @@
       <c r="B40" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C40" s="24" t="s">
+      <c r="C40" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="D40" s="25"/>
+      <c r="D40" s="26"/>
       <c r="E40" s="15" t="s">
         <v>122</v>
       </c>
@@ -11775,10 +12122,10 @@
       <c r="B41" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C41" s="24" t="s">
+      <c r="C41" s="27" t="s">
         <v>105</v>
       </c>
-      <c r="D41" s="25"/>
+      <c r="D41" s="26"/>
       <c r="E41" s="15" t="s">
         <v>167</v>
       </c>
@@ -11790,10 +12137,10 @@
       <c r="B42" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C42" s="24" t="s">
+      <c r="C42" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="D42" s="25"/>
+      <c r="D42" s="26"/>
       <c r="E42" s="15" t="s">
         <v>167</v>
       </c>
@@ -11805,10 +12152,10 @@
       <c r="B43" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C43" s="24" t="s">
+      <c r="C43" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="D43" s="25"/>
+      <c r="D43" s="26"/>
       <c r="E43" s="15" t="s">
         <v>167</v>
       </c>
@@ -11820,10 +12167,10 @@
       <c r="B44" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C44" s="24" t="s">
+      <c r="C44" s="27" t="s">
         <v>110</v>
       </c>
-      <c r="D44" s="25"/>
+      <c r="D44" s="26"/>
       <c r="E44" s="15" t="s">
         <v>167</v>
       </c>
@@ -11835,10 +12182,10 @@
       <c r="B45" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C45" s="24" t="s">
+      <c r="C45" s="27" t="s">
         <v>111</v>
       </c>
-      <c r="D45" s="25"/>
+      <c r="D45" s="26"/>
       <c r="E45" s="15" t="s">
         <v>167</v>
       </c>
@@ -11850,10 +12197,10 @@
       <c r="B46" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C46" s="24" t="s">
+      <c r="C46" s="27" t="s">
         <v>116</v>
       </c>
-      <c r="D46" s="25"/>
+      <c r="D46" s="26"/>
       <c r="E46" s="15" t="s">
         <v>167</v>
       </c>
@@ -11865,10 +12212,10 @@
       <c r="B47" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C47" s="24" t="s">
+      <c r="C47" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="D47" s="25"/>
+      <c r="D47" s="26"/>
       <c r="E47" s="15" t="s">
         <v>167</v>
       </c>
@@ -11880,10 +12227,10 @@
       <c r="B48" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C48" s="24" t="s">
+      <c r="C48" s="27" t="s">
         <v>118</v>
       </c>
-      <c r="D48" s="25"/>
+      <c r="D48" s="26"/>
       <c r="E48" s="15" t="s">
         <v>167</v>
       </c>
@@ -11895,10 +12242,10 @@
       <c r="B49" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C49" s="24" t="s">
+      <c r="C49" s="27" t="s">
         <v>172</v>
       </c>
-      <c r="D49" s="25"/>
+      <c r="D49" s="26"/>
       <c r="E49" s="15" t="s">
         <v>120</v>
       </c>
@@ -11910,10 +12257,10 @@
       <c r="B50" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C50" s="24" t="s">
+      <c r="C50" s="27" t="s">
         <v>173</v>
       </c>
-      <c r="D50" s="25"/>
+      <c r="D50" s="26"/>
       <c r="E50" s="15" t="s">
         <v>120</v>
       </c>
@@ -11925,10 +12272,10 @@
       <c r="B51" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C51" s="24" t="s">
+      <c r="C51" s="27" t="s">
         <v>143</v>
       </c>
-      <c r="D51" s="25"/>
+      <c r="D51" s="26"/>
       <c r="E51" s="15" t="s">
         <v>120</v>
       </c>
@@ -11940,10 +12287,10 @@
       <c r="B52" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C52" s="24" t="s">
+      <c r="C52" s="27" t="s">
         <v>144</v>
       </c>
-      <c r="D52" s="25"/>
+      <c r="D52" s="26"/>
       <c r="E52" s="15" t="s">
         <v>120</v>
       </c>
@@ -11955,10 +12302,10 @@
       <c r="B53" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C53" s="24" t="s">
+      <c r="C53" s="27" t="s">
         <v>146</v>
       </c>
-      <c r="D53" s="25"/>
+      <c r="D53" s="26"/>
       <c r="E53" s="15" t="s">
         <v>167</v>
       </c>
@@ -11970,10 +12317,10 @@
       <c r="B54" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C54" s="24" t="s">
+      <c r="C54" s="27" t="s">
         <v>150</v>
       </c>
-      <c r="D54" s="25"/>
+      <c r="D54" s="26"/>
       <c r="E54" s="15" t="s">
         <v>167</v>
       </c>
@@ -11985,10 +12332,10 @@
       <c r="B55" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C55" s="24" t="s">
+      <c r="C55" s="27" t="s">
         <v>174</v>
       </c>
-      <c r="D55" s="25"/>
+      <c r="D55" s="26"/>
       <c r="E55" s="15" t="s">
         <v>120</v>
       </c>
@@ -12000,10 +12347,10 @@
       <c r="B56" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C56" s="24" t="s">
+      <c r="C56" s="27" t="s">
         <v>175</v>
       </c>
-      <c r="D56" s="25"/>
+      <c r="D56" s="26"/>
       <c r="E56" s="15" t="s">
         <v>120</v>
       </c>
@@ -12015,10 +12362,10 @@
       <c r="B57" s="15" t="s">
         <v>231</v>
       </c>
-      <c r="C57" s="25" t="s">
+      <c r="C57" s="26" t="s">
         <v>176</v>
       </c>
-      <c r="D57" s="25"/>
+      <c r="D57" s="26"/>
       <c r="E57" s="15" t="s">
         <v>232</v>
       </c>
@@ -12030,10 +12377,10 @@
       <c r="B58" s="15" t="s">
         <v>231</v>
       </c>
-      <c r="C58" s="25" t="s">
+      <c r="C58" s="26" t="s">
         <v>177</v>
       </c>
-      <c r="D58" s="25"/>
+      <c r="D58" s="26"/>
       <c r="E58" s="15" t="s">
         <v>180</v>
       </c>
@@ -12045,10 +12392,10 @@
       <c r="B59" s="15" t="s">
         <v>231</v>
       </c>
-      <c r="C59" s="25" t="s">
+      <c r="C59" s="26" t="s">
         <v>177</v>
       </c>
-      <c r="D59" s="25"/>
+      <c r="D59" s="26"/>
       <c r="E59" s="15" t="s">
         <v>238</v>
       </c>
@@ -12060,10 +12407,10 @@
       <c r="B60" s="15" t="s">
         <v>231</v>
       </c>
-      <c r="C60" s="25" t="s">
+      <c r="C60" s="26" t="s">
         <v>201</v>
       </c>
-      <c r="D60" s="25"/>
+      <c r="D60" s="26"/>
       <c r="E60" s="15" t="s">
         <v>236</v>
       </c>
@@ -12075,10 +12422,10 @@
       <c r="B61" s="15" t="s">
         <v>181</v>
       </c>
-      <c r="C61" s="25" t="s">
+      <c r="C61" s="26" t="s">
         <v>182</v>
       </c>
-      <c r="D61" s="25"/>
+      <c r="D61" s="26"/>
       <c r="E61" s="15" t="s">
         <v>233</v>
       </c>
@@ -12090,10 +12437,10 @@
       <c r="B62" s="15" t="s">
         <v>231</v>
       </c>
-      <c r="C62" s="25" t="s">
+      <c r="C62" s="26" t="s">
         <v>234</v>
       </c>
-      <c r="D62" s="25"/>
+      <c r="D62" s="26"/>
       <c r="E62" s="15" t="s">
         <v>235</v>
       </c>
@@ -12105,328 +12452,445 @@
       <c r="B63" s="15" t="s">
         <v>231</v>
       </c>
-      <c r="C63" s="25" t="s">
+      <c r="C63" s="26" t="s">
         <v>237</v>
       </c>
-      <c r="D63" s="25"/>
+      <c r="D63" s="26"/>
       <c r="E63" s="15" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C64" s="25"/>
-      <c r="D64" s="25"/>
+      <c r="C64" s="26"/>
+      <c r="D64" s="26"/>
     </row>
     <row r="65" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C65" s="25"/>
-      <c r="D65" s="25"/>
+      <c r="C65" s="26"/>
+      <c r="D65" s="26"/>
     </row>
     <row r="66" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C66" s="25"/>
-      <c r="D66" s="25"/>
+      <c r="C66" s="26"/>
+      <c r="D66" s="26"/>
     </row>
     <row r="67" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C67" s="25"/>
-      <c r="D67" s="25"/>
+      <c r="C67" s="26"/>
+      <c r="D67" s="26"/>
     </row>
     <row r="68" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C68" s="25"/>
-      <c r="D68" s="25"/>
+      <c r="C68" s="26"/>
+      <c r="D68" s="26"/>
     </row>
     <row r="69" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C69" s="25"/>
-      <c r="D69" s="25"/>
+      <c r="C69" s="26"/>
+      <c r="D69" s="26"/>
     </row>
     <row r="70" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C70" s="25"/>
-      <c r="D70" s="25"/>
+      <c r="C70" s="26"/>
+      <c r="D70" s="26"/>
     </row>
     <row r="71" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C71" s="25"/>
-      <c r="D71" s="25"/>
+      <c r="C71" s="26"/>
+      <c r="D71" s="26"/>
     </row>
     <row r="72" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C72" s="25"/>
-      <c r="D72" s="25"/>
+      <c r="C72" s="26"/>
+      <c r="D72" s="26"/>
     </row>
     <row r="73" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C73" s="25"/>
-      <c r="D73" s="25"/>
+      <c r="C73" s="26"/>
+      <c r="D73" s="26"/>
     </row>
     <row r="74" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C74" s="25"/>
-      <c r="D74" s="25"/>
+      <c r="C74" s="26"/>
+      <c r="D74" s="26"/>
     </row>
     <row r="75" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C75" s="25"/>
-      <c r="D75" s="25"/>
+      <c r="C75" s="26"/>
+      <c r="D75" s="26"/>
     </row>
     <row r="76" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C76" s="25"/>
-      <c r="D76" s="25"/>
+      <c r="C76" s="26"/>
+      <c r="D76" s="26"/>
     </row>
     <row r="77" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C77" s="25"/>
-      <c r="D77" s="25"/>
+      <c r="C77" s="26"/>
+      <c r="D77" s="26"/>
     </row>
     <row r="78" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C78" s="25"/>
-      <c r="D78" s="25"/>
+      <c r="C78" s="26"/>
+      <c r="D78" s="26"/>
     </row>
     <row r="79" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C79" s="25"/>
-      <c r="D79" s="25"/>
+      <c r="C79" s="26"/>
+      <c r="D79" s="26"/>
     </row>
     <row r="80" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C80" s="25"/>
-      <c r="D80" s="25"/>
+      <c r="C80" s="26"/>
+      <c r="D80" s="26"/>
     </row>
     <row r="81" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C81" s="25"/>
-      <c r="D81" s="25"/>
+      <c r="C81" s="26"/>
+      <c r="D81" s="26"/>
     </row>
     <row r="82" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C82" s="25"/>
-      <c r="D82" s="25"/>
+      <c r="C82" s="26"/>
+      <c r="D82" s="26"/>
     </row>
     <row r="83" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C83" s="25"/>
-      <c r="D83" s="25"/>
+      <c r="C83" s="26"/>
+      <c r="D83" s="26"/>
     </row>
     <row r="84" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C84" s="25"/>
-      <c r="D84" s="25"/>
+      <c r="C84" s="26"/>
+      <c r="D84" s="26"/>
     </row>
     <row r="85" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C85" s="25"/>
-      <c r="D85" s="25"/>
+      <c r="C85" s="26"/>
+      <c r="D85" s="26"/>
     </row>
     <row r="86" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C86" s="25"/>
-      <c r="D86" s="25"/>
+      <c r="C86" s="26"/>
+      <c r="D86" s="26"/>
     </row>
     <row r="87" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C87" s="25"/>
-      <c r="D87" s="25"/>
+      <c r="C87" s="26"/>
+      <c r="D87" s="26"/>
     </row>
     <row r="88" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C88" s="25"/>
-      <c r="D88" s="25"/>
+      <c r="C88" s="26"/>
+      <c r="D88" s="26"/>
     </row>
     <row r="89" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C89" s="25"/>
-      <c r="D89" s="25"/>
+      <c r="C89" s="26"/>
+      <c r="D89" s="26"/>
     </row>
     <row r="90" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C90" s="25"/>
-      <c r="D90" s="25"/>
+      <c r="C90" s="26"/>
+      <c r="D90" s="26"/>
     </row>
     <row r="91" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C91" s="25"/>
-      <c r="D91" s="25"/>
+      <c r="C91" s="26"/>
+      <c r="D91" s="26"/>
     </row>
     <row r="92" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C92" s="25"/>
-      <c r="D92" s="25"/>
+      <c r="C92" s="26"/>
+      <c r="D92" s="26"/>
     </row>
     <row r="93" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C93" s="25"/>
-      <c r="D93" s="25"/>
+      <c r="C93" s="26"/>
+      <c r="D93" s="26"/>
     </row>
     <row r="94" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C94" s="25"/>
-      <c r="D94" s="25"/>
+      <c r="C94" s="26"/>
+      <c r="D94" s="26"/>
     </row>
     <row r="95" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C95" s="25"/>
-      <c r="D95" s="25"/>
+      <c r="C95" s="26"/>
+      <c r="D95" s="26"/>
     </row>
     <row r="96" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C96" s="25"/>
-      <c r="D96" s="25"/>
+      <c r="C96" s="26"/>
+      <c r="D96" s="26"/>
     </row>
     <row r="97" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C97" s="25"/>
-      <c r="D97" s="25"/>
+      <c r="C97" s="26"/>
+      <c r="D97" s="26"/>
     </row>
     <row r="98" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C98" s="25"/>
-      <c r="D98" s="25"/>
+      <c r="C98" s="26"/>
+      <c r="D98" s="26"/>
     </row>
     <row r="99" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C99" s="25"/>
-      <c r="D99" s="25"/>
+      <c r="C99" s="26"/>
+      <c r="D99" s="26"/>
     </row>
     <row r="100" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C100" s="25"/>
-      <c r="D100" s="25"/>
+      <c r="C100" s="26"/>
+      <c r="D100" s="26"/>
     </row>
     <row r="101" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C101" s="25"/>
-      <c r="D101" s="25"/>
+      <c r="C101" s="26"/>
+      <c r="D101" s="26"/>
     </row>
     <row r="102" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C102" s="25"/>
-      <c r="D102" s="25"/>
+      <c r="C102" s="26"/>
+      <c r="D102" s="26"/>
     </row>
     <row r="103" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C103" s="25"/>
-      <c r="D103" s="25"/>
+      <c r="C103" s="26"/>
+      <c r="D103" s="26"/>
     </row>
     <row r="104" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C104" s="25"/>
-      <c r="D104" s="25"/>
+      <c r="C104" s="26"/>
+      <c r="D104" s="26"/>
     </row>
     <row r="105" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C105" s="25"/>
-      <c r="D105" s="25"/>
+      <c r="C105" s="26"/>
+      <c r="D105" s="26"/>
     </row>
     <row r="106" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C106" s="25"/>
-      <c r="D106" s="25"/>
+      <c r="C106" s="26"/>
+      <c r="D106" s="26"/>
     </row>
     <row r="107" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C107" s="25"/>
-      <c r="D107" s="25"/>
+      <c r="C107" s="26"/>
+      <c r="D107" s="26"/>
     </row>
     <row r="108" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C108" s="25"/>
-      <c r="D108" s="25"/>
+      <c r="C108" s="26"/>
+      <c r="D108" s="26"/>
     </row>
     <row r="109" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C109" s="25"/>
-      <c r="D109" s="25"/>
+      <c r="C109" s="26"/>
+      <c r="D109" s="26"/>
     </row>
     <row r="110" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C110" s="25"/>
-      <c r="D110" s="25"/>
+      <c r="C110" s="26"/>
+      <c r="D110" s="26"/>
     </row>
     <row r="111" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C111" s="25"/>
-      <c r="D111" s="25"/>
+      <c r="C111" s="26"/>
+      <c r="D111" s="26"/>
     </row>
     <row r="112" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C112" s="25"/>
-      <c r="D112" s="25"/>
+      <c r="C112" s="26"/>
+      <c r="D112" s="26"/>
     </row>
     <row r="113" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C113" s="25"/>
-      <c r="D113" s="25"/>
+      <c r="C113" s="26"/>
+      <c r="D113" s="26"/>
     </row>
     <row r="114" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C114" s="25"/>
-      <c r="D114" s="25"/>
+      <c r="C114" s="26"/>
+      <c r="D114" s="26"/>
     </row>
     <row r="115" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C115" s="25"/>
-      <c r="D115" s="25"/>
+      <c r="C115" s="26"/>
+      <c r="D115" s="26"/>
     </row>
     <row r="116" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C116" s="25"/>
-      <c r="D116" s="25"/>
+      <c r="C116" s="26"/>
+      <c r="D116" s="26"/>
     </row>
     <row r="117" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C117" s="25"/>
-      <c r="D117" s="25"/>
+      <c r="C117" s="26"/>
+      <c r="D117" s="26"/>
     </row>
     <row r="118" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C118" s="25"/>
-      <c r="D118" s="25"/>
+      <c r="C118" s="26"/>
+      <c r="D118" s="26"/>
     </row>
     <row r="119" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C119" s="25"/>
-      <c r="D119" s="25"/>
+      <c r="C119" s="26"/>
+      <c r="D119" s="26"/>
     </row>
     <row r="120" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C120" s="25"/>
-      <c r="D120" s="25"/>
+      <c r="C120" s="26"/>
+      <c r="D120" s="26"/>
     </row>
     <row r="121" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C121" s="25"/>
-      <c r="D121" s="25"/>
+      <c r="C121" s="26"/>
+      <c r="D121" s="26"/>
     </row>
     <row r="122" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C122" s="25"/>
-      <c r="D122" s="25"/>
+      <c r="C122" s="26"/>
+      <c r="D122" s="26"/>
     </row>
     <row r="123" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C123" s="25"/>
-      <c r="D123" s="25"/>
+      <c r="C123" s="26"/>
+      <c r="D123" s="26"/>
     </row>
     <row r="124" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C124" s="25"/>
-      <c r="D124" s="25"/>
+      <c r="C124" s="26"/>
+      <c r="D124" s="26"/>
     </row>
     <row r="125" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C125" s="25"/>
-      <c r="D125" s="25"/>
+      <c r="C125" s="26"/>
+      <c r="D125" s="26"/>
     </row>
     <row r="126" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C126" s="25"/>
-      <c r="D126" s="25"/>
+      <c r="C126" s="26"/>
+      <c r="D126" s="26"/>
     </row>
     <row r="127" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C127" s="25"/>
-      <c r="D127" s="25"/>
+      <c r="C127" s="26"/>
+      <c r="D127" s="26"/>
     </row>
     <row r="128" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C128" s="25"/>
-      <c r="D128" s="25"/>
+      <c r="C128" s="26"/>
+      <c r="D128" s="26"/>
     </row>
     <row r="129" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C129" s="25"/>
-      <c r="D129" s="25"/>
+      <c r="C129" s="26"/>
+      <c r="D129" s="26"/>
     </row>
     <row r="130" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C130" s="25"/>
-      <c r="D130" s="25"/>
+      <c r="C130" s="26"/>
+      <c r="D130" s="26"/>
     </row>
     <row r="131" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C131" s="25"/>
-      <c r="D131" s="25"/>
+      <c r="C131" s="26"/>
+      <c r="D131" s="26"/>
     </row>
     <row r="132" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C132" s="25"/>
-      <c r="D132" s="25"/>
+      <c r="C132" s="26"/>
+      <c r="D132" s="26"/>
     </row>
     <row r="133" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C133" s="25"/>
-      <c r="D133" s="25"/>
+      <c r="C133" s="26"/>
+      <c r="D133" s="26"/>
     </row>
     <row r="134" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C134" s="25"/>
-      <c r="D134" s="25"/>
+      <c r="C134" s="26"/>
+      <c r="D134" s="26"/>
     </row>
     <row r="135" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C135" s="25"/>
-      <c r="D135" s="25"/>
+      <c r="C135" s="26"/>
+      <c r="D135" s="26"/>
     </row>
     <row r="136" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C136" s="25"/>
-      <c r="D136" s="25"/>
+      <c r="C136" s="26"/>
+      <c r="D136" s="26"/>
     </row>
     <row r="137" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C137" s="25"/>
-      <c r="D137" s="25"/>
+      <c r="C137" s="26"/>
+      <c r="D137" s="26"/>
     </row>
     <row r="138" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C138" s="25"/>
-      <c r="D138" s="25"/>
+      <c r="C138" s="26"/>
+      <c r="D138" s="26"/>
     </row>
     <row r="139" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C139" s="25"/>
-      <c r="D139" s="25"/>
+      <c r="C139" s="26"/>
+      <c r="D139" s="26"/>
     </row>
     <row r="140" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C140" s="25"/>
-      <c r="D140" s="25"/>
+      <c r="C140" s="26"/>
+      <c r="D140" s="26"/>
     </row>
     <row r="141" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C141" s="25"/>
-      <c r="D141" s="25"/>
+      <c r="C141" s="26"/>
+      <c r="D141" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="141">
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:E2"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="C97:D97"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="C90:D90"/>
+    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="C104:D104"/>
+    <mergeCell ref="C105:D105"/>
+    <mergeCell ref="C106:D106"/>
+    <mergeCell ref="C107:D107"/>
+    <mergeCell ref="C108:D108"/>
+    <mergeCell ref="C109:D109"/>
+    <mergeCell ref="C98:D98"/>
+    <mergeCell ref="C99:D99"/>
+    <mergeCell ref="C100:D100"/>
+    <mergeCell ref="C101:D101"/>
+    <mergeCell ref="C102:D102"/>
+    <mergeCell ref="C103:D103"/>
+    <mergeCell ref="C119:D119"/>
+    <mergeCell ref="C120:D120"/>
+    <mergeCell ref="C121:D121"/>
+    <mergeCell ref="C110:D110"/>
+    <mergeCell ref="C111:D111"/>
+    <mergeCell ref="C112:D112"/>
+    <mergeCell ref="C113:D113"/>
+    <mergeCell ref="C114:D114"/>
+    <mergeCell ref="C115:D115"/>
     <mergeCell ref="C140:D140"/>
     <mergeCell ref="C141:D141"/>
     <mergeCell ref="C5:D5"/>
@@ -12451,123 +12915,6 @@
     <mergeCell ref="C116:D116"/>
     <mergeCell ref="C117:D117"/>
     <mergeCell ref="C118:D118"/>
-    <mergeCell ref="C119:D119"/>
-    <mergeCell ref="C120:D120"/>
-    <mergeCell ref="C121:D121"/>
-    <mergeCell ref="C110:D110"/>
-    <mergeCell ref="C111:D111"/>
-    <mergeCell ref="C112:D112"/>
-    <mergeCell ref="C113:D113"/>
-    <mergeCell ref="C114:D114"/>
-    <mergeCell ref="C115:D115"/>
-    <mergeCell ref="C104:D104"/>
-    <mergeCell ref="C105:D105"/>
-    <mergeCell ref="C106:D106"/>
-    <mergeCell ref="C107:D107"/>
-    <mergeCell ref="C108:D108"/>
-    <mergeCell ref="C109:D109"/>
-    <mergeCell ref="C98:D98"/>
-    <mergeCell ref="C99:D99"/>
-    <mergeCell ref="C100:D100"/>
-    <mergeCell ref="C101:D101"/>
-    <mergeCell ref="C102:D102"/>
-    <mergeCell ref="C103:D103"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="C96:D96"/>
-    <mergeCell ref="C97:D97"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="C89:D89"/>
-    <mergeCell ref="C90:D90"/>
-    <mergeCell ref="C91:D91"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:E2"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/アカウント登録　テストケース.xlsx
+++ b/アカウント登録　テストケース.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2902" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2914" uniqueCount="389">
   <si>
     <t>単体テストケース</t>
     <rPh sb="0" eb="2">
@@ -5546,6 +5546,116 @@
     </rPh>
     <rPh sb="12" eb="14">
       <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント更新画面</t>
+    <rPh sb="5" eb="7">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>未入力の項目がある場合、赤字でエラーメッセージが表示される</t>
+    <rPh sb="0" eb="3">
+      <t>ミニュウリョク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>アカジ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>更新画面に留まる</t>
+    <rPh sb="0" eb="2">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>トド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エラーメッセージが表示されず、更新確認画面に遷移してしまう</t>
+    <rPh sb="9" eb="11">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="17" eb="21">
+      <t>カクニンガメン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント削除、更新完了画面</t>
+    <rPh sb="5" eb="7">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="10" eb="14">
+      <t>カンリョウガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>更新する、削除ボタンを押下</t>
+    <rPh sb="0" eb="2">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エラーがある場合、アカウント更新、削除できない</t>
+    <rPh sb="6" eb="8">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エラーとともにスタックトレースが出てしまう、更新削除できてしまう</t>
+    <rPh sb="16" eb="17">
+      <t>デ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>サクジョ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -5649,7 +5759,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5732,13 +5842,19 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5747,9 +5863,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -6034,8 +6147,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J473"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I152" sqref="I152"/>
+    <sheetView tabSelected="1" topLeftCell="A301" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J307" sqref="J307"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6053,17 +6166,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30" t="s">
+      <c r="B1" s="32"/>
+      <c r="C1" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="30"/>
+      <c r="E1" s="32"/>
       <c r="F1" s="4" t="s">
         <v>3</v>
       </c>
@@ -6072,11 +6185,11 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A2" s="30"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
+      <c r="A2" s="32"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
       <c r="F2" s="4" t="s">
         <v>4</v>
       </c>
@@ -6091,10 +6204,10 @@
       <c r="B4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="31" t="s">
+      <c r="C4" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="31"/>
+      <c r="D4" s="33"/>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
@@ -6121,10 +6234,10 @@
       <c r="B5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="32" t="s">
+      <c r="C5" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="32"/>
+      <c r="D5" s="34"/>
       <c r="E5" s="6" t="s">
         <v>120</v>
       </c>
@@ -6148,10 +6261,10 @@
       <c r="B6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="29" t="s">
         <v>96</v>
       </c>
-      <c r="D6" s="27"/>
+      <c r="D6" s="29"/>
       <c r="E6" s="6" t="s">
         <v>121</v>
       </c>
@@ -6175,10 +6288,10 @@
       <c r="B7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="27" t="s">
+      <c r="C7" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="D7" s="27"/>
+      <c r="D7" s="29"/>
       <c r="E7" s="6" t="s">
         <v>121</v>
       </c>
@@ -6202,10 +6315,10 @@
       <c r="B8" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="27" t="s">
+      <c r="C8" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="D8" s="27"/>
+      <c r="D8" s="29"/>
       <c r="E8" s="6" t="s">
         <v>121</v>
       </c>
@@ -6229,10 +6342,10 @@
       <c r="B9" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="29" t="s">
+      <c r="C9" s="30" t="s">
         <v>99</v>
       </c>
-      <c r="D9" s="29"/>
+      <c r="D9" s="30"/>
       <c r="E9" s="6" t="s">
         <v>121</v>
       </c>
@@ -6256,10 +6369,10 @@
       <c r="B10" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="29" t="s">
+      <c r="C10" s="30" t="s">
         <v>100</v>
       </c>
-      <c r="D10" s="29"/>
+      <c r="D10" s="30"/>
       <c r="E10" s="6" t="s">
         <v>121</v>
       </c>
@@ -6283,10 +6396,10 @@
       <c r="B11" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="29" t="s">
+      <c r="C11" s="30" t="s">
         <v>101</v>
       </c>
-      <c r="D11" s="29"/>
+      <c r="D11" s="30"/>
       <c r="E11" s="6" t="s">
         <v>121</v>
       </c>
@@ -6310,10 +6423,10 @@
       <c r="B12" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="29" t="s">
+      <c r="C12" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="D12" s="29"/>
+      <c r="D12" s="30"/>
       <c r="E12" s="6" t="s">
         <v>121</v>
       </c>
@@ -6337,10 +6450,10 @@
       <c r="B13" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="29" t="s">
+      <c r="C13" s="30" t="s">
         <v>102</v>
       </c>
-      <c r="D13" s="29"/>
+      <c r="D13" s="30"/>
       <c r="E13" s="6" t="s">
         <v>121</v>
       </c>
@@ -6364,10 +6477,10 @@
       <c r="B14" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="29" t="s">
+      <c r="C14" s="30" t="s">
         <v>103</v>
       </c>
-      <c r="D14" s="29"/>
+      <c r="D14" s="30"/>
       <c r="E14" s="6" t="s">
         <v>121</v>
       </c>
@@ -6445,7 +6558,7 @@
       <c r="B17" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="27" t="s">
+      <c r="C17" s="29" t="s">
         <v>20</v>
       </c>
       <c r="D17" s="28"/>
@@ -6472,7 +6585,7 @@
       <c r="B18" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="27" t="s">
+      <c r="C18" s="29" t="s">
         <v>19</v>
       </c>
       <c r="D18" s="28"/>
@@ -6499,7 +6612,7 @@
       <c r="B19" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="27" t="s">
+      <c r="C19" s="29" t="s">
         <v>22</v>
       </c>
       <c r="D19" s="28"/>
@@ -6526,7 +6639,7 @@
       <c r="B20" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="27" t="s">
+      <c r="C20" s="29" t="s">
         <v>23</v>
       </c>
       <c r="D20" s="28"/>
@@ -6553,7 +6666,7 @@
       <c r="B21" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="27" t="s">
+      <c r="C21" s="29" t="s">
         <v>21</v>
       </c>
       <c r="D21" s="28"/>
@@ -6580,7 +6693,7 @@
       <c r="B22" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="27" t="s">
+      <c r="C22" s="29" t="s">
         <v>136</v>
       </c>
       <c r="D22" s="28"/>
@@ -6607,10 +6720,10 @@
       <c r="B23" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C23" s="27" t="s">
+      <c r="C23" s="29" t="s">
         <v>135</v>
       </c>
-      <c r="D23" s="27"/>
+      <c r="D23" s="29"/>
       <c r="E23" s="6" t="s">
         <v>167</v>
       </c>
@@ -6634,7 +6747,7 @@
       <c r="B24" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C24" s="27" t="s">
+      <c r="C24" s="29" t="s">
         <v>24</v>
       </c>
       <c r="D24" s="28"/>
@@ -6661,7 +6774,7 @@
       <c r="B25" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C25" s="27" t="s">
+      <c r="C25" s="29" t="s">
         <v>25</v>
       </c>
       <c r="D25" s="28"/>
@@ -6688,7 +6801,7 @@
       <c r="B26" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C26" s="27" t="s">
+      <c r="C26" s="29" t="s">
         <v>26</v>
       </c>
       <c r="D26" s="28"/>
@@ -6715,7 +6828,7 @@
       <c r="B27" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C27" s="27" t="s">
+      <c r="C27" s="29" t="s">
         <v>134</v>
       </c>
       <c r="D27" s="28"/>
@@ -6742,10 +6855,10 @@
       <c r="B28" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C28" s="27" t="s">
+      <c r="C28" s="29" t="s">
         <v>133</v>
       </c>
-      <c r="D28" s="27"/>
+      <c r="D28" s="29"/>
       <c r="E28" s="6" t="s">
         <v>168</v>
       </c>
@@ -6769,7 +6882,7 @@
       <c r="B29" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C29" s="27" t="s">
+      <c r="C29" s="29" t="s">
         <v>27</v>
       </c>
       <c r="D29" s="28"/>
@@ -6796,7 +6909,7 @@
       <c r="B30" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C30" s="27" t="s">
+      <c r="C30" s="29" t="s">
         <v>28</v>
       </c>
       <c r="D30" s="28"/>
@@ -6823,7 +6936,7 @@
       <c r="B31" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C31" s="27" t="s">
+      <c r="C31" s="29" t="s">
         <v>29</v>
       </c>
       <c r="D31" s="28"/>
@@ -6850,7 +6963,7 @@
       <c r="B32" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C32" s="27" t="s">
+      <c r="C32" s="29" t="s">
         <v>131</v>
       </c>
       <c r="D32" s="28"/>
@@ -6877,10 +6990,10 @@
       <c r="B33" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C33" s="27" t="s">
+      <c r="C33" s="29" t="s">
         <v>132</v>
       </c>
-      <c r="D33" s="27"/>
+      <c r="D33" s="29"/>
       <c r="E33" s="6" t="s">
         <v>167</v>
       </c>
@@ -6904,7 +7017,7 @@
       <c r="B34" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C34" s="27" t="s">
+      <c r="C34" s="29" t="s">
         <v>30</v>
       </c>
       <c r="D34" s="28"/>
@@ -6931,7 +7044,7 @@
       <c r="B35" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C35" s="27" t="s">
+      <c r="C35" s="29" t="s">
         <v>31</v>
       </c>
       <c r="D35" s="28"/>
@@ -6958,7 +7071,7 @@
       <c r="B36" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C36" s="27" t="s">
+      <c r="C36" s="29" t="s">
         <v>32</v>
       </c>
       <c r="D36" s="28"/>
@@ -6985,7 +7098,7 @@
       <c r="B37" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C37" s="27" t="s">
+      <c r="C37" s="29" t="s">
         <v>129</v>
       </c>
       <c r="D37" s="28"/>
@@ -7012,10 +7125,10 @@
       <c r="B38" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C38" s="27" t="s">
+      <c r="C38" s="29" t="s">
         <v>130</v>
       </c>
-      <c r="D38" s="27"/>
+      <c r="D38" s="29"/>
       <c r="E38" s="6" t="s">
         <v>169</v>
       </c>
@@ -7039,7 +7152,7 @@
       <c r="B39" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C39" s="27" t="s">
+      <c r="C39" s="29" t="s">
         <v>33</v>
       </c>
       <c r="D39" s="28"/>
@@ -7066,7 +7179,7 @@
       <c r="B40" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C40" s="27" t="s">
+      <c r="C40" s="29" t="s">
         <v>34</v>
       </c>
       <c r="D40" s="28"/>
@@ -7093,7 +7206,7 @@
       <c r="B41" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C41" s="27" t="s">
+      <c r="C41" s="29" t="s">
         <v>35</v>
       </c>
       <c r="D41" s="28"/>
@@ -7120,7 +7233,7 @@
       <c r="B42" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C42" s="27" t="s">
+      <c r="C42" s="29" t="s">
         <v>127</v>
       </c>
       <c r="D42" s="28"/>
@@ -7147,10 +7260,10 @@
       <c r="B43" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C43" s="27" t="s">
+      <c r="C43" s="29" t="s">
         <v>246</v>
       </c>
-      <c r="D43" s="27"/>
+      <c r="D43" s="29"/>
       <c r="E43" s="6" t="s">
         <v>124</v>
       </c>
@@ -7174,7 +7287,7 @@
       <c r="B44" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C44" s="27" t="s">
+      <c r="C44" s="29" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="28"/>
@@ -7201,7 +7314,7 @@
       <c r="B45" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C45" s="27" t="s">
+      <c r="C45" s="29" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="28"/>
@@ -7228,7 +7341,7 @@
       <c r="B46" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C46" s="27" t="s">
+      <c r="C46" s="29" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="28"/>
@@ -7255,7 +7368,7 @@
       <c r="B47" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C47" s="27" t="s">
+      <c r="C47" s="29" t="s">
         <v>125</v>
       </c>
       <c r="D47" s="28"/>
@@ -7282,10 +7395,10 @@
       <c r="B48" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C48" s="27" t="s">
+      <c r="C48" s="29" t="s">
         <v>126</v>
       </c>
-      <c r="D48" s="27"/>
+      <c r="D48" s="29"/>
       <c r="E48" s="15" t="s">
         <v>167</v>
       </c>
@@ -7309,7 +7422,7 @@
       <c r="B49" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C49" s="27" t="s">
+      <c r="C49" s="29" t="s">
         <v>39</v>
       </c>
       <c r="D49" s="28"/>
@@ -7336,7 +7449,7 @@
       <c r="B50" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C50" s="27" t="s">
+      <c r="C50" s="29" t="s">
         <v>40</v>
       </c>
       <c r="D50" s="28"/>
@@ -7363,7 +7476,7 @@
       <c r="B51" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C51" s="27" t="s">
+      <c r="C51" s="29" t="s">
         <v>41</v>
       </c>
       <c r="D51" s="28"/>
@@ -7390,10 +7503,10 @@
       <c r="B52" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C52" s="27" t="s">
+      <c r="C52" s="29" t="s">
         <v>140</v>
       </c>
-      <c r="D52" s="27"/>
+      <c r="D52" s="29"/>
       <c r="E52" s="6" t="s">
         <v>139</v>
       </c>
@@ -7417,7 +7530,7 @@
       <c r="B53" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C53" s="27" t="s">
+      <c r="C53" s="29" t="s">
         <v>138</v>
       </c>
       <c r="D53" s="28"/>
@@ -7444,10 +7557,10 @@
       <c r="B54" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C54" s="27" t="s">
+      <c r="C54" s="29" t="s">
         <v>137</v>
       </c>
-      <c r="D54" s="27"/>
+      <c r="D54" s="29"/>
       <c r="E54" s="6" t="s">
         <v>167</v>
       </c>
@@ -7471,7 +7584,7 @@
       <c r="B55" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C55" s="27" t="s">
+      <c r="C55" s="29" t="s">
         <v>42</v>
       </c>
       <c r="D55" s="28"/>
@@ -7498,7 +7611,7 @@
       <c r="B56" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C56" s="27" t="s">
+      <c r="C56" s="29" t="s">
         <v>43</v>
       </c>
       <c r="D56" s="28"/>
@@ -7525,7 +7638,7 @@
       <c r="B57" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C57" s="27" t="s">
+      <c r="C57" s="29" t="s">
         <v>44</v>
       </c>
       <c r="D57" s="28"/>
@@ -7552,7 +7665,7 @@
       <c r="B58" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C58" s="27" t="s">
+      <c r="C58" s="29" t="s">
         <v>148</v>
       </c>
       <c r="D58" s="28"/>
@@ -7579,10 +7692,10 @@
       <c r="B59" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C59" s="27" t="s">
+      <c r="C59" s="29" t="s">
         <v>141</v>
       </c>
-      <c r="D59" s="27"/>
+      <c r="D59" s="29"/>
       <c r="E59" s="6" t="s">
         <v>122</v>
       </c>
@@ -7606,7 +7719,7 @@
       <c r="B60" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C60" s="27" t="s">
+      <c r="C60" s="29" t="s">
         <v>45</v>
       </c>
       <c r="D60" s="28"/>
@@ -7633,7 +7746,7 @@
       <c r="B61" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C61" s="27" t="s">
+      <c r="C61" s="29" t="s">
         <v>46</v>
       </c>
       <c r="D61" s="28"/>
@@ -7660,7 +7773,7 @@
       <c r="B62" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C62" s="27" t="s">
+      <c r="C62" s="29" t="s">
         <v>47</v>
       </c>
       <c r="D62" s="28"/>
@@ -7687,7 +7800,7 @@
       <c r="B63" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C63" s="27" t="s">
+      <c r="C63" s="29" t="s">
         <v>149</v>
       </c>
       <c r="D63" s="28"/>
@@ -7714,10 +7827,10 @@
       <c r="B64" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C64" s="27" t="s">
+      <c r="C64" s="29" t="s">
         <v>142</v>
       </c>
-      <c r="D64" s="27"/>
+      <c r="D64" s="29"/>
       <c r="E64" s="6" t="s">
         <v>122</v>
       </c>
@@ -7741,7 +7854,7 @@
       <c r="B65" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C65" s="27" t="s">
+      <c r="C65" s="29" t="s">
         <v>48</v>
       </c>
       <c r="D65" s="28"/>
@@ -7984,7 +8097,7 @@
       <c r="B74" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C74" s="27" t="s">
+      <c r="C74" s="29" t="s">
         <v>57</v>
       </c>
       <c r="D74" s="28"/>
@@ -8038,7 +8151,7 @@
       <c r="B76" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C76" s="27" t="s">
+      <c r="C76" s="29" t="s">
         <v>59</v>
       </c>
       <c r="D76" s="28"/>
@@ -8065,7 +8178,7 @@
       <c r="B77" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C77" s="27" t="s">
+      <c r="C77" s="29" t="s">
         <v>60</v>
       </c>
       <c r="D77" s="28"/>
@@ -8092,7 +8205,7 @@
       <c r="B78" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C78" s="27" t="s">
+      <c r="C78" s="29" t="s">
         <v>61</v>
       </c>
       <c r="D78" s="28"/>
@@ -8119,7 +8232,7 @@
       <c r="B79" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C79" s="27" t="s">
+      <c r="C79" s="29" t="s">
         <v>62</v>
       </c>
       <c r="D79" s="28"/>
@@ -8146,7 +8259,7 @@
       <c r="B80" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C80" s="27" t="s">
+      <c r="C80" s="29" t="s">
         <v>63</v>
       </c>
       <c r="D80" s="28"/>
@@ -8173,7 +8286,7 @@
       <c r="B81" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C81" s="27" t="s">
+      <c r="C81" s="29" t="s">
         <v>64</v>
       </c>
       <c r="D81" s="28"/>
@@ -8200,7 +8313,7 @@
       <c r="B82" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C82" s="27" t="s">
+      <c r="C82" s="29" t="s">
         <v>65</v>
       </c>
       <c r="D82" s="28"/>
@@ -8227,7 +8340,7 @@
       <c r="B83" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C83" s="27" t="s">
+      <c r="C83" s="29" t="s">
         <v>66</v>
       </c>
       <c r="D83" s="28"/>
@@ -8254,7 +8367,7 @@
       <c r="B84" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C84" s="27" t="s">
+      <c r="C84" s="29" t="s">
         <v>68</v>
       </c>
       <c r="D84" s="28"/>
@@ -8281,7 +8394,7 @@
       <c r="B85" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C85" s="27" t="s">
+      <c r="C85" s="29" t="s">
         <v>67</v>
       </c>
       <c r="D85" s="28"/>
@@ -8308,7 +8421,7 @@
       <c r="B86" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C86" s="27" t="s">
+      <c r="C86" s="29" t="s">
         <v>69</v>
       </c>
       <c r="D86" s="28"/>
@@ -8335,7 +8448,7 @@
       <c r="B87" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C87" s="27" t="s">
+      <c r="C87" s="29" t="s">
         <v>70</v>
       </c>
       <c r="D87" s="28"/>
@@ -8362,7 +8475,7 @@
       <c r="B88" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C88" s="27" t="s">
+      <c r="C88" s="29" t="s">
         <v>71</v>
       </c>
       <c r="D88" s="28"/>
@@ -8389,7 +8502,7 @@
       <c r="B89" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C89" s="27" t="s">
+      <c r="C89" s="29" t="s">
         <v>72</v>
       </c>
       <c r="D89" s="28"/>
@@ -8416,7 +8529,7 @@
       <c r="B90" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C90" s="27" t="s">
+      <c r="C90" s="29" t="s">
         <v>73</v>
       </c>
       <c r="D90" s="28"/>
@@ -8443,7 +8556,7 @@
       <c r="B91" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C91" s="27" t="s">
+      <c r="C91" s="29" t="s">
         <v>74</v>
       </c>
       <c r="D91" s="28"/>
@@ -8470,7 +8583,7 @@
       <c r="B92" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C92" s="27" t="s">
+      <c r="C92" s="29" t="s">
         <v>75</v>
       </c>
       <c r="D92" s="28"/>
@@ -8497,7 +8610,7 @@
       <c r="B93" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C93" s="27" t="s">
+      <c r="C93" s="29" t="s">
         <v>76</v>
       </c>
       <c r="D93" s="28"/>
@@ -8524,7 +8637,7 @@
       <c r="B94" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C94" s="27" t="s">
+      <c r="C94" s="29" t="s">
         <v>77</v>
       </c>
       <c r="D94" s="28"/>
@@ -8551,7 +8664,7 @@
       <c r="B95" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C95" s="27" t="s">
+      <c r="C95" s="29" t="s">
         <v>78</v>
       </c>
       <c r="D95" s="28"/>
@@ -8578,7 +8691,7 @@
       <c r="B96" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C96" s="27" t="s">
+      <c r="C96" s="29" t="s">
         <v>79</v>
       </c>
       <c r="D96" s="28"/>
@@ -8605,7 +8718,7 @@
       <c r="B97" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C97" s="27" t="s">
+      <c r="C97" s="29" t="s">
         <v>80</v>
       </c>
       <c r="D97" s="28"/>
@@ -8632,7 +8745,7 @@
       <c r="B98" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C98" s="27" t="s">
+      <c r="C98" s="29" t="s">
         <v>81</v>
       </c>
       <c r="D98" s="28"/>
@@ -8659,7 +8772,7 @@
       <c r="B99" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C99" s="27" t="s">
+      <c r="C99" s="29" t="s">
         <v>82</v>
       </c>
       <c r="D99" s="28"/>
@@ -8686,7 +8799,7 @@
       <c r="B100" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C100" s="27" t="s">
+      <c r="C100" s="29" t="s">
         <v>83</v>
       </c>
       <c r="D100" s="28"/>
@@ -8713,7 +8826,7 @@
       <c r="B101" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C101" s="27" t="s">
+      <c r="C101" s="29" t="s">
         <v>84</v>
       </c>
       <c r="D101" s="28"/>
@@ -8740,7 +8853,7 @@
       <c r="B102" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C102" s="27" t="s">
+      <c r="C102" s="29" t="s">
         <v>85</v>
       </c>
       <c r="D102" s="28"/>
@@ -8767,7 +8880,7 @@
       <c r="B103" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C103" s="27" t="s">
+      <c r="C103" s="29" t="s">
         <v>86</v>
       </c>
       <c r="D103" s="28"/>
@@ -8794,7 +8907,7 @@
       <c r="B104" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C104" s="27" t="s">
+      <c r="C104" s="29" t="s">
         <v>87</v>
       </c>
       <c r="D104" s="28"/>
@@ -8821,7 +8934,7 @@
       <c r="B105" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C105" s="27" t="s">
+      <c r="C105" s="29" t="s">
         <v>88</v>
       </c>
       <c r="D105" s="28"/>
@@ -8848,7 +8961,7 @@
       <c r="B106" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C106" s="27" t="s">
+      <c r="C106" s="29" t="s">
         <v>89</v>
       </c>
       <c r="D106" s="28"/>
@@ -8875,7 +8988,7 @@
       <c r="B107" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C107" s="27" t="s">
+      <c r="C107" s="29" t="s">
         <v>90</v>
       </c>
       <c r="D107" s="28"/>
@@ -8902,7 +9015,7 @@
       <c r="B108" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C108" s="27" t="s">
+      <c r="C108" s="29" t="s">
         <v>91</v>
       </c>
       <c r="D108" s="28"/>
@@ -8929,7 +9042,7 @@
       <c r="B109" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C109" s="27" t="s">
+      <c r="C109" s="29" t="s">
         <v>92</v>
       </c>
       <c r="D109" s="28"/>
@@ -8956,7 +9069,7 @@
       <c r="B110" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C110" s="27" t="s">
+      <c r="C110" s="29" t="s">
         <v>93</v>
       </c>
       <c r="D110" s="28"/>
@@ -8983,7 +9096,7 @@
       <c r="B111" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C111" s="27" t="s">
+      <c r="C111" s="29" t="s">
         <v>94</v>
       </c>
       <c r="D111" s="28"/>
@@ -9037,7 +9150,7 @@
       <c r="B113" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C113" s="27" t="s">
+      <c r="C113" s="29" t="s">
         <v>105</v>
       </c>
       <c r="D113" s="28"/>
@@ -9064,7 +9177,7 @@
       <c r="B114" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C114" s="27" t="s">
+      <c r="C114" s="29" t="s">
         <v>106</v>
       </c>
       <c r="D114" s="28"/>
@@ -9091,7 +9204,7 @@
       <c r="B115" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C115" s="27" t="s">
+      <c r="C115" s="29" t="s">
         <v>107</v>
       </c>
       <c r="D115" s="28"/>
@@ -9118,7 +9231,7 @@
       <c r="B116" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C116" s="27" t="s">
+      <c r="C116" s="29" t="s">
         <v>108</v>
       </c>
       <c r="D116" s="28"/>
@@ -9145,7 +9258,7 @@
       <c r="B117" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C117" s="27" t="s">
+      <c r="C117" s="29" t="s">
         <v>109</v>
       </c>
       <c r="D117" s="28"/>
@@ -9172,7 +9285,7 @@
       <c r="B118" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C118" s="27" t="s">
+      <c r="C118" s="29" t="s">
         <v>110</v>
       </c>
       <c r="D118" s="28"/>
@@ -9199,7 +9312,7 @@
       <c r="B119" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C119" s="27" t="s">
+      <c r="C119" s="29" t="s">
         <v>111</v>
       </c>
       <c r="D119" s="28"/>
@@ -9226,7 +9339,7 @@
       <c r="B120" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C120" s="27" t="s">
+      <c r="C120" s="29" t="s">
         <v>170</v>
       </c>
       <c r="D120" s="28"/>
@@ -9253,7 +9366,7 @@
       <c r="B121" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C121" s="27" t="s">
+      <c r="C121" s="29" t="s">
         <v>171</v>
       </c>
       <c r="D121" s="28"/>
@@ -9280,7 +9393,7 @@
       <c r="B122" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C122" s="27" t="s">
+      <c r="C122" s="29" t="s">
         <v>112</v>
       </c>
       <c r="D122" s="28"/>
@@ -9307,7 +9420,7 @@
       <c r="B123" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C123" s="27" t="s">
+      <c r="C123" s="29" t="s">
         <v>113</v>
       </c>
       <c r="D123" s="28"/>
@@ -9334,7 +9447,7 @@
       <c r="B124" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C124" s="27" t="s">
+      <c r="C124" s="29" t="s">
         <v>114</v>
       </c>
       <c r="D124" s="28"/>
@@ -9361,7 +9474,7 @@
       <c r="B125" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C125" s="27" t="s">
+      <c r="C125" s="29" t="s">
         <v>115</v>
       </c>
       <c r="D125" s="28"/>
@@ -9388,7 +9501,7 @@
       <c r="B126" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C126" s="27" t="s">
+      <c r="C126" s="29" t="s">
         <v>116</v>
       </c>
       <c r="D126" s="28"/>
@@ -9415,7 +9528,7 @@
       <c r="B127" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C127" s="27" t="s">
+      <c r="C127" s="29" t="s">
         <v>117</v>
       </c>
       <c r="D127" s="28"/>
@@ -9442,7 +9555,7 @@
       <c r="B128" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C128" s="27" t="s">
+      <c r="C128" s="29" t="s">
         <v>118</v>
       </c>
       <c r="D128" s="28"/>
@@ -9469,7 +9582,7 @@
       <c r="B129" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C129" s="27" t="s">
+      <c r="C129" s="29" t="s">
         <v>172</v>
       </c>
       <c r="D129" s="28"/>
@@ -9499,7 +9612,7 @@
       <c r="B130" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C130" s="27" t="s">
+      <c r="C130" s="29" t="s">
         <v>173</v>
       </c>
       <c r="D130" s="28"/>
@@ -9529,7 +9642,7 @@
       <c r="B131" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C131" s="27" t="s">
+      <c r="C131" s="29" t="s">
         <v>143</v>
       </c>
       <c r="D131" s="28"/>
@@ -9556,7 +9669,7 @@
       <c r="B132" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C132" s="27" t="s">
+      <c r="C132" s="29" t="s">
         <v>144</v>
       </c>
       <c r="D132" s="28"/>
@@ -9583,7 +9696,7 @@
       <c r="B133" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C133" s="27" t="s">
+      <c r="C133" s="29" t="s">
         <v>145</v>
       </c>
       <c r="D133" s="28"/>
@@ -9610,7 +9723,7 @@
       <c r="B134" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C134" s="27" t="s">
+      <c r="C134" s="29" t="s">
         <v>146</v>
       </c>
       <c r="D134" s="28"/>
@@ -9637,7 +9750,7 @@
       <c r="B135" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C135" s="27" t="s">
+      <c r="C135" s="29" t="s">
         <v>151</v>
       </c>
       <c r="D135" s="28"/>
@@ -9664,7 +9777,7 @@
       <c r="B136" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C136" s="27" t="s">
+      <c r="C136" s="29" t="s">
         <v>150</v>
       </c>
       <c r="D136" s="28"/>
@@ -9691,7 +9804,7 @@
       <c r="B137" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C137" s="27" t="s">
+      <c r="C137" s="29" t="s">
         <v>174</v>
       </c>
       <c r="D137" s="28"/>
@@ -9718,7 +9831,7 @@
       <c r="B138" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C138" s="27" t="s">
+      <c r="C138" s="29" t="s">
         <v>175</v>
       </c>
       <c r="D138" s="28"/>
@@ -10123,10 +10236,10 @@
       <c r="B153" s="22" t="s">
         <v>300</v>
       </c>
-      <c r="C153" s="33" t="s">
+      <c r="C153" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="D153" s="33"/>
+      <c r="D153" s="31"/>
       <c r="E153" s="25" t="s">
         <v>120</v>
       </c>
@@ -10150,10 +10263,10 @@
       <c r="B154" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="C154" s="27" t="s">
+      <c r="C154" s="29" t="s">
         <v>96</v>
       </c>
-      <c r="D154" s="27"/>
+      <c r="D154" s="29"/>
       <c r="E154" s="25" t="s">
         <v>121</v>
       </c>
@@ -10177,10 +10290,10 @@
       <c r="B155" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="C155" s="27" t="s">
+      <c r="C155" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="D155" s="27"/>
+      <c r="D155" s="29"/>
       <c r="E155" s="25" t="s">
         <v>121</v>
       </c>
@@ -10204,10 +10317,10 @@
       <c r="B156" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="C156" s="27" t="s">
+      <c r="C156" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="D156" s="27"/>
+      <c r="D156" s="29"/>
       <c r="E156" s="25" t="s">
         <v>121</v>
       </c>
@@ -10231,10 +10344,10 @@
       <c r="B157" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="C157" s="29" t="s">
+      <c r="C157" s="30" t="s">
         <v>99</v>
       </c>
-      <c r="D157" s="29"/>
+      <c r="D157" s="30"/>
       <c r="E157" s="25" t="s">
         <v>121</v>
       </c>
@@ -10258,10 +10371,10 @@
       <c r="B158" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="C158" s="29" t="s">
+      <c r="C158" s="30" t="s">
         <v>100</v>
       </c>
-      <c r="D158" s="29"/>
+      <c r="D158" s="30"/>
       <c r="E158" s="25" t="s">
         <v>121</v>
       </c>
@@ -10285,10 +10398,10 @@
       <c r="B159" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="C159" s="29" t="s">
+      <c r="C159" s="30" t="s">
         <v>101</v>
       </c>
-      <c r="D159" s="29"/>
+      <c r="D159" s="30"/>
       <c r="E159" s="25" t="s">
         <v>121</v>
       </c>
@@ -10312,10 +10425,10 @@
       <c r="B160" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="C160" s="29" t="s">
+      <c r="C160" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="D160" s="29"/>
+      <c r="D160" s="30"/>
       <c r="E160" s="25" t="s">
         <v>121</v>
       </c>
@@ -10339,10 +10452,10 @@
       <c r="B161" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="C161" s="29" t="s">
+      <c r="C161" s="30" t="s">
         <v>102</v>
       </c>
-      <c r="D161" s="29"/>
+      <c r="D161" s="30"/>
       <c r="E161" s="25" t="s">
         <v>121</v>
       </c>
@@ -10366,10 +10479,10 @@
       <c r="B162" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="C162" s="29" t="s">
+      <c r="C162" s="30" t="s">
         <v>103</v>
       </c>
-      <c r="D162" s="29"/>
+      <c r="D162" s="30"/>
       <c r="E162" s="25" t="s">
         <v>121</v>
       </c>
@@ -10447,7 +10560,7 @@
       <c r="B165" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="C165" s="27" t="s">
+      <c r="C165" s="29" t="s">
         <v>20</v>
       </c>
       <c r="D165" s="28"/>
@@ -10474,7 +10587,7 @@
       <c r="B166" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="C166" s="27" t="s">
+      <c r="C166" s="29" t="s">
         <v>19</v>
       </c>
       <c r="D166" s="28"/>
@@ -10501,7 +10614,7 @@
       <c r="B167" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="C167" s="27" t="s">
+      <c r="C167" s="29" t="s">
         <v>22</v>
       </c>
       <c r="D167" s="28"/>
@@ -10528,7 +10641,7 @@
       <c r="B168" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="C168" s="27" t="s">
+      <c r="C168" s="29" t="s">
         <v>23</v>
       </c>
       <c r="D168" s="28"/>
@@ -10555,7 +10668,7 @@
       <c r="B169" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="C169" s="27" t="s">
+      <c r="C169" s="29" t="s">
         <v>21</v>
       </c>
       <c r="D169" s="28"/>
@@ -10582,7 +10695,7 @@
       <c r="B170" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="C170" s="27" t="s">
+      <c r="C170" s="29" t="s">
         <v>136</v>
       </c>
       <c r="D170" s="28"/>
@@ -10609,10 +10722,10 @@
       <c r="B171" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="C171" s="27" t="s">
+      <c r="C171" s="29" t="s">
         <v>135</v>
       </c>
-      <c r="D171" s="27"/>
+      <c r="D171" s="29"/>
       <c r="E171" s="25" t="s">
         <v>167</v>
       </c>
@@ -10636,7 +10749,7 @@
       <c r="B172" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="C172" s="27" t="s">
+      <c r="C172" s="29" t="s">
         <v>24</v>
       </c>
       <c r="D172" s="28"/>
@@ -10663,7 +10776,7 @@
       <c r="B173" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="C173" s="27" t="s">
+      <c r="C173" s="29" t="s">
         <v>25</v>
       </c>
       <c r="D173" s="28"/>
@@ -10690,7 +10803,7 @@
       <c r="B174" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="C174" s="27" t="s">
+      <c r="C174" s="29" t="s">
         <v>26</v>
       </c>
       <c r="D174" s="28"/>
@@ -10717,7 +10830,7 @@
       <c r="B175" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="C175" s="27" t="s">
+      <c r="C175" s="29" t="s">
         <v>134</v>
       </c>
       <c r="D175" s="28"/>
@@ -10744,10 +10857,10 @@
       <c r="B176" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="C176" s="27" t="s">
+      <c r="C176" s="29" t="s">
         <v>133</v>
       </c>
-      <c r="D176" s="27"/>
+      <c r="D176" s="29"/>
       <c r="E176" s="25" t="s">
         <v>167</v>
       </c>
@@ -10771,7 +10884,7 @@
       <c r="B177" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="C177" s="27" t="s">
+      <c r="C177" s="29" t="s">
         <v>27</v>
       </c>
       <c r="D177" s="28"/>
@@ -10798,7 +10911,7 @@
       <c r="B178" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="C178" s="27" t="s">
+      <c r="C178" s="29" t="s">
         <v>28</v>
       </c>
       <c r="D178" s="28"/>
@@ -10825,7 +10938,7 @@
       <c r="B179" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="C179" s="27" t="s">
+      <c r="C179" s="29" t="s">
         <v>29</v>
       </c>
       <c r="D179" s="28"/>
@@ -10852,7 +10965,7 @@
       <c r="B180" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="C180" s="27" t="s">
+      <c r="C180" s="29" t="s">
         <v>131</v>
       </c>
       <c r="D180" s="28"/>
@@ -10879,10 +10992,10 @@
       <c r="B181" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="C181" s="27" t="s">
+      <c r="C181" s="29" t="s">
         <v>132</v>
       </c>
-      <c r="D181" s="27"/>
+      <c r="D181" s="29"/>
       <c r="E181" s="25" t="s">
         <v>167</v>
       </c>
@@ -10906,7 +11019,7 @@
       <c r="B182" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="C182" s="27" t="s">
+      <c r="C182" s="29" t="s">
         <v>30</v>
       </c>
       <c r="D182" s="28"/>
@@ -10933,7 +11046,7 @@
       <c r="B183" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="C183" s="27" t="s">
+      <c r="C183" s="29" t="s">
         <v>31</v>
       </c>
       <c r="D183" s="28"/>
@@ -10960,7 +11073,7 @@
       <c r="B184" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="C184" s="27" t="s">
+      <c r="C184" s="29" t="s">
         <v>32</v>
       </c>
       <c r="D184" s="28"/>
@@ -10987,7 +11100,7 @@
       <c r="B185" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="C185" s="27" t="s">
+      <c r="C185" s="29" t="s">
         <v>129</v>
       </c>
       <c r="D185" s="28"/>
@@ -11014,10 +11127,10 @@
       <c r="B186" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="C186" s="27" t="s">
+      <c r="C186" s="29" t="s">
         <v>130</v>
       </c>
-      <c r="D186" s="27"/>
+      <c r="D186" s="29"/>
       <c r="E186" s="25" t="s">
         <v>167</v>
       </c>
@@ -11041,7 +11154,7 @@
       <c r="B187" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="C187" s="27" t="s">
+      <c r="C187" s="29" t="s">
         <v>33</v>
       </c>
       <c r="D187" s="28"/>
@@ -11068,7 +11181,7 @@
       <c r="B188" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="C188" s="27" t="s">
+      <c r="C188" s="29" t="s">
         <v>34</v>
       </c>
       <c r="D188" s="28"/>
@@ -11095,7 +11208,7 @@
       <c r="B189" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="C189" s="27" t="s">
+      <c r="C189" s="29" t="s">
         <v>35</v>
       </c>
       <c r="D189" s="28"/>
@@ -11122,7 +11235,7 @@
       <c r="B190" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="C190" s="27" t="s">
+      <c r="C190" s="29" t="s">
         <v>127</v>
       </c>
       <c r="D190" s="28"/>
@@ -11149,10 +11262,10 @@
       <c r="B191" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="C191" s="27" t="s">
+      <c r="C191" s="29" t="s">
         <v>246</v>
       </c>
-      <c r="D191" s="27"/>
+      <c r="D191" s="29"/>
       <c r="E191" s="25" t="s">
         <v>122</v>
       </c>
@@ -11176,7 +11289,7 @@
       <c r="B192" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="C192" s="27" t="s">
+      <c r="C192" s="29" t="s">
         <v>36</v>
       </c>
       <c r="D192" s="28"/>
@@ -11203,7 +11316,7 @@
       <c r="B193" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="C193" s="27" t="s">
+      <c r="C193" s="29" t="s">
         <v>37</v>
       </c>
       <c r="D193" s="28"/>
@@ -11230,7 +11343,7 @@
       <c r="B194" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="C194" s="27" t="s">
+      <c r="C194" s="29" t="s">
         <v>38</v>
       </c>
       <c r="D194" s="28"/>
@@ -11257,7 +11370,7 @@
       <c r="B195" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="C195" s="27" t="s">
+      <c r="C195" s="29" t="s">
         <v>125</v>
       </c>
       <c r="D195" s="28"/>
@@ -11284,10 +11397,10 @@
       <c r="B196" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="C196" s="27" t="s">
+      <c r="C196" s="29" t="s">
         <v>126</v>
       </c>
-      <c r="D196" s="27"/>
+      <c r="D196" s="29"/>
       <c r="E196" s="25" t="s">
         <v>167</v>
       </c>
@@ -11311,7 +11424,7 @@
       <c r="B197" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="C197" s="27" t="s">
+      <c r="C197" s="29" t="s">
         <v>39</v>
       </c>
       <c r="D197" s="28"/>
@@ -11338,7 +11451,7 @@
       <c r="B198" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="C198" s="27" t="s">
+      <c r="C198" s="29" t="s">
         <v>40</v>
       </c>
       <c r="D198" s="28"/>
@@ -11365,7 +11478,7 @@
       <c r="B199" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="C199" s="27" t="s">
+      <c r="C199" s="29" t="s">
         <v>41</v>
       </c>
       <c r="D199" s="28"/>
@@ -11392,10 +11505,10 @@
       <c r="B200" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="C200" s="27" t="s">
+      <c r="C200" s="29" t="s">
         <v>140</v>
       </c>
-      <c r="D200" s="27"/>
+      <c r="D200" s="29"/>
       <c r="E200" s="25" t="s">
         <v>122</v>
       </c>
@@ -11419,7 +11532,7 @@
       <c r="B201" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="C201" s="27" t="s">
+      <c r="C201" s="29" t="s">
         <v>138</v>
       </c>
       <c r="D201" s="28"/>
@@ -11446,10 +11559,10 @@
       <c r="B202" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="C202" s="27" t="s">
+      <c r="C202" s="29" t="s">
         <v>137</v>
       </c>
-      <c r="D202" s="27"/>
+      <c r="D202" s="29"/>
       <c r="E202" s="25" t="s">
         <v>167</v>
       </c>
@@ -11473,7 +11586,7 @@
       <c r="B203" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="C203" s="27" t="s">
+      <c r="C203" s="29" t="s">
         <v>42</v>
       </c>
       <c r="D203" s="28"/>
@@ -11500,7 +11613,7 @@
       <c r="B204" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="C204" s="27" t="s">
+      <c r="C204" s="29" t="s">
         <v>43</v>
       </c>
       <c r="D204" s="28"/>
@@ -11527,7 +11640,7 @@
       <c r="B205" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="C205" s="27" t="s">
+      <c r="C205" s="29" t="s">
         <v>44</v>
       </c>
       <c r="D205" s="28"/>
@@ -11554,7 +11667,7 @@
       <c r="B206" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="C206" s="27" t="s">
+      <c r="C206" s="29" t="s">
         <v>148</v>
       </c>
       <c r="D206" s="28"/>
@@ -11581,10 +11694,10 @@
       <c r="B207" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="C207" s="27" t="s">
+      <c r="C207" s="29" t="s">
         <v>141</v>
       </c>
-      <c r="D207" s="27"/>
+      <c r="D207" s="29"/>
       <c r="E207" s="25" t="s">
         <v>122</v>
       </c>
@@ -11608,7 +11721,7 @@
       <c r="B208" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="C208" s="27" t="s">
+      <c r="C208" s="29" t="s">
         <v>45</v>
       </c>
       <c r="D208" s="28"/>
@@ -11635,7 +11748,7 @@
       <c r="B209" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="C209" s="27" t="s">
+      <c r="C209" s="29" t="s">
         <v>46</v>
       </c>
       <c r="D209" s="28"/>
@@ -11662,7 +11775,7 @@
       <c r="B210" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="C210" s="27" t="s">
+      <c r="C210" s="29" t="s">
         <v>47</v>
       </c>
       <c r="D210" s="28"/>
@@ -11689,7 +11802,7 @@
       <c r="B211" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="C211" s="27" t="s">
+      <c r="C211" s="29" t="s">
         <v>149</v>
       </c>
       <c r="D211" s="28"/>
@@ -11716,10 +11829,10 @@
       <c r="B212" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="C212" s="27" t="s">
+      <c r="C212" s="29" t="s">
         <v>142</v>
       </c>
-      <c r="D212" s="27"/>
+      <c r="D212" s="29"/>
       <c r="E212" s="25" t="s">
         <v>122</v>
       </c>
@@ -11743,7 +11856,7 @@
       <c r="B213" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="C213" s="27" t="s">
+      <c r="C213" s="29" t="s">
         <v>48</v>
       </c>
       <c r="D213" s="28"/>
@@ -11986,7 +12099,7 @@
       <c r="B222" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="C222" s="27" t="s">
+      <c r="C222" s="29" t="s">
         <v>57</v>
       </c>
       <c r="D222" s="28"/>
@@ -12040,7 +12153,7 @@
       <c r="B224" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="C224" s="27" t="s">
+      <c r="C224" s="29" t="s">
         <v>59</v>
       </c>
       <c r="D224" s="28"/>
@@ -12067,7 +12180,7 @@
       <c r="B225" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="C225" s="27" t="s">
+      <c r="C225" s="29" t="s">
         <v>60</v>
       </c>
       <c r="D225" s="28"/>
@@ -12094,7 +12207,7 @@
       <c r="B226" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="C226" s="27" t="s">
+      <c r="C226" s="29" t="s">
         <v>61</v>
       </c>
       <c r="D226" s="28"/>
@@ -12121,7 +12234,7 @@
       <c r="B227" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="C227" s="27" t="s">
+      <c r="C227" s="29" t="s">
         <v>62</v>
       </c>
       <c r="D227" s="28"/>
@@ -12148,7 +12261,7 @@
       <c r="B228" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="C228" s="27" t="s">
+      <c r="C228" s="29" t="s">
         <v>63</v>
       </c>
       <c r="D228" s="28"/>
@@ -12175,7 +12288,7 @@
       <c r="B229" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="C229" s="27" t="s">
+      <c r="C229" s="29" t="s">
         <v>64</v>
       </c>
       <c r="D229" s="28"/>
@@ -12202,7 +12315,7 @@
       <c r="B230" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="C230" s="27" t="s">
+      <c r="C230" s="29" t="s">
         <v>65</v>
       </c>
       <c r="D230" s="28"/>
@@ -12229,7 +12342,7 @@
       <c r="B231" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="C231" s="27" t="s">
+      <c r="C231" s="29" t="s">
         <v>66</v>
       </c>
       <c r="D231" s="28"/>
@@ -12256,7 +12369,7 @@
       <c r="B232" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="C232" s="27" t="s">
+      <c r="C232" s="29" t="s">
         <v>68</v>
       </c>
       <c r="D232" s="28"/>
@@ -12283,7 +12396,7 @@
       <c r="B233" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="C233" s="27" t="s">
+      <c r="C233" s="29" t="s">
         <v>67</v>
       </c>
       <c r="D233" s="28"/>
@@ -12310,7 +12423,7 @@
       <c r="B234" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="C234" s="27" t="s">
+      <c r="C234" s="29" t="s">
         <v>69</v>
       </c>
       <c r="D234" s="28"/>
@@ -12337,7 +12450,7 @@
       <c r="B235" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="C235" s="27" t="s">
+      <c r="C235" s="29" t="s">
         <v>70</v>
       </c>
       <c r="D235" s="28"/>
@@ -12364,7 +12477,7 @@
       <c r="B236" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="C236" s="27" t="s">
+      <c r="C236" s="29" t="s">
         <v>71</v>
       </c>
       <c r="D236" s="28"/>
@@ -12391,7 +12504,7 @@
       <c r="B237" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="C237" s="27" t="s">
+      <c r="C237" s="29" t="s">
         <v>72</v>
       </c>
       <c r="D237" s="28"/>
@@ -12418,7 +12531,7 @@
       <c r="B238" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="C238" s="27" t="s">
+      <c r="C238" s="29" t="s">
         <v>73</v>
       </c>
       <c r="D238" s="28"/>
@@ -12445,7 +12558,7 @@
       <c r="B239" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="C239" s="27" t="s">
+      <c r="C239" s="29" t="s">
         <v>74</v>
       </c>
       <c r="D239" s="28"/>
@@ -12472,7 +12585,7 @@
       <c r="B240" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="C240" s="27" t="s">
+      <c r="C240" s="29" t="s">
         <v>75</v>
       </c>
       <c r="D240" s="28"/>
@@ -12499,7 +12612,7 @@
       <c r="B241" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="C241" s="27" t="s">
+      <c r="C241" s="29" t="s">
         <v>76</v>
       </c>
       <c r="D241" s="28"/>
@@ -12526,7 +12639,7 @@
       <c r="B242" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="C242" s="27" t="s">
+      <c r="C242" s="29" t="s">
         <v>77</v>
       </c>
       <c r="D242" s="28"/>
@@ -12553,7 +12666,7 @@
       <c r="B243" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="C243" s="27" t="s">
+      <c r="C243" s="29" t="s">
         <v>78</v>
       </c>
       <c r="D243" s="28"/>
@@ -12580,7 +12693,7 @@
       <c r="B244" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="C244" s="27" t="s">
+      <c r="C244" s="29" t="s">
         <v>79</v>
       </c>
       <c r="D244" s="28"/>
@@ -12607,7 +12720,7 @@
       <c r="B245" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="C245" s="27" t="s">
+      <c r="C245" s="29" t="s">
         <v>80</v>
       </c>
       <c r="D245" s="28"/>
@@ -12634,7 +12747,7 @@
       <c r="B246" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="C246" s="27" t="s">
+      <c r="C246" s="29" t="s">
         <v>81</v>
       </c>
       <c r="D246" s="28"/>
@@ -12661,7 +12774,7 @@
       <c r="B247" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="C247" s="27" t="s">
+      <c r="C247" s="29" t="s">
         <v>82</v>
       </c>
       <c r="D247" s="28"/>
@@ -12688,7 +12801,7 @@
       <c r="B248" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="C248" s="27" t="s">
+      <c r="C248" s="29" t="s">
         <v>83</v>
       </c>
       <c r="D248" s="28"/>
@@ -12715,7 +12828,7 @@
       <c r="B249" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="C249" s="27" t="s">
+      <c r="C249" s="29" t="s">
         <v>84</v>
       </c>
       <c r="D249" s="28"/>
@@ -12742,7 +12855,7 @@
       <c r="B250" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="C250" s="27" t="s">
+      <c r="C250" s="29" t="s">
         <v>85</v>
       </c>
       <c r="D250" s="28"/>
@@ -12769,7 +12882,7 @@
       <c r="B251" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="C251" s="27" t="s">
+      <c r="C251" s="29" t="s">
         <v>86</v>
       </c>
       <c r="D251" s="28"/>
@@ -12796,7 +12909,7 @@
       <c r="B252" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="C252" s="27" t="s">
+      <c r="C252" s="29" t="s">
         <v>87</v>
       </c>
       <c r="D252" s="28"/>
@@ -12823,7 +12936,7 @@
       <c r="B253" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="C253" s="27" t="s">
+      <c r="C253" s="29" t="s">
         <v>88</v>
       </c>
       <c r="D253" s="28"/>
@@ -12850,7 +12963,7 @@
       <c r="B254" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="C254" s="27" t="s">
+      <c r="C254" s="29" t="s">
         <v>89</v>
       </c>
       <c r="D254" s="28"/>
@@ -12877,7 +12990,7 @@
       <c r="B255" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="C255" s="27" t="s">
+      <c r="C255" s="29" t="s">
         <v>90</v>
       </c>
       <c r="D255" s="28"/>
@@ -12904,7 +13017,7 @@
       <c r="B256" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="C256" s="27" t="s">
+      <c r="C256" s="29" t="s">
         <v>91</v>
       </c>
       <c r="D256" s="28"/>
@@ -12931,7 +13044,7 @@
       <c r="B257" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="C257" s="27" t="s">
+      <c r="C257" s="29" t="s">
         <v>92</v>
       </c>
       <c r="D257" s="28"/>
@@ -12958,7 +13071,7 @@
       <c r="B258" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="C258" s="27" t="s">
+      <c r="C258" s="29" t="s">
         <v>93</v>
       </c>
       <c r="D258" s="28"/>
@@ -12985,7 +13098,7 @@
       <c r="B259" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="C259" s="27" t="s">
+      <c r="C259" s="29" t="s">
         <v>94</v>
       </c>
       <c r="D259" s="28"/>
@@ -13039,7 +13152,7 @@
       <c r="B261" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="C261" s="27" t="s">
+      <c r="C261" s="29" t="s">
         <v>105</v>
       </c>
       <c r="D261" s="28"/>
@@ -13066,7 +13179,7 @@
       <c r="B262" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="C262" s="27" t="s">
+      <c r="C262" s="29" t="s">
         <v>106</v>
       </c>
       <c r="D262" s="28"/>
@@ -13093,7 +13206,7 @@
       <c r="B263" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="C263" s="27" t="s">
+      <c r="C263" s="29" t="s">
         <v>107</v>
       </c>
       <c r="D263" s="28"/>
@@ -13120,7 +13233,7 @@
       <c r="B264" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="C264" s="27" t="s">
+      <c r="C264" s="29" t="s">
         <v>108</v>
       </c>
       <c r="D264" s="28"/>
@@ -13147,7 +13260,7 @@
       <c r="B265" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="C265" s="27" t="s">
+      <c r="C265" s="29" t="s">
         <v>109</v>
       </c>
       <c r="D265" s="28"/>
@@ -13174,7 +13287,7 @@
       <c r="B266" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="C266" s="27" t="s">
+      <c r="C266" s="29" t="s">
         <v>110</v>
       </c>
       <c r="D266" s="28"/>
@@ -13201,7 +13314,7 @@
       <c r="B267" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="C267" s="27" t="s">
+      <c r="C267" s="29" t="s">
         <v>111</v>
       </c>
       <c r="D267" s="28"/>
@@ -13228,7 +13341,7 @@
       <c r="B268" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="C268" s="27" t="s">
+      <c r="C268" s="29" t="s">
         <v>170</v>
       </c>
       <c r="D268" s="28"/>
@@ -13255,7 +13368,7 @@
       <c r="B269" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="C269" s="27" t="s">
+      <c r="C269" s="29" t="s">
         <v>171</v>
       </c>
       <c r="D269" s="28"/>
@@ -13282,7 +13395,7 @@
       <c r="B270" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="C270" s="27" t="s">
+      <c r="C270" s="29" t="s">
         <v>112</v>
       </c>
       <c r="D270" s="28"/>
@@ -13309,7 +13422,7 @@
       <c r="B271" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="C271" s="27" t="s">
+      <c r="C271" s="29" t="s">
         <v>113</v>
       </c>
       <c r="D271" s="28"/>
@@ -13336,7 +13449,7 @@
       <c r="B272" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="C272" s="27" t="s">
+      <c r="C272" s="29" t="s">
         <v>114</v>
       </c>
       <c r="D272" s="28"/>
@@ -13363,7 +13476,7 @@
       <c r="B273" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="C273" s="27" t="s">
+      <c r="C273" s="29" t="s">
         <v>115</v>
       </c>
       <c r="D273" s="28"/>
@@ -13390,7 +13503,7 @@
       <c r="B274" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="C274" s="27" t="s">
+      <c r="C274" s="29" t="s">
         <v>116</v>
       </c>
       <c r="D274" s="28"/>
@@ -13417,7 +13530,7 @@
       <c r="B275" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="C275" s="27" t="s">
+      <c r="C275" s="29" t="s">
         <v>117</v>
       </c>
       <c r="D275" s="28"/>
@@ -13444,7 +13557,7 @@
       <c r="B276" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="C276" s="27" t="s">
+      <c r="C276" s="29" t="s">
         <v>118</v>
       </c>
       <c r="D276" s="28"/>
@@ -13471,7 +13584,7 @@
       <c r="B277" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="C277" s="27" t="s">
+      <c r="C277" s="29" t="s">
         <v>172</v>
       </c>
       <c r="D277" s="28"/>
@@ -13498,7 +13611,7 @@
       <c r="B278" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="C278" s="27" t="s">
+      <c r="C278" s="29" t="s">
         <v>173</v>
       </c>
       <c r="D278" s="28"/>
@@ -13525,7 +13638,7 @@
       <c r="B279" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="C279" s="27" t="s">
+      <c r="C279" s="29" t="s">
         <v>143</v>
       </c>
       <c r="D279" s="28"/>
@@ -13552,7 +13665,7 @@
       <c r="B280" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="C280" s="27" t="s">
+      <c r="C280" s="29" t="s">
         <v>144</v>
       </c>
       <c r="D280" s="28"/>
@@ -13579,7 +13692,7 @@
       <c r="B281" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="C281" s="27" t="s">
+      <c r="C281" s="29" t="s">
         <v>145</v>
       </c>
       <c r="D281" s="28"/>
@@ -13606,7 +13719,7 @@
       <c r="B282" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="C282" s="27" t="s">
+      <c r="C282" s="29" t="s">
         <v>146</v>
       </c>
       <c r="D282" s="28"/>
@@ -13633,7 +13746,7 @@
       <c r="B283" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="C283" s="27" t="s">
+      <c r="C283" s="29" t="s">
         <v>151</v>
       </c>
       <c r="D283" s="28"/>
@@ -13660,7 +13773,7 @@
       <c r="B284" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="C284" s="27" t="s">
+      <c r="C284" s="29" t="s">
         <v>150</v>
       </c>
       <c r="D284" s="28"/>
@@ -13687,7 +13800,7 @@
       <c r="B285" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="C285" s="27" t="s">
+      <c r="C285" s="29" t="s">
         <v>174</v>
       </c>
       <c r="D285" s="28"/>
@@ -13714,7 +13827,7 @@
       <c r="B286" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="C286" s="27" t="s">
+      <c r="C286" s="29" t="s">
         <v>175</v>
       </c>
       <c r="D286" s="28"/>
@@ -14251,15 +14364,55 @@
       <c r="A306" s="3">
         <v>302</v>
       </c>
-      <c r="C306" s="28"/>
+      <c r="B306" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="C306" s="28" t="s">
+        <v>382</v>
+      </c>
       <c r="D306" s="28"/>
+      <c r="E306" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="F306" s="27" t="s">
+        <v>384</v>
+      </c>
+      <c r="G306" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H306" s="27">
+        <v>20240402</v>
+      </c>
+      <c r="J306" s="27" t="s">
+        <v>241</v>
+      </c>
     </row>
     <row r="307" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A307" s="3">
         <v>303</v>
       </c>
-      <c r="C307" s="28"/>
+      <c r="B307" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="C307" s="28" t="s">
+        <v>386</v>
+      </c>
       <c r="D307" s="28"/>
+      <c r="E307" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="F307" s="27" t="s">
+        <v>388</v>
+      </c>
+      <c r="G307" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H307" s="27">
+        <v>20240402</v>
+      </c>
+      <c r="J307" s="27" t="s">
+        <v>241</v>
+      </c>
     </row>
     <row r="308" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A308" s="3">
@@ -14858,369 +15011,60 @@
     <row r="473" ht="45" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="441">
-    <mergeCell ref="C437:D437"/>
-    <mergeCell ref="C438:D438"/>
-    <mergeCell ref="C439:D439"/>
-    <mergeCell ref="C440:D440"/>
-    <mergeCell ref="C441:D441"/>
-    <mergeCell ref="C428:D428"/>
-    <mergeCell ref="C429:D429"/>
-    <mergeCell ref="C430:D430"/>
-    <mergeCell ref="C431:D431"/>
-    <mergeCell ref="C432:D432"/>
-    <mergeCell ref="C433:D433"/>
-    <mergeCell ref="C434:D434"/>
-    <mergeCell ref="C435:D435"/>
-    <mergeCell ref="C436:D436"/>
-    <mergeCell ref="C419:D419"/>
-    <mergeCell ref="C420:D420"/>
-    <mergeCell ref="C421:D421"/>
-    <mergeCell ref="C422:D422"/>
-    <mergeCell ref="C423:D423"/>
-    <mergeCell ref="C424:D424"/>
-    <mergeCell ref="C425:D425"/>
-    <mergeCell ref="C426:D426"/>
-    <mergeCell ref="C427:D427"/>
-    <mergeCell ref="C410:D410"/>
-    <mergeCell ref="C411:D411"/>
-    <mergeCell ref="C412:D412"/>
-    <mergeCell ref="C413:D413"/>
-    <mergeCell ref="C414:D414"/>
-    <mergeCell ref="C415:D415"/>
-    <mergeCell ref="C416:D416"/>
-    <mergeCell ref="C417:D417"/>
-    <mergeCell ref="C418:D418"/>
-    <mergeCell ref="C401:D401"/>
-    <mergeCell ref="C402:D402"/>
-    <mergeCell ref="C403:D403"/>
-    <mergeCell ref="C404:D404"/>
-    <mergeCell ref="C405:D405"/>
-    <mergeCell ref="C406:D406"/>
-    <mergeCell ref="C407:D407"/>
-    <mergeCell ref="C408:D408"/>
-    <mergeCell ref="C409:D409"/>
-    <mergeCell ref="C392:D392"/>
-    <mergeCell ref="C393:D393"/>
-    <mergeCell ref="C394:D394"/>
-    <mergeCell ref="C395:D395"/>
-    <mergeCell ref="C396:D396"/>
-    <mergeCell ref="C397:D397"/>
-    <mergeCell ref="C398:D398"/>
-    <mergeCell ref="C399:D399"/>
-    <mergeCell ref="C400:D400"/>
-    <mergeCell ref="C383:D383"/>
-    <mergeCell ref="C384:D384"/>
-    <mergeCell ref="C385:D385"/>
-    <mergeCell ref="C386:D386"/>
-    <mergeCell ref="C387:D387"/>
-    <mergeCell ref="C388:D388"/>
-    <mergeCell ref="C389:D389"/>
-    <mergeCell ref="C390:D390"/>
-    <mergeCell ref="C391:D391"/>
-    <mergeCell ref="C374:D374"/>
-    <mergeCell ref="C375:D375"/>
-    <mergeCell ref="C376:D376"/>
-    <mergeCell ref="C377:D377"/>
-    <mergeCell ref="C378:D378"/>
-    <mergeCell ref="C379:D379"/>
-    <mergeCell ref="C380:D380"/>
-    <mergeCell ref="C381:D381"/>
-    <mergeCell ref="C382:D382"/>
-    <mergeCell ref="C365:D365"/>
-    <mergeCell ref="C366:D366"/>
-    <mergeCell ref="C367:D367"/>
-    <mergeCell ref="C368:D368"/>
-    <mergeCell ref="C369:D369"/>
-    <mergeCell ref="C370:D370"/>
-    <mergeCell ref="C371:D371"/>
-    <mergeCell ref="C372:D372"/>
-    <mergeCell ref="C373:D373"/>
-    <mergeCell ref="C356:D356"/>
-    <mergeCell ref="C357:D357"/>
-    <mergeCell ref="C358:D358"/>
-    <mergeCell ref="C359:D359"/>
-    <mergeCell ref="C360:D360"/>
-    <mergeCell ref="C361:D361"/>
-    <mergeCell ref="C362:D362"/>
-    <mergeCell ref="C363:D363"/>
-    <mergeCell ref="C364:D364"/>
-    <mergeCell ref="C347:D347"/>
-    <mergeCell ref="C348:D348"/>
-    <mergeCell ref="C349:D349"/>
-    <mergeCell ref="C350:D350"/>
-    <mergeCell ref="C351:D351"/>
-    <mergeCell ref="C352:D352"/>
-    <mergeCell ref="C353:D353"/>
-    <mergeCell ref="C354:D354"/>
-    <mergeCell ref="C355:D355"/>
-    <mergeCell ref="C338:D338"/>
-    <mergeCell ref="C339:D339"/>
-    <mergeCell ref="C340:D340"/>
-    <mergeCell ref="C341:D341"/>
-    <mergeCell ref="C342:D342"/>
-    <mergeCell ref="C343:D343"/>
-    <mergeCell ref="C344:D344"/>
-    <mergeCell ref="C345:D345"/>
-    <mergeCell ref="C346:D346"/>
-    <mergeCell ref="C329:D329"/>
-    <mergeCell ref="C330:D330"/>
-    <mergeCell ref="C331:D331"/>
-    <mergeCell ref="C332:D332"/>
-    <mergeCell ref="C333:D333"/>
-    <mergeCell ref="C334:D334"/>
-    <mergeCell ref="C335:D335"/>
-    <mergeCell ref="C336:D336"/>
-    <mergeCell ref="C337:D337"/>
-    <mergeCell ref="C320:D320"/>
-    <mergeCell ref="C321:D321"/>
-    <mergeCell ref="C322:D322"/>
-    <mergeCell ref="C323:D323"/>
-    <mergeCell ref="C324:D324"/>
-    <mergeCell ref="C325:D325"/>
-    <mergeCell ref="C326:D326"/>
-    <mergeCell ref="C327:D327"/>
-    <mergeCell ref="C328:D328"/>
-    <mergeCell ref="C311:D311"/>
-    <mergeCell ref="C312:D312"/>
-    <mergeCell ref="C313:D313"/>
-    <mergeCell ref="C314:D314"/>
-    <mergeCell ref="C315:D315"/>
-    <mergeCell ref="C316:D316"/>
-    <mergeCell ref="C317:D317"/>
-    <mergeCell ref="C318:D318"/>
-    <mergeCell ref="C319:D319"/>
-    <mergeCell ref="C288:D288"/>
-    <mergeCell ref="C289:D289"/>
-    <mergeCell ref="C290:D290"/>
-    <mergeCell ref="C291:D291"/>
-    <mergeCell ref="C292:D292"/>
-    <mergeCell ref="C293:D293"/>
-    <mergeCell ref="C294:D294"/>
-    <mergeCell ref="C295:D295"/>
-    <mergeCell ref="C296:D296"/>
-    <mergeCell ref="C297:D297"/>
-    <mergeCell ref="C298:D298"/>
-    <mergeCell ref="C299:D299"/>
-    <mergeCell ref="C300:D300"/>
-    <mergeCell ref="C301:D301"/>
-    <mergeCell ref="C302:D302"/>
-    <mergeCell ref="C303:D303"/>
-    <mergeCell ref="C304:D304"/>
-    <mergeCell ref="C305:D305"/>
-    <mergeCell ref="C306:D306"/>
-    <mergeCell ref="C307:D307"/>
-    <mergeCell ref="C308:D308"/>
-    <mergeCell ref="C309:D309"/>
-    <mergeCell ref="C310:D310"/>
-    <mergeCell ref="C279:D279"/>
-    <mergeCell ref="C280:D280"/>
-    <mergeCell ref="C281:D281"/>
-    <mergeCell ref="C282:D282"/>
-    <mergeCell ref="C283:D283"/>
-    <mergeCell ref="C284:D284"/>
-    <mergeCell ref="C285:D285"/>
-    <mergeCell ref="C286:D286"/>
-    <mergeCell ref="C287:D287"/>
-    <mergeCell ref="C270:D270"/>
-    <mergeCell ref="C271:D271"/>
-    <mergeCell ref="C272:D272"/>
-    <mergeCell ref="C273:D273"/>
-    <mergeCell ref="C274:D274"/>
-    <mergeCell ref="C275:D275"/>
-    <mergeCell ref="C276:D276"/>
-    <mergeCell ref="C277:D277"/>
-    <mergeCell ref="C278:D278"/>
-    <mergeCell ref="C261:D261"/>
-    <mergeCell ref="C262:D262"/>
-    <mergeCell ref="C263:D263"/>
-    <mergeCell ref="C264:D264"/>
-    <mergeCell ref="C265:D265"/>
-    <mergeCell ref="C266:D266"/>
-    <mergeCell ref="C267:D267"/>
-    <mergeCell ref="C268:D268"/>
-    <mergeCell ref="C269:D269"/>
-    <mergeCell ref="C252:D252"/>
-    <mergeCell ref="C253:D253"/>
-    <mergeCell ref="C254:D254"/>
-    <mergeCell ref="C255:D255"/>
-    <mergeCell ref="C256:D256"/>
-    <mergeCell ref="C257:D257"/>
-    <mergeCell ref="C258:D258"/>
-    <mergeCell ref="C259:D259"/>
-    <mergeCell ref="C260:D260"/>
-    <mergeCell ref="C243:D243"/>
-    <mergeCell ref="C244:D244"/>
-    <mergeCell ref="C245:D245"/>
-    <mergeCell ref="C246:D246"/>
-    <mergeCell ref="C247:D247"/>
-    <mergeCell ref="C248:D248"/>
-    <mergeCell ref="C249:D249"/>
-    <mergeCell ref="C250:D250"/>
-    <mergeCell ref="C251:D251"/>
-    <mergeCell ref="C234:D234"/>
-    <mergeCell ref="C235:D235"/>
-    <mergeCell ref="C236:D236"/>
-    <mergeCell ref="C237:D237"/>
-    <mergeCell ref="C238:D238"/>
-    <mergeCell ref="C239:D239"/>
-    <mergeCell ref="C240:D240"/>
-    <mergeCell ref="C241:D241"/>
-    <mergeCell ref="C242:D242"/>
-    <mergeCell ref="C225:D225"/>
-    <mergeCell ref="C226:D226"/>
-    <mergeCell ref="C227:D227"/>
-    <mergeCell ref="C228:D228"/>
-    <mergeCell ref="C229:D229"/>
-    <mergeCell ref="C230:D230"/>
-    <mergeCell ref="C231:D231"/>
-    <mergeCell ref="C232:D232"/>
-    <mergeCell ref="C233:D233"/>
-    <mergeCell ref="C216:D216"/>
-    <mergeCell ref="C217:D217"/>
-    <mergeCell ref="C218:D218"/>
-    <mergeCell ref="C219:D219"/>
-    <mergeCell ref="C220:D220"/>
-    <mergeCell ref="C221:D221"/>
-    <mergeCell ref="C222:D222"/>
-    <mergeCell ref="C223:D223"/>
-    <mergeCell ref="C224:D224"/>
-    <mergeCell ref="C207:D207"/>
-    <mergeCell ref="C208:D208"/>
-    <mergeCell ref="C209:D209"/>
-    <mergeCell ref="C210:D210"/>
-    <mergeCell ref="C211:D211"/>
-    <mergeCell ref="C212:D212"/>
-    <mergeCell ref="C213:D213"/>
-    <mergeCell ref="C214:D214"/>
-    <mergeCell ref="C215:D215"/>
-    <mergeCell ref="C198:D198"/>
-    <mergeCell ref="C199:D199"/>
-    <mergeCell ref="C200:D200"/>
-    <mergeCell ref="C201:D201"/>
-    <mergeCell ref="C202:D202"/>
-    <mergeCell ref="C203:D203"/>
-    <mergeCell ref="C204:D204"/>
-    <mergeCell ref="C205:D205"/>
-    <mergeCell ref="C206:D206"/>
-    <mergeCell ref="C189:D189"/>
-    <mergeCell ref="C190:D190"/>
-    <mergeCell ref="C191:D191"/>
-    <mergeCell ref="C192:D192"/>
-    <mergeCell ref="C193:D193"/>
-    <mergeCell ref="C194:D194"/>
-    <mergeCell ref="C195:D195"/>
-    <mergeCell ref="C196:D196"/>
-    <mergeCell ref="C197:D197"/>
-    <mergeCell ref="C181:D181"/>
-    <mergeCell ref="C182:D182"/>
-    <mergeCell ref="C183:D183"/>
-    <mergeCell ref="C184:D184"/>
-    <mergeCell ref="C185:D185"/>
-    <mergeCell ref="C186:D186"/>
-    <mergeCell ref="C187:D187"/>
-    <mergeCell ref="C188:D188"/>
-    <mergeCell ref="C160:D160"/>
-    <mergeCell ref="C159:D159"/>
-    <mergeCell ref="C165:D165"/>
-    <mergeCell ref="C164:D164"/>
-    <mergeCell ref="C163:D163"/>
-    <mergeCell ref="C162:D162"/>
-    <mergeCell ref="C161:D161"/>
-    <mergeCell ref="C170:D170"/>
-    <mergeCell ref="C169:D169"/>
-    <mergeCell ref="C168:D168"/>
-    <mergeCell ref="C167:D167"/>
-    <mergeCell ref="C166:D166"/>
-    <mergeCell ref="C175:D175"/>
-    <mergeCell ref="C174:D174"/>
-    <mergeCell ref="C173:D173"/>
-    <mergeCell ref="C172:D172"/>
-    <mergeCell ref="C171:D171"/>
-    <mergeCell ref="C180:D180"/>
-    <mergeCell ref="C179:D179"/>
-    <mergeCell ref="C178:D178"/>
-    <mergeCell ref="C177:D177"/>
-    <mergeCell ref="C176:D176"/>
-    <mergeCell ref="C144:D144"/>
-    <mergeCell ref="C143:D143"/>
-    <mergeCell ref="C142:D142"/>
-    <mergeCell ref="C158:D158"/>
-    <mergeCell ref="C157:D157"/>
-    <mergeCell ref="C156:D156"/>
-    <mergeCell ref="C155:D155"/>
-    <mergeCell ref="C154:D154"/>
-    <mergeCell ref="C153:D153"/>
-    <mergeCell ref="C152:D152"/>
-    <mergeCell ref="C151:D151"/>
-    <mergeCell ref="C150:D150"/>
-    <mergeCell ref="C149:D149"/>
-    <mergeCell ref="C148:D148"/>
-    <mergeCell ref="C147:D147"/>
-    <mergeCell ref="C146:D146"/>
-    <mergeCell ref="C145:D145"/>
-    <mergeCell ref="C127:D127"/>
-    <mergeCell ref="C126:D126"/>
-    <mergeCell ref="C125:D125"/>
-    <mergeCell ref="C124:D124"/>
-    <mergeCell ref="C141:D141"/>
-    <mergeCell ref="C140:D140"/>
-    <mergeCell ref="C139:D139"/>
-    <mergeCell ref="C138:D138"/>
-    <mergeCell ref="C137:D137"/>
-    <mergeCell ref="C136:D136"/>
-    <mergeCell ref="C135:D135"/>
-    <mergeCell ref="C134:D134"/>
-    <mergeCell ref="C133:D133"/>
-    <mergeCell ref="C132:D132"/>
-    <mergeCell ref="C131:D131"/>
-    <mergeCell ref="C130:D130"/>
-    <mergeCell ref="C129:D129"/>
-    <mergeCell ref="C128:D128"/>
-    <mergeCell ref="C111:D111"/>
-    <mergeCell ref="C110:D110"/>
-    <mergeCell ref="C109:D109"/>
-    <mergeCell ref="C123:D123"/>
-    <mergeCell ref="C122:D122"/>
-    <mergeCell ref="C121:D121"/>
-    <mergeCell ref="C120:D120"/>
-    <mergeCell ref="C119:D119"/>
-    <mergeCell ref="C118:D118"/>
-    <mergeCell ref="C117:D117"/>
-    <mergeCell ref="C116:D116"/>
-    <mergeCell ref="C115:D115"/>
-    <mergeCell ref="C114:D114"/>
-    <mergeCell ref="C113:D113"/>
-    <mergeCell ref="C112:D112"/>
-    <mergeCell ref="C99:D99"/>
-    <mergeCell ref="C98:D98"/>
-    <mergeCell ref="C97:D97"/>
-    <mergeCell ref="C108:D108"/>
-    <mergeCell ref="C107:D107"/>
-    <mergeCell ref="C106:D106"/>
-    <mergeCell ref="C105:D105"/>
-    <mergeCell ref="C104:D104"/>
-    <mergeCell ref="C103:D103"/>
-    <mergeCell ref="C102:D102"/>
-    <mergeCell ref="C101:D101"/>
-    <mergeCell ref="C100:D100"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="C96:D96"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="C91:D91"/>
-    <mergeCell ref="C90:D90"/>
-    <mergeCell ref="C89:D89"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:E2"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="C70:D70"/>
     <mergeCell ref="C69:D69"/>
     <mergeCell ref="C68:D68"/>
     <mergeCell ref="C67:D67"/>
@@ -15245,60 +15089,369 @@
     <mergeCell ref="C51:D51"/>
     <mergeCell ref="C50:D50"/>
     <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:E2"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="C90:D90"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="C99:D99"/>
+    <mergeCell ref="C98:D98"/>
+    <mergeCell ref="C97:D97"/>
+    <mergeCell ref="C108:D108"/>
+    <mergeCell ref="C107:D107"/>
+    <mergeCell ref="C106:D106"/>
+    <mergeCell ref="C105:D105"/>
+    <mergeCell ref="C104:D104"/>
+    <mergeCell ref="C103:D103"/>
+    <mergeCell ref="C102:D102"/>
+    <mergeCell ref="C101:D101"/>
+    <mergeCell ref="C100:D100"/>
+    <mergeCell ref="C111:D111"/>
+    <mergeCell ref="C110:D110"/>
+    <mergeCell ref="C109:D109"/>
+    <mergeCell ref="C123:D123"/>
+    <mergeCell ref="C122:D122"/>
+    <mergeCell ref="C121:D121"/>
+    <mergeCell ref="C120:D120"/>
+    <mergeCell ref="C119:D119"/>
+    <mergeCell ref="C118:D118"/>
+    <mergeCell ref="C117:D117"/>
+    <mergeCell ref="C116:D116"/>
+    <mergeCell ref="C115:D115"/>
+    <mergeCell ref="C114:D114"/>
+    <mergeCell ref="C113:D113"/>
+    <mergeCell ref="C112:D112"/>
+    <mergeCell ref="C127:D127"/>
+    <mergeCell ref="C126:D126"/>
+    <mergeCell ref="C125:D125"/>
+    <mergeCell ref="C124:D124"/>
+    <mergeCell ref="C141:D141"/>
+    <mergeCell ref="C140:D140"/>
+    <mergeCell ref="C139:D139"/>
+    <mergeCell ref="C138:D138"/>
+    <mergeCell ref="C137:D137"/>
+    <mergeCell ref="C136:D136"/>
+    <mergeCell ref="C135:D135"/>
+    <mergeCell ref="C134:D134"/>
+    <mergeCell ref="C133:D133"/>
+    <mergeCell ref="C132:D132"/>
+    <mergeCell ref="C131:D131"/>
+    <mergeCell ref="C130:D130"/>
+    <mergeCell ref="C129:D129"/>
+    <mergeCell ref="C128:D128"/>
+    <mergeCell ref="C144:D144"/>
+    <mergeCell ref="C143:D143"/>
+    <mergeCell ref="C142:D142"/>
+    <mergeCell ref="C158:D158"/>
+    <mergeCell ref="C157:D157"/>
+    <mergeCell ref="C156:D156"/>
+    <mergeCell ref="C155:D155"/>
+    <mergeCell ref="C154:D154"/>
+    <mergeCell ref="C153:D153"/>
+    <mergeCell ref="C152:D152"/>
+    <mergeCell ref="C151:D151"/>
+    <mergeCell ref="C150:D150"/>
+    <mergeCell ref="C149:D149"/>
+    <mergeCell ref="C148:D148"/>
+    <mergeCell ref="C147:D147"/>
+    <mergeCell ref="C146:D146"/>
+    <mergeCell ref="C145:D145"/>
+    <mergeCell ref="C159:D159"/>
+    <mergeCell ref="C165:D165"/>
+    <mergeCell ref="C164:D164"/>
+    <mergeCell ref="C163:D163"/>
+    <mergeCell ref="C162:D162"/>
+    <mergeCell ref="C161:D161"/>
+    <mergeCell ref="C170:D170"/>
+    <mergeCell ref="C169:D169"/>
+    <mergeCell ref="C168:D168"/>
+    <mergeCell ref="C167:D167"/>
+    <mergeCell ref="C166:D166"/>
+    <mergeCell ref="C181:D181"/>
+    <mergeCell ref="C182:D182"/>
+    <mergeCell ref="C183:D183"/>
+    <mergeCell ref="C184:D184"/>
+    <mergeCell ref="C185:D185"/>
+    <mergeCell ref="C186:D186"/>
+    <mergeCell ref="C187:D187"/>
+    <mergeCell ref="C188:D188"/>
+    <mergeCell ref="C160:D160"/>
+    <mergeCell ref="C175:D175"/>
+    <mergeCell ref="C174:D174"/>
+    <mergeCell ref="C173:D173"/>
+    <mergeCell ref="C172:D172"/>
+    <mergeCell ref="C171:D171"/>
+    <mergeCell ref="C180:D180"/>
+    <mergeCell ref="C179:D179"/>
+    <mergeCell ref="C178:D178"/>
+    <mergeCell ref="C177:D177"/>
+    <mergeCell ref="C176:D176"/>
+    <mergeCell ref="C189:D189"/>
+    <mergeCell ref="C190:D190"/>
+    <mergeCell ref="C191:D191"/>
+    <mergeCell ref="C192:D192"/>
+    <mergeCell ref="C193:D193"/>
+    <mergeCell ref="C194:D194"/>
+    <mergeCell ref="C195:D195"/>
+    <mergeCell ref="C196:D196"/>
+    <mergeCell ref="C197:D197"/>
+    <mergeCell ref="C198:D198"/>
+    <mergeCell ref="C199:D199"/>
+    <mergeCell ref="C200:D200"/>
+    <mergeCell ref="C201:D201"/>
+    <mergeCell ref="C202:D202"/>
+    <mergeCell ref="C203:D203"/>
+    <mergeCell ref="C204:D204"/>
+    <mergeCell ref="C205:D205"/>
+    <mergeCell ref="C206:D206"/>
+    <mergeCell ref="C207:D207"/>
+    <mergeCell ref="C208:D208"/>
+    <mergeCell ref="C209:D209"/>
+    <mergeCell ref="C210:D210"/>
+    <mergeCell ref="C211:D211"/>
+    <mergeCell ref="C212:D212"/>
+    <mergeCell ref="C213:D213"/>
+    <mergeCell ref="C214:D214"/>
+    <mergeCell ref="C215:D215"/>
+    <mergeCell ref="C216:D216"/>
+    <mergeCell ref="C217:D217"/>
+    <mergeCell ref="C218:D218"/>
+    <mergeCell ref="C219:D219"/>
+    <mergeCell ref="C220:D220"/>
+    <mergeCell ref="C221:D221"/>
+    <mergeCell ref="C222:D222"/>
+    <mergeCell ref="C223:D223"/>
+    <mergeCell ref="C224:D224"/>
+    <mergeCell ref="C225:D225"/>
+    <mergeCell ref="C226:D226"/>
+    <mergeCell ref="C227:D227"/>
+    <mergeCell ref="C228:D228"/>
+    <mergeCell ref="C229:D229"/>
+    <mergeCell ref="C230:D230"/>
+    <mergeCell ref="C231:D231"/>
+    <mergeCell ref="C232:D232"/>
+    <mergeCell ref="C233:D233"/>
+    <mergeCell ref="C234:D234"/>
+    <mergeCell ref="C235:D235"/>
+    <mergeCell ref="C236:D236"/>
+    <mergeCell ref="C237:D237"/>
+    <mergeCell ref="C238:D238"/>
+    <mergeCell ref="C239:D239"/>
+    <mergeCell ref="C240:D240"/>
+    <mergeCell ref="C241:D241"/>
+    <mergeCell ref="C242:D242"/>
+    <mergeCell ref="C243:D243"/>
+    <mergeCell ref="C244:D244"/>
+    <mergeCell ref="C245:D245"/>
+    <mergeCell ref="C246:D246"/>
+    <mergeCell ref="C247:D247"/>
+    <mergeCell ref="C248:D248"/>
+    <mergeCell ref="C249:D249"/>
+    <mergeCell ref="C250:D250"/>
+    <mergeCell ref="C251:D251"/>
+    <mergeCell ref="C252:D252"/>
+    <mergeCell ref="C253:D253"/>
+    <mergeCell ref="C254:D254"/>
+    <mergeCell ref="C255:D255"/>
+    <mergeCell ref="C256:D256"/>
+    <mergeCell ref="C257:D257"/>
+    <mergeCell ref="C258:D258"/>
+    <mergeCell ref="C259:D259"/>
+    <mergeCell ref="C260:D260"/>
+    <mergeCell ref="C261:D261"/>
+    <mergeCell ref="C262:D262"/>
+    <mergeCell ref="C263:D263"/>
+    <mergeCell ref="C264:D264"/>
+    <mergeCell ref="C265:D265"/>
+    <mergeCell ref="C266:D266"/>
+    <mergeCell ref="C267:D267"/>
+    <mergeCell ref="C268:D268"/>
+    <mergeCell ref="C269:D269"/>
+    <mergeCell ref="C270:D270"/>
+    <mergeCell ref="C271:D271"/>
+    <mergeCell ref="C272:D272"/>
+    <mergeCell ref="C273:D273"/>
+    <mergeCell ref="C274:D274"/>
+    <mergeCell ref="C275:D275"/>
+    <mergeCell ref="C276:D276"/>
+    <mergeCell ref="C277:D277"/>
+    <mergeCell ref="C278:D278"/>
+    <mergeCell ref="C306:D306"/>
+    <mergeCell ref="C307:D307"/>
+    <mergeCell ref="C308:D308"/>
+    <mergeCell ref="C309:D309"/>
+    <mergeCell ref="C310:D310"/>
+    <mergeCell ref="C279:D279"/>
+    <mergeCell ref="C280:D280"/>
+    <mergeCell ref="C281:D281"/>
+    <mergeCell ref="C282:D282"/>
+    <mergeCell ref="C283:D283"/>
+    <mergeCell ref="C284:D284"/>
+    <mergeCell ref="C285:D285"/>
+    <mergeCell ref="C286:D286"/>
+    <mergeCell ref="C287:D287"/>
+    <mergeCell ref="C297:D297"/>
+    <mergeCell ref="C298:D298"/>
+    <mergeCell ref="C299:D299"/>
+    <mergeCell ref="C300:D300"/>
+    <mergeCell ref="C301:D301"/>
+    <mergeCell ref="C302:D302"/>
+    <mergeCell ref="C303:D303"/>
+    <mergeCell ref="C304:D304"/>
+    <mergeCell ref="C305:D305"/>
+    <mergeCell ref="C288:D288"/>
+    <mergeCell ref="C289:D289"/>
+    <mergeCell ref="C290:D290"/>
+    <mergeCell ref="C291:D291"/>
+    <mergeCell ref="C292:D292"/>
+    <mergeCell ref="C293:D293"/>
+    <mergeCell ref="C294:D294"/>
+    <mergeCell ref="C295:D295"/>
+    <mergeCell ref="C296:D296"/>
+    <mergeCell ref="C311:D311"/>
+    <mergeCell ref="C312:D312"/>
+    <mergeCell ref="C313:D313"/>
+    <mergeCell ref="C314:D314"/>
+    <mergeCell ref="C315:D315"/>
+    <mergeCell ref="C316:D316"/>
+    <mergeCell ref="C317:D317"/>
+    <mergeCell ref="C318:D318"/>
+    <mergeCell ref="C319:D319"/>
+    <mergeCell ref="C320:D320"/>
+    <mergeCell ref="C321:D321"/>
+    <mergeCell ref="C322:D322"/>
+    <mergeCell ref="C323:D323"/>
+    <mergeCell ref="C324:D324"/>
+    <mergeCell ref="C325:D325"/>
+    <mergeCell ref="C326:D326"/>
+    <mergeCell ref="C327:D327"/>
+    <mergeCell ref="C328:D328"/>
+    <mergeCell ref="C329:D329"/>
+    <mergeCell ref="C330:D330"/>
+    <mergeCell ref="C331:D331"/>
+    <mergeCell ref="C332:D332"/>
+    <mergeCell ref="C333:D333"/>
+    <mergeCell ref="C334:D334"/>
+    <mergeCell ref="C335:D335"/>
+    <mergeCell ref="C336:D336"/>
+    <mergeCell ref="C337:D337"/>
+    <mergeCell ref="C338:D338"/>
+    <mergeCell ref="C339:D339"/>
+    <mergeCell ref="C340:D340"/>
+    <mergeCell ref="C341:D341"/>
+    <mergeCell ref="C342:D342"/>
+    <mergeCell ref="C343:D343"/>
+    <mergeCell ref="C344:D344"/>
+    <mergeCell ref="C345:D345"/>
+    <mergeCell ref="C346:D346"/>
+    <mergeCell ref="C347:D347"/>
+    <mergeCell ref="C348:D348"/>
+    <mergeCell ref="C349:D349"/>
+    <mergeCell ref="C350:D350"/>
+    <mergeCell ref="C351:D351"/>
+    <mergeCell ref="C352:D352"/>
+    <mergeCell ref="C353:D353"/>
+    <mergeCell ref="C354:D354"/>
+    <mergeCell ref="C355:D355"/>
+    <mergeCell ref="C356:D356"/>
+    <mergeCell ref="C357:D357"/>
+    <mergeCell ref="C358:D358"/>
+    <mergeCell ref="C359:D359"/>
+    <mergeCell ref="C360:D360"/>
+    <mergeCell ref="C361:D361"/>
+    <mergeCell ref="C362:D362"/>
+    <mergeCell ref="C363:D363"/>
+    <mergeCell ref="C364:D364"/>
+    <mergeCell ref="C365:D365"/>
+    <mergeCell ref="C366:D366"/>
+    <mergeCell ref="C367:D367"/>
+    <mergeCell ref="C368:D368"/>
+    <mergeCell ref="C369:D369"/>
+    <mergeCell ref="C370:D370"/>
+    <mergeCell ref="C371:D371"/>
+    <mergeCell ref="C372:D372"/>
+    <mergeCell ref="C373:D373"/>
+    <mergeCell ref="C374:D374"/>
+    <mergeCell ref="C375:D375"/>
+    <mergeCell ref="C376:D376"/>
+    <mergeCell ref="C377:D377"/>
+    <mergeCell ref="C378:D378"/>
+    <mergeCell ref="C379:D379"/>
+    <mergeCell ref="C380:D380"/>
+    <mergeCell ref="C381:D381"/>
+    <mergeCell ref="C382:D382"/>
+    <mergeCell ref="C383:D383"/>
+    <mergeCell ref="C384:D384"/>
+    <mergeCell ref="C385:D385"/>
+    <mergeCell ref="C386:D386"/>
+    <mergeCell ref="C387:D387"/>
+    <mergeCell ref="C388:D388"/>
+    <mergeCell ref="C389:D389"/>
+    <mergeCell ref="C390:D390"/>
+    <mergeCell ref="C391:D391"/>
+    <mergeCell ref="C392:D392"/>
+    <mergeCell ref="C393:D393"/>
+    <mergeCell ref="C394:D394"/>
+    <mergeCell ref="C395:D395"/>
+    <mergeCell ref="C396:D396"/>
+    <mergeCell ref="C397:D397"/>
+    <mergeCell ref="C398:D398"/>
+    <mergeCell ref="C399:D399"/>
+    <mergeCell ref="C400:D400"/>
+    <mergeCell ref="C401:D401"/>
+    <mergeCell ref="C402:D402"/>
+    <mergeCell ref="C403:D403"/>
+    <mergeCell ref="C404:D404"/>
+    <mergeCell ref="C405:D405"/>
+    <mergeCell ref="C406:D406"/>
+    <mergeCell ref="C407:D407"/>
+    <mergeCell ref="C408:D408"/>
+    <mergeCell ref="C409:D409"/>
+    <mergeCell ref="C410:D410"/>
+    <mergeCell ref="C411:D411"/>
+    <mergeCell ref="C412:D412"/>
+    <mergeCell ref="C413:D413"/>
+    <mergeCell ref="C414:D414"/>
+    <mergeCell ref="C415:D415"/>
+    <mergeCell ref="C416:D416"/>
+    <mergeCell ref="C417:D417"/>
+    <mergeCell ref="C418:D418"/>
+    <mergeCell ref="C419:D419"/>
+    <mergeCell ref="C420:D420"/>
+    <mergeCell ref="C421:D421"/>
+    <mergeCell ref="C422:D422"/>
+    <mergeCell ref="C423:D423"/>
+    <mergeCell ref="C424:D424"/>
+    <mergeCell ref="C425:D425"/>
+    <mergeCell ref="C426:D426"/>
+    <mergeCell ref="C427:D427"/>
+    <mergeCell ref="C437:D437"/>
+    <mergeCell ref="C438:D438"/>
+    <mergeCell ref="C439:D439"/>
+    <mergeCell ref="C440:D440"/>
+    <mergeCell ref="C441:D441"/>
+    <mergeCell ref="C428:D428"/>
+    <mergeCell ref="C429:D429"/>
+    <mergeCell ref="C430:D430"/>
+    <mergeCell ref="C431:D431"/>
+    <mergeCell ref="C432:D432"/>
+    <mergeCell ref="C433:D433"/>
+    <mergeCell ref="C434:D434"/>
+    <mergeCell ref="C435:D435"/>
+    <mergeCell ref="C436:D436"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15310,7 +15463,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J257"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E63" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="E144" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="J68" sqref="J68:J149"/>
     </sheetView>
   </sheetViews>
@@ -15329,17 +15482,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="32" t="s">
         <v>184</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30" t="s">
+      <c r="B1" s="32"/>
+      <c r="C1" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="30"/>
+      <c r="E1" s="32"/>
       <c r="F1" s="11" t="s">
         <v>3</v>
       </c>
@@ -15348,11 +15501,11 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A2" s="30"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
+      <c r="A2" s="32"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
       <c r="F2" s="11" t="s">
         <v>4</v>
       </c>
@@ -15370,10 +15523,10 @@
       <c r="B4" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="31" t="s">
+      <c r="C4" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="31"/>
+      <c r="D4" s="33"/>
       <c r="E4" s="14" t="s">
         <v>11</v>
       </c>
@@ -15454,7 +15607,7 @@
       <c r="B7" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="C7" s="27" t="s">
+      <c r="C7" s="29" t="s">
         <v>20</v>
       </c>
       <c r="D7" s="28"/>
@@ -15481,7 +15634,7 @@
       <c r="B8" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="C8" s="27" t="s">
+      <c r="C8" s="29" t="s">
         <v>19</v>
       </c>
       <c r="D8" s="28"/>
@@ -15508,7 +15661,7 @@
       <c r="B9" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="C9" s="27" t="s">
+      <c r="C9" s="29" t="s">
         <v>22</v>
       </c>
       <c r="D9" s="28"/>
@@ -15535,7 +15688,7 @@
       <c r="B10" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="C10" s="27" t="s">
+      <c r="C10" s="29" t="s">
         <v>23</v>
       </c>
       <c r="D10" s="28"/>
@@ -15562,7 +15715,7 @@
       <c r="B11" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="C11" s="27" t="s">
+      <c r="C11" s="29" t="s">
         <v>24</v>
       </c>
       <c r="D11" s="28"/>
@@ -15589,7 +15742,7 @@
       <c r="B12" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="C12" s="27" t="s">
+      <c r="C12" s="29" t="s">
         <v>25</v>
       </c>
       <c r="D12" s="28"/>
@@ -15616,7 +15769,7 @@
       <c r="B13" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="C13" s="27" t="s">
+      <c r="C13" s="29" t="s">
         <v>29</v>
       </c>
       <c r="D13" s="28"/>
@@ -15643,7 +15796,7 @@
       <c r="B14" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="C14" s="27" t="s">
+      <c r="C14" s="29" t="s">
         <v>32</v>
       </c>
       <c r="D14" s="28"/>
@@ -15670,7 +15823,7 @@
       <c r="B15" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="C15" s="27" t="s">
+      <c r="C15" s="29" t="s">
         <v>127</v>
       </c>
       <c r="D15" s="28"/>
@@ -15697,10 +15850,10 @@
       <c r="B16" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="C16" s="27" t="s">
+      <c r="C16" s="29" t="s">
         <v>128</v>
       </c>
-      <c r="D16" s="27"/>
+      <c r="D16" s="29"/>
       <c r="E16" s="10" t="s">
         <v>194</v>
       </c>
@@ -15724,7 +15877,7 @@
       <c r="B17" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="C17" s="27" t="s">
+      <c r="C17" s="29" t="s">
         <v>125</v>
       </c>
       <c r="D17" s="28"/>
@@ -15751,7 +15904,7 @@
       <c r="B18" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="C18" s="27" t="s">
+      <c r="C18" s="29" t="s">
         <v>42</v>
       </c>
       <c r="D18" s="28"/>
@@ -15778,7 +15931,7 @@
       <c r="B19" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="C19" s="27" t="s">
+      <c r="C19" s="29" t="s">
         <v>43</v>
       </c>
       <c r="D19" s="28"/>
@@ -15805,7 +15958,7 @@
       <c r="B20" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="C20" s="27" t="s">
+      <c r="C20" s="29" t="s">
         <v>44</v>
       </c>
       <c r="D20" s="28"/>
@@ -15832,7 +15985,7 @@
       <c r="B21" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="C21" s="27" t="s">
+      <c r="C21" s="29" t="s">
         <v>148</v>
       </c>
       <c r="D21" s="28"/>
@@ -15859,10 +16012,10 @@
       <c r="B22" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="C22" s="27" t="s">
+      <c r="C22" s="29" t="s">
         <v>141</v>
       </c>
-      <c r="D22" s="27"/>
+      <c r="D22" s="29"/>
       <c r="E22" s="10" t="s">
         <v>195</v>
       </c>
@@ -15886,7 +16039,7 @@
       <c r="B23" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="C23" s="27" t="s">
+      <c r="C23" s="29" t="s">
         <v>45</v>
       </c>
       <c r="D23" s="28"/>
@@ -15913,7 +16066,7 @@
       <c r="B24" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="C24" s="27" t="s">
+      <c r="C24" s="29" t="s">
         <v>46</v>
       </c>
       <c r="D24" s="28"/>
@@ -15940,7 +16093,7 @@
       <c r="B25" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="C25" s="27" t="s">
+      <c r="C25" s="29" t="s">
         <v>47</v>
       </c>
       <c r="D25" s="28"/>
@@ -15967,7 +16120,7 @@
       <c r="B26" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="C26" s="27" t="s">
+      <c r="C26" s="29" t="s">
         <v>149</v>
       </c>
       <c r="D26" s="28"/>
@@ -15994,10 +16147,10 @@
       <c r="B27" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="C27" s="27" t="s">
+      <c r="C27" s="29" t="s">
         <v>142</v>
       </c>
-      <c r="D27" s="27"/>
+      <c r="D27" s="29"/>
       <c r="E27" s="10" t="s">
         <v>196</v>
       </c>
@@ -16021,7 +16174,7 @@
       <c r="B28" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="C28" s="27" t="s">
+      <c r="C28" s="29" t="s">
         <v>48</v>
       </c>
       <c r="D28" s="28"/>
@@ -16048,7 +16201,7 @@
       <c r="B29" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="C29" s="27" t="s">
+      <c r="C29" s="29" t="s">
         <v>172</v>
       </c>
       <c r="D29" s="28"/>
@@ -16078,7 +16231,7 @@
       <c r="B30" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="C30" s="27" t="s">
+      <c r="C30" s="29" t="s">
         <v>173</v>
       </c>
       <c r="D30" s="28"/>
@@ -16108,7 +16261,7 @@
       <c r="B31" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="C31" s="27" t="s">
+      <c r="C31" s="29" t="s">
         <v>143</v>
       </c>
       <c r="D31" s="28"/>
@@ -16135,7 +16288,7 @@
       <c r="B32" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="C32" s="27" t="s">
+      <c r="C32" s="29" t="s">
         <v>144</v>
       </c>
       <c r="D32" s="28"/>
@@ -17161,7 +17314,7 @@
       <c r="B70" s="25" t="s">
         <v>321</v>
       </c>
-      <c r="C70" s="27" t="s">
+      <c r="C70" s="29" t="s">
         <v>20</v>
       </c>
       <c r="D70" s="28"/>
@@ -17188,7 +17341,7 @@
       <c r="B71" s="25" t="s">
         <v>321</v>
       </c>
-      <c r="C71" s="27" t="s">
+      <c r="C71" s="29" t="s">
         <v>19</v>
       </c>
       <c r="D71" s="28"/>
@@ -17215,7 +17368,7 @@
       <c r="B72" s="25" t="s">
         <v>321</v>
       </c>
-      <c r="C72" s="27" t="s">
+      <c r="C72" s="29" t="s">
         <v>22</v>
       </c>
       <c r="D72" s="28"/>
@@ -17242,7 +17395,7 @@
       <c r="B73" s="25" t="s">
         <v>321</v>
       </c>
-      <c r="C73" s="27" t="s">
+      <c r="C73" s="29" t="s">
         <v>23</v>
       </c>
       <c r="D73" s="28"/>
@@ -17269,7 +17422,7 @@
       <c r="B74" s="25" t="s">
         <v>321</v>
       </c>
-      <c r="C74" s="27" t="s">
+      <c r="C74" s="29" t="s">
         <v>24</v>
       </c>
       <c r="D74" s="28"/>
@@ -17296,7 +17449,7 @@
       <c r="B75" s="25" t="s">
         <v>321</v>
       </c>
-      <c r="C75" s="27" t="s">
+      <c r="C75" s="29" t="s">
         <v>25</v>
       </c>
       <c r="D75" s="28"/>
@@ -17323,7 +17476,7 @@
       <c r="B76" s="25" t="s">
         <v>321</v>
       </c>
-      <c r="C76" s="27" t="s">
+      <c r="C76" s="29" t="s">
         <v>29</v>
       </c>
       <c r="D76" s="28"/>
@@ -17350,7 +17503,7 @@
       <c r="B77" s="25" t="s">
         <v>321</v>
       </c>
-      <c r="C77" s="27" t="s">
+      <c r="C77" s="29" t="s">
         <v>32</v>
       </c>
       <c r="D77" s="28"/>
@@ -17377,7 +17530,7 @@
       <c r="B78" s="25" t="s">
         <v>321</v>
       </c>
-      <c r="C78" s="27" t="s">
+      <c r="C78" s="29" t="s">
         <v>127</v>
       </c>
       <c r="D78" s="28"/>
@@ -17404,10 +17557,10 @@
       <c r="B79" s="25" t="s">
         <v>321</v>
       </c>
-      <c r="C79" s="27" t="s">
+      <c r="C79" s="29" t="s">
         <v>128</v>
       </c>
-      <c r="D79" s="27"/>
+      <c r="D79" s="29"/>
       <c r="E79" s="25" t="s">
         <v>330</v>
       </c>
@@ -17431,7 +17584,7 @@
       <c r="B80" s="25" t="s">
         <v>321</v>
       </c>
-      <c r="C80" s="27" t="s">
+      <c r="C80" s="29" t="s">
         <v>125</v>
       </c>
       <c r="D80" s="28"/>
@@ -17458,7 +17611,7 @@
       <c r="B81" s="25" t="s">
         <v>321</v>
       </c>
-      <c r="C81" s="27" t="s">
+      <c r="C81" s="29" t="s">
         <v>42</v>
       </c>
       <c r="D81" s="28"/>
@@ -17485,7 +17638,7 @@
       <c r="B82" s="25" t="s">
         <v>321</v>
       </c>
-      <c r="C82" s="27" t="s">
+      <c r="C82" s="29" t="s">
         <v>43</v>
       </c>
       <c r="D82" s="28"/>
@@ -17512,7 +17665,7 @@
       <c r="B83" s="25" t="s">
         <v>321</v>
       </c>
-      <c r="C83" s="27" t="s">
+      <c r="C83" s="29" t="s">
         <v>44</v>
       </c>
       <c r="D83" s="28"/>
@@ -17539,7 +17692,7 @@
       <c r="B84" s="25" t="s">
         <v>321</v>
       </c>
-      <c r="C84" s="27" t="s">
+      <c r="C84" s="29" t="s">
         <v>148</v>
       </c>
       <c r="D84" s="28"/>
@@ -17566,10 +17719,10 @@
       <c r="B85" s="25" t="s">
         <v>321</v>
       </c>
-      <c r="C85" s="27" t="s">
+      <c r="C85" s="29" t="s">
         <v>141</v>
       </c>
-      <c r="D85" s="27"/>
+      <c r="D85" s="29"/>
       <c r="E85" s="25" t="s">
         <v>332</v>
       </c>
@@ -17593,7 +17746,7 @@
       <c r="B86" s="25" t="s">
         <v>321</v>
       </c>
-      <c r="C86" s="27" t="s">
+      <c r="C86" s="29" t="s">
         <v>45</v>
       </c>
       <c r="D86" s="28"/>
@@ -17620,7 +17773,7 @@
       <c r="B87" s="25" t="s">
         <v>321</v>
       </c>
-      <c r="C87" s="27" t="s">
+      <c r="C87" s="29" t="s">
         <v>46</v>
       </c>
       <c r="D87" s="28"/>
@@ -17647,7 +17800,7 @@
       <c r="B88" s="25" t="s">
         <v>321</v>
       </c>
-      <c r="C88" s="27" t="s">
+      <c r="C88" s="29" t="s">
         <v>47</v>
       </c>
       <c r="D88" s="28"/>
@@ -17674,7 +17827,7 @@
       <c r="B89" s="25" t="s">
         <v>321</v>
       </c>
-      <c r="C89" s="27" t="s">
+      <c r="C89" s="29" t="s">
         <v>149</v>
       </c>
       <c r="D89" s="28"/>
@@ -17701,10 +17854,10 @@
       <c r="B90" s="25" t="s">
         <v>321</v>
       </c>
-      <c r="C90" s="27" t="s">
+      <c r="C90" s="29" t="s">
         <v>142</v>
       </c>
-      <c r="D90" s="27"/>
+      <c r="D90" s="29"/>
       <c r="E90" s="25" t="s">
         <v>333</v>
       </c>
@@ -17728,7 +17881,7 @@
       <c r="B91" s="25" t="s">
         <v>321</v>
       </c>
-      <c r="C91" s="27" t="s">
+      <c r="C91" s="29" t="s">
         <v>48</v>
       </c>
       <c r="D91" s="28"/>
@@ -17755,7 +17908,7 @@
       <c r="B92" s="25" t="s">
         <v>321</v>
       </c>
-      <c r="C92" s="27" t="s">
+      <c r="C92" s="29" t="s">
         <v>172</v>
       </c>
       <c r="D92" s="28"/>
@@ -17782,7 +17935,7 @@
       <c r="B93" s="25" t="s">
         <v>321</v>
       </c>
-      <c r="C93" s="27" t="s">
+      <c r="C93" s="29" t="s">
         <v>173</v>
       </c>
       <c r="D93" s="28"/>
@@ -17809,7 +17962,7 @@
       <c r="B94" s="25" t="s">
         <v>321</v>
       </c>
-      <c r="C94" s="27" t="s">
+      <c r="C94" s="29" t="s">
         <v>143</v>
       </c>
       <c r="D94" s="28"/>
@@ -17836,7 +17989,7 @@
       <c r="B95" s="25" t="s">
         <v>321</v>
       </c>
-      <c r="C95" s="27" t="s">
+      <c r="C95" s="29" t="s">
         <v>144</v>
       </c>
       <c r="D95" s="28"/>
@@ -19748,240 +19901,6 @@
     </row>
   </sheetData>
   <mergeCells count="257">
-    <mergeCell ref="C256:D256"/>
-    <mergeCell ref="C257:D257"/>
-    <mergeCell ref="C247:D247"/>
-    <mergeCell ref="C248:D248"/>
-    <mergeCell ref="C249:D249"/>
-    <mergeCell ref="C250:D250"/>
-    <mergeCell ref="C251:D251"/>
-    <mergeCell ref="C252:D252"/>
-    <mergeCell ref="C253:D253"/>
-    <mergeCell ref="C254:D254"/>
-    <mergeCell ref="C255:D255"/>
-    <mergeCell ref="C238:D238"/>
-    <mergeCell ref="C239:D239"/>
-    <mergeCell ref="C240:D240"/>
-    <mergeCell ref="C241:D241"/>
-    <mergeCell ref="C242:D242"/>
-    <mergeCell ref="C243:D243"/>
-    <mergeCell ref="C244:D244"/>
-    <mergeCell ref="C245:D245"/>
-    <mergeCell ref="C246:D246"/>
-    <mergeCell ref="C229:D229"/>
-    <mergeCell ref="C230:D230"/>
-    <mergeCell ref="C231:D231"/>
-    <mergeCell ref="C232:D232"/>
-    <mergeCell ref="C233:D233"/>
-    <mergeCell ref="C234:D234"/>
-    <mergeCell ref="C235:D235"/>
-    <mergeCell ref="C236:D236"/>
-    <mergeCell ref="C237:D237"/>
-    <mergeCell ref="C220:D220"/>
-    <mergeCell ref="C221:D221"/>
-    <mergeCell ref="C222:D222"/>
-    <mergeCell ref="C223:D223"/>
-    <mergeCell ref="C224:D224"/>
-    <mergeCell ref="C225:D225"/>
-    <mergeCell ref="C226:D226"/>
-    <mergeCell ref="C227:D227"/>
-    <mergeCell ref="C228:D228"/>
-    <mergeCell ref="C211:D211"/>
-    <mergeCell ref="C212:D212"/>
-    <mergeCell ref="C213:D213"/>
-    <mergeCell ref="C214:D214"/>
-    <mergeCell ref="C215:D215"/>
-    <mergeCell ref="C216:D216"/>
-    <mergeCell ref="C217:D217"/>
-    <mergeCell ref="C218:D218"/>
-    <mergeCell ref="C219:D219"/>
-    <mergeCell ref="C202:D202"/>
-    <mergeCell ref="C203:D203"/>
-    <mergeCell ref="C204:D204"/>
-    <mergeCell ref="C205:D205"/>
-    <mergeCell ref="C206:D206"/>
-    <mergeCell ref="C207:D207"/>
-    <mergeCell ref="C208:D208"/>
-    <mergeCell ref="C209:D209"/>
-    <mergeCell ref="C210:D210"/>
-    <mergeCell ref="C193:D193"/>
-    <mergeCell ref="C194:D194"/>
-    <mergeCell ref="C195:D195"/>
-    <mergeCell ref="C196:D196"/>
-    <mergeCell ref="C197:D197"/>
-    <mergeCell ref="C198:D198"/>
-    <mergeCell ref="C199:D199"/>
-    <mergeCell ref="C200:D200"/>
-    <mergeCell ref="C201:D201"/>
-    <mergeCell ref="C184:D184"/>
-    <mergeCell ref="C185:D185"/>
-    <mergeCell ref="C186:D186"/>
-    <mergeCell ref="C187:D187"/>
-    <mergeCell ref="C188:D188"/>
-    <mergeCell ref="C189:D189"/>
-    <mergeCell ref="C190:D190"/>
-    <mergeCell ref="C191:D191"/>
-    <mergeCell ref="C192:D192"/>
-    <mergeCell ref="C175:D175"/>
-    <mergeCell ref="C176:D176"/>
-    <mergeCell ref="C177:D177"/>
-    <mergeCell ref="C178:D178"/>
-    <mergeCell ref="C179:D179"/>
-    <mergeCell ref="C180:D180"/>
-    <mergeCell ref="C181:D181"/>
-    <mergeCell ref="C182:D182"/>
-    <mergeCell ref="C183:D183"/>
-    <mergeCell ref="C166:D166"/>
-    <mergeCell ref="C167:D167"/>
-    <mergeCell ref="C168:D168"/>
-    <mergeCell ref="C169:D169"/>
-    <mergeCell ref="C170:D170"/>
-    <mergeCell ref="C171:D171"/>
-    <mergeCell ref="C172:D172"/>
-    <mergeCell ref="C173:D173"/>
-    <mergeCell ref="C174:D174"/>
-    <mergeCell ref="C157:D157"/>
-    <mergeCell ref="C158:D158"/>
-    <mergeCell ref="C159:D159"/>
-    <mergeCell ref="C160:D160"/>
-    <mergeCell ref="C161:D161"/>
-    <mergeCell ref="C162:D162"/>
-    <mergeCell ref="C163:D163"/>
-    <mergeCell ref="C164:D164"/>
-    <mergeCell ref="C165:D165"/>
-    <mergeCell ref="C148:D148"/>
-    <mergeCell ref="C149:D149"/>
-    <mergeCell ref="C150:D150"/>
-    <mergeCell ref="C151:D151"/>
-    <mergeCell ref="C152:D152"/>
-    <mergeCell ref="C153:D153"/>
-    <mergeCell ref="C154:D154"/>
-    <mergeCell ref="C155:D155"/>
-    <mergeCell ref="C156:D156"/>
-    <mergeCell ref="C139:D139"/>
-    <mergeCell ref="C140:D140"/>
-    <mergeCell ref="C141:D141"/>
-    <mergeCell ref="C142:D142"/>
-    <mergeCell ref="C143:D143"/>
-    <mergeCell ref="C144:D144"/>
-    <mergeCell ref="C145:D145"/>
-    <mergeCell ref="C146:D146"/>
-    <mergeCell ref="C147:D147"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:E2"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="C91:D91"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="C96:D96"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="C89:D89"/>
-    <mergeCell ref="C90:D90"/>
-    <mergeCell ref="C103:D103"/>
-    <mergeCell ref="C104:D104"/>
-    <mergeCell ref="C105:D105"/>
-    <mergeCell ref="C106:D106"/>
-    <mergeCell ref="C107:D107"/>
-    <mergeCell ref="C97:D97"/>
-    <mergeCell ref="C98:D98"/>
-    <mergeCell ref="C99:D99"/>
-    <mergeCell ref="C100:D100"/>
-    <mergeCell ref="C101:D101"/>
-    <mergeCell ref="C102:D102"/>
-    <mergeCell ref="C116:D116"/>
-    <mergeCell ref="C117:D117"/>
-    <mergeCell ref="C118:D118"/>
-    <mergeCell ref="C108:D108"/>
-    <mergeCell ref="C109:D109"/>
-    <mergeCell ref="C110:D110"/>
-    <mergeCell ref="C111:D111"/>
-    <mergeCell ref="C112:D112"/>
-    <mergeCell ref="C137:D137"/>
     <mergeCell ref="C138:D138"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="C131:D131"/>
@@ -20005,6 +19924,240 @@
     <mergeCell ref="C113:D113"/>
     <mergeCell ref="C114:D114"/>
     <mergeCell ref="C115:D115"/>
+    <mergeCell ref="C116:D116"/>
+    <mergeCell ref="C117:D117"/>
+    <mergeCell ref="C118:D118"/>
+    <mergeCell ref="C108:D108"/>
+    <mergeCell ref="C109:D109"/>
+    <mergeCell ref="C110:D110"/>
+    <mergeCell ref="C111:D111"/>
+    <mergeCell ref="C112:D112"/>
+    <mergeCell ref="C137:D137"/>
+    <mergeCell ref="C103:D103"/>
+    <mergeCell ref="C104:D104"/>
+    <mergeCell ref="C105:D105"/>
+    <mergeCell ref="C106:D106"/>
+    <mergeCell ref="C107:D107"/>
+    <mergeCell ref="C97:D97"/>
+    <mergeCell ref="C98:D98"/>
+    <mergeCell ref="C99:D99"/>
+    <mergeCell ref="C100:D100"/>
+    <mergeCell ref="C101:D101"/>
+    <mergeCell ref="C102:D102"/>
+    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="C90:D90"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:E2"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C139:D139"/>
+    <mergeCell ref="C140:D140"/>
+    <mergeCell ref="C141:D141"/>
+    <mergeCell ref="C142:D142"/>
+    <mergeCell ref="C143:D143"/>
+    <mergeCell ref="C144:D144"/>
+    <mergeCell ref="C145:D145"/>
+    <mergeCell ref="C146:D146"/>
+    <mergeCell ref="C147:D147"/>
+    <mergeCell ref="C148:D148"/>
+    <mergeCell ref="C149:D149"/>
+    <mergeCell ref="C150:D150"/>
+    <mergeCell ref="C151:D151"/>
+    <mergeCell ref="C152:D152"/>
+    <mergeCell ref="C153:D153"/>
+    <mergeCell ref="C154:D154"/>
+    <mergeCell ref="C155:D155"/>
+    <mergeCell ref="C156:D156"/>
+    <mergeCell ref="C157:D157"/>
+    <mergeCell ref="C158:D158"/>
+    <mergeCell ref="C159:D159"/>
+    <mergeCell ref="C160:D160"/>
+    <mergeCell ref="C161:D161"/>
+    <mergeCell ref="C162:D162"/>
+    <mergeCell ref="C163:D163"/>
+    <mergeCell ref="C164:D164"/>
+    <mergeCell ref="C165:D165"/>
+    <mergeCell ref="C166:D166"/>
+    <mergeCell ref="C167:D167"/>
+    <mergeCell ref="C168:D168"/>
+    <mergeCell ref="C169:D169"/>
+    <mergeCell ref="C170:D170"/>
+    <mergeCell ref="C171:D171"/>
+    <mergeCell ref="C172:D172"/>
+    <mergeCell ref="C173:D173"/>
+    <mergeCell ref="C174:D174"/>
+    <mergeCell ref="C175:D175"/>
+    <mergeCell ref="C176:D176"/>
+    <mergeCell ref="C177:D177"/>
+    <mergeCell ref="C178:D178"/>
+    <mergeCell ref="C179:D179"/>
+    <mergeCell ref="C180:D180"/>
+    <mergeCell ref="C181:D181"/>
+    <mergeCell ref="C182:D182"/>
+    <mergeCell ref="C183:D183"/>
+    <mergeCell ref="C184:D184"/>
+    <mergeCell ref="C185:D185"/>
+    <mergeCell ref="C186:D186"/>
+    <mergeCell ref="C187:D187"/>
+    <mergeCell ref="C188:D188"/>
+    <mergeCell ref="C189:D189"/>
+    <mergeCell ref="C190:D190"/>
+    <mergeCell ref="C191:D191"/>
+    <mergeCell ref="C192:D192"/>
+    <mergeCell ref="C193:D193"/>
+    <mergeCell ref="C194:D194"/>
+    <mergeCell ref="C195:D195"/>
+    <mergeCell ref="C196:D196"/>
+    <mergeCell ref="C197:D197"/>
+    <mergeCell ref="C198:D198"/>
+    <mergeCell ref="C199:D199"/>
+    <mergeCell ref="C200:D200"/>
+    <mergeCell ref="C201:D201"/>
+    <mergeCell ref="C202:D202"/>
+    <mergeCell ref="C203:D203"/>
+    <mergeCell ref="C204:D204"/>
+    <mergeCell ref="C205:D205"/>
+    <mergeCell ref="C206:D206"/>
+    <mergeCell ref="C207:D207"/>
+    <mergeCell ref="C208:D208"/>
+    <mergeCell ref="C209:D209"/>
+    <mergeCell ref="C210:D210"/>
+    <mergeCell ref="C211:D211"/>
+    <mergeCell ref="C212:D212"/>
+    <mergeCell ref="C213:D213"/>
+    <mergeCell ref="C214:D214"/>
+    <mergeCell ref="C215:D215"/>
+    <mergeCell ref="C216:D216"/>
+    <mergeCell ref="C217:D217"/>
+    <mergeCell ref="C218:D218"/>
+    <mergeCell ref="C219:D219"/>
+    <mergeCell ref="C220:D220"/>
+    <mergeCell ref="C221:D221"/>
+    <mergeCell ref="C222:D222"/>
+    <mergeCell ref="C223:D223"/>
+    <mergeCell ref="C224:D224"/>
+    <mergeCell ref="C225:D225"/>
+    <mergeCell ref="C226:D226"/>
+    <mergeCell ref="C227:D227"/>
+    <mergeCell ref="C228:D228"/>
+    <mergeCell ref="C229:D229"/>
+    <mergeCell ref="C230:D230"/>
+    <mergeCell ref="C231:D231"/>
+    <mergeCell ref="C232:D232"/>
+    <mergeCell ref="C233:D233"/>
+    <mergeCell ref="C234:D234"/>
+    <mergeCell ref="C235:D235"/>
+    <mergeCell ref="C236:D236"/>
+    <mergeCell ref="C237:D237"/>
+    <mergeCell ref="C238:D238"/>
+    <mergeCell ref="C239:D239"/>
+    <mergeCell ref="C240:D240"/>
+    <mergeCell ref="C241:D241"/>
+    <mergeCell ref="C242:D242"/>
+    <mergeCell ref="C243:D243"/>
+    <mergeCell ref="C244:D244"/>
+    <mergeCell ref="C245:D245"/>
+    <mergeCell ref="C246:D246"/>
+    <mergeCell ref="C256:D256"/>
+    <mergeCell ref="C257:D257"/>
+    <mergeCell ref="C247:D247"/>
+    <mergeCell ref="C248:D248"/>
+    <mergeCell ref="C249:D249"/>
+    <mergeCell ref="C250:D250"/>
+    <mergeCell ref="C251:D251"/>
+    <mergeCell ref="C252:D252"/>
+    <mergeCell ref="C253:D253"/>
+    <mergeCell ref="C254:D254"/>
+    <mergeCell ref="C255:D255"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -20031,17 +20184,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="32" t="s">
         <v>226</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30" t="s">
+      <c r="B1" s="32"/>
+      <c r="C1" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="30"/>
+      <c r="E1" s="32"/>
       <c r="F1" s="16" t="s">
         <v>3</v>
       </c>
@@ -20050,11 +20203,11 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A2" s="30"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
+      <c r="A2" s="32"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
       <c r="F2" s="16" t="s">
         <v>4</v>
       </c>
@@ -20073,10 +20226,10 @@
       <c r="B4" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="31" t="s">
+      <c r="C4" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="31"/>
+      <c r="D4" s="33"/>
       <c r="E4" s="14" t="s">
         <v>11</v>
       </c>
@@ -20103,10 +20256,10 @@
       <c r="B5" s="15" t="s">
         <v>224</v>
       </c>
-      <c r="C5" s="33" t="s">
+      <c r="C5" s="31" t="s">
         <v>225</v>
       </c>
-      <c r="D5" s="33"/>
+      <c r="D5" s="31"/>
       <c r="E5" s="15" t="s">
         <v>204</v>
       </c>
@@ -20118,10 +20271,10 @@
       <c r="B6" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="33" t="s">
+      <c r="C6" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="33"/>
+      <c r="D6" s="31"/>
       <c r="E6" s="15" t="s">
         <v>120</v>
       </c>
@@ -20163,7 +20316,7 @@
       <c r="B9" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="27" t="s">
+      <c r="C9" s="29" t="s">
         <v>20</v>
       </c>
       <c r="D9" s="28"/>
@@ -20178,7 +20331,7 @@
       <c r="B10" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="27" t="s">
+      <c r="C10" s="29" t="s">
         <v>19</v>
       </c>
       <c r="D10" s="28"/>
@@ -20193,7 +20346,7 @@
       <c r="B11" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="27" t="s">
+      <c r="C11" s="29" t="s">
         <v>22</v>
       </c>
       <c r="D11" s="28"/>
@@ -20208,7 +20361,7 @@
       <c r="B12" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="27" t="s">
+      <c r="C12" s="29" t="s">
         <v>23</v>
       </c>
       <c r="D12" s="28"/>
@@ -20223,7 +20376,7 @@
       <c r="B13" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="27" t="s">
+      <c r="C13" s="29" t="s">
         <v>21</v>
       </c>
       <c r="D13" s="28"/>
@@ -20238,7 +20391,7 @@
       <c r="B14" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="27" t="s">
+      <c r="C14" s="29" t="s">
         <v>136</v>
       </c>
       <c r="D14" s="28"/>
@@ -20253,7 +20406,7 @@
       <c r="B15" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="27" t="s">
+      <c r="C15" s="29" t="s">
         <v>24</v>
       </c>
       <c r="D15" s="28"/>
@@ -20268,7 +20421,7 @@
       <c r="B16" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="27" t="s">
+      <c r="C16" s="29" t="s">
         <v>25</v>
       </c>
       <c r="D16" s="28"/>
@@ -20283,7 +20436,7 @@
       <c r="B17" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="27" t="s">
+      <c r="C17" s="29" t="s">
         <v>26</v>
       </c>
       <c r="D17" s="28"/>
@@ -20298,7 +20451,7 @@
       <c r="B18" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="27" t="s">
+      <c r="C18" s="29" t="s">
         <v>134</v>
       </c>
       <c r="D18" s="28"/>
@@ -20313,7 +20466,7 @@
       <c r="B19" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="27" t="s">
+      <c r="C19" s="29" t="s">
         <v>29</v>
       </c>
       <c r="D19" s="28"/>
@@ -20328,7 +20481,7 @@
       <c r="B20" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="27" t="s">
+      <c r="C20" s="29" t="s">
         <v>32</v>
       </c>
       <c r="D20" s="28"/>
@@ -20343,7 +20496,7 @@
       <c r="B21" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="27" t="s">
+      <c r="C21" s="29" t="s">
         <v>127</v>
       </c>
       <c r="D21" s="28"/>
@@ -20358,10 +20511,10 @@
       <c r="B22" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="27" t="s">
+      <c r="C22" s="29" t="s">
         <v>128</v>
       </c>
-      <c r="D22" s="27"/>
+      <c r="D22" s="29"/>
       <c r="E22" s="15" t="s">
         <v>122</v>
       </c>
@@ -20373,7 +20526,7 @@
       <c r="B23" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C23" s="27" t="s">
+      <c r="C23" s="29" t="s">
         <v>36</v>
       </c>
       <c r="D23" s="28"/>
@@ -20388,7 +20541,7 @@
       <c r="B24" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C24" s="27" t="s">
+      <c r="C24" s="29" t="s">
         <v>37</v>
       </c>
       <c r="D24" s="28"/>
@@ -20403,7 +20556,7 @@
       <c r="B25" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C25" s="27" t="s">
+      <c r="C25" s="29" t="s">
         <v>38</v>
       </c>
       <c r="D25" s="28"/>
@@ -20418,7 +20571,7 @@
       <c r="B26" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C26" s="27" t="s">
+      <c r="C26" s="29" t="s">
         <v>125</v>
       </c>
       <c r="D26" s="28"/>
@@ -20433,10 +20586,10 @@
       <c r="B27" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C27" s="27" t="s">
+      <c r="C27" s="29" t="s">
         <v>126</v>
       </c>
-      <c r="D27" s="27"/>
+      <c r="D27" s="29"/>
       <c r="E27" s="15" t="s">
         <v>167</v>
       </c>
@@ -20448,10 +20601,10 @@
       <c r="B28" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C28" s="27" t="s">
+      <c r="C28" s="29" t="s">
         <v>140</v>
       </c>
-      <c r="D28" s="27"/>
+      <c r="D28" s="29"/>
       <c r="E28" s="15" t="s">
         <v>122</v>
       </c>
@@ -20463,10 +20616,10 @@
       <c r="B29" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C29" s="27" t="s">
+      <c r="C29" s="29" t="s">
         <v>137</v>
       </c>
-      <c r="D29" s="27"/>
+      <c r="D29" s="29"/>
       <c r="E29" s="15" t="s">
         <v>167</v>
       </c>
@@ -20478,7 +20631,7 @@
       <c r="B30" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C30" s="27" t="s">
+      <c r="C30" s="29" t="s">
         <v>42</v>
       </c>
       <c r="D30" s="28"/>
@@ -20493,7 +20646,7 @@
       <c r="B31" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C31" s="27" t="s">
+      <c r="C31" s="29" t="s">
         <v>43</v>
       </c>
       <c r="D31" s="28"/>
@@ -20508,7 +20661,7 @@
       <c r="B32" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C32" s="27" t="s">
+      <c r="C32" s="29" t="s">
         <v>44</v>
       </c>
       <c r="D32" s="28"/>
@@ -20523,7 +20676,7 @@
       <c r="B33" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C33" s="27" t="s">
+      <c r="C33" s="29" t="s">
         <v>148</v>
       </c>
       <c r="D33" s="28"/>
@@ -20538,10 +20691,10 @@
       <c r="B34" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C34" s="27" t="s">
+      <c r="C34" s="29" t="s">
         <v>141</v>
       </c>
-      <c r="D34" s="27"/>
+      <c r="D34" s="29"/>
       <c r="E34" s="15" t="s">
         <v>122</v>
       </c>
@@ -20553,7 +20706,7 @@
       <c r="B35" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C35" s="27" t="s">
+      <c r="C35" s="29" t="s">
         <v>45</v>
       </c>
       <c r="D35" s="28"/>
@@ -20568,7 +20721,7 @@
       <c r="B36" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C36" s="27" t="s">
+      <c r="C36" s="29" t="s">
         <v>46</v>
       </c>
       <c r="D36" s="28"/>
@@ -20583,7 +20736,7 @@
       <c r="B37" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C37" s="27" t="s">
+      <c r="C37" s="29" t="s">
         <v>47</v>
       </c>
       <c r="D37" s="28"/>
@@ -20598,7 +20751,7 @@
       <c r="B38" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C38" s="27" t="s">
+      <c r="C38" s="29" t="s">
         <v>149</v>
       </c>
       <c r="D38" s="28"/>
@@ -20613,10 +20766,10 @@
       <c r="B39" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C39" s="27" t="s">
+      <c r="C39" s="29" t="s">
         <v>142</v>
       </c>
-      <c r="D39" s="27"/>
+      <c r="D39" s="29"/>
       <c r="E39" s="15" t="s">
         <v>122</v>
       </c>
@@ -20628,7 +20781,7 @@
       <c r="B40" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C40" s="27" t="s">
+      <c r="C40" s="29" t="s">
         <v>48</v>
       </c>
       <c r="D40" s="28"/>
@@ -20643,7 +20796,7 @@
       <c r="B41" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C41" s="27" t="s">
+      <c r="C41" s="29" t="s">
         <v>105</v>
       </c>
       <c r="D41" s="28"/>
@@ -20658,7 +20811,7 @@
       <c r="B42" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C42" s="27" t="s">
+      <c r="C42" s="29" t="s">
         <v>106</v>
       </c>
       <c r="D42" s="28"/>
@@ -20673,7 +20826,7 @@
       <c r="B43" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C43" s="27" t="s">
+      <c r="C43" s="29" t="s">
         <v>109</v>
       </c>
       <c r="D43" s="28"/>
@@ -20688,7 +20841,7 @@
       <c r="B44" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C44" s="27" t="s">
+      <c r="C44" s="29" t="s">
         <v>110</v>
       </c>
       <c r="D44" s="28"/>
@@ -20703,7 +20856,7 @@
       <c r="B45" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C45" s="27" t="s">
+      <c r="C45" s="29" t="s">
         <v>111</v>
       </c>
       <c r="D45" s="28"/>
@@ -20718,7 +20871,7 @@
       <c r="B46" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C46" s="27" t="s">
+      <c r="C46" s="29" t="s">
         <v>116</v>
       </c>
       <c r="D46" s="28"/>
@@ -20733,7 +20886,7 @@
       <c r="B47" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C47" s="27" t="s">
+      <c r="C47" s="29" t="s">
         <v>117</v>
       </c>
       <c r="D47" s="28"/>
@@ -20748,7 +20901,7 @@
       <c r="B48" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C48" s="27" t="s">
+      <c r="C48" s="29" t="s">
         <v>118</v>
       </c>
       <c r="D48" s="28"/>
@@ -20763,7 +20916,7 @@
       <c r="B49" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C49" s="27" t="s">
+      <c r="C49" s="29" t="s">
         <v>172</v>
       </c>
       <c r="D49" s="28"/>
@@ -20778,7 +20931,7 @@
       <c r="B50" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C50" s="27" t="s">
+      <c r="C50" s="29" t="s">
         <v>173</v>
       </c>
       <c r="D50" s="28"/>
@@ -20793,7 +20946,7 @@
       <c r="B51" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C51" s="27" t="s">
+      <c r="C51" s="29" t="s">
         <v>143</v>
       </c>
       <c r="D51" s="28"/>
@@ -20808,7 +20961,7 @@
       <c r="B52" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C52" s="27" t="s">
+      <c r="C52" s="29" t="s">
         <v>144</v>
       </c>
       <c r="D52" s="28"/>
@@ -20823,7 +20976,7 @@
       <c r="B53" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C53" s="27" t="s">
+      <c r="C53" s="29" t="s">
         <v>146</v>
       </c>
       <c r="D53" s="28"/>
@@ -20838,7 +20991,7 @@
       <c r="B54" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C54" s="27" t="s">
+      <c r="C54" s="29" t="s">
         <v>150</v>
       </c>
       <c r="D54" s="28"/>
@@ -20853,7 +21006,7 @@
       <c r="B55" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C55" s="27" t="s">
+      <c r="C55" s="29" t="s">
         <v>174</v>
       </c>
       <c r="D55" s="28"/>
@@ -20868,7 +21021,7 @@
       <c r="B56" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C56" s="27" t="s">
+      <c r="C56" s="29" t="s">
         <v>175</v>
       </c>
       <c r="D56" s="28"/>
@@ -21295,6 +21448,123 @@
     </row>
   </sheetData>
   <mergeCells count="141">
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:E2"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="C97:D97"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="C90:D90"/>
+    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="C104:D104"/>
+    <mergeCell ref="C105:D105"/>
+    <mergeCell ref="C106:D106"/>
+    <mergeCell ref="C107:D107"/>
+    <mergeCell ref="C108:D108"/>
+    <mergeCell ref="C109:D109"/>
+    <mergeCell ref="C98:D98"/>
+    <mergeCell ref="C99:D99"/>
+    <mergeCell ref="C100:D100"/>
+    <mergeCell ref="C101:D101"/>
+    <mergeCell ref="C102:D102"/>
+    <mergeCell ref="C103:D103"/>
+    <mergeCell ref="C119:D119"/>
+    <mergeCell ref="C120:D120"/>
+    <mergeCell ref="C121:D121"/>
+    <mergeCell ref="C110:D110"/>
+    <mergeCell ref="C111:D111"/>
+    <mergeCell ref="C112:D112"/>
+    <mergeCell ref="C113:D113"/>
+    <mergeCell ref="C114:D114"/>
+    <mergeCell ref="C115:D115"/>
     <mergeCell ref="C140:D140"/>
     <mergeCell ref="C141:D141"/>
     <mergeCell ref="C5:D5"/>
@@ -21319,123 +21589,6 @@
     <mergeCell ref="C116:D116"/>
     <mergeCell ref="C117:D117"/>
     <mergeCell ref="C118:D118"/>
-    <mergeCell ref="C119:D119"/>
-    <mergeCell ref="C120:D120"/>
-    <mergeCell ref="C121:D121"/>
-    <mergeCell ref="C110:D110"/>
-    <mergeCell ref="C111:D111"/>
-    <mergeCell ref="C112:D112"/>
-    <mergeCell ref="C113:D113"/>
-    <mergeCell ref="C114:D114"/>
-    <mergeCell ref="C115:D115"/>
-    <mergeCell ref="C104:D104"/>
-    <mergeCell ref="C105:D105"/>
-    <mergeCell ref="C106:D106"/>
-    <mergeCell ref="C107:D107"/>
-    <mergeCell ref="C108:D108"/>
-    <mergeCell ref="C109:D109"/>
-    <mergeCell ref="C98:D98"/>
-    <mergeCell ref="C99:D99"/>
-    <mergeCell ref="C100:D100"/>
-    <mergeCell ref="C101:D101"/>
-    <mergeCell ref="C102:D102"/>
-    <mergeCell ref="C103:D103"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="C96:D96"/>
-    <mergeCell ref="C97:D97"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="C89:D89"/>
-    <mergeCell ref="C90:D90"/>
-    <mergeCell ref="C91:D91"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:E2"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/アカウント登録　テストケース.xlsx
+++ b/アカウント登録　テストケース.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3250" uniqueCount="472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3586" uniqueCount="472">
   <si>
     <t>単体テストケース</t>
     <rPh sb="0" eb="2">
@@ -7420,7 +7420,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -7509,13 +7509,19 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -7524,9 +7530,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -7811,8 +7814,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J473"/>
   <sheetViews>
-    <sheetView topLeftCell="A346" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C322" sqref="C322:D355"/>
+    <sheetView topLeftCell="E324" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J308" sqref="J308:J355"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7830,17 +7833,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32" t="s">
+      <c r="B1" s="34"/>
+      <c r="C1" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="D1" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="32"/>
+      <c r="E1" s="34"/>
       <c r="F1" s="4" t="s">
         <v>3</v>
       </c>
@@ -7849,11 +7852,11 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A2" s="32"/>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
+      <c r="A2" s="34"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
       <c r="F2" s="4" t="s">
         <v>4</v>
       </c>
@@ -7868,10 +7871,10 @@
       <c r="B4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="33" t="s">
+      <c r="C4" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="33"/>
+      <c r="D4" s="35"/>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
@@ -7898,10 +7901,10 @@
       <c r="B5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="34" t="s">
+      <c r="C5" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="34"/>
+      <c r="D5" s="36"/>
       <c r="E5" s="6" t="s">
         <v>120</v>
       </c>
@@ -7925,10 +7928,10 @@
       <c r="B6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="29" t="s">
+      <c r="C6" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="D6" s="29"/>
+      <c r="D6" s="31"/>
       <c r="E6" s="6" t="s">
         <v>121</v>
       </c>
@@ -7952,10 +7955,10 @@
       <c r="B7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="29" t="s">
+      <c r="C7" s="31" t="s">
         <v>97</v>
       </c>
-      <c r="D7" s="29"/>
+      <c r="D7" s="31"/>
       <c r="E7" s="6" t="s">
         <v>121</v>
       </c>
@@ -7979,10 +7982,10 @@
       <c r="B8" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="29" t="s">
+      <c r="C8" s="31" t="s">
         <v>98</v>
       </c>
-      <c r="D8" s="29"/>
+      <c r="D8" s="31"/>
       <c r="E8" s="6" t="s">
         <v>121</v>
       </c>
@@ -8006,10 +8009,10 @@
       <c r="B9" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="31" t="s">
+      <c r="C9" s="32" t="s">
         <v>99</v>
       </c>
-      <c r="D9" s="31"/>
+      <c r="D9" s="32"/>
       <c r="E9" s="6" t="s">
         <v>121</v>
       </c>
@@ -8033,10 +8036,10 @@
       <c r="B10" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="31" t="s">
+      <c r="C10" s="32" t="s">
         <v>100</v>
       </c>
-      <c r="D10" s="31"/>
+      <c r="D10" s="32"/>
       <c r="E10" s="6" t="s">
         <v>121</v>
       </c>
@@ -8060,10 +8063,10 @@
       <c r="B11" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="31" t="s">
+      <c r="C11" s="32" t="s">
         <v>101</v>
       </c>
-      <c r="D11" s="31"/>
+      <c r="D11" s="32"/>
       <c r="E11" s="6" t="s">
         <v>121</v>
       </c>
@@ -8087,10 +8090,10 @@
       <c r="B12" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="31" t="s">
+      <c r="C12" s="32" t="s">
         <v>95</v>
       </c>
-      <c r="D12" s="31"/>
+      <c r="D12" s="32"/>
       <c r="E12" s="6" t="s">
         <v>121</v>
       </c>
@@ -8114,10 +8117,10 @@
       <c r="B13" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="31" t="s">
+      <c r="C13" s="32" t="s">
         <v>102</v>
       </c>
-      <c r="D13" s="31"/>
+      <c r="D13" s="32"/>
       <c r="E13" s="6" t="s">
         <v>121</v>
       </c>
@@ -8141,10 +8144,10 @@
       <c r="B14" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="31" t="s">
+      <c r="C14" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="D14" s="31"/>
+      <c r="D14" s="32"/>
       <c r="E14" s="6" t="s">
         <v>121</v>
       </c>
@@ -8222,7 +8225,7 @@
       <c r="B17" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="29" t="s">
+      <c r="C17" s="31" t="s">
         <v>20</v>
       </c>
       <c r="D17" s="30"/>
@@ -8249,7 +8252,7 @@
       <c r="B18" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="29" t="s">
+      <c r="C18" s="31" t="s">
         <v>19</v>
       </c>
       <c r="D18" s="30"/>
@@ -8276,7 +8279,7 @@
       <c r="B19" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="29" t="s">
+      <c r="C19" s="31" t="s">
         <v>22</v>
       </c>
       <c r="D19" s="30"/>
@@ -8303,7 +8306,7 @@
       <c r="B20" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="29" t="s">
+      <c r="C20" s="31" t="s">
         <v>23</v>
       </c>
       <c r="D20" s="30"/>
@@ -8330,7 +8333,7 @@
       <c r="B21" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="29" t="s">
+      <c r="C21" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D21" s="30"/>
@@ -8357,7 +8360,7 @@
       <c r="B22" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="29" t="s">
+      <c r="C22" s="31" t="s">
         <v>136</v>
       </c>
       <c r="D22" s="30"/>
@@ -8384,10 +8387,10 @@
       <c r="B23" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C23" s="29" t="s">
+      <c r="C23" s="31" t="s">
         <v>135</v>
       </c>
-      <c r="D23" s="29"/>
+      <c r="D23" s="31"/>
       <c r="E23" s="6" t="s">
         <v>167</v>
       </c>
@@ -8411,7 +8414,7 @@
       <c r="B24" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C24" s="29" t="s">
+      <c r="C24" s="31" t="s">
         <v>24</v>
       </c>
       <c r="D24" s="30"/>
@@ -8438,7 +8441,7 @@
       <c r="B25" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C25" s="29" t="s">
+      <c r="C25" s="31" t="s">
         <v>25</v>
       </c>
       <c r="D25" s="30"/>
@@ -8465,7 +8468,7 @@
       <c r="B26" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C26" s="29" t="s">
+      <c r="C26" s="31" t="s">
         <v>26</v>
       </c>
       <c r="D26" s="30"/>
@@ -8492,7 +8495,7 @@
       <c r="B27" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C27" s="29" t="s">
+      <c r="C27" s="31" t="s">
         <v>134</v>
       </c>
       <c r="D27" s="30"/>
@@ -8519,10 +8522,10 @@
       <c r="B28" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C28" s="29" t="s">
+      <c r="C28" s="31" t="s">
         <v>133</v>
       </c>
-      <c r="D28" s="29"/>
+      <c r="D28" s="31"/>
       <c r="E28" s="6" t="s">
         <v>168</v>
       </c>
@@ -8546,7 +8549,7 @@
       <c r="B29" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C29" s="29" t="s">
+      <c r="C29" s="31" t="s">
         <v>27</v>
       </c>
       <c r="D29" s="30"/>
@@ -8573,7 +8576,7 @@
       <c r="B30" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C30" s="29" t="s">
+      <c r="C30" s="31" t="s">
         <v>28</v>
       </c>
       <c r="D30" s="30"/>
@@ -8600,7 +8603,7 @@
       <c r="B31" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C31" s="29" t="s">
+      <c r="C31" s="31" t="s">
         <v>29</v>
       </c>
       <c r="D31" s="30"/>
@@ -8627,7 +8630,7 @@
       <c r="B32" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C32" s="29" t="s">
+      <c r="C32" s="31" t="s">
         <v>131</v>
       </c>
       <c r="D32" s="30"/>
@@ -8654,10 +8657,10 @@
       <c r="B33" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C33" s="29" t="s">
+      <c r="C33" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="D33" s="29"/>
+      <c r="D33" s="31"/>
       <c r="E33" s="6" t="s">
         <v>167</v>
       </c>
@@ -8681,7 +8684,7 @@
       <c r="B34" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C34" s="29" t="s">
+      <c r="C34" s="31" t="s">
         <v>30</v>
       </c>
       <c r="D34" s="30"/>
@@ -8708,7 +8711,7 @@
       <c r="B35" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C35" s="29" t="s">
+      <c r="C35" s="31" t="s">
         <v>31</v>
       </c>
       <c r="D35" s="30"/>
@@ -8735,7 +8738,7 @@
       <c r="B36" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C36" s="29" t="s">
+      <c r="C36" s="31" t="s">
         <v>32</v>
       </c>
       <c r="D36" s="30"/>
@@ -8762,7 +8765,7 @@
       <c r="B37" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C37" s="29" t="s">
+      <c r="C37" s="31" t="s">
         <v>129</v>
       </c>
       <c r="D37" s="30"/>
@@ -8789,10 +8792,10 @@
       <c r="B38" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C38" s="29" t="s">
+      <c r="C38" s="31" t="s">
         <v>130</v>
       </c>
-      <c r="D38" s="29"/>
+      <c r="D38" s="31"/>
       <c r="E38" s="6" t="s">
         <v>169</v>
       </c>
@@ -8816,7 +8819,7 @@
       <c r="B39" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C39" s="29" t="s">
+      <c r="C39" s="31" t="s">
         <v>33</v>
       </c>
       <c r="D39" s="30"/>
@@ -8843,7 +8846,7 @@
       <c r="B40" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C40" s="29" t="s">
+      <c r="C40" s="31" t="s">
         <v>34</v>
       </c>
       <c r="D40" s="30"/>
@@ -8870,7 +8873,7 @@
       <c r="B41" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C41" s="29" t="s">
+      <c r="C41" s="31" t="s">
         <v>35</v>
       </c>
       <c r="D41" s="30"/>
@@ -8897,7 +8900,7 @@
       <c r="B42" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C42" s="29" t="s">
+      <c r="C42" s="31" t="s">
         <v>127</v>
       </c>
       <c r="D42" s="30"/>
@@ -8924,10 +8927,10 @@
       <c r="B43" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C43" s="29" t="s">
+      <c r="C43" s="31" t="s">
         <v>246</v>
       </c>
-      <c r="D43" s="29"/>
+      <c r="D43" s="31"/>
       <c r="E43" s="6" t="s">
         <v>124</v>
       </c>
@@ -8951,7 +8954,7 @@
       <c r="B44" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C44" s="29" t="s">
+      <c r="C44" s="31" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="30"/>
@@ -8978,7 +8981,7 @@
       <c r="B45" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C45" s="29" t="s">
+      <c r="C45" s="31" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="30"/>
@@ -9005,7 +9008,7 @@
       <c r="B46" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C46" s="29" t="s">
+      <c r="C46" s="31" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="30"/>
@@ -9032,7 +9035,7 @@
       <c r="B47" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C47" s="29" t="s">
+      <c r="C47" s="31" t="s">
         <v>125</v>
       </c>
       <c r="D47" s="30"/>
@@ -9059,10 +9062,10 @@
       <c r="B48" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C48" s="29" t="s">
+      <c r="C48" s="31" t="s">
         <v>126</v>
       </c>
-      <c r="D48" s="29"/>
+      <c r="D48" s="31"/>
       <c r="E48" s="15" t="s">
         <v>167</v>
       </c>
@@ -9086,7 +9089,7 @@
       <c r="B49" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C49" s="29" t="s">
+      <c r="C49" s="31" t="s">
         <v>39</v>
       </c>
       <c r="D49" s="30"/>
@@ -9113,7 +9116,7 @@
       <c r="B50" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C50" s="29" t="s">
+      <c r="C50" s="31" t="s">
         <v>40</v>
       </c>
       <c r="D50" s="30"/>
@@ -9140,7 +9143,7 @@
       <c r="B51" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C51" s="29" t="s">
+      <c r="C51" s="31" t="s">
         <v>41</v>
       </c>
       <c r="D51" s="30"/>
@@ -9167,10 +9170,10 @@
       <c r="B52" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C52" s="29" t="s">
+      <c r="C52" s="31" t="s">
         <v>140</v>
       </c>
-      <c r="D52" s="29"/>
+      <c r="D52" s="31"/>
       <c r="E52" s="6" t="s">
         <v>139</v>
       </c>
@@ -9194,7 +9197,7 @@
       <c r="B53" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C53" s="29" t="s">
+      <c r="C53" s="31" t="s">
         <v>138</v>
       </c>
       <c r="D53" s="30"/>
@@ -9221,10 +9224,10 @@
       <c r="B54" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C54" s="29" t="s">
+      <c r="C54" s="31" t="s">
         <v>137</v>
       </c>
-      <c r="D54" s="29"/>
+      <c r="D54" s="31"/>
       <c r="E54" s="6" t="s">
         <v>167</v>
       </c>
@@ -9248,7 +9251,7 @@
       <c r="B55" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C55" s="29" t="s">
+      <c r="C55" s="31" t="s">
         <v>42</v>
       </c>
       <c r="D55" s="30"/>
@@ -9275,7 +9278,7 @@
       <c r="B56" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C56" s="29" t="s">
+      <c r="C56" s="31" t="s">
         <v>43</v>
       </c>
       <c r="D56" s="30"/>
@@ -9302,7 +9305,7 @@
       <c r="B57" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C57" s="29" t="s">
+      <c r="C57" s="31" t="s">
         <v>44</v>
       </c>
       <c r="D57" s="30"/>
@@ -9329,7 +9332,7 @@
       <c r="B58" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C58" s="29" t="s">
+      <c r="C58" s="31" t="s">
         <v>148</v>
       </c>
       <c r="D58" s="30"/>
@@ -9356,10 +9359,10 @@
       <c r="B59" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C59" s="29" t="s">
+      <c r="C59" s="31" t="s">
         <v>141</v>
       </c>
-      <c r="D59" s="29"/>
+      <c r="D59" s="31"/>
       <c r="E59" s="6" t="s">
         <v>122</v>
       </c>
@@ -9383,7 +9386,7 @@
       <c r="B60" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C60" s="29" t="s">
+      <c r="C60" s="31" t="s">
         <v>45</v>
       </c>
       <c r="D60" s="30"/>
@@ -9410,7 +9413,7 @@
       <c r="B61" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C61" s="29" t="s">
+      <c r="C61" s="31" t="s">
         <v>46</v>
       </c>
       <c r="D61" s="30"/>
@@ -9437,7 +9440,7 @@
       <c r="B62" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C62" s="29" t="s">
+      <c r="C62" s="31" t="s">
         <v>47</v>
       </c>
       <c r="D62" s="30"/>
@@ -9464,7 +9467,7 @@
       <c r="B63" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C63" s="29" t="s">
+      <c r="C63" s="31" t="s">
         <v>149</v>
       </c>
       <c r="D63" s="30"/>
@@ -9491,10 +9494,10 @@
       <c r="B64" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C64" s="29" t="s">
+      <c r="C64" s="31" t="s">
         <v>142</v>
       </c>
-      <c r="D64" s="29"/>
+      <c r="D64" s="31"/>
       <c r="E64" s="6" t="s">
         <v>122</v>
       </c>
@@ -9518,7 +9521,7 @@
       <c r="B65" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C65" s="29" t="s">
+      <c r="C65" s="31" t="s">
         <v>48</v>
       </c>
       <c r="D65" s="30"/>
@@ -9761,7 +9764,7 @@
       <c r="B74" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C74" s="29" t="s">
+      <c r="C74" s="31" t="s">
         <v>57</v>
       </c>
       <c r="D74" s="30"/>
@@ -9815,7 +9818,7 @@
       <c r="B76" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C76" s="29" t="s">
+      <c r="C76" s="31" t="s">
         <v>59</v>
       </c>
       <c r="D76" s="30"/>
@@ -9842,7 +9845,7 @@
       <c r="B77" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C77" s="29" t="s">
+      <c r="C77" s="31" t="s">
         <v>60</v>
       </c>
       <c r="D77" s="30"/>
@@ -9869,7 +9872,7 @@
       <c r="B78" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C78" s="29" t="s">
+      <c r="C78" s="31" t="s">
         <v>61</v>
       </c>
       <c r="D78" s="30"/>
@@ -9896,7 +9899,7 @@
       <c r="B79" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C79" s="29" t="s">
+      <c r="C79" s="31" t="s">
         <v>62</v>
       </c>
       <c r="D79" s="30"/>
@@ -9923,7 +9926,7 @@
       <c r="B80" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C80" s="29" t="s">
+      <c r="C80" s="31" t="s">
         <v>63</v>
       </c>
       <c r="D80" s="30"/>
@@ -9950,7 +9953,7 @@
       <c r="B81" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C81" s="29" t="s">
+      <c r="C81" s="31" t="s">
         <v>64</v>
       </c>
       <c r="D81" s="30"/>
@@ -9977,7 +9980,7 @@
       <c r="B82" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C82" s="29" t="s">
+      <c r="C82" s="31" t="s">
         <v>65</v>
       </c>
       <c r="D82" s="30"/>
@@ -10004,7 +10007,7 @@
       <c r="B83" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C83" s="29" t="s">
+      <c r="C83" s="31" t="s">
         <v>66</v>
       </c>
       <c r="D83" s="30"/>
@@ -10031,7 +10034,7 @@
       <c r="B84" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C84" s="29" t="s">
+      <c r="C84" s="31" t="s">
         <v>68</v>
       </c>
       <c r="D84" s="30"/>
@@ -10058,7 +10061,7 @@
       <c r="B85" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C85" s="29" t="s">
+      <c r="C85" s="31" t="s">
         <v>67</v>
       </c>
       <c r="D85" s="30"/>
@@ -10085,7 +10088,7 @@
       <c r="B86" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C86" s="29" t="s">
+      <c r="C86" s="31" t="s">
         <v>69</v>
       </c>
       <c r="D86" s="30"/>
@@ -10112,7 +10115,7 @@
       <c r="B87" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C87" s="29" t="s">
+      <c r="C87" s="31" t="s">
         <v>70</v>
       </c>
       <c r="D87" s="30"/>
@@ -10139,7 +10142,7 @@
       <c r="B88" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C88" s="29" t="s">
+      <c r="C88" s="31" t="s">
         <v>71</v>
       </c>
       <c r="D88" s="30"/>
@@ -10166,7 +10169,7 @@
       <c r="B89" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C89" s="29" t="s">
+      <c r="C89" s="31" t="s">
         <v>72</v>
       </c>
       <c r="D89" s="30"/>
@@ -10193,7 +10196,7 @@
       <c r="B90" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C90" s="29" t="s">
+      <c r="C90" s="31" t="s">
         <v>73</v>
       </c>
       <c r="D90" s="30"/>
@@ -10220,7 +10223,7 @@
       <c r="B91" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C91" s="29" t="s">
+      <c r="C91" s="31" t="s">
         <v>74</v>
       </c>
       <c r="D91" s="30"/>
@@ -10247,7 +10250,7 @@
       <c r="B92" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C92" s="29" t="s">
+      <c r="C92" s="31" t="s">
         <v>75</v>
       </c>
       <c r="D92" s="30"/>
@@ -10274,7 +10277,7 @@
       <c r="B93" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C93" s="29" t="s">
+      <c r="C93" s="31" t="s">
         <v>76</v>
       </c>
       <c r="D93" s="30"/>
@@ -10301,7 +10304,7 @@
       <c r="B94" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C94" s="29" t="s">
+      <c r="C94" s="31" t="s">
         <v>77</v>
       </c>
       <c r="D94" s="30"/>
@@ -10328,7 +10331,7 @@
       <c r="B95" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C95" s="29" t="s">
+      <c r="C95" s="31" t="s">
         <v>78</v>
       </c>
       <c r="D95" s="30"/>
@@ -10355,7 +10358,7 @@
       <c r="B96" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C96" s="29" t="s">
+      <c r="C96" s="31" t="s">
         <v>79</v>
       </c>
       <c r="D96" s="30"/>
@@ -10382,7 +10385,7 @@
       <c r="B97" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C97" s="29" t="s">
+      <c r="C97" s="31" t="s">
         <v>80</v>
       </c>
       <c r="D97" s="30"/>
@@ -10409,7 +10412,7 @@
       <c r="B98" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C98" s="29" t="s">
+      <c r="C98" s="31" t="s">
         <v>81</v>
       </c>
       <c r="D98" s="30"/>
@@ -10436,7 +10439,7 @@
       <c r="B99" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C99" s="29" t="s">
+      <c r="C99" s="31" t="s">
         <v>82</v>
       </c>
       <c r="D99" s="30"/>
@@ -10463,7 +10466,7 @@
       <c r="B100" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C100" s="29" t="s">
+      <c r="C100" s="31" t="s">
         <v>83</v>
       </c>
       <c r="D100" s="30"/>
@@ -10490,7 +10493,7 @@
       <c r="B101" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C101" s="29" t="s">
+      <c r="C101" s="31" t="s">
         <v>84</v>
       </c>
       <c r="D101" s="30"/>
@@ -10517,7 +10520,7 @@
       <c r="B102" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C102" s="29" t="s">
+      <c r="C102" s="31" t="s">
         <v>85</v>
       </c>
       <c r="D102" s="30"/>
@@ -10544,7 +10547,7 @@
       <c r="B103" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C103" s="29" t="s">
+      <c r="C103" s="31" t="s">
         <v>86</v>
       </c>
       <c r="D103" s="30"/>
@@ -10571,7 +10574,7 @@
       <c r="B104" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C104" s="29" t="s">
+      <c r="C104" s="31" t="s">
         <v>87</v>
       </c>
       <c r="D104" s="30"/>
@@ -10598,7 +10601,7 @@
       <c r="B105" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C105" s="29" t="s">
+      <c r="C105" s="31" t="s">
         <v>88</v>
       </c>
       <c r="D105" s="30"/>
@@ -10625,7 +10628,7 @@
       <c r="B106" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C106" s="29" t="s">
+      <c r="C106" s="31" t="s">
         <v>89</v>
       </c>
       <c r="D106" s="30"/>
@@ -10652,7 +10655,7 @@
       <c r="B107" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C107" s="29" t="s">
+      <c r="C107" s="31" t="s">
         <v>90</v>
       </c>
       <c r="D107" s="30"/>
@@ -10679,7 +10682,7 @@
       <c r="B108" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C108" s="29" t="s">
+      <c r="C108" s="31" t="s">
         <v>91</v>
       </c>
       <c r="D108" s="30"/>
@@ -10706,7 +10709,7 @@
       <c r="B109" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C109" s="29" t="s">
+      <c r="C109" s="31" t="s">
         <v>92</v>
       </c>
       <c r="D109" s="30"/>
@@ -10733,7 +10736,7 @@
       <c r="B110" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C110" s="29" t="s">
+      <c r="C110" s="31" t="s">
         <v>93</v>
       </c>
       <c r="D110" s="30"/>
@@ -10760,7 +10763,7 @@
       <c r="B111" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C111" s="29" t="s">
+      <c r="C111" s="31" t="s">
         <v>94</v>
       </c>
       <c r="D111" s="30"/>
@@ -10814,7 +10817,7 @@
       <c r="B113" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C113" s="29" t="s">
+      <c r="C113" s="31" t="s">
         <v>105</v>
       </c>
       <c r="D113" s="30"/>
@@ -10841,7 +10844,7 @@
       <c r="B114" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C114" s="29" t="s">
+      <c r="C114" s="31" t="s">
         <v>106</v>
       </c>
       <c r="D114" s="30"/>
@@ -10868,7 +10871,7 @@
       <c r="B115" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C115" s="29" t="s">
+      <c r="C115" s="31" t="s">
         <v>107</v>
       </c>
       <c r="D115" s="30"/>
@@ -10895,7 +10898,7 @@
       <c r="B116" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C116" s="29" t="s">
+      <c r="C116" s="31" t="s">
         <v>108</v>
       </c>
       <c r="D116" s="30"/>
@@ -10922,7 +10925,7 @@
       <c r="B117" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C117" s="29" t="s">
+      <c r="C117" s="31" t="s">
         <v>109</v>
       </c>
       <c r="D117" s="30"/>
@@ -10949,7 +10952,7 @@
       <c r="B118" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C118" s="29" t="s">
+      <c r="C118" s="31" t="s">
         <v>110</v>
       </c>
       <c r="D118" s="30"/>
@@ -10976,7 +10979,7 @@
       <c r="B119" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C119" s="29" t="s">
+      <c r="C119" s="31" t="s">
         <v>111</v>
       </c>
       <c r="D119" s="30"/>
@@ -11003,7 +11006,7 @@
       <c r="B120" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C120" s="29" t="s">
+      <c r="C120" s="31" t="s">
         <v>170</v>
       </c>
       <c r="D120" s="30"/>
@@ -11030,7 +11033,7 @@
       <c r="B121" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C121" s="29" t="s">
+      <c r="C121" s="31" t="s">
         <v>171</v>
       </c>
       <c r="D121" s="30"/>
@@ -11057,7 +11060,7 @@
       <c r="B122" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C122" s="29" t="s">
+      <c r="C122" s="31" t="s">
         <v>112</v>
       </c>
       <c r="D122" s="30"/>
@@ -11084,7 +11087,7 @@
       <c r="B123" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C123" s="29" t="s">
+      <c r="C123" s="31" t="s">
         <v>113</v>
       </c>
       <c r="D123" s="30"/>
@@ -11111,7 +11114,7 @@
       <c r="B124" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C124" s="29" t="s">
+      <c r="C124" s="31" t="s">
         <v>114</v>
       </c>
       <c r="D124" s="30"/>
@@ -11138,7 +11141,7 @@
       <c r="B125" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C125" s="29" t="s">
+      <c r="C125" s="31" t="s">
         <v>115</v>
       </c>
       <c r="D125" s="30"/>
@@ -11165,7 +11168,7 @@
       <c r="B126" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C126" s="29" t="s">
+      <c r="C126" s="31" t="s">
         <v>116</v>
       </c>
       <c r="D126" s="30"/>
@@ -11192,7 +11195,7 @@
       <c r="B127" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C127" s="29" t="s">
+      <c r="C127" s="31" t="s">
         <v>117</v>
       </c>
       <c r="D127" s="30"/>
@@ -11219,7 +11222,7 @@
       <c r="B128" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C128" s="29" t="s">
+      <c r="C128" s="31" t="s">
         <v>118</v>
       </c>
       <c r="D128" s="30"/>
@@ -11246,7 +11249,7 @@
       <c r="B129" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C129" s="29" t="s">
+      <c r="C129" s="31" t="s">
         <v>172</v>
       </c>
       <c r="D129" s="30"/>
@@ -11276,7 +11279,7 @@
       <c r="B130" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C130" s="29" t="s">
+      <c r="C130" s="31" t="s">
         <v>173</v>
       </c>
       <c r="D130" s="30"/>
@@ -11306,7 +11309,7 @@
       <c r="B131" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C131" s="29" t="s">
+      <c r="C131" s="31" t="s">
         <v>143</v>
       </c>
       <c r="D131" s="30"/>
@@ -11333,7 +11336,7 @@
       <c r="B132" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C132" s="29" t="s">
+      <c r="C132" s="31" t="s">
         <v>144</v>
       </c>
       <c r="D132" s="30"/>
@@ -11360,7 +11363,7 @@
       <c r="B133" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C133" s="29" t="s">
+      <c r="C133" s="31" t="s">
         <v>145</v>
       </c>
       <c r="D133" s="30"/>
@@ -11387,7 +11390,7 @@
       <c r="B134" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C134" s="29" t="s">
+      <c r="C134" s="31" t="s">
         <v>146</v>
       </c>
       <c r="D134" s="30"/>
@@ -11414,7 +11417,7 @@
       <c r="B135" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C135" s="29" t="s">
+      <c r="C135" s="31" t="s">
         <v>151</v>
       </c>
       <c r="D135" s="30"/>
@@ -11441,7 +11444,7 @@
       <c r="B136" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C136" s="29" t="s">
+      <c r="C136" s="31" t="s">
         <v>150</v>
       </c>
       <c r="D136" s="30"/>
@@ -11468,7 +11471,7 @@
       <c r="B137" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C137" s="29" t="s">
+      <c r="C137" s="31" t="s">
         <v>174</v>
       </c>
       <c r="D137" s="30"/>
@@ -11495,7 +11498,7 @@
       <c r="B138" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C138" s="29" t="s">
+      <c r="C138" s="31" t="s">
         <v>175</v>
       </c>
       <c r="D138" s="30"/>
@@ -11900,10 +11903,10 @@
       <c r="B153" s="22" t="s">
         <v>300</v>
       </c>
-      <c r="C153" s="35" t="s">
+      <c r="C153" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="D153" s="35"/>
+      <c r="D153" s="33"/>
       <c r="E153" s="25" t="s">
         <v>120</v>
       </c>
@@ -11927,10 +11930,10 @@
       <c r="B154" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="C154" s="29" t="s">
+      <c r="C154" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="D154" s="29"/>
+      <c r="D154" s="31"/>
       <c r="E154" s="25" t="s">
         <v>121</v>
       </c>
@@ -11954,10 +11957,10 @@
       <c r="B155" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="C155" s="29" t="s">
+      <c r="C155" s="31" t="s">
         <v>97</v>
       </c>
-      <c r="D155" s="29"/>
+      <c r="D155" s="31"/>
       <c r="E155" s="25" t="s">
         <v>121</v>
       </c>
@@ -11981,10 +11984,10 @@
       <c r="B156" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="C156" s="29" t="s">
+      <c r="C156" s="31" t="s">
         <v>98</v>
       </c>
-      <c r="D156" s="29"/>
+      <c r="D156" s="31"/>
       <c r="E156" s="25" t="s">
         <v>121</v>
       </c>
@@ -12008,10 +12011,10 @@
       <c r="B157" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="C157" s="31" t="s">
+      <c r="C157" s="32" t="s">
         <v>99</v>
       </c>
-      <c r="D157" s="31"/>
+      <c r="D157" s="32"/>
       <c r="E157" s="25" t="s">
         <v>121</v>
       </c>
@@ -12035,10 +12038,10 @@
       <c r="B158" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="C158" s="31" t="s">
+      <c r="C158" s="32" t="s">
         <v>100</v>
       </c>
-      <c r="D158" s="31"/>
+      <c r="D158" s="32"/>
       <c r="E158" s="25" t="s">
         <v>121</v>
       </c>
@@ -12062,10 +12065,10 @@
       <c r="B159" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="C159" s="31" t="s">
+      <c r="C159" s="32" t="s">
         <v>101</v>
       </c>
-      <c r="D159" s="31"/>
+      <c r="D159" s="32"/>
       <c r="E159" s="25" t="s">
         <v>121</v>
       </c>
@@ -12089,10 +12092,10 @@
       <c r="B160" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="C160" s="31" t="s">
+      <c r="C160" s="32" t="s">
         <v>95</v>
       </c>
-      <c r="D160" s="31"/>
+      <c r="D160" s="32"/>
       <c r="E160" s="25" t="s">
         <v>121</v>
       </c>
@@ -12116,10 +12119,10 @@
       <c r="B161" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="C161" s="31" t="s">
+      <c r="C161" s="32" t="s">
         <v>102</v>
       </c>
-      <c r="D161" s="31"/>
+      <c r="D161" s="32"/>
       <c r="E161" s="25" t="s">
         <v>121</v>
       </c>
@@ -12143,10 +12146,10 @@
       <c r="B162" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="C162" s="31" t="s">
+      <c r="C162" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="D162" s="31"/>
+      <c r="D162" s="32"/>
       <c r="E162" s="25" t="s">
         <v>121</v>
       </c>
@@ -12224,7 +12227,7 @@
       <c r="B165" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="C165" s="29" t="s">
+      <c r="C165" s="31" t="s">
         <v>20</v>
       </c>
       <c r="D165" s="30"/>
@@ -12251,7 +12254,7 @@
       <c r="B166" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="C166" s="29" t="s">
+      <c r="C166" s="31" t="s">
         <v>19</v>
       </c>
       <c r="D166" s="30"/>
@@ -12278,7 +12281,7 @@
       <c r="B167" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="C167" s="29" t="s">
+      <c r="C167" s="31" t="s">
         <v>22</v>
       </c>
       <c r="D167" s="30"/>
@@ -12305,7 +12308,7 @@
       <c r="B168" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="C168" s="29" t="s">
+      <c r="C168" s="31" t="s">
         <v>23</v>
       </c>
       <c r="D168" s="30"/>
@@ -12332,7 +12335,7 @@
       <c r="B169" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="C169" s="29" t="s">
+      <c r="C169" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D169" s="30"/>
@@ -12359,7 +12362,7 @@
       <c r="B170" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="C170" s="29" t="s">
+      <c r="C170" s="31" t="s">
         <v>136</v>
       </c>
       <c r="D170" s="30"/>
@@ -12386,10 +12389,10 @@
       <c r="B171" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="C171" s="29" t="s">
+      <c r="C171" s="31" t="s">
         <v>135</v>
       </c>
-      <c r="D171" s="29"/>
+      <c r="D171" s="31"/>
       <c r="E171" s="25" t="s">
         <v>167</v>
       </c>
@@ -12413,7 +12416,7 @@
       <c r="B172" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="C172" s="29" t="s">
+      <c r="C172" s="31" t="s">
         <v>24</v>
       </c>
       <c r="D172" s="30"/>
@@ -12440,7 +12443,7 @@
       <c r="B173" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="C173" s="29" t="s">
+      <c r="C173" s="31" t="s">
         <v>25</v>
       </c>
       <c r="D173" s="30"/>
@@ -12467,7 +12470,7 @@
       <c r="B174" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="C174" s="29" t="s">
+      <c r="C174" s="31" t="s">
         <v>26</v>
       </c>
       <c r="D174" s="30"/>
@@ -12494,7 +12497,7 @@
       <c r="B175" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="C175" s="29" t="s">
+      <c r="C175" s="31" t="s">
         <v>134</v>
       </c>
       <c r="D175" s="30"/>
@@ -12521,10 +12524,10 @@
       <c r="B176" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="C176" s="29" t="s">
+      <c r="C176" s="31" t="s">
         <v>133</v>
       </c>
-      <c r="D176" s="29"/>
+      <c r="D176" s="31"/>
       <c r="E176" s="25" t="s">
         <v>167</v>
       </c>
@@ -12548,7 +12551,7 @@
       <c r="B177" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="C177" s="29" t="s">
+      <c r="C177" s="31" t="s">
         <v>27</v>
       </c>
       <c r="D177" s="30"/>
@@ -12575,7 +12578,7 @@
       <c r="B178" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="C178" s="29" t="s">
+      <c r="C178" s="31" t="s">
         <v>28</v>
       </c>
       <c r="D178" s="30"/>
@@ -12602,7 +12605,7 @@
       <c r="B179" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="C179" s="29" t="s">
+      <c r="C179" s="31" t="s">
         <v>29</v>
       </c>
       <c r="D179" s="30"/>
@@ -12629,7 +12632,7 @@
       <c r="B180" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="C180" s="29" t="s">
+      <c r="C180" s="31" t="s">
         <v>131</v>
       </c>
       <c r="D180" s="30"/>
@@ -12656,10 +12659,10 @@
       <c r="B181" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="C181" s="29" t="s">
+      <c r="C181" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="D181" s="29"/>
+      <c r="D181" s="31"/>
       <c r="E181" s="25" t="s">
         <v>167</v>
       </c>
@@ -12683,7 +12686,7 @@
       <c r="B182" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="C182" s="29" t="s">
+      <c r="C182" s="31" t="s">
         <v>30</v>
       </c>
       <c r="D182" s="30"/>
@@ -12710,7 +12713,7 @@
       <c r="B183" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="C183" s="29" t="s">
+      <c r="C183" s="31" t="s">
         <v>31</v>
       </c>
       <c r="D183" s="30"/>
@@ -12737,7 +12740,7 @@
       <c r="B184" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="C184" s="29" t="s">
+      <c r="C184" s="31" t="s">
         <v>32</v>
       </c>
       <c r="D184" s="30"/>
@@ -12764,7 +12767,7 @@
       <c r="B185" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="C185" s="29" t="s">
+      <c r="C185" s="31" t="s">
         <v>129</v>
       </c>
       <c r="D185" s="30"/>
@@ -12791,10 +12794,10 @@
       <c r="B186" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="C186" s="29" t="s">
+      <c r="C186" s="31" t="s">
         <v>130</v>
       </c>
-      <c r="D186" s="29"/>
+      <c r="D186" s="31"/>
       <c r="E186" s="25" t="s">
         <v>167</v>
       </c>
@@ -12818,7 +12821,7 @@
       <c r="B187" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="C187" s="29" t="s">
+      <c r="C187" s="31" t="s">
         <v>33</v>
       </c>
       <c r="D187" s="30"/>
@@ -12845,7 +12848,7 @@
       <c r="B188" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="C188" s="29" t="s">
+      <c r="C188" s="31" t="s">
         <v>34</v>
       </c>
       <c r="D188" s="30"/>
@@ -12872,7 +12875,7 @@
       <c r="B189" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="C189" s="29" t="s">
+      <c r="C189" s="31" t="s">
         <v>35</v>
       </c>
       <c r="D189" s="30"/>
@@ -12899,7 +12902,7 @@
       <c r="B190" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="C190" s="29" t="s">
+      <c r="C190" s="31" t="s">
         <v>127</v>
       </c>
       <c r="D190" s="30"/>
@@ -12926,10 +12929,10 @@
       <c r="B191" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="C191" s="29" t="s">
+      <c r="C191" s="31" t="s">
         <v>246</v>
       </c>
-      <c r="D191" s="29"/>
+      <c r="D191" s="31"/>
       <c r="E191" s="25" t="s">
         <v>122</v>
       </c>
@@ -12953,7 +12956,7 @@
       <c r="B192" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="C192" s="29" t="s">
+      <c r="C192" s="31" t="s">
         <v>36</v>
       </c>
       <c r="D192" s="30"/>
@@ -12980,7 +12983,7 @@
       <c r="B193" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="C193" s="29" t="s">
+      <c r="C193" s="31" t="s">
         <v>37</v>
       </c>
       <c r="D193" s="30"/>
@@ -13007,7 +13010,7 @@
       <c r="B194" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="C194" s="29" t="s">
+      <c r="C194" s="31" t="s">
         <v>38</v>
       </c>
       <c r="D194" s="30"/>
@@ -13034,7 +13037,7 @@
       <c r="B195" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="C195" s="29" t="s">
+      <c r="C195" s="31" t="s">
         <v>125</v>
       </c>
       <c r="D195" s="30"/>
@@ -13061,10 +13064,10 @@
       <c r="B196" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="C196" s="29" t="s">
+      <c r="C196" s="31" t="s">
         <v>126</v>
       </c>
-      <c r="D196" s="29"/>
+      <c r="D196" s="31"/>
       <c r="E196" s="25" t="s">
         <v>167</v>
       </c>
@@ -13088,7 +13091,7 @@
       <c r="B197" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="C197" s="29" t="s">
+      <c r="C197" s="31" t="s">
         <v>39</v>
       </c>
       <c r="D197" s="30"/>
@@ -13115,7 +13118,7 @@
       <c r="B198" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="C198" s="29" t="s">
+      <c r="C198" s="31" t="s">
         <v>40</v>
       </c>
       <c r="D198" s="30"/>
@@ -13142,7 +13145,7 @@
       <c r="B199" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="C199" s="29" t="s">
+      <c r="C199" s="31" t="s">
         <v>41</v>
       </c>
       <c r="D199" s="30"/>
@@ -13169,10 +13172,10 @@
       <c r="B200" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="C200" s="29" t="s">
+      <c r="C200" s="31" t="s">
         <v>140</v>
       </c>
-      <c r="D200" s="29"/>
+      <c r="D200" s="31"/>
       <c r="E200" s="25" t="s">
         <v>122</v>
       </c>
@@ -13196,7 +13199,7 @@
       <c r="B201" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="C201" s="29" t="s">
+      <c r="C201" s="31" t="s">
         <v>138</v>
       </c>
       <c r="D201" s="30"/>
@@ -13223,10 +13226,10 @@
       <c r="B202" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="C202" s="29" t="s">
+      <c r="C202" s="31" t="s">
         <v>137</v>
       </c>
-      <c r="D202" s="29"/>
+      <c r="D202" s="31"/>
       <c r="E202" s="25" t="s">
         <v>167</v>
       </c>
@@ -13250,7 +13253,7 @@
       <c r="B203" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="C203" s="29" t="s">
+      <c r="C203" s="31" t="s">
         <v>42</v>
       </c>
       <c r="D203" s="30"/>
@@ -13277,7 +13280,7 @@
       <c r="B204" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="C204" s="29" t="s">
+      <c r="C204" s="31" t="s">
         <v>43</v>
       </c>
       <c r="D204" s="30"/>
@@ -13304,7 +13307,7 @@
       <c r="B205" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="C205" s="29" t="s">
+      <c r="C205" s="31" t="s">
         <v>44</v>
       </c>
       <c r="D205" s="30"/>
@@ -13331,7 +13334,7 @@
       <c r="B206" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="C206" s="29" t="s">
+      <c r="C206" s="31" t="s">
         <v>148</v>
       </c>
       <c r="D206" s="30"/>
@@ -13358,10 +13361,10 @@
       <c r="B207" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="C207" s="29" t="s">
+      <c r="C207" s="31" t="s">
         <v>141</v>
       </c>
-      <c r="D207" s="29"/>
+      <c r="D207" s="31"/>
       <c r="E207" s="25" t="s">
         <v>122</v>
       </c>
@@ -13385,7 +13388,7 @@
       <c r="B208" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="C208" s="29" t="s">
+      <c r="C208" s="31" t="s">
         <v>45</v>
       </c>
       <c r="D208" s="30"/>
@@ -13412,7 +13415,7 @@
       <c r="B209" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="C209" s="29" t="s">
+      <c r="C209" s="31" t="s">
         <v>46</v>
       </c>
       <c r="D209" s="30"/>
@@ -13439,7 +13442,7 @@
       <c r="B210" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="C210" s="29" t="s">
+      <c r="C210" s="31" t="s">
         <v>47</v>
       </c>
       <c r="D210" s="30"/>
@@ -13466,7 +13469,7 @@
       <c r="B211" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="C211" s="29" t="s">
+      <c r="C211" s="31" t="s">
         <v>149</v>
       </c>
       <c r="D211" s="30"/>
@@ -13493,10 +13496,10 @@
       <c r="B212" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="C212" s="29" t="s">
+      <c r="C212" s="31" t="s">
         <v>142</v>
       </c>
-      <c r="D212" s="29"/>
+      <c r="D212" s="31"/>
       <c r="E212" s="25" t="s">
         <v>122</v>
       </c>
@@ -13520,7 +13523,7 @@
       <c r="B213" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="C213" s="29" t="s">
+      <c r="C213" s="31" t="s">
         <v>48</v>
       </c>
       <c r="D213" s="30"/>
@@ -13763,7 +13766,7 @@
       <c r="B222" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="C222" s="29" t="s">
+      <c r="C222" s="31" t="s">
         <v>57</v>
       </c>
       <c r="D222" s="30"/>
@@ -13817,7 +13820,7 @@
       <c r="B224" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="C224" s="29" t="s">
+      <c r="C224" s="31" t="s">
         <v>59</v>
       </c>
       <c r="D224" s="30"/>
@@ -13844,7 +13847,7 @@
       <c r="B225" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="C225" s="29" t="s">
+      <c r="C225" s="31" t="s">
         <v>60</v>
       </c>
       <c r="D225" s="30"/>
@@ -13871,7 +13874,7 @@
       <c r="B226" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="C226" s="29" t="s">
+      <c r="C226" s="31" t="s">
         <v>61</v>
       </c>
       <c r="D226" s="30"/>
@@ -13898,7 +13901,7 @@
       <c r="B227" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="C227" s="29" t="s">
+      <c r="C227" s="31" t="s">
         <v>62</v>
       </c>
       <c r="D227" s="30"/>
@@ -13925,7 +13928,7 @@
       <c r="B228" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="C228" s="29" t="s">
+      <c r="C228" s="31" t="s">
         <v>63</v>
       </c>
       <c r="D228" s="30"/>
@@ -13952,7 +13955,7 @@
       <c r="B229" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="C229" s="29" t="s">
+      <c r="C229" s="31" t="s">
         <v>64</v>
       </c>
       <c r="D229" s="30"/>
@@ -13979,7 +13982,7 @@
       <c r="B230" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="C230" s="29" t="s">
+      <c r="C230" s="31" t="s">
         <v>65</v>
       </c>
       <c r="D230" s="30"/>
@@ -14006,7 +14009,7 @@
       <c r="B231" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="C231" s="29" t="s">
+      <c r="C231" s="31" t="s">
         <v>66</v>
       </c>
       <c r="D231" s="30"/>
@@ -14033,7 +14036,7 @@
       <c r="B232" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="C232" s="29" t="s">
+      <c r="C232" s="31" t="s">
         <v>68</v>
       </c>
       <c r="D232" s="30"/>
@@ -14060,7 +14063,7 @@
       <c r="B233" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="C233" s="29" t="s">
+      <c r="C233" s="31" t="s">
         <v>67</v>
       </c>
       <c r="D233" s="30"/>
@@ -14087,7 +14090,7 @@
       <c r="B234" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="C234" s="29" t="s">
+      <c r="C234" s="31" t="s">
         <v>69</v>
       </c>
       <c r="D234" s="30"/>
@@ -14114,7 +14117,7 @@
       <c r="B235" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="C235" s="29" t="s">
+      <c r="C235" s="31" t="s">
         <v>70</v>
       </c>
       <c r="D235" s="30"/>
@@ -14141,7 +14144,7 @@
       <c r="B236" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="C236" s="29" t="s">
+      <c r="C236" s="31" t="s">
         <v>71</v>
       </c>
       <c r="D236" s="30"/>
@@ -14168,7 +14171,7 @@
       <c r="B237" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="C237" s="29" t="s">
+      <c r="C237" s="31" t="s">
         <v>72</v>
       </c>
       <c r="D237" s="30"/>
@@ -14195,7 +14198,7 @@
       <c r="B238" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="C238" s="29" t="s">
+      <c r="C238" s="31" t="s">
         <v>73</v>
       </c>
       <c r="D238" s="30"/>
@@ -14222,7 +14225,7 @@
       <c r="B239" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="C239" s="29" t="s">
+      <c r="C239" s="31" t="s">
         <v>74</v>
       </c>
       <c r="D239" s="30"/>
@@ -14249,7 +14252,7 @@
       <c r="B240" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="C240" s="29" t="s">
+      <c r="C240" s="31" t="s">
         <v>75</v>
       </c>
       <c r="D240" s="30"/>
@@ -14276,7 +14279,7 @@
       <c r="B241" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="C241" s="29" t="s">
+      <c r="C241" s="31" t="s">
         <v>76</v>
       </c>
       <c r="D241" s="30"/>
@@ -14303,7 +14306,7 @@
       <c r="B242" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="C242" s="29" t="s">
+      <c r="C242" s="31" t="s">
         <v>77</v>
       </c>
       <c r="D242" s="30"/>
@@ -14330,7 +14333,7 @@
       <c r="B243" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="C243" s="29" t="s">
+      <c r="C243" s="31" t="s">
         <v>78</v>
       </c>
       <c r="D243" s="30"/>
@@ -14357,7 +14360,7 @@
       <c r="B244" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="C244" s="29" t="s">
+      <c r="C244" s="31" t="s">
         <v>79</v>
       </c>
       <c r="D244" s="30"/>
@@ -14384,7 +14387,7 @@
       <c r="B245" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="C245" s="29" t="s">
+      <c r="C245" s="31" t="s">
         <v>80</v>
       </c>
       <c r="D245" s="30"/>
@@ -14411,7 +14414,7 @@
       <c r="B246" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="C246" s="29" t="s">
+      <c r="C246" s="31" t="s">
         <v>81</v>
       </c>
       <c r="D246" s="30"/>
@@ -14438,7 +14441,7 @@
       <c r="B247" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="C247" s="29" t="s">
+      <c r="C247" s="31" t="s">
         <v>82</v>
       </c>
       <c r="D247" s="30"/>
@@ -14465,7 +14468,7 @@
       <c r="B248" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="C248" s="29" t="s">
+      <c r="C248" s="31" t="s">
         <v>83</v>
       </c>
       <c r="D248" s="30"/>
@@ -14492,7 +14495,7 @@
       <c r="B249" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="C249" s="29" t="s">
+      <c r="C249" s="31" t="s">
         <v>84</v>
       </c>
       <c r="D249" s="30"/>
@@ -14519,7 +14522,7 @@
       <c r="B250" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="C250" s="29" t="s">
+      <c r="C250" s="31" t="s">
         <v>85</v>
       </c>
       <c r="D250" s="30"/>
@@ -14546,7 +14549,7 @@
       <c r="B251" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="C251" s="29" t="s">
+      <c r="C251" s="31" t="s">
         <v>86</v>
       </c>
       <c r="D251" s="30"/>
@@ -14573,7 +14576,7 @@
       <c r="B252" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="C252" s="29" t="s">
+      <c r="C252" s="31" t="s">
         <v>87</v>
       </c>
       <c r="D252" s="30"/>
@@ -14600,7 +14603,7 @@
       <c r="B253" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="C253" s="29" t="s">
+      <c r="C253" s="31" t="s">
         <v>88</v>
       </c>
       <c r="D253" s="30"/>
@@ -14627,7 +14630,7 @@
       <c r="B254" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="C254" s="29" t="s">
+      <c r="C254" s="31" t="s">
         <v>89</v>
       </c>
       <c r="D254" s="30"/>
@@ -14654,7 +14657,7 @@
       <c r="B255" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="C255" s="29" t="s">
+      <c r="C255" s="31" t="s">
         <v>90</v>
       </c>
       <c r="D255" s="30"/>
@@ -14681,7 +14684,7 @@
       <c r="B256" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="C256" s="29" t="s">
+      <c r="C256" s="31" t="s">
         <v>91</v>
       </c>
       <c r="D256" s="30"/>
@@ -14708,7 +14711,7 @@
       <c r="B257" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="C257" s="29" t="s">
+      <c r="C257" s="31" t="s">
         <v>92</v>
       </c>
       <c r="D257" s="30"/>
@@ -14735,7 +14738,7 @@
       <c r="B258" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="C258" s="29" t="s">
+      <c r="C258" s="31" t="s">
         <v>93</v>
       </c>
       <c r="D258" s="30"/>
@@ -14762,7 +14765,7 @@
       <c r="B259" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="C259" s="29" t="s">
+      <c r="C259" s="31" t="s">
         <v>94</v>
       </c>
       <c r="D259" s="30"/>
@@ -14816,7 +14819,7 @@
       <c r="B261" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="C261" s="29" t="s">
+      <c r="C261" s="31" t="s">
         <v>105</v>
       </c>
       <c r="D261" s="30"/>
@@ -14843,7 +14846,7 @@
       <c r="B262" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="C262" s="29" t="s">
+      <c r="C262" s="31" t="s">
         <v>106</v>
       </c>
       <c r="D262" s="30"/>
@@ -14870,7 +14873,7 @@
       <c r="B263" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="C263" s="29" t="s">
+      <c r="C263" s="31" t="s">
         <v>107</v>
       </c>
       <c r="D263" s="30"/>
@@ -14897,7 +14900,7 @@
       <c r="B264" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="C264" s="29" t="s">
+      <c r="C264" s="31" t="s">
         <v>108</v>
       </c>
       <c r="D264" s="30"/>
@@ -14924,7 +14927,7 @@
       <c r="B265" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="C265" s="29" t="s">
+      <c r="C265" s="31" t="s">
         <v>109</v>
       </c>
       <c r="D265" s="30"/>
@@ -14951,7 +14954,7 @@
       <c r="B266" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="C266" s="29" t="s">
+      <c r="C266" s="31" t="s">
         <v>110</v>
       </c>
       <c r="D266" s="30"/>
@@ -14978,7 +14981,7 @@
       <c r="B267" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="C267" s="29" t="s">
+      <c r="C267" s="31" t="s">
         <v>111</v>
       </c>
       <c r="D267" s="30"/>
@@ -15005,7 +15008,7 @@
       <c r="B268" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="C268" s="29" t="s">
+      <c r="C268" s="31" t="s">
         <v>170</v>
       </c>
       <c r="D268" s="30"/>
@@ -15032,7 +15035,7 @@
       <c r="B269" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="C269" s="29" t="s">
+      <c r="C269" s="31" t="s">
         <v>171</v>
       </c>
       <c r="D269" s="30"/>
@@ -15059,7 +15062,7 @@
       <c r="B270" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="C270" s="29" t="s">
+      <c r="C270" s="31" t="s">
         <v>112</v>
       </c>
       <c r="D270" s="30"/>
@@ -15086,7 +15089,7 @@
       <c r="B271" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="C271" s="29" t="s">
+      <c r="C271" s="31" t="s">
         <v>113</v>
       </c>
       <c r="D271" s="30"/>
@@ -15113,7 +15116,7 @@
       <c r="B272" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="C272" s="29" t="s">
+      <c r="C272" s="31" t="s">
         <v>114</v>
       </c>
       <c r="D272" s="30"/>
@@ -15140,7 +15143,7 @@
       <c r="B273" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="C273" s="29" t="s">
+      <c r="C273" s="31" t="s">
         <v>115</v>
       </c>
       <c r="D273" s="30"/>
@@ -15167,7 +15170,7 @@
       <c r="B274" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="C274" s="29" t="s">
+      <c r="C274" s="31" t="s">
         <v>116</v>
       </c>
       <c r="D274" s="30"/>
@@ -15194,7 +15197,7 @@
       <c r="B275" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="C275" s="29" t="s">
+      <c r="C275" s="31" t="s">
         <v>117</v>
       </c>
       <c r="D275" s="30"/>
@@ -15221,7 +15224,7 @@
       <c r="B276" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="C276" s="29" t="s">
+      <c r="C276" s="31" t="s">
         <v>118</v>
       </c>
       <c r="D276" s="30"/>
@@ -15248,7 +15251,7 @@
       <c r="B277" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="C277" s="29" t="s">
+      <c r="C277" s="31" t="s">
         <v>172</v>
       </c>
       <c r="D277" s="30"/>
@@ -15275,7 +15278,7 @@
       <c r="B278" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="C278" s="29" t="s">
+      <c r="C278" s="31" t="s">
         <v>173</v>
       </c>
       <c r="D278" s="30"/>
@@ -15302,7 +15305,7 @@
       <c r="B279" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="C279" s="29" t="s">
+      <c r="C279" s="31" t="s">
         <v>143</v>
       </c>
       <c r="D279" s="30"/>
@@ -15329,7 +15332,7 @@
       <c r="B280" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="C280" s="29" t="s">
+      <c r="C280" s="31" t="s">
         <v>144</v>
       </c>
       <c r="D280" s="30"/>
@@ -15356,7 +15359,7 @@
       <c r="B281" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="C281" s="29" t="s">
+      <c r="C281" s="31" t="s">
         <v>145</v>
       </c>
       <c r="D281" s="30"/>
@@ -15383,7 +15386,7 @@
       <c r="B282" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="C282" s="29" t="s">
+      <c r="C282" s="31" t="s">
         <v>146</v>
       </c>
       <c r="D282" s="30"/>
@@ -15410,7 +15413,7 @@
       <c r="B283" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="C283" s="29" t="s">
+      <c r="C283" s="31" t="s">
         <v>151</v>
       </c>
       <c r="D283" s="30"/>
@@ -15437,7 +15440,7 @@
       <c r="B284" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="C284" s="29" t="s">
+      <c r="C284" s="31" t="s">
         <v>150</v>
       </c>
       <c r="D284" s="30"/>
@@ -15464,7 +15467,7 @@
       <c r="B285" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="C285" s="29" t="s">
+      <c r="C285" s="31" t="s">
         <v>174</v>
       </c>
       <c r="D285" s="30"/>
@@ -15491,7 +15494,7 @@
       <c r="B286" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="C286" s="29" t="s">
+      <c r="C286" s="31" t="s">
         <v>175</v>
       </c>
       <c r="D286" s="30"/>
@@ -16092,6 +16095,18 @@
       <c r="E308" s="6" t="s">
         <v>183</v>
       </c>
+      <c r="F308" s="29" t="s">
+        <v>242</v>
+      </c>
+      <c r="G308" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="H308" s="29">
+        <v>20240411</v>
+      </c>
+      <c r="J308" s="29" t="s">
+        <v>241</v>
+      </c>
     </row>
     <row r="309" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A309" s="3">
@@ -16107,6 +16122,18 @@
       <c r="E309" s="6" t="s">
         <v>392</v>
       </c>
+      <c r="F309" s="29" t="s">
+        <v>242</v>
+      </c>
+      <c r="G309" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="H309" s="29">
+        <v>20240411</v>
+      </c>
+      <c r="J309" s="29" t="s">
+        <v>241</v>
+      </c>
     </row>
     <row r="310" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A310" s="3">
@@ -16122,6 +16149,18 @@
       <c r="E310" s="6" t="s">
         <v>394</v>
       </c>
+      <c r="F310" s="29" t="s">
+        <v>242</v>
+      </c>
+      <c r="G310" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="H310" s="29">
+        <v>20240411</v>
+      </c>
+      <c r="J310" s="29" t="s">
+        <v>241</v>
+      </c>
     </row>
     <row r="311" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A311" s="3">
@@ -16137,6 +16176,18 @@
       <c r="E311" s="6" t="s">
         <v>407</v>
       </c>
+      <c r="F311" s="29" t="s">
+        <v>242</v>
+      </c>
+      <c r="G311" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="H311" s="29">
+        <v>20240411</v>
+      </c>
+      <c r="J311" s="29" t="s">
+        <v>241</v>
+      </c>
     </row>
     <row r="312" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A312" s="3">
@@ -16152,6 +16203,18 @@
       <c r="E312" s="28" t="s">
         <v>407</v>
       </c>
+      <c r="F312" s="29" t="s">
+        <v>242</v>
+      </c>
+      <c r="G312" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="H312" s="29">
+        <v>20240411</v>
+      </c>
+      <c r="J312" s="29" t="s">
+        <v>241</v>
+      </c>
     </row>
     <row r="313" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A313" s="3">
@@ -16167,6 +16230,18 @@
       <c r="E313" s="28" t="s">
         <v>407</v>
       </c>
+      <c r="F313" s="29" t="s">
+        <v>242</v>
+      </c>
+      <c r="G313" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="H313" s="29">
+        <v>20240411</v>
+      </c>
+      <c r="J313" s="29" t="s">
+        <v>241</v>
+      </c>
     </row>
     <row r="314" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A314" s="3">
@@ -16182,6 +16257,18 @@
       <c r="E314" s="28" t="s">
         <v>407</v>
       </c>
+      <c r="F314" s="29" t="s">
+        <v>242</v>
+      </c>
+      <c r="G314" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="H314" s="29">
+        <v>20240411</v>
+      </c>
+      <c r="J314" s="29" t="s">
+        <v>241</v>
+      </c>
     </row>
     <row r="315" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A315" s="3">
@@ -16197,6 +16284,18 @@
       <c r="E315" s="28" t="s">
         <v>407</v>
       </c>
+      <c r="F315" s="29" t="s">
+        <v>242</v>
+      </c>
+      <c r="G315" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="H315" s="29">
+        <v>20240411</v>
+      </c>
+      <c r="J315" s="29" t="s">
+        <v>241</v>
+      </c>
     </row>
     <row r="316" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A316" s="3">
@@ -16212,6 +16311,18 @@
       <c r="E316" s="28" t="s">
         <v>407</v>
       </c>
+      <c r="F316" s="29" t="s">
+        <v>242</v>
+      </c>
+      <c r="G316" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="H316" s="29">
+        <v>20240411</v>
+      </c>
+      <c r="J316" s="29" t="s">
+        <v>241</v>
+      </c>
     </row>
     <row r="317" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A317" s="3">
@@ -16227,6 +16338,18 @@
       <c r="E317" s="28" t="s">
         <v>407</v>
       </c>
+      <c r="F317" s="29" t="s">
+        <v>242</v>
+      </c>
+      <c r="G317" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="H317" s="29">
+        <v>20240411</v>
+      </c>
+      <c r="J317" s="29" t="s">
+        <v>241</v>
+      </c>
     </row>
     <row r="318" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A318" s="3">
@@ -16242,6 +16365,18 @@
       <c r="E318" s="28" t="s">
         <v>407</v>
       </c>
+      <c r="F318" s="29" t="s">
+        <v>242</v>
+      </c>
+      <c r="G318" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="H318" s="29">
+        <v>20240411</v>
+      </c>
+      <c r="J318" s="29" t="s">
+        <v>241</v>
+      </c>
     </row>
     <row r="319" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A319" s="3">
@@ -16257,6 +16392,18 @@
       <c r="E319" s="28" t="s">
         <v>407</v>
       </c>
+      <c r="F319" s="29" t="s">
+        <v>242</v>
+      </c>
+      <c r="G319" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="H319" s="29">
+        <v>20240411</v>
+      </c>
+      <c r="J319" s="29" t="s">
+        <v>241</v>
+      </c>
     </row>
     <row r="320" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A320" s="3">
@@ -16272,8 +16419,20 @@
       <c r="E320" s="28" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="321" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F320" s="29" t="s">
+        <v>242</v>
+      </c>
+      <c r="G320" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="H320" s="29">
+        <v>20240411</v>
+      </c>
+      <c r="J320" s="29" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="321" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A321" s="3">
         <v>317</v>
       </c>
@@ -16287,8 +16446,20 @@
       <c r="E321" s="28" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="322" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F321" s="29" t="s">
+        <v>242</v>
+      </c>
+      <c r="G321" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="H321" s="29">
+        <v>20240411</v>
+      </c>
+      <c r="J321" s="29" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="322" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A322" s="3">
         <v>318</v>
       </c>
@@ -16302,8 +16473,20 @@
       <c r="E322" s="6" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="323" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F322" s="29" t="s">
+        <v>242</v>
+      </c>
+      <c r="G322" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="H322" s="29">
+        <v>20240411</v>
+      </c>
+      <c r="J322" s="29" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="323" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A323" s="3">
         <v>319</v>
       </c>
@@ -16317,8 +16500,20 @@
       <c r="E323" s="28" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="324" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F323" s="29" t="s">
+        <v>242</v>
+      </c>
+      <c r="G323" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="H323" s="29">
+        <v>20240411</v>
+      </c>
+      <c r="J323" s="29" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="324" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A324" s="3">
         <v>320</v>
       </c>
@@ -16332,8 +16527,20 @@
       <c r="E324" s="28" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="325" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F324" s="29" t="s">
+        <v>242</v>
+      </c>
+      <c r="G324" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="H324" s="29">
+        <v>20240411</v>
+      </c>
+      <c r="J324" s="29" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="325" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A325" s="3">
         <v>321</v>
       </c>
@@ -16347,8 +16554,20 @@
       <c r="E325" s="28" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="326" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F325" s="29" t="s">
+        <v>242</v>
+      </c>
+      <c r="G325" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="H325" s="29">
+        <v>20240411</v>
+      </c>
+      <c r="J325" s="29" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="326" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A326" s="3">
         <v>322</v>
       </c>
@@ -16362,8 +16581,20 @@
       <c r="E326" s="28" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="327" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F326" s="29" t="s">
+        <v>242</v>
+      </c>
+      <c r="G326" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="H326" s="29">
+        <v>20240411</v>
+      </c>
+      <c r="J326" s="29" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="327" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A327" s="3">
         <v>323</v>
       </c>
@@ -16377,8 +16608,20 @@
       <c r="E327" s="28" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="328" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F327" s="29" t="s">
+        <v>242</v>
+      </c>
+      <c r="G327" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="H327" s="29">
+        <v>20240411</v>
+      </c>
+      <c r="J327" s="29" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="328" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A328" s="3">
         <v>324</v>
       </c>
@@ -16392,8 +16635,20 @@
       <c r="E328" s="28" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="329" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F328" s="29" t="s">
+        <v>242</v>
+      </c>
+      <c r="G328" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="H328" s="29">
+        <v>20240411</v>
+      </c>
+      <c r="J328" s="29" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="329" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A329" s="3">
         <v>325</v>
       </c>
@@ -16407,8 +16662,20 @@
       <c r="E329" s="28" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="330" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F329" s="29" t="s">
+        <v>242</v>
+      </c>
+      <c r="G329" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="H329" s="29">
+        <v>20240411</v>
+      </c>
+      <c r="J329" s="29" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="330" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A330" s="3">
         <v>326</v>
       </c>
@@ -16422,8 +16689,20 @@
       <c r="E330" s="28" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="331" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F330" s="29" t="s">
+        <v>242</v>
+      </c>
+      <c r="G330" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="H330" s="29">
+        <v>20240411</v>
+      </c>
+      <c r="J330" s="29" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="331" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A331" s="3">
         <v>327</v>
       </c>
@@ -16437,8 +16716,20 @@
       <c r="E331" s="28" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="332" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F331" s="29" t="s">
+        <v>242</v>
+      </c>
+      <c r="G331" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="H331" s="29">
+        <v>20240411</v>
+      </c>
+      <c r="J331" s="29" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="332" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A332" s="3">
         <v>328</v>
       </c>
@@ -16452,8 +16743,20 @@
       <c r="E332" s="28" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="333" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F332" s="29" t="s">
+        <v>242</v>
+      </c>
+      <c r="G332" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="H332" s="29">
+        <v>20240411</v>
+      </c>
+      <c r="J332" s="29" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="333" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A333" s="3">
         <v>329</v>
       </c>
@@ -16467,8 +16770,20 @@
       <c r="E333" s="28" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="334" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F333" s="29" t="s">
+        <v>242</v>
+      </c>
+      <c r="G333" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="H333" s="29">
+        <v>20240411</v>
+      </c>
+      <c r="J333" s="29" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="334" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A334" s="3">
         <v>330</v>
       </c>
@@ -16482,8 +16797,20 @@
       <c r="E334" s="28" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="335" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F334" s="29" t="s">
+        <v>242</v>
+      </c>
+      <c r="G334" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="H334" s="29">
+        <v>20240411</v>
+      </c>
+      <c r="J334" s="29" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="335" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A335" s="3">
         <v>331</v>
       </c>
@@ -16497,8 +16824,20 @@
       <c r="E335" s="28" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="336" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F335" s="29" t="s">
+        <v>242</v>
+      </c>
+      <c r="G335" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="H335" s="29">
+        <v>20240411</v>
+      </c>
+      <c r="J335" s="29" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="336" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A336" s="3">
         <v>332</v>
       </c>
@@ -16512,8 +16851,20 @@
       <c r="E336" s="28" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="337" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F336" s="29" t="s">
+        <v>242</v>
+      </c>
+      <c r="G336" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="H336" s="29">
+        <v>20240411</v>
+      </c>
+      <c r="J336" s="29" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="337" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A337" s="3">
         <v>333</v>
       </c>
@@ -16527,8 +16878,20 @@
       <c r="E337" s="28" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="338" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F337" s="29" t="s">
+        <v>242</v>
+      </c>
+      <c r="G337" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="H337" s="29">
+        <v>20240411</v>
+      </c>
+      <c r="J337" s="29" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="338" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A338" s="3">
         <v>334</v>
       </c>
@@ -16542,8 +16905,20 @@
       <c r="E338" s="28" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="339" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F338" s="29" t="s">
+        <v>242</v>
+      </c>
+      <c r="G338" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="H338" s="29">
+        <v>20240411</v>
+      </c>
+      <c r="J338" s="29" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="339" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A339" s="3">
         <v>335</v>
       </c>
@@ -16557,8 +16932,20 @@
       <c r="E339" s="28" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="340" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F339" s="29" t="s">
+        <v>242</v>
+      </c>
+      <c r="G339" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="H339" s="29">
+        <v>20240411</v>
+      </c>
+      <c r="J339" s="29" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="340" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A340" s="3">
         <v>336</v>
       </c>
@@ -16572,8 +16959,20 @@
       <c r="E340" s="28" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="341" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F340" s="29" t="s">
+        <v>242</v>
+      </c>
+      <c r="G340" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="H340" s="29">
+        <v>20240411</v>
+      </c>
+      <c r="J340" s="29" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="341" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A341" s="3">
         <v>337</v>
       </c>
@@ -16587,8 +16986,20 @@
       <c r="E341" s="28" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="342" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F341" s="29" t="s">
+        <v>242</v>
+      </c>
+      <c r="G341" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="H341" s="29">
+        <v>20240411</v>
+      </c>
+      <c r="J341" s="29" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="342" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A342" s="3">
         <v>338</v>
       </c>
@@ -16602,8 +17013,20 @@
       <c r="E342" s="28" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="343" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F342" s="29" t="s">
+        <v>242</v>
+      </c>
+      <c r="G342" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="H342" s="29">
+        <v>20240411</v>
+      </c>
+      <c r="J342" s="29" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="343" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A343" s="3">
         <v>339</v>
       </c>
@@ -16617,8 +17040,20 @@
       <c r="E343" s="28" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="344" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F343" s="29" t="s">
+        <v>242</v>
+      </c>
+      <c r="G343" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="H343" s="29">
+        <v>20240411</v>
+      </c>
+      <c r="J343" s="29" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="344" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A344" s="3">
         <v>340</v>
       </c>
@@ -16632,8 +17067,20 @@
       <c r="E344" s="28" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="345" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F344" s="29" t="s">
+        <v>242</v>
+      </c>
+      <c r="G344" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="H344" s="29">
+        <v>20240411</v>
+      </c>
+      <c r="J344" s="29" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="345" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A345" s="3">
         <v>341</v>
       </c>
@@ -16647,8 +17094,20 @@
       <c r="E345" s="28" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="346" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F345" s="29" t="s">
+        <v>242</v>
+      </c>
+      <c r="G345" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="H345" s="29">
+        <v>20240411</v>
+      </c>
+      <c r="J345" s="29" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="346" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A346" s="3">
         <v>342</v>
       </c>
@@ -16662,8 +17121,20 @@
       <c r="E346" s="28" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="347" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F346" s="29" t="s">
+        <v>242</v>
+      </c>
+      <c r="G346" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="H346" s="29">
+        <v>20240411</v>
+      </c>
+      <c r="J346" s="29" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="347" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A347" s="3">
         <v>343</v>
       </c>
@@ -16677,8 +17148,20 @@
       <c r="E347" s="28" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="348" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F347" s="29" t="s">
+        <v>242</v>
+      </c>
+      <c r="G347" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="H347" s="29">
+        <v>20240411</v>
+      </c>
+      <c r="J347" s="29" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="348" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A348" s="3">
         <v>344</v>
       </c>
@@ -16692,98 +17175,182 @@
       <c r="E348" s="28" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="349" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F348" s="29" t="s">
+        <v>242</v>
+      </c>
+      <c r="G348" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="H348" s="29">
+        <v>20240411</v>
+      </c>
+      <c r="J348" s="29" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="349" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A349" s="3">
         <v>345</v>
       </c>
       <c r="B349" s="28" t="s">
         <v>399</v>
       </c>
-      <c r="C349" s="29" t="s">
+      <c r="C349" s="31" t="s">
         <v>438</v>
       </c>
       <c r="D349" s="30"/>
       <c r="E349" s="28" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="350" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F349" s="29" t="s">
+        <v>242</v>
+      </c>
+      <c r="G349" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="H349" s="29">
+        <v>20240411</v>
+      </c>
+      <c r="J349" s="29" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="350" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A350" s="3">
         <v>346</v>
       </c>
       <c r="B350" s="28" t="s">
         <v>399</v>
       </c>
-      <c r="C350" s="29" t="s">
+      <c r="C350" s="31" t="s">
         <v>437</v>
       </c>
       <c r="D350" s="30"/>
       <c r="E350" s="28" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="351" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F350" s="29" t="s">
+        <v>242</v>
+      </c>
+      <c r="G350" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="H350" s="29">
+        <v>20240411</v>
+      </c>
+      <c r="J350" s="29" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="351" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A351" s="3">
         <v>347</v>
       </c>
       <c r="B351" s="28" t="s">
         <v>399</v>
       </c>
-      <c r="C351" s="29" t="s">
+      <c r="C351" s="31" t="s">
         <v>439</v>
       </c>
       <c r="D351" s="30"/>
       <c r="E351" s="28" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="352" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F351" s="29" t="s">
+        <v>242</v>
+      </c>
+      <c r="G351" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="H351" s="29">
+        <v>20240411</v>
+      </c>
+      <c r="J351" s="29" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="352" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A352" s="3">
         <v>348</v>
       </c>
       <c r="B352" s="28" t="s">
         <v>399</v>
       </c>
-      <c r="C352" s="29" t="s">
+      <c r="C352" s="31" t="s">
         <v>440</v>
       </c>
       <c r="D352" s="30"/>
       <c r="E352" s="28" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="353" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F352" s="29" t="s">
+        <v>242</v>
+      </c>
+      <c r="G352" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="H352" s="29">
+        <v>20240411</v>
+      </c>
+      <c r="J352" s="29" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="353" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A353" s="3">
         <v>349</v>
       </c>
       <c r="B353" s="28" t="s">
         <v>399</v>
       </c>
-      <c r="C353" s="29" t="s">
+      <c r="C353" s="31" t="s">
         <v>441</v>
       </c>
       <c r="D353" s="30"/>
       <c r="E353" s="28" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="354" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F353" s="29" t="s">
+        <v>242</v>
+      </c>
+      <c r="G353" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="H353" s="29">
+        <v>20240411</v>
+      </c>
+      <c r="J353" s="29" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="354" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A354" s="3">
         <v>350</v>
       </c>
       <c r="B354" s="28" t="s">
         <v>399</v>
       </c>
-      <c r="C354" s="29" t="s">
+      <c r="C354" s="31" t="s">
         <v>442</v>
       </c>
       <c r="D354" s="30"/>
       <c r="E354" s="28" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="355" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F354" s="29" t="s">
+        <v>242</v>
+      </c>
+      <c r="G354" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="H354" s="29">
+        <v>20240411</v>
+      </c>
+      <c r="J354" s="29" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="355" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A355" s="3">
         <v>351</v>
       </c>
@@ -16797,56 +17364,68 @@
       <c r="E355" s="6" t="s">
         <v>426</v>
       </c>
-    </row>
-    <row r="356" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F355" s="29" t="s">
+        <v>242</v>
+      </c>
+      <c r="G355" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="H355" s="29">
+        <v>20240411</v>
+      </c>
+      <c r="J355" s="29" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="356" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C356" s="30"/>
       <c r="D356" s="30"/>
     </row>
-    <row r="357" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="357" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C357" s="30"/>
       <c r="D357" s="30"/>
     </row>
-    <row r="358" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="358" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C358" s="30"/>
       <c r="D358" s="30"/>
     </row>
-    <row r="359" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="359" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C359" s="30"/>
       <c r="D359" s="30"/>
     </row>
-    <row r="360" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="360" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C360" s="30"/>
       <c r="D360" s="30"/>
     </row>
-    <row r="361" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="361" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C361" s="30"/>
       <c r="D361" s="30"/>
     </row>
-    <row r="362" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="362" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C362" s="30"/>
       <c r="D362" s="30"/>
     </row>
-    <row r="363" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="363" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C363" s="30"/>
       <c r="D363" s="30"/>
     </row>
-    <row r="364" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="364" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C364" s="30"/>
       <c r="D364" s="30"/>
     </row>
-    <row r="365" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="365" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C365" s="30"/>
       <c r="D365" s="30"/>
     </row>
-    <row r="366" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="366" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C366" s="30"/>
       <c r="D366" s="30"/>
     </row>
-    <row r="367" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="367" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C367" s="30"/>
       <c r="D367" s="30"/>
     </row>
-    <row r="368" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="368" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C368" s="30"/>
       <c r="D368" s="30"/>
     </row>
@@ -17176,369 +17755,60 @@
     <row r="473" ht="45" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="441">
-    <mergeCell ref="C438:D438"/>
-    <mergeCell ref="C439:D439"/>
-    <mergeCell ref="C440:D440"/>
-    <mergeCell ref="C441:D441"/>
-    <mergeCell ref="C428:D428"/>
-    <mergeCell ref="C429:D429"/>
-    <mergeCell ref="C430:D430"/>
-    <mergeCell ref="C431:D431"/>
-    <mergeCell ref="C432:D432"/>
-    <mergeCell ref="C433:D433"/>
-    <mergeCell ref="C434:D434"/>
-    <mergeCell ref="C435:D435"/>
-    <mergeCell ref="C436:D436"/>
-    <mergeCell ref="C420:D420"/>
-    <mergeCell ref="C421:D421"/>
-    <mergeCell ref="C422:D422"/>
-    <mergeCell ref="C423:D423"/>
-    <mergeCell ref="C424:D424"/>
-    <mergeCell ref="C425:D425"/>
-    <mergeCell ref="C426:D426"/>
-    <mergeCell ref="C427:D427"/>
-    <mergeCell ref="C437:D437"/>
-    <mergeCell ref="C411:D411"/>
-    <mergeCell ref="C412:D412"/>
-    <mergeCell ref="C413:D413"/>
-    <mergeCell ref="C414:D414"/>
-    <mergeCell ref="C415:D415"/>
-    <mergeCell ref="C416:D416"/>
-    <mergeCell ref="C417:D417"/>
-    <mergeCell ref="C418:D418"/>
-    <mergeCell ref="C419:D419"/>
-    <mergeCell ref="C402:D402"/>
-    <mergeCell ref="C403:D403"/>
-    <mergeCell ref="C404:D404"/>
-    <mergeCell ref="C405:D405"/>
-    <mergeCell ref="C406:D406"/>
-    <mergeCell ref="C407:D407"/>
-    <mergeCell ref="C408:D408"/>
-    <mergeCell ref="C409:D409"/>
-    <mergeCell ref="C410:D410"/>
-    <mergeCell ref="C393:D393"/>
-    <mergeCell ref="C394:D394"/>
-    <mergeCell ref="C395:D395"/>
-    <mergeCell ref="C396:D396"/>
-    <mergeCell ref="C397:D397"/>
-    <mergeCell ref="C398:D398"/>
-    <mergeCell ref="C399:D399"/>
-    <mergeCell ref="C400:D400"/>
-    <mergeCell ref="C401:D401"/>
-    <mergeCell ref="C384:D384"/>
-    <mergeCell ref="C385:D385"/>
-    <mergeCell ref="C386:D386"/>
-    <mergeCell ref="C387:D387"/>
-    <mergeCell ref="C388:D388"/>
-    <mergeCell ref="C389:D389"/>
-    <mergeCell ref="C390:D390"/>
-    <mergeCell ref="C391:D391"/>
-    <mergeCell ref="C392:D392"/>
-    <mergeCell ref="C375:D375"/>
-    <mergeCell ref="C376:D376"/>
-    <mergeCell ref="C377:D377"/>
-    <mergeCell ref="C378:D378"/>
-    <mergeCell ref="C379:D379"/>
-    <mergeCell ref="C380:D380"/>
-    <mergeCell ref="C381:D381"/>
-    <mergeCell ref="C382:D382"/>
-    <mergeCell ref="C383:D383"/>
-    <mergeCell ref="C366:D366"/>
-    <mergeCell ref="C367:D367"/>
-    <mergeCell ref="C368:D368"/>
-    <mergeCell ref="C369:D369"/>
-    <mergeCell ref="C370:D370"/>
-    <mergeCell ref="C371:D371"/>
-    <mergeCell ref="C372:D372"/>
-    <mergeCell ref="C373:D373"/>
-    <mergeCell ref="C374:D374"/>
-    <mergeCell ref="C357:D357"/>
-    <mergeCell ref="C358:D358"/>
-    <mergeCell ref="C359:D359"/>
-    <mergeCell ref="C360:D360"/>
-    <mergeCell ref="C361:D361"/>
-    <mergeCell ref="C362:D362"/>
-    <mergeCell ref="C363:D363"/>
-    <mergeCell ref="C364:D364"/>
-    <mergeCell ref="C365:D365"/>
-    <mergeCell ref="C348:D348"/>
-    <mergeCell ref="C349:D349"/>
-    <mergeCell ref="C350:D350"/>
-    <mergeCell ref="C351:D351"/>
-    <mergeCell ref="C352:D352"/>
-    <mergeCell ref="C353:D353"/>
-    <mergeCell ref="C354:D354"/>
-    <mergeCell ref="C355:D355"/>
-    <mergeCell ref="C356:D356"/>
-    <mergeCell ref="C339:D339"/>
-    <mergeCell ref="C340:D340"/>
-    <mergeCell ref="C341:D341"/>
-    <mergeCell ref="C342:D342"/>
-    <mergeCell ref="C343:D343"/>
-    <mergeCell ref="C344:D344"/>
-    <mergeCell ref="C345:D345"/>
-    <mergeCell ref="C346:D346"/>
-    <mergeCell ref="C347:D347"/>
-    <mergeCell ref="C330:D330"/>
-    <mergeCell ref="C331:D331"/>
-    <mergeCell ref="C332:D332"/>
-    <mergeCell ref="C333:D333"/>
-    <mergeCell ref="C334:D334"/>
-    <mergeCell ref="C335:D335"/>
-    <mergeCell ref="C336:D336"/>
-    <mergeCell ref="C337:D337"/>
-    <mergeCell ref="C338:D338"/>
-    <mergeCell ref="C321:D321"/>
-    <mergeCell ref="C322:D322"/>
-    <mergeCell ref="C323:D323"/>
-    <mergeCell ref="C324:D324"/>
-    <mergeCell ref="C325:D325"/>
-    <mergeCell ref="C326:D326"/>
-    <mergeCell ref="C327:D327"/>
-    <mergeCell ref="C328:D328"/>
-    <mergeCell ref="C329:D329"/>
-    <mergeCell ref="C312:D312"/>
-    <mergeCell ref="C313:D313"/>
-    <mergeCell ref="C314:D314"/>
-    <mergeCell ref="C315:D315"/>
-    <mergeCell ref="C316:D316"/>
-    <mergeCell ref="C317:D317"/>
-    <mergeCell ref="C318:D318"/>
-    <mergeCell ref="C319:D319"/>
-    <mergeCell ref="C320:D320"/>
-    <mergeCell ref="C289:D289"/>
-    <mergeCell ref="C290:D290"/>
-    <mergeCell ref="C291:D291"/>
-    <mergeCell ref="C292:D292"/>
-    <mergeCell ref="C293:D293"/>
-    <mergeCell ref="C294:D294"/>
-    <mergeCell ref="C295:D295"/>
-    <mergeCell ref="C296:D296"/>
-    <mergeCell ref="C311:D311"/>
-    <mergeCell ref="C306:D306"/>
-    <mergeCell ref="C307:D307"/>
-    <mergeCell ref="C308:D308"/>
-    <mergeCell ref="C309:D309"/>
-    <mergeCell ref="C310:D310"/>
-    <mergeCell ref="C279:D279"/>
-    <mergeCell ref="C280:D280"/>
-    <mergeCell ref="C281:D281"/>
-    <mergeCell ref="C282:D282"/>
-    <mergeCell ref="C283:D283"/>
-    <mergeCell ref="C284:D284"/>
-    <mergeCell ref="C285:D285"/>
-    <mergeCell ref="C286:D286"/>
-    <mergeCell ref="C287:D287"/>
-    <mergeCell ref="C297:D297"/>
-    <mergeCell ref="C298:D298"/>
-    <mergeCell ref="C299:D299"/>
-    <mergeCell ref="C300:D300"/>
-    <mergeCell ref="C301:D301"/>
-    <mergeCell ref="C302:D302"/>
-    <mergeCell ref="C303:D303"/>
-    <mergeCell ref="C304:D304"/>
-    <mergeCell ref="C305:D305"/>
-    <mergeCell ref="C288:D288"/>
-    <mergeCell ref="C270:D270"/>
-    <mergeCell ref="C271:D271"/>
-    <mergeCell ref="C272:D272"/>
-    <mergeCell ref="C273:D273"/>
-    <mergeCell ref="C274:D274"/>
-    <mergeCell ref="C275:D275"/>
-    <mergeCell ref="C276:D276"/>
-    <mergeCell ref="C277:D277"/>
-    <mergeCell ref="C278:D278"/>
-    <mergeCell ref="C261:D261"/>
-    <mergeCell ref="C262:D262"/>
-    <mergeCell ref="C263:D263"/>
-    <mergeCell ref="C264:D264"/>
-    <mergeCell ref="C265:D265"/>
-    <mergeCell ref="C266:D266"/>
-    <mergeCell ref="C267:D267"/>
-    <mergeCell ref="C268:D268"/>
-    <mergeCell ref="C269:D269"/>
-    <mergeCell ref="C252:D252"/>
-    <mergeCell ref="C253:D253"/>
-    <mergeCell ref="C254:D254"/>
-    <mergeCell ref="C255:D255"/>
-    <mergeCell ref="C256:D256"/>
-    <mergeCell ref="C257:D257"/>
-    <mergeCell ref="C258:D258"/>
-    <mergeCell ref="C259:D259"/>
-    <mergeCell ref="C260:D260"/>
-    <mergeCell ref="C243:D243"/>
-    <mergeCell ref="C244:D244"/>
-    <mergeCell ref="C245:D245"/>
-    <mergeCell ref="C246:D246"/>
-    <mergeCell ref="C247:D247"/>
-    <mergeCell ref="C248:D248"/>
-    <mergeCell ref="C249:D249"/>
-    <mergeCell ref="C250:D250"/>
-    <mergeCell ref="C251:D251"/>
-    <mergeCell ref="C234:D234"/>
-    <mergeCell ref="C235:D235"/>
-    <mergeCell ref="C236:D236"/>
-    <mergeCell ref="C237:D237"/>
-    <mergeCell ref="C238:D238"/>
-    <mergeCell ref="C239:D239"/>
-    <mergeCell ref="C240:D240"/>
-    <mergeCell ref="C241:D241"/>
-    <mergeCell ref="C242:D242"/>
-    <mergeCell ref="C225:D225"/>
-    <mergeCell ref="C226:D226"/>
-    <mergeCell ref="C227:D227"/>
-    <mergeCell ref="C228:D228"/>
-    <mergeCell ref="C229:D229"/>
-    <mergeCell ref="C230:D230"/>
-    <mergeCell ref="C231:D231"/>
-    <mergeCell ref="C232:D232"/>
-    <mergeCell ref="C233:D233"/>
-    <mergeCell ref="C216:D216"/>
-    <mergeCell ref="C217:D217"/>
-    <mergeCell ref="C218:D218"/>
-    <mergeCell ref="C219:D219"/>
-    <mergeCell ref="C220:D220"/>
-    <mergeCell ref="C221:D221"/>
-    <mergeCell ref="C222:D222"/>
-    <mergeCell ref="C223:D223"/>
-    <mergeCell ref="C224:D224"/>
-    <mergeCell ref="C207:D207"/>
-    <mergeCell ref="C208:D208"/>
-    <mergeCell ref="C209:D209"/>
-    <mergeCell ref="C210:D210"/>
-    <mergeCell ref="C211:D211"/>
-    <mergeCell ref="C212:D212"/>
-    <mergeCell ref="C213:D213"/>
-    <mergeCell ref="C214:D214"/>
-    <mergeCell ref="C215:D215"/>
-    <mergeCell ref="C198:D198"/>
-    <mergeCell ref="C199:D199"/>
-    <mergeCell ref="C200:D200"/>
-    <mergeCell ref="C201:D201"/>
-    <mergeCell ref="C202:D202"/>
-    <mergeCell ref="C203:D203"/>
-    <mergeCell ref="C204:D204"/>
-    <mergeCell ref="C205:D205"/>
-    <mergeCell ref="C206:D206"/>
-    <mergeCell ref="C189:D189"/>
-    <mergeCell ref="C190:D190"/>
-    <mergeCell ref="C191:D191"/>
-    <mergeCell ref="C192:D192"/>
-    <mergeCell ref="C193:D193"/>
-    <mergeCell ref="C194:D194"/>
-    <mergeCell ref="C195:D195"/>
-    <mergeCell ref="C196:D196"/>
-    <mergeCell ref="C197:D197"/>
-    <mergeCell ref="C181:D181"/>
-    <mergeCell ref="C182:D182"/>
-    <mergeCell ref="C183:D183"/>
-    <mergeCell ref="C184:D184"/>
-    <mergeCell ref="C185:D185"/>
-    <mergeCell ref="C186:D186"/>
-    <mergeCell ref="C187:D187"/>
-    <mergeCell ref="C188:D188"/>
-    <mergeCell ref="C160:D160"/>
-    <mergeCell ref="C175:D175"/>
-    <mergeCell ref="C174:D174"/>
-    <mergeCell ref="C173:D173"/>
-    <mergeCell ref="C172:D172"/>
-    <mergeCell ref="C171:D171"/>
-    <mergeCell ref="C180:D180"/>
-    <mergeCell ref="C179:D179"/>
-    <mergeCell ref="C178:D178"/>
-    <mergeCell ref="C177:D177"/>
-    <mergeCell ref="C176:D176"/>
-    <mergeCell ref="C159:D159"/>
-    <mergeCell ref="C165:D165"/>
-    <mergeCell ref="C164:D164"/>
-    <mergeCell ref="C163:D163"/>
-    <mergeCell ref="C162:D162"/>
-    <mergeCell ref="C161:D161"/>
-    <mergeCell ref="C170:D170"/>
-    <mergeCell ref="C169:D169"/>
-    <mergeCell ref="C168:D168"/>
-    <mergeCell ref="C167:D167"/>
-    <mergeCell ref="C166:D166"/>
-    <mergeCell ref="C144:D144"/>
-    <mergeCell ref="C143:D143"/>
-    <mergeCell ref="C142:D142"/>
-    <mergeCell ref="C158:D158"/>
-    <mergeCell ref="C157:D157"/>
-    <mergeCell ref="C156:D156"/>
-    <mergeCell ref="C155:D155"/>
-    <mergeCell ref="C154:D154"/>
-    <mergeCell ref="C153:D153"/>
-    <mergeCell ref="C152:D152"/>
-    <mergeCell ref="C151:D151"/>
-    <mergeCell ref="C150:D150"/>
-    <mergeCell ref="C149:D149"/>
-    <mergeCell ref="C148:D148"/>
-    <mergeCell ref="C147:D147"/>
-    <mergeCell ref="C146:D146"/>
-    <mergeCell ref="C145:D145"/>
-    <mergeCell ref="C127:D127"/>
-    <mergeCell ref="C126:D126"/>
-    <mergeCell ref="C125:D125"/>
-    <mergeCell ref="C124:D124"/>
-    <mergeCell ref="C141:D141"/>
-    <mergeCell ref="C140:D140"/>
-    <mergeCell ref="C139:D139"/>
-    <mergeCell ref="C138:D138"/>
-    <mergeCell ref="C137:D137"/>
-    <mergeCell ref="C136:D136"/>
-    <mergeCell ref="C135:D135"/>
-    <mergeCell ref="C134:D134"/>
-    <mergeCell ref="C133:D133"/>
-    <mergeCell ref="C132:D132"/>
-    <mergeCell ref="C131:D131"/>
-    <mergeCell ref="C130:D130"/>
-    <mergeCell ref="C129:D129"/>
-    <mergeCell ref="C128:D128"/>
-    <mergeCell ref="C111:D111"/>
-    <mergeCell ref="C110:D110"/>
-    <mergeCell ref="C109:D109"/>
-    <mergeCell ref="C123:D123"/>
-    <mergeCell ref="C122:D122"/>
-    <mergeCell ref="C121:D121"/>
-    <mergeCell ref="C120:D120"/>
-    <mergeCell ref="C119:D119"/>
-    <mergeCell ref="C118:D118"/>
-    <mergeCell ref="C117:D117"/>
-    <mergeCell ref="C116:D116"/>
-    <mergeCell ref="C115:D115"/>
-    <mergeCell ref="C114:D114"/>
-    <mergeCell ref="C113:D113"/>
-    <mergeCell ref="C112:D112"/>
-    <mergeCell ref="C99:D99"/>
-    <mergeCell ref="C98:D98"/>
-    <mergeCell ref="C97:D97"/>
-    <mergeCell ref="C108:D108"/>
-    <mergeCell ref="C107:D107"/>
-    <mergeCell ref="C106:D106"/>
-    <mergeCell ref="C105:D105"/>
-    <mergeCell ref="C104:D104"/>
-    <mergeCell ref="C103:D103"/>
-    <mergeCell ref="C102:D102"/>
-    <mergeCell ref="C101:D101"/>
-    <mergeCell ref="C100:D100"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="C96:D96"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="C91:D91"/>
-    <mergeCell ref="C90:D90"/>
-    <mergeCell ref="C89:D89"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:E2"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="C70:D70"/>
     <mergeCell ref="C69:D69"/>
     <mergeCell ref="C68:D68"/>
     <mergeCell ref="C67:D67"/>
@@ -17563,60 +17833,369 @@
     <mergeCell ref="C51:D51"/>
     <mergeCell ref="C50:D50"/>
     <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:E2"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="C90:D90"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="C99:D99"/>
+    <mergeCell ref="C98:D98"/>
+    <mergeCell ref="C97:D97"/>
+    <mergeCell ref="C108:D108"/>
+    <mergeCell ref="C107:D107"/>
+    <mergeCell ref="C106:D106"/>
+    <mergeCell ref="C105:D105"/>
+    <mergeCell ref="C104:D104"/>
+    <mergeCell ref="C103:D103"/>
+    <mergeCell ref="C102:D102"/>
+    <mergeCell ref="C101:D101"/>
+    <mergeCell ref="C100:D100"/>
+    <mergeCell ref="C111:D111"/>
+    <mergeCell ref="C110:D110"/>
+    <mergeCell ref="C109:D109"/>
+    <mergeCell ref="C123:D123"/>
+    <mergeCell ref="C122:D122"/>
+    <mergeCell ref="C121:D121"/>
+    <mergeCell ref="C120:D120"/>
+    <mergeCell ref="C119:D119"/>
+    <mergeCell ref="C118:D118"/>
+    <mergeCell ref="C117:D117"/>
+    <mergeCell ref="C116:D116"/>
+    <mergeCell ref="C115:D115"/>
+    <mergeCell ref="C114:D114"/>
+    <mergeCell ref="C113:D113"/>
+    <mergeCell ref="C112:D112"/>
+    <mergeCell ref="C127:D127"/>
+    <mergeCell ref="C126:D126"/>
+    <mergeCell ref="C125:D125"/>
+    <mergeCell ref="C124:D124"/>
+    <mergeCell ref="C141:D141"/>
+    <mergeCell ref="C140:D140"/>
+    <mergeCell ref="C139:D139"/>
+    <mergeCell ref="C138:D138"/>
+    <mergeCell ref="C137:D137"/>
+    <mergeCell ref="C136:D136"/>
+    <mergeCell ref="C135:D135"/>
+    <mergeCell ref="C134:D134"/>
+    <mergeCell ref="C133:D133"/>
+    <mergeCell ref="C132:D132"/>
+    <mergeCell ref="C131:D131"/>
+    <mergeCell ref="C130:D130"/>
+    <mergeCell ref="C129:D129"/>
+    <mergeCell ref="C128:D128"/>
+    <mergeCell ref="C144:D144"/>
+    <mergeCell ref="C143:D143"/>
+    <mergeCell ref="C142:D142"/>
+    <mergeCell ref="C158:D158"/>
+    <mergeCell ref="C157:D157"/>
+    <mergeCell ref="C156:D156"/>
+    <mergeCell ref="C155:D155"/>
+    <mergeCell ref="C154:D154"/>
+    <mergeCell ref="C153:D153"/>
+    <mergeCell ref="C152:D152"/>
+    <mergeCell ref="C151:D151"/>
+    <mergeCell ref="C150:D150"/>
+    <mergeCell ref="C149:D149"/>
+    <mergeCell ref="C148:D148"/>
+    <mergeCell ref="C147:D147"/>
+    <mergeCell ref="C146:D146"/>
+    <mergeCell ref="C145:D145"/>
+    <mergeCell ref="C159:D159"/>
+    <mergeCell ref="C165:D165"/>
+    <mergeCell ref="C164:D164"/>
+    <mergeCell ref="C163:D163"/>
+    <mergeCell ref="C162:D162"/>
+    <mergeCell ref="C161:D161"/>
+    <mergeCell ref="C170:D170"/>
+    <mergeCell ref="C169:D169"/>
+    <mergeCell ref="C168:D168"/>
+    <mergeCell ref="C167:D167"/>
+    <mergeCell ref="C166:D166"/>
+    <mergeCell ref="C181:D181"/>
+    <mergeCell ref="C182:D182"/>
+    <mergeCell ref="C183:D183"/>
+    <mergeCell ref="C184:D184"/>
+    <mergeCell ref="C185:D185"/>
+    <mergeCell ref="C186:D186"/>
+    <mergeCell ref="C187:D187"/>
+    <mergeCell ref="C188:D188"/>
+    <mergeCell ref="C160:D160"/>
+    <mergeCell ref="C175:D175"/>
+    <mergeCell ref="C174:D174"/>
+    <mergeCell ref="C173:D173"/>
+    <mergeCell ref="C172:D172"/>
+    <mergeCell ref="C171:D171"/>
+    <mergeCell ref="C180:D180"/>
+    <mergeCell ref="C179:D179"/>
+    <mergeCell ref="C178:D178"/>
+    <mergeCell ref="C177:D177"/>
+    <mergeCell ref="C176:D176"/>
+    <mergeCell ref="C189:D189"/>
+    <mergeCell ref="C190:D190"/>
+    <mergeCell ref="C191:D191"/>
+    <mergeCell ref="C192:D192"/>
+    <mergeCell ref="C193:D193"/>
+    <mergeCell ref="C194:D194"/>
+    <mergeCell ref="C195:D195"/>
+    <mergeCell ref="C196:D196"/>
+    <mergeCell ref="C197:D197"/>
+    <mergeCell ref="C198:D198"/>
+    <mergeCell ref="C199:D199"/>
+    <mergeCell ref="C200:D200"/>
+    <mergeCell ref="C201:D201"/>
+    <mergeCell ref="C202:D202"/>
+    <mergeCell ref="C203:D203"/>
+    <mergeCell ref="C204:D204"/>
+    <mergeCell ref="C205:D205"/>
+    <mergeCell ref="C206:D206"/>
+    <mergeCell ref="C207:D207"/>
+    <mergeCell ref="C208:D208"/>
+    <mergeCell ref="C209:D209"/>
+    <mergeCell ref="C210:D210"/>
+    <mergeCell ref="C211:D211"/>
+    <mergeCell ref="C212:D212"/>
+    <mergeCell ref="C213:D213"/>
+    <mergeCell ref="C214:D214"/>
+    <mergeCell ref="C215:D215"/>
+    <mergeCell ref="C216:D216"/>
+    <mergeCell ref="C217:D217"/>
+    <mergeCell ref="C218:D218"/>
+    <mergeCell ref="C219:D219"/>
+    <mergeCell ref="C220:D220"/>
+    <mergeCell ref="C221:D221"/>
+    <mergeCell ref="C222:D222"/>
+    <mergeCell ref="C223:D223"/>
+    <mergeCell ref="C224:D224"/>
+    <mergeCell ref="C225:D225"/>
+    <mergeCell ref="C226:D226"/>
+    <mergeCell ref="C227:D227"/>
+    <mergeCell ref="C228:D228"/>
+    <mergeCell ref="C229:D229"/>
+    <mergeCell ref="C230:D230"/>
+    <mergeCell ref="C231:D231"/>
+    <mergeCell ref="C232:D232"/>
+    <mergeCell ref="C233:D233"/>
+    <mergeCell ref="C234:D234"/>
+    <mergeCell ref="C235:D235"/>
+    <mergeCell ref="C236:D236"/>
+    <mergeCell ref="C237:D237"/>
+    <mergeCell ref="C238:D238"/>
+    <mergeCell ref="C239:D239"/>
+    <mergeCell ref="C240:D240"/>
+    <mergeCell ref="C241:D241"/>
+    <mergeCell ref="C242:D242"/>
+    <mergeCell ref="C243:D243"/>
+    <mergeCell ref="C244:D244"/>
+    <mergeCell ref="C245:D245"/>
+    <mergeCell ref="C246:D246"/>
+    <mergeCell ref="C247:D247"/>
+    <mergeCell ref="C248:D248"/>
+    <mergeCell ref="C249:D249"/>
+    <mergeCell ref="C250:D250"/>
+    <mergeCell ref="C251:D251"/>
+    <mergeCell ref="C252:D252"/>
+    <mergeCell ref="C253:D253"/>
+    <mergeCell ref="C254:D254"/>
+    <mergeCell ref="C255:D255"/>
+    <mergeCell ref="C256:D256"/>
+    <mergeCell ref="C257:D257"/>
+    <mergeCell ref="C258:D258"/>
+    <mergeCell ref="C259:D259"/>
+    <mergeCell ref="C260:D260"/>
+    <mergeCell ref="C261:D261"/>
+    <mergeCell ref="C262:D262"/>
+    <mergeCell ref="C263:D263"/>
+    <mergeCell ref="C264:D264"/>
+    <mergeCell ref="C265:D265"/>
+    <mergeCell ref="C266:D266"/>
+    <mergeCell ref="C267:D267"/>
+    <mergeCell ref="C268:D268"/>
+    <mergeCell ref="C269:D269"/>
+    <mergeCell ref="C288:D288"/>
+    <mergeCell ref="C270:D270"/>
+    <mergeCell ref="C271:D271"/>
+    <mergeCell ref="C272:D272"/>
+    <mergeCell ref="C273:D273"/>
+    <mergeCell ref="C274:D274"/>
+    <mergeCell ref="C275:D275"/>
+    <mergeCell ref="C276:D276"/>
+    <mergeCell ref="C277:D277"/>
+    <mergeCell ref="C278:D278"/>
+    <mergeCell ref="C279:D279"/>
+    <mergeCell ref="C280:D280"/>
+    <mergeCell ref="C281:D281"/>
+    <mergeCell ref="C282:D282"/>
+    <mergeCell ref="C283:D283"/>
+    <mergeCell ref="C284:D284"/>
+    <mergeCell ref="C285:D285"/>
+    <mergeCell ref="C286:D286"/>
+    <mergeCell ref="C287:D287"/>
+    <mergeCell ref="C289:D289"/>
+    <mergeCell ref="C290:D290"/>
+    <mergeCell ref="C291:D291"/>
+    <mergeCell ref="C292:D292"/>
+    <mergeCell ref="C293:D293"/>
+    <mergeCell ref="C294:D294"/>
+    <mergeCell ref="C295:D295"/>
+    <mergeCell ref="C296:D296"/>
+    <mergeCell ref="C311:D311"/>
+    <mergeCell ref="C306:D306"/>
+    <mergeCell ref="C307:D307"/>
+    <mergeCell ref="C308:D308"/>
+    <mergeCell ref="C309:D309"/>
+    <mergeCell ref="C310:D310"/>
+    <mergeCell ref="C297:D297"/>
+    <mergeCell ref="C298:D298"/>
+    <mergeCell ref="C299:D299"/>
+    <mergeCell ref="C300:D300"/>
+    <mergeCell ref="C301:D301"/>
+    <mergeCell ref="C302:D302"/>
+    <mergeCell ref="C303:D303"/>
+    <mergeCell ref="C304:D304"/>
+    <mergeCell ref="C305:D305"/>
+    <mergeCell ref="C312:D312"/>
+    <mergeCell ref="C313:D313"/>
+    <mergeCell ref="C314:D314"/>
+    <mergeCell ref="C315:D315"/>
+    <mergeCell ref="C316:D316"/>
+    <mergeCell ref="C317:D317"/>
+    <mergeCell ref="C318:D318"/>
+    <mergeCell ref="C319:D319"/>
+    <mergeCell ref="C320:D320"/>
+    <mergeCell ref="C321:D321"/>
+    <mergeCell ref="C322:D322"/>
+    <mergeCell ref="C323:D323"/>
+    <mergeCell ref="C324:D324"/>
+    <mergeCell ref="C325:D325"/>
+    <mergeCell ref="C326:D326"/>
+    <mergeCell ref="C327:D327"/>
+    <mergeCell ref="C328:D328"/>
+    <mergeCell ref="C329:D329"/>
+    <mergeCell ref="C330:D330"/>
+    <mergeCell ref="C331:D331"/>
+    <mergeCell ref="C332:D332"/>
+    <mergeCell ref="C333:D333"/>
+    <mergeCell ref="C334:D334"/>
+    <mergeCell ref="C335:D335"/>
+    <mergeCell ref="C336:D336"/>
+    <mergeCell ref="C337:D337"/>
+    <mergeCell ref="C338:D338"/>
+    <mergeCell ref="C339:D339"/>
+    <mergeCell ref="C340:D340"/>
+    <mergeCell ref="C341:D341"/>
+    <mergeCell ref="C342:D342"/>
+    <mergeCell ref="C343:D343"/>
+    <mergeCell ref="C344:D344"/>
+    <mergeCell ref="C345:D345"/>
+    <mergeCell ref="C346:D346"/>
+    <mergeCell ref="C347:D347"/>
+    <mergeCell ref="C348:D348"/>
+    <mergeCell ref="C349:D349"/>
+    <mergeCell ref="C350:D350"/>
+    <mergeCell ref="C351:D351"/>
+    <mergeCell ref="C352:D352"/>
+    <mergeCell ref="C353:D353"/>
+    <mergeCell ref="C354:D354"/>
+    <mergeCell ref="C355:D355"/>
+    <mergeCell ref="C356:D356"/>
+    <mergeCell ref="C357:D357"/>
+    <mergeCell ref="C358:D358"/>
+    <mergeCell ref="C359:D359"/>
+    <mergeCell ref="C360:D360"/>
+    <mergeCell ref="C361:D361"/>
+    <mergeCell ref="C362:D362"/>
+    <mergeCell ref="C363:D363"/>
+    <mergeCell ref="C364:D364"/>
+    <mergeCell ref="C365:D365"/>
+    <mergeCell ref="C366:D366"/>
+    <mergeCell ref="C367:D367"/>
+    <mergeCell ref="C368:D368"/>
+    <mergeCell ref="C369:D369"/>
+    <mergeCell ref="C370:D370"/>
+    <mergeCell ref="C371:D371"/>
+    <mergeCell ref="C372:D372"/>
+    <mergeCell ref="C373:D373"/>
+    <mergeCell ref="C374:D374"/>
+    <mergeCell ref="C375:D375"/>
+    <mergeCell ref="C376:D376"/>
+    <mergeCell ref="C377:D377"/>
+    <mergeCell ref="C378:D378"/>
+    <mergeCell ref="C379:D379"/>
+    <mergeCell ref="C380:D380"/>
+    <mergeCell ref="C381:D381"/>
+    <mergeCell ref="C382:D382"/>
+    <mergeCell ref="C383:D383"/>
+    <mergeCell ref="C384:D384"/>
+    <mergeCell ref="C385:D385"/>
+    <mergeCell ref="C386:D386"/>
+    <mergeCell ref="C387:D387"/>
+    <mergeCell ref="C388:D388"/>
+    <mergeCell ref="C389:D389"/>
+    <mergeCell ref="C390:D390"/>
+    <mergeCell ref="C391:D391"/>
+    <mergeCell ref="C392:D392"/>
+    <mergeCell ref="C393:D393"/>
+    <mergeCell ref="C394:D394"/>
+    <mergeCell ref="C395:D395"/>
+    <mergeCell ref="C396:D396"/>
+    <mergeCell ref="C397:D397"/>
+    <mergeCell ref="C398:D398"/>
+    <mergeCell ref="C399:D399"/>
+    <mergeCell ref="C400:D400"/>
+    <mergeCell ref="C401:D401"/>
+    <mergeCell ref="C402:D402"/>
+    <mergeCell ref="C403:D403"/>
+    <mergeCell ref="C404:D404"/>
+    <mergeCell ref="C405:D405"/>
+    <mergeCell ref="C406:D406"/>
+    <mergeCell ref="C407:D407"/>
+    <mergeCell ref="C408:D408"/>
+    <mergeCell ref="C409:D409"/>
+    <mergeCell ref="C410:D410"/>
+    <mergeCell ref="C411:D411"/>
+    <mergeCell ref="C412:D412"/>
+    <mergeCell ref="C413:D413"/>
+    <mergeCell ref="C414:D414"/>
+    <mergeCell ref="C415:D415"/>
+    <mergeCell ref="C416:D416"/>
+    <mergeCell ref="C417:D417"/>
+    <mergeCell ref="C418:D418"/>
+    <mergeCell ref="C419:D419"/>
+    <mergeCell ref="C420:D420"/>
+    <mergeCell ref="C421:D421"/>
+    <mergeCell ref="C422:D422"/>
+    <mergeCell ref="C423:D423"/>
+    <mergeCell ref="C424:D424"/>
+    <mergeCell ref="C425:D425"/>
+    <mergeCell ref="C426:D426"/>
+    <mergeCell ref="C427:D427"/>
+    <mergeCell ref="C437:D437"/>
+    <mergeCell ref="C438:D438"/>
+    <mergeCell ref="C439:D439"/>
+    <mergeCell ref="C440:D440"/>
+    <mergeCell ref="C441:D441"/>
+    <mergeCell ref="C428:D428"/>
+    <mergeCell ref="C429:D429"/>
+    <mergeCell ref="C430:D430"/>
+    <mergeCell ref="C431:D431"/>
+    <mergeCell ref="C432:D432"/>
+    <mergeCell ref="C433:D433"/>
+    <mergeCell ref="C434:D434"/>
+    <mergeCell ref="C435:D435"/>
+    <mergeCell ref="C436:D436"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17628,8 +18207,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J257"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A198" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E212" sqref="E212:E213"/>
+    <sheetView tabSelected="1" topLeftCell="E121" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I150" sqref="I150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -17647,17 +18226,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="34" t="s">
         <v>184</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32" t="s">
+      <c r="B1" s="34"/>
+      <c r="C1" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="D1" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="32"/>
+      <c r="E1" s="34"/>
       <c r="F1" s="11" t="s">
         <v>3</v>
       </c>
@@ -17666,11 +18245,11 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A2" s="32"/>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
+      <c r="A2" s="34"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
       <c r="F2" s="11" t="s">
         <v>4</v>
       </c>
@@ -17688,10 +18267,10 @@
       <c r="B4" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="33" t="s">
+      <c r="C4" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="33"/>
+      <c r="D4" s="35"/>
       <c r="E4" s="14" t="s">
         <v>11</v>
       </c>
@@ -17772,7 +18351,7 @@
       <c r="B7" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="C7" s="29" t="s">
+      <c r="C7" s="31" t="s">
         <v>20</v>
       </c>
       <c r="D7" s="30"/>
@@ -17799,7 +18378,7 @@
       <c r="B8" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="C8" s="29" t="s">
+      <c r="C8" s="31" t="s">
         <v>19</v>
       </c>
       <c r="D8" s="30"/>
@@ -17826,7 +18405,7 @@
       <c r="B9" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="C9" s="29" t="s">
+      <c r="C9" s="31" t="s">
         <v>22</v>
       </c>
       <c r="D9" s="30"/>
@@ -17853,7 +18432,7 @@
       <c r="B10" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="C10" s="29" t="s">
+      <c r="C10" s="31" t="s">
         <v>23</v>
       </c>
       <c r="D10" s="30"/>
@@ -17880,7 +18459,7 @@
       <c r="B11" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="C11" s="29" t="s">
+      <c r="C11" s="31" t="s">
         <v>24</v>
       </c>
       <c r="D11" s="30"/>
@@ -17907,7 +18486,7 @@
       <c r="B12" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="C12" s="29" t="s">
+      <c r="C12" s="31" t="s">
         <v>25</v>
       </c>
       <c r="D12" s="30"/>
@@ -17934,7 +18513,7 @@
       <c r="B13" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="C13" s="29" t="s">
+      <c r="C13" s="31" t="s">
         <v>29</v>
       </c>
       <c r="D13" s="30"/>
@@ -17961,7 +18540,7 @@
       <c r="B14" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="C14" s="29" t="s">
+      <c r="C14" s="31" t="s">
         <v>32</v>
       </c>
       <c r="D14" s="30"/>
@@ -17988,7 +18567,7 @@
       <c r="B15" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="C15" s="29" t="s">
+      <c r="C15" s="31" t="s">
         <v>127</v>
       </c>
       <c r="D15" s="30"/>
@@ -18015,10 +18594,10 @@
       <c r="B16" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="C16" s="29" t="s">
+      <c r="C16" s="31" t="s">
         <v>128</v>
       </c>
-      <c r="D16" s="29"/>
+      <c r="D16" s="31"/>
       <c r="E16" s="10" t="s">
         <v>194</v>
       </c>
@@ -18042,7 +18621,7 @@
       <c r="B17" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="C17" s="29" t="s">
+      <c r="C17" s="31" t="s">
         <v>125</v>
       </c>
       <c r="D17" s="30"/>
@@ -18069,7 +18648,7 @@
       <c r="B18" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="C18" s="29" t="s">
+      <c r="C18" s="31" t="s">
         <v>42</v>
       </c>
       <c r="D18" s="30"/>
@@ -18096,7 +18675,7 @@
       <c r="B19" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="C19" s="29" t="s">
+      <c r="C19" s="31" t="s">
         <v>43</v>
       </c>
       <c r="D19" s="30"/>
@@ -18123,7 +18702,7 @@
       <c r="B20" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="C20" s="29" t="s">
+      <c r="C20" s="31" t="s">
         <v>44</v>
       </c>
       <c r="D20" s="30"/>
@@ -18150,7 +18729,7 @@
       <c r="B21" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="C21" s="29" t="s">
+      <c r="C21" s="31" t="s">
         <v>148</v>
       </c>
       <c r="D21" s="30"/>
@@ -18177,10 +18756,10 @@
       <c r="B22" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="C22" s="29" t="s">
+      <c r="C22" s="31" t="s">
         <v>141</v>
       </c>
-      <c r="D22" s="29"/>
+      <c r="D22" s="31"/>
       <c r="E22" s="10" t="s">
         <v>195</v>
       </c>
@@ -18204,7 +18783,7 @@
       <c r="B23" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="C23" s="29" t="s">
+      <c r="C23" s="31" t="s">
         <v>45</v>
       </c>
       <c r="D23" s="30"/>
@@ -18231,7 +18810,7 @@
       <c r="B24" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="C24" s="29" t="s">
+      <c r="C24" s="31" t="s">
         <v>46</v>
       </c>
       <c r="D24" s="30"/>
@@ -18258,7 +18837,7 @@
       <c r="B25" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="C25" s="29" t="s">
+      <c r="C25" s="31" t="s">
         <v>47</v>
       </c>
       <c r="D25" s="30"/>
@@ -18285,7 +18864,7 @@
       <c r="B26" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="C26" s="29" t="s">
+      <c r="C26" s="31" t="s">
         <v>149</v>
       </c>
       <c r="D26" s="30"/>
@@ -18312,10 +18891,10 @@
       <c r="B27" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="C27" s="29" t="s">
+      <c r="C27" s="31" t="s">
         <v>142</v>
       </c>
-      <c r="D27" s="29"/>
+      <c r="D27" s="31"/>
       <c r="E27" s="10" t="s">
         <v>196</v>
       </c>
@@ -18339,7 +18918,7 @@
       <c r="B28" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="C28" s="29" t="s">
+      <c r="C28" s="31" t="s">
         <v>48</v>
       </c>
       <c r="D28" s="30"/>
@@ -18366,7 +18945,7 @@
       <c r="B29" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="C29" s="29" t="s">
+      <c r="C29" s="31" t="s">
         <v>172</v>
       </c>
       <c r="D29" s="30"/>
@@ -18396,7 +18975,7 @@
       <c r="B30" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="C30" s="29" t="s">
+      <c r="C30" s="31" t="s">
         <v>173</v>
       </c>
       <c r="D30" s="30"/>
@@ -18426,7 +19005,7 @@
       <c r="B31" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="C31" s="29" t="s">
+      <c r="C31" s="31" t="s">
         <v>143</v>
       </c>
       <c r="D31" s="30"/>
@@ -18453,7 +19032,7 @@
       <c r="B32" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="C32" s="29" t="s">
+      <c r="C32" s="31" t="s">
         <v>144</v>
       </c>
       <c r="D32" s="30"/>
@@ -19479,7 +20058,7 @@
       <c r="B70" s="25" t="s">
         <v>321</v>
       </c>
-      <c r="C70" s="29" t="s">
+      <c r="C70" s="31" t="s">
         <v>20</v>
       </c>
       <c r="D70" s="30"/>
@@ -19506,7 +20085,7 @@
       <c r="B71" s="25" t="s">
         <v>321</v>
       </c>
-      <c r="C71" s="29" t="s">
+      <c r="C71" s="31" t="s">
         <v>19</v>
       </c>
       <c r="D71" s="30"/>
@@ -19533,7 +20112,7 @@
       <c r="B72" s="25" t="s">
         <v>321</v>
       </c>
-      <c r="C72" s="29" t="s">
+      <c r="C72" s="31" t="s">
         <v>22</v>
       </c>
       <c r="D72" s="30"/>
@@ -19560,7 +20139,7 @@
       <c r="B73" s="25" t="s">
         <v>321</v>
       </c>
-      <c r="C73" s="29" t="s">
+      <c r="C73" s="31" t="s">
         <v>23</v>
       </c>
       <c r="D73" s="30"/>
@@ -19587,7 +20166,7 @@
       <c r="B74" s="25" t="s">
         <v>321</v>
       </c>
-      <c r="C74" s="29" t="s">
+      <c r="C74" s="31" t="s">
         <v>24</v>
       </c>
       <c r="D74" s="30"/>
@@ -19614,7 +20193,7 @@
       <c r="B75" s="25" t="s">
         <v>321</v>
       </c>
-      <c r="C75" s="29" t="s">
+      <c r="C75" s="31" t="s">
         <v>25</v>
       </c>
       <c r="D75" s="30"/>
@@ -19641,7 +20220,7 @@
       <c r="B76" s="25" t="s">
         <v>321</v>
       </c>
-      <c r="C76" s="29" t="s">
+      <c r="C76" s="31" t="s">
         <v>29</v>
       </c>
       <c r="D76" s="30"/>
@@ -19668,7 +20247,7 @@
       <c r="B77" s="25" t="s">
         <v>321</v>
       </c>
-      <c r="C77" s="29" t="s">
+      <c r="C77" s="31" t="s">
         <v>32</v>
       </c>
       <c r="D77" s="30"/>
@@ -19695,7 +20274,7 @@
       <c r="B78" s="25" t="s">
         <v>321</v>
       </c>
-      <c r="C78" s="29" t="s">
+      <c r="C78" s="31" t="s">
         <v>127</v>
       </c>
       <c r="D78" s="30"/>
@@ -19722,10 +20301,10 @@
       <c r="B79" s="25" t="s">
         <v>321</v>
       </c>
-      <c r="C79" s="29" t="s">
+      <c r="C79" s="31" t="s">
         <v>128</v>
       </c>
-      <c r="D79" s="29"/>
+      <c r="D79" s="31"/>
       <c r="E79" s="25" t="s">
         <v>330</v>
       </c>
@@ -19749,7 +20328,7 @@
       <c r="B80" s="25" t="s">
         <v>321</v>
       </c>
-      <c r="C80" s="29" t="s">
+      <c r="C80" s="31" t="s">
         <v>125</v>
       </c>
       <c r="D80" s="30"/>
@@ -19776,7 +20355,7 @@
       <c r="B81" s="25" t="s">
         <v>321</v>
       </c>
-      <c r="C81" s="29" t="s">
+      <c r="C81" s="31" t="s">
         <v>42</v>
       </c>
       <c r="D81" s="30"/>
@@ -19803,7 +20382,7 @@
       <c r="B82" s="25" t="s">
         <v>321</v>
       </c>
-      <c r="C82" s="29" t="s">
+      <c r="C82" s="31" t="s">
         <v>43</v>
       </c>
       <c r="D82" s="30"/>
@@ -19830,7 +20409,7 @@
       <c r="B83" s="25" t="s">
         <v>321</v>
       </c>
-      <c r="C83" s="29" t="s">
+      <c r="C83" s="31" t="s">
         <v>44</v>
       </c>
       <c r="D83" s="30"/>
@@ -19857,7 +20436,7 @@
       <c r="B84" s="25" t="s">
         <v>321</v>
       </c>
-      <c r="C84" s="29" t="s">
+      <c r="C84" s="31" t="s">
         <v>148</v>
       </c>
       <c r="D84" s="30"/>
@@ -19884,10 +20463,10 @@
       <c r="B85" s="25" t="s">
         <v>321</v>
       </c>
-      <c r="C85" s="29" t="s">
+      <c r="C85" s="31" t="s">
         <v>141</v>
       </c>
-      <c r="D85" s="29"/>
+      <c r="D85" s="31"/>
       <c r="E85" s="25" t="s">
         <v>332</v>
       </c>
@@ -19911,7 +20490,7 @@
       <c r="B86" s="25" t="s">
         <v>321</v>
       </c>
-      <c r="C86" s="29" t="s">
+      <c r="C86" s="31" t="s">
         <v>45</v>
       </c>
       <c r="D86" s="30"/>
@@ -19938,7 +20517,7 @@
       <c r="B87" s="25" t="s">
         <v>321</v>
       </c>
-      <c r="C87" s="29" t="s">
+      <c r="C87" s="31" t="s">
         <v>46</v>
       </c>
       <c r="D87" s="30"/>
@@ -19965,7 +20544,7 @@
       <c r="B88" s="25" t="s">
         <v>321</v>
       </c>
-      <c r="C88" s="29" t="s">
+      <c r="C88" s="31" t="s">
         <v>47</v>
       </c>
       <c r="D88" s="30"/>
@@ -19992,7 +20571,7 @@
       <c r="B89" s="25" t="s">
         <v>321</v>
       </c>
-      <c r="C89" s="29" t="s">
+      <c r="C89" s="31" t="s">
         <v>149</v>
       </c>
       <c r="D89" s="30"/>
@@ -20019,10 +20598,10 @@
       <c r="B90" s="25" t="s">
         <v>321</v>
       </c>
-      <c r="C90" s="29" t="s">
+      <c r="C90" s="31" t="s">
         <v>142</v>
       </c>
-      <c r="D90" s="29"/>
+      <c r="D90" s="31"/>
       <c r="E90" s="25" t="s">
         <v>333</v>
       </c>
@@ -20046,7 +20625,7 @@
       <c r="B91" s="25" t="s">
         <v>321</v>
       </c>
-      <c r="C91" s="29" t="s">
+      <c r="C91" s="31" t="s">
         <v>48</v>
       </c>
       <c r="D91" s="30"/>
@@ -20073,7 +20652,7 @@
       <c r="B92" s="25" t="s">
         <v>321</v>
       </c>
-      <c r="C92" s="29" t="s">
+      <c r="C92" s="31" t="s">
         <v>172</v>
       </c>
       <c r="D92" s="30"/>
@@ -20100,7 +20679,7 @@
       <c r="B93" s="25" t="s">
         <v>321</v>
       </c>
-      <c r="C93" s="29" t="s">
+      <c r="C93" s="31" t="s">
         <v>173</v>
       </c>
       <c r="D93" s="30"/>
@@ -20127,7 +20706,7 @@
       <c r="B94" s="25" t="s">
         <v>321</v>
       </c>
-      <c r="C94" s="29" t="s">
+      <c r="C94" s="31" t="s">
         <v>143</v>
       </c>
       <c r="D94" s="30"/>
@@ -20154,7 +20733,7 @@
       <c r="B95" s="25" t="s">
         <v>321</v>
       </c>
-      <c r="C95" s="29" t="s">
+      <c r="C95" s="31" t="s">
         <v>144</v>
       </c>
       <c r="D95" s="30"/>
@@ -21646,6 +22225,18 @@
       <c r="E150" s="10" t="s">
         <v>444</v>
       </c>
+      <c r="F150" s="29" t="s">
+        <v>242</v>
+      </c>
+      <c r="G150" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="H150" s="29">
+        <v>20240411</v>
+      </c>
+      <c r="J150" s="29" t="s">
+        <v>241</v>
+      </c>
     </row>
     <row r="151" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A151" s="3">
@@ -21661,6 +22252,18 @@
       <c r="E151" s="28" t="s">
         <v>444</v>
       </c>
+      <c r="F151" s="29" t="s">
+        <v>242</v>
+      </c>
+      <c r="G151" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="H151" s="29">
+        <v>20240411</v>
+      </c>
+      <c r="J151" s="29" t="s">
+        <v>241</v>
+      </c>
     </row>
     <row r="152" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A152" s="3">
@@ -21676,6 +22279,18 @@
       <c r="E152" s="28" t="s">
         <v>444</v>
       </c>
+      <c r="F152" s="29" t="s">
+        <v>242</v>
+      </c>
+      <c r="G152" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="H152" s="29">
+        <v>20240411</v>
+      </c>
+      <c r="J152" s="29" t="s">
+        <v>241</v>
+      </c>
     </row>
     <row r="153" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A153" s="3">
@@ -21691,6 +22306,18 @@
       <c r="E153" s="28" t="s">
         <v>444</v>
       </c>
+      <c r="F153" s="29" t="s">
+        <v>242</v>
+      </c>
+      <c r="G153" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="H153" s="29">
+        <v>20240411</v>
+      </c>
+      <c r="J153" s="29" t="s">
+        <v>241</v>
+      </c>
     </row>
     <row r="154" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A154" s="3">
@@ -21706,6 +22333,18 @@
       <c r="E154" s="28" t="s">
         <v>444</v>
       </c>
+      <c r="F154" s="29" t="s">
+        <v>242</v>
+      </c>
+      <c r="G154" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="H154" s="29">
+        <v>20240411</v>
+      </c>
+      <c r="J154" s="29" t="s">
+        <v>241</v>
+      </c>
     </row>
     <row r="155" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A155" s="3">
@@ -21721,6 +22360,18 @@
       <c r="E155" s="28" t="s">
         <v>444</v>
       </c>
+      <c r="F155" s="29" t="s">
+        <v>242</v>
+      </c>
+      <c r="G155" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="H155" s="29">
+        <v>20240411</v>
+      </c>
+      <c r="J155" s="29" t="s">
+        <v>241</v>
+      </c>
     </row>
     <row r="156" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A156" s="3">
@@ -21736,6 +22387,18 @@
       <c r="E156" s="28" t="s">
         <v>444</v>
       </c>
+      <c r="F156" s="29" t="s">
+        <v>242</v>
+      </c>
+      <c r="G156" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="H156" s="29">
+        <v>20240411</v>
+      </c>
+      <c r="J156" s="29" t="s">
+        <v>241</v>
+      </c>
     </row>
     <row r="157" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A157" s="3">
@@ -21751,6 +22414,18 @@
       <c r="E157" s="28" t="s">
         <v>444</v>
       </c>
+      <c r="F157" s="29" t="s">
+        <v>242</v>
+      </c>
+      <c r="G157" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="H157" s="29">
+        <v>20240411</v>
+      </c>
+      <c r="J157" s="29" t="s">
+        <v>241</v>
+      </c>
     </row>
     <row r="158" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A158" s="3">
@@ -21766,6 +22441,18 @@
       <c r="E158" s="28" t="s">
         <v>444</v>
       </c>
+      <c r="F158" s="29" t="s">
+        <v>242</v>
+      </c>
+      <c r="G158" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="H158" s="29">
+        <v>20240411</v>
+      </c>
+      <c r="J158" s="29" t="s">
+        <v>241</v>
+      </c>
     </row>
     <row r="159" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A159" s="3">
@@ -21781,6 +22468,18 @@
       <c r="E159" s="28" t="s">
         <v>444</v>
       </c>
+      <c r="F159" s="29" t="s">
+        <v>242</v>
+      </c>
+      <c r="G159" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="H159" s="29">
+        <v>20240411</v>
+      </c>
+      <c r="J159" s="29" t="s">
+        <v>241</v>
+      </c>
     </row>
     <row r="160" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A160" s="3">
@@ -21796,8 +22495,20 @@
       <c r="E160" s="28" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="161" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F160" s="29" t="s">
+        <v>242</v>
+      </c>
+      <c r="G160" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="H160" s="29">
+        <v>20240411</v>
+      </c>
+      <c r="J160" s="29" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A161" s="3">
         <v>158</v>
       </c>
@@ -21811,8 +22522,20 @@
       <c r="E161" s="28" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="162" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F161" s="29" t="s">
+        <v>242</v>
+      </c>
+      <c r="G161" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="H161" s="29">
+        <v>20240411</v>
+      </c>
+      <c r="J161" s="29" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A162" s="3">
         <v>159</v>
       </c>
@@ -21826,8 +22549,20 @@
       <c r="E162" s="28" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="163" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F162" s="29" t="s">
+        <v>242</v>
+      </c>
+      <c r="G162" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="H162" s="29">
+        <v>20240411</v>
+      </c>
+      <c r="J162" s="29" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A163" s="3">
         <v>160</v>
       </c>
@@ -21841,8 +22576,20 @@
       <c r="E163" s="28" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="164" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F163" s="29" t="s">
+        <v>242</v>
+      </c>
+      <c r="G163" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="H163" s="29">
+        <v>20240411</v>
+      </c>
+      <c r="J163" s="29" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A164" s="3">
         <v>161</v>
       </c>
@@ -21856,8 +22603,20 @@
       <c r="E164" s="28" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="165" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F164" s="29" t="s">
+        <v>242</v>
+      </c>
+      <c r="G164" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="H164" s="29">
+        <v>20240411</v>
+      </c>
+      <c r="J164" s="29" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A165" s="3">
         <v>162</v>
       </c>
@@ -21871,8 +22630,20 @@
       <c r="E165" s="28" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="166" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F165" s="29" t="s">
+        <v>242</v>
+      </c>
+      <c r="G165" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="H165" s="29">
+        <v>20240411</v>
+      </c>
+      <c r="J165" s="29" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A166" s="3">
         <v>163</v>
       </c>
@@ -21886,8 +22657,20 @@
       <c r="E166" s="28" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="167" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F166" s="29" t="s">
+        <v>242</v>
+      </c>
+      <c r="G166" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="H166" s="29">
+        <v>20240411</v>
+      </c>
+      <c r="J166" s="29" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A167" s="3">
         <v>164</v>
       </c>
@@ -21901,8 +22684,20 @@
       <c r="E167" s="28" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="168" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F167" s="29" t="s">
+        <v>242</v>
+      </c>
+      <c r="G167" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="H167" s="29">
+        <v>20240411</v>
+      </c>
+      <c r="J167" s="29" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A168" s="3">
         <v>165</v>
       </c>
@@ -21916,8 +22711,20 @@
       <c r="E168" s="28" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="169" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F168" s="29" t="s">
+        <v>242</v>
+      </c>
+      <c r="G168" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="H168" s="29">
+        <v>20240411</v>
+      </c>
+      <c r="J168" s="29" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A169" s="3">
         <v>166</v>
       </c>
@@ -21931,8 +22738,20 @@
       <c r="E169" s="28" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="170" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F169" s="29" t="s">
+        <v>242</v>
+      </c>
+      <c r="G169" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="H169" s="29">
+        <v>20240411</v>
+      </c>
+      <c r="J169" s="29" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A170" s="3">
         <v>167</v>
       </c>
@@ -21946,8 +22765,20 @@
       <c r="E170" s="28" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="171" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F170" s="29" t="s">
+        <v>242</v>
+      </c>
+      <c r="G170" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="H170" s="29">
+        <v>20240411</v>
+      </c>
+      <c r="J170" s="29" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A171" s="3">
         <v>168</v>
       </c>
@@ -21961,8 +22792,20 @@
       <c r="E171" s="28" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="172" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F171" s="29" t="s">
+        <v>242</v>
+      </c>
+      <c r="G171" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="H171" s="29">
+        <v>20240411</v>
+      </c>
+      <c r="J171" s="29" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A172" s="3">
         <v>169</v>
       </c>
@@ -21976,8 +22819,20 @@
       <c r="E172" s="28" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="173" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F172" s="29" t="s">
+        <v>242</v>
+      </c>
+      <c r="G172" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="H172" s="29">
+        <v>20240411</v>
+      </c>
+      <c r="J172" s="29" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A173" s="3">
         <v>170</v>
       </c>
@@ -21991,8 +22846,20 @@
       <c r="E173" s="28" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="174" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F173" s="29" t="s">
+        <v>242</v>
+      </c>
+      <c r="G173" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="H173" s="29">
+        <v>20240411</v>
+      </c>
+      <c r="J173" s="29" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A174" s="3">
         <v>171</v>
       </c>
@@ -22006,8 +22873,20 @@
       <c r="E174" s="28" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="175" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F174" s="29" t="s">
+        <v>242</v>
+      </c>
+      <c r="G174" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="H174" s="29">
+        <v>20240411</v>
+      </c>
+      <c r="J174" s="29" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A175" s="3">
         <v>172</v>
       </c>
@@ -22021,8 +22900,20 @@
       <c r="E175" s="28" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="176" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F175" s="29" t="s">
+        <v>242</v>
+      </c>
+      <c r="G175" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="H175" s="29">
+        <v>20240411</v>
+      </c>
+      <c r="J175" s="29" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A176" s="3">
         <v>173</v>
       </c>
@@ -22036,8 +22927,20 @@
       <c r="E176" s="28" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="177" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F176" s="29" t="s">
+        <v>242</v>
+      </c>
+      <c r="G176" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="H176" s="29">
+        <v>20240411</v>
+      </c>
+      <c r="J176" s="29" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A177" s="3">
         <v>174</v>
       </c>
@@ -22051,8 +22954,20 @@
       <c r="E177" s="28" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="178" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F177" s="29" t="s">
+        <v>242</v>
+      </c>
+      <c r="G177" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="H177" s="29">
+        <v>20240411</v>
+      </c>
+      <c r="J177" s="29" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A178" s="3">
         <v>175</v>
       </c>
@@ -22066,8 +22981,20 @@
       <c r="E178" s="28" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="179" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F178" s="29" t="s">
+        <v>242</v>
+      </c>
+      <c r="G178" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="H178" s="29">
+        <v>20240411</v>
+      </c>
+      <c r="J178" s="29" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A179" s="3">
         <v>176</v>
       </c>
@@ -22081,8 +23008,20 @@
       <c r="E179" s="28" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="180" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F179" s="29" t="s">
+        <v>242</v>
+      </c>
+      <c r="G179" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="H179" s="29">
+        <v>20240411</v>
+      </c>
+      <c r="J179" s="29" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A180" s="3">
         <v>177</v>
       </c>
@@ -22096,8 +23035,20 @@
       <c r="E180" s="10" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="181" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F180" s="29" t="s">
+        <v>242</v>
+      </c>
+      <c r="G180" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="H180" s="29">
+        <v>20240411</v>
+      </c>
+      <c r="J180" s="29" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A181" s="3">
         <v>178</v>
       </c>
@@ -22111,8 +23062,20 @@
       <c r="E181" s="28" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="182" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F181" s="29" t="s">
+        <v>242</v>
+      </c>
+      <c r="G181" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="H181" s="29">
+        <v>20240411</v>
+      </c>
+      <c r="J181" s="29" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A182" s="3">
         <v>179</v>
       </c>
@@ -22126,8 +23089,20 @@
       <c r="E182" s="28" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="183" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F182" s="29" t="s">
+        <v>242</v>
+      </c>
+      <c r="G182" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="H182" s="29">
+        <v>20240411</v>
+      </c>
+      <c r="J182" s="29" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A183" s="3">
         <v>180</v>
       </c>
@@ -22141,8 +23116,20 @@
       <c r="E183" s="28" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="184" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F183" s="29" t="s">
+        <v>242</v>
+      </c>
+      <c r="G183" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="H183" s="29">
+        <v>20240411</v>
+      </c>
+      <c r="J183" s="29" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A184" s="3">
         <v>181</v>
       </c>
@@ -22156,8 +23143,20 @@
       <c r="E184" s="28" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="185" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F184" s="29" t="s">
+        <v>242</v>
+      </c>
+      <c r="G184" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="H184" s="29">
+        <v>20240411</v>
+      </c>
+      <c r="J184" s="29" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A185" s="3">
         <v>182</v>
       </c>
@@ -22171,8 +23170,20 @@
       <c r="E185" s="28" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="186" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F185" s="29" t="s">
+        <v>242</v>
+      </c>
+      <c r="G185" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="H185" s="29">
+        <v>20240411</v>
+      </c>
+      <c r="J185" s="29" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A186" s="3">
         <v>183</v>
       </c>
@@ -22186,8 +23197,20 @@
       <c r="E186" s="28" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="187" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F186" s="29" t="s">
+        <v>242</v>
+      </c>
+      <c r="G186" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="H186" s="29">
+        <v>20240411</v>
+      </c>
+      <c r="J186" s="29" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A187" s="3">
         <v>184</v>
       </c>
@@ -22201,8 +23224,20 @@
       <c r="E187" s="28" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="188" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F187" s="29" t="s">
+        <v>242</v>
+      </c>
+      <c r="G187" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="H187" s="29">
+        <v>20240411</v>
+      </c>
+      <c r="J187" s="29" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A188" s="3">
         <v>185</v>
       </c>
@@ -22216,8 +23251,20 @@
       <c r="E188" s="28" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="189" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F188" s="29" t="s">
+        <v>242</v>
+      </c>
+      <c r="G188" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="H188" s="29">
+        <v>20240411</v>
+      </c>
+      <c r="J188" s="29" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A189" s="3">
         <v>186</v>
       </c>
@@ -22231,8 +23278,20 @@
       <c r="E189" s="28" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="190" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F189" s="29" t="s">
+        <v>242</v>
+      </c>
+      <c r="G189" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="H189" s="29">
+        <v>20240411</v>
+      </c>
+      <c r="J189" s="29" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A190" s="3">
         <v>187</v>
       </c>
@@ -22246,8 +23305,20 @@
       <c r="E190" s="28" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="191" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F190" s="29" t="s">
+        <v>242</v>
+      </c>
+      <c r="G190" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="H190" s="29">
+        <v>20240411</v>
+      </c>
+      <c r="J190" s="29" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A191" s="3">
         <v>188</v>
       </c>
@@ -22261,8 +23332,20 @@
       <c r="E191" s="28" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="192" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F191" s="29" t="s">
+        <v>242</v>
+      </c>
+      <c r="G191" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="H191" s="29">
+        <v>20240411</v>
+      </c>
+      <c r="J191" s="29" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A192" s="3">
         <v>189</v>
       </c>
@@ -22276,8 +23359,20 @@
       <c r="E192" s="28" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="193" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F192" s="29" t="s">
+        <v>242</v>
+      </c>
+      <c r="G192" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="H192" s="29">
+        <v>20240411</v>
+      </c>
+      <c r="J192" s="29" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A193" s="3">
         <v>190</v>
       </c>
@@ -22291,8 +23386,20 @@
       <c r="E193" s="28" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="194" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F193" s="29" t="s">
+        <v>242</v>
+      </c>
+      <c r="G193" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="H193" s="29">
+        <v>20240411</v>
+      </c>
+      <c r="J193" s="29" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A194" s="3">
         <v>191</v>
       </c>
@@ -22306,8 +23413,20 @@
       <c r="E194" s="28" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="195" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F194" s="29" t="s">
+        <v>242</v>
+      </c>
+      <c r="G194" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="H194" s="29">
+        <v>20240411</v>
+      </c>
+      <c r="J194" s="29" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A195" s="3">
         <v>192</v>
       </c>
@@ -22321,8 +23440,20 @@
       <c r="E195" s="28" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="196" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F195" s="29" t="s">
+        <v>242</v>
+      </c>
+      <c r="G195" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="H195" s="29">
+        <v>20240411</v>
+      </c>
+      <c r="J195" s="29" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A196" s="3">
         <v>193</v>
       </c>
@@ -22336,8 +23467,20 @@
       <c r="E196" s="28" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="197" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F196" s="29" t="s">
+        <v>242</v>
+      </c>
+      <c r="G196" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="H196" s="29">
+        <v>20240411</v>
+      </c>
+      <c r="J196" s="29" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A197" s="3">
         <v>194</v>
       </c>
@@ -22351,8 +23494,20 @@
       <c r="E197" s="28" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="198" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F197" s="29" t="s">
+        <v>242</v>
+      </c>
+      <c r="G197" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="H197" s="29">
+        <v>20240411</v>
+      </c>
+      <c r="J197" s="29" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A198" s="3">
         <v>195</v>
       </c>
@@ -22366,8 +23521,20 @@
       <c r="E198" s="28" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="199" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F198" s="29" t="s">
+        <v>242</v>
+      </c>
+      <c r="G198" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="H198" s="29">
+        <v>20240411</v>
+      </c>
+      <c r="J198" s="29" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A199" s="3">
         <v>196</v>
       </c>
@@ -22381,8 +23548,20 @@
       <c r="E199" s="28" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="200" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F199" s="29" t="s">
+        <v>242</v>
+      </c>
+      <c r="G199" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="H199" s="29">
+        <v>20240411</v>
+      </c>
+      <c r="J199" s="29" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A200" s="3">
         <v>197</v>
       </c>
@@ -22396,8 +23575,20 @@
       <c r="E200" s="28" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="201" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F200" s="29" t="s">
+        <v>242</v>
+      </c>
+      <c r="G200" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="H200" s="29">
+        <v>20240411</v>
+      </c>
+      <c r="J200" s="29" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A201" s="3">
         <v>198</v>
       </c>
@@ -22411,8 +23602,20 @@
       <c r="E201" s="28" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="202" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F201" s="29" t="s">
+        <v>242</v>
+      </c>
+      <c r="G201" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="H201" s="29">
+        <v>20240411</v>
+      </c>
+      <c r="J201" s="29" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="202" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A202" s="3">
         <v>199</v>
       </c>
@@ -22426,8 +23629,20 @@
       <c r="E202" s="28" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="203" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F202" s="29" t="s">
+        <v>242</v>
+      </c>
+      <c r="G202" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="H202" s="29">
+        <v>20240411</v>
+      </c>
+      <c r="J202" s="29" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="203" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A203" s="3">
         <v>200</v>
       </c>
@@ -22441,8 +23656,20 @@
       <c r="E203" s="28" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="204" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F203" s="29" t="s">
+        <v>242</v>
+      </c>
+      <c r="G203" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="H203" s="29">
+        <v>20240411</v>
+      </c>
+      <c r="J203" s="29" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="204" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A204" s="3">
         <v>201</v>
       </c>
@@ -22456,8 +23683,20 @@
       <c r="E204" s="28" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="205" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F204" s="29" t="s">
+        <v>242</v>
+      </c>
+      <c r="G204" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="H204" s="29">
+        <v>20240411</v>
+      </c>
+      <c r="J204" s="29" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A205" s="3">
         <v>202</v>
       </c>
@@ -22471,8 +23710,20 @@
       <c r="E205" s="28" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="206" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F205" s="29" t="s">
+        <v>242</v>
+      </c>
+      <c r="G205" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="H205" s="29">
+        <v>20240411</v>
+      </c>
+      <c r="J205" s="29" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="206" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A206" s="3">
         <v>203</v>
       </c>
@@ -22486,98 +23737,182 @@
       <c r="E206" s="28" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="207" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F206" s="29" t="s">
+        <v>242</v>
+      </c>
+      <c r="G206" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="H206" s="29">
+        <v>20240411</v>
+      </c>
+      <c r="J206" s="29" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="207" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A207" s="3">
         <v>204</v>
       </c>
       <c r="B207" s="28" t="s">
         <v>399</v>
       </c>
-      <c r="C207" s="29" t="s">
+      <c r="C207" s="31" t="s">
         <v>438</v>
       </c>
       <c r="D207" s="30"/>
       <c r="E207" s="28" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="208" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F207" s="29" t="s">
+        <v>242</v>
+      </c>
+      <c r="G207" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="H207" s="29">
+        <v>20240411</v>
+      </c>
+      <c r="J207" s="29" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="208" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A208" s="3">
         <v>205</v>
       </c>
       <c r="B208" s="28" t="s">
         <v>399</v>
       </c>
-      <c r="C208" s="29" t="s">
+      <c r="C208" s="31" t="s">
         <v>437</v>
       </c>
       <c r="D208" s="30"/>
       <c r="E208" s="28" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="209" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F208" s="29" t="s">
+        <v>242</v>
+      </c>
+      <c r="G208" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="H208" s="29">
+        <v>20240411</v>
+      </c>
+      <c r="J208" s="29" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="209" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A209" s="3">
         <v>206</v>
       </c>
       <c r="B209" s="28" t="s">
         <v>399</v>
       </c>
-      <c r="C209" s="29" t="s">
+      <c r="C209" s="31" t="s">
         <v>439</v>
       </c>
       <c r="D209" s="30"/>
       <c r="E209" s="28" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="210" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F209" s="29" t="s">
+        <v>242</v>
+      </c>
+      <c r="G209" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="H209" s="29">
+        <v>20240411</v>
+      </c>
+      <c r="J209" s="29" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="210" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A210" s="3">
         <v>207</v>
       </c>
       <c r="B210" s="28" t="s">
         <v>399</v>
       </c>
-      <c r="C210" s="29" t="s">
+      <c r="C210" s="31" t="s">
         <v>440</v>
       </c>
       <c r="D210" s="30"/>
       <c r="E210" s="28" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="211" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F210" s="29" t="s">
+        <v>242</v>
+      </c>
+      <c r="G210" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="H210" s="29">
+        <v>20240411</v>
+      </c>
+      <c r="J210" s="29" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="211" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A211" s="3">
         <v>208</v>
       </c>
       <c r="B211" s="28" t="s">
         <v>399</v>
       </c>
-      <c r="C211" s="29" t="s">
+      <c r="C211" s="31" t="s">
         <v>441</v>
       </c>
       <c r="D211" s="30"/>
       <c r="E211" s="28" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="212" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F211" s="29" t="s">
+        <v>242</v>
+      </c>
+      <c r="G211" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="H211" s="29">
+        <v>20240411</v>
+      </c>
+      <c r="J211" s="29" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="212" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A212" s="3">
         <v>209</v>
       </c>
       <c r="B212" s="28" t="s">
         <v>399</v>
       </c>
-      <c r="C212" s="29" t="s">
+      <c r="C212" s="31" t="s">
         <v>442</v>
       </c>
       <c r="D212" s="30"/>
       <c r="E212" s="28" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="213" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F212" s="29" t="s">
+        <v>242</v>
+      </c>
+      <c r="G212" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="H212" s="29">
+        <v>20240411</v>
+      </c>
+      <c r="J212" s="29" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="213" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A213" s="3">
         <v>210</v>
       </c>
@@ -22591,78 +23926,90 @@
       <c r="E213" s="28" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="214" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F213" s="29" t="s">
+        <v>242</v>
+      </c>
+      <c r="G213" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="H213" s="29">
+        <v>20240411</v>
+      </c>
+      <c r="J213" s="29" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="214" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A214" s="3">
         <v>211</v>
       </c>
       <c r="C214" s="30"/>
       <c r="D214" s="30"/>
     </row>
-    <row r="215" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A215" s="3">
         <v>212</v>
       </c>
       <c r="C215" s="30"/>
       <c r="D215" s="30"/>
     </row>
-    <row r="216" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A216" s="3">
         <v>213</v>
       </c>
       <c r="C216" s="30"/>
       <c r="D216" s="30"/>
     </row>
-    <row r="217" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A217" s="3">
         <v>214</v>
       </c>
       <c r="C217" s="30"/>
       <c r="D217" s="30"/>
     </row>
-    <row r="218" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="218" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A218" s="3">
         <v>215</v>
       </c>
       <c r="C218" s="30"/>
       <c r="D218" s="30"/>
     </row>
-    <row r="219" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="219" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A219" s="3">
         <v>216</v>
       </c>
       <c r="C219" s="30"/>
       <c r="D219" s="30"/>
     </row>
-    <row r="220" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="220" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A220" s="3">
         <v>217</v>
       </c>
       <c r="C220" s="30"/>
       <c r="D220" s="30"/>
     </row>
-    <row r="221" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="221" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A221" s="3">
         <v>218</v>
       </c>
       <c r="C221" s="30"/>
       <c r="D221" s="30"/>
     </row>
-    <row r="222" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="222" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A222" s="3">
         <v>219</v>
       </c>
       <c r="C222" s="30"/>
       <c r="D222" s="30"/>
     </row>
-    <row r="223" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="223" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A223" s="3">
         <v>220</v>
       </c>
       <c r="C223" s="30"/>
       <c r="D223" s="30"/>
     </row>
-    <row r="224" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="224" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A224" s="3">
         <v>221</v>
       </c>
@@ -22839,122 +24186,123 @@
     </row>
   </sheetData>
   <mergeCells count="257">
-    <mergeCell ref="C241:D241"/>
-    <mergeCell ref="C242:D242"/>
-    <mergeCell ref="C243:D243"/>
-    <mergeCell ref="C244:D244"/>
-    <mergeCell ref="C245:D245"/>
-    <mergeCell ref="C246:D246"/>
-    <mergeCell ref="C256:D256"/>
-    <mergeCell ref="C257:D257"/>
-    <mergeCell ref="C247:D247"/>
-    <mergeCell ref="C248:D248"/>
-    <mergeCell ref="C249:D249"/>
-    <mergeCell ref="C250:D250"/>
-    <mergeCell ref="C251:D251"/>
-    <mergeCell ref="C252:D252"/>
-    <mergeCell ref="C253:D253"/>
-    <mergeCell ref="C254:D254"/>
-    <mergeCell ref="C255:D255"/>
-    <mergeCell ref="C232:D232"/>
-    <mergeCell ref="C233:D233"/>
-    <mergeCell ref="C234:D234"/>
-    <mergeCell ref="C235:D235"/>
-    <mergeCell ref="C236:D236"/>
-    <mergeCell ref="C237:D237"/>
-    <mergeCell ref="C238:D238"/>
-    <mergeCell ref="C239:D239"/>
-    <mergeCell ref="C240:D240"/>
-    <mergeCell ref="C223:D223"/>
-    <mergeCell ref="C224:D224"/>
-    <mergeCell ref="C225:D225"/>
-    <mergeCell ref="C226:D226"/>
-    <mergeCell ref="C227:D227"/>
-    <mergeCell ref="C228:D228"/>
-    <mergeCell ref="C229:D229"/>
-    <mergeCell ref="C230:D230"/>
-    <mergeCell ref="C231:D231"/>
-    <mergeCell ref="C214:D214"/>
-    <mergeCell ref="C215:D215"/>
-    <mergeCell ref="C216:D216"/>
-    <mergeCell ref="C217:D217"/>
-    <mergeCell ref="C218:D218"/>
-    <mergeCell ref="C219:D219"/>
-    <mergeCell ref="C220:D220"/>
-    <mergeCell ref="C221:D221"/>
-    <mergeCell ref="C222:D222"/>
-    <mergeCell ref="C205:D205"/>
-    <mergeCell ref="C206:D206"/>
-    <mergeCell ref="C207:D207"/>
-    <mergeCell ref="C208:D208"/>
-    <mergeCell ref="C209:D209"/>
-    <mergeCell ref="C210:D210"/>
-    <mergeCell ref="C211:D211"/>
-    <mergeCell ref="C212:D212"/>
-    <mergeCell ref="C213:D213"/>
-    <mergeCell ref="C196:D196"/>
-    <mergeCell ref="C197:D197"/>
-    <mergeCell ref="C198:D198"/>
-    <mergeCell ref="C199:D199"/>
-    <mergeCell ref="C200:D200"/>
-    <mergeCell ref="C201:D201"/>
-    <mergeCell ref="C202:D202"/>
-    <mergeCell ref="C203:D203"/>
-    <mergeCell ref="C204:D204"/>
-    <mergeCell ref="C187:D187"/>
-    <mergeCell ref="C188:D188"/>
-    <mergeCell ref="C189:D189"/>
-    <mergeCell ref="C190:D190"/>
-    <mergeCell ref="C191:D191"/>
-    <mergeCell ref="C192:D192"/>
-    <mergeCell ref="C193:D193"/>
-    <mergeCell ref="C194:D194"/>
-    <mergeCell ref="C195:D195"/>
-    <mergeCell ref="C178:D178"/>
-    <mergeCell ref="C179:D179"/>
-    <mergeCell ref="C180:D180"/>
-    <mergeCell ref="C181:D181"/>
-    <mergeCell ref="C182:D182"/>
-    <mergeCell ref="C183:D183"/>
-    <mergeCell ref="C184:D184"/>
-    <mergeCell ref="C185:D185"/>
-    <mergeCell ref="C186:D186"/>
-    <mergeCell ref="C169:D169"/>
-    <mergeCell ref="C170:D170"/>
-    <mergeCell ref="C171:D171"/>
-    <mergeCell ref="C172:D172"/>
-    <mergeCell ref="C173:D173"/>
-    <mergeCell ref="C174:D174"/>
-    <mergeCell ref="C175:D175"/>
-    <mergeCell ref="C176:D176"/>
-    <mergeCell ref="C177:D177"/>
-    <mergeCell ref="C160:D160"/>
-    <mergeCell ref="C161:D161"/>
-    <mergeCell ref="C162:D162"/>
-    <mergeCell ref="C163:D163"/>
-    <mergeCell ref="C164:D164"/>
-    <mergeCell ref="C165:D165"/>
-    <mergeCell ref="C166:D166"/>
-    <mergeCell ref="C167:D167"/>
-    <mergeCell ref="C168:D168"/>
-    <mergeCell ref="C151:D151"/>
-    <mergeCell ref="C152:D152"/>
-    <mergeCell ref="C153:D153"/>
-    <mergeCell ref="C154:D154"/>
-    <mergeCell ref="C155:D155"/>
-    <mergeCell ref="C156:D156"/>
-    <mergeCell ref="C157:D157"/>
-    <mergeCell ref="C158:D158"/>
-    <mergeCell ref="C159:D159"/>
-    <mergeCell ref="C142:D142"/>
-    <mergeCell ref="C143:D143"/>
-    <mergeCell ref="C144:D144"/>
-    <mergeCell ref="C145:D145"/>
-    <mergeCell ref="C146:D146"/>
-    <mergeCell ref="C147:D147"/>
-    <mergeCell ref="C148:D148"/>
-    <mergeCell ref="C149:D149"/>
-    <mergeCell ref="C150:D150"/>
+    <mergeCell ref="C138:D138"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C131:D131"/>
+    <mergeCell ref="C132:D132"/>
+    <mergeCell ref="C133:D133"/>
+    <mergeCell ref="C134:D134"/>
+    <mergeCell ref="C135:D135"/>
+    <mergeCell ref="C136:D136"/>
+    <mergeCell ref="C125:D125"/>
+    <mergeCell ref="C126:D126"/>
+    <mergeCell ref="C127:D127"/>
+    <mergeCell ref="C128:D128"/>
+    <mergeCell ref="C129:D129"/>
+    <mergeCell ref="C130:D130"/>
+    <mergeCell ref="C119:D119"/>
+    <mergeCell ref="C120:D120"/>
+    <mergeCell ref="C121:D121"/>
+    <mergeCell ref="C122:D122"/>
+    <mergeCell ref="C123:D123"/>
+    <mergeCell ref="C124:D124"/>
+    <mergeCell ref="C113:D113"/>
+    <mergeCell ref="C114:D114"/>
+    <mergeCell ref="C115:D115"/>
+    <mergeCell ref="C116:D116"/>
+    <mergeCell ref="C117:D117"/>
+    <mergeCell ref="C118:D118"/>
+    <mergeCell ref="C108:D108"/>
+    <mergeCell ref="C109:D109"/>
+    <mergeCell ref="C110:D110"/>
+    <mergeCell ref="C111:D111"/>
+    <mergeCell ref="C112:D112"/>
+    <mergeCell ref="C137:D137"/>
+    <mergeCell ref="C103:D103"/>
+    <mergeCell ref="C104:D104"/>
+    <mergeCell ref="C105:D105"/>
+    <mergeCell ref="C106:D106"/>
+    <mergeCell ref="C107:D107"/>
+    <mergeCell ref="C97:D97"/>
+    <mergeCell ref="C98:D98"/>
+    <mergeCell ref="C99:D99"/>
+    <mergeCell ref="C100:D100"/>
+    <mergeCell ref="C101:D101"/>
+    <mergeCell ref="C102:D102"/>
+    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="C90:D90"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C37:D37"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:E2"/>
@@ -22979,123 +24327,122 @@
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="C27:D27"/>
     <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="C89:D89"/>
-    <mergeCell ref="C90:D90"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="C97:D97"/>
-    <mergeCell ref="C98:D98"/>
-    <mergeCell ref="C99:D99"/>
-    <mergeCell ref="C100:D100"/>
-    <mergeCell ref="C101:D101"/>
-    <mergeCell ref="C102:D102"/>
-    <mergeCell ref="C91:D91"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="C96:D96"/>
-    <mergeCell ref="C117:D117"/>
-    <mergeCell ref="C118:D118"/>
-    <mergeCell ref="C108:D108"/>
-    <mergeCell ref="C109:D109"/>
-    <mergeCell ref="C110:D110"/>
-    <mergeCell ref="C111:D111"/>
-    <mergeCell ref="C112:D112"/>
-    <mergeCell ref="C137:D137"/>
-    <mergeCell ref="C103:D103"/>
-    <mergeCell ref="C104:D104"/>
-    <mergeCell ref="C105:D105"/>
-    <mergeCell ref="C106:D106"/>
-    <mergeCell ref="C107:D107"/>
-    <mergeCell ref="C138:D138"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C131:D131"/>
-    <mergeCell ref="C132:D132"/>
-    <mergeCell ref="C133:D133"/>
-    <mergeCell ref="C134:D134"/>
-    <mergeCell ref="C135:D135"/>
-    <mergeCell ref="C136:D136"/>
-    <mergeCell ref="C125:D125"/>
-    <mergeCell ref="C126:D126"/>
-    <mergeCell ref="C127:D127"/>
-    <mergeCell ref="C128:D128"/>
-    <mergeCell ref="C129:D129"/>
-    <mergeCell ref="C130:D130"/>
-    <mergeCell ref="C119:D119"/>
-    <mergeCell ref="C120:D120"/>
-    <mergeCell ref="C121:D121"/>
-    <mergeCell ref="C122:D122"/>
-    <mergeCell ref="C123:D123"/>
-    <mergeCell ref="C124:D124"/>
-    <mergeCell ref="C113:D113"/>
-    <mergeCell ref="C114:D114"/>
-    <mergeCell ref="C115:D115"/>
-    <mergeCell ref="C116:D116"/>
+    <mergeCell ref="C142:D142"/>
+    <mergeCell ref="C143:D143"/>
+    <mergeCell ref="C144:D144"/>
+    <mergeCell ref="C145:D145"/>
+    <mergeCell ref="C146:D146"/>
+    <mergeCell ref="C147:D147"/>
+    <mergeCell ref="C148:D148"/>
+    <mergeCell ref="C149:D149"/>
+    <mergeCell ref="C150:D150"/>
+    <mergeCell ref="C151:D151"/>
+    <mergeCell ref="C152:D152"/>
+    <mergeCell ref="C153:D153"/>
+    <mergeCell ref="C154:D154"/>
+    <mergeCell ref="C155:D155"/>
+    <mergeCell ref="C156:D156"/>
+    <mergeCell ref="C157:D157"/>
+    <mergeCell ref="C158:D158"/>
+    <mergeCell ref="C159:D159"/>
+    <mergeCell ref="C160:D160"/>
+    <mergeCell ref="C161:D161"/>
+    <mergeCell ref="C162:D162"/>
+    <mergeCell ref="C163:D163"/>
+    <mergeCell ref="C164:D164"/>
+    <mergeCell ref="C165:D165"/>
+    <mergeCell ref="C166:D166"/>
+    <mergeCell ref="C167:D167"/>
+    <mergeCell ref="C168:D168"/>
+    <mergeCell ref="C169:D169"/>
+    <mergeCell ref="C170:D170"/>
+    <mergeCell ref="C171:D171"/>
+    <mergeCell ref="C172:D172"/>
+    <mergeCell ref="C173:D173"/>
+    <mergeCell ref="C174:D174"/>
+    <mergeCell ref="C175:D175"/>
+    <mergeCell ref="C176:D176"/>
+    <mergeCell ref="C177:D177"/>
+    <mergeCell ref="C178:D178"/>
+    <mergeCell ref="C179:D179"/>
+    <mergeCell ref="C180:D180"/>
+    <mergeCell ref="C181:D181"/>
+    <mergeCell ref="C182:D182"/>
+    <mergeCell ref="C183:D183"/>
+    <mergeCell ref="C184:D184"/>
+    <mergeCell ref="C185:D185"/>
+    <mergeCell ref="C186:D186"/>
+    <mergeCell ref="C187:D187"/>
+    <mergeCell ref="C188:D188"/>
+    <mergeCell ref="C189:D189"/>
+    <mergeCell ref="C190:D190"/>
+    <mergeCell ref="C191:D191"/>
+    <mergeCell ref="C192:D192"/>
+    <mergeCell ref="C193:D193"/>
+    <mergeCell ref="C194:D194"/>
+    <mergeCell ref="C195:D195"/>
+    <mergeCell ref="C196:D196"/>
+    <mergeCell ref="C197:D197"/>
+    <mergeCell ref="C198:D198"/>
+    <mergeCell ref="C199:D199"/>
+    <mergeCell ref="C200:D200"/>
+    <mergeCell ref="C201:D201"/>
+    <mergeCell ref="C202:D202"/>
+    <mergeCell ref="C203:D203"/>
+    <mergeCell ref="C204:D204"/>
+    <mergeCell ref="C205:D205"/>
+    <mergeCell ref="C206:D206"/>
+    <mergeCell ref="C207:D207"/>
+    <mergeCell ref="C208:D208"/>
+    <mergeCell ref="C209:D209"/>
+    <mergeCell ref="C210:D210"/>
+    <mergeCell ref="C211:D211"/>
+    <mergeCell ref="C212:D212"/>
+    <mergeCell ref="C213:D213"/>
+    <mergeCell ref="C214:D214"/>
+    <mergeCell ref="C215:D215"/>
+    <mergeCell ref="C216:D216"/>
+    <mergeCell ref="C217:D217"/>
+    <mergeCell ref="C218:D218"/>
+    <mergeCell ref="C219:D219"/>
+    <mergeCell ref="C220:D220"/>
+    <mergeCell ref="C221:D221"/>
+    <mergeCell ref="C222:D222"/>
+    <mergeCell ref="C223:D223"/>
+    <mergeCell ref="C224:D224"/>
+    <mergeCell ref="C225:D225"/>
+    <mergeCell ref="C226:D226"/>
+    <mergeCell ref="C227:D227"/>
+    <mergeCell ref="C228:D228"/>
+    <mergeCell ref="C229:D229"/>
+    <mergeCell ref="C230:D230"/>
+    <mergeCell ref="C231:D231"/>
+    <mergeCell ref="C232:D232"/>
+    <mergeCell ref="C233:D233"/>
+    <mergeCell ref="C234:D234"/>
+    <mergeCell ref="C235:D235"/>
+    <mergeCell ref="C236:D236"/>
+    <mergeCell ref="C237:D237"/>
+    <mergeCell ref="C238:D238"/>
+    <mergeCell ref="C239:D239"/>
+    <mergeCell ref="C240:D240"/>
+    <mergeCell ref="C241:D241"/>
+    <mergeCell ref="C242:D242"/>
+    <mergeCell ref="C243:D243"/>
+    <mergeCell ref="C244:D244"/>
+    <mergeCell ref="C245:D245"/>
+    <mergeCell ref="C246:D246"/>
+    <mergeCell ref="C256:D256"/>
+    <mergeCell ref="C257:D257"/>
+    <mergeCell ref="C247:D247"/>
+    <mergeCell ref="C248:D248"/>
+    <mergeCell ref="C249:D249"/>
+    <mergeCell ref="C250:D250"/>
+    <mergeCell ref="C251:D251"/>
+    <mergeCell ref="C252:D252"/>
+    <mergeCell ref="C253:D253"/>
+    <mergeCell ref="C254:D254"/>
+    <mergeCell ref="C255:D255"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -23122,17 +24469,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="34" t="s">
         <v>226</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32" t="s">
+      <c r="B1" s="34"/>
+      <c r="C1" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="D1" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="32"/>
+      <c r="E1" s="34"/>
       <c r="F1" s="16" t="s">
         <v>3</v>
       </c>
@@ -23141,11 +24488,11 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A2" s="32"/>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
+      <c r="A2" s="34"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
       <c r="F2" s="16" t="s">
         <v>4</v>
       </c>
@@ -23164,10 +24511,10 @@
       <c r="B4" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="33" t="s">
+      <c r="C4" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="33"/>
+      <c r="D4" s="35"/>
       <c r="E4" s="14" t="s">
         <v>11</v>
       </c>
@@ -23194,10 +24541,10 @@
       <c r="B5" s="15" t="s">
         <v>224</v>
       </c>
-      <c r="C5" s="35" t="s">
+      <c r="C5" s="33" t="s">
         <v>225</v>
       </c>
-      <c r="D5" s="35"/>
+      <c r="D5" s="33"/>
       <c r="E5" s="15" t="s">
         <v>204</v>
       </c>
@@ -23209,10 +24556,10 @@
       <c r="B6" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="35" t="s">
+      <c r="C6" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="35"/>
+      <c r="D6" s="33"/>
       <c r="E6" s="15" t="s">
         <v>120</v>
       </c>
@@ -23254,7 +24601,7 @@
       <c r="B9" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="29" t="s">
+      <c r="C9" s="31" t="s">
         <v>20</v>
       </c>
       <c r="D9" s="30"/>
@@ -23269,7 +24616,7 @@
       <c r="B10" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="29" t="s">
+      <c r="C10" s="31" t="s">
         <v>19</v>
       </c>
       <c r="D10" s="30"/>
@@ -23284,7 +24631,7 @@
       <c r="B11" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="29" t="s">
+      <c r="C11" s="31" t="s">
         <v>22</v>
       </c>
       <c r="D11" s="30"/>
@@ -23299,7 +24646,7 @@
       <c r="B12" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="29" t="s">
+      <c r="C12" s="31" t="s">
         <v>23</v>
       </c>
       <c r="D12" s="30"/>
@@ -23314,7 +24661,7 @@
       <c r="B13" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="29" t="s">
+      <c r="C13" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D13" s="30"/>
@@ -23329,7 +24676,7 @@
       <c r="B14" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="29" t="s">
+      <c r="C14" s="31" t="s">
         <v>136</v>
       </c>
       <c r="D14" s="30"/>
@@ -23344,7 +24691,7 @@
       <c r="B15" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="29" t="s">
+      <c r="C15" s="31" t="s">
         <v>24</v>
       </c>
       <c r="D15" s="30"/>
@@ -23359,7 +24706,7 @@
       <c r="B16" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="29" t="s">
+      <c r="C16" s="31" t="s">
         <v>25</v>
       </c>
       <c r="D16" s="30"/>
@@ -23374,7 +24721,7 @@
       <c r="B17" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="29" t="s">
+      <c r="C17" s="31" t="s">
         <v>26</v>
       </c>
       <c r="D17" s="30"/>
@@ -23389,7 +24736,7 @@
       <c r="B18" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="29" t="s">
+      <c r="C18" s="31" t="s">
         <v>134</v>
       </c>
       <c r="D18" s="30"/>
@@ -23404,7 +24751,7 @@
       <c r="B19" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="29" t="s">
+      <c r="C19" s="31" t="s">
         <v>29</v>
       </c>
       <c r="D19" s="30"/>
@@ -23419,7 +24766,7 @@
       <c r="B20" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="29" t="s">
+      <c r="C20" s="31" t="s">
         <v>32</v>
       </c>
       <c r="D20" s="30"/>
@@ -23434,7 +24781,7 @@
       <c r="B21" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="29" t="s">
+      <c r="C21" s="31" t="s">
         <v>127</v>
       </c>
       <c r="D21" s="30"/>
@@ -23449,10 +24796,10 @@
       <c r="B22" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="29" t="s">
+      <c r="C22" s="31" t="s">
         <v>128</v>
       </c>
-      <c r="D22" s="29"/>
+      <c r="D22" s="31"/>
       <c r="E22" s="15" t="s">
         <v>122</v>
       </c>
@@ -23464,7 +24811,7 @@
       <c r="B23" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C23" s="29" t="s">
+      <c r="C23" s="31" t="s">
         <v>36</v>
       </c>
       <c r="D23" s="30"/>
@@ -23479,7 +24826,7 @@
       <c r="B24" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C24" s="29" t="s">
+      <c r="C24" s="31" t="s">
         <v>37</v>
       </c>
       <c r="D24" s="30"/>
@@ -23494,7 +24841,7 @@
       <c r="B25" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C25" s="29" t="s">
+      <c r="C25" s="31" t="s">
         <v>38</v>
       </c>
       <c r="D25" s="30"/>
@@ -23509,7 +24856,7 @@
       <c r="B26" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C26" s="29" t="s">
+      <c r="C26" s="31" t="s">
         <v>125</v>
       </c>
       <c r="D26" s="30"/>
@@ -23524,10 +24871,10 @@
       <c r="B27" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C27" s="29" t="s">
+      <c r="C27" s="31" t="s">
         <v>126</v>
       </c>
-      <c r="D27" s="29"/>
+      <c r="D27" s="31"/>
       <c r="E27" s="15" t="s">
         <v>167</v>
       </c>
@@ -23539,10 +24886,10 @@
       <c r="B28" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C28" s="29" t="s">
+      <c r="C28" s="31" t="s">
         <v>140</v>
       </c>
-      <c r="D28" s="29"/>
+      <c r="D28" s="31"/>
       <c r="E28" s="15" t="s">
         <v>122</v>
       </c>
@@ -23554,10 +24901,10 @@
       <c r="B29" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C29" s="29" t="s">
+      <c r="C29" s="31" t="s">
         <v>137</v>
       </c>
-      <c r="D29" s="29"/>
+      <c r="D29" s="31"/>
       <c r="E29" s="15" t="s">
         <v>167</v>
       </c>
@@ -23569,7 +24916,7 @@
       <c r="B30" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C30" s="29" t="s">
+      <c r="C30" s="31" t="s">
         <v>42</v>
       </c>
       <c r="D30" s="30"/>
@@ -23584,7 +24931,7 @@
       <c r="B31" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C31" s="29" t="s">
+      <c r="C31" s="31" t="s">
         <v>43</v>
       </c>
       <c r="D31" s="30"/>
@@ -23599,7 +24946,7 @@
       <c r="B32" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C32" s="29" t="s">
+      <c r="C32" s="31" t="s">
         <v>44</v>
       </c>
       <c r="D32" s="30"/>
@@ -23614,7 +24961,7 @@
       <c r="B33" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C33" s="29" t="s">
+      <c r="C33" s="31" t="s">
         <v>148</v>
       </c>
       <c r="D33" s="30"/>
@@ -23629,10 +24976,10 @@
       <c r="B34" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C34" s="29" t="s">
+      <c r="C34" s="31" t="s">
         <v>141</v>
       </c>
-      <c r="D34" s="29"/>
+      <c r="D34" s="31"/>
       <c r="E34" s="15" t="s">
         <v>122</v>
       </c>
@@ -23644,7 +24991,7 @@
       <c r="B35" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C35" s="29" t="s">
+      <c r="C35" s="31" t="s">
         <v>45</v>
       </c>
       <c r="D35" s="30"/>
@@ -23659,7 +25006,7 @@
       <c r="B36" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C36" s="29" t="s">
+      <c r="C36" s="31" t="s">
         <v>46</v>
       </c>
       <c r="D36" s="30"/>
@@ -23674,7 +25021,7 @@
       <c r="B37" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C37" s="29" t="s">
+      <c r="C37" s="31" t="s">
         <v>47</v>
       </c>
       <c r="D37" s="30"/>
@@ -23689,7 +25036,7 @@
       <c r="B38" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C38" s="29" t="s">
+      <c r="C38" s="31" t="s">
         <v>149</v>
       </c>
       <c r="D38" s="30"/>
@@ -23704,10 +25051,10 @@
       <c r="B39" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C39" s="29" t="s">
+      <c r="C39" s="31" t="s">
         <v>142</v>
       </c>
-      <c r="D39" s="29"/>
+      <c r="D39" s="31"/>
       <c r="E39" s="15" t="s">
         <v>122</v>
       </c>
@@ -23719,7 +25066,7 @@
       <c r="B40" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C40" s="29" t="s">
+      <c r="C40" s="31" t="s">
         <v>48</v>
       </c>
       <c r="D40" s="30"/>
@@ -23734,7 +25081,7 @@
       <c r="B41" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C41" s="29" t="s">
+      <c r="C41" s="31" t="s">
         <v>105</v>
       </c>
       <c r="D41" s="30"/>
@@ -23749,7 +25096,7 @@
       <c r="B42" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C42" s="29" t="s">
+      <c r="C42" s="31" t="s">
         <v>106</v>
       </c>
       <c r="D42" s="30"/>
@@ -23764,7 +25111,7 @@
       <c r="B43" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C43" s="29" t="s">
+      <c r="C43" s="31" t="s">
         <v>109</v>
       </c>
       <c r="D43" s="30"/>
@@ -23779,7 +25126,7 @@
       <c r="B44" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C44" s="29" t="s">
+      <c r="C44" s="31" t="s">
         <v>110</v>
       </c>
       <c r="D44" s="30"/>
@@ -23794,7 +25141,7 @@
       <c r="B45" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C45" s="29" t="s">
+      <c r="C45" s="31" t="s">
         <v>111</v>
       </c>
       <c r="D45" s="30"/>
@@ -23809,7 +25156,7 @@
       <c r="B46" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C46" s="29" t="s">
+      <c r="C46" s="31" t="s">
         <v>116</v>
       </c>
       <c r="D46" s="30"/>
@@ -23824,7 +25171,7 @@
       <c r="B47" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C47" s="29" t="s">
+      <c r="C47" s="31" t="s">
         <v>117</v>
       </c>
       <c r="D47" s="30"/>
@@ -23839,7 +25186,7 @@
       <c r="B48" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C48" s="29" t="s">
+      <c r="C48" s="31" t="s">
         <v>118</v>
       </c>
       <c r="D48" s="30"/>
@@ -23854,7 +25201,7 @@
       <c r="B49" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C49" s="29" t="s">
+      <c r="C49" s="31" t="s">
         <v>172</v>
       </c>
       <c r="D49" s="30"/>
@@ -23869,7 +25216,7 @@
       <c r="B50" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C50" s="29" t="s">
+      <c r="C50" s="31" t="s">
         <v>173</v>
       </c>
       <c r="D50" s="30"/>
@@ -23884,7 +25231,7 @@
       <c r="B51" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C51" s="29" t="s">
+      <c r="C51" s="31" t="s">
         <v>143</v>
       </c>
       <c r="D51" s="30"/>
@@ -23899,7 +25246,7 @@
       <c r="B52" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C52" s="29" t="s">
+      <c r="C52" s="31" t="s">
         <v>144</v>
       </c>
       <c r="D52" s="30"/>
@@ -23914,7 +25261,7 @@
       <c r="B53" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C53" s="29" t="s">
+      <c r="C53" s="31" t="s">
         <v>146</v>
       </c>
       <c r="D53" s="30"/>
@@ -23929,7 +25276,7 @@
       <c r="B54" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C54" s="29" t="s">
+      <c r="C54" s="31" t="s">
         <v>150</v>
       </c>
       <c r="D54" s="30"/>
@@ -23944,7 +25291,7 @@
       <c r="B55" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C55" s="29" t="s">
+      <c r="C55" s="31" t="s">
         <v>174</v>
       </c>
       <c r="D55" s="30"/>
@@ -23959,7 +25306,7 @@
       <c r="B56" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C56" s="29" t="s">
+      <c r="C56" s="31" t="s">
         <v>175</v>
       </c>
       <c r="D56" s="30"/>
@@ -24386,6 +25733,123 @@
     </row>
   </sheetData>
   <mergeCells count="141">
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:E2"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="C97:D97"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="C90:D90"/>
+    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="C104:D104"/>
+    <mergeCell ref="C105:D105"/>
+    <mergeCell ref="C106:D106"/>
+    <mergeCell ref="C107:D107"/>
+    <mergeCell ref="C108:D108"/>
+    <mergeCell ref="C109:D109"/>
+    <mergeCell ref="C98:D98"/>
+    <mergeCell ref="C99:D99"/>
+    <mergeCell ref="C100:D100"/>
+    <mergeCell ref="C101:D101"/>
+    <mergeCell ref="C102:D102"/>
+    <mergeCell ref="C103:D103"/>
+    <mergeCell ref="C119:D119"/>
+    <mergeCell ref="C120:D120"/>
+    <mergeCell ref="C121:D121"/>
+    <mergeCell ref="C110:D110"/>
+    <mergeCell ref="C111:D111"/>
+    <mergeCell ref="C112:D112"/>
+    <mergeCell ref="C113:D113"/>
+    <mergeCell ref="C114:D114"/>
+    <mergeCell ref="C115:D115"/>
     <mergeCell ref="C140:D140"/>
     <mergeCell ref="C141:D141"/>
     <mergeCell ref="C5:D5"/>
@@ -24410,123 +25874,6 @@
     <mergeCell ref="C116:D116"/>
     <mergeCell ref="C117:D117"/>
     <mergeCell ref="C118:D118"/>
-    <mergeCell ref="C119:D119"/>
-    <mergeCell ref="C120:D120"/>
-    <mergeCell ref="C121:D121"/>
-    <mergeCell ref="C110:D110"/>
-    <mergeCell ref="C111:D111"/>
-    <mergeCell ref="C112:D112"/>
-    <mergeCell ref="C113:D113"/>
-    <mergeCell ref="C114:D114"/>
-    <mergeCell ref="C115:D115"/>
-    <mergeCell ref="C104:D104"/>
-    <mergeCell ref="C105:D105"/>
-    <mergeCell ref="C106:D106"/>
-    <mergeCell ref="C107:D107"/>
-    <mergeCell ref="C108:D108"/>
-    <mergeCell ref="C109:D109"/>
-    <mergeCell ref="C98:D98"/>
-    <mergeCell ref="C99:D99"/>
-    <mergeCell ref="C100:D100"/>
-    <mergeCell ref="C101:D101"/>
-    <mergeCell ref="C102:D102"/>
-    <mergeCell ref="C103:D103"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="C96:D96"/>
-    <mergeCell ref="C97:D97"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="C89:D89"/>
-    <mergeCell ref="C90:D90"/>
-    <mergeCell ref="C91:D91"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:E2"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
